--- a/datacovidChile/IndicadoresEconomicos/UF_IVP_DIARIO.xlsx
+++ b/datacovidChile/IndicadoresEconomicos/UF_IVP_DIARIO.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9f999e057ad8c646/CORONA VIRUS/DATACOVID CL/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9f999e057ad8c646/CORONA VIRUS/DATACOVID CL/IndicadoresEconomicos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{B781258F-FBE4-4A55-9AD8-551312527B7C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{1F39DBC5-E6B2-4B6E-9814-B5D236395D0A}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{B781258F-FBE4-4A55-9AD8-551312527B7C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{4C680493-A3B0-4FF5-A1BD-87011C2C4537}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UF_IVP_DIARIO" sheetId="1" r:id="rId1"/>
@@ -926,13 +926,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C559"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A545" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25.109375" bestFit="1" customWidth="1"/>
   </cols>

--- a/datacovidChile/IndicadoresEconomicos/UF_IVP_DIARIO.xlsx
+++ b/datacovidChile/IndicadoresEconomicos/UF_IVP_DIARIO.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9f999e057ad8c646/CORONA VIRUS/DATACOVID CL/IndicadoresEconomicos/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\reyes.rodriguezucv@gmail.com\OneDrive\Proyectos\Data intelligence\Covid-19\Chile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{B781258F-FBE4-4A55-9AD8-551312527B7C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{4C680493-A3B0-4FF5-A1BD-87011C2C4537}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{09248BB8-9CE4-4580-84DA-AF69B8E47965}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176"/>
   </bookViews>
   <sheets>
     <sheet name="UF_IVP_DIARIO" sheetId="1" r:id="rId1"/>
@@ -23,12 +23,12 @@
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{73B9D6A3-0CAC-457C-8BDF-F5AB3C6EB398}" odcFile="E:\Comunicaciones REDD Dropbox\DI International\CORONAVIRUS\COVID_CL\Indicadores_Economicos_Chile_Reyes\UF_IVP_DIARIO.iqy" interval="60" name="UF_IVP_DIARIO" type="4" refreshedVersion="6" background="1" refreshOnLoad="1" saveData="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <connection id="1" odcFile="D:\reyes.rodriguezucv@gmail.com\OneDrive\Proyectos\Data intelligence\Covid-19\Chile\UF_IVP_DIARIO.iqy" name="UF_IVP_DIARIO" type="4" refreshedVersion="6" background="1" saveData="1">
     <webPr consecutive="1" xl2000="1" url="http://si3.bcentral.cl/SieteIQY/secure/carga_series_excel.aspx" post="fechaInicio=[&quot;añoInicial&quot;,&quot;Año inicial&quot;]&amp;fechaFin=[&quot;añoFinal&quot;,&quot;Año final&quot;]&amp;param=dGZNYkFkUTNSN1dvM0MxWiZuR2Ijc0dGS3ctTm0mUVREenEuWiZiYV9kUXdXbUNNNXMtX0Yta3dqZSY0T0ZGSW4xekswak9ZbjZVR2IgWHAgN2VOQ1pHTkc5TjI2bzIxIExUMTIyJCZ0YVNTNEViOWRoNEIjdlpzbkRNbFdrWi5WSk9IODlubWppT1ZyU2k2a3g5NlhKIF8xIGpMRnJqX3QgKHZrKTtnOHNFdDUxaFdJcFkkU0JxQ3ljUFpoZ0lLYTVQeTJINTckdThoNDUgdl8gZ3ZOd24gMnYjc0x3TksgKDhKYSk=" htmlTables="1" htmlFormat="all"/>
     <parameters count="2">
-      <parameter name="añoInicial" parameterType="value" string="2019"/>
-      <parameter name="añoFinal" parameterType="value" string="2020"/>
+      <parameter name="añoInicial" prompt="Año inicial"/>
+      <parameter name="añoFinal" prompt="Año final"/>
     </parameters>
   </connection>
 </connections>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -553,14 +553,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -624,7 +624,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="UF_IVP_DIARIO" refreshOnLoad="1" preserveFormatting="0" connectionId="1" xr16:uid="{00000000-0016-0000-0000-000000000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="UF_IVP_DIARIO" preserveFormatting="0" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -923,11 +923,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C559"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -937,6146 +937,6146 @@
     <col min="3" max="3" width="25.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
     </row>
-    <row r="2" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
+      <c r="A4" s="3">
         <v>43466</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="4">
         <v>27565.79</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="4">
         <v>28685.79</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
+      <c r="A5" s="3">
         <v>43467</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="4">
         <v>27565.79</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="4">
         <v>28687.87</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
+      <c r="A6" s="3">
         <v>43468</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="4">
         <v>27565.79</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="4">
         <v>28689.96</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
+      <c r="A7" s="3">
         <v>43469</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="4">
         <v>27565.79</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="4">
         <v>28692.04</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
+      <c r="A8" s="3">
         <v>43470</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="4">
         <v>27565.79</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="4">
         <v>28694.13</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="2">
+      <c r="A9" s="3">
         <v>43471</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="4">
         <v>27565.79</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="4">
         <v>28696.22</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="2">
+      <c r="A10" s="3">
         <v>43472</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="4">
         <v>27565.79</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="4">
         <v>28698.3</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="2">
+      <c r="A11" s="3">
         <v>43473</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="4">
         <v>27565.79</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="4">
         <v>28700.39</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="2">
+      <c r="A12" s="3">
         <v>43474</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="4">
         <v>27565.79</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="4">
         <v>28702.47</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="2">
+      <c r="A13" s="3">
         <v>43475</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="4">
         <v>27564.9</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="4">
         <v>28704.23</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="2">
+      <c r="A14" s="3">
         <v>43476</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="4">
         <v>27564.01</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="4">
         <v>28705.99</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="2">
+      <c r="A15" s="3">
         <v>43477</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="4">
         <v>27563.119999999999</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="4">
         <v>28707.75</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="2">
+      <c r="A16" s="3">
         <v>43478</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16" s="4">
         <v>27562.23</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="4">
         <v>28709.51</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="2">
+      <c r="A17" s="3">
         <v>43479</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17" s="4">
         <v>27561.34</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="4">
         <v>28711.27</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="2">
+      <c r="A18" s="3">
         <v>43480</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B18" s="4">
         <v>27560.45</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="4">
         <v>28713.03</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="2">
+      <c r="A19" s="3">
         <v>43481</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B19" s="4">
         <v>27559.56</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19" s="4">
         <v>28714.79</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="2">
+      <c r="A20" s="3">
         <v>43482</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B20" s="4">
         <v>27558.67</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20" s="4">
         <v>28716.55</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="2">
+      <c r="A21" s="3">
         <v>43483</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B21" s="4">
         <v>27557.78</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C21" s="4">
         <v>28718.31</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="2">
+      <c r="A22" s="3">
         <v>43484</v>
       </c>
-      <c r="B22" s="3">
+      <c r="B22" s="4">
         <v>27556.89</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C22" s="4">
         <v>28720.07</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="2">
+      <c r="A23" s="3">
         <v>43485</v>
       </c>
-      <c r="B23" s="3">
+      <c r="B23" s="4">
         <v>27556.01</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C23" s="4">
         <v>28721.83</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="2">
+      <c r="A24" s="3">
         <v>43486</v>
       </c>
-      <c r="B24" s="3">
+      <c r="B24" s="4">
         <v>27555.119999999999</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C24" s="4">
         <v>28723.599999999999</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="2">
+      <c r="A25" s="3">
         <v>43487</v>
       </c>
-      <c r="B25" s="3">
+      <c r="B25" s="4">
         <v>27554.23</v>
       </c>
-      <c r="C25" s="3">
+      <c r="C25" s="4">
         <v>28725.360000000001</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="2">
+      <c r="A26" s="3">
         <v>43488</v>
       </c>
-      <c r="B26" s="3">
+      <c r="B26" s="4">
         <v>27553.34</v>
       </c>
-      <c r="C26" s="3">
+      <c r="C26" s="4">
         <v>28727.119999999999</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="2">
+      <c r="A27" s="3">
         <v>43489</v>
       </c>
-      <c r="B27" s="3">
+      <c r="B27" s="4">
         <v>27552.45</v>
       </c>
-      <c r="C27" s="3">
+      <c r="C27" s="4">
         <v>28728.880000000001</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="2">
+      <c r="A28" s="3">
         <v>43490</v>
       </c>
-      <c r="B28" s="3">
+      <c r="B28" s="4">
         <v>27551.56</v>
       </c>
-      <c r="C28" s="3">
+      <c r="C28" s="4">
         <v>28730.639999999999</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="2">
+      <c r="A29" s="3">
         <v>43491</v>
       </c>
-      <c r="B29" s="3">
+      <c r="B29" s="4">
         <v>27550.67</v>
       </c>
-      <c r="C29" s="3">
+      <c r="C29" s="4">
         <v>28732.400000000001</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="2">
+      <c r="A30" s="3">
         <v>43492</v>
       </c>
-      <c r="B30" s="3">
+      <c r="B30" s="4">
         <v>27549.78</v>
       </c>
-      <c r="C30" s="3">
+      <c r="C30" s="4">
         <v>28734.16</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="2">
+      <c r="A31" s="3">
         <v>43493</v>
       </c>
-      <c r="B31" s="3">
+      <c r="B31" s="4">
         <v>27548.89</v>
       </c>
-      <c r="C31" s="3">
+      <c r="C31" s="4">
         <v>28735.93</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="2">
+      <c r="A32" s="3">
         <v>43494</v>
       </c>
-      <c r="B32" s="3">
+      <c r="B32" s="4">
         <v>27548</v>
       </c>
-      <c r="C32" s="3">
+      <c r="C32" s="4">
         <v>28737.69</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="2">
+      <c r="A33" s="3">
         <v>43495</v>
       </c>
-      <c r="B33" s="3">
+      <c r="B33" s="4">
         <v>27547.11</v>
       </c>
-      <c r="C33" s="3">
+      <c r="C33" s="4">
         <v>28739.45</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="2">
+      <c r="A34" s="3">
         <v>43496</v>
       </c>
-      <c r="B34" s="3">
+      <c r="B34" s="4">
         <v>27546.22</v>
       </c>
-      <c r="C34" s="3">
+      <c r="C34" s="4">
         <v>28741.21</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="2">
+      <c r="A35" s="3">
         <v>43497</v>
       </c>
-      <c r="B35" s="3">
+      <c r="B35" s="4">
         <v>27545.34</v>
       </c>
-      <c r="C35" s="3">
+      <c r="C35" s="4">
         <v>28742.97</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="2">
+      <c r="A36" s="3">
         <v>43498</v>
       </c>
-      <c r="B36" s="3">
+      <c r="B36" s="4">
         <v>27544.45</v>
       </c>
-      <c r="C36" s="3">
+      <c r="C36" s="4">
         <v>28744.74</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="2">
+      <c r="A37" s="3">
         <v>43499</v>
       </c>
-      <c r="B37" s="3">
+      <c r="B37" s="4">
         <v>27543.56</v>
       </c>
-      <c r="C37" s="3">
+      <c r="C37" s="4">
         <v>28746.5</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" s="2">
+      <c r="A38" s="3">
         <v>43500</v>
       </c>
-      <c r="B38" s="3">
+      <c r="B38" s="4">
         <v>27542.67</v>
       </c>
-      <c r="C38" s="3">
+      <c r="C38" s="4">
         <v>28748.26</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" s="2">
+      <c r="A39" s="3">
         <v>43501</v>
       </c>
-      <c r="B39" s="3">
+      <c r="B39" s="4">
         <v>27541.78</v>
       </c>
-      <c r="C39" s="3">
+      <c r="C39" s="4">
         <v>28750.02</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" s="2">
+      <c r="A40" s="3">
         <v>43502</v>
       </c>
-      <c r="B40" s="3">
+      <c r="B40" s="4">
         <v>27540.89</v>
       </c>
-      <c r="C40" s="3">
+      <c r="C40" s="4">
         <v>28751.79</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" s="2">
+      <c r="A41" s="3">
         <v>43503</v>
       </c>
-      <c r="B41" s="3">
+      <c r="B41" s="4">
         <v>27540</v>
       </c>
-      <c r="C41" s="3">
+      <c r="C41" s="4">
         <v>28753.55</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42" s="2">
+      <c r="A42" s="3">
         <v>43504</v>
       </c>
-      <c r="B42" s="3">
+      <c r="B42" s="4">
         <v>27539.11</v>
       </c>
-      <c r="C42" s="3">
+      <c r="C42" s="4">
         <v>28755.31</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43" s="2">
+      <c r="A43" s="3">
         <v>43505</v>
       </c>
-      <c r="B43" s="3">
+      <c r="B43" s="4">
         <v>27538.22</v>
       </c>
-      <c r="C43" s="3">
+      <c r="C43" s="4">
         <v>28757.08</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44" s="2">
+      <c r="A44" s="3">
         <v>43506</v>
       </c>
-      <c r="B44" s="3">
+      <c r="B44" s="4">
         <v>27539.200000000001</v>
       </c>
-      <c r="C44" s="3">
+      <c r="C44" s="4">
         <v>28758.47</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45" s="2">
+      <c r="A45" s="3">
         <v>43507</v>
       </c>
-      <c r="B45" s="3">
+      <c r="B45" s="4">
         <v>27540.19</v>
       </c>
-      <c r="C45" s="3">
+      <c r="C45" s="4">
         <v>28759.85</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46" s="2">
+      <c r="A46" s="3">
         <v>43508</v>
       </c>
-      <c r="B46" s="3">
+      <c r="B46" s="4">
         <v>27541.17</v>
       </c>
-      <c r="C46" s="3">
+      <c r="C46" s="4">
         <v>28761.24</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A47" s="2">
+      <c r="A47" s="3">
         <v>43509</v>
       </c>
-      <c r="B47" s="3">
+      <c r="B47" s="4">
         <v>27542.15</v>
       </c>
-      <c r="C47" s="3">
+      <c r="C47" s="4">
         <v>28762.63</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A48" s="2">
+      <c r="A48" s="3">
         <v>43510</v>
       </c>
-      <c r="B48" s="3">
+      <c r="B48" s="4">
         <v>27543.14</v>
       </c>
-      <c r="C48" s="3">
+      <c r="C48" s="4">
         <v>28764.01</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A49" s="2">
+      <c r="A49" s="3">
         <v>43511</v>
       </c>
-      <c r="B49" s="3">
+      <c r="B49" s="4">
         <v>27544.12</v>
       </c>
-      <c r="C49" s="3">
+      <c r="C49" s="4">
         <v>28765.4</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A50" s="2">
+      <c r="A50" s="3">
         <v>43512</v>
       </c>
-      <c r="B50" s="3">
+      <c r="B50" s="4">
         <v>27545.1</v>
       </c>
-      <c r="C50" s="3">
+      <c r="C50" s="4">
         <v>28766.79</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A51" s="2">
+      <c r="A51" s="3">
         <v>43513</v>
       </c>
-      <c r="B51" s="3">
+      <c r="B51" s="4">
         <v>27546.09</v>
       </c>
-      <c r="C51" s="3">
+      <c r="C51" s="4">
         <v>28768.18</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A52" s="2">
+      <c r="A52" s="3">
         <v>43514</v>
       </c>
-      <c r="B52" s="3">
+      <c r="B52" s="4">
         <v>27547.07</v>
       </c>
-      <c r="C52" s="3">
+      <c r="C52" s="4">
         <v>28769.56</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A53" s="2">
+      <c r="A53" s="3">
         <v>43515</v>
       </c>
-      <c r="B53" s="3">
+      <c r="B53" s="4">
         <v>27548.05</v>
       </c>
-      <c r="C53" s="3">
+      <c r="C53" s="4">
         <v>28770.95</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A54" s="2">
+      <c r="A54" s="3">
         <v>43516</v>
       </c>
-      <c r="B54" s="3">
+      <c r="B54" s="4">
         <v>27549.040000000001</v>
       </c>
-      <c r="C54" s="3">
+      <c r="C54" s="4">
         <v>28772.34</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A55" s="2">
+      <c r="A55" s="3">
         <v>43517</v>
       </c>
-      <c r="B55" s="3">
+      <c r="B55" s="4">
         <v>27550.02</v>
       </c>
-      <c r="C55" s="3">
+      <c r="C55" s="4">
         <v>28773.73</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A56" s="2">
+      <c r="A56" s="3">
         <v>43518</v>
       </c>
-      <c r="B56" s="3">
+      <c r="B56" s="4">
         <v>27551</v>
       </c>
-      <c r="C56" s="3">
+      <c r="C56" s="4">
         <v>28775.11</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A57" s="2">
+      <c r="A57" s="3">
         <v>43519</v>
       </c>
-      <c r="B57" s="3">
+      <c r="B57" s="4">
         <v>27551.99</v>
       </c>
-      <c r="C57" s="3">
+      <c r="C57" s="4">
         <v>28776.5</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A58" s="2">
+      <c r="A58" s="3">
         <v>43520</v>
       </c>
-      <c r="B58" s="3">
+      <c r="B58" s="4">
         <v>27552.97</v>
       </c>
-      <c r="C58" s="3">
+      <c r="C58" s="4">
         <v>28777.89</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A59" s="2">
+      <c r="A59" s="3">
         <v>43521</v>
       </c>
-      <c r="B59" s="3">
+      <c r="B59" s="4">
         <v>27553.95</v>
       </c>
-      <c r="C59" s="3">
+      <c r="C59" s="4">
         <v>28779.279999999999</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A60" s="2">
+      <c r="A60" s="3">
         <v>43522</v>
       </c>
-      <c r="B60" s="3">
+      <c r="B60" s="4">
         <v>27554.94</v>
       </c>
-      <c r="C60" s="3">
+      <c r="C60" s="4">
         <v>28780.66</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A61" s="2">
+      <c r="A61" s="3">
         <v>43523</v>
       </c>
-      <c r="B61" s="3">
+      <c r="B61" s="4">
         <v>27555.919999999998</v>
       </c>
-      <c r="C61" s="3">
+      <c r="C61" s="4">
         <v>28782.05</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A62" s="2">
+      <c r="A62" s="3">
         <v>43524</v>
       </c>
-      <c r="B62" s="3">
+      <c r="B62" s="4">
         <v>27556.9</v>
       </c>
-      <c r="C62" s="3">
+      <c r="C62" s="4">
         <v>28783.439999999999</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A63" s="2">
+      <c r="A63" s="3">
         <v>43525</v>
       </c>
-      <c r="B63" s="3">
+      <c r="B63" s="4">
         <v>27557.89</v>
       </c>
-      <c r="C63" s="3">
+      <c r="C63" s="4">
         <v>28784.83</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A64" s="2">
+      <c r="A64" s="3">
         <v>43526</v>
       </c>
-      <c r="B64" s="3">
+      <c r="B64" s="4">
         <v>27558.87</v>
       </c>
-      <c r="C64" s="3">
+      <c r="C64" s="4">
         <v>28786.22</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A65" s="2">
+      <c r="A65" s="3">
         <v>43527</v>
       </c>
-      <c r="B65" s="3">
+      <c r="B65" s="4">
         <v>27559.85</v>
       </c>
-      <c r="C65" s="3">
+      <c r="C65" s="4">
         <v>28787.599999999999</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A66" s="2">
+      <c r="A66" s="3">
         <v>43528</v>
       </c>
-      <c r="B66" s="3">
+      <c r="B66" s="4">
         <v>27560.84</v>
       </c>
-      <c r="C66" s="3">
+      <c r="C66" s="4">
         <v>28788.99</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A67" s="2">
+      <c r="A67" s="3">
         <v>43529</v>
       </c>
-      <c r="B67" s="3">
+      <c r="B67" s="4">
         <v>27561.82</v>
       </c>
-      <c r="C67" s="3">
+      <c r="C67" s="4">
         <v>28790.38</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A68" s="2">
+      <c r="A68" s="3">
         <v>43530</v>
       </c>
-      <c r="B68" s="3">
+      <c r="B68" s="4">
         <v>27562.81</v>
       </c>
-      <c r="C68" s="3">
+      <c r="C68" s="4">
         <v>28791.77</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A69" s="2">
+      <c r="A69" s="3">
         <v>43531</v>
       </c>
-      <c r="B69" s="3">
+      <c r="B69" s="4">
         <v>27563.79</v>
       </c>
-      <c r="C69" s="3">
+      <c r="C69" s="4">
         <v>28793.16</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A70" s="2">
+      <c r="A70" s="3">
         <v>43532</v>
       </c>
-      <c r="B70" s="3">
+      <c r="B70" s="4">
         <v>27564.77</v>
       </c>
-      <c r="C70" s="3">
+      <c r="C70" s="4">
         <v>28794.55</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A71" s="2">
+      <c r="A71" s="3">
         <v>43533</v>
       </c>
-      <c r="B71" s="3">
+      <c r="B71" s="4">
         <v>27565.759999999998</v>
       </c>
-      <c r="C71" s="3">
+      <c r="C71" s="4">
         <v>28795.94</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A72" s="2">
+      <c r="A72" s="3">
         <v>43534</v>
       </c>
-      <c r="B72" s="3">
+      <c r="B72" s="4">
         <v>27565.759999999998</v>
       </c>
-      <c r="C72" s="3">
+      <c r="C72" s="4">
         <v>28797.13</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A73" s="2">
+      <c r="A73" s="3">
         <v>43535</v>
       </c>
-      <c r="B73" s="3">
+      <c r="B73" s="4">
         <v>27565.759999999998</v>
       </c>
-      <c r="C73" s="3">
+      <c r="C73" s="4">
         <v>28798.32</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A74" s="2">
+      <c r="A74" s="3">
         <v>43536</v>
       </c>
-      <c r="B74" s="3">
+      <c r="B74" s="4">
         <v>27565.759999999998</v>
       </c>
-      <c r="C74" s="3">
+      <c r="C74" s="4">
         <v>28799.51</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A75" s="2">
+      <c r="A75" s="3">
         <v>43537</v>
       </c>
-      <c r="B75" s="3">
+      <c r="B75" s="4">
         <v>27565.759999999998</v>
       </c>
-      <c r="C75" s="3">
+      <c r="C75" s="4">
         <v>28800.69</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A76" s="2">
+      <c r="A76" s="3">
         <v>43538</v>
       </c>
-      <c r="B76" s="3">
+      <c r="B76" s="4">
         <v>27565.759999999998</v>
       </c>
-      <c r="C76" s="3">
+      <c r="C76" s="4">
         <v>28801.88</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A77" s="2">
+      <c r="A77" s="3">
         <v>43539</v>
       </c>
-      <c r="B77" s="3">
+      <c r="B77" s="4">
         <v>27565.759999999998</v>
       </c>
-      <c r="C77" s="3">
+      <c r="C77" s="4">
         <v>28803.07</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A78" s="2">
+      <c r="A78" s="3">
         <v>43540</v>
       </c>
-      <c r="B78" s="3">
+      <c r="B78" s="4">
         <v>27565.759999999998</v>
       </c>
-      <c r="C78" s="3">
+      <c r="C78" s="4">
         <v>28804.26</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A79" s="2">
+      <c r="A79" s="3">
         <v>43541</v>
       </c>
-      <c r="B79" s="3">
+      <c r="B79" s="4">
         <v>27565.759999999998</v>
       </c>
-      <c r="C79" s="3">
+      <c r="C79" s="4">
         <v>28805.45</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A80" s="2">
+      <c r="A80" s="3">
         <v>43542</v>
       </c>
-      <c r="B80" s="3">
+      <c r="B80" s="4">
         <v>27565.759999999998</v>
       </c>
-      <c r="C80" s="3">
+      <c r="C80" s="4">
         <v>28806.639999999999</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A81" s="2">
+      <c r="A81" s="3">
         <v>43543</v>
       </c>
-      <c r="B81" s="3">
+      <c r="B81" s="4">
         <v>27565.759999999998</v>
       </c>
-      <c r="C81" s="3">
+      <c r="C81" s="4">
         <v>28807.83</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A82" s="2">
+      <c r="A82" s="3">
         <v>43544</v>
       </c>
-      <c r="B82" s="3">
+      <c r="B82" s="4">
         <v>27565.759999999998</v>
       </c>
-      <c r="C82" s="3">
+      <c r="C82" s="4">
         <v>28809.01</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A83" s="2">
+      <c r="A83" s="3">
         <v>43545</v>
       </c>
-      <c r="B83" s="3">
+      <c r="B83" s="4">
         <v>27565.759999999998</v>
       </c>
-      <c r="C83" s="3">
+      <c r="C83" s="4">
         <v>28810.2</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A84" s="2">
+      <c r="A84" s="3">
         <v>43546</v>
       </c>
-      <c r="B84" s="3">
+      <c r="B84" s="4">
         <v>27565.759999999998</v>
       </c>
-      <c r="C84" s="3">
+      <c r="C84" s="4">
         <v>28811.39</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A85" s="2">
+      <c r="A85" s="3">
         <v>43547</v>
       </c>
-      <c r="B85" s="3">
+      <c r="B85" s="4">
         <v>27565.759999999998</v>
       </c>
-      <c r="C85" s="3">
+      <c r="C85" s="4">
         <v>28812.58</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A86" s="2">
+      <c r="A86" s="3">
         <v>43548</v>
       </c>
-      <c r="B86" s="3">
+      <c r="B86" s="4">
         <v>27565.759999999998</v>
       </c>
-      <c r="C86" s="3">
+      <c r="C86" s="4">
         <v>28813.77</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A87" s="2">
+      <c r="A87" s="3">
         <v>43549</v>
       </c>
-      <c r="B87" s="3">
+      <c r="B87" s="4">
         <v>27565.759999999998</v>
       </c>
-      <c r="C87" s="3">
+      <c r="C87" s="4">
         <v>28814.959999999999</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A88" s="2">
+      <c r="A88" s="3">
         <v>43550</v>
       </c>
-      <c r="B88" s="3">
+      <c r="B88" s="4">
         <v>27565.759999999998</v>
       </c>
-      <c r="C88" s="3">
+      <c r="C88" s="4">
         <v>28816.15</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A89" s="2">
+      <c r="A89" s="3">
         <v>43551</v>
       </c>
-      <c r="B89" s="3">
+      <c r="B89" s="4">
         <v>27565.759999999998</v>
       </c>
-      <c r="C89" s="3">
+      <c r="C89" s="4">
         <v>28817.34</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A90" s="2">
+      <c r="A90" s="3">
         <v>43552</v>
       </c>
-      <c r="B90" s="3">
+      <c r="B90" s="4">
         <v>27565.759999999998</v>
       </c>
-      <c r="C90" s="3">
+      <c r="C90" s="4">
         <v>28818.53</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A91" s="2">
+      <c r="A91" s="3">
         <v>43553</v>
       </c>
-      <c r="B91" s="3">
+      <c r="B91" s="4">
         <v>27565.759999999998</v>
       </c>
-      <c r="C91" s="3">
+      <c r="C91" s="4">
         <v>28819.72</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A92" s="2">
+      <c r="A92" s="3">
         <v>43554</v>
       </c>
-      <c r="B92" s="3">
+      <c r="B92" s="4">
         <v>27565.759999999998</v>
       </c>
-      <c r="C92" s="3">
+      <c r="C92" s="4">
         <v>28820.9</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A93" s="2">
+      <c r="A93" s="3">
         <v>43555</v>
       </c>
-      <c r="B93" s="3">
+      <c r="B93" s="4">
         <v>27565.759999999998</v>
       </c>
-      <c r="C93" s="3">
+      <c r="C93" s="4">
         <v>28822.09</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A94" s="2">
+      <c r="A94" s="3">
         <v>43556</v>
       </c>
-      <c r="B94" s="3">
+      <c r="B94" s="4">
         <v>27565.759999999998</v>
       </c>
-      <c r="C94" s="3">
+      <c r="C94" s="4">
         <v>28823.279999999999</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A95" s="2">
+      <c r="A95" s="3">
         <v>43557</v>
       </c>
-      <c r="B95" s="3">
+      <c r="B95" s="4">
         <v>27565.759999999998</v>
       </c>
-      <c r="C95" s="3">
+      <c r="C95" s="4">
         <v>28824.47</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A96" s="2">
+      <c r="A96" s="3">
         <v>43558</v>
       </c>
-      <c r="B96" s="3">
+      <c r="B96" s="4">
         <v>27565.759999999998</v>
       </c>
-      <c r="C96" s="3">
+      <c r="C96" s="4">
         <v>28825.66</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A97" s="2">
+      <c r="A97" s="3">
         <v>43559</v>
       </c>
-      <c r="B97" s="3">
+      <c r="B97" s="4">
         <v>27565.759999999998</v>
       </c>
-      <c r="C97" s="3">
+      <c r="C97" s="4">
         <v>28826.85</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A98" s="2">
+      <c r="A98" s="3">
         <v>43560</v>
       </c>
-      <c r="B98" s="3">
+      <c r="B98" s="4">
         <v>27565.759999999998</v>
       </c>
-      <c r="C98" s="3">
+      <c r="C98" s="4">
         <v>28828.04</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A99" s="2">
+      <c r="A99" s="3">
         <v>43561</v>
       </c>
-      <c r="B99" s="3">
+      <c r="B99" s="4">
         <v>27565.759999999998</v>
       </c>
-      <c r="C99" s="3">
+      <c r="C99" s="4">
         <v>28829.23</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A100" s="2">
+      <c r="A100" s="3">
         <v>43562</v>
       </c>
-      <c r="B100" s="3">
+      <c r="B100" s="4">
         <v>27565.759999999998</v>
       </c>
-      <c r="C100" s="3">
+      <c r="C100" s="4">
         <v>28830.42</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A101" s="2">
+      <c r="A101" s="3">
         <v>43563</v>
       </c>
-      <c r="B101" s="3">
+      <c r="B101" s="4">
         <v>27565.759999999998</v>
       </c>
-      <c r="C101" s="3">
+      <c r="C101" s="4">
         <v>28831.61</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A102" s="2">
+      <c r="A102" s="3">
         <v>43564</v>
       </c>
-      <c r="B102" s="3">
+      <c r="B102" s="4">
         <v>27565.759999999998</v>
       </c>
-      <c r="C102" s="3">
+      <c r="C102" s="4">
         <v>28832.799999999999</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A103" s="2">
+      <c r="A103" s="3">
         <v>43565</v>
       </c>
-      <c r="B103" s="3">
+      <c r="B103" s="4">
         <v>27570.34</v>
       </c>
-      <c r="C103" s="3">
+      <c r="C103" s="4">
         <v>28834.2</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A104" s="2">
+      <c r="A104" s="3">
         <v>43566</v>
       </c>
-      <c r="B104" s="3">
+      <c r="B104" s="4">
         <v>27574.93</v>
       </c>
-      <c r="C104" s="3">
+      <c r="C104" s="4">
         <v>28835.599999999999</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A105" s="2">
+      <c r="A105" s="3">
         <v>43567</v>
       </c>
-      <c r="B105" s="3">
+      <c r="B105" s="4">
         <v>27579.51</v>
       </c>
-      <c r="C105" s="3">
+      <c r="C105" s="4">
         <v>28837</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A106" s="2">
+      <c r="A106" s="3">
         <v>43568</v>
       </c>
-      <c r="B106" s="3">
+      <c r="B106" s="4">
         <v>27584.1</v>
       </c>
-      <c r="C106" s="3">
+      <c r="C106" s="4">
         <v>28838.39</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A107" s="2">
+      <c r="A107" s="3">
         <v>43569</v>
       </c>
-      <c r="B107" s="3">
+      <c r="B107" s="4">
         <v>27588.68</v>
       </c>
-      <c r="C107" s="3">
+      <c r="C107" s="4">
         <v>28839.79</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A108" s="2">
+      <c r="A108" s="3">
         <v>43570</v>
       </c>
-      <c r="B108" s="3">
+      <c r="B108" s="4">
         <v>27593.27</v>
       </c>
-      <c r="C108" s="3">
+      <c r="C108" s="4">
         <v>28841.19</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A109" s="2">
+      <c r="A109" s="3">
         <v>43571</v>
       </c>
-      <c r="B109" s="3">
+      <c r="B109" s="4">
         <v>27597.86</v>
       </c>
-      <c r="C109" s="3">
+      <c r="C109" s="4">
         <v>28842.59</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A110" s="2">
+      <c r="A110" s="3">
         <v>43572</v>
       </c>
-      <c r="B110" s="3">
+      <c r="B110" s="4">
         <v>27602.45</v>
       </c>
-      <c r="C110" s="3">
+      <c r="C110" s="4">
         <v>28843.99</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A111" s="2">
+      <c r="A111" s="3">
         <v>43573</v>
       </c>
-      <c r="B111" s="3">
+      <c r="B111" s="4">
         <v>27607.040000000001</v>
       </c>
-      <c r="C111" s="3">
+      <c r="C111" s="4">
         <v>28845.39</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A112" s="2">
+      <c r="A112" s="3">
         <v>43574</v>
       </c>
-      <c r="B112" s="3">
+      <c r="B112" s="4">
         <v>27611.63</v>
       </c>
-      <c r="C112" s="3">
+      <c r="C112" s="4">
         <v>28846.79</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A113" s="2">
+      <c r="A113" s="3">
         <v>43575</v>
       </c>
-      <c r="B113" s="3">
+      <c r="B113" s="4">
         <v>27616.22</v>
       </c>
-      <c r="C113" s="3">
+      <c r="C113" s="4">
         <v>28848.19</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A114" s="2">
+      <c r="A114" s="3">
         <v>43576</v>
       </c>
-      <c r="B114" s="3">
+      <c r="B114" s="4">
         <v>27620.81</v>
       </c>
-      <c r="C114" s="3">
+      <c r="C114" s="4">
         <v>28849.59</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A115" s="2">
+      <c r="A115" s="3">
         <v>43577</v>
       </c>
-      <c r="B115" s="3">
+      <c r="B115" s="4">
         <v>27625.4</v>
       </c>
-      <c r="C115" s="3">
+      <c r="C115" s="4">
         <v>28850.99</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A116" s="2">
+      <c r="A116" s="3">
         <v>43578</v>
       </c>
-      <c r="B116" s="3">
+      <c r="B116" s="4">
         <v>27629.99</v>
       </c>
-      <c r="C116" s="3">
+      <c r="C116" s="4">
         <v>28852.38</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A117" s="2">
+      <c r="A117" s="3">
         <v>43579</v>
       </c>
-      <c r="B117" s="3">
+      <c r="B117" s="4">
         <v>27634.59</v>
       </c>
-      <c r="C117" s="3">
+      <c r="C117" s="4">
         <v>28853.78</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A118" s="2">
+      <c r="A118" s="3">
         <v>43580</v>
       </c>
-      <c r="B118" s="3">
+      <c r="B118" s="4">
         <v>27639.18</v>
       </c>
-      <c r="C118" s="3">
+      <c r="C118" s="4">
         <v>28855.18</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A119" s="2">
+      <c r="A119" s="3">
         <v>43581</v>
       </c>
-      <c r="B119" s="3">
+      <c r="B119" s="4">
         <v>27643.78</v>
       </c>
-      <c r="C119" s="3">
+      <c r="C119" s="4">
         <v>28856.58</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A120" s="2">
+      <c r="A120" s="3">
         <v>43582</v>
       </c>
-      <c r="B120" s="3">
+      <c r="B120" s="4">
         <v>27648.37</v>
       </c>
-      <c r="C120" s="3">
+      <c r="C120" s="4">
         <v>28857.98</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A121" s="2">
+      <c r="A121" s="3">
         <v>43583</v>
       </c>
-      <c r="B121" s="3">
+      <c r="B121" s="4">
         <v>27652.97</v>
       </c>
-      <c r="C121" s="3">
+      <c r="C121" s="4">
         <v>28859.38</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A122" s="2">
+      <c r="A122" s="3">
         <v>43584</v>
       </c>
-      <c r="B122" s="3">
+      <c r="B122" s="4">
         <v>27657.57</v>
       </c>
-      <c r="C122" s="3">
+      <c r="C122" s="4">
         <v>28860.78</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A123" s="2">
+      <c r="A123" s="3">
         <v>43585</v>
       </c>
-      <c r="B123" s="3">
+      <c r="B123" s="4">
         <v>27662.17</v>
       </c>
-      <c r="C123" s="3">
+      <c r="C123" s="4">
         <v>28862.18</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A124" s="2">
+      <c r="A124" s="3">
         <v>43586</v>
       </c>
-      <c r="B124" s="3">
+      <c r="B124" s="4">
         <v>27666.77</v>
       </c>
-      <c r="C124" s="3">
+      <c r="C124" s="4">
         <v>28863.58</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A125" s="2">
+      <c r="A125" s="3">
         <v>43587</v>
       </c>
-      <c r="B125" s="3">
+      <c r="B125" s="4">
         <v>27671.37</v>
       </c>
-      <c r="C125" s="3">
+      <c r="C125" s="4">
         <v>28864.98</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A126" s="2">
+      <c r="A126" s="3">
         <v>43588</v>
       </c>
-      <c r="B126" s="3">
+      <c r="B126" s="4">
         <v>27675.97</v>
       </c>
-      <c r="C126" s="3">
+      <c r="C126" s="4">
         <v>28866.38</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A127" s="2">
+      <c r="A127" s="3">
         <v>43589</v>
       </c>
-      <c r="B127" s="3">
+      <c r="B127" s="4">
         <v>27680.57</v>
       </c>
-      <c r="C127" s="3">
+      <c r="C127" s="4">
         <v>28867.78</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A128" s="2">
+      <c r="A128" s="3">
         <v>43590</v>
       </c>
-      <c r="B128" s="3">
+      <c r="B128" s="4">
         <v>27685.17</v>
       </c>
-      <c r="C128" s="3">
+      <c r="C128" s="4">
         <v>28869.18</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A129" s="2">
+      <c r="A129" s="3">
         <v>43591</v>
       </c>
-      <c r="B129" s="3">
+      <c r="B129" s="4">
         <v>27689.77</v>
       </c>
-      <c r="C129" s="3">
+      <c r="C129" s="4">
         <v>28870.58</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A130" s="2">
+      <c r="A130" s="3">
         <v>43592</v>
       </c>
-      <c r="B130" s="3">
+      <c r="B130" s="4">
         <v>27694.38</v>
       </c>
-      <c r="C130" s="3">
+      <c r="C130" s="4">
         <v>28871.98</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A131" s="2">
+      <c r="A131" s="3">
         <v>43593</v>
       </c>
-      <c r="B131" s="3">
+      <c r="B131" s="4">
         <v>27698.98</v>
       </c>
-      <c r="C131" s="3">
+      <c r="C131" s="4">
         <v>28873.38</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A132" s="2">
+      <c r="A132" s="3">
         <v>43594</v>
       </c>
-      <c r="B132" s="3">
+      <c r="B132" s="4">
         <v>27703.59</v>
       </c>
-      <c r="C132" s="3">
+      <c r="C132" s="4">
         <v>28874.78</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A133" s="2">
+      <c r="A133" s="3">
         <v>43595</v>
       </c>
-      <c r="B133" s="3">
+      <c r="B133" s="4">
         <v>27706.27</v>
       </c>
-      <c r="C133" s="3">
+      <c r="C133" s="4">
         <v>28876.04</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A134" s="2">
+      <c r="A134" s="3">
         <v>43596</v>
       </c>
-      <c r="B134" s="3">
+      <c r="B134" s="4">
         <v>27708.94</v>
       </c>
-      <c r="C134" s="3">
+      <c r="C134" s="4">
         <v>28877.3</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A135" s="2">
+      <c r="A135" s="3">
         <v>43597</v>
       </c>
-      <c r="B135" s="3">
+      <c r="B135" s="4">
         <v>27711.62</v>
       </c>
-      <c r="C135" s="3">
+      <c r="C135" s="4">
         <v>28878.57</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A136" s="2">
+      <c r="A136" s="3">
         <v>43598</v>
       </c>
-      <c r="B136" s="3">
+      <c r="B136" s="4">
         <v>27714.3</v>
       </c>
-      <c r="C136" s="3">
+      <c r="C136" s="4">
         <v>28879.83</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A137" s="2">
+      <c r="A137" s="3">
         <v>43599</v>
       </c>
-      <c r="B137" s="3">
+      <c r="B137" s="4">
         <v>27716.98</v>
       </c>
-      <c r="C137" s="3">
+      <c r="C137" s="4">
         <v>28881.09</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A138" s="2">
+      <c r="A138" s="3">
         <v>43600</v>
       </c>
-      <c r="B138" s="3">
+      <c r="B138" s="4">
         <v>27719.66</v>
       </c>
-      <c r="C138" s="3">
+      <c r="C138" s="4">
         <v>28882.35</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A139" s="2">
+      <c r="A139" s="3">
         <v>43601</v>
       </c>
-      <c r="B139" s="3">
+      <c r="B139" s="4">
         <v>27722.34</v>
       </c>
-      <c r="C139" s="3">
+      <c r="C139" s="4">
         <v>28883.61</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A140" s="2">
+      <c r="A140" s="3">
         <v>43602</v>
       </c>
-      <c r="B140" s="3">
+      <c r="B140" s="4">
         <v>27725.01</v>
       </c>
-      <c r="C140" s="3">
+      <c r="C140" s="4">
         <v>28884.880000000001</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A141" s="2">
+      <c r="A141" s="3">
         <v>43603</v>
       </c>
-      <c r="B141" s="3">
+      <c r="B141" s="4">
         <v>27727.69</v>
       </c>
-      <c r="C141" s="3">
+      <c r="C141" s="4">
         <v>28886.14</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A142" s="2">
+      <c r="A142" s="3">
         <v>43604</v>
       </c>
-      <c r="B142" s="3">
+      <c r="B142" s="4">
         <v>27730.37</v>
       </c>
-      <c r="C142" s="3">
+      <c r="C142" s="4">
         <v>28887.4</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A143" s="2">
+      <c r="A143" s="3">
         <v>43605</v>
       </c>
-      <c r="B143" s="3">
+      <c r="B143" s="4">
         <v>27733.05</v>
       </c>
-      <c r="C143" s="3">
+      <c r="C143" s="4">
         <v>28888.66</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A144" s="2">
+      <c r="A144" s="3">
         <v>43606</v>
       </c>
-      <c r="B144" s="3">
+      <c r="B144" s="4">
         <v>27735.73</v>
       </c>
-      <c r="C144" s="3">
+      <c r="C144" s="4">
         <v>28889.93</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A145" s="2">
+      <c r="A145" s="3">
         <v>43607</v>
       </c>
-      <c r="B145" s="3">
+      <c r="B145" s="4">
         <v>27738.41</v>
       </c>
-      <c r="C145" s="3">
+      <c r="C145" s="4">
         <v>28891.19</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A146" s="2">
+      <c r="A146" s="3">
         <v>43608</v>
       </c>
-      <c r="B146" s="3">
+      <c r="B146" s="4">
         <v>27741.09</v>
       </c>
-      <c r="C146" s="3">
+      <c r="C146" s="4">
         <v>28892.45</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A147" s="2">
+      <c r="A147" s="3">
         <v>43609</v>
       </c>
-      <c r="B147" s="3">
+      <c r="B147" s="4">
         <v>27743.77</v>
       </c>
-      <c r="C147" s="3">
+      <c r="C147" s="4">
         <v>28893.71</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A148" s="2">
+      <c r="A148" s="3">
         <v>43610</v>
       </c>
-      <c r="B148" s="3">
+      <c r="B148" s="4">
         <v>27746.45</v>
       </c>
-      <c r="C148" s="3">
+      <c r="C148" s="4">
         <v>28894.98</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A149" s="2">
+      <c r="A149" s="3">
         <v>43611</v>
       </c>
-      <c r="B149" s="3">
+      <c r="B149" s="4">
         <v>27749.14</v>
       </c>
-      <c r="C149" s="3">
+      <c r="C149" s="4">
         <v>28896.240000000002</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A150" s="2">
+      <c r="A150" s="3">
         <v>43612</v>
       </c>
-      <c r="B150" s="3">
+      <c r="B150" s="4">
         <v>27751.82</v>
       </c>
-      <c r="C150" s="3">
+      <c r="C150" s="4">
         <v>28897.5</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A151" s="2">
+      <c r="A151" s="3">
         <v>43613</v>
       </c>
-      <c r="B151" s="3">
+      <c r="B151" s="4">
         <v>27754.5</v>
       </c>
-      <c r="C151" s="3">
+      <c r="C151" s="4">
         <v>28898.77</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A152" s="2">
+      <c r="A152" s="3">
         <v>43614</v>
       </c>
-      <c r="B152" s="3">
+      <c r="B152" s="4">
         <v>27757.18</v>
       </c>
-      <c r="C152" s="3">
+      <c r="C152" s="4">
         <v>28900.03</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A153" s="2">
+      <c r="A153" s="3">
         <v>43615</v>
       </c>
-      <c r="B153" s="3">
+      <c r="B153" s="4">
         <v>27759.86</v>
       </c>
-      <c r="C153" s="3">
+      <c r="C153" s="4">
         <v>28901.29</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A154" s="2">
+      <c r="A154" s="3">
         <v>43616</v>
       </c>
-      <c r="B154" s="3">
+      <c r="B154" s="4">
         <v>27762.55</v>
       </c>
-      <c r="C154" s="3">
+      <c r="C154" s="4">
         <v>28902.55</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A155" s="2">
+      <c r="A155" s="3">
         <v>43617</v>
       </c>
-      <c r="B155" s="3">
+      <c r="B155" s="4">
         <v>27765.23</v>
       </c>
-      <c r="C155" s="3">
+      <c r="C155" s="4">
         <v>28903.82</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A156" s="2">
+      <c r="A156" s="3">
         <v>43618</v>
       </c>
-      <c r="B156" s="3">
+      <c r="B156" s="4">
         <v>27767.91</v>
       </c>
-      <c r="C156" s="3">
+      <c r="C156" s="4">
         <v>28905.08</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A157" s="2">
+      <c r="A157" s="3">
         <v>43619</v>
       </c>
-      <c r="B157" s="3">
+      <c r="B157" s="4">
         <v>27770.6</v>
       </c>
-      <c r="C157" s="3">
+      <c r="C157" s="4">
         <v>28906.34</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A158" s="2">
+      <c r="A158" s="3">
         <v>43620</v>
       </c>
-      <c r="B158" s="3">
+      <c r="B158" s="4">
         <v>27773.279999999999</v>
       </c>
-      <c r="C158" s="3">
+      <c r="C158" s="4">
         <v>28907.61</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A159" s="2">
+      <c r="A159" s="3">
         <v>43621</v>
       </c>
-      <c r="B159" s="3">
+      <c r="B159" s="4">
         <v>27775.96</v>
       </c>
-      <c r="C159" s="3">
+      <c r="C159" s="4">
         <v>28908.87</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A160" s="2">
+      <c r="A160" s="3">
         <v>43622</v>
       </c>
-      <c r="B160" s="3">
+      <c r="B160" s="4">
         <v>27778.65</v>
       </c>
-      <c r="C160" s="3">
+      <c r="C160" s="4">
         <v>28910.13</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A161" s="2">
+      <c r="A161" s="3">
         <v>43623</v>
       </c>
-      <c r="B161" s="3">
+      <c r="B161" s="4">
         <v>27781.33</v>
       </c>
-      <c r="C161" s="3">
+      <c r="C161" s="4">
         <v>28911.4</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A162" s="2">
+      <c r="A162" s="3">
         <v>43624</v>
       </c>
-      <c r="B162" s="3">
+      <c r="B162" s="4">
         <v>27784.02</v>
       </c>
-      <c r="C162" s="3">
+      <c r="C162" s="4">
         <v>28912.66</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A163" s="2">
+      <c r="A163" s="3">
         <v>43625</v>
       </c>
-      <c r="B163" s="3">
+      <c r="B163" s="4">
         <v>27786.7</v>
       </c>
-      <c r="C163" s="3">
+      <c r="C163" s="4">
         <v>28913.919999999998</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A164" s="2">
+      <c r="A164" s="3">
         <v>43626</v>
       </c>
-      <c r="B164" s="3">
+      <c r="B164" s="4">
         <v>27792.240000000002</v>
       </c>
-      <c r="C164" s="3">
+      <c r="C164" s="4">
         <v>28916.13</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A165" s="2">
+      <c r="A165" s="3">
         <v>43627</v>
       </c>
-      <c r="B165" s="3">
+      <c r="B165" s="4">
         <v>27797.78</v>
       </c>
-      <c r="C165" s="3">
+      <c r="C165" s="4">
         <v>28918.34</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A166" s="2">
+      <c r="A166" s="3">
         <v>43628</v>
       </c>
-      <c r="B166" s="3">
+      <c r="B166" s="4">
         <v>27803.33</v>
       </c>
-      <c r="C166" s="3">
+      <c r="C166" s="4">
         <v>28920.55</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A167" s="2">
+      <c r="A167" s="3">
         <v>43629</v>
       </c>
-      <c r="B167" s="3">
+      <c r="B167" s="4">
         <v>27808.87</v>
       </c>
-      <c r="C167" s="3">
+      <c r="C167" s="4">
         <v>28922.75</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A168" s="2">
+      <c r="A168" s="3">
         <v>43630</v>
       </c>
-      <c r="B168" s="3">
+      <c r="B168" s="4">
         <v>27814.42</v>
       </c>
-      <c r="C168" s="3">
+      <c r="C168" s="4">
         <v>28924.959999999999</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A169" s="2">
+      <c r="A169" s="3">
         <v>43631</v>
       </c>
-      <c r="B169" s="3">
+      <c r="B169" s="4">
         <v>27819.96</v>
       </c>
-      <c r="C169" s="3">
+      <c r="C169" s="4">
         <v>28927.17</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A170" s="2">
+      <c r="A170" s="3">
         <v>43632</v>
       </c>
-      <c r="B170" s="3">
+      <c r="B170" s="4">
         <v>27825.51</v>
       </c>
-      <c r="C170" s="3">
+      <c r="C170" s="4">
         <v>28929.38</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A171" s="2">
+      <c r="A171" s="3">
         <v>43633</v>
       </c>
-      <c r="B171" s="3">
+      <c r="B171" s="4">
         <v>27831.06</v>
       </c>
-      <c r="C171" s="3">
+      <c r="C171" s="4">
         <v>28931.59</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A172" s="2">
+      <c r="A172" s="3">
         <v>43634</v>
       </c>
-      <c r="B172" s="3">
+      <c r="B172" s="4">
         <v>27836.61</v>
       </c>
-      <c r="C172" s="3">
+      <c r="C172" s="4">
         <v>28933.8</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A173" s="2">
+      <c r="A173" s="3">
         <v>43635</v>
       </c>
-      <c r="B173" s="3">
+      <c r="B173" s="4">
         <v>27842.16</v>
       </c>
-      <c r="C173" s="3">
+      <c r="C173" s="4">
         <v>28936.01</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A174" s="2">
+      <c r="A174" s="3">
         <v>43636</v>
       </c>
-      <c r="B174" s="3">
+      <c r="B174" s="4">
         <v>27847.71</v>
       </c>
-      <c r="C174" s="3">
+      <c r="C174" s="4">
         <v>28938.22</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A175" s="2">
+      <c r="A175" s="3">
         <v>43637</v>
       </c>
-      <c r="B175" s="3">
+      <c r="B175" s="4">
         <v>27853.27</v>
       </c>
-      <c r="C175" s="3">
+      <c r="C175" s="4">
         <v>28940.43</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A176" s="2">
+      <c r="A176" s="3">
         <v>43638</v>
       </c>
-      <c r="B176" s="3">
+      <c r="B176" s="4">
         <v>27858.82</v>
       </c>
-      <c r="C176" s="3">
+      <c r="C176" s="4">
         <v>28942.639999999999</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A177" s="2">
+      <c r="A177" s="3">
         <v>43639</v>
       </c>
-      <c r="B177" s="3">
+      <c r="B177" s="4">
         <v>27864.38</v>
       </c>
-      <c r="C177" s="3">
+      <c r="C177" s="4">
         <v>28944.85</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A178" s="2">
+      <c r="A178" s="3">
         <v>43640</v>
       </c>
-      <c r="B178" s="3">
+      <c r="B178" s="4">
         <v>27869.94</v>
       </c>
-      <c r="C178" s="3">
+      <c r="C178" s="4">
         <v>28947.06</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A179" s="2">
+      <c r="A179" s="3">
         <v>43641</v>
       </c>
-      <c r="B179" s="3">
+      <c r="B179" s="4">
         <v>27875.49</v>
       </c>
-      <c r="C179" s="3">
+      <c r="C179" s="4">
         <v>28949.27</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A180" s="2">
+      <c r="A180" s="3">
         <v>43642</v>
       </c>
-      <c r="B180" s="3">
+      <c r="B180" s="4">
         <v>27881.05</v>
       </c>
-      <c r="C180" s="3">
+      <c r="C180" s="4">
         <v>28951.48</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A181" s="2">
+      <c r="A181" s="3">
         <v>43643</v>
       </c>
-      <c r="B181" s="3">
+      <c r="B181" s="4">
         <v>27886.61</v>
       </c>
-      <c r="C181" s="3">
+      <c r="C181" s="4">
         <v>28953.69</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A182" s="2">
+      <c r="A182" s="3">
         <v>43644</v>
       </c>
-      <c r="B182" s="3">
+      <c r="B182" s="4">
         <v>27892.17</v>
       </c>
-      <c r="C182" s="3">
+      <c r="C182" s="4">
         <v>28955.91</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A183" s="2">
+      <c r="A183" s="3">
         <v>43645</v>
       </c>
-      <c r="B183" s="3">
+      <c r="B183" s="4">
         <v>27897.74</v>
       </c>
-      <c r="C183" s="3">
+      <c r="C183" s="4">
         <v>28958.12</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A184" s="2">
+      <c r="A184" s="3">
         <v>43646</v>
       </c>
-      <c r="B184" s="3">
+      <c r="B184" s="4">
         <v>27903.3</v>
       </c>
-      <c r="C184" s="3">
+      <c r="C184" s="4">
         <v>28960.33</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A185" s="2">
+      <c r="A185" s="3">
         <v>43647</v>
       </c>
-      <c r="B185" s="3">
+      <c r="B185" s="4">
         <v>27908.86</v>
       </c>
-      <c r="C185" s="3">
+      <c r="C185" s="4">
         <v>28962.54</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A186" s="2">
+      <c r="A186" s="3">
         <v>43648</v>
       </c>
-      <c r="B186" s="3">
+      <c r="B186" s="4">
         <v>27914.43</v>
       </c>
-      <c r="C186" s="3">
+      <c r="C186" s="4">
         <v>28964.75</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A187" s="2">
+      <c r="A187" s="3">
         <v>43649</v>
       </c>
-      <c r="B187" s="3">
+      <c r="B187" s="4">
         <v>27920</v>
       </c>
-      <c r="C187" s="3">
+      <c r="C187" s="4">
         <v>28966.959999999999</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A188" s="2">
+      <c r="A188" s="3">
         <v>43650</v>
       </c>
-      <c r="B188" s="3">
+      <c r="B188" s="4">
         <v>27925.56</v>
       </c>
-      <c r="C188" s="3">
+      <c r="C188" s="4">
         <v>28969.18</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A189" s="2">
+      <c r="A189" s="3">
         <v>43651</v>
       </c>
-      <c r="B189" s="3">
+      <c r="B189" s="4">
         <v>27931.13</v>
       </c>
-      <c r="C189" s="3">
+      <c r="C189" s="4">
         <v>28971.39</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A190" s="2">
+      <c r="A190" s="3">
         <v>43652</v>
       </c>
-      <c r="B190" s="3">
+      <c r="B190" s="4">
         <v>27936.7</v>
       </c>
-      <c r="C190" s="3">
+      <c r="C190" s="4">
         <v>28973.599999999999</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A191" s="2">
+      <c r="A191" s="3">
         <v>43653</v>
       </c>
-      <c r="B191" s="3">
+      <c r="B191" s="4">
         <v>27942.27</v>
       </c>
-      <c r="C191" s="3">
+      <c r="C191" s="4">
         <v>28975.81</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A192" s="2">
+      <c r="A192" s="3">
         <v>43654</v>
       </c>
-      <c r="B192" s="3">
+      <c r="B192" s="4">
         <v>27947.85</v>
       </c>
-      <c r="C192" s="3">
+      <c r="C192" s="4">
         <v>28978.03</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A193" s="2">
+      <c r="A193" s="3">
         <v>43655</v>
       </c>
-      <c r="B193" s="3">
+      <c r="B193" s="4">
         <v>27953.42</v>
       </c>
-      <c r="C193" s="3">
+      <c r="C193" s="4">
         <v>28980.240000000002</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A194" s="2">
+      <c r="A194" s="3">
         <v>43656</v>
       </c>
-      <c r="B194" s="3">
+      <c r="B194" s="4">
         <v>27953.42</v>
       </c>
-      <c r="C194" s="3">
+      <c r="C194" s="4">
         <v>28982.7</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A195" s="2">
+      <c r="A195" s="3">
         <v>43657</v>
       </c>
-      <c r="B195" s="3">
+      <c r="B195" s="4">
         <v>27953.42</v>
       </c>
-      <c r="C195" s="3">
+      <c r="C195" s="4">
         <v>28985.17</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A196" s="2">
+      <c r="A196" s="3">
         <v>43658</v>
       </c>
-      <c r="B196" s="3">
+      <c r="B196" s="4">
         <v>27953.42</v>
       </c>
-      <c r="C196" s="3">
+      <c r="C196" s="4">
         <v>28987.63</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A197" s="2">
+      <c r="A197" s="3">
         <v>43659</v>
       </c>
-      <c r="B197" s="3">
+      <c r="B197" s="4">
         <v>27953.42</v>
       </c>
-      <c r="C197" s="3">
+      <c r="C197" s="4">
         <v>28990.09</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A198" s="2">
+      <c r="A198" s="3">
         <v>43660</v>
       </c>
-      <c r="B198" s="3">
+      <c r="B198" s="4">
         <v>27953.42</v>
       </c>
-      <c r="C198" s="3">
+      <c r="C198" s="4">
         <v>28992.560000000001</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A199" s="2">
+      <c r="A199" s="3">
         <v>43661</v>
       </c>
-      <c r="B199" s="3">
+      <c r="B199" s="4">
         <v>27953.42</v>
       </c>
-      <c r="C199" s="3">
+      <c r="C199" s="4">
         <v>28995.02</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A200" s="2">
+      <c r="A200" s="3">
         <v>43662</v>
       </c>
-      <c r="B200" s="3">
+      <c r="B200" s="4">
         <v>27953.42</v>
       </c>
-      <c r="C200" s="3">
+      <c r="C200" s="4">
         <v>28997.48</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A201" s="2">
+      <c r="A201" s="3">
         <v>43663</v>
       </c>
-      <c r="B201" s="3">
+      <c r="B201" s="4">
         <v>27953.42</v>
       </c>
-      <c r="C201" s="3">
+      <c r="C201" s="4">
         <v>28999.95</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A202" s="2">
+      <c r="A202" s="3">
         <v>43664</v>
       </c>
-      <c r="B202" s="3">
+      <c r="B202" s="4">
         <v>27953.42</v>
       </c>
-      <c r="C202" s="3">
+      <c r="C202" s="4">
         <v>29002.41</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A203" s="2">
+      <c r="A203" s="3">
         <v>43665</v>
       </c>
-      <c r="B203" s="3">
+      <c r="B203" s="4">
         <v>27953.42</v>
       </c>
-      <c r="C203" s="3">
+      <c r="C203" s="4">
         <v>29004.880000000001</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A204" s="2">
+      <c r="A204" s="3">
         <v>43666</v>
       </c>
-      <c r="B204" s="3">
+      <c r="B204" s="4">
         <v>27953.42</v>
       </c>
-      <c r="C204" s="3">
+      <c r="C204" s="4">
         <v>29007.34</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A205" s="2">
+      <c r="A205" s="3">
         <v>43667</v>
       </c>
-      <c r="B205" s="3">
+      <c r="B205" s="4">
         <v>27953.42</v>
       </c>
-      <c r="C205" s="3">
+      <c r="C205" s="4">
         <v>29009.81</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A206" s="2">
+      <c r="A206" s="3">
         <v>43668</v>
       </c>
-      <c r="B206" s="3">
+      <c r="B206" s="4">
         <v>27953.42</v>
       </c>
-      <c r="C206" s="3">
+      <c r="C206" s="4">
         <v>29012.27</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A207" s="2">
+      <c r="A207" s="3">
         <v>43669</v>
       </c>
-      <c r="B207" s="3">
+      <c r="B207" s="4">
         <v>27953.42</v>
       </c>
-      <c r="C207" s="3">
+      <c r="C207" s="4">
         <v>29014.74</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A208" s="2">
+      <c r="A208" s="3">
         <v>43670</v>
       </c>
-      <c r="B208" s="3">
+      <c r="B208" s="4">
         <v>27953.42</v>
       </c>
-      <c r="C208" s="3">
+      <c r="C208" s="4">
         <v>29017.21</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A209" s="2">
+      <c r="A209" s="3">
         <v>43671</v>
       </c>
-      <c r="B209" s="3">
+      <c r="B209" s="4">
         <v>27953.42</v>
       </c>
-      <c r="C209" s="3">
+      <c r="C209" s="4">
         <v>29019.67</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A210" s="2">
+      <c r="A210" s="3">
         <v>43672</v>
       </c>
-      <c r="B210" s="3">
+      <c r="B210" s="4">
         <v>27953.42</v>
       </c>
-      <c r="C210" s="3">
+      <c r="C210" s="4">
         <v>29022.14</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A211" s="2">
+      <c r="A211" s="3">
         <v>43673</v>
       </c>
-      <c r="B211" s="3">
+      <c r="B211" s="4">
         <v>27953.42</v>
       </c>
-      <c r="C211" s="3">
+      <c r="C211" s="4">
         <v>29024.6</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A212" s="2">
+      <c r="A212" s="3">
         <v>43674</v>
       </c>
-      <c r="B212" s="3">
+      <c r="B212" s="4">
         <v>27953.42</v>
       </c>
-      <c r="C212" s="3">
+      <c r="C212" s="4">
         <v>29027.07</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A213" s="2">
+      <c r="A213" s="3">
         <v>43675</v>
       </c>
-      <c r="B213" s="3">
+      <c r="B213" s="4">
         <v>27953.42</v>
       </c>
-      <c r="C213" s="3">
+      <c r="C213" s="4">
         <v>29029.54</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A214" s="2">
+      <c r="A214" s="3">
         <v>43676</v>
       </c>
-      <c r="B214" s="3">
+      <c r="B214" s="4">
         <v>27953.42</v>
       </c>
-      <c r="C214" s="3">
+      <c r="C214" s="4">
         <v>29032.01</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A215" s="2">
+      <c r="A215" s="3">
         <v>43677</v>
       </c>
-      <c r="B215" s="3">
+      <c r="B215" s="4">
         <v>27953.42</v>
       </c>
-      <c r="C215" s="3">
+      <c r="C215" s="4">
         <v>29034.47</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A216" s="2">
+      <c r="A216" s="3">
         <v>43678</v>
       </c>
-      <c r="B216" s="3">
+      <c r="B216" s="4">
         <v>27953.42</v>
       </c>
-      <c r="C216" s="3">
+      <c r="C216" s="4">
         <v>29036.94</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A217" s="2">
+      <c r="A217" s="3">
         <v>43679</v>
       </c>
-      <c r="B217" s="3">
+      <c r="B217" s="4">
         <v>27953.42</v>
       </c>
-      <c r="C217" s="3">
+      <c r="C217" s="4">
         <v>29039.41</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A218" s="2">
+      <c r="A218" s="3">
         <v>43680</v>
       </c>
-      <c r="B218" s="3">
+      <c r="B218" s="4">
         <v>27953.42</v>
       </c>
-      <c r="C218" s="3">
+      <c r="C218" s="4">
         <v>29041.88</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A219" s="2">
+      <c r="A219" s="3">
         <v>43681</v>
       </c>
-      <c r="B219" s="3">
+      <c r="B219" s="4">
         <v>27953.42</v>
       </c>
-      <c r="C219" s="3">
+      <c r="C219" s="4">
         <v>29044.34</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A220" s="2">
+      <c r="A220" s="3">
         <v>43682</v>
       </c>
-      <c r="B220" s="3">
+      <c r="B220" s="4">
         <v>27953.42</v>
       </c>
-      <c r="C220" s="3">
+      <c r="C220" s="4">
         <v>29046.81</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A221" s="2">
+      <c r="A221" s="3">
         <v>43683</v>
       </c>
-      <c r="B221" s="3">
+      <c r="B221" s="4">
         <v>27953.42</v>
       </c>
-      <c r="C221" s="3">
+      <c r="C221" s="4">
         <v>29049.279999999999</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A222" s="2">
+      <c r="A222" s="3">
         <v>43684</v>
       </c>
-      <c r="B222" s="3">
+      <c r="B222" s="4">
         <v>27953.42</v>
       </c>
-      <c r="C222" s="3">
+      <c r="C222" s="4">
         <v>29051.75</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A223" s="2">
+      <c r="A223" s="3">
         <v>43685</v>
       </c>
-      <c r="B223" s="3">
+      <c r="B223" s="4">
         <v>27953.42</v>
       </c>
-      <c r="C223" s="3">
+      <c r="C223" s="4">
         <v>29054.22</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A224" s="2">
+      <c r="A224" s="3">
         <v>43686</v>
       </c>
-      <c r="B224" s="3">
+      <c r="B224" s="4">
         <v>27953.42</v>
       </c>
-      <c r="C224" s="3">
+      <c r="C224" s="4">
         <v>29056.69</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A225" s="2">
+      <c r="A225" s="3">
         <v>43687</v>
       </c>
-      <c r="B225" s="3">
+      <c r="B225" s="4">
         <v>27955.22</v>
       </c>
-      <c r="C225" s="3">
+      <c r="C225" s="4">
         <v>29059.34</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A226" s="2">
+      <c r="A226" s="3">
         <v>43688</v>
       </c>
-      <c r="B226" s="3">
+      <c r="B226" s="4">
         <v>27957.02</v>
       </c>
-      <c r="C226" s="3">
+      <c r="C226" s="4">
         <v>29062</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A227" s="2">
+      <c r="A227" s="3">
         <v>43689</v>
       </c>
-      <c r="B227" s="3">
+      <c r="B227" s="4">
         <v>27958.83</v>
       </c>
-      <c r="C227" s="3">
+      <c r="C227" s="4">
         <v>29064.66</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A228" s="2">
+      <c r="A228" s="3">
         <v>43690</v>
       </c>
-      <c r="B228" s="3">
+      <c r="B228" s="4">
         <v>27960.63</v>
       </c>
-      <c r="C228" s="3">
+      <c r="C228" s="4">
         <v>29067.31</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A229" s="2">
+      <c r="A229" s="3">
         <v>43691</v>
       </c>
-      <c r="B229" s="3">
+      <c r="B229" s="4">
         <v>27962.43</v>
       </c>
-      <c r="C229" s="3">
+      <c r="C229" s="4">
         <v>29069.97</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A230" s="2">
+      <c r="A230" s="3">
         <v>43692</v>
       </c>
-      <c r="B230" s="3">
+      <c r="B230" s="4">
         <v>27964.23</v>
       </c>
-      <c r="C230" s="3">
+      <c r="C230" s="4">
         <v>29072.62</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A231" s="2">
+      <c r="A231" s="3">
         <v>43693</v>
       </c>
-      <c r="B231" s="3">
+      <c r="B231" s="4">
         <v>27966.03</v>
       </c>
-      <c r="C231" s="3">
+      <c r="C231" s="4">
         <v>29075.279999999999</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A232" s="2">
+      <c r="A232" s="3">
         <v>43694</v>
       </c>
-      <c r="B232" s="3">
+      <c r="B232" s="4">
         <v>27967.84</v>
       </c>
-      <c r="C232" s="3">
+      <c r="C232" s="4">
         <v>29077.94</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A233" s="2">
+      <c r="A233" s="3">
         <v>43695</v>
       </c>
-      <c r="B233" s="3">
+      <c r="B233" s="4">
         <v>27969.64</v>
       </c>
-      <c r="C233" s="3">
+      <c r="C233" s="4">
         <v>29080.59</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A234" s="2">
+      <c r="A234" s="3">
         <v>43696</v>
       </c>
-      <c r="B234" s="3">
+      <c r="B234" s="4">
         <v>27971.439999999999</v>
       </c>
-      <c r="C234" s="3">
+      <c r="C234" s="4">
         <v>29083.25</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A235" s="2">
+      <c r="A235" s="3">
         <v>43697</v>
       </c>
-      <c r="B235" s="3">
+      <c r="B235" s="4">
         <v>27973.25</v>
       </c>
-      <c r="C235" s="3">
+      <c r="C235" s="4">
         <v>29085.91</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A236" s="2">
+      <c r="A236" s="3">
         <v>43698</v>
       </c>
-      <c r="B236" s="3">
+      <c r="B236" s="4">
         <v>27975.05</v>
       </c>
-      <c r="C236" s="3">
+      <c r="C236" s="4">
         <v>29088.57</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A237" s="2">
+      <c r="A237" s="3">
         <v>43699</v>
       </c>
-      <c r="B237" s="3">
+      <c r="B237" s="4">
         <v>27976.85</v>
       </c>
-      <c r="C237" s="3">
+      <c r="C237" s="4">
         <v>29091.22</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A238" s="2">
+      <c r="A238" s="3">
         <v>43700</v>
       </c>
-      <c r="B238" s="3">
+      <c r="B238" s="4">
         <v>27978.65</v>
       </c>
-      <c r="C238" s="3">
+      <c r="C238" s="4">
         <v>29093.88</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A239" s="2">
+      <c r="A239" s="3">
         <v>43701</v>
       </c>
-      <c r="B239" s="3">
+      <c r="B239" s="4">
         <v>27980.46</v>
       </c>
-      <c r="C239" s="3">
+      <c r="C239" s="4">
         <v>29096.54</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A240" s="2">
+      <c r="A240" s="3">
         <v>43702</v>
       </c>
-      <c r="B240" s="3">
+      <c r="B240" s="4">
         <v>27982.26</v>
       </c>
-      <c r="C240" s="3">
+      <c r="C240" s="4">
         <v>29099.200000000001</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A241" s="2">
+      <c r="A241" s="3">
         <v>43703</v>
       </c>
-      <c r="B241" s="3">
+      <c r="B241" s="4">
         <v>27984.06</v>
       </c>
-      <c r="C241" s="3">
+      <c r="C241" s="4">
         <v>29101.86</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A242" s="2">
+      <c r="A242" s="3">
         <v>43704</v>
       </c>
-      <c r="B242" s="3">
+      <c r="B242" s="4">
         <v>27985.87</v>
       </c>
-      <c r="C242" s="3">
+      <c r="C242" s="4">
         <v>29104.52</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A243" s="2">
+      <c r="A243" s="3">
         <v>43705</v>
       </c>
-      <c r="B243" s="3">
+      <c r="B243" s="4">
         <v>27987.67</v>
       </c>
-      <c r="C243" s="3">
+      <c r="C243" s="4">
         <v>29107.18</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A244" s="2">
+      <c r="A244" s="3">
         <v>43706</v>
       </c>
-      <c r="B244" s="3">
+      <c r="B244" s="4">
         <v>27989.48</v>
       </c>
-      <c r="C244" s="3">
+      <c r="C244" s="4">
         <v>29109.84</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A245" s="2">
+      <c r="A245" s="3">
         <v>43707</v>
       </c>
-      <c r="B245" s="3">
+      <c r="B245" s="4">
         <v>27991.279999999999</v>
       </c>
-      <c r="C245" s="3">
+      <c r="C245" s="4">
         <v>29112.49</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A246" s="2">
+      <c r="A246" s="3">
         <v>43708</v>
       </c>
-      <c r="B246" s="3">
+      <c r="B246" s="4">
         <v>27993.08</v>
       </c>
-      <c r="C246" s="3">
+      <c r="C246" s="4">
         <v>29115.15</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A247" s="2">
+      <c r="A247" s="3">
         <v>43709</v>
       </c>
-      <c r="B247" s="3">
+      <c r="B247" s="4">
         <v>27994.89</v>
       </c>
-      <c r="C247" s="3">
+      <c r="C247" s="4">
         <v>29117.82</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A248" s="2">
+      <c r="A248" s="3">
         <v>43710</v>
       </c>
-      <c r="B248" s="3">
+      <c r="B248" s="4">
         <v>27996.69</v>
       </c>
-      <c r="C248" s="3">
+      <c r="C248" s="4">
         <v>29120.48</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A249" s="2">
+      <c r="A249" s="3">
         <v>43711</v>
       </c>
-      <c r="B249" s="3">
+      <c r="B249" s="4">
         <v>27998.5</v>
       </c>
-      <c r="C249" s="3">
+      <c r="C249" s="4">
         <v>29123.14</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A250" s="2">
+      <c r="A250" s="3">
         <v>43712</v>
       </c>
-      <c r="B250" s="3">
+      <c r="B250" s="4">
         <v>28000.3</v>
       </c>
-      <c r="C250" s="3">
+      <c r="C250" s="4">
         <v>29125.8</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A251" s="2">
+      <c r="A251" s="3">
         <v>43713</v>
       </c>
-      <c r="B251" s="3">
+      <c r="B251" s="4">
         <v>28002.11</v>
       </c>
-      <c r="C251" s="3">
+      <c r="C251" s="4">
         <v>29128.46</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A252" s="2">
+      <c r="A252" s="3">
         <v>43714</v>
       </c>
-      <c r="B252" s="3">
+      <c r="B252" s="4">
         <v>28003.91</v>
       </c>
-      <c r="C252" s="3">
+      <c r="C252" s="4">
         <v>29131.119999999999</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A253" s="2">
+      <c r="A253" s="3">
         <v>43715</v>
       </c>
-      <c r="B253" s="3">
+      <c r="B253" s="4">
         <v>28005.72</v>
       </c>
-      <c r="C253" s="3">
+      <c r="C253" s="4">
         <v>29133.78</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A254" s="2">
+      <c r="A254" s="3">
         <v>43716</v>
       </c>
-      <c r="B254" s="3">
+      <c r="B254" s="4">
         <v>28007.52</v>
       </c>
-      <c r="C254" s="3">
+      <c r="C254" s="4">
         <v>29136.44</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A255" s="2">
+      <c r="A255" s="3">
         <v>43717</v>
       </c>
-      <c r="B255" s="3">
+      <c r="B255" s="4">
         <v>28009.33</v>
       </c>
-      <c r="C255" s="3">
+      <c r="C255" s="4">
         <v>29139.11</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A256" s="2">
+      <c r="A256" s="3">
         <v>43718</v>
       </c>
-      <c r="B256" s="3">
+      <c r="B256" s="4">
         <v>28011.200000000001</v>
       </c>
-      <c r="C256" s="3">
+      <c r="C256" s="4">
         <v>29141.96</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A257" s="2">
+      <c r="A257" s="3">
         <v>43719</v>
       </c>
-      <c r="B257" s="3">
+      <c r="B257" s="4">
         <v>28013.06</v>
       </c>
-      <c r="C257" s="3">
+      <c r="C257" s="4">
         <v>29144.81</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A258" s="2">
+      <c r="A258" s="3">
         <v>43720</v>
       </c>
-      <c r="B258" s="3">
+      <c r="B258" s="4">
         <v>28014.93</v>
       </c>
-      <c r="C258" s="3">
+      <c r="C258" s="4">
         <v>29147.66</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A259" s="2">
+      <c r="A259" s="3">
         <v>43721</v>
       </c>
-      <c r="B259" s="3">
+      <c r="B259" s="4">
         <v>28016.79</v>
       </c>
-      <c r="C259" s="3">
+      <c r="C259" s="4">
         <v>29150.51</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A260" s="2">
+      <c r="A260" s="3">
         <v>43722</v>
       </c>
-      <c r="B260" s="3">
+      <c r="B260" s="4">
         <v>28018.66</v>
       </c>
-      <c r="C260" s="3">
+      <c r="C260" s="4">
         <v>29153.360000000001</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A261" s="2">
+      <c r="A261" s="3">
         <v>43723</v>
       </c>
-      <c r="B261" s="3">
+      <c r="B261" s="4">
         <v>28020.52</v>
       </c>
-      <c r="C261" s="3">
+      <c r="C261" s="4">
         <v>29156.21</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A262" s="2">
+      <c r="A262" s="3">
         <v>43724</v>
       </c>
-      <c r="B262" s="3">
+      <c r="B262" s="4">
         <v>28022.39</v>
       </c>
-      <c r="C262" s="3">
+      <c r="C262" s="4">
         <v>29159.06</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A263" s="2">
+      <c r="A263" s="3">
         <v>43725</v>
       </c>
-      <c r="B263" s="3">
+      <c r="B263" s="4">
         <v>28024.26</v>
       </c>
-      <c r="C263" s="3">
+      <c r="C263" s="4">
         <v>29161.919999999998</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A264" s="2">
+      <c r="A264" s="3">
         <v>43726</v>
       </c>
-      <c r="B264" s="3">
+      <c r="B264" s="4">
         <v>28026.12</v>
       </c>
-      <c r="C264" s="3">
+      <c r="C264" s="4">
         <v>29164.77</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A265" s="2">
+      <c r="A265" s="3">
         <v>43727</v>
       </c>
-      <c r="B265" s="3">
+      <c r="B265" s="4">
         <v>28027.99</v>
       </c>
-      <c r="C265" s="3">
+      <c r="C265" s="4">
         <v>29167.62</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A266" s="2">
+      <c r="A266" s="3">
         <v>43728</v>
       </c>
-      <c r="B266" s="3">
+      <c r="B266" s="4">
         <v>28029.86</v>
       </c>
-      <c r="C266" s="3">
+      <c r="C266" s="4">
         <v>29170.47</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A267" s="2">
+      <c r="A267" s="3">
         <v>43729</v>
       </c>
-      <c r="B267" s="3">
+      <c r="B267" s="4">
         <v>28031.72</v>
       </c>
-      <c r="C267" s="3">
+      <c r="C267" s="4">
         <v>29173.32</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A268" s="2">
+      <c r="A268" s="3">
         <v>43730</v>
       </c>
-      <c r="B268" s="3">
+      <c r="B268" s="4">
         <v>28033.59</v>
       </c>
-      <c r="C268" s="3">
+      <c r="C268" s="4">
         <v>29176.18</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A269" s="2">
+      <c r="A269" s="3">
         <v>43731</v>
       </c>
-      <c r="B269" s="3">
+      <c r="B269" s="4">
         <v>28035.46</v>
       </c>
-      <c r="C269" s="3">
+      <c r="C269" s="4">
         <v>29179.03</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A270" s="2">
+      <c r="A270" s="3">
         <v>43732</v>
       </c>
-      <c r="B270" s="3">
+      <c r="B270" s="4">
         <v>28037.33</v>
       </c>
-      <c r="C270" s="3">
+      <c r="C270" s="4">
         <v>29181.88</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A271" s="2">
+      <c r="A271" s="3">
         <v>43733</v>
       </c>
-      <c r="B271" s="3">
+      <c r="B271" s="4">
         <v>28039.19</v>
       </c>
-      <c r="C271" s="3">
+      <c r="C271" s="4">
         <v>29184.74</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A272" s="2">
+      <c r="A272" s="3">
         <v>43734</v>
       </c>
-      <c r="B272" s="3">
+      <c r="B272" s="4">
         <v>28041.06</v>
       </c>
-      <c r="C272" s="3">
+      <c r="C272" s="4">
         <v>29187.59</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A273" s="2">
+      <c r="A273" s="3">
         <v>43735</v>
       </c>
-      <c r="B273" s="3">
+      <c r="B273" s="4">
         <v>28042.93</v>
       </c>
-      <c r="C273" s="3">
+      <c r="C273" s="4">
         <v>29190.45</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A274" s="2">
+      <c r="A274" s="3">
         <v>43736</v>
       </c>
-      <c r="B274" s="3">
+      <c r="B274" s="4">
         <v>28044.799999999999</v>
       </c>
-      <c r="C274" s="3">
+      <c r="C274" s="4">
         <v>29193.3</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A275" s="2">
+      <c r="A275" s="3">
         <v>43737</v>
       </c>
-      <c r="B275" s="3">
+      <c r="B275" s="4">
         <v>28046.66</v>
       </c>
-      <c r="C275" s="3">
+      <c r="C275" s="4">
         <v>29196.16</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A276" s="2">
+      <c r="A276" s="3">
         <v>43738</v>
       </c>
-      <c r="B276" s="3">
+      <c r="B276" s="4">
         <v>28048.53</v>
       </c>
-      <c r="C276" s="3">
+      <c r="C276" s="4">
         <v>29199.01</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A277" s="2">
+      <c r="A277" s="3">
         <v>43739</v>
       </c>
-      <c r="B277" s="3">
+      <c r="B277" s="4">
         <v>28050.400000000001</v>
       </c>
-      <c r="C277" s="3">
+      <c r="C277" s="4">
         <v>29201.87</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A278" s="2">
+      <c r="A278" s="3">
         <v>43740</v>
       </c>
-      <c r="B278" s="3">
+      <c r="B278" s="4">
         <v>28052.27</v>
       </c>
-      <c r="C278" s="3">
+      <c r="C278" s="4">
         <v>29204.720000000001</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A279" s="2">
+      <c r="A279" s="3">
         <v>43741</v>
       </c>
-      <c r="B279" s="3">
+      <c r="B279" s="4">
         <v>28054.14</v>
       </c>
-      <c r="C279" s="3">
+      <c r="C279" s="4">
         <v>29207.58</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A280" s="2">
+      <c r="A280" s="3">
         <v>43742</v>
       </c>
-      <c r="B280" s="3">
+      <c r="B280" s="4">
         <v>28056</v>
       </c>
-      <c r="C280" s="3">
+      <c r="C280" s="4">
         <v>29210.44</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A281" s="2">
+      <c r="A281" s="3">
         <v>43743</v>
       </c>
-      <c r="B281" s="3">
+      <c r="B281" s="4">
         <v>28057.87</v>
       </c>
-      <c r="C281" s="3">
+      <c r="C281" s="4">
         <v>29213.29</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A282" s="2">
+      <c r="A282" s="3">
         <v>43744</v>
       </c>
-      <c r="B282" s="3">
+      <c r="B282" s="4">
         <v>28059.74</v>
       </c>
-      <c r="C282" s="3">
+      <c r="C282" s="4">
         <v>29216.15</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A283" s="2">
+      <c r="A283" s="3">
         <v>43745</v>
       </c>
-      <c r="B283" s="3">
+      <c r="B283" s="4">
         <v>28061.61</v>
       </c>
-      <c r="C283" s="3">
+      <c r="C283" s="4">
         <v>29219.01</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A284" s="2">
+      <c r="A284" s="3">
         <v>43746</v>
       </c>
-      <c r="B284" s="3">
+      <c r="B284" s="4">
         <v>28063.48</v>
       </c>
-      <c r="C284" s="3">
+      <c r="C284" s="4">
         <v>29221.86</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A285" s="2">
+      <c r="A285" s="3">
         <v>43747</v>
       </c>
-      <c r="B285" s="3">
+      <c r="B285" s="4">
         <v>28065.35</v>
       </c>
-      <c r="C285" s="3">
+      <c r="C285" s="4">
         <v>29224.720000000001</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A286" s="2">
+      <c r="A286" s="3">
         <v>43748</v>
       </c>
-      <c r="B286" s="3">
+      <c r="B286" s="4">
         <v>28065.35</v>
       </c>
-      <c r="C286" s="3">
+      <c r="C286" s="4">
         <v>29226.85</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A287" s="2">
+      <c r="A287" s="3">
         <v>43749</v>
       </c>
-      <c r="B287" s="3">
+      <c r="B287" s="4">
         <v>28065.35</v>
       </c>
-      <c r="C287" s="3">
+      <c r="C287" s="4">
         <v>29228.98</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A288" s="2">
+      <c r="A288" s="3">
         <v>43750</v>
       </c>
-      <c r="B288" s="3">
+      <c r="B288" s="4">
         <v>28065.35</v>
       </c>
-      <c r="C288" s="3">
+      <c r="C288" s="4">
         <v>29231.11</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A289" s="2">
+      <c r="A289" s="3">
         <v>43751</v>
       </c>
-      <c r="B289" s="3">
+      <c r="B289" s="4">
         <v>28065.35</v>
       </c>
-      <c r="C289" s="3">
+      <c r="C289" s="4">
         <v>29233.24</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A290" s="2">
+      <c r="A290" s="3">
         <v>43752</v>
       </c>
-      <c r="B290" s="3">
+      <c r="B290" s="4">
         <v>28065.35</v>
       </c>
-      <c r="C290" s="3">
+      <c r="C290" s="4">
         <v>29235.37</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A291" s="2">
+      <c r="A291" s="3">
         <v>43753</v>
       </c>
-      <c r="B291" s="3">
+      <c r="B291" s="4">
         <v>28065.35</v>
       </c>
-      <c r="C291" s="3">
+      <c r="C291" s="4">
         <v>29237.51</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A292" s="2">
+      <c r="A292" s="3">
         <v>43754</v>
       </c>
-      <c r="B292" s="3">
+      <c r="B292" s="4">
         <v>28065.35</v>
       </c>
-      <c r="C292" s="3">
+      <c r="C292" s="4">
         <v>29239.64</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A293" s="2">
+      <c r="A293" s="3">
         <v>43755</v>
       </c>
-      <c r="B293" s="3">
+      <c r="B293" s="4">
         <v>28065.35</v>
       </c>
-      <c r="C293" s="3">
+      <c r="C293" s="4">
         <v>29241.77</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A294" s="2">
+      <c r="A294" s="3">
         <v>43756</v>
       </c>
-      <c r="B294" s="3">
+      <c r="B294" s="4">
         <v>28065.35</v>
       </c>
-      <c r="C294" s="3">
+      <c r="C294" s="4">
         <v>29243.9</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A295" s="2">
+      <c r="A295" s="3">
         <v>43757</v>
       </c>
-      <c r="B295" s="3">
+      <c r="B295" s="4">
         <v>28065.35</v>
       </c>
-      <c r="C295" s="3">
+      <c r="C295" s="4">
         <v>29246.03</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A296" s="2">
+      <c r="A296" s="3">
         <v>43758</v>
       </c>
-      <c r="B296" s="3">
+      <c r="B296" s="4">
         <v>28065.35</v>
       </c>
-      <c r="C296" s="3">
+      <c r="C296" s="4">
         <v>29248.16</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A297" s="2">
+      <c r="A297" s="3">
         <v>43759</v>
       </c>
-      <c r="B297" s="3">
+      <c r="B297" s="4">
         <v>28065.35</v>
       </c>
-      <c r="C297" s="3">
+      <c r="C297" s="4">
         <v>29250.3</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A298" s="2">
+      <c r="A298" s="3">
         <v>43760</v>
       </c>
-      <c r="B298" s="3">
+      <c r="B298" s="4">
         <v>28065.35</v>
       </c>
-      <c r="C298" s="3">
+      <c r="C298" s="4">
         <v>29252.43</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A299" s="2">
+      <c r="A299" s="3">
         <v>43761</v>
       </c>
-      <c r="B299" s="3">
+      <c r="B299" s="4">
         <v>28065.35</v>
       </c>
-      <c r="C299" s="3">
+      <c r="C299" s="4">
         <v>29254.560000000001</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A300" s="2">
+      <c r="A300" s="3">
         <v>43762</v>
       </c>
-      <c r="B300" s="3">
+      <c r="B300" s="4">
         <v>28065.35</v>
       </c>
-      <c r="C300" s="3">
+      <c r="C300" s="4">
         <v>29256.69</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A301" s="2">
+      <c r="A301" s="3">
         <v>43763</v>
       </c>
-      <c r="B301" s="3">
+      <c r="B301" s="4">
         <v>28065.35</v>
       </c>
-      <c r="C301" s="3">
+      <c r="C301" s="4">
         <v>29258.83</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A302" s="2">
+      <c r="A302" s="3">
         <v>43764</v>
       </c>
-      <c r="B302" s="3">
+      <c r="B302" s="4">
         <v>28065.35</v>
       </c>
-      <c r="C302" s="3">
+      <c r="C302" s="4">
         <v>29260.959999999999</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A303" s="2">
+      <c r="A303" s="3">
         <v>43765</v>
       </c>
-      <c r="B303" s="3">
+      <c r="B303" s="4">
         <v>28065.35</v>
       </c>
-      <c r="C303" s="3">
+      <c r="C303" s="4">
         <v>29263.09</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A304" s="2">
+      <c r="A304" s="3">
         <v>43766</v>
       </c>
-      <c r="B304" s="3">
+      <c r="B304" s="4">
         <v>28065.35</v>
       </c>
-      <c r="C304" s="3">
+      <c r="C304" s="4">
         <v>29265.23</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A305" s="2">
+      <c r="A305" s="3">
         <v>43767</v>
       </c>
-      <c r="B305" s="3">
+      <c r="B305" s="4">
         <v>28065.35</v>
       </c>
-      <c r="C305" s="3">
+      <c r="C305" s="4">
         <v>29267.360000000001</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A306" s="2">
+      <c r="A306" s="3">
         <v>43768</v>
       </c>
-      <c r="B306" s="3">
+      <c r="B306" s="4">
         <v>28065.35</v>
       </c>
-      <c r="C306" s="3">
+      <c r="C306" s="4">
         <v>29269.49</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A307" s="2">
+      <c r="A307" s="3">
         <v>43769</v>
       </c>
-      <c r="B307" s="3">
+      <c r="B307" s="4">
         <v>28065.35</v>
       </c>
-      <c r="C307" s="3">
+      <c r="C307" s="4">
         <v>29271.63</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A308" s="2">
+      <c r="A308" s="3">
         <v>43770</v>
       </c>
-      <c r="B308" s="3">
+      <c r="B308" s="4">
         <v>28065.35</v>
       </c>
-      <c r="C308" s="3">
+      <c r="C308" s="4">
         <v>29273.759999999998</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A309" s="2">
+      <c r="A309" s="3">
         <v>43771</v>
       </c>
-      <c r="B309" s="3">
+      <c r="B309" s="4">
         <v>28065.35</v>
       </c>
-      <c r="C309" s="3">
+      <c r="C309" s="4">
         <v>29275.89</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A310" s="2">
+      <c r="A310" s="3">
         <v>43772</v>
       </c>
-      <c r="B310" s="3">
+      <c r="B310" s="4">
         <v>28065.35</v>
       </c>
-      <c r="C310" s="3">
+      <c r="C310" s="4">
         <v>29278.03</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A311" s="2">
+      <c r="A311" s="3">
         <v>43773</v>
       </c>
-      <c r="B311" s="3">
+      <c r="B311" s="4">
         <v>28065.35</v>
       </c>
-      <c r="C311" s="3">
+      <c r="C311" s="4">
         <v>29280.16</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A312" s="2">
+      <c r="A312" s="3">
         <v>43774</v>
       </c>
-      <c r="B312" s="3">
+      <c r="B312" s="4">
         <v>28065.35</v>
       </c>
-      <c r="C312" s="3">
+      <c r="C312" s="4">
         <v>29282.3</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A313" s="2">
+      <c r="A313" s="3">
         <v>43775</v>
       </c>
-      <c r="B313" s="3">
+      <c r="B313" s="4">
         <v>28065.35</v>
       </c>
-      <c r="C313" s="3">
+      <c r="C313" s="4">
         <v>29284.43</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A314" s="2">
+      <c r="A314" s="3">
         <v>43776</v>
       </c>
-      <c r="B314" s="3">
+      <c r="B314" s="4">
         <v>28065.35</v>
       </c>
-      <c r="C314" s="3">
+      <c r="C314" s="4">
         <v>29286.57</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A315" s="2">
+      <c r="A315" s="3">
         <v>43777</v>
       </c>
-      <c r="B315" s="3">
+      <c r="B315" s="4">
         <v>28065.35</v>
       </c>
-      <c r="C315" s="3">
+      <c r="C315" s="4">
         <v>29288.7</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A316" s="2">
+      <c r="A316" s="3">
         <v>43778</v>
       </c>
-      <c r="B316" s="3">
+      <c r="B316" s="4">
         <v>28065.35</v>
       </c>
-      <c r="C316" s="3">
+      <c r="C316" s="4">
         <v>29290.84</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A317" s="2">
+      <c r="A317" s="3">
         <v>43779</v>
       </c>
-      <c r="B317" s="3">
+      <c r="B317" s="4">
         <v>28072.81</v>
       </c>
-      <c r="C317" s="3">
+      <c r="C317" s="4">
         <v>29293.84</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A318" s="2">
+      <c r="A318" s="3">
         <v>43780</v>
       </c>
-      <c r="B318" s="3">
+      <c r="B318" s="4">
         <v>28080.26</v>
       </c>
-      <c r="C318" s="3">
+      <c r="C318" s="4">
         <v>29296.84</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A319" s="2">
+      <c r="A319" s="3">
         <v>43781</v>
       </c>
-      <c r="B319" s="3">
+      <c r="B319" s="4">
         <v>28087.72</v>
       </c>
-      <c r="C319" s="3">
+      <c r="C319" s="4">
         <v>29299.83</v>
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A320" s="2">
+      <c r="A320" s="3">
         <v>43782</v>
       </c>
-      <c r="B320" s="3">
+      <c r="B320" s="4">
         <v>28095.18</v>
       </c>
-      <c r="C320" s="3">
+      <c r="C320" s="4">
         <v>29302.83</v>
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A321" s="2">
+      <c r="A321" s="3">
         <v>43783</v>
       </c>
-      <c r="B321" s="3">
+      <c r="B321" s="4">
         <v>28102.65</v>
       </c>
-      <c r="C321" s="3">
+      <c r="C321" s="4">
         <v>29305.83</v>
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A322" s="2">
+      <c r="A322" s="3">
         <v>43784</v>
       </c>
-      <c r="B322" s="3">
+      <c r="B322" s="4">
         <v>28110.11</v>
       </c>
-      <c r="C322" s="3">
+      <c r="C322" s="4">
         <v>29308.83</v>
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A323" s="2">
+      <c r="A323" s="3">
         <v>43785</v>
       </c>
-      <c r="B323" s="3">
+      <c r="B323" s="4">
         <v>28117.58</v>
       </c>
-      <c r="C323" s="3">
+      <c r="C323" s="4">
         <v>29311.83</v>
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A324" s="2">
+      <c r="A324" s="3">
         <v>43786</v>
       </c>
-      <c r="B324" s="3">
+      <c r="B324" s="4">
         <v>28125.05</v>
       </c>
-      <c r="C324" s="3">
+      <c r="C324" s="4">
         <v>29314.83</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A325" s="2">
+      <c r="A325" s="3">
         <v>43787</v>
       </c>
-      <c r="B325" s="3">
+      <c r="B325" s="4">
         <v>28132.52</v>
       </c>
-      <c r="C325" s="3">
+      <c r="C325" s="4">
         <v>29317.83</v>
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A326" s="2">
+      <c r="A326" s="3">
         <v>43788</v>
       </c>
-      <c r="B326" s="3">
+      <c r="B326" s="4">
         <v>28139.99</v>
       </c>
-      <c r="C326" s="3">
+      <c r="C326" s="4">
         <v>29320.83</v>
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A327" s="2">
+      <c r="A327" s="3">
         <v>43789</v>
       </c>
-      <c r="B327" s="3">
+      <c r="B327" s="4">
         <v>28147.47</v>
       </c>
-      <c r="C327" s="3">
+      <c r="C327" s="4">
         <v>29323.83</v>
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A328" s="2">
+      <c r="A328" s="3">
         <v>43790</v>
       </c>
-      <c r="B328" s="3">
+      <c r="B328" s="4">
         <v>28154.94</v>
       </c>
-      <c r="C328" s="3">
+      <c r="C328" s="4">
         <v>29326.83</v>
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A329" s="2">
+      <c r="A329" s="3">
         <v>43791</v>
       </c>
-      <c r="B329" s="3">
+      <c r="B329" s="4">
         <v>28162.42</v>
       </c>
-      <c r="C329" s="3">
+      <c r="C329" s="4">
         <v>29329.83</v>
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A330" s="2">
+      <c r="A330" s="3">
         <v>43792</v>
       </c>
-      <c r="B330" s="3">
+      <c r="B330" s="4">
         <v>28169.9</v>
       </c>
-      <c r="C330" s="3">
+      <c r="C330" s="4">
         <v>29332.83</v>
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A331" s="2">
+      <c r="A331" s="3">
         <v>43793</v>
       </c>
-      <c r="B331" s="3">
+      <c r="B331" s="4">
         <v>28177.39</v>
       </c>
-      <c r="C331" s="3">
+      <c r="C331" s="4">
         <v>29335.83</v>
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A332" s="2">
+      <c r="A332" s="3">
         <v>43794</v>
       </c>
-      <c r="B332" s="3">
+      <c r="B332" s="4">
         <v>28184.87</v>
       </c>
-      <c r="C332" s="3">
+      <c r="C332" s="4">
         <v>29338.84</v>
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A333" s="2">
+      <c r="A333" s="3">
         <v>43795</v>
       </c>
-      <c r="B333" s="3">
+      <c r="B333" s="4">
         <v>28192.36</v>
       </c>
-      <c r="C333" s="3">
+      <c r="C333" s="4">
         <v>29341.84</v>
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A334" s="2">
+      <c r="A334" s="3">
         <v>43796</v>
       </c>
-      <c r="B334" s="3">
+      <c r="B334" s="4">
         <v>28199.85</v>
       </c>
-      <c r="C334" s="3">
+      <c r="C334" s="4">
         <v>29344.84</v>
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A335" s="2">
+      <c r="A335" s="3">
         <v>43797</v>
       </c>
-      <c r="B335" s="3">
+      <c r="B335" s="4">
         <v>28207.34</v>
       </c>
-      <c r="C335" s="3">
+      <c r="C335" s="4">
         <v>29347.85</v>
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A336" s="2">
+      <c r="A336" s="3">
         <v>43798</v>
       </c>
-      <c r="B336" s="3">
+      <c r="B336" s="4">
         <v>28214.83</v>
       </c>
-      <c r="C336" s="3">
+      <c r="C336" s="4">
         <v>29350.85</v>
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A337" s="2">
+      <c r="A337" s="3">
         <v>43799</v>
       </c>
-      <c r="B337" s="3">
+      <c r="B337" s="4">
         <v>28222.33</v>
       </c>
-      <c r="C337" s="3">
+      <c r="C337" s="4">
         <v>29353.85</v>
       </c>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A338" s="2">
+      <c r="A338" s="3">
         <v>43800</v>
       </c>
-      <c r="B338" s="3">
+      <c r="B338" s="4">
         <v>28229.83</v>
       </c>
-      <c r="C338" s="3">
+      <c r="C338" s="4">
         <v>29356.86</v>
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A339" s="2">
+      <c r="A339" s="3">
         <v>43801</v>
       </c>
-      <c r="B339" s="3">
+      <c r="B339" s="4">
         <v>28237.32</v>
       </c>
-      <c r="C339" s="3">
+      <c r="C339" s="4">
         <v>29359.86</v>
       </c>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A340" s="2">
+      <c r="A340" s="3">
         <v>43802</v>
       </c>
-      <c r="B340" s="3">
+      <c r="B340" s="4">
         <v>28244.83</v>
       </c>
-      <c r="C340" s="3">
+      <c r="C340" s="4">
         <v>29362.87</v>
       </c>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A341" s="2">
+      <c r="A341" s="3">
         <v>43803</v>
       </c>
-      <c r="B341" s="3">
+      <c r="B341" s="4">
         <v>28252.33</v>
       </c>
-      <c r="C341" s="3">
+      <c r="C341" s="4">
         <v>29365.87</v>
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A342" s="2">
+      <c r="A342" s="3">
         <v>43804</v>
       </c>
-      <c r="B342" s="3">
+      <c r="B342" s="4">
         <v>28259.83</v>
       </c>
-      <c r="C342" s="3">
+      <c r="C342" s="4">
         <v>29368.880000000001</v>
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A343" s="2">
+      <c r="A343" s="3">
         <v>43805</v>
       </c>
-      <c r="B343" s="3">
+      <c r="B343" s="4">
         <v>28267.34</v>
       </c>
-      <c r="C343" s="3">
+      <c r="C343" s="4">
         <v>29371.88</v>
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A344" s="2">
+      <c r="A344" s="3">
         <v>43806</v>
       </c>
-      <c r="B344" s="3">
+      <c r="B344" s="4">
         <v>28274.85</v>
       </c>
-      <c r="C344" s="3">
+      <c r="C344" s="4">
         <v>29374.89</v>
       </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A345" s="2">
+      <c r="A345" s="3">
         <v>43807</v>
       </c>
-      <c r="B345" s="3">
+      <c r="B345" s="4">
         <v>28282.36</v>
       </c>
-      <c r="C345" s="3">
+      <c r="C345" s="4">
         <v>29377.89</v>
       </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A346" s="2">
+      <c r="A346" s="3">
         <v>43808</v>
       </c>
-      <c r="B346" s="3">
+      <c r="B346" s="4">
         <v>28289.87</v>
       </c>
-      <c r="C346" s="3">
+      <c r="C346" s="4">
         <v>29380.9</v>
       </c>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A347" s="2">
+      <c r="A347" s="3">
         <v>43809</v>
       </c>
-      <c r="B347" s="3">
+      <c r="B347" s="4">
         <v>28290.78</v>
       </c>
-      <c r="C347" s="3">
+      <c r="C347" s="4">
         <v>29383.09</v>
       </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A348" s="2">
+      <c r="A348" s="3">
         <v>43810</v>
       </c>
-      <c r="B348" s="3">
+      <c r="B348" s="4">
         <v>28291.69</v>
       </c>
-      <c r="C348" s="3">
+      <c r="C348" s="4">
         <v>29385.27</v>
       </c>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A349" s="2">
+      <c r="A349" s="3">
         <v>43811</v>
       </c>
-      <c r="B349" s="3">
+      <c r="B349" s="4">
         <v>28292.61</v>
       </c>
-      <c r="C349" s="3">
+      <c r="C349" s="4">
         <v>29387.46</v>
       </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A350" s="2">
+      <c r="A350" s="3">
         <v>43812</v>
       </c>
-      <c r="B350" s="3">
+      <c r="B350" s="4">
         <v>28293.52</v>
       </c>
-      <c r="C350" s="3">
+      <c r="C350" s="4">
         <v>29389.64</v>
       </c>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A351" s="2">
+      <c r="A351" s="3">
         <v>43813</v>
       </c>
-      <c r="B351" s="3">
+      <c r="B351" s="4">
         <v>28294.43</v>
       </c>
-      <c r="C351" s="3">
+      <c r="C351" s="4">
         <v>29391.83</v>
       </c>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A352" s="2">
+      <c r="A352" s="3">
         <v>43814</v>
       </c>
-      <c r="B352" s="3">
+      <c r="B352" s="4">
         <v>28295.34</v>
       </c>
-      <c r="C352" s="3">
+      <c r="C352" s="4">
         <v>29394.02</v>
       </c>
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A353" s="2">
+      <c r="A353" s="3">
         <v>43815</v>
       </c>
-      <c r="B353" s="3">
+      <c r="B353" s="4">
         <v>28296.26</v>
       </c>
-      <c r="C353" s="3">
+      <c r="C353" s="4">
         <v>29396.2</v>
       </c>
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A354" s="2">
+      <c r="A354" s="3">
         <v>43816</v>
       </c>
-      <c r="B354" s="3">
+      <c r="B354" s="4">
         <v>28297.17</v>
       </c>
-      <c r="C354" s="3">
+      <c r="C354" s="4">
         <v>29398.39</v>
       </c>
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A355" s="2">
+      <c r="A355" s="3">
         <v>43817</v>
       </c>
-      <c r="B355" s="3">
+      <c r="B355" s="4">
         <v>28298.080000000002</v>
       </c>
-      <c r="C355" s="3">
+      <c r="C355" s="4">
         <v>29400.58</v>
       </c>
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A356" s="2">
+      <c r="A356" s="3">
         <v>43818</v>
       </c>
-      <c r="B356" s="3">
+      <c r="B356" s="4">
         <v>28298.99</v>
       </c>
-      <c r="C356" s="3">
+      <c r="C356" s="4">
         <v>29402.76</v>
       </c>
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A357" s="2">
+      <c r="A357" s="3">
         <v>43819</v>
       </c>
-      <c r="B357" s="3">
+      <c r="B357" s="4">
         <v>28299.91</v>
       </c>
-      <c r="C357" s="3">
+      <c r="C357" s="4">
         <v>29404.95</v>
       </c>
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A358" s="2">
+      <c r="A358" s="3">
         <v>43820</v>
       </c>
-      <c r="B358" s="3">
+      <c r="B358" s="4">
         <v>28300.82</v>
       </c>
-      <c r="C358" s="3">
+      <c r="C358" s="4">
         <v>29407.14</v>
       </c>
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A359" s="2">
+      <c r="A359" s="3">
         <v>43821</v>
       </c>
-      <c r="B359" s="3">
+      <c r="B359" s="4">
         <v>28301.73</v>
       </c>
-      <c r="C359" s="3">
+      <c r="C359" s="4">
         <v>29409.32</v>
       </c>
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A360" s="2">
+      <c r="A360" s="3">
         <v>43822</v>
       </c>
-      <c r="B360" s="3">
+      <c r="B360" s="4">
         <v>28302.639999999999</v>
       </c>
-      <c r="C360" s="3">
+      <c r="C360" s="4">
         <v>29411.51</v>
       </c>
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A361" s="2">
+      <c r="A361" s="3">
         <v>43823</v>
       </c>
-      <c r="B361" s="3">
+      <c r="B361" s="4">
         <v>28303.56</v>
       </c>
-      <c r="C361" s="3">
+      <c r="C361" s="4">
         <v>29413.7</v>
       </c>
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A362" s="2">
+      <c r="A362" s="3">
         <v>43824</v>
       </c>
-      <c r="B362" s="3">
+      <c r="B362" s="4">
         <v>28304.47</v>
       </c>
-      <c r="C362" s="3">
+      <c r="C362" s="4">
         <v>29415.89</v>
       </c>
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A363" s="2">
+      <c r="A363" s="3">
         <v>43825</v>
       </c>
-      <c r="B363" s="3">
+      <c r="B363" s="4">
         <v>28305.38</v>
       </c>
-      <c r="C363" s="3">
+      <c r="C363" s="4">
         <v>29418.080000000002</v>
       </c>
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A364" s="2">
+      <c r="A364" s="3">
         <v>43826</v>
       </c>
-      <c r="B364" s="3">
+      <c r="B364" s="4">
         <v>28306.29</v>
       </c>
-      <c r="C364" s="3">
+      <c r="C364" s="4">
         <v>29420.26</v>
       </c>
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A365" s="2">
+      <c r="A365" s="3">
         <v>43827</v>
       </c>
-      <c r="B365" s="3">
+      <c r="B365" s="4">
         <v>28307.21</v>
       </c>
-      <c r="C365" s="3">
+      <c r="C365" s="4">
         <v>29422.45</v>
       </c>
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A366" s="2">
+      <c r="A366" s="3">
         <v>43828</v>
       </c>
-      <c r="B366" s="3">
+      <c r="B366" s="4">
         <v>28308.12</v>
       </c>
-      <c r="C366" s="3">
+      <c r="C366" s="4">
         <v>29424.639999999999</v>
       </c>
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A367" s="2">
+      <c r="A367" s="3">
         <v>43829</v>
       </c>
-      <c r="B367" s="3">
+      <c r="B367" s="4">
         <v>28309.03</v>
       </c>
-      <c r="C367" s="3">
+      <c r="C367" s="4">
         <v>29426.83</v>
       </c>
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A368" s="2">
+      <c r="A368" s="3">
         <v>43830</v>
       </c>
-      <c r="B368" s="3">
+      <c r="B368" s="4">
         <v>28309.94</v>
       </c>
-      <c r="C368" s="3">
+      <c r="C368" s="4">
         <v>29429.02</v>
       </c>
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A369" s="2">
+      <c r="A369" s="3">
         <v>43831</v>
       </c>
-      <c r="B369" s="3">
+      <c r="B369" s="4">
         <v>28310.86</v>
       </c>
-      <c r="C369" s="3">
+      <c r="C369" s="4">
         <v>29431.21</v>
       </c>
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A370" s="2">
+      <c r="A370" s="3">
         <v>43832</v>
       </c>
-      <c r="B370" s="3">
+      <c r="B370" s="4">
         <v>28311.77</v>
       </c>
-      <c r="C370" s="3">
+      <c r="C370" s="4">
         <v>29433.4</v>
       </c>
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A371" s="2">
+      <c r="A371" s="3">
         <v>43833</v>
       </c>
-      <c r="B371" s="3">
+      <c r="B371" s="4">
         <v>28312.68</v>
       </c>
-      <c r="C371" s="3">
+      <c r="C371" s="4">
         <v>29435.59</v>
       </c>
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A372" s="2">
+      <c r="A372" s="3">
         <v>43834</v>
       </c>
-      <c r="B372" s="3">
+      <c r="B372" s="4">
         <v>28313.599999999999</v>
       </c>
-      <c r="C372" s="3">
+      <c r="C372" s="4">
         <v>29437.78</v>
       </c>
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A373" s="2">
+      <c r="A373" s="3">
         <v>43835</v>
       </c>
-      <c r="B373" s="3">
+      <c r="B373" s="4">
         <v>28314.51</v>
       </c>
-      <c r="C373" s="3">
+      <c r="C373" s="4">
         <v>29439.97</v>
       </c>
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A374" s="2">
+      <c r="A374" s="3">
         <v>43836</v>
       </c>
-      <c r="B374" s="3">
+      <c r="B374" s="4">
         <v>28315.42</v>
       </c>
-      <c r="C374" s="3">
+      <c r="C374" s="4">
         <v>29442.16</v>
       </c>
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A375" s="2">
+      <c r="A375" s="3">
         <v>43837</v>
       </c>
-      <c r="B375" s="3">
+      <c r="B375" s="4">
         <v>28316.33</v>
       </c>
-      <c r="C375" s="3">
+      <c r="C375" s="4">
         <v>29444.35</v>
       </c>
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A376" s="2">
+      <c r="A376" s="3">
         <v>43838</v>
       </c>
-      <c r="B376" s="3">
+      <c r="B376" s="4">
         <v>28317.25</v>
       </c>
-      <c r="C376" s="3">
+      <c r="C376" s="4">
         <v>29446.54</v>
       </c>
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A377" s="2">
+      <c r="A377" s="3">
         <v>43839</v>
       </c>
-      <c r="B377" s="3">
+      <c r="B377" s="4">
         <v>28318.16</v>
       </c>
-      <c r="C377" s="3">
+      <c r="C377" s="4">
         <v>29448.73</v>
       </c>
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A378" s="2">
+      <c r="A378" s="3">
         <v>43840</v>
       </c>
-      <c r="B378" s="3">
+      <c r="B378" s="4">
         <v>28319.07</v>
       </c>
-      <c r="C378" s="3">
+      <c r="C378" s="4">
         <v>29451</v>
       </c>
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A379" s="2">
+      <c r="A379" s="3">
         <v>43841</v>
       </c>
-      <c r="B379" s="3">
+      <c r="B379" s="4">
         <v>28319.99</v>
       </c>
-      <c r="C379" s="3">
+      <c r="C379" s="4">
         <v>29453.27</v>
       </c>
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A380" s="2">
+      <c r="A380" s="3">
         <v>43842</v>
       </c>
-      <c r="B380" s="3">
+      <c r="B380" s="4">
         <v>28320.9</v>
       </c>
-      <c r="C380" s="3">
+      <c r="C380" s="4">
         <v>29455.54</v>
       </c>
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A381" s="2">
+      <c r="A381" s="3">
         <v>43843</v>
       </c>
-      <c r="B381" s="3">
+      <c r="B381" s="4">
         <v>28321.81</v>
       </c>
-      <c r="C381" s="3">
+      <c r="C381" s="4">
         <v>29457.81</v>
       </c>
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A382" s="2">
+      <c r="A382" s="3">
         <v>43844</v>
       </c>
-      <c r="B382" s="3">
+      <c r="B382" s="4">
         <v>28322.73</v>
       </c>
-      <c r="C382" s="3">
+      <c r="C382" s="4">
         <v>29460.080000000002</v>
       </c>
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A383" s="2">
+      <c r="A383" s="3">
         <v>43845</v>
       </c>
-      <c r="B383" s="3">
+      <c r="B383" s="4">
         <v>28323.64</v>
       </c>
-      <c r="C383" s="3">
+      <c r="C383" s="4">
         <v>29462.35</v>
       </c>
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A384" s="2">
+      <c r="A384" s="3">
         <v>43846</v>
       </c>
-      <c r="B384" s="3">
+      <c r="B384" s="4">
         <v>28324.55</v>
       </c>
-      <c r="C384" s="3">
+      <c r="C384" s="4">
         <v>29464.63</v>
       </c>
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A385" s="2">
+      <c r="A385" s="3">
         <v>43847</v>
       </c>
-      <c r="B385" s="3">
+      <c r="B385" s="4">
         <v>28325.47</v>
       </c>
-      <c r="C385" s="3">
+      <c r="C385" s="4">
         <v>29466.9</v>
       </c>
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A386" s="2">
+      <c r="A386" s="3">
         <v>43848</v>
       </c>
-      <c r="B386" s="3">
+      <c r="B386" s="4">
         <v>28326.38</v>
       </c>
-      <c r="C386" s="3">
+      <c r="C386" s="4">
         <v>29469.17</v>
       </c>
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A387" s="2">
+      <c r="A387" s="3">
         <v>43849</v>
       </c>
-      <c r="B387" s="3">
+      <c r="B387" s="4">
         <v>28327.29</v>
       </c>
-      <c r="C387" s="3">
+      <c r="C387" s="4">
         <v>29471.439999999999</v>
       </c>
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A388" s="2">
+      <c r="A388" s="3">
         <v>43850</v>
       </c>
-      <c r="B388" s="3">
+      <c r="B388" s="4">
         <v>28328.21</v>
       </c>
-      <c r="C388" s="3">
+      <c r="C388" s="4">
         <v>29473.71</v>
       </c>
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A389" s="2">
+      <c r="A389" s="3">
         <v>43851</v>
       </c>
-      <c r="B389" s="3">
+      <c r="B389" s="4">
         <v>28329.119999999999</v>
       </c>
-      <c r="C389" s="3">
+      <c r="C389" s="4">
         <v>29475.99</v>
       </c>
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A390" s="2">
+      <c r="A390" s="3">
         <v>43852</v>
       </c>
-      <c r="B390" s="3">
+      <c r="B390" s="4">
         <v>28330.03</v>
       </c>
-      <c r="C390" s="3">
+      <c r="C390" s="4">
         <v>29478.26</v>
       </c>
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A391" s="2">
+      <c r="A391" s="3">
         <v>43853</v>
       </c>
-      <c r="B391" s="3">
+      <c r="B391" s="4">
         <v>28330.95</v>
       </c>
-      <c r="C391" s="3">
+      <c r="C391" s="4">
         <v>29480.53</v>
       </c>
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A392" s="2">
+      <c r="A392" s="3">
         <v>43854</v>
       </c>
-      <c r="B392" s="3">
+      <c r="B392" s="4">
         <v>28331.86</v>
       </c>
-      <c r="C392" s="3">
+      <c r="C392" s="4">
         <v>29482.799999999999</v>
       </c>
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A393" s="2">
+      <c r="A393" s="3">
         <v>43855</v>
       </c>
-      <c r="B393" s="3">
+      <c r="B393" s="4">
         <v>28332.77</v>
       </c>
-      <c r="C393" s="3">
+      <c r="C393" s="4">
         <v>29485.08</v>
       </c>
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A394" s="2">
+      <c r="A394" s="3">
         <v>43856</v>
       </c>
-      <c r="B394" s="3">
+      <c r="B394" s="4">
         <v>28333.69</v>
       </c>
-      <c r="C394" s="3">
+      <c r="C394" s="4">
         <v>29487.35</v>
       </c>
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A395" s="2">
+      <c r="A395" s="3">
         <v>43857</v>
       </c>
-      <c r="B395" s="3">
+      <c r="B395" s="4">
         <v>28334.6</v>
       </c>
-      <c r="C395" s="3">
+      <c r="C395" s="4">
         <v>29489.62</v>
       </c>
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A396" s="2">
+      <c r="A396" s="3">
         <v>43858</v>
       </c>
-      <c r="B396" s="3">
+      <c r="B396" s="4">
         <v>28335.51</v>
       </c>
-      <c r="C396" s="3">
+      <c r="C396" s="4">
         <v>29491.9</v>
       </c>
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A397" s="2">
+      <c r="A397" s="3">
         <v>43859</v>
       </c>
-      <c r="B397" s="3">
+      <c r="B397" s="4">
         <v>28336.43</v>
       </c>
-      <c r="C397" s="3">
+      <c r="C397" s="4">
         <v>29494.17</v>
       </c>
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A398" s="2">
+      <c r="A398" s="3">
         <v>43860</v>
       </c>
-      <c r="B398" s="3">
+      <c r="B398" s="4">
         <v>28337.34</v>
       </c>
-      <c r="C398" s="3">
+      <c r="C398" s="4">
         <v>29496.44</v>
       </c>
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A399" s="2">
+      <c r="A399" s="3">
         <v>43861</v>
       </c>
-      <c r="B399" s="3">
+      <c r="B399" s="4">
         <v>28338.25</v>
       </c>
-      <c r="C399" s="3">
+      <c r="C399" s="4">
         <v>29498.720000000001</v>
       </c>
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A400" s="2">
+      <c r="A400" s="3">
         <v>43862</v>
       </c>
-      <c r="B400" s="3">
+      <c r="B400" s="4">
         <v>28339.17</v>
       </c>
-      <c r="C400" s="3">
+      <c r="C400" s="4">
         <v>29500.99</v>
       </c>
     </row>
     <row r="401" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A401" s="2">
+      <c r="A401" s="3">
         <v>43863</v>
       </c>
-      <c r="B401" s="3">
+      <c r="B401" s="4">
         <v>28340.080000000002</v>
       </c>
-      <c r="C401" s="3">
+      <c r="C401" s="4">
         <v>29503.27</v>
       </c>
     </row>
     <row r="402" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A402" s="2">
+      <c r="A402" s="3">
         <v>43864</v>
       </c>
-      <c r="B402" s="3">
+      <c r="B402" s="4">
         <v>28341</v>
       </c>
-      <c r="C402" s="3">
+      <c r="C402" s="4">
         <v>29505.54</v>
       </c>
     </row>
     <row r="403" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A403" s="2">
+      <c r="A403" s="3">
         <v>43865</v>
       </c>
-      <c r="B403" s="3">
+      <c r="B403" s="4">
         <v>28341.91</v>
       </c>
-      <c r="C403" s="3">
+      <c r="C403" s="4">
         <v>29507.81</v>
       </c>
     </row>
     <row r="404" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A404" s="2">
+      <c r="A404" s="3">
         <v>43866</v>
       </c>
-      <c r="B404" s="3">
+      <c r="B404" s="4">
         <v>28342.82</v>
       </c>
-      <c r="C404" s="3">
+      <c r="C404" s="4">
         <v>29510.09</v>
       </c>
     </row>
     <row r="405" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A405" s="2">
+      <c r="A405" s="3">
         <v>43867</v>
       </c>
-      <c r="B405" s="3">
+      <c r="B405" s="4">
         <v>28343.74</v>
       </c>
-      <c r="C405" s="3">
+      <c r="C405" s="4">
         <v>29512.36</v>
       </c>
     </row>
     <row r="406" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A406" s="2">
+      <c r="A406" s="3">
         <v>43868</v>
       </c>
-      <c r="B406" s="3">
+      <c r="B406" s="4">
         <v>28344.65</v>
       </c>
-      <c r="C406" s="3">
+      <c r="C406" s="4">
         <v>29514.639999999999</v>
       </c>
     </row>
     <row r="407" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A407" s="2">
+      <c r="A407" s="3">
         <v>43869</v>
       </c>
-      <c r="B407" s="3">
+      <c r="B407" s="4">
         <v>28345.56</v>
       </c>
-      <c r="C407" s="3">
+      <c r="C407" s="4">
         <v>29516.92</v>
       </c>
     </row>
     <row r="408" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A408" s="2">
+      <c r="A408" s="3">
         <v>43870</v>
       </c>
-      <c r="B408" s="3">
+      <c r="B408" s="4">
         <v>28346.48</v>
       </c>
-      <c r="C408" s="3">
+      <c r="C408" s="4">
         <v>29519.19</v>
       </c>
     </row>
     <row r="409" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A409" s="2">
+      <c r="A409" s="3">
         <v>43871</v>
       </c>
-      <c r="B409" s="3">
+      <c r="B409" s="4">
         <v>28352.33</v>
       </c>
-      <c r="C409" s="3">
+      <c r="C409" s="4">
         <v>29522.12</v>
       </c>
     </row>
     <row r="410" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A410" s="2">
+      <c r="A410" s="3">
         <v>43872</v>
       </c>
-      <c r="B410" s="3">
+      <c r="B410" s="4">
         <v>28358.18</v>
       </c>
-      <c r="C410" s="3">
+      <c r="C410" s="4">
         <v>29525.06</v>
       </c>
     </row>
     <row r="411" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A411" s="2">
+      <c r="A411" s="3">
         <v>43873</v>
       </c>
-      <c r="B411" s="3">
+      <c r="B411" s="4">
         <v>28364.03</v>
       </c>
-      <c r="C411" s="3">
+      <c r="C411" s="4">
         <v>29527.99</v>
       </c>
     </row>
     <row r="412" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A412" s="2">
+      <c r="A412" s="3">
         <v>43874</v>
       </c>
-      <c r="B412" s="3">
+      <c r="B412" s="4">
         <v>28369.88</v>
       </c>
-      <c r="C412" s="3">
+      <c r="C412" s="4">
         <v>29530.93</v>
       </c>
     </row>
     <row r="413" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A413" s="2">
+      <c r="A413" s="3">
         <v>43875</v>
       </c>
-      <c r="B413" s="3">
+      <c r="B413" s="4">
         <v>28375.73</v>
       </c>
-      <c r="C413" s="3">
+      <c r="C413" s="4">
         <v>29533.86</v>
       </c>
     </row>
     <row r="414" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A414" s="2">
+      <c r="A414" s="3">
         <v>43876</v>
       </c>
-      <c r="B414" s="3">
+      <c r="B414" s="4">
         <v>28381.59</v>
       </c>
-      <c r="C414" s="3">
+      <c r="C414" s="4">
         <v>29536.79</v>
       </c>
     </row>
     <row r="415" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A415" s="2">
+      <c r="A415" s="3">
         <v>43877</v>
       </c>
-      <c r="B415" s="3">
+      <c r="B415" s="4">
         <v>28387.439999999999</v>
       </c>
-      <c r="C415" s="3">
+      <c r="C415" s="4">
         <v>29539.73</v>
       </c>
     </row>
     <row r="416" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A416" s="2">
+      <c r="A416" s="3">
         <v>43878</v>
       </c>
-      <c r="B416" s="3">
+      <c r="B416" s="4">
         <v>28393.3</v>
       </c>
-      <c r="C416" s="3">
+      <c r="C416" s="4">
         <v>29542.67</v>
       </c>
     </row>
     <row r="417" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A417" s="2">
+      <c r="A417" s="3">
         <v>43879</v>
       </c>
-      <c r="B417" s="3">
+      <c r="B417" s="4">
         <v>28399.15</v>
       </c>
-      <c r="C417" s="3">
+      <c r="C417" s="4">
         <v>29545.599999999999</v>
       </c>
     </row>
     <row r="418" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A418" s="2">
+      <c r="A418" s="3">
         <v>43880</v>
       </c>
-      <c r="B418" s="3">
+      <c r="B418" s="4">
         <v>28405.01</v>
       </c>
-      <c r="C418" s="3">
+      <c r="C418" s="4">
         <v>29548.54</v>
       </c>
     </row>
     <row r="419" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A419" s="2">
+      <c r="A419" s="3">
         <v>43881</v>
       </c>
-      <c r="B419" s="3">
+      <c r="B419" s="4">
         <v>28410.87</v>
       </c>
-      <c r="C419" s="3">
+      <c r="C419" s="4">
         <v>29551.47</v>
       </c>
     </row>
     <row r="420" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A420" s="2">
+      <c r="A420" s="3">
         <v>43882</v>
       </c>
-      <c r="B420" s="3">
+      <c r="B420" s="4">
         <v>28416.73</v>
       </c>
-      <c r="C420" s="3">
+      <c r="C420" s="4">
         <v>29554.41</v>
       </c>
     </row>
     <row r="421" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A421" s="2">
+      <c r="A421" s="3">
         <v>43883</v>
       </c>
-      <c r="B421" s="3">
+      <c r="B421" s="4">
         <v>28422.6</v>
       </c>
-      <c r="C421" s="3">
+      <c r="C421" s="4">
         <v>29557.35</v>
       </c>
     </row>
     <row r="422" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A422" s="2">
+      <c r="A422" s="3">
         <v>43884</v>
       </c>
-      <c r="B422" s="3">
+      <c r="B422" s="4">
         <v>28428.46</v>
       </c>
-      <c r="C422" s="3">
+      <c r="C422" s="4">
         <v>29560.28</v>
       </c>
     </row>
     <row r="423" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A423" s="2">
+      <c r="A423" s="3">
         <v>43885</v>
       </c>
-      <c r="B423" s="3">
+      <c r="B423" s="4">
         <v>28434.32</v>
       </c>
-      <c r="C423" s="3">
+      <c r="C423" s="4">
         <v>29563.22</v>
       </c>
     </row>
     <row r="424" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A424" s="2">
+      <c r="A424" s="3">
         <v>43886</v>
       </c>
-      <c r="B424" s="3">
+      <c r="B424" s="4">
         <v>28440.19</v>
       </c>
-      <c r="C424" s="3">
+      <c r="C424" s="4">
         <v>29566.16</v>
       </c>
     </row>
     <row r="425" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A425" s="2">
+      <c r="A425" s="3">
         <v>43887</v>
       </c>
-      <c r="B425" s="3">
+      <c r="B425" s="4">
         <v>28446.06</v>
       </c>
-      <c r="C425" s="3">
+      <c r="C425" s="4">
         <v>29569.1</v>
       </c>
     </row>
     <row r="426" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A426" s="2">
+      <c r="A426" s="3">
         <v>43888</v>
       </c>
-      <c r="B426" s="3">
+      <c r="B426" s="4">
         <v>28451.93</v>
       </c>
-      <c r="C426" s="3">
+      <c r="C426" s="4">
         <v>29572.04</v>
       </c>
     </row>
     <row r="427" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A427" s="2">
+      <c r="A427" s="3">
         <v>43889</v>
       </c>
-      <c r="B427" s="3">
+      <c r="B427" s="4">
         <v>28457.8</v>
       </c>
-      <c r="C427" s="3">
+      <c r="C427" s="4">
         <v>29574.97</v>
       </c>
     </row>
     <row r="428" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A428" s="2">
+      <c r="A428" s="3">
         <v>43890</v>
       </c>
-      <c r="B428" s="3">
+      <c r="B428" s="4">
         <v>28463.67</v>
       </c>
-      <c r="C428" s="3">
+      <c r="C428" s="4">
         <v>29577.91</v>
       </c>
     </row>
     <row r="429" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A429" s="2">
+      <c r="A429" s="3">
         <v>43891</v>
       </c>
-      <c r="B429" s="3">
+      <c r="B429" s="4">
         <v>28469.54</v>
       </c>
-      <c r="C429" s="3">
+      <c r="C429" s="4">
         <v>29580.85</v>
       </c>
     </row>
     <row r="430" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A430" s="2">
+      <c r="A430" s="3">
         <v>43892</v>
       </c>
-      <c r="B430" s="3">
+      <c r="B430" s="4">
         <v>28475.41</v>
       </c>
-      <c r="C430" s="3">
+      <c r="C430" s="4">
         <v>29583.79</v>
       </c>
     </row>
     <row r="431" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A431" s="2">
+      <c r="A431" s="3">
         <v>43893</v>
       </c>
-      <c r="B431" s="3">
+      <c r="B431" s="4">
         <v>28481.29</v>
       </c>
-      <c r="C431" s="3">
+      <c r="C431" s="4">
         <v>29586.73</v>
       </c>
     </row>
     <row r="432" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A432" s="2">
+      <c r="A432" s="3">
         <v>43894</v>
       </c>
-      <c r="B432" s="3">
+      <c r="B432" s="4">
         <v>28487.16</v>
       </c>
-      <c r="C432" s="3">
+      <c r="C432" s="4">
         <v>29589.67</v>
       </c>
     </row>
     <row r="433" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A433" s="2">
+      <c r="A433" s="3">
         <v>43895</v>
       </c>
-      <c r="B433" s="3">
+      <c r="B433" s="4">
         <v>28493.040000000001</v>
       </c>
-      <c r="C433" s="3">
+      <c r="C433" s="4">
         <v>29592.61</v>
       </c>
     </row>
     <row r="434" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A434" s="2">
+      <c r="A434" s="3">
         <v>43896</v>
       </c>
-      <c r="B434" s="3">
+      <c r="B434" s="4">
         <v>28498.92</v>
       </c>
-      <c r="C434" s="3">
+      <c r="C434" s="4">
         <v>29595.55</v>
       </c>
     </row>
     <row r="435" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A435" s="2">
+      <c r="A435" s="3">
         <v>43897</v>
       </c>
-      <c r="B435" s="3">
+      <c r="B435" s="4">
         <v>28504.799999999999</v>
       </c>
-      <c r="C435" s="3">
+      <c r="C435" s="4">
         <v>29598.49</v>
       </c>
     </row>
     <row r="436" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A436" s="2">
+      <c r="A436" s="3">
         <v>43898</v>
       </c>
-      <c r="B436" s="3">
+      <c r="B436" s="4">
         <v>28510.68</v>
       </c>
-      <c r="C436" s="3">
+      <c r="C436" s="4">
         <v>29601.43</v>
       </c>
     </row>
     <row r="437" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A437" s="2">
+      <c r="A437" s="3">
         <v>43899</v>
       </c>
-      <c r="B437" s="3">
+      <c r="B437" s="4">
         <v>28516.560000000001</v>
       </c>
-      <c r="C437" s="3">
+      <c r="C437" s="4">
         <v>29604.38</v>
       </c>
     </row>
     <row r="438" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A438" s="2">
+      <c r="A438" s="3">
         <v>43900</v>
       </c>
-      <c r="B438" s="3">
+      <c r="B438" s="4">
         <v>28520.23</v>
       </c>
-      <c r="C438" s="3">
+      <c r="C438" s="4">
         <v>29607.66</v>
       </c>
     </row>
     <row r="439" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A439" s="2">
+      <c r="A439" s="3">
         <v>43901</v>
       </c>
-      <c r="B439" s="3">
+      <c r="B439" s="4">
         <v>28523.91</v>
       </c>
-      <c r="C439" s="3">
+      <c r="C439" s="4">
         <v>29610.94</v>
       </c>
     </row>
     <row r="440" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A440" s="2">
+      <c r="A440" s="3">
         <v>43902</v>
       </c>
-      <c r="B440" s="3">
+      <c r="B440" s="4">
         <v>28527.58</v>
       </c>
-      <c r="C440" s="3">
+      <c r="C440" s="4">
         <v>29614.22</v>
       </c>
     </row>
     <row r="441" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A441" s="2">
+      <c r="A441" s="3">
         <v>43903</v>
       </c>
-      <c r="B441" s="3">
+      <c r="B441" s="4">
         <v>28531.25</v>
       </c>
-      <c r="C441" s="3">
+      <c r="C441" s="4">
         <v>29617.5</v>
       </c>
     </row>
     <row r="442" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A442" s="2">
+      <c r="A442" s="3">
         <v>43904</v>
       </c>
-      <c r="B442" s="3">
+      <c r="B442" s="4">
         <v>28534.93</v>
       </c>
-      <c r="C442" s="3">
+      <c r="C442" s="4">
         <v>29620.78</v>
       </c>
     </row>
     <row r="443" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A443" s="2">
+      <c r="A443" s="3">
         <v>43905</v>
       </c>
-      <c r="B443" s="3">
+      <c r="B443" s="4">
         <v>28538.6</v>
       </c>
-      <c r="C443" s="3">
+      <c r="C443" s="4">
         <v>29624.06</v>
       </c>
     </row>
     <row r="444" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A444" s="2">
+      <c r="A444" s="3">
         <v>43906</v>
       </c>
-      <c r="B444" s="3">
+      <c r="B444" s="4">
         <v>28542.28</v>
       </c>
-      <c r="C444" s="3">
+      <c r="C444" s="4">
         <v>29627.35</v>
       </c>
     </row>
     <row r="445" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A445" s="2">
+      <c r="A445" s="3">
         <v>43907</v>
       </c>
-      <c r="B445" s="3">
+      <c r="B445" s="4">
         <v>28545.95</v>
       </c>
-      <c r="C445" s="3">
+      <c r="C445" s="4">
         <v>29630.63</v>
       </c>
     </row>
     <row r="446" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A446" s="2">
+      <c r="A446" s="3">
         <v>43908</v>
       </c>
-      <c r="B446" s="3">
+      <c r="B446" s="4">
         <v>28549.63</v>
       </c>
-      <c r="C446" s="3">
+      <c r="C446" s="4">
         <v>29633.91</v>
       </c>
     </row>
     <row r="447" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A447" s="2">
+      <c r="A447" s="3">
         <v>43909</v>
       </c>
-      <c r="B447" s="3">
+      <c r="B447" s="4">
         <v>28553.31</v>
       </c>
-      <c r="C447" s="3">
+      <c r="C447" s="4">
         <v>29637.19</v>
       </c>
     </row>
     <row r="448" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A448" s="2">
+      <c r="A448" s="3">
         <v>43910</v>
       </c>
-      <c r="B448" s="3">
+      <c r="B448" s="4">
         <v>28556.98</v>
       </c>
-      <c r="C448" s="3">
+      <c r="C448" s="4">
         <v>29640.48</v>
       </c>
     </row>
     <row r="449" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A449" s="2">
+      <c r="A449" s="3">
         <v>43911</v>
       </c>
-      <c r="B449" s="3">
+      <c r="B449" s="4">
         <v>28560.66</v>
       </c>
-      <c r="C449" s="3">
+      <c r="C449" s="4">
         <v>29643.759999999998</v>
       </c>
     </row>
     <row r="450" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A450" s="2">
+      <c r="A450" s="3">
         <v>43912</v>
       </c>
-      <c r="B450" s="3">
+      <c r="B450" s="4">
         <v>28564.34</v>
       </c>
-      <c r="C450" s="3">
+      <c r="C450" s="4">
         <v>29647.040000000001</v>
       </c>
     </row>
     <row r="451" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A451" s="2">
+      <c r="A451" s="3">
         <v>43913</v>
       </c>
-      <c r="B451" s="3">
+      <c r="B451" s="4">
         <v>28568.02</v>
       </c>
-      <c r="C451" s="3">
+      <c r="C451" s="4">
         <v>29650.33</v>
       </c>
     </row>
     <row r="452" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A452" s="2">
+      <c r="A452" s="3">
         <v>43914</v>
       </c>
-      <c r="B452" s="3">
+      <c r="B452" s="4">
         <v>28571.7</v>
       </c>
-      <c r="C452" s="3">
+      <c r="C452" s="4">
         <v>29653.61</v>
       </c>
     </row>
     <row r="453" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A453" s="2">
+      <c r="A453" s="3">
         <v>43915</v>
       </c>
-      <c r="B453" s="3">
+      <c r="B453" s="4">
         <v>28575.38</v>
       </c>
-      <c r="C453" s="3">
+      <c r="C453" s="4">
         <v>29656.9</v>
       </c>
     </row>
     <row r="454" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A454" s="2">
+      <c r="A454" s="3">
         <v>43916</v>
       </c>
-      <c r="B454" s="3">
+      <c r="B454" s="4">
         <v>28579.06</v>
       </c>
-      <c r="C454" s="3">
+      <c r="C454" s="4">
         <v>29660.18</v>
       </c>
     </row>
     <row r="455" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A455" s="2">
+      <c r="A455" s="3">
         <v>43917</v>
       </c>
-      <c r="B455" s="3">
+      <c r="B455" s="4">
         <v>28582.74</v>
       </c>
-      <c r="C455" s="3">
+      <c r="C455" s="4">
         <v>29663.47</v>
       </c>
     </row>
     <row r="456" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A456" s="2">
+      <c r="A456" s="3">
         <v>43918</v>
       </c>
-      <c r="B456" s="3">
+      <c r="B456" s="4">
         <v>28586.42</v>
       </c>
-      <c r="C456" s="3">
+      <c r="C456" s="4">
         <v>29666.76</v>
       </c>
     </row>
     <row r="457" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A457" s="2">
+      <c r="A457" s="3">
         <v>43919</v>
       </c>
-      <c r="B457" s="3">
+      <c r="B457" s="4">
         <v>28590.1</v>
       </c>
-      <c r="C457" s="3">
+      <c r="C457" s="4">
         <v>29670.04</v>
       </c>
     </row>
     <row r="458" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A458" s="2">
+      <c r="A458" s="3">
         <v>43920</v>
       </c>
-      <c r="B458" s="3">
+      <c r="B458" s="4">
         <v>28593.78</v>
       </c>
-      <c r="C458" s="3">
+      <c r="C458" s="4">
         <v>29673.33</v>
       </c>
     </row>
     <row r="459" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A459" s="2">
+      <c r="A459" s="3">
         <v>43921</v>
       </c>
-      <c r="B459" s="3">
+      <c r="B459" s="4">
         <v>28597.46</v>
       </c>
-      <c r="C459" s="3">
+      <c r="C459" s="4">
         <v>29676.62</v>
       </c>
     </row>
     <row r="460" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A460" s="2">
+      <c r="A460" s="3">
         <v>43922</v>
       </c>
-      <c r="B460" s="3">
+      <c r="B460" s="4">
         <v>28601.15</v>
       </c>
-      <c r="C460" s="3">
+      <c r="C460" s="4">
         <v>29679.91</v>
       </c>
     </row>
     <row r="461" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A461" s="2">
+      <c r="A461" s="3">
         <v>43923</v>
       </c>
-      <c r="B461" s="3">
+      <c r="B461" s="4">
         <v>28604.83</v>
       </c>
-      <c r="C461" s="3">
+      <c r="C461" s="4">
         <v>29683.19</v>
       </c>
     </row>
     <row r="462" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A462" s="2">
+      <c r="A462" s="3">
         <v>43924</v>
       </c>
-      <c r="B462" s="3">
+      <c r="B462" s="4">
         <v>28608.51</v>
       </c>
-      <c r="C462" s="3">
+      <c r="C462" s="4">
         <v>29686.48</v>
       </c>
     </row>
     <row r="463" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A463" s="2">
+      <c r="A463" s="3">
         <v>43925</v>
       </c>
-      <c r="B463" s="3">
+      <c r="B463" s="4">
         <v>28612.2</v>
       </c>
-      <c r="C463" s="3">
+      <c r="C463" s="4">
         <v>29689.77</v>
       </c>
     </row>
     <row r="464" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A464" s="2">
+      <c r="A464" s="3">
         <v>43926</v>
       </c>
-      <c r="B464" s="3">
+      <c r="B464" s="4">
         <v>28615.88</v>
       </c>
-      <c r="C464" s="3">
+      <c r="C464" s="4">
         <v>29693.06</v>
       </c>
     </row>
     <row r="465" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A465" s="2">
+      <c r="A465" s="3">
         <v>43927</v>
       </c>
-      <c r="B465" s="3">
+      <c r="B465" s="4">
         <v>28619.57</v>
       </c>
-      <c r="C465" s="3">
+      <c r="C465" s="4">
         <v>29696.35</v>
       </c>
     </row>
     <row r="466" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A466" s="2">
+      <c r="A466" s="3">
         <v>43928</v>
       </c>
-      <c r="B466" s="3">
+      <c r="B466" s="4">
         <v>28623.25</v>
       </c>
-      <c r="C466" s="3">
+      <c r="C466" s="4">
         <v>29699.64</v>
       </c>
     </row>
     <row r="467" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A467" s="2">
+      <c r="A467" s="3">
         <v>43929</v>
       </c>
-      <c r="B467" s="3">
+      <c r="B467" s="4">
         <v>28626.94</v>
       </c>
-      <c r="C467" s="3">
+      <c r="C467" s="4">
         <v>29702.93</v>
       </c>
     </row>
     <row r="468" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A468" s="2">
+      <c r="A468" s="3">
         <v>43930</v>
       </c>
-      <c r="B468" s="3">
+      <c r="B468" s="4">
         <v>28630.63</v>
       </c>
-      <c r="C468" s="3">
+      <c r="C468" s="4">
         <v>29706.22</v>
       </c>
     </row>
     <row r="469" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A469" s="2">
+      <c r="A469" s="3">
         <v>43931</v>
       </c>
-      <c r="B469" s="3">
+      <c r="B469" s="4">
         <v>28633.49</v>
       </c>
-      <c r="C469" s="3">
+      <c r="C469" s="4">
         <v>29710.02</v>
       </c>
     </row>
     <row r="470" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A470" s="2">
+      <c r="A470" s="3">
         <v>43932</v>
       </c>
-      <c r="B470" s="3">
+      <c r="B470" s="4">
         <v>28636.35</v>
       </c>
-      <c r="C470" s="3">
+      <c r="C470" s="4">
         <v>29713.82</v>
       </c>
     </row>
     <row r="471" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A471" s="2">
+      <c r="A471" s="3">
         <v>43933</v>
       </c>
-      <c r="B471" s="3">
+      <c r="B471" s="4">
         <v>28639.21</v>
       </c>
-      <c r="C471" s="3">
+      <c r="C471" s="4">
         <v>29717.62</v>
       </c>
     </row>
     <row r="472" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A472" s="2">
+      <c r="A472" s="3">
         <v>43934</v>
       </c>
-      <c r="B472" s="3">
+      <c r="B472" s="4">
         <v>28642.07</v>
       </c>
-      <c r="C472" s="3">
+      <c r="C472" s="4">
         <v>29721.42</v>
       </c>
     </row>
     <row r="473" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A473" s="2">
+      <c r="A473" s="3">
         <v>43935</v>
       </c>
-      <c r="B473" s="3">
+      <c r="B473" s="4">
         <v>28644.93</v>
       </c>
-      <c r="C473" s="3">
+      <c r="C473" s="4">
         <v>29725.22</v>
       </c>
     </row>
     <row r="474" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A474" s="2">
+      <c r="A474" s="3">
         <v>43936</v>
       </c>
-      <c r="B474" s="3">
+      <c r="B474" s="4">
         <v>28647.79</v>
       </c>
-      <c r="C474" s="3">
+      <c r="C474" s="4">
         <v>29729.02</v>
       </c>
     </row>
     <row r="475" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A475" s="2">
+      <c r="A475" s="3">
         <v>43937</v>
       </c>
-      <c r="B475" s="3">
+      <c r="B475" s="4">
         <v>28650.65</v>
       </c>
-      <c r="C475" s="3">
+      <c r="C475" s="4">
         <v>29732.82</v>
       </c>
     </row>
     <row r="476" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A476" s="2">
+      <c r="A476" s="3">
         <v>43938</v>
       </c>
-      <c r="B476" s="3">
+      <c r="B476" s="4">
         <v>28653.51</v>
       </c>
-      <c r="C476" s="3">
+      <c r="C476" s="4">
         <v>29736.63</v>
       </c>
     </row>
     <row r="477" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A477" s="2">
+      <c r="A477" s="3">
         <v>43939</v>
       </c>
-      <c r="B477" s="3">
+      <c r="B477" s="4">
         <v>28656.37</v>
       </c>
-      <c r="C477" s="3">
+      <c r="C477" s="4">
         <v>29740.43</v>
       </c>
     </row>
     <row r="478" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A478" s="2">
+      <c r="A478" s="3">
         <v>43940</v>
       </c>
-      <c r="B478" s="3">
+      <c r="B478" s="4">
         <v>28659.23</v>
       </c>
-      <c r="C478" s="3">
+      <c r="C478" s="4">
         <v>29744.23</v>
       </c>
     </row>
     <row r="479" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A479" s="2">
+      <c r="A479" s="3">
         <v>43941</v>
       </c>
-      <c r="B479" s="3">
+      <c r="B479" s="4">
         <v>28662.09</v>
       </c>
-      <c r="C479" s="3">
+      <c r="C479" s="4">
         <v>29748.04</v>
       </c>
     </row>
     <row r="480" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A480" s="2">
+      <c r="A480" s="3">
         <v>43942</v>
       </c>
-      <c r="B480" s="3">
+      <c r="B480" s="4">
         <v>28664.959999999999</v>
       </c>
-      <c r="C480" s="3">
+      <c r="C480" s="4">
         <v>29751.84</v>
       </c>
     </row>
     <row r="481" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A481" s="2">
+      <c r="A481" s="3">
         <v>43943</v>
       </c>
-      <c r="B481" s="3">
+      <c r="B481" s="4">
         <v>28667.82</v>
       </c>
-      <c r="C481" s="3">
+      <c r="C481" s="4">
         <v>29755.64</v>
       </c>
     </row>
     <row r="482" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A482" s="2">
+      <c r="A482" s="3">
         <v>43944</v>
       </c>
-      <c r="B482" s="3">
+      <c r="B482" s="4">
         <v>28670.68</v>
       </c>
-      <c r="C482" s="3">
+      <c r="C482" s="4">
         <v>29759.45</v>
       </c>
     </row>
     <row r="483" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A483" s="2">
+      <c r="A483" s="3">
         <v>43945</v>
       </c>
-      <c r="B483" s="3">
+      <c r="B483" s="4">
         <v>28673.54</v>
       </c>
-      <c r="C483" s="3">
+      <c r="C483" s="4">
         <v>29763.26</v>
       </c>
     </row>
     <row r="484" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A484" s="2">
+      <c r="A484" s="3">
         <v>43946</v>
       </c>
-      <c r="B484" s="3">
+      <c r="B484" s="4">
         <v>28676.41</v>
       </c>
-      <c r="C484" s="3">
+      <c r="C484" s="4">
         <v>29767.06</v>
       </c>
     </row>
     <row r="485" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A485" s="2">
+      <c r="A485" s="3">
         <v>43947</v>
       </c>
-      <c r="B485" s="3">
+      <c r="B485" s="4">
         <v>28679.27</v>
       </c>
-      <c r="C485" s="3">
+      <c r="C485" s="4">
         <v>29770.87</v>
       </c>
     </row>
     <row r="486" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A486" s="2">
+      <c r="A486" s="3">
         <v>43948</v>
       </c>
-      <c r="B486" s="3">
+      <c r="B486" s="4">
         <v>28682.13</v>
       </c>
-      <c r="C486" s="3">
+      <c r="C486" s="4">
         <v>29774.68</v>
       </c>
     </row>
     <row r="487" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A487" s="2">
+      <c r="A487" s="3">
         <v>43949</v>
       </c>
-      <c r="B487" s="3">
+      <c r="B487" s="4">
         <v>28685</v>
       </c>
-      <c r="C487" s="3">
+      <c r="C487" s="4">
         <v>29778.48</v>
       </c>
     </row>
     <row r="488" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A488" s="2">
+      <c r="A488" s="3">
         <v>43950</v>
       </c>
-      <c r="B488" s="3">
+      <c r="B488" s="4">
         <v>28687.86</v>
       </c>
-      <c r="C488" s="3">
+      <c r="C488" s="4">
         <v>29782.29</v>
       </c>
     </row>
     <row r="489" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A489" s="2">
+      <c r="A489" s="3">
         <v>43951</v>
       </c>
-      <c r="B489" s="3">
+      <c r="B489" s="4">
         <v>28690.73</v>
       </c>
-      <c r="C489" s="3">
+      <c r="C489" s="4">
         <v>29786.1</v>
       </c>
     </row>
     <row r="490" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A490" s="2">
+      <c r="A490" s="3">
         <v>43952</v>
       </c>
-      <c r="B490" s="3">
+      <c r="B490" s="4">
         <v>28693.59</v>
       </c>
-      <c r="C490" s="3">
+      <c r="C490" s="4">
         <v>29789.91</v>
       </c>
     </row>
     <row r="491" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A491" s="2">
+      <c r="A491" s="3">
         <v>43953</v>
       </c>
-      <c r="B491" s="3">
+      <c r="B491" s="4">
         <v>28696.46</v>
       </c>
-      <c r="C491" s="3">
+      <c r="C491" s="4">
         <v>29793.72</v>
       </c>
     </row>
     <row r="492" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A492" s="2">
+      <c r="A492" s="3">
         <v>43954</v>
       </c>
-      <c r="B492" s="3">
+      <c r="B492" s="4">
         <v>28699.32</v>
       </c>
-      <c r="C492" s="3">
+      <c r="C492" s="4">
         <v>29797.53</v>
       </c>
     </row>
     <row r="493" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A493" s="2">
+      <c r="A493" s="3">
         <v>43955</v>
       </c>
-      <c r="B493" s="3">
+      <c r="B493" s="4">
         <v>28702.19</v>
       </c>
-      <c r="C493" s="3">
+      <c r="C493" s="4">
         <v>29801.34</v>
       </c>
     </row>
     <row r="494" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A494" s="2">
+      <c r="A494" s="3">
         <v>43956</v>
       </c>
-      <c r="B494" s="3">
+      <c r="B494" s="4">
         <v>28705.05</v>
       </c>
-      <c r="C494" s="3">
+      <c r="C494" s="4">
         <v>29805.15</v>
       </c>
     </row>
     <row r="495" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A495" s="2">
+      <c r="A495" s="3">
         <v>43957</v>
       </c>
-      <c r="B495" s="3">
+      <c r="B495" s="4">
         <v>28707.919999999998</v>
       </c>
-      <c r="C495" s="3">
+      <c r="C495" s="4">
         <v>29808.959999999999</v>
       </c>
     </row>
     <row r="496" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A496" s="2">
+      <c r="A496" s="3">
         <v>43958</v>
       </c>
-      <c r="B496" s="3">
+      <c r="B496" s="4">
         <v>28710.79</v>
       </c>
-      <c r="C496" s="3">
+      <c r="C496" s="4">
         <v>29812.77</v>
       </c>
     </row>
     <row r="497" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A497" s="2">
+      <c r="A497" s="3">
         <v>43959</v>
       </c>
-      <c r="B497" s="3">
+      <c r="B497" s="4">
         <v>28713.65</v>
       </c>
-      <c r="C497" s="3">
+      <c r="C497" s="4">
         <v>29816.59</v>
       </c>
     </row>
     <row r="498" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A498" s="2">
+      <c r="A498" s="3">
         <v>43960</v>
       </c>
-      <c r="B498" s="3">
+      <c r="B498" s="4">
         <v>28716.52</v>
       </c>
-      <c r="C498" s="3">
+      <c r="C498" s="4">
         <v>29820.400000000001</v>
       </c>
     </row>
     <row r="499" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A499" s="2">
+      <c r="A499" s="3">
         <v>43961</v>
       </c>
-      <c r="B499" s="3">
+      <c r="B499" s="4">
         <v>28716.52</v>
       </c>
-      <c r="C499" s="3">
+      <c r="C499" s="4">
         <v>29822.82</v>
       </c>
     </row>
     <row r="500" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A500" s="2">
+      <c r="A500" s="3">
         <v>43962</v>
       </c>
-      <c r="B500" s="3">
+      <c r="B500" s="4">
         <v>28716.52</v>
       </c>
-      <c r="C500" s="3">
+      <c r="C500" s="4">
         <v>29825.24</v>
       </c>
     </row>
     <row r="501" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A501" s="2">
+      <c r="A501" s="3">
         <v>43963</v>
       </c>
-      <c r="B501" s="3">
+      <c r="B501" s="4">
         <v>28716.52</v>
       </c>
-      <c r="C501" s="3">
+      <c r="C501" s="4">
         <v>29827.66</v>
       </c>
     </row>
     <row r="502" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A502" s="2">
+      <c r="A502" s="3">
         <v>43964</v>
       </c>
-      <c r="B502" s="3">
+      <c r="B502" s="4">
         <v>28716.52</v>
       </c>
-      <c r="C502" s="3">
+      <c r="C502" s="4">
         <v>29830.080000000002</v>
       </c>
     </row>
     <row r="503" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A503" s="2">
+      <c r="A503" s="3">
         <v>43965</v>
       </c>
-      <c r="B503" s="3">
+      <c r="B503" s="4">
         <v>28716.52</v>
       </c>
-      <c r="C503" s="3">
+      <c r="C503" s="4">
         <v>29832.51</v>
       </c>
     </row>
     <row r="504" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A504" s="2">
+      <c r="A504" s="3">
         <v>43966</v>
       </c>
-      <c r="B504" s="3">
+      <c r="B504" s="4">
         <v>28716.52</v>
       </c>
-      <c r="C504" s="3">
+      <c r="C504" s="4">
         <v>29834.93</v>
       </c>
     </row>
     <row r="505" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A505" s="2">
+      <c r="A505" s="3">
         <v>43967</v>
       </c>
-      <c r="B505" s="3">
+      <c r="B505" s="4">
         <v>28716.52</v>
       </c>
-      <c r="C505" s="3">
+      <c r="C505" s="4">
         <v>29837.35</v>
       </c>
     </row>
     <row r="506" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A506" s="2">
+      <c r="A506" s="3">
         <v>43968</v>
       </c>
-      <c r="B506" s="3">
+      <c r="B506" s="4">
         <v>28716.52</v>
       </c>
-      <c r="C506" s="3">
+      <c r="C506" s="4">
         <v>29839.77</v>
       </c>
     </row>
     <row r="507" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A507" s="2">
+      <c r="A507" s="3">
         <v>43969</v>
       </c>
-      <c r="B507" s="3">
+      <c r="B507" s="4">
         <v>28716.52</v>
       </c>
-      <c r="C507" s="3">
+      <c r="C507" s="4">
         <v>29842.19</v>
       </c>
     </row>
     <row r="508" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A508" s="2">
+      <c r="A508" s="3">
         <v>43970</v>
       </c>
-      <c r="B508" s="3">
+      <c r="B508" s="4">
         <v>28716.52</v>
       </c>
-      <c r="C508" s="3">
+      <c r="C508" s="4">
         <v>29844.62</v>
       </c>
     </row>
     <row r="509" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A509" s="2">
+      <c r="A509" s="3">
         <v>43971</v>
       </c>
-      <c r="B509" s="3">
+      <c r="B509" s="4">
         <v>28716.52</v>
       </c>
-      <c r="C509" s="3">
+      <c r="C509" s="4">
         <v>29847.040000000001</v>
       </c>
     </row>
     <row r="510" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A510" s="2">
+      <c r="A510" s="3">
         <v>43972</v>
       </c>
-      <c r="B510" s="3">
+      <c r="B510" s="4">
         <v>28716.52</v>
       </c>
-      <c r="C510" s="3">
+      <c r="C510" s="4">
         <v>29849.46</v>
       </c>
     </row>
     <row r="511" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A511" s="2">
+      <c r="A511" s="3">
         <v>43973</v>
       </c>
-      <c r="B511" s="3">
+      <c r="B511" s="4">
         <v>28716.52</v>
       </c>
-      <c r="C511" s="3">
+      <c r="C511" s="4">
         <v>29851.89</v>
       </c>
     </row>
     <row r="512" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A512" s="2">
+      <c r="A512" s="3">
         <v>43974</v>
       </c>
-      <c r="B512" s="3">
+      <c r="B512" s="4">
         <v>28716.52</v>
       </c>
-      <c r="C512" s="3">
+      <c r="C512" s="4">
         <v>29854.31</v>
       </c>
     </row>
     <row r="513" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A513" s="2">
+      <c r="A513" s="3">
         <v>43975</v>
       </c>
-      <c r="B513" s="3">
+      <c r="B513" s="4">
         <v>28716.52</v>
       </c>
-      <c r="C513" s="3">
+      <c r="C513" s="4">
         <v>29856.73</v>
       </c>
     </row>
     <row r="514" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A514" s="2">
+      <c r="A514" s="3">
         <v>43976</v>
       </c>
-      <c r="B514" s="3">
+      <c r="B514" s="4">
         <v>28716.52</v>
       </c>
-      <c r="C514" s="3">
+      <c r="C514" s="4">
         <v>29859.16</v>
       </c>
     </row>
     <row r="515" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A515" s="2">
+      <c r="A515" s="3">
         <v>43977</v>
       </c>
-      <c r="B515" s="3">
+      <c r="B515" s="4">
         <v>28716.52</v>
       </c>
-      <c r="C515" s="3">
+      <c r="C515" s="4">
         <v>29861.58</v>
       </c>
     </row>
     <row r="516" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A516" s="2">
+      <c r="A516" s="3">
         <v>43978</v>
       </c>
-      <c r="B516" s="3">
+      <c r="B516" s="4">
         <v>28716.52</v>
       </c>
-      <c r="C516" s="3">
+      <c r="C516" s="4">
         <v>29864</v>
       </c>
     </row>
     <row r="517" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A517" s="2">
+      <c r="A517" s="3">
         <v>43979</v>
       </c>
-      <c r="B517" s="3">
+      <c r="B517" s="4">
         <v>28716.52</v>
       </c>
-      <c r="C517" s="3">
+      <c r="C517" s="4">
         <v>29866.43</v>
       </c>
     </row>
     <row r="518" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A518" s="2">
+      <c r="A518" s="3">
         <v>43980</v>
       </c>
-      <c r="B518" s="3">
+      <c r="B518" s="4">
         <v>28716.52</v>
       </c>
-      <c r="C518" s="3">
+      <c r="C518" s="4">
         <v>29868.85</v>
       </c>
     </row>
     <row r="519" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A519" s="2">
+      <c r="A519" s="3">
         <v>43981</v>
       </c>
-      <c r="B519" s="3">
+      <c r="B519" s="4">
         <v>28716.52</v>
       </c>
-      <c r="C519" s="3">
+      <c r="C519" s="4">
         <v>29871.279999999999</v>
       </c>
     </row>
     <row r="520" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A520" s="2">
+      <c r="A520" s="3">
         <v>43982</v>
       </c>
-      <c r="B520" s="3">
+      <c r="B520" s="4">
         <v>28716.52</v>
       </c>
-      <c r="C520" s="3">
+      <c r="C520" s="4">
         <v>29873.7</v>
       </c>
     </row>
     <row r="521" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A521" s="2">
+      <c r="A521" s="3">
         <v>43983</v>
       </c>
-      <c r="B521" s="3">
+      <c r="B521" s="4">
         <v>28716.52</v>
       </c>
-      <c r="C521" s="3">
+      <c r="C521" s="4">
         <v>29876.13</v>
       </c>
     </row>
     <row r="522" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A522" s="2">
+      <c r="A522" s="3">
         <v>43984</v>
       </c>
-      <c r="B522" s="3">
+      <c r="B522" s="4">
         <v>28716.52</v>
       </c>
-      <c r="C522" s="3">
+      <c r="C522" s="4">
         <v>29878.55</v>
       </c>
     </row>
     <row r="523" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A523" s="2">
+      <c r="A523" s="3">
         <v>43985</v>
       </c>
-      <c r="B523" s="3">
+      <c r="B523" s="4">
         <v>28716.52</v>
       </c>
-      <c r="C523" s="3">
+      <c r="C523" s="4">
         <v>29880.98</v>
       </c>
     </row>
     <row r="524" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A524" s="2">
+      <c r="A524" s="3">
         <v>43986</v>
       </c>
-      <c r="B524" s="3">
+      <c r="B524" s="4">
         <v>28716.52</v>
       </c>
-      <c r="C524" s="3">
+      <c r="C524" s="4">
         <v>29883.4</v>
       </c>
     </row>
     <row r="525" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A525" s="2">
+      <c r="A525" s="3">
         <v>43987</v>
       </c>
-      <c r="B525" s="3">
+      <c r="B525" s="4">
         <v>28716.52</v>
       </c>
-      <c r="C525" s="3">
+      <c r="C525" s="4">
         <v>29885.83</v>
       </c>
     </row>
     <row r="526" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A526" s="2">
+      <c r="A526" s="3">
         <v>43988</v>
       </c>
-      <c r="B526" s="3">
+      <c r="B526" s="4">
         <v>28716.52</v>
       </c>
-      <c r="C526" s="3">
+      <c r="C526" s="4">
         <v>29888.26</v>
       </c>
     </row>
     <row r="527" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A527" s="2">
+      <c r="A527" s="3">
         <v>43989</v>
       </c>
-      <c r="B527" s="3">
+      <c r="B527" s="4">
         <v>28716.52</v>
       </c>
-      <c r="C527" s="3">
+      <c r="C527" s="4">
         <v>29890.68</v>
       </c>
     </row>
     <row r="528" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A528" s="2">
+      <c r="A528" s="3">
         <v>43990</v>
       </c>
-      <c r="B528" s="3">
+      <c r="B528" s="4">
         <v>28716.52</v>
       </c>
-      <c r="C528" s="3">
+      <c r="C528" s="4">
         <v>29893.11</v>
       </c>
     </row>
     <row r="529" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A529" s="2">
+      <c r="A529" s="3">
         <v>43991</v>
       </c>
-      <c r="B529" s="3">
+      <c r="B529" s="4">
         <v>28716.52</v>
       </c>
-      <c r="C529" s="3">
+      <c r="C529" s="4">
         <v>29895.54</v>
       </c>
     </row>
     <row r="530" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A530" s="2">
+      <c r="A530" s="3">
         <v>43992</v>
       </c>
-      <c r="B530" s="3">
+      <c r="B530" s="4">
         <v>28715.56</v>
       </c>
-      <c r="C530" s="3">
+      <c r="C530" s="4">
         <v>29897.75</v>
       </c>
     </row>
     <row r="531" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A531" s="2">
+      <c r="A531" s="3">
         <v>43993</v>
       </c>
-      <c r="B531" s="3">
+      <c r="B531" s="4">
         <v>28714.6</v>
       </c>
-      <c r="C531" s="3">
+      <c r="C531" s="4">
         <v>29899.96</v>
       </c>
     </row>
     <row r="532" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A532" s="2">
+      <c r="A532" s="3">
         <v>43994</v>
       </c>
-      <c r="B532" s="3">
+      <c r="B532" s="4">
         <v>28713.65</v>
       </c>
-      <c r="C532" s="3">
+      <c r="C532" s="4">
         <v>29902.17</v>
       </c>
     </row>
     <row r="533" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A533" s="2">
+      <c r="A533" s="3">
         <v>43995</v>
       </c>
-      <c r="B533" s="3">
+      <c r="B533" s="4">
         <v>28712.69</v>
       </c>
-      <c r="C533" s="3">
+      <c r="C533" s="4">
         <v>29904.38</v>
       </c>
     </row>
     <row r="534" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A534" s="2">
+      <c r="A534" s="3">
         <v>43996</v>
       </c>
-      <c r="B534" s="3">
+      <c r="B534" s="4">
         <v>28711.73</v>
       </c>
-      <c r="C534" s="3">
+      <c r="C534" s="4">
         <v>29906.59</v>
       </c>
     </row>
     <row r="535" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A535" s="2">
+      <c r="A535" s="3">
         <v>43997</v>
       </c>
-      <c r="B535" s="3">
+      <c r="B535" s="4">
         <v>28710.77</v>
       </c>
-      <c r="C535" s="3">
+      <c r="C535" s="4">
         <v>29908.799999999999</v>
       </c>
     </row>
     <row r="536" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A536" s="2">
+      <c r="A536" s="3">
         <v>43998</v>
       </c>
-      <c r="B536" s="3">
+      <c r="B536" s="4">
         <v>28709.82</v>
       </c>
-      <c r="C536" s="3">
+      <c r="C536" s="4">
         <v>29911.01</v>
       </c>
     </row>
     <row r="537" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A537" s="2">
+      <c r="A537" s="3">
         <v>43999</v>
       </c>
-      <c r="B537" s="3">
+      <c r="B537" s="4">
         <v>28708.86</v>
       </c>
-      <c r="C537" s="3">
+      <c r="C537" s="4">
         <v>29913.22</v>
       </c>
     </row>
     <row r="538" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A538" s="2">
+      <c r="A538" s="3">
         <v>44000</v>
       </c>
-      <c r="B538" s="3">
+      <c r="B538" s="4">
         <v>28707.9</v>
       </c>
-      <c r="C538" s="3">
+      <c r="C538" s="4">
         <v>29915.43</v>
       </c>
     </row>
     <row r="539" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A539" s="2">
+      <c r="A539" s="3">
         <v>44001</v>
       </c>
-      <c r="B539" s="3">
+      <c r="B539" s="4">
         <v>28706.94</v>
       </c>
-      <c r="C539" s="3">
+      <c r="C539" s="4">
         <v>29917.64</v>
       </c>
     </row>
     <row r="540" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A540" s="2">
+      <c r="A540" s="3">
         <v>44002</v>
       </c>
-      <c r="B540" s="3">
+      <c r="B540" s="4">
         <v>28705.99</v>
       </c>
-      <c r="C540" s="3">
+      <c r="C540" s="4">
         <v>29919.85</v>
       </c>
     </row>
     <row r="541" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A541" s="2">
+      <c r="A541" s="3">
         <v>44003</v>
       </c>
-      <c r="B541" s="3">
+      <c r="B541" s="4">
         <v>28705.03</v>
       </c>
-      <c r="C541" s="3">
+      <c r="C541" s="4">
         <v>29922.07</v>
       </c>
     </row>
     <row r="542" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A542" s="2">
+      <c r="A542" s="3">
         <v>44004</v>
       </c>
-      <c r="B542" s="3">
+      <c r="B542" s="4">
         <v>28704.07</v>
       </c>
-      <c r="C542" s="3">
+      <c r="C542" s="4">
         <v>29924.28</v>
       </c>
     </row>
     <row r="543" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A543" s="2">
+      <c r="A543" s="3">
         <v>44005</v>
       </c>
-      <c r="B543" s="3">
+      <c r="B543" s="4">
         <v>28703.119999999999</v>
       </c>
-      <c r="C543" s="3">
+      <c r="C543" s="4">
         <v>29926.49</v>
       </c>
     </row>
     <row r="544" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A544" s="2">
+      <c r="A544" s="3">
         <v>44006</v>
       </c>
-      <c r="B544" s="3">
+      <c r="B544" s="4">
         <v>28702.16</v>
       </c>
-      <c r="C544" s="3">
+      <c r="C544" s="4">
         <v>29928.7</v>
       </c>
     </row>
     <row r="545" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A545" s="2">
+      <c r="A545" s="3">
         <v>44007</v>
       </c>
-      <c r="B545" s="3">
+      <c r="B545" s="4">
         <v>28701.200000000001</v>
       </c>
-      <c r="C545" s="3">
+      <c r="C545" s="4">
         <v>29930.91</v>
       </c>
     </row>
     <row r="546" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A546" s="2">
+      <c r="A546" s="3">
         <v>44008</v>
       </c>
-      <c r="B546" s="3">
+      <c r="B546" s="4">
         <v>28700.240000000002</v>
       </c>
-      <c r="C546" s="3">
+      <c r="C546" s="4">
         <v>29933.119999999999</v>
       </c>
     </row>
     <row r="547" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A547" s="2">
+      <c r="A547" s="3">
         <v>44009</v>
       </c>
-      <c r="B547" s="3">
+      <c r="B547" s="4">
         <v>28699.29</v>
       </c>
-      <c r="C547" s="3">
+      <c r="C547" s="4">
         <v>29935.34</v>
       </c>
     </row>
     <row r="548" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A548" s="2">
+      <c r="A548" s="3">
         <v>44010</v>
       </c>
-      <c r="B548" s="3">
+      <c r="B548" s="4">
         <v>28698.33</v>
       </c>
-      <c r="C548" s="3">
+      <c r="C548" s="4">
         <v>29937.55</v>
       </c>
     </row>
     <row r="549" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A549" s="2">
+      <c r="A549" s="3">
         <v>44011</v>
       </c>
-      <c r="B549" s="3">
+      <c r="B549" s="4">
         <v>28697.37</v>
       </c>
-      <c r="C549" s="3">
+      <c r="C549" s="4">
         <v>29939.759999999998</v>
       </c>
     </row>
     <row r="550" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A550" s="2">
+      <c r="A550" s="3">
         <v>44012</v>
       </c>
-      <c r="B550" s="3">
+      <c r="B550" s="4">
         <v>28696.42</v>
       </c>
-      <c r="C550" s="3">
+      <c r="C550" s="4">
         <v>29941.97</v>
       </c>
     </row>
     <row r="551" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A551" s="2">
+      <c r="A551" s="3">
         <v>44013</v>
       </c>
-      <c r="B551" s="3">
+      <c r="B551" s="4">
         <v>28695.46</v>
       </c>
-      <c r="C551" s="3">
+      <c r="C551" s="4">
         <v>29944.19</v>
       </c>
     </row>
     <row r="552" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A552" s="2">
+      <c r="A552" s="3">
         <v>44014</v>
       </c>
-      <c r="B552" s="3">
+      <c r="B552" s="4">
         <v>28694.5</v>
       </c>
-      <c r="C552" s="3">
+      <c r="C552" s="4">
         <v>29946.400000000001</v>
       </c>
     </row>
     <row r="553" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A553" s="2">
+      <c r="A553" s="3">
         <v>44015</v>
       </c>
-      <c r="B553" s="3">
+      <c r="B553" s="4">
         <v>28693.54</v>
       </c>
-      <c r="C553" s="3">
+      <c r="C553" s="4">
         <v>29948.61</v>
       </c>
     </row>
     <row r="554" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A554" s="2">
+      <c r="A554" s="3">
         <v>44016</v>
       </c>
-      <c r="B554" s="3">
+      <c r="B554" s="4">
         <v>28692.59</v>
       </c>
-      <c r="C554" s="3">
+      <c r="C554" s="4">
         <v>29950.83</v>
       </c>
     </row>
     <row r="555" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A555" s="2">
+      <c r="A555" s="3">
         <v>44017</v>
       </c>
-      <c r="B555" s="3">
+      <c r="B555" s="4">
         <v>28691.63</v>
       </c>
-      <c r="C555" s="3">
+      <c r="C555" s="4">
         <v>29953.040000000001</v>
       </c>
     </row>
     <row r="556" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A556" s="2">
+      <c r="A556" s="3">
         <v>44018</v>
       </c>
-      <c r="B556" s="3">
+      <c r="B556" s="4">
         <v>28690.67</v>
       </c>
-      <c r="C556" s="3">
+      <c r="C556" s="4">
         <v>29955.25</v>
       </c>
     </row>
     <row r="557" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A557" s="2">
+      <c r="A557" s="3">
         <v>44019</v>
       </c>
-      <c r="B557" s="3">
+      <c r="B557" s="4">
         <v>28689.72</v>
       </c>
-      <c r="C557" s="3">
+      <c r="C557" s="4">
         <v>29957.47</v>
       </c>
     </row>
     <row r="558" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A558" s="2">
+      <c r="A558" s="3">
         <v>44020</v>
       </c>
-      <c r="B558" s="3">
+      <c r="B558" s="4">
         <v>28688.76</v>
       </c>
-      <c r="C558" s="3">
+      <c r="C558" s="4">
         <v>29959.68</v>
       </c>
     </row>
     <row r="559" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A559" s="2">
+      <c r="A559" s="3">
         <v>44021</v>
       </c>
-      <c r="B559" s="3">
+      <c r="B559" s="4">
         <v>28687.8</v>
       </c>
-      <c r="C559" s="3">
+      <c r="C559" s="4">
         <v>29961.9</v>
       </c>
     </row>
@@ -7085,5 +7085,6 @@
     <mergeCell ref="A1:C1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/datacovidChile/IndicadoresEconomicos/UF_IVP_DIARIO.xlsx
+++ b/datacovidChile/IndicadoresEconomicos/UF_IVP_DIARIO.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\reyes.rodriguezucv@gmail.com\OneDrive\Proyectos\Data intelligence\Covid-19\Chile\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/944d5b9328a00097/Proyectos/Data intelligence/Covid-19/Chile/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{09248BB8-9CE4-4580-84DA-AF69B8E47965}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{09248BB8-9CE4-4580-84DA-AF69B8E47965}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{CC29AD69-9A70-479C-BCE2-6DA18D374897}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UF_IVP_DIARIO" sheetId="1" r:id="rId1"/>
@@ -23,8 +23,8 @@
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" odcFile="D:\reyes.rodriguezucv@gmail.com\OneDrive\Proyectos\Data intelligence\Covid-19\Chile\UF_IVP_DIARIO.iqy" name="UF_IVP_DIARIO" type="4" refreshedVersion="6" background="1" saveData="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" odcFile="D:\reyes.rodriguezucv@gmail.com\OneDrive\Proyectos\Data intelligence\Covid-19\Chile\UF_IVP_DIARIO.iqy" name="UF_IVP_DIARIO" type="4" refreshedVersion="6" background="1" saveData="1">
     <webPr consecutive="1" xl2000="1" url="http://si3.bcentral.cl/SieteIQY/secure/carga_series_excel.aspx" post="fechaInicio=[&quot;añoInicial&quot;,&quot;Año inicial&quot;]&amp;fechaFin=[&quot;añoFinal&quot;,&quot;Año final&quot;]&amp;param=dGZNYkFkUTNSN1dvM0MxWiZuR2Ijc0dGS3ctTm0mUVREenEuWiZiYV9kUXdXbUNNNXMtX0Yta3dqZSY0T0ZGSW4xekswak9ZbjZVR2IgWHAgN2VOQ1pHTkc5TjI2bzIxIExUMTIyJCZ0YVNTNEViOWRoNEIjdlpzbkRNbFdrWi5WSk9IODlubWppT1ZyU2k2a3g5NlhKIF8xIGpMRnJqX3QgKHZrKTtnOHNFdDUxaFdJcFkkU0JxQ3ljUFpoZ0lLYTVQeTJINTckdThoNDUgdl8gZ3ZOd24gMnYjc0x3TksgKDhKYSk=" htmlTables="1" htmlFormat="all"/>
     <parameters count="2">
       <parameter name="añoInicial" prompt="Año inicial"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -553,14 +553,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -624,7 +624,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="UF_IVP_DIARIO" preserveFormatting="0" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="UF_IVP_DIARIO" preserveFormatting="0" connectionId="1" xr16:uid="{00000000-0016-0000-0000-000000000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -923,11 +923,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C559"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C1"/>
+    <sheetView tabSelected="1" topLeftCell="A541" workbookViewId="0">
+      <selection activeCell="C551" sqref="C551"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -937,7 +937,7 @@
     <col min="3" max="3" width="25.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -945,6138 +945,6138 @@
       <c r="C1" s="5"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="3">
+      <c r="A4" s="2">
         <v>43466</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="3">
         <v>27565.79</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="3">
         <v>28685.79</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="3">
+      <c r="A5" s="2">
         <v>43467</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="3">
         <v>27565.79</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="3">
         <v>28687.87</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="3">
+      <c r="A6" s="2">
         <v>43468</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="3">
         <v>27565.79</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="3">
         <v>28689.96</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="3">
+      <c r="A7" s="2">
         <v>43469</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="3">
         <v>27565.79</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="3">
         <v>28692.04</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="3">
+      <c r="A8" s="2">
         <v>43470</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="3">
         <v>27565.79</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="3">
         <v>28694.13</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="3">
+      <c r="A9" s="2">
         <v>43471</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="3">
         <v>27565.79</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="3">
         <v>28696.22</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="3">
+      <c r="A10" s="2">
         <v>43472</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="3">
         <v>27565.79</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="3">
         <v>28698.3</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="3">
+      <c r="A11" s="2">
         <v>43473</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="3">
         <v>27565.79</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="3">
         <v>28700.39</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="3">
+      <c r="A12" s="2">
         <v>43474</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="3">
         <v>27565.79</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="3">
         <v>28702.47</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="3">
+      <c r="A13" s="2">
         <v>43475</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="3">
         <v>27564.9</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="3">
         <v>28704.23</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="3">
+      <c r="A14" s="2">
         <v>43476</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14" s="3">
         <v>27564.01</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="3">
         <v>28705.99</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="3">
+      <c r="A15" s="2">
         <v>43477</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15" s="3">
         <v>27563.119999999999</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="3">
         <v>28707.75</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="3">
+      <c r="A16" s="2">
         <v>43478</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B16" s="3">
         <v>27562.23</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="3">
         <v>28709.51</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="3">
+      <c r="A17" s="2">
         <v>43479</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B17" s="3">
         <v>27561.34</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="3">
         <v>28711.27</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="3">
+      <c r="A18" s="2">
         <v>43480</v>
       </c>
-      <c r="B18" s="4">
+      <c r="B18" s="3">
         <v>27560.45</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="3">
         <v>28713.03</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="3">
+      <c r="A19" s="2">
         <v>43481</v>
       </c>
-      <c r="B19" s="4">
+      <c r="B19" s="3">
         <v>27559.56</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19" s="3">
         <v>28714.79</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="3">
+      <c r="A20" s="2">
         <v>43482</v>
       </c>
-      <c r="B20" s="4">
+      <c r="B20" s="3">
         <v>27558.67</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C20" s="3">
         <v>28716.55</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="3">
+      <c r="A21" s="2">
         <v>43483</v>
       </c>
-      <c r="B21" s="4">
+      <c r="B21" s="3">
         <v>27557.78</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C21" s="3">
         <v>28718.31</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="3">
+      <c r="A22" s="2">
         <v>43484</v>
       </c>
-      <c r="B22" s="4">
+      <c r="B22" s="3">
         <v>27556.89</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C22" s="3">
         <v>28720.07</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="3">
+      <c r="A23" s="2">
         <v>43485</v>
       </c>
-      <c r="B23" s="4">
+      <c r="B23" s="3">
         <v>27556.01</v>
       </c>
-      <c r="C23" s="4">
+      <c r="C23" s="3">
         <v>28721.83</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="3">
+      <c r="A24" s="2">
         <v>43486</v>
       </c>
-      <c r="B24" s="4">
+      <c r="B24" s="3">
         <v>27555.119999999999</v>
       </c>
-      <c r="C24" s="4">
+      <c r="C24" s="3">
         <v>28723.599999999999</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="3">
+      <c r="A25" s="2">
         <v>43487</v>
       </c>
-      <c r="B25" s="4">
+      <c r="B25" s="3">
         <v>27554.23</v>
       </c>
-      <c r="C25" s="4">
+      <c r="C25" s="3">
         <v>28725.360000000001</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="3">
+      <c r="A26" s="2">
         <v>43488</v>
       </c>
-      <c r="B26" s="4">
+      <c r="B26" s="3">
         <v>27553.34</v>
       </c>
-      <c r="C26" s="4">
+      <c r="C26" s="3">
         <v>28727.119999999999</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="3">
+      <c r="A27" s="2">
         <v>43489</v>
       </c>
-      <c r="B27" s="4">
+      <c r="B27" s="3">
         <v>27552.45</v>
       </c>
-      <c r="C27" s="4">
+      <c r="C27" s="3">
         <v>28728.880000000001</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="3">
+      <c r="A28" s="2">
         <v>43490</v>
       </c>
-      <c r="B28" s="4">
+      <c r="B28" s="3">
         <v>27551.56</v>
       </c>
-      <c r="C28" s="4">
+      <c r="C28" s="3">
         <v>28730.639999999999</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="3">
+      <c r="A29" s="2">
         <v>43491</v>
       </c>
-      <c r="B29" s="4">
+      <c r="B29" s="3">
         <v>27550.67</v>
       </c>
-      <c r="C29" s="4">
+      <c r="C29" s="3">
         <v>28732.400000000001</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="3">
+      <c r="A30" s="2">
         <v>43492</v>
       </c>
-      <c r="B30" s="4">
+      <c r="B30" s="3">
         <v>27549.78</v>
       </c>
-      <c r="C30" s="4">
+      <c r="C30" s="3">
         <v>28734.16</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="3">
+      <c r="A31" s="2">
         <v>43493</v>
       </c>
-      <c r="B31" s="4">
+      <c r="B31" s="3">
         <v>27548.89</v>
       </c>
-      <c r="C31" s="4">
+      <c r="C31" s="3">
         <v>28735.93</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="3">
+      <c r="A32" s="2">
         <v>43494</v>
       </c>
-      <c r="B32" s="4">
+      <c r="B32" s="3">
         <v>27548</v>
       </c>
-      <c r="C32" s="4">
+      <c r="C32" s="3">
         <v>28737.69</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="3">
+      <c r="A33" s="2">
         <v>43495</v>
       </c>
-      <c r="B33" s="4">
+      <c r="B33" s="3">
         <v>27547.11</v>
       </c>
-      <c r="C33" s="4">
+      <c r="C33" s="3">
         <v>28739.45</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="3">
+      <c r="A34" s="2">
         <v>43496</v>
       </c>
-      <c r="B34" s="4">
+      <c r="B34" s="3">
         <v>27546.22</v>
       </c>
-      <c r="C34" s="4">
+      <c r="C34" s="3">
         <v>28741.21</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="3">
+      <c r="A35" s="2">
         <v>43497</v>
       </c>
-      <c r="B35" s="4">
+      <c r="B35" s="3">
         <v>27545.34</v>
       </c>
-      <c r="C35" s="4">
+      <c r="C35" s="3">
         <v>28742.97</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="3">
+      <c r="A36" s="2">
         <v>43498</v>
       </c>
-      <c r="B36" s="4">
+      <c r="B36" s="3">
         <v>27544.45</v>
       </c>
-      <c r="C36" s="4">
+      <c r="C36" s="3">
         <v>28744.74</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="3">
+      <c r="A37" s="2">
         <v>43499</v>
       </c>
-      <c r="B37" s="4">
+      <c r="B37" s="3">
         <v>27543.56</v>
       </c>
-      <c r="C37" s="4">
+      <c r="C37" s="3">
         <v>28746.5</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" s="3">
+      <c r="A38" s="2">
         <v>43500</v>
       </c>
-      <c r="B38" s="4">
+      <c r="B38" s="3">
         <v>27542.67</v>
       </c>
-      <c r="C38" s="4">
+      <c r="C38" s="3">
         <v>28748.26</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" s="3">
+      <c r="A39" s="2">
         <v>43501</v>
       </c>
-      <c r="B39" s="4">
+      <c r="B39" s="3">
         <v>27541.78</v>
       </c>
-      <c r="C39" s="4">
+      <c r="C39" s="3">
         <v>28750.02</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" s="3">
+      <c r="A40" s="2">
         <v>43502</v>
       </c>
-      <c r="B40" s="4">
+      <c r="B40" s="3">
         <v>27540.89</v>
       </c>
-      <c r="C40" s="4">
+      <c r="C40" s="3">
         <v>28751.79</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" s="3">
+      <c r="A41" s="2">
         <v>43503</v>
       </c>
-      <c r="B41" s="4">
+      <c r="B41" s="3">
         <v>27540</v>
       </c>
-      <c r="C41" s="4">
+      <c r="C41" s="3">
         <v>28753.55</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42" s="3">
+      <c r="A42" s="2">
         <v>43504</v>
       </c>
-      <c r="B42" s="4">
+      <c r="B42" s="3">
         <v>27539.11</v>
       </c>
-      <c r="C42" s="4">
+      <c r="C42" s="3">
         <v>28755.31</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43" s="3">
+      <c r="A43" s="2">
         <v>43505</v>
       </c>
-      <c r="B43" s="4">
+      <c r="B43" s="3">
         <v>27538.22</v>
       </c>
-      <c r="C43" s="4">
+      <c r="C43" s="3">
         <v>28757.08</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44" s="3">
+      <c r="A44" s="2">
         <v>43506</v>
       </c>
-      <c r="B44" s="4">
+      <c r="B44" s="3">
         <v>27539.200000000001</v>
       </c>
-      <c r="C44" s="4">
+      <c r="C44" s="3">
         <v>28758.47</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45" s="3">
+      <c r="A45" s="2">
         <v>43507</v>
       </c>
-      <c r="B45" s="4">
+      <c r="B45" s="3">
         <v>27540.19</v>
       </c>
-      <c r="C45" s="4">
+      <c r="C45" s="3">
         <v>28759.85</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46" s="3">
+      <c r="A46" s="2">
         <v>43508</v>
       </c>
-      <c r="B46" s="4">
+      <c r="B46" s="3">
         <v>27541.17</v>
       </c>
-      <c r="C46" s="4">
+      <c r="C46" s="3">
         <v>28761.24</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A47" s="3">
+      <c r="A47" s="2">
         <v>43509</v>
       </c>
-      <c r="B47" s="4">
+      <c r="B47" s="3">
         <v>27542.15</v>
       </c>
-      <c r="C47" s="4">
+      <c r="C47" s="3">
         <v>28762.63</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A48" s="3">
+      <c r="A48" s="2">
         <v>43510</v>
       </c>
-      <c r="B48" s="4">
+      <c r="B48" s="3">
         <v>27543.14</v>
       </c>
-      <c r="C48" s="4">
+      <c r="C48" s="3">
         <v>28764.01</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A49" s="3">
+      <c r="A49" s="2">
         <v>43511</v>
       </c>
-      <c r="B49" s="4">
+      <c r="B49" s="3">
         <v>27544.12</v>
       </c>
-      <c r="C49" s="4">
+      <c r="C49" s="3">
         <v>28765.4</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A50" s="3">
+      <c r="A50" s="2">
         <v>43512</v>
       </c>
-      <c r="B50" s="4">
+      <c r="B50" s="3">
         <v>27545.1</v>
       </c>
-      <c r="C50" s="4">
+      <c r="C50" s="3">
         <v>28766.79</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A51" s="3">
+      <c r="A51" s="2">
         <v>43513</v>
       </c>
-      <c r="B51" s="4">
+      <c r="B51" s="3">
         <v>27546.09</v>
       </c>
-      <c r="C51" s="4">
+      <c r="C51" s="3">
         <v>28768.18</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A52" s="3">
+      <c r="A52" s="2">
         <v>43514</v>
       </c>
-      <c r="B52" s="4">
+      <c r="B52" s="3">
         <v>27547.07</v>
       </c>
-      <c r="C52" s="4">
+      <c r="C52" s="3">
         <v>28769.56</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A53" s="3">
+      <c r="A53" s="2">
         <v>43515</v>
       </c>
-      <c r="B53" s="4">
+      <c r="B53" s="3">
         <v>27548.05</v>
       </c>
-      <c r="C53" s="4">
+      <c r="C53" s="3">
         <v>28770.95</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A54" s="3">
+      <c r="A54" s="2">
         <v>43516</v>
       </c>
-      <c r="B54" s="4">
+      <c r="B54" s="3">
         <v>27549.040000000001</v>
       </c>
-      <c r="C54" s="4">
+      <c r="C54" s="3">
         <v>28772.34</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A55" s="3">
+      <c r="A55" s="2">
         <v>43517</v>
       </c>
-      <c r="B55" s="4">
+      <c r="B55" s="3">
         <v>27550.02</v>
       </c>
-      <c r="C55" s="4">
+      <c r="C55" s="3">
         <v>28773.73</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A56" s="3">
+      <c r="A56" s="2">
         <v>43518</v>
       </c>
-      <c r="B56" s="4">
+      <c r="B56" s="3">
         <v>27551</v>
       </c>
-      <c r="C56" s="4">
+      <c r="C56" s="3">
         <v>28775.11</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A57" s="3">
+      <c r="A57" s="2">
         <v>43519</v>
       </c>
-      <c r="B57" s="4">
+      <c r="B57" s="3">
         <v>27551.99</v>
       </c>
-      <c r="C57" s="4">
+      <c r="C57" s="3">
         <v>28776.5</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A58" s="3">
+      <c r="A58" s="2">
         <v>43520</v>
       </c>
-      <c r="B58" s="4">
+      <c r="B58" s="3">
         <v>27552.97</v>
       </c>
-      <c r="C58" s="4">
+      <c r="C58" s="3">
         <v>28777.89</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A59" s="3">
+      <c r="A59" s="2">
         <v>43521</v>
       </c>
-      <c r="B59" s="4">
+      <c r="B59" s="3">
         <v>27553.95</v>
       </c>
-      <c r="C59" s="4">
+      <c r="C59" s="3">
         <v>28779.279999999999</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A60" s="3">
+      <c r="A60" s="2">
         <v>43522</v>
       </c>
-      <c r="B60" s="4">
+      <c r="B60" s="3">
         <v>27554.94</v>
       </c>
-      <c r="C60" s="4">
+      <c r="C60" s="3">
         <v>28780.66</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A61" s="3">
+      <c r="A61" s="2">
         <v>43523</v>
       </c>
-      <c r="B61" s="4">
+      <c r="B61" s="3">
         <v>27555.919999999998</v>
       </c>
-      <c r="C61" s="4">
+      <c r="C61" s="3">
         <v>28782.05</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A62" s="3">
+      <c r="A62" s="2">
         <v>43524</v>
       </c>
-      <c r="B62" s="4">
+      <c r="B62" s="3">
         <v>27556.9</v>
       </c>
-      <c r="C62" s="4">
+      <c r="C62" s="3">
         <v>28783.439999999999</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A63" s="3">
+      <c r="A63" s="2">
         <v>43525</v>
       </c>
-      <c r="B63" s="4">
+      <c r="B63" s="3">
         <v>27557.89</v>
       </c>
-      <c r="C63" s="4">
+      <c r="C63" s="3">
         <v>28784.83</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A64" s="3">
+      <c r="A64" s="2">
         <v>43526</v>
       </c>
-      <c r="B64" s="4">
+      <c r="B64" s="3">
         <v>27558.87</v>
       </c>
-      <c r="C64" s="4">
+      <c r="C64" s="3">
         <v>28786.22</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A65" s="3">
+      <c r="A65" s="2">
         <v>43527</v>
       </c>
-      <c r="B65" s="4">
+      <c r="B65" s="3">
         <v>27559.85</v>
       </c>
-      <c r="C65" s="4">
+      <c r="C65" s="3">
         <v>28787.599999999999</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A66" s="3">
+      <c r="A66" s="2">
         <v>43528</v>
       </c>
-      <c r="B66" s="4">
+      <c r="B66" s="3">
         <v>27560.84</v>
       </c>
-      <c r="C66" s="4">
+      <c r="C66" s="3">
         <v>28788.99</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A67" s="3">
+      <c r="A67" s="2">
         <v>43529</v>
       </c>
-      <c r="B67" s="4">
+      <c r="B67" s="3">
         <v>27561.82</v>
       </c>
-      <c r="C67" s="4">
+      <c r="C67" s="3">
         <v>28790.38</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A68" s="3">
+      <c r="A68" s="2">
         <v>43530</v>
       </c>
-      <c r="B68" s="4">
+      <c r="B68" s="3">
         <v>27562.81</v>
       </c>
-      <c r="C68" s="4">
+      <c r="C68" s="3">
         <v>28791.77</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A69" s="3">
+      <c r="A69" s="2">
         <v>43531</v>
       </c>
-      <c r="B69" s="4">
+      <c r="B69" s="3">
         <v>27563.79</v>
       </c>
-      <c r="C69" s="4">
+      <c r="C69" s="3">
         <v>28793.16</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A70" s="3">
+      <c r="A70" s="2">
         <v>43532</v>
       </c>
-      <c r="B70" s="4">
+      <c r="B70" s="3">
         <v>27564.77</v>
       </c>
-      <c r="C70" s="4">
+      <c r="C70" s="3">
         <v>28794.55</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A71" s="3">
+      <c r="A71" s="2">
         <v>43533</v>
       </c>
-      <c r="B71" s="4">
+      <c r="B71" s="3">
         <v>27565.759999999998</v>
       </c>
-      <c r="C71" s="4">
+      <c r="C71" s="3">
         <v>28795.94</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A72" s="3">
+      <c r="A72" s="2">
         <v>43534</v>
       </c>
-      <c r="B72" s="4">
+      <c r="B72" s="3">
         <v>27565.759999999998</v>
       </c>
-      <c r="C72" s="4">
+      <c r="C72" s="3">
         <v>28797.13</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A73" s="3">
+      <c r="A73" s="2">
         <v>43535</v>
       </c>
-      <c r="B73" s="4">
+      <c r="B73" s="3">
         <v>27565.759999999998</v>
       </c>
-      <c r="C73" s="4">
+      <c r="C73" s="3">
         <v>28798.32</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A74" s="3">
+      <c r="A74" s="2">
         <v>43536</v>
       </c>
-      <c r="B74" s="4">
+      <c r="B74" s="3">
         <v>27565.759999999998</v>
       </c>
-      <c r="C74" s="4">
+      <c r="C74" s="3">
         <v>28799.51</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A75" s="3">
+      <c r="A75" s="2">
         <v>43537</v>
       </c>
-      <c r="B75" s="4">
+      <c r="B75" s="3">
         <v>27565.759999999998</v>
       </c>
-      <c r="C75" s="4">
+      <c r="C75" s="3">
         <v>28800.69</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A76" s="3">
+      <c r="A76" s="2">
         <v>43538</v>
       </c>
-      <c r="B76" s="4">
+      <c r="B76" s="3">
         <v>27565.759999999998</v>
       </c>
-      <c r="C76" s="4">
+      <c r="C76" s="3">
         <v>28801.88</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A77" s="3">
+      <c r="A77" s="2">
         <v>43539</v>
       </c>
-      <c r="B77" s="4">
+      <c r="B77" s="3">
         <v>27565.759999999998</v>
       </c>
-      <c r="C77" s="4">
+      <c r="C77" s="3">
         <v>28803.07</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A78" s="3">
+      <c r="A78" s="2">
         <v>43540</v>
       </c>
-      <c r="B78" s="4">
+      <c r="B78" s="3">
         <v>27565.759999999998</v>
       </c>
-      <c r="C78" s="4">
+      <c r="C78" s="3">
         <v>28804.26</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A79" s="3">
+      <c r="A79" s="2">
         <v>43541</v>
       </c>
-      <c r="B79" s="4">
+      <c r="B79" s="3">
         <v>27565.759999999998</v>
       </c>
-      <c r="C79" s="4">
+      <c r="C79" s="3">
         <v>28805.45</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A80" s="3">
+      <c r="A80" s="2">
         <v>43542</v>
       </c>
-      <c r="B80" s="4">
+      <c r="B80" s="3">
         <v>27565.759999999998</v>
       </c>
-      <c r="C80" s="4">
+      <c r="C80" s="3">
         <v>28806.639999999999</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A81" s="3">
+      <c r="A81" s="2">
         <v>43543</v>
       </c>
-      <c r="B81" s="4">
+      <c r="B81" s="3">
         <v>27565.759999999998</v>
       </c>
-      <c r="C81" s="4">
+      <c r="C81" s="3">
         <v>28807.83</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A82" s="3">
+      <c r="A82" s="2">
         <v>43544</v>
       </c>
-      <c r="B82" s="4">
+      <c r="B82" s="3">
         <v>27565.759999999998</v>
       </c>
-      <c r="C82" s="4">
+      <c r="C82" s="3">
         <v>28809.01</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A83" s="3">
+      <c r="A83" s="2">
         <v>43545</v>
       </c>
-      <c r="B83" s="4">
+      <c r="B83" s="3">
         <v>27565.759999999998</v>
       </c>
-      <c r="C83" s="4">
+      <c r="C83" s="3">
         <v>28810.2</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A84" s="3">
+      <c r="A84" s="2">
         <v>43546</v>
       </c>
-      <c r="B84" s="4">
+      <c r="B84" s="3">
         <v>27565.759999999998</v>
       </c>
-      <c r="C84" s="4">
+      <c r="C84" s="3">
         <v>28811.39</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A85" s="3">
+      <c r="A85" s="2">
         <v>43547</v>
       </c>
-      <c r="B85" s="4">
+      <c r="B85" s="3">
         <v>27565.759999999998</v>
       </c>
-      <c r="C85" s="4">
+      <c r="C85" s="3">
         <v>28812.58</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A86" s="3">
+      <c r="A86" s="2">
         <v>43548</v>
       </c>
-      <c r="B86" s="4">
+      <c r="B86" s="3">
         <v>27565.759999999998</v>
       </c>
-      <c r="C86" s="4">
+      <c r="C86" s="3">
         <v>28813.77</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A87" s="3">
+      <c r="A87" s="2">
         <v>43549</v>
       </c>
-      <c r="B87" s="4">
+      <c r="B87" s="3">
         <v>27565.759999999998</v>
       </c>
-      <c r="C87" s="4">
+      <c r="C87" s="3">
         <v>28814.959999999999</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A88" s="3">
+      <c r="A88" s="2">
         <v>43550</v>
       </c>
-      <c r="B88" s="4">
+      <c r="B88" s="3">
         <v>27565.759999999998</v>
       </c>
-      <c r="C88" s="4">
+      <c r="C88" s="3">
         <v>28816.15</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A89" s="3">
+      <c r="A89" s="2">
         <v>43551</v>
       </c>
-      <c r="B89" s="4">
+      <c r="B89" s="3">
         <v>27565.759999999998</v>
       </c>
-      <c r="C89" s="4">
+      <c r="C89" s="3">
         <v>28817.34</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A90" s="3">
+      <c r="A90" s="2">
         <v>43552</v>
       </c>
-      <c r="B90" s="4">
+      <c r="B90" s="3">
         <v>27565.759999999998</v>
       </c>
-      <c r="C90" s="4">
+      <c r="C90" s="3">
         <v>28818.53</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A91" s="3">
+      <c r="A91" s="2">
         <v>43553</v>
       </c>
-      <c r="B91" s="4">
+      <c r="B91" s="3">
         <v>27565.759999999998</v>
       </c>
-      <c r="C91" s="4">
+      <c r="C91" s="3">
         <v>28819.72</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A92" s="3">
+      <c r="A92" s="2">
         <v>43554</v>
       </c>
-      <c r="B92" s="4">
+      <c r="B92" s="3">
         <v>27565.759999999998</v>
       </c>
-      <c r="C92" s="4">
+      <c r="C92" s="3">
         <v>28820.9</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A93" s="3">
+      <c r="A93" s="2">
         <v>43555</v>
       </c>
-      <c r="B93" s="4">
+      <c r="B93" s="3">
         <v>27565.759999999998</v>
       </c>
-      <c r="C93" s="4">
+      <c r="C93" s="3">
         <v>28822.09</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A94" s="3">
+      <c r="A94" s="2">
         <v>43556</v>
       </c>
-      <c r="B94" s="4">
+      <c r="B94" s="3">
         <v>27565.759999999998</v>
       </c>
-      <c r="C94" s="4">
+      <c r="C94" s="3">
         <v>28823.279999999999</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A95" s="3">
+      <c r="A95" s="2">
         <v>43557</v>
       </c>
-      <c r="B95" s="4">
+      <c r="B95" s="3">
         <v>27565.759999999998</v>
       </c>
-      <c r="C95" s="4">
+      <c r="C95" s="3">
         <v>28824.47</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A96" s="3">
+      <c r="A96" s="2">
         <v>43558</v>
       </c>
-      <c r="B96" s="4">
+      <c r="B96" s="3">
         <v>27565.759999999998</v>
       </c>
-      <c r="C96" s="4">
+      <c r="C96" s="3">
         <v>28825.66</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A97" s="3">
+      <c r="A97" s="2">
         <v>43559</v>
       </c>
-      <c r="B97" s="4">
+      <c r="B97" s="3">
         <v>27565.759999999998</v>
       </c>
-      <c r="C97" s="4">
+      <c r="C97" s="3">
         <v>28826.85</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A98" s="3">
+      <c r="A98" s="2">
         <v>43560</v>
       </c>
-      <c r="B98" s="4">
+      <c r="B98" s="3">
         <v>27565.759999999998</v>
       </c>
-      <c r="C98" s="4">
+      <c r="C98" s="3">
         <v>28828.04</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A99" s="3">
+      <c r="A99" s="2">
         <v>43561</v>
       </c>
-      <c r="B99" s="4">
+      <c r="B99" s="3">
         <v>27565.759999999998</v>
       </c>
-      <c r="C99" s="4">
+      <c r="C99" s="3">
         <v>28829.23</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A100" s="3">
+      <c r="A100" s="2">
         <v>43562</v>
       </c>
-      <c r="B100" s="4">
+      <c r="B100" s="3">
         <v>27565.759999999998</v>
       </c>
-      <c r="C100" s="4">
+      <c r="C100" s="3">
         <v>28830.42</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A101" s="3">
+      <c r="A101" s="2">
         <v>43563</v>
       </c>
-      <c r="B101" s="4">
+      <c r="B101" s="3">
         <v>27565.759999999998</v>
       </c>
-      <c r="C101" s="4">
+      <c r="C101" s="3">
         <v>28831.61</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A102" s="3">
+      <c r="A102" s="2">
         <v>43564</v>
       </c>
-      <c r="B102" s="4">
+      <c r="B102" s="3">
         <v>27565.759999999998</v>
       </c>
-      <c r="C102" s="4">
+      <c r="C102" s="3">
         <v>28832.799999999999</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A103" s="3">
+      <c r="A103" s="2">
         <v>43565</v>
       </c>
-      <c r="B103" s="4">
+      <c r="B103" s="3">
         <v>27570.34</v>
       </c>
-      <c r="C103" s="4">
+      <c r="C103" s="3">
         <v>28834.2</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A104" s="3">
+      <c r="A104" s="2">
         <v>43566</v>
       </c>
-      <c r="B104" s="4">
+      <c r="B104" s="3">
         <v>27574.93</v>
       </c>
-      <c r="C104" s="4">
+      <c r="C104" s="3">
         <v>28835.599999999999</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A105" s="3">
+      <c r="A105" s="2">
         <v>43567</v>
       </c>
-      <c r="B105" s="4">
+      <c r="B105" s="3">
         <v>27579.51</v>
       </c>
-      <c r="C105" s="4">
+      <c r="C105" s="3">
         <v>28837</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A106" s="3">
+      <c r="A106" s="2">
         <v>43568</v>
       </c>
-      <c r="B106" s="4">
+      <c r="B106" s="3">
         <v>27584.1</v>
       </c>
-      <c r="C106" s="4">
+      <c r="C106" s="3">
         <v>28838.39</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A107" s="3">
+      <c r="A107" s="2">
         <v>43569</v>
       </c>
-      <c r="B107" s="4">
+      <c r="B107" s="3">
         <v>27588.68</v>
       </c>
-      <c r="C107" s="4">
+      <c r="C107" s="3">
         <v>28839.79</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A108" s="3">
+      <c r="A108" s="2">
         <v>43570</v>
       </c>
-      <c r="B108" s="4">
+      <c r="B108" s="3">
         <v>27593.27</v>
       </c>
-      <c r="C108" s="4">
+      <c r="C108" s="3">
         <v>28841.19</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A109" s="3">
+      <c r="A109" s="2">
         <v>43571</v>
       </c>
-      <c r="B109" s="4">
+      <c r="B109" s="3">
         <v>27597.86</v>
       </c>
-      <c r="C109" s="4">
+      <c r="C109" s="3">
         <v>28842.59</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A110" s="3">
+      <c r="A110" s="2">
         <v>43572</v>
       </c>
-      <c r="B110" s="4">
+      <c r="B110" s="3">
         <v>27602.45</v>
       </c>
-      <c r="C110" s="4">
+      <c r="C110" s="3">
         <v>28843.99</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A111" s="3">
+      <c r="A111" s="2">
         <v>43573</v>
       </c>
-      <c r="B111" s="4">
+      <c r="B111" s="3">
         <v>27607.040000000001</v>
       </c>
-      <c r="C111" s="4">
+      <c r="C111" s="3">
         <v>28845.39</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A112" s="3">
+      <c r="A112" s="2">
         <v>43574</v>
       </c>
-      <c r="B112" s="4">
+      <c r="B112" s="3">
         <v>27611.63</v>
       </c>
-      <c r="C112" s="4">
+      <c r="C112" s="3">
         <v>28846.79</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A113" s="3">
+      <c r="A113" s="2">
         <v>43575</v>
       </c>
-      <c r="B113" s="4">
+      <c r="B113" s="3">
         <v>27616.22</v>
       </c>
-      <c r="C113" s="4">
+      <c r="C113" s="3">
         <v>28848.19</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A114" s="3">
+      <c r="A114" s="2">
         <v>43576</v>
       </c>
-      <c r="B114" s="4">
+      <c r="B114" s="3">
         <v>27620.81</v>
       </c>
-      <c r="C114" s="4">
+      <c r="C114" s="3">
         <v>28849.59</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A115" s="3">
+      <c r="A115" s="2">
         <v>43577</v>
       </c>
-      <c r="B115" s="4">
+      <c r="B115" s="3">
         <v>27625.4</v>
       </c>
-      <c r="C115" s="4">
+      <c r="C115" s="3">
         <v>28850.99</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A116" s="3">
+      <c r="A116" s="2">
         <v>43578</v>
       </c>
-      <c r="B116" s="4">
+      <c r="B116" s="3">
         <v>27629.99</v>
       </c>
-      <c r="C116" s="4">
+      <c r="C116" s="3">
         <v>28852.38</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A117" s="3">
+      <c r="A117" s="2">
         <v>43579</v>
       </c>
-      <c r="B117" s="4">
+      <c r="B117" s="3">
         <v>27634.59</v>
       </c>
-      <c r="C117" s="4">
+      <c r="C117" s="3">
         <v>28853.78</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A118" s="3">
+      <c r="A118" s="2">
         <v>43580</v>
       </c>
-      <c r="B118" s="4">
+      <c r="B118" s="3">
         <v>27639.18</v>
       </c>
-      <c r="C118" s="4">
+      <c r="C118" s="3">
         <v>28855.18</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A119" s="3">
+      <c r="A119" s="2">
         <v>43581</v>
       </c>
-      <c r="B119" s="4">
+      <c r="B119" s="3">
         <v>27643.78</v>
       </c>
-      <c r="C119" s="4">
+      <c r="C119" s="3">
         <v>28856.58</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A120" s="3">
+      <c r="A120" s="2">
         <v>43582</v>
       </c>
-      <c r="B120" s="4">
+      <c r="B120" s="3">
         <v>27648.37</v>
       </c>
-      <c r="C120" s="4">
+      <c r="C120" s="3">
         <v>28857.98</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A121" s="3">
+      <c r="A121" s="2">
         <v>43583</v>
       </c>
-      <c r="B121" s="4">
+      <c r="B121" s="3">
         <v>27652.97</v>
       </c>
-      <c r="C121" s="4">
+      <c r="C121" s="3">
         <v>28859.38</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A122" s="3">
+      <c r="A122" s="2">
         <v>43584</v>
       </c>
-      <c r="B122" s="4">
+      <c r="B122" s="3">
         <v>27657.57</v>
       </c>
-      <c r="C122" s="4">
+      <c r="C122" s="3">
         <v>28860.78</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A123" s="3">
+      <c r="A123" s="2">
         <v>43585</v>
       </c>
-      <c r="B123" s="4">
+      <c r="B123" s="3">
         <v>27662.17</v>
       </c>
-      <c r="C123" s="4">
+      <c r="C123" s="3">
         <v>28862.18</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A124" s="3">
+      <c r="A124" s="2">
         <v>43586</v>
       </c>
-      <c r="B124" s="4">
+      <c r="B124" s="3">
         <v>27666.77</v>
       </c>
-      <c r="C124" s="4">
+      <c r="C124" s="3">
         <v>28863.58</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A125" s="3">
+      <c r="A125" s="2">
         <v>43587</v>
       </c>
-      <c r="B125" s="4">
+      <c r="B125" s="3">
         <v>27671.37</v>
       </c>
-      <c r="C125" s="4">
+      <c r="C125" s="3">
         <v>28864.98</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A126" s="3">
+      <c r="A126" s="2">
         <v>43588</v>
       </c>
-      <c r="B126" s="4">
+      <c r="B126" s="3">
         <v>27675.97</v>
       </c>
-      <c r="C126" s="4">
+      <c r="C126" s="3">
         <v>28866.38</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A127" s="3">
+      <c r="A127" s="2">
         <v>43589</v>
       </c>
-      <c r="B127" s="4">
+      <c r="B127" s="3">
         <v>27680.57</v>
       </c>
-      <c r="C127" s="4">
+      <c r="C127" s="3">
         <v>28867.78</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A128" s="3">
+      <c r="A128" s="2">
         <v>43590</v>
       </c>
-      <c r="B128" s="4">
+      <c r="B128" s="3">
         <v>27685.17</v>
       </c>
-      <c r="C128" s="4">
+      <c r="C128" s="3">
         <v>28869.18</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A129" s="3">
+      <c r="A129" s="2">
         <v>43591</v>
       </c>
-      <c r="B129" s="4">
+      <c r="B129" s="3">
         <v>27689.77</v>
       </c>
-      <c r="C129" s="4">
+      <c r="C129" s="3">
         <v>28870.58</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A130" s="3">
+      <c r="A130" s="2">
         <v>43592</v>
       </c>
-      <c r="B130" s="4">
+      <c r="B130" s="3">
         <v>27694.38</v>
       </c>
-      <c r="C130" s="4">
+      <c r="C130" s="3">
         <v>28871.98</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A131" s="3">
+      <c r="A131" s="2">
         <v>43593</v>
       </c>
-      <c r="B131" s="4">
+      <c r="B131" s="3">
         <v>27698.98</v>
       </c>
-      <c r="C131" s="4">
+      <c r="C131" s="3">
         <v>28873.38</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A132" s="3">
+      <c r="A132" s="2">
         <v>43594</v>
       </c>
-      <c r="B132" s="4">
+      <c r="B132" s="3">
         <v>27703.59</v>
       </c>
-      <c r="C132" s="4">
+      <c r="C132" s="3">
         <v>28874.78</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A133" s="3">
+      <c r="A133" s="2">
         <v>43595</v>
       </c>
-      <c r="B133" s="4">
+      <c r="B133" s="3">
         <v>27706.27</v>
       </c>
-      <c r="C133" s="4">
+      <c r="C133" s="3">
         <v>28876.04</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A134" s="3">
+      <c r="A134" s="2">
         <v>43596</v>
       </c>
-      <c r="B134" s="4">
+      <c r="B134" s="3">
         <v>27708.94</v>
       </c>
-      <c r="C134" s="4">
+      <c r="C134" s="3">
         <v>28877.3</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A135" s="3">
+      <c r="A135" s="2">
         <v>43597</v>
       </c>
-      <c r="B135" s="4">
+      <c r="B135" s="3">
         <v>27711.62</v>
       </c>
-      <c r="C135" s="4">
+      <c r="C135" s="3">
         <v>28878.57</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A136" s="3">
+      <c r="A136" s="2">
         <v>43598</v>
       </c>
-      <c r="B136" s="4">
+      <c r="B136" s="3">
         <v>27714.3</v>
       </c>
-      <c r="C136" s="4">
+      <c r="C136" s="3">
         <v>28879.83</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A137" s="3">
+      <c r="A137" s="2">
         <v>43599</v>
       </c>
-      <c r="B137" s="4">
+      <c r="B137" s="3">
         <v>27716.98</v>
       </c>
-      <c r="C137" s="4">
+      <c r="C137" s="3">
         <v>28881.09</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A138" s="3">
+      <c r="A138" s="2">
         <v>43600</v>
       </c>
-      <c r="B138" s="4">
+      <c r="B138" s="3">
         <v>27719.66</v>
       </c>
-      <c r="C138" s="4">
+      <c r="C138" s="3">
         <v>28882.35</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A139" s="3">
+      <c r="A139" s="2">
         <v>43601</v>
       </c>
-      <c r="B139" s="4">
+      <c r="B139" s="3">
         <v>27722.34</v>
       </c>
-      <c r="C139" s="4">
+      <c r="C139" s="3">
         <v>28883.61</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A140" s="3">
+      <c r="A140" s="2">
         <v>43602</v>
       </c>
-      <c r="B140" s="4">
+      <c r="B140" s="3">
         <v>27725.01</v>
       </c>
-      <c r="C140" s="4">
+      <c r="C140" s="3">
         <v>28884.880000000001</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A141" s="3">
+      <c r="A141" s="2">
         <v>43603</v>
       </c>
-      <c r="B141" s="4">
+      <c r="B141" s="3">
         <v>27727.69</v>
       </c>
-      <c r="C141" s="4">
+      <c r="C141" s="3">
         <v>28886.14</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A142" s="3">
+      <c r="A142" s="2">
         <v>43604</v>
       </c>
-      <c r="B142" s="4">
+      <c r="B142" s="3">
         <v>27730.37</v>
       </c>
-      <c r="C142" s="4">
+      <c r="C142" s="3">
         <v>28887.4</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A143" s="3">
+      <c r="A143" s="2">
         <v>43605</v>
       </c>
-      <c r="B143" s="4">
+      <c r="B143" s="3">
         <v>27733.05</v>
       </c>
-      <c r="C143" s="4">
+      <c r="C143" s="3">
         <v>28888.66</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A144" s="3">
+      <c r="A144" s="2">
         <v>43606</v>
       </c>
-      <c r="B144" s="4">
+      <c r="B144" s="3">
         <v>27735.73</v>
       </c>
-      <c r="C144" s="4">
+      <c r="C144" s="3">
         <v>28889.93</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A145" s="3">
+      <c r="A145" s="2">
         <v>43607</v>
       </c>
-      <c r="B145" s="4">
+      <c r="B145" s="3">
         <v>27738.41</v>
       </c>
-      <c r="C145" s="4">
+      <c r="C145" s="3">
         <v>28891.19</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A146" s="3">
+      <c r="A146" s="2">
         <v>43608</v>
       </c>
-      <c r="B146" s="4">
+      <c r="B146" s="3">
         <v>27741.09</v>
       </c>
-      <c r="C146" s="4">
+      <c r="C146" s="3">
         <v>28892.45</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A147" s="3">
+      <c r="A147" s="2">
         <v>43609</v>
       </c>
-      <c r="B147" s="4">
+      <c r="B147" s="3">
         <v>27743.77</v>
       </c>
-      <c r="C147" s="4">
+      <c r="C147" s="3">
         <v>28893.71</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A148" s="3">
+      <c r="A148" s="2">
         <v>43610</v>
       </c>
-      <c r="B148" s="4">
+      <c r="B148" s="3">
         <v>27746.45</v>
       </c>
-      <c r="C148" s="4">
+      <c r="C148" s="3">
         <v>28894.98</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A149" s="3">
+      <c r="A149" s="2">
         <v>43611</v>
       </c>
-      <c r="B149" s="4">
+      <c r="B149" s="3">
         <v>27749.14</v>
       </c>
-      <c r="C149" s="4">
+      <c r="C149" s="3">
         <v>28896.240000000002</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A150" s="3">
+      <c r="A150" s="2">
         <v>43612</v>
       </c>
-      <c r="B150" s="4">
+      <c r="B150" s="3">
         <v>27751.82</v>
       </c>
-      <c r="C150" s="4">
+      <c r="C150" s="3">
         <v>28897.5</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A151" s="3">
+      <c r="A151" s="2">
         <v>43613</v>
       </c>
-      <c r="B151" s="4">
+      <c r="B151" s="3">
         <v>27754.5</v>
       </c>
-      <c r="C151" s="4">
+      <c r="C151" s="3">
         <v>28898.77</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A152" s="3">
+      <c r="A152" s="2">
         <v>43614</v>
       </c>
-      <c r="B152" s="4">
+      <c r="B152" s="3">
         <v>27757.18</v>
       </c>
-      <c r="C152" s="4">
+      <c r="C152" s="3">
         <v>28900.03</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A153" s="3">
+      <c r="A153" s="2">
         <v>43615</v>
       </c>
-      <c r="B153" s="4">
+      <c r="B153" s="3">
         <v>27759.86</v>
       </c>
-      <c r="C153" s="4">
+      <c r="C153" s="3">
         <v>28901.29</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A154" s="3">
+      <c r="A154" s="2">
         <v>43616</v>
       </c>
-      <c r="B154" s="4">
+      <c r="B154" s="3">
         <v>27762.55</v>
       </c>
-      <c r="C154" s="4">
+      <c r="C154" s="3">
         <v>28902.55</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A155" s="3">
+      <c r="A155" s="2">
         <v>43617</v>
       </c>
-      <c r="B155" s="4">
+      <c r="B155" s="3">
         <v>27765.23</v>
       </c>
-      <c r="C155" s="4">
+      <c r="C155" s="3">
         <v>28903.82</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A156" s="3">
+      <c r="A156" s="2">
         <v>43618</v>
       </c>
-      <c r="B156" s="4">
+      <c r="B156" s="3">
         <v>27767.91</v>
       </c>
-      <c r="C156" s="4">
+      <c r="C156" s="3">
         <v>28905.08</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A157" s="3">
+      <c r="A157" s="2">
         <v>43619</v>
       </c>
-      <c r="B157" s="4">
+      <c r="B157" s="3">
         <v>27770.6</v>
       </c>
-      <c r="C157" s="4">
+      <c r="C157" s="3">
         <v>28906.34</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A158" s="3">
+      <c r="A158" s="2">
         <v>43620</v>
       </c>
-      <c r="B158" s="4">
+      <c r="B158" s="3">
         <v>27773.279999999999</v>
       </c>
-      <c r="C158" s="4">
+      <c r="C158" s="3">
         <v>28907.61</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A159" s="3">
+      <c r="A159" s="2">
         <v>43621</v>
       </c>
-      <c r="B159" s="4">
+      <c r="B159" s="3">
         <v>27775.96</v>
       </c>
-      <c r="C159" s="4">
+      <c r="C159" s="3">
         <v>28908.87</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A160" s="3">
+      <c r="A160" s="2">
         <v>43622</v>
       </c>
-      <c r="B160" s="4">
+      <c r="B160" s="3">
         <v>27778.65</v>
       </c>
-      <c r="C160" s="4">
+      <c r="C160" s="3">
         <v>28910.13</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A161" s="3">
+      <c r="A161" s="2">
         <v>43623</v>
       </c>
-      <c r="B161" s="4">
+      <c r="B161" s="3">
         <v>27781.33</v>
       </c>
-      <c r="C161" s="4">
+      <c r="C161" s="3">
         <v>28911.4</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A162" s="3">
+      <c r="A162" s="2">
         <v>43624</v>
       </c>
-      <c r="B162" s="4">
+      <c r="B162" s="3">
         <v>27784.02</v>
       </c>
-      <c r="C162" s="4">
+      <c r="C162" s="3">
         <v>28912.66</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A163" s="3">
+      <c r="A163" s="2">
         <v>43625</v>
       </c>
-      <c r="B163" s="4">
+      <c r="B163" s="3">
         <v>27786.7</v>
       </c>
-      <c r="C163" s="4">
+      <c r="C163" s="3">
         <v>28913.919999999998</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A164" s="3">
+      <c r="A164" s="2">
         <v>43626</v>
       </c>
-      <c r="B164" s="4">
+      <c r="B164" s="3">
         <v>27792.240000000002</v>
       </c>
-      <c r="C164" s="4">
+      <c r="C164" s="3">
         <v>28916.13</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A165" s="3">
+      <c r="A165" s="2">
         <v>43627</v>
       </c>
-      <c r="B165" s="4">
+      <c r="B165" s="3">
         <v>27797.78</v>
       </c>
-      <c r="C165" s="4">
+      <c r="C165" s="3">
         <v>28918.34</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A166" s="3">
+      <c r="A166" s="2">
         <v>43628</v>
       </c>
-      <c r="B166" s="4">
+      <c r="B166" s="3">
         <v>27803.33</v>
       </c>
-      <c r="C166" s="4">
+      <c r="C166" s="3">
         <v>28920.55</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A167" s="3">
+      <c r="A167" s="2">
         <v>43629</v>
       </c>
-      <c r="B167" s="4">
+      <c r="B167" s="3">
         <v>27808.87</v>
       </c>
-      <c r="C167" s="4">
+      <c r="C167" s="3">
         <v>28922.75</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A168" s="3">
+      <c r="A168" s="2">
         <v>43630</v>
       </c>
-      <c r="B168" s="4">
+      <c r="B168" s="3">
         <v>27814.42</v>
       </c>
-      <c r="C168" s="4">
+      <c r="C168" s="3">
         <v>28924.959999999999</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A169" s="3">
+      <c r="A169" s="2">
         <v>43631</v>
       </c>
-      <c r="B169" s="4">
+      <c r="B169" s="3">
         <v>27819.96</v>
       </c>
-      <c r="C169" s="4">
+      <c r="C169" s="3">
         <v>28927.17</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A170" s="3">
+      <c r="A170" s="2">
         <v>43632</v>
       </c>
-      <c r="B170" s="4">
+      <c r="B170" s="3">
         <v>27825.51</v>
       </c>
-      <c r="C170" s="4">
+      <c r="C170" s="3">
         <v>28929.38</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A171" s="3">
+      <c r="A171" s="2">
         <v>43633</v>
       </c>
-      <c r="B171" s="4">
+      <c r="B171" s="3">
         <v>27831.06</v>
       </c>
-      <c r="C171" s="4">
+      <c r="C171" s="3">
         <v>28931.59</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A172" s="3">
+      <c r="A172" s="2">
         <v>43634</v>
       </c>
-      <c r="B172" s="4">
+      <c r="B172" s="3">
         <v>27836.61</v>
       </c>
-      <c r="C172" s="4">
+      <c r="C172" s="3">
         <v>28933.8</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A173" s="3">
+      <c r="A173" s="2">
         <v>43635</v>
       </c>
-      <c r="B173" s="4">
+      <c r="B173" s="3">
         <v>27842.16</v>
       </c>
-      <c r="C173" s="4">
+      <c r="C173" s="3">
         <v>28936.01</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A174" s="3">
+      <c r="A174" s="2">
         <v>43636</v>
       </c>
-      <c r="B174" s="4">
+      <c r="B174" s="3">
         <v>27847.71</v>
       </c>
-      <c r="C174" s="4">
+      <c r="C174" s="3">
         <v>28938.22</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A175" s="3">
+      <c r="A175" s="2">
         <v>43637</v>
       </c>
-      <c r="B175" s="4">
+      <c r="B175" s="3">
         <v>27853.27</v>
       </c>
-      <c r="C175" s="4">
+      <c r="C175" s="3">
         <v>28940.43</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A176" s="3">
+      <c r="A176" s="2">
         <v>43638</v>
       </c>
-      <c r="B176" s="4">
+      <c r="B176" s="3">
         <v>27858.82</v>
       </c>
-      <c r="C176" s="4">
+      <c r="C176" s="3">
         <v>28942.639999999999</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A177" s="3">
+      <c r="A177" s="2">
         <v>43639</v>
       </c>
-      <c r="B177" s="4">
+      <c r="B177" s="3">
         <v>27864.38</v>
       </c>
-      <c r="C177" s="4">
+      <c r="C177" s="3">
         <v>28944.85</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A178" s="3">
+      <c r="A178" s="2">
         <v>43640</v>
       </c>
-      <c r="B178" s="4">
+      <c r="B178" s="3">
         <v>27869.94</v>
       </c>
-      <c r="C178" s="4">
+      <c r="C178" s="3">
         <v>28947.06</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A179" s="3">
+      <c r="A179" s="2">
         <v>43641</v>
       </c>
-      <c r="B179" s="4">
+      <c r="B179" s="3">
         <v>27875.49</v>
       </c>
-      <c r="C179" s="4">
+      <c r="C179" s="3">
         <v>28949.27</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A180" s="3">
+      <c r="A180" s="2">
         <v>43642</v>
       </c>
-      <c r="B180" s="4">
+      <c r="B180" s="3">
         <v>27881.05</v>
       </c>
-      <c r="C180" s="4">
+      <c r="C180" s="3">
         <v>28951.48</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A181" s="3">
+      <c r="A181" s="2">
         <v>43643</v>
       </c>
-      <c r="B181" s="4">
+      <c r="B181" s="3">
         <v>27886.61</v>
       </c>
-      <c r="C181" s="4">
+      <c r="C181" s="3">
         <v>28953.69</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A182" s="3">
+      <c r="A182" s="2">
         <v>43644</v>
       </c>
-      <c r="B182" s="4">
+      <c r="B182" s="3">
         <v>27892.17</v>
       </c>
-      <c r="C182" s="4">
+      <c r="C182" s="3">
         <v>28955.91</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A183" s="3">
+      <c r="A183" s="2">
         <v>43645</v>
       </c>
-      <c r="B183" s="4">
+      <c r="B183" s="3">
         <v>27897.74</v>
       </c>
-      <c r="C183" s="4">
+      <c r="C183" s="3">
         <v>28958.12</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A184" s="3">
+      <c r="A184" s="2">
         <v>43646</v>
       </c>
-      <c r="B184" s="4">
+      <c r="B184" s="3">
         <v>27903.3</v>
       </c>
-      <c r="C184" s="4">
+      <c r="C184" s="3">
         <v>28960.33</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A185" s="3">
+      <c r="A185" s="2">
         <v>43647</v>
       </c>
-      <c r="B185" s="4">
+      <c r="B185" s="3">
         <v>27908.86</v>
       </c>
-      <c r="C185" s="4">
+      <c r="C185" s="3">
         <v>28962.54</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A186" s="3">
+      <c r="A186" s="2">
         <v>43648</v>
       </c>
-      <c r="B186" s="4">
+      <c r="B186" s="3">
         <v>27914.43</v>
       </c>
-      <c r="C186" s="4">
+      <c r="C186" s="3">
         <v>28964.75</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A187" s="3">
+      <c r="A187" s="2">
         <v>43649</v>
       </c>
-      <c r="B187" s="4">
+      <c r="B187" s="3">
         <v>27920</v>
       </c>
-      <c r="C187" s="4">
+      <c r="C187" s="3">
         <v>28966.959999999999</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A188" s="3">
+      <c r="A188" s="2">
         <v>43650</v>
       </c>
-      <c r="B188" s="4">
+      <c r="B188" s="3">
         <v>27925.56</v>
       </c>
-      <c r="C188" s="4">
+      <c r="C188" s="3">
         <v>28969.18</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A189" s="3">
+      <c r="A189" s="2">
         <v>43651</v>
       </c>
-      <c r="B189" s="4">
+      <c r="B189" s="3">
         <v>27931.13</v>
       </c>
-      <c r="C189" s="4">
+      <c r="C189" s="3">
         <v>28971.39</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A190" s="3">
+      <c r="A190" s="2">
         <v>43652</v>
       </c>
-      <c r="B190" s="4">
+      <c r="B190" s="3">
         <v>27936.7</v>
       </c>
-      <c r="C190" s="4">
+      <c r="C190" s="3">
         <v>28973.599999999999</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A191" s="3">
+      <c r="A191" s="2">
         <v>43653</v>
       </c>
-      <c r="B191" s="4">
+      <c r="B191" s="3">
         <v>27942.27</v>
       </c>
-      <c r="C191" s="4">
+      <c r="C191" s="3">
         <v>28975.81</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A192" s="3">
+      <c r="A192" s="2">
         <v>43654</v>
       </c>
-      <c r="B192" s="4">
+      <c r="B192" s="3">
         <v>27947.85</v>
       </c>
-      <c r="C192" s="4">
+      <c r="C192" s="3">
         <v>28978.03</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A193" s="3">
+      <c r="A193" s="2">
         <v>43655</v>
       </c>
-      <c r="B193" s="4">
+      <c r="B193" s="3">
         <v>27953.42</v>
       </c>
-      <c r="C193" s="4">
+      <c r="C193" s="3">
         <v>28980.240000000002</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A194" s="3">
+      <c r="A194" s="2">
         <v>43656</v>
       </c>
-      <c r="B194" s="4">
+      <c r="B194" s="3">
         <v>27953.42</v>
       </c>
-      <c r="C194" s="4">
+      <c r="C194" s="3">
         <v>28982.7</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A195" s="3">
+      <c r="A195" s="2">
         <v>43657</v>
       </c>
-      <c r="B195" s="4">
+      <c r="B195" s="3">
         <v>27953.42</v>
       </c>
-      <c r="C195" s="4">
+      <c r="C195" s="3">
         <v>28985.17</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A196" s="3">
+      <c r="A196" s="2">
         <v>43658</v>
       </c>
-      <c r="B196" s="4">
+      <c r="B196" s="3">
         <v>27953.42</v>
       </c>
-      <c r="C196" s="4">
+      <c r="C196" s="3">
         <v>28987.63</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A197" s="3">
+      <c r="A197" s="2">
         <v>43659</v>
       </c>
-      <c r="B197" s="4">
+      <c r="B197" s="3">
         <v>27953.42</v>
       </c>
-      <c r="C197" s="4">
+      <c r="C197" s="3">
         <v>28990.09</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A198" s="3">
+      <c r="A198" s="2">
         <v>43660</v>
       </c>
-      <c r="B198" s="4">
+      <c r="B198" s="3">
         <v>27953.42</v>
       </c>
-      <c r="C198" s="4">
+      <c r="C198" s="3">
         <v>28992.560000000001</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A199" s="3">
+      <c r="A199" s="2">
         <v>43661</v>
       </c>
-      <c r="B199" s="4">
+      <c r="B199" s="3">
         <v>27953.42</v>
       </c>
-      <c r="C199" s="4">
+      <c r="C199" s="3">
         <v>28995.02</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A200" s="3">
+      <c r="A200" s="2">
         <v>43662</v>
       </c>
-      <c r="B200" s="4">
+      <c r="B200" s="3">
         <v>27953.42</v>
       </c>
-      <c r="C200" s="4">
+      <c r="C200" s="3">
         <v>28997.48</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A201" s="3">
+      <c r="A201" s="2">
         <v>43663</v>
       </c>
-      <c r="B201" s="4">
+      <c r="B201" s="3">
         <v>27953.42</v>
       </c>
-      <c r="C201" s="4">
+      <c r="C201" s="3">
         <v>28999.95</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A202" s="3">
+      <c r="A202" s="2">
         <v>43664</v>
       </c>
-      <c r="B202" s="4">
+      <c r="B202" s="3">
         <v>27953.42</v>
       </c>
-      <c r="C202" s="4">
+      <c r="C202" s="3">
         <v>29002.41</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A203" s="3">
+      <c r="A203" s="2">
         <v>43665</v>
       </c>
-      <c r="B203" s="4">
+      <c r="B203" s="3">
         <v>27953.42</v>
       </c>
-      <c r="C203" s="4">
+      <c r="C203" s="3">
         <v>29004.880000000001</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A204" s="3">
+      <c r="A204" s="2">
         <v>43666</v>
       </c>
-      <c r="B204" s="4">
+      <c r="B204" s="3">
         <v>27953.42</v>
       </c>
-      <c r="C204" s="4">
+      <c r="C204" s="3">
         <v>29007.34</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A205" s="3">
+      <c r="A205" s="2">
         <v>43667</v>
       </c>
-      <c r="B205" s="4">
+      <c r="B205" s="3">
         <v>27953.42</v>
       </c>
-      <c r="C205" s="4">
+      <c r="C205" s="3">
         <v>29009.81</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A206" s="3">
+      <c r="A206" s="2">
         <v>43668</v>
       </c>
-      <c r="B206" s="4">
+      <c r="B206" s="3">
         <v>27953.42</v>
       </c>
-      <c r="C206" s="4">
+      <c r="C206" s="3">
         <v>29012.27</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A207" s="3">
+      <c r="A207" s="2">
         <v>43669</v>
       </c>
-      <c r="B207" s="4">
+      <c r="B207" s="3">
         <v>27953.42</v>
       </c>
-      <c r="C207" s="4">
+      <c r="C207" s="3">
         <v>29014.74</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A208" s="3">
+      <c r="A208" s="2">
         <v>43670</v>
       </c>
-      <c r="B208" s="4">
+      <c r="B208" s="3">
         <v>27953.42</v>
       </c>
-      <c r="C208" s="4">
+      <c r="C208" s="3">
         <v>29017.21</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A209" s="3">
+      <c r="A209" s="2">
         <v>43671</v>
       </c>
-      <c r="B209" s="4">
+      <c r="B209" s="3">
         <v>27953.42</v>
       </c>
-      <c r="C209" s="4">
+      <c r="C209" s="3">
         <v>29019.67</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A210" s="3">
+      <c r="A210" s="2">
         <v>43672</v>
       </c>
-      <c r="B210" s="4">
+      <c r="B210" s="3">
         <v>27953.42</v>
       </c>
-      <c r="C210" s="4">
+      <c r="C210" s="3">
         <v>29022.14</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A211" s="3">
+      <c r="A211" s="2">
         <v>43673</v>
       </c>
-      <c r="B211" s="4">
+      <c r="B211" s="3">
         <v>27953.42</v>
       </c>
-      <c r="C211" s="4">
+      <c r="C211" s="3">
         <v>29024.6</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A212" s="3">
+      <c r="A212" s="2">
         <v>43674</v>
       </c>
-      <c r="B212" s="4">
+      <c r="B212" s="3">
         <v>27953.42</v>
       </c>
-      <c r="C212" s="4">
+      <c r="C212" s="3">
         <v>29027.07</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A213" s="3">
+      <c r="A213" s="2">
         <v>43675</v>
       </c>
-      <c r="B213" s="4">
+      <c r="B213" s="3">
         <v>27953.42</v>
       </c>
-      <c r="C213" s="4">
+      <c r="C213" s="3">
         <v>29029.54</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A214" s="3">
+      <c r="A214" s="2">
         <v>43676</v>
       </c>
-      <c r="B214" s="4">
+      <c r="B214" s="3">
         <v>27953.42</v>
       </c>
-      <c r="C214" s="4">
+      <c r="C214" s="3">
         <v>29032.01</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A215" s="3">
+      <c r="A215" s="2">
         <v>43677</v>
       </c>
-      <c r="B215" s="4">
+      <c r="B215" s="3">
         <v>27953.42</v>
       </c>
-      <c r="C215" s="4">
+      <c r="C215" s="3">
         <v>29034.47</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A216" s="3">
+      <c r="A216" s="2">
         <v>43678</v>
       </c>
-      <c r="B216" s="4">
+      <c r="B216" s="3">
         <v>27953.42</v>
       </c>
-      <c r="C216" s="4">
+      <c r="C216" s="3">
         <v>29036.94</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A217" s="3">
+      <c r="A217" s="2">
         <v>43679</v>
       </c>
-      <c r="B217" s="4">
+      <c r="B217" s="3">
         <v>27953.42</v>
       </c>
-      <c r="C217" s="4">
+      <c r="C217" s="3">
         <v>29039.41</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A218" s="3">
+      <c r="A218" s="2">
         <v>43680</v>
       </c>
-      <c r="B218" s="4">
+      <c r="B218" s="3">
         <v>27953.42</v>
       </c>
-      <c r="C218" s="4">
+      <c r="C218" s="3">
         <v>29041.88</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A219" s="3">
+      <c r="A219" s="2">
         <v>43681</v>
       </c>
-      <c r="B219" s="4">
+      <c r="B219" s="3">
         <v>27953.42</v>
       </c>
-      <c r="C219" s="4">
+      <c r="C219" s="3">
         <v>29044.34</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A220" s="3">
+      <c r="A220" s="2">
         <v>43682</v>
       </c>
-      <c r="B220" s="4">
+      <c r="B220" s="3">
         <v>27953.42</v>
       </c>
-      <c r="C220" s="4">
+      <c r="C220" s="3">
         <v>29046.81</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A221" s="3">
+      <c r="A221" s="2">
         <v>43683</v>
       </c>
-      <c r="B221" s="4">
+      <c r="B221" s="3">
         <v>27953.42</v>
       </c>
-      <c r="C221" s="4">
+      <c r="C221" s="3">
         <v>29049.279999999999</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A222" s="3">
+      <c r="A222" s="2">
         <v>43684</v>
       </c>
-      <c r="B222" s="4">
+      <c r="B222" s="3">
         <v>27953.42</v>
       </c>
-      <c r="C222" s="4">
+      <c r="C222" s="3">
         <v>29051.75</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A223" s="3">
+      <c r="A223" s="2">
         <v>43685</v>
       </c>
-      <c r="B223" s="4">
+      <c r="B223" s="3">
         <v>27953.42</v>
       </c>
-      <c r="C223" s="4">
+      <c r="C223" s="3">
         <v>29054.22</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A224" s="3">
+      <c r="A224" s="2">
         <v>43686</v>
       </c>
-      <c r="B224" s="4">
+      <c r="B224" s="3">
         <v>27953.42</v>
       </c>
-      <c r="C224" s="4">
+      <c r="C224" s="3">
         <v>29056.69</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A225" s="3">
+      <c r="A225" s="2">
         <v>43687</v>
       </c>
-      <c r="B225" s="4">
+      <c r="B225" s="3">
         <v>27955.22</v>
       </c>
-      <c r="C225" s="4">
+      <c r="C225" s="3">
         <v>29059.34</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A226" s="3">
+      <c r="A226" s="2">
         <v>43688</v>
       </c>
-      <c r="B226" s="4">
+      <c r="B226" s="3">
         <v>27957.02</v>
       </c>
-      <c r="C226" s="4">
+      <c r="C226" s="3">
         <v>29062</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A227" s="3">
+      <c r="A227" s="2">
         <v>43689</v>
       </c>
-      <c r="B227" s="4">
+      <c r="B227" s="3">
         <v>27958.83</v>
       </c>
-      <c r="C227" s="4">
+      <c r="C227" s="3">
         <v>29064.66</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A228" s="3">
+      <c r="A228" s="2">
         <v>43690</v>
       </c>
-      <c r="B228" s="4">
+      <c r="B228" s="3">
         <v>27960.63</v>
       </c>
-      <c r="C228" s="4">
+      <c r="C228" s="3">
         <v>29067.31</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A229" s="3">
+      <c r="A229" s="2">
         <v>43691</v>
       </c>
-      <c r="B229" s="4">
+      <c r="B229" s="3">
         <v>27962.43</v>
       </c>
-      <c r="C229" s="4">
+      <c r="C229" s="3">
         <v>29069.97</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A230" s="3">
+      <c r="A230" s="2">
         <v>43692</v>
       </c>
-      <c r="B230" s="4">
+      <c r="B230" s="3">
         <v>27964.23</v>
       </c>
-      <c r="C230" s="4">
+      <c r="C230" s="3">
         <v>29072.62</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A231" s="3">
+      <c r="A231" s="2">
         <v>43693</v>
       </c>
-      <c r="B231" s="4">
+      <c r="B231" s="3">
         <v>27966.03</v>
       </c>
-      <c r="C231" s="4">
+      <c r="C231" s="3">
         <v>29075.279999999999</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A232" s="3">
+      <c r="A232" s="2">
         <v>43694</v>
       </c>
-      <c r="B232" s="4">
+      <c r="B232" s="3">
         <v>27967.84</v>
       </c>
-      <c r="C232" s="4">
+      <c r="C232" s="3">
         <v>29077.94</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A233" s="3">
+      <c r="A233" s="2">
         <v>43695</v>
       </c>
-      <c r="B233" s="4">
+      <c r="B233" s="3">
         <v>27969.64</v>
       </c>
-      <c r="C233" s="4">
+      <c r="C233" s="3">
         <v>29080.59</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A234" s="3">
+      <c r="A234" s="2">
         <v>43696</v>
       </c>
-      <c r="B234" s="4">
+      <c r="B234" s="3">
         <v>27971.439999999999</v>
       </c>
-      <c r="C234" s="4">
+      <c r="C234" s="3">
         <v>29083.25</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A235" s="3">
+      <c r="A235" s="2">
         <v>43697</v>
       </c>
-      <c r="B235" s="4">
+      <c r="B235" s="3">
         <v>27973.25</v>
       </c>
-      <c r="C235" s="4">
+      <c r="C235" s="3">
         <v>29085.91</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A236" s="3">
+      <c r="A236" s="2">
         <v>43698</v>
       </c>
-      <c r="B236" s="4">
+      <c r="B236" s="3">
         <v>27975.05</v>
       </c>
-      <c r="C236" s="4">
+      <c r="C236" s="3">
         <v>29088.57</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A237" s="3">
+      <c r="A237" s="2">
         <v>43699</v>
       </c>
-      <c r="B237" s="4">
+      <c r="B237" s="3">
         <v>27976.85</v>
       </c>
-      <c r="C237" s="4">
+      <c r="C237" s="3">
         <v>29091.22</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A238" s="3">
+      <c r="A238" s="2">
         <v>43700</v>
       </c>
-      <c r="B238" s="4">
+      <c r="B238" s="3">
         <v>27978.65</v>
       </c>
-      <c r="C238" s="4">
+      <c r="C238" s="3">
         <v>29093.88</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A239" s="3">
+      <c r="A239" s="2">
         <v>43701</v>
       </c>
-      <c r="B239" s="4">
+      <c r="B239" s="3">
         <v>27980.46</v>
       </c>
-      <c r="C239" s="4">
+      <c r="C239" s="3">
         <v>29096.54</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A240" s="3">
+      <c r="A240" s="2">
         <v>43702</v>
       </c>
-      <c r="B240" s="4">
+      <c r="B240" s="3">
         <v>27982.26</v>
       </c>
-      <c r="C240" s="4">
+      <c r="C240" s="3">
         <v>29099.200000000001</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A241" s="3">
+      <c r="A241" s="2">
         <v>43703</v>
       </c>
-      <c r="B241" s="4">
+      <c r="B241" s="3">
         <v>27984.06</v>
       </c>
-      <c r="C241" s="4">
+      <c r="C241" s="3">
         <v>29101.86</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A242" s="3">
+      <c r="A242" s="2">
         <v>43704</v>
       </c>
-      <c r="B242" s="4">
+      <c r="B242" s="3">
         <v>27985.87</v>
       </c>
-      <c r="C242" s="4">
+      <c r="C242" s="3">
         <v>29104.52</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A243" s="3">
+      <c r="A243" s="2">
         <v>43705</v>
       </c>
-      <c r="B243" s="4">
+      <c r="B243" s="3">
         <v>27987.67</v>
       </c>
-      <c r="C243" s="4">
+      <c r="C243" s="3">
         <v>29107.18</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A244" s="3">
+      <c r="A244" s="2">
         <v>43706</v>
       </c>
-      <c r="B244" s="4">
+      <c r="B244" s="3">
         <v>27989.48</v>
       </c>
-      <c r="C244" s="4">
+      <c r="C244" s="3">
         <v>29109.84</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A245" s="3">
+      <c r="A245" s="2">
         <v>43707</v>
       </c>
-      <c r="B245" s="4">
+      <c r="B245" s="3">
         <v>27991.279999999999</v>
       </c>
-      <c r="C245" s="4">
+      <c r="C245" s="3">
         <v>29112.49</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A246" s="3">
+      <c r="A246" s="2">
         <v>43708</v>
       </c>
-      <c r="B246" s="4">
+      <c r="B246" s="3">
         <v>27993.08</v>
       </c>
-      <c r="C246" s="4">
+      <c r="C246" s="3">
         <v>29115.15</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A247" s="3">
+      <c r="A247" s="2">
         <v>43709</v>
       </c>
-      <c r="B247" s="4">
+      <c r="B247" s="3">
         <v>27994.89</v>
       </c>
-      <c r="C247" s="4">
+      <c r="C247" s="3">
         <v>29117.82</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A248" s="3">
+      <c r="A248" s="2">
         <v>43710</v>
       </c>
-      <c r="B248" s="4">
+      <c r="B248" s="3">
         <v>27996.69</v>
       </c>
-      <c r="C248" s="4">
+      <c r="C248" s="3">
         <v>29120.48</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A249" s="3">
+      <c r="A249" s="2">
         <v>43711</v>
       </c>
-      <c r="B249" s="4">
+      <c r="B249" s="3">
         <v>27998.5</v>
       </c>
-      <c r="C249" s="4">
+      <c r="C249" s="3">
         <v>29123.14</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A250" s="3">
+      <c r="A250" s="2">
         <v>43712</v>
       </c>
-      <c r="B250" s="4">
+      <c r="B250" s="3">
         <v>28000.3</v>
       </c>
-      <c r="C250" s="4">
+      <c r="C250" s="3">
         <v>29125.8</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A251" s="3">
+      <c r="A251" s="2">
         <v>43713</v>
       </c>
-      <c r="B251" s="4">
+      <c r="B251" s="3">
         <v>28002.11</v>
       </c>
-      <c r="C251" s="4">
+      <c r="C251" s="3">
         <v>29128.46</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A252" s="3">
+      <c r="A252" s="2">
         <v>43714</v>
       </c>
-      <c r="B252" s="4">
+      <c r="B252" s="3">
         <v>28003.91</v>
       </c>
-      <c r="C252" s="4">
+      <c r="C252" s="3">
         <v>29131.119999999999</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A253" s="3">
+      <c r="A253" s="2">
         <v>43715</v>
       </c>
-      <c r="B253" s="4">
+      <c r="B253" s="3">
         <v>28005.72</v>
       </c>
-      <c r="C253" s="4">
+      <c r="C253" s="3">
         <v>29133.78</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A254" s="3">
+      <c r="A254" s="2">
         <v>43716</v>
       </c>
-      <c r="B254" s="4">
+      <c r="B254" s="3">
         <v>28007.52</v>
       </c>
-      <c r="C254" s="4">
+      <c r="C254" s="3">
         <v>29136.44</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A255" s="3">
+      <c r="A255" s="2">
         <v>43717</v>
       </c>
-      <c r="B255" s="4">
+      <c r="B255" s="3">
         <v>28009.33</v>
       </c>
-      <c r="C255" s="4">
+      <c r="C255" s="3">
         <v>29139.11</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A256" s="3">
+      <c r="A256" s="2">
         <v>43718</v>
       </c>
-      <c r="B256" s="4">
+      <c r="B256" s="3">
         <v>28011.200000000001</v>
       </c>
-      <c r="C256" s="4">
+      <c r="C256" s="3">
         <v>29141.96</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A257" s="3">
+      <c r="A257" s="2">
         <v>43719</v>
       </c>
-      <c r="B257" s="4">
+      <c r="B257" s="3">
         <v>28013.06</v>
       </c>
-      <c r="C257" s="4">
+      <c r="C257" s="3">
         <v>29144.81</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A258" s="3">
+      <c r="A258" s="2">
         <v>43720</v>
       </c>
-      <c r="B258" s="4">
+      <c r="B258" s="3">
         <v>28014.93</v>
       </c>
-      <c r="C258" s="4">
+      <c r="C258" s="3">
         <v>29147.66</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A259" s="3">
+      <c r="A259" s="2">
         <v>43721</v>
       </c>
-      <c r="B259" s="4">
+      <c r="B259" s="3">
         <v>28016.79</v>
       </c>
-      <c r="C259" s="4">
+      <c r="C259" s="3">
         <v>29150.51</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A260" s="3">
+      <c r="A260" s="2">
         <v>43722</v>
       </c>
-      <c r="B260" s="4">
+      <c r="B260" s="3">
         <v>28018.66</v>
       </c>
-      <c r="C260" s="4">
+      <c r="C260" s="3">
         <v>29153.360000000001</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A261" s="3">
+      <c r="A261" s="2">
         <v>43723</v>
       </c>
-      <c r="B261" s="4">
+      <c r="B261" s="3">
         <v>28020.52</v>
       </c>
-      <c r="C261" s="4">
+      <c r="C261" s="3">
         <v>29156.21</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A262" s="3">
+      <c r="A262" s="2">
         <v>43724</v>
       </c>
-      <c r="B262" s="4">
+      <c r="B262" s="3">
         <v>28022.39</v>
       </c>
-      <c r="C262" s="4">
+      <c r="C262" s="3">
         <v>29159.06</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A263" s="3">
+      <c r="A263" s="2">
         <v>43725</v>
       </c>
-      <c r="B263" s="4">
+      <c r="B263" s="3">
         <v>28024.26</v>
       </c>
-      <c r="C263" s="4">
+      <c r="C263" s="3">
         <v>29161.919999999998</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A264" s="3">
+      <c r="A264" s="2">
         <v>43726</v>
       </c>
-      <c r="B264" s="4">
+      <c r="B264" s="3">
         <v>28026.12</v>
       </c>
-      <c r="C264" s="4">
+      <c r="C264" s="3">
         <v>29164.77</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A265" s="3">
+      <c r="A265" s="2">
         <v>43727</v>
       </c>
-      <c r="B265" s="4">
+      <c r="B265" s="3">
         <v>28027.99</v>
       </c>
-      <c r="C265" s="4">
+      <c r="C265" s="3">
         <v>29167.62</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A266" s="3">
+      <c r="A266" s="2">
         <v>43728</v>
       </c>
-      <c r="B266" s="4">
+      <c r="B266" s="3">
         <v>28029.86</v>
       </c>
-      <c r="C266" s="4">
+      <c r="C266" s="3">
         <v>29170.47</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A267" s="3">
+      <c r="A267" s="2">
         <v>43729</v>
       </c>
-      <c r="B267" s="4">
+      <c r="B267" s="3">
         <v>28031.72</v>
       </c>
-      <c r="C267" s="4">
+      <c r="C267" s="3">
         <v>29173.32</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A268" s="3">
+      <c r="A268" s="2">
         <v>43730</v>
       </c>
-      <c r="B268" s="4">
+      <c r="B268" s="3">
         <v>28033.59</v>
       </c>
-      <c r="C268" s="4">
+      <c r="C268" s="3">
         <v>29176.18</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A269" s="3">
+      <c r="A269" s="2">
         <v>43731</v>
       </c>
-      <c r="B269" s="4">
+      <c r="B269" s="3">
         <v>28035.46</v>
       </c>
-      <c r="C269" s="4">
+      <c r="C269" s="3">
         <v>29179.03</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A270" s="3">
+      <c r="A270" s="2">
         <v>43732</v>
       </c>
-      <c r="B270" s="4">
+      <c r="B270" s="3">
         <v>28037.33</v>
       </c>
-      <c r="C270" s="4">
+      <c r="C270" s="3">
         <v>29181.88</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A271" s="3">
+      <c r="A271" s="2">
         <v>43733</v>
       </c>
-      <c r="B271" s="4">
+      <c r="B271" s="3">
         <v>28039.19</v>
       </c>
-      <c r="C271" s="4">
+      <c r="C271" s="3">
         <v>29184.74</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A272" s="3">
+      <c r="A272" s="2">
         <v>43734</v>
       </c>
-      <c r="B272" s="4">
+      <c r="B272" s="3">
         <v>28041.06</v>
       </c>
-      <c r="C272" s="4">
+      <c r="C272" s="3">
         <v>29187.59</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A273" s="3">
+      <c r="A273" s="2">
         <v>43735</v>
       </c>
-      <c r="B273" s="4">
+      <c r="B273" s="3">
         <v>28042.93</v>
       </c>
-      <c r="C273" s="4">
+      <c r="C273" s="3">
         <v>29190.45</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A274" s="3">
+      <c r="A274" s="2">
         <v>43736</v>
       </c>
-      <c r="B274" s="4">
+      <c r="B274" s="3">
         <v>28044.799999999999</v>
       </c>
-      <c r="C274" s="4">
+      <c r="C274" s="3">
         <v>29193.3</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A275" s="3">
+      <c r="A275" s="2">
         <v>43737</v>
       </c>
-      <c r="B275" s="4">
+      <c r="B275" s="3">
         <v>28046.66</v>
       </c>
-      <c r="C275" s="4">
+      <c r="C275" s="3">
         <v>29196.16</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A276" s="3">
+      <c r="A276" s="2">
         <v>43738</v>
       </c>
-      <c r="B276" s="4">
+      <c r="B276" s="3">
         <v>28048.53</v>
       </c>
-      <c r="C276" s="4">
+      <c r="C276" s="3">
         <v>29199.01</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A277" s="3">
+      <c r="A277" s="2">
         <v>43739</v>
       </c>
-      <c r="B277" s="4">
+      <c r="B277" s="3">
         <v>28050.400000000001</v>
       </c>
-      <c r="C277" s="4">
+      <c r="C277" s="3">
         <v>29201.87</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A278" s="3">
+      <c r="A278" s="2">
         <v>43740</v>
       </c>
-      <c r="B278" s="4">
+      <c r="B278" s="3">
         <v>28052.27</v>
       </c>
-      <c r="C278" s="4">
+      <c r="C278" s="3">
         <v>29204.720000000001</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A279" s="3">
+      <c r="A279" s="2">
         <v>43741</v>
       </c>
-      <c r="B279" s="4">
+      <c r="B279" s="3">
         <v>28054.14</v>
       </c>
-      <c r="C279" s="4">
+      <c r="C279" s="3">
         <v>29207.58</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A280" s="3">
+      <c r="A280" s="2">
         <v>43742</v>
       </c>
-      <c r="B280" s="4">
+      <c r="B280" s="3">
         <v>28056</v>
       </c>
-      <c r="C280" s="4">
+      <c r="C280" s="3">
         <v>29210.44</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A281" s="3">
+      <c r="A281" s="2">
         <v>43743</v>
       </c>
-      <c r="B281" s="4">
+      <c r="B281" s="3">
         <v>28057.87</v>
       </c>
-      <c r="C281" s="4">
+      <c r="C281" s="3">
         <v>29213.29</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A282" s="3">
+      <c r="A282" s="2">
         <v>43744</v>
       </c>
-      <c r="B282" s="4">
+      <c r="B282" s="3">
         <v>28059.74</v>
       </c>
-      <c r="C282" s="4">
+      <c r="C282" s="3">
         <v>29216.15</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A283" s="3">
+      <c r="A283" s="2">
         <v>43745</v>
       </c>
-      <c r="B283" s="4">
+      <c r="B283" s="3">
         <v>28061.61</v>
       </c>
-      <c r="C283" s="4">
+      <c r="C283" s="3">
         <v>29219.01</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A284" s="3">
+      <c r="A284" s="2">
         <v>43746</v>
       </c>
-      <c r="B284" s="4">
+      <c r="B284" s="3">
         <v>28063.48</v>
       </c>
-      <c r="C284" s="4">
+      <c r="C284" s="3">
         <v>29221.86</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A285" s="3">
+      <c r="A285" s="2">
         <v>43747</v>
       </c>
-      <c r="B285" s="4">
+      <c r="B285" s="3">
         <v>28065.35</v>
       </c>
-      <c r="C285" s="4">
+      <c r="C285" s="3">
         <v>29224.720000000001</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A286" s="3">
+      <c r="A286" s="2">
         <v>43748</v>
       </c>
-      <c r="B286" s="4">
+      <c r="B286" s="3">
         <v>28065.35</v>
       </c>
-      <c r="C286" s="4">
+      <c r="C286" s="3">
         <v>29226.85</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A287" s="3">
+      <c r="A287" s="2">
         <v>43749</v>
       </c>
-      <c r="B287" s="4">
+      <c r="B287" s="3">
         <v>28065.35</v>
       </c>
-      <c r="C287" s="4">
+      <c r="C287" s="3">
         <v>29228.98</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A288" s="3">
+      <c r="A288" s="2">
         <v>43750</v>
       </c>
-      <c r="B288" s="4">
+      <c r="B288" s="3">
         <v>28065.35</v>
       </c>
-      <c r="C288" s="4">
+      <c r="C288" s="3">
         <v>29231.11</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A289" s="3">
+      <c r="A289" s="2">
         <v>43751</v>
       </c>
-      <c r="B289" s="4">
+      <c r="B289" s="3">
         <v>28065.35</v>
       </c>
-      <c r="C289" s="4">
+      <c r="C289" s="3">
         <v>29233.24</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A290" s="3">
+      <c r="A290" s="2">
         <v>43752</v>
       </c>
-      <c r="B290" s="4">
+      <c r="B290" s="3">
         <v>28065.35</v>
       </c>
-      <c r="C290" s="4">
+      <c r="C290" s="3">
         <v>29235.37</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A291" s="3">
+      <c r="A291" s="2">
         <v>43753</v>
       </c>
-      <c r="B291" s="4">
+      <c r="B291" s="3">
         <v>28065.35</v>
       </c>
-      <c r="C291" s="4">
+      <c r="C291" s="3">
         <v>29237.51</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A292" s="3">
+      <c r="A292" s="2">
         <v>43754</v>
       </c>
-      <c r="B292" s="4">
+      <c r="B292" s="3">
         <v>28065.35</v>
       </c>
-      <c r="C292" s="4">
+      <c r="C292" s="3">
         <v>29239.64</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A293" s="3">
+      <c r="A293" s="2">
         <v>43755</v>
       </c>
-      <c r="B293" s="4">
+      <c r="B293" s="3">
         <v>28065.35</v>
       </c>
-      <c r="C293" s="4">
+      <c r="C293" s="3">
         <v>29241.77</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A294" s="3">
+      <c r="A294" s="2">
         <v>43756</v>
       </c>
-      <c r="B294" s="4">
+      <c r="B294" s="3">
         <v>28065.35</v>
       </c>
-      <c r="C294" s="4">
+      <c r="C294" s="3">
         <v>29243.9</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A295" s="3">
+      <c r="A295" s="2">
         <v>43757</v>
       </c>
-      <c r="B295" s="4">
+      <c r="B295" s="3">
         <v>28065.35</v>
       </c>
-      <c r="C295" s="4">
+      <c r="C295" s="3">
         <v>29246.03</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A296" s="3">
+      <c r="A296" s="2">
         <v>43758</v>
       </c>
-      <c r="B296" s="4">
+      <c r="B296" s="3">
         <v>28065.35</v>
       </c>
-      <c r="C296" s="4">
+      <c r="C296" s="3">
         <v>29248.16</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A297" s="3">
+      <c r="A297" s="2">
         <v>43759</v>
       </c>
-      <c r="B297" s="4">
+      <c r="B297" s="3">
         <v>28065.35</v>
       </c>
-      <c r="C297" s="4">
+      <c r="C297" s="3">
         <v>29250.3</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A298" s="3">
+      <c r="A298" s="2">
         <v>43760</v>
       </c>
-      <c r="B298" s="4">
+      <c r="B298" s="3">
         <v>28065.35</v>
       </c>
-      <c r="C298" s="4">
+      <c r="C298" s="3">
         <v>29252.43</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A299" s="3">
+      <c r="A299" s="2">
         <v>43761</v>
       </c>
-      <c r="B299" s="4">
+      <c r="B299" s="3">
         <v>28065.35</v>
       </c>
-      <c r="C299" s="4">
+      <c r="C299" s="3">
         <v>29254.560000000001</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A300" s="3">
+      <c r="A300" s="2">
         <v>43762</v>
       </c>
-      <c r="B300" s="4">
+      <c r="B300" s="3">
         <v>28065.35</v>
       </c>
-      <c r="C300" s="4">
+      <c r="C300" s="3">
         <v>29256.69</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A301" s="3">
+      <c r="A301" s="2">
         <v>43763</v>
       </c>
-      <c r="B301" s="4">
+      <c r="B301" s="3">
         <v>28065.35</v>
       </c>
-      <c r="C301" s="4">
+      <c r="C301" s="3">
         <v>29258.83</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A302" s="3">
+      <c r="A302" s="2">
         <v>43764</v>
       </c>
-      <c r="B302" s="4">
+      <c r="B302" s="3">
         <v>28065.35</v>
       </c>
-      <c r="C302" s="4">
+      <c r="C302" s="3">
         <v>29260.959999999999</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A303" s="3">
+      <c r="A303" s="2">
         <v>43765</v>
       </c>
-      <c r="B303" s="4">
+      <c r="B303" s="3">
         <v>28065.35</v>
       </c>
-      <c r="C303" s="4">
+      <c r="C303" s="3">
         <v>29263.09</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A304" s="3">
+      <c r="A304" s="2">
         <v>43766</v>
       </c>
-      <c r="B304" s="4">
+      <c r="B304" s="3">
         <v>28065.35</v>
       </c>
-      <c r="C304" s="4">
+      <c r="C304" s="3">
         <v>29265.23</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A305" s="3">
+      <c r="A305" s="2">
         <v>43767</v>
       </c>
-      <c r="B305" s="4">
+      <c r="B305" s="3">
         <v>28065.35</v>
       </c>
-      <c r="C305" s="4">
+      <c r="C305" s="3">
         <v>29267.360000000001</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A306" s="3">
+      <c r="A306" s="2">
         <v>43768</v>
       </c>
-      <c r="B306" s="4">
+      <c r="B306" s="3">
         <v>28065.35</v>
       </c>
-      <c r="C306" s="4">
+      <c r="C306" s="3">
         <v>29269.49</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A307" s="3">
+      <c r="A307" s="2">
         <v>43769</v>
       </c>
-      <c r="B307" s="4">
+      <c r="B307" s="3">
         <v>28065.35</v>
       </c>
-      <c r="C307" s="4">
+      <c r="C307" s="3">
         <v>29271.63</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A308" s="3">
+      <c r="A308" s="2">
         <v>43770</v>
       </c>
-      <c r="B308" s="4">
+      <c r="B308" s="3">
         <v>28065.35</v>
       </c>
-      <c r="C308" s="4">
+      <c r="C308" s="3">
         <v>29273.759999999998</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A309" s="3">
+      <c r="A309" s="2">
         <v>43771</v>
       </c>
-      <c r="B309" s="4">
+      <c r="B309" s="3">
         <v>28065.35</v>
       </c>
-      <c r="C309" s="4">
+      <c r="C309" s="3">
         <v>29275.89</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A310" s="3">
+      <c r="A310" s="2">
         <v>43772</v>
       </c>
-      <c r="B310" s="4">
+      <c r="B310" s="3">
         <v>28065.35</v>
       </c>
-      <c r="C310" s="4">
+      <c r="C310" s="3">
         <v>29278.03</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A311" s="3">
+      <c r="A311" s="2">
         <v>43773</v>
       </c>
-      <c r="B311" s="4">
+      <c r="B311" s="3">
         <v>28065.35</v>
       </c>
-      <c r="C311" s="4">
+      <c r="C311" s="3">
         <v>29280.16</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A312" s="3">
+      <c r="A312" s="2">
         <v>43774</v>
       </c>
-      <c r="B312" s="4">
+      <c r="B312" s="3">
         <v>28065.35</v>
       </c>
-      <c r="C312" s="4">
+      <c r="C312" s="3">
         <v>29282.3</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A313" s="3">
+      <c r="A313" s="2">
         <v>43775</v>
       </c>
-      <c r="B313" s="4">
+      <c r="B313" s="3">
         <v>28065.35</v>
       </c>
-      <c r="C313" s="4">
+      <c r="C313" s="3">
         <v>29284.43</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A314" s="3">
+      <c r="A314" s="2">
         <v>43776</v>
       </c>
-      <c r="B314" s="4">
+      <c r="B314" s="3">
         <v>28065.35</v>
       </c>
-      <c r="C314" s="4">
+      <c r="C314" s="3">
         <v>29286.57</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A315" s="3">
+      <c r="A315" s="2">
         <v>43777</v>
       </c>
-      <c r="B315" s="4">
+      <c r="B315" s="3">
         <v>28065.35</v>
       </c>
-      <c r="C315" s="4">
+      <c r="C315" s="3">
         <v>29288.7</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A316" s="3">
+      <c r="A316" s="2">
         <v>43778</v>
       </c>
-      <c r="B316" s="4">
+      <c r="B316" s="3">
         <v>28065.35</v>
       </c>
-      <c r="C316" s="4">
+      <c r="C316" s="3">
         <v>29290.84</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A317" s="3">
+      <c r="A317" s="2">
         <v>43779</v>
       </c>
-      <c r="B317" s="4">
+      <c r="B317" s="3">
         <v>28072.81</v>
       </c>
-      <c r="C317" s="4">
+      <c r="C317" s="3">
         <v>29293.84</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A318" s="3">
+      <c r="A318" s="2">
         <v>43780</v>
       </c>
-      <c r="B318" s="4">
+      <c r="B318" s="3">
         <v>28080.26</v>
       </c>
-      <c r="C318" s="4">
+      <c r="C318" s="3">
         <v>29296.84</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A319" s="3">
+      <c r="A319" s="2">
         <v>43781</v>
       </c>
-      <c r="B319" s="4">
+      <c r="B319" s="3">
         <v>28087.72</v>
       </c>
-      <c r="C319" s="4">
+      <c r="C319" s="3">
         <v>29299.83</v>
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A320" s="3">
+      <c r="A320" s="2">
         <v>43782</v>
       </c>
-      <c r="B320" s="4">
+      <c r="B320" s="3">
         <v>28095.18</v>
       </c>
-      <c r="C320" s="4">
+      <c r="C320" s="3">
         <v>29302.83</v>
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A321" s="3">
+      <c r="A321" s="2">
         <v>43783</v>
       </c>
-      <c r="B321" s="4">
+      <c r="B321" s="3">
         <v>28102.65</v>
       </c>
-      <c r="C321" s="4">
+      <c r="C321" s="3">
         <v>29305.83</v>
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A322" s="3">
+      <c r="A322" s="2">
         <v>43784</v>
       </c>
-      <c r="B322" s="4">
+      <c r="B322" s="3">
         <v>28110.11</v>
       </c>
-      <c r="C322" s="4">
+      <c r="C322" s="3">
         <v>29308.83</v>
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A323" s="3">
+      <c r="A323" s="2">
         <v>43785</v>
       </c>
-      <c r="B323" s="4">
+      <c r="B323" s="3">
         <v>28117.58</v>
       </c>
-      <c r="C323" s="4">
+      <c r="C323" s="3">
         <v>29311.83</v>
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A324" s="3">
+      <c r="A324" s="2">
         <v>43786</v>
       </c>
-      <c r="B324" s="4">
+      <c r="B324" s="3">
         <v>28125.05</v>
       </c>
-      <c r="C324" s="4">
+      <c r="C324" s="3">
         <v>29314.83</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A325" s="3">
+      <c r="A325" s="2">
         <v>43787</v>
       </c>
-      <c r="B325" s="4">
+      <c r="B325" s="3">
         <v>28132.52</v>
       </c>
-      <c r="C325" s="4">
+      <c r="C325" s="3">
         <v>29317.83</v>
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A326" s="3">
+      <c r="A326" s="2">
         <v>43788</v>
       </c>
-      <c r="B326" s="4">
+      <c r="B326" s="3">
         <v>28139.99</v>
       </c>
-      <c r="C326" s="4">
+      <c r="C326" s="3">
         <v>29320.83</v>
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A327" s="3">
+      <c r="A327" s="2">
         <v>43789</v>
       </c>
-      <c r="B327" s="4">
+      <c r="B327" s="3">
         <v>28147.47</v>
       </c>
-      <c r="C327" s="4">
+      <c r="C327" s="3">
         <v>29323.83</v>
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A328" s="3">
+      <c r="A328" s="2">
         <v>43790</v>
       </c>
-      <c r="B328" s="4">
+      <c r="B328" s="3">
         <v>28154.94</v>
       </c>
-      <c r="C328" s="4">
+      <c r="C328" s="3">
         <v>29326.83</v>
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A329" s="3">
+      <c r="A329" s="2">
         <v>43791</v>
       </c>
-      <c r="B329" s="4">
+      <c r="B329" s="3">
         <v>28162.42</v>
       </c>
-      <c r="C329" s="4">
+      <c r="C329" s="3">
         <v>29329.83</v>
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A330" s="3">
+      <c r="A330" s="2">
         <v>43792</v>
       </c>
-      <c r="B330" s="4">
+      <c r="B330" s="3">
         <v>28169.9</v>
       </c>
-      <c r="C330" s="4">
+      <c r="C330" s="3">
         <v>29332.83</v>
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A331" s="3">
+      <c r="A331" s="2">
         <v>43793</v>
       </c>
-      <c r="B331" s="4">
+      <c r="B331" s="3">
         <v>28177.39</v>
       </c>
-      <c r="C331" s="4">
+      <c r="C331" s="3">
         <v>29335.83</v>
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A332" s="3">
+      <c r="A332" s="2">
         <v>43794</v>
       </c>
-      <c r="B332" s="4">
+      <c r="B332" s="3">
         <v>28184.87</v>
       </c>
-      <c r="C332" s="4">
+      <c r="C332" s="3">
         <v>29338.84</v>
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A333" s="3">
+      <c r="A333" s="2">
         <v>43795</v>
       </c>
-      <c r="B333" s="4">
+      <c r="B333" s="3">
         <v>28192.36</v>
       </c>
-      <c r="C333" s="4">
+      <c r="C333" s="3">
         <v>29341.84</v>
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A334" s="3">
+      <c r="A334" s="2">
         <v>43796</v>
       </c>
-      <c r="B334" s="4">
+      <c r="B334" s="3">
         <v>28199.85</v>
       </c>
-      <c r="C334" s="4">
+      <c r="C334" s="3">
         <v>29344.84</v>
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A335" s="3">
+      <c r="A335" s="2">
         <v>43797</v>
       </c>
-      <c r="B335" s="4">
+      <c r="B335" s="3">
         <v>28207.34</v>
       </c>
-      <c r="C335" s="4">
+      <c r="C335" s="3">
         <v>29347.85</v>
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A336" s="3">
+      <c r="A336" s="2">
         <v>43798</v>
       </c>
-      <c r="B336" s="4">
+      <c r="B336" s="3">
         <v>28214.83</v>
       </c>
-      <c r="C336" s="4">
+      <c r="C336" s="3">
         <v>29350.85</v>
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A337" s="3">
+      <c r="A337" s="2">
         <v>43799</v>
       </c>
-      <c r="B337" s="4">
+      <c r="B337" s="3">
         <v>28222.33</v>
       </c>
-      <c r="C337" s="4">
+      <c r="C337" s="3">
         <v>29353.85</v>
       </c>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A338" s="3">
+      <c r="A338" s="2">
         <v>43800</v>
       </c>
-      <c r="B338" s="4">
+      <c r="B338" s="3">
         <v>28229.83</v>
       </c>
-      <c r="C338" s="4">
+      <c r="C338" s="3">
         <v>29356.86</v>
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A339" s="3">
+      <c r="A339" s="2">
         <v>43801</v>
       </c>
-      <c r="B339" s="4">
+      <c r="B339" s="3">
         <v>28237.32</v>
       </c>
-      <c r="C339" s="4">
+      <c r="C339" s="3">
         <v>29359.86</v>
       </c>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A340" s="3">
+      <c r="A340" s="2">
         <v>43802</v>
       </c>
-      <c r="B340" s="4">
+      <c r="B340" s="3">
         <v>28244.83</v>
       </c>
-      <c r="C340" s="4">
+      <c r="C340" s="3">
         <v>29362.87</v>
       </c>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A341" s="3">
+      <c r="A341" s="2">
         <v>43803</v>
       </c>
-      <c r="B341" s="4">
+      <c r="B341" s="3">
         <v>28252.33</v>
       </c>
-      <c r="C341" s="4">
+      <c r="C341" s="3">
         <v>29365.87</v>
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A342" s="3">
+      <c r="A342" s="2">
         <v>43804</v>
       </c>
-      <c r="B342" s="4">
+      <c r="B342" s="3">
         <v>28259.83</v>
       </c>
-      <c r="C342" s="4">
+      <c r="C342" s="3">
         <v>29368.880000000001</v>
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A343" s="3">
+      <c r="A343" s="2">
         <v>43805</v>
       </c>
-      <c r="B343" s="4">
+      <c r="B343" s="3">
         <v>28267.34</v>
       </c>
-      <c r="C343" s="4">
+      <c r="C343" s="3">
         <v>29371.88</v>
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A344" s="3">
+      <c r="A344" s="2">
         <v>43806</v>
       </c>
-      <c r="B344" s="4">
+      <c r="B344" s="3">
         <v>28274.85</v>
       </c>
-      <c r="C344" s="4">
+      <c r="C344" s="3">
         <v>29374.89</v>
       </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A345" s="3">
+      <c r="A345" s="2">
         <v>43807</v>
       </c>
-      <c r="B345" s="4">
+      <c r="B345" s="3">
         <v>28282.36</v>
       </c>
-      <c r="C345" s="4">
+      <c r="C345" s="3">
         <v>29377.89</v>
       </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A346" s="3">
+      <c r="A346" s="2">
         <v>43808</v>
       </c>
-      <c r="B346" s="4">
+      <c r="B346" s="3">
         <v>28289.87</v>
       </c>
-      <c r="C346" s="4">
+      <c r="C346" s="3">
         <v>29380.9</v>
       </c>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A347" s="3">
+      <c r="A347" s="2">
         <v>43809</v>
       </c>
-      <c r="B347" s="4">
+      <c r="B347" s="3">
         <v>28290.78</v>
       </c>
-      <c r="C347" s="4">
+      <c r="C347" s="3">
         <v>29383.09</v>
       </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A348" s="3">
+      <c r="A348" s="2">
         <v>43810</v>
       </c>
-      <c r="B348" s="4">
+      <c r="B348" s="3">
         <v>28291.69</v>
       </c>
-      <c r="C348" s="4">
+      <c r="C348" s="3">
         <v>29385.27</v>
       </c>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A349" s="3">
+      <c r="A349" s="2">
         <v>43811</v>
       </c>
-      <c r="B349" s="4">
+      <c r="B349" s="3">
         <v>28292.61</v>
       </c>
-      <c r="C349" s="4">
+      <c r="C349" s="3">
         <v>29387.46</v>
       </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A350" s="3">
+      <c r="A350" s="2">
         <v>43812</v>
       </c>
-      <c r="B350" s="4">
+      <c r="B350" s="3">
         <v>28293.52</v>
       </c>
-      <c r="C350" s="4">
+      <c r="C350" s="3">
         <v>29389.64</v>
       </c>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A351" s="3">
+      <c r="A351" s="2">
         <v>43813</v>
       </c>
-      <c r="B351" s="4">
+      <c r="B351" s="3">
         <v>28294.43</v>
       </c>
-      <c r="C351" s="4">
+      <c r="C351" s="3">
         <v>29391.83</v>
       </c>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A352" s="3">
+      <c r="A352" s="2">
         <v>43814</v>
       </c>
-      <c r="B352" s="4">
+      <c r="B352" s="3">
         <v>28295.34</v>
       </c>
-      <c r="C352" s="4">
+      <c r="C352" s="3">
         <v>29394.02</v>
       </c>
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A353" s="3">
+      <c r="A353" s="2">
         <v>43815</v>
       </c>
-      <c r="B353" s="4">
+      <c r="B353" s="3">
         <v>28296.26</v>
       </c>
-      <c r="C353" s="4">
+      <c r="C353" s="3">
         <v>29396.2</v>
       </c>
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A354" s="3">
+      <c r="A354" s="2">
         <v>43816</v>
       </c>
-      <c r="B354" s="4">
+      <c r="B354" s="3">
         <v>28297.17</v>
       </c>
-      <c r="C354" s="4">
+      <c r="C354" s="3">
         <v>29398.39</v>
       </c>
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A355" s="3">
+      <c r="A355" s="2">
         <v>43817</v>
       </c>
-      <c r="B355" s="4">
+      <c r="B355" s="3">
         <v>28298.080000000002</v>
       </c>
-      <c r="C355" s="4">
+      <c r="C355" s="3">
         <v>29400.58</v>
       </c>
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A356" s="3">
+      <c r="A356" s="2">
         <v>43818</v>
       </c>
-      <c r="B356" s="4">
+      <c r="B356" s="3">
         <v>28298.99</v>
       </c>
-      <c r="C356" s="4">
+      <c r="C356" s="3">
         <v>29402.76</v>
       </c>
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A357" s="3">
+      <c r="A357" s="2">
         <v>43819</v>
       </c>
-      <c r="B357" s="4">
+      <c r="B357" s="3">
         <v>28299.91</v>
       </c>
-      <c r="C357" s="4">
+      <c r="C357" s="3">
         <v>29404.95</v>
       </c>
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A358" s="3">
+      <c r="A358" s="2">
         <v>43820</v>
       </c>
-      <c r="B358" s="4">
+      <c r="B358" s="3">
         <v>28300.82</v>
       </c>
-      <c r="C358" s="4">
+      <c r="C358" s="3">
         <v>29407.14</v>
       </c>
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A359" s="3">
+      <c r="A359" s="2">
         <v>43821</v>
       </c>
-      <c r="B359" s="4">
+      <c r="B359" s="3">
         <v>28301.73</v>
       </c>
-      <c r="C359" s="4">
+      <c r="C359" s="3">
         <v>29409.32</v>
       </c>
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A360" s="3">
+      <c r="A360" s="2">
         <v>43822</v>
       </c>
-      <c r="B360" s="4">
+      <c r="B360" s="3">
         <v>28302.639999999999</v>
       </c>
-      <c r="C360" s="4">
+      <c r="C360" s="3">
         <v>29411.51</v>
       </c>
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A361" s="3">
+      <c r="A361" s="2">
         <v>43823</v>
       </c>
-      <c r="B361" s="4">
+      <c r="B361" s="3">
         <v>28303.56</v>
       </c>
-      <c r="C361" s="4">
+      <c r="C361" s="3">
         <v>29413.7</v>
       </c>
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A362" s="3">
+      <c r="A362" s="2">
         <v>43824</v>
       </c>
-      <c r="B362" s="4">
+      <c r="B362" s="3">
         <v>28304.47</v>
       </c>
-      <c r="C362" s="4">
+      <c r="C362" s="3">
         <v>29415.89</v>
       </c>
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A363" s="3">
+      <c r="A363" s="2">
         <v>43825</v>
       </c>
-      <c r="B363" s="4">
+      <c r="B363" s="3">
         <v>28305.38</v>
       </c>
-      <c r="C363" s="4">
+      <c r="C363" s="3">
         <v>29418.080000000002</v>
       </c>
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A364" s="3">
+      <c r="A364" s="2">
         <v>43826</v>
       </c>
-      <c r="B364" s="4">
+      <c r="B364" s="3">
         <v>28306.29</v>
       </c>
-      <c r="C364" s="4">
+      <c r="C364" s="3">
         <v>29420.26</v>
       </c>
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A365" s="3">
+      <c r="A365" s="2">
         <v>43827</v>
       </c>
-      <c r="B365" s="4">
+      <c r="B365" s="3">
         <v>28307.21</v>
       </c>
-      <c r="C365" s="4">
+      <c r="C365" s="3">
         <v>29422.45</v>
       </c>
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A366" s="3">
+      <c r="A366" s="2">
         <v>43828</v>
       </c>
-      <c r="B366" s="4">
+      <c r="B366" s="3">
         <v>28308.12</v>
       </c>
-      <c r="C366" s="4">
+      <c r="C366" s="3">
         <v>29424.639999999999</v>
       </c>
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A367" s="3">
+      <c r="A367" s="2">
         <v>43829</v>
       </c>
-      <c r="B367" s="4">
+      <c r="B367" s="3">
         <v>28309.03</v>
       </c>
-      <c r="C367" s="4">
+      <c r="C367" s="3">
         <v>29426.83</v>
       </c>
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A368" s="3">
+      <c r="A368" s="2">
         <v>43830</v>
       </c>
-      <c r="B368" s="4">
+      <c r="B368" s="3">
         <v>28309.94</v>
       </c>
-      <c r="C368" s="4">
+      <c r="C368" s="3">
         <v>29429.02</v>
       </c>
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A369" s="3">
+      <c r="A369" s="2">
         <v>43831</v>
       </c>
-      <c r="B369" s="4">
+      <c r="B369" s="3">
         <v>28310.86</v>
       </c>
-      <c r="C369" s="4">
+      <c r="C369" s="3">
         <v>29431.21</v>
       </c>
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A370" s="3">
+      <c r="A370" s="2">
         <v>43832</v>
       </c>
-      <c r="B370" s="4">
+      <c r="B370" s="3">
         <v>28311.77</v>
       </c>
-      <c r="C370" s="4">
+      <c r="C370" s="3">
         <v>29433.4</v>
       </c>
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A371" s="3">
+      <c r="A371" s="2">
         <v>43833</v>
       </c>
-      <c r="B371" s="4">
+      <c r="B371" s="3">
         <v>28312.68</v>
       </c>
-      <c r="C371" s="4">
+      <c r="C371" s="3">
         <v>29435.59</v>
       </c>
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A372" s="3">
+      <c r="A372" s="2">
         <v>43834</v>
       </c>
-      <c r="B372" s="4">
+      <c r="B372" s="3">
         <v>28313.599999999999</v>
       </c>
-      <c r="C372" s="4">
+      <c r="C372" s="3">
         <v>29437.78</v>
       </c>
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A373" s="3">
+      <c r="A373" s="2">
         <v>43835</v>
       </c>
-      <c r="B373" s="4">
+      <c r="B373" s="3">
         <v>28314.51</v>
       </c>
-      <c r="C373" s="4">
+      <c r="C373" s="3">
         <v>29439.97</v>
       </c>
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A374" s="3">
+      <c r="A374" s="2">
         <v>43836</v>
       </c>
-      <c r="B374" s="4">
+      <c r="B374" s="3">
         <v>28315.42</v>
       </c>
-      <c r="C374" s="4">
+      <c r="C374" s="3">
         <v>29442.16</v>
       </c>
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A375" s="3">
+      <c r="A375" s="2">
         <v>43837</v>
       </c>
-      <c r="B375" s="4">
+      <c r="B375" s="3">
         <v>28316.33</v>
       </c>
-      <c r="C375" s="4">
+      <c r="C375" s="3">
         <v>29444.35</v>
       </c>
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A376" s="3">
+      <c r="A376" s="2">
         <v>43838</v>
       </c>
-      <c r="B376" s="4">
+      <c r="B376" s="3">
         <v>28317.25</v>
       </c>
-      <c r="C376" s="4">
+      <c r="C376" s="3">
         <v>29446.54</v>
       </c>
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A377" s="3">
+      <c r="A377" s="2">
         <v>43839</v>
       </c>
-      <c r="B377" s="4">
+      <c r="B377" s="3">
         <v>28318.16</v>
       </c>
-      <c r="C377" s="4">
+      <c r="C377" s="3">
         <v>29448.73</v>
       </c>
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A378" s="3">
+      <c r="A378" s="2">
         <v>43840</v>
       </c>
-      <c r="B378" s="4">
+      <c r="B378" s="3">
         <v>28319.07</v>
       </c>
-      <c r="C378" s="4">
+      <c r="C378" s="3">
         <v>29451</v>
       </c>
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A379" s="3">
+      <c r="A379" s="2">
         <v>43841</v>
       </c>
-      <c r="B379" s="4">
+      <c r="B379" s="3">
         <v>28319.99</v>
       </c>
-      <c r="C379" s="4">
+      <c r="C379" s="3">
         <v>29453.27</v>
       </c>
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A380" s="3">
+      <c r="A380" s="2">
         <v>43842</v>
       </c>
-      <c r="B380" s="4">
+      <c r="B380" s="3">
         <v>28320.9</v>
       </c>
-      <c r="C380" s="4">
+      <c r="C380" s="3">
         <v>29455.54</v>
       </c>
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A381" s="3">
+      <c r="A381" s="2">
         <v>43843</v>
       </c>
-      <c r="B381" s="4">
+      <c r="B381" s="3">
         <v>28321.81</v>
       </c>
-      <c r="C381" s="4">
+      <c r="C381" s="3">
         <v>29457.81</v>
       </c>
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A382" s="3">
+      <c r="A382" s="2">
         <v>43844</v>
       </c>
-      <c r="B382" s="4">
+      <c r="B382" s="3">
         <v>28322.73</v>
       </c>
-      <c r="C382" s="4">
+      <c r="C382" s="3">
         <v>29460.080000000002</v>
       </c>
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A383" s="3">
+      <c r="A383" s="2">
         <v>43845</v>
       </c>
-      <c r="B383" s="4">
+      <c r="B383" s="3">
         <v>28323.64</v>
       </c>
-      <c r="C383" s="4">
+      <c r="C383" s="3">
         <v>29462.35</v>
       </c>
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A384" s="3">
+      <c r="A384" s="2">
         <v>43846</v>
       </c>
-      <c r="B384" s="4">
+      <c r="B384" s="3">
         <v>28324.55</v>
       </c>
-      <c r="C384" s="4">
+      <c r="C384" s="3">
         <v>29464.63</v>
       </c>
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A385" s="3">
+      <c r="A385" s="2">
         <v>43847</v>
       </c>
-      <c r="B385" s="4">
+      <c r="B385" s="3">
         <v>28325.47</v>
       </c>
-      <c r="C385" s="4">
+      <c r="C385" s="3">
         <v>29466.9</v>
       </c>
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A386" s="3">
+      <c r="A386" s="2">
         <v>43848</v>
       </c>
-      <c r="B386" s="4">
+      <c r="B386" s="3">
         <v>28326.38</v>
       </c>
-      <c r="C386" s="4">
+      <c r="C386" s="3">
         <v>29469.17</v>
       </c>
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A387" s="3">
+      <c r="A387" s="2">
         <v>43849</v>
       </c>
-      <c r="B387" s="4">
+      <c r="B387" s="3">
         <v>28327.29</v>
       </c>
-      <c r="C387" s="4">
+      <c r="C387" s="3">
         <v>29471.439999999999</v>
       </c>
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A388" s="3">
+      <c r="A388" s="2">
         <v>43850</v>
       </c>
-      <c r="B388" s="4">
+      <c r="B388" s="3">
         <v>28328.21</v>
       </c>
-      <c r="C388" s="4">
+      <c r="C388" s="3">
         <v>29473.71</v>
       </c>
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A389" s="3">
+      <c r="A389" s="2">
         <v>43851</v>
       </c>
-      <c r="B389" s="4">
+      <c r="B389" s="3">
         <v>28329.119999999999</v>
       </c>
-      <c r="C389" s="4">
+      <c r="C389" s="3">
         <v>29475.99</v>
       </c>
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A390" s="3">
+      <c r="A390" s="2">
         <v>43852</v>
       </c>
-      <c r="B390" s="4">
+      <c r="B390" s="3">
         <v>28330.03</v>
       </c>
-      <c r="C390" s="4">
+      <c r="C390" s="3">
         <v>29478.26</v>
       </c>
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A391" s="3">
+      <c r="A391" s="2">
         <v>43853</v>
       </c>
-      <c r="B391" s="4">
+      <c r="B391" s="3">
         <v>28330.95</v>
       </c>
-      <c r="C391" s="4">
+      <c r="C391" s="3">
         <v>29480.53</v>
       </c>
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A392" s="3">
+      <c r="A392" s="2">
         <v>43854</v>
       </c>
-      <c r="B392" s="4">
+      <c r="B392" s="3">
         <v>28331.86</v>
       </c>
-      <c r="C392" s="4">
+      <c r="C392" s="3">
         <v>29482.799999999999</v>
       </c>
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A393" s="3">
+      <c r="A393" s="2">
         <v>43855</v>
       </c>
-      <c r="B393" s="4">
+      <c r="B393" s="3">
         <v>28332.77</v>
       </c>
-      <c r="C393" s="4">
+      <c r="C393" s="3">
         <v>29485.08</v>
       </c>
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A394" s="3">
+      <c r="A394" s="2">
         <v>43856</v>
       </c>
-      <c r="B394" s="4">
+      <c r="B394" s="3">
         <v>28333.69</v>
       </c>
-      <c r="C394" s="4">
+      <c r="C394" s="3">
         <v>29487.35</v>
       </c>
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A395" s="3">
+      <c r="A395" s="2">
         <v>43857</v>
       </c>
-      <c r="B395" s="4">
+      <c r="B395" s="3">
         <v>28334.6</v>
       </c>
-      <c r="C395" s="4">
+      <c r="C395" s="3">
         <v>29489.62</v>
       </c>
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A396" s="3">
+      <c r="A396" s="2">
         <v>43858</v>
       </c>
-      <c r="B396" s="4">
+      <c r="B396" s="3">
         <v>28335.51</v>
       </c>
-      <c r="C396" s="4">
+      <c r="C396" s="3">
         <v>29491.9</v>
       </c>
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A397" s="3">
+      <c r="A397" s="2">
         <v>43859</v>
       </c>
-      <c r="B397" s="4">
+      <c r="B397" s="3">
         <v>28336.43</v>
       </c>
-      <c r="C397" s="4">
+      <c r="C397" s="3">
         <v>29494.17</v>
       </c>
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A398" s="3">
+      <c r="A398" s="2">
         <v>43860</v>
       </c>
-      <c r="B398" s="4">
+      <c r="B398" s="3">
         <v>28337.34</v>
       </c>
-      <c r="C398" s="4">
+      <c r="C398" s="3">
         <v>29496.44</v>
       </c>
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A399" s="3">
+      <c r="A399" s="2">
         <v>43861</v>
       </c>
-      <c r="B399" s="4">
+      <c r="B399" s="3">
         <v>28338.25</v>
       </c>
-      <c r="C399" s="4">
+      <c r="C399" s="3">
         <v>29498.720000000001</v>
       </c>
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A400" s="3">
+      <c r="A400" s="2">
         <v>43862</v>
       </c>
-      <c r="B400" s="4">
+      <c r="B400" s="3">
         <v>28339.17</v>
       </c>
-      <c r="C400" s="4">
+      <c r="C400" s="3">
         <v>29500.99</v>
       </c>
     </row>
     <row r="401" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A401" s="3">
+      <c r="A401" s="2">
         <v>43863</v>
       </c>
-      <c r="B401" s="4">
+      <c r="B401" s="3">
         <v>28340.080000000002</v>
       </c>
-      <c r="C401" s="4">
+      <c r="C401" s="3">
         <v>29503.27</v>
       </c>
     </row>
     <row r="402" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A402" s="3">
+      <c r="A402" s="2">
         <v>43864</v>
       </c>
-      <c r="B402" s="4">
+      <c r="B402" s="3">
         <v>28341</v>
       </c>
-      <c r="C402" s="4">
+      <c r="C402" s="3">
         <v>29505.54</v>
       </c>
     </row>
     <row r="403" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A403" s="3">
+      <c r="A403" s="2">
         <v>43865</v>
       </c>
-      <c r="B403" s="4">
+      <c r="B403" s="3">
         <v>28341.91</v>
       </c>
-      <c r="C403" s="4">
+      <c r="C403" s="3">
         <v>29507.81</v>
       </c>
     </row>
     <row r="404" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A404" s="3">
+      <c r="A404" s="2">
         <v>43866</v>
       </c>
-      <c r="B404" s="4">
+      <c r="B404" s="3">
         <v>28342.82</v>
       </c>
-      <c r="C404" s="4">
+      <c r="C404" s="3">
         <v>29510.09</v>
       </c>
     </row>
     <row r="405" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A405" s="3">
+      <c r="A405" s="2">
         <v>43867</v>
       </c>
-      <c r="B405" s="4">
+      <c r="B405" s="3">
         <v>28343.74</v>
       </c>
-      <c r="C405" s="4">
+      <c r="C405" s="3">
         <v>29512.36</v>
       </c>
     </row>
     <row r="406" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A406" s="3">
+      <c r="A406" s="2">
         <v>43868</v>
       </c>
-      <c r="B406" s="4">
+      <c r="B406" s="3">
         <v>28344.65</v>
       </c>
-      <c r="C406" s="4">
+      <c r="C406" s="3">
         <v>29514.639999999999</v>
       </c>
     </row>
     <row r="407" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A407" s="3">
+      <c r="A407" s="2">
         <v>43869</v>
       </c>
-      <c r="B407" s="4">
+      <c r="B407" s="3">
         <v>28345.56</v>
       </c>
-      <c r="C407" s="4">
+      <c r="C407" s="3">
         <v>29516.92</v>
       </c>
     </row>
     <row r="408" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A408" s="3">
+      <c r="A408" s="2">
         <v>43870</v>
       </c>
-      <c r="B408" s="4">
+      <c r="B408" s="3">
         <v>28346.48</v>
       </c>
-      <c r="C408" s="4">
+      <c r="C408" s="3">
         <v>29519.19</v>
       </c>
     </row>
     <row r="409" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A409" s="3">
+      <c r="A409" s="2">
         <v>43871</v>
       </c>
-      <c r="B409" s="4">
+      <c r="B409" s="3">
         <v>28352.33</v>
       </c>
-      <c r="C409" s="4">
+      <c r="C409" s="3">
         <v>29522.12</v>
       </c>
     </row>
     <row r="410" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A410" s="3">
+      <c r="A410" s="2">
         <v>43872</v>
       </c>
-      <c r="B410" s="4">
+      <c r="B410" s="3">
         <v>28358.18</v>
       </c>
-      <c r="C410" s="4">
+      <c r="C410" s="3">
         <v>29525.06</v>
       </c>
     </row>
     <row r="411" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A411" s="3">
+      <c r="A411" s="2">
         <v>43873</v>
       </c>
-      <c r="B411" s="4">
+      <c r="B411" s="3">
         <v>28364.03</v>
       </c>
-      <c r="C411" s="4">
+      <c r="C411" s="3">
         <v>29527.99</v>
       </c>
     </row>
     <row r="412" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A412" s="3">
+      <c r="A412" s="2">
         <v>43874</v>
       </c>
-      <c r="B412" s="4">
+      <c r="B412" s="3">
         <v>28369.88</v>
       </c>
-      <c r="C412" s="4">
+      <c r="C412" s="3">
         <v>29530.93</v>
       </c>
     </row>
     <row r="413" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A413" s="3">
+      <c r="A413" s="2">
         <v>43875</v>
       </c>
-      <c r="B413" s="4">
+      <c r="B413" s="3">
         <v>28375.73</v>
       </c>
-      <c r="C413" s="4">
+      <c r="C413" s="3">
         <v>29533.86</v>
       </c>
     </row>
     <row r="414" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A414" s="3">
+      <c r="A414" s="2">
         <v>43876</v>
       </c>
-      <c r="B414" s="4">
+      <c r="B414" s="3">
         <v>28381.59</v>
       </c>
-      <c r="C414" s="4">
+      <c r="C414" s="3">
         <v>29536.79</v>
       </c>
     </row>
     <row r="415" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A415" s="3">
+      <c r="A415" s="2">
         <v>43877</v>
       </c>
-      <c r="B415" s="4">
+      <c r="B415" s="3">
         <v>28387.439999999999</v>
       </c>
-      <c r="C415" s="4">
+      <c r="C415" s="3">
         <v>29539.73</v>
       </c>
     </row>
     <row r="416" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A416" s="3">
+      <c r="A416" s="2">
         <v>43878</v>
       </c>
-      <c r="B416" s="4">
+      <c r="B416" s="3">
         <v>28393.3</v>
       </c>
-      <c r="C416" s="4">
+      <c r="C416" s="3">
         <v>29542.67</v>
       </c>
     </row>
     <row r="417" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A417" s="3">
+      <c r="A417" s="2">
         <v>43879</v>
       </c>
-      <c r="B417" s="4">
+      <c r="B417" s="3">
         <v>28399.15</v>
       </c>
-      <c r="C417" s="4">
+      <c r="C417" s="3">
         <v>29545.599999999999</v>
       </c>
     </row>
     <row r="418" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A418" s="3">
+      <c r="A418" s="2">
         <v>43880</v>
       </c>
-      <c r="B418" s="4">
+      <c r="B418" s="3">
         <v>28405.01</v>
       </c>
-      <c r="C418" s="4">
+      <c r="C418" s="3">
         <v>29548.54</v>
       </c>
     </row>
     <row r="419" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A419" s="3">
+      <c r="A419" s="2">
         <v>43881</v>
       </c>
-      <c r="B419" s="4">
+      <c r="B419" s="3">
         <v>28410.87</v>
       </c>
-      <c r="C419" s="4">
+      <c r="C419" s="3">
         <v>29551.47</v>
       </c>
     </row>
     <row r="420" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A420" s="3">
+      <c r="A420" s="2">
         <v>43882</v>
       </c>
-      <c r="B420" s="4">
+      <c r="B420" s="3">
         <v>28416.73</v>
       </c>
-      <c r="C420" s="4">
+      <c r="C420" s="3">
         <v>29554.41</v>
       </c>
     </row>
     <row r="421" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A421" s="3">
+      <c r="A421" s="2">
         <v>43883</v>
       </c>
-      <c r="B421" s="4">
+      <c r="B421" s="3">
         <v>28422.6</v>
       </c>
-      <c r="C421" s="4">
+      <c r="C421" s="3">
         <v>29557.35</v>
       </c>
     </row>
     <row r="422" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A422" s="3">
+      <c r="A422" s="2">
         <v>43884</v>
       </c>
-      <c r="B422" s="4">
+      <c r="B422" s="3">
         <v>28428.46</v>
       </c>
-      <c r="C422" s="4">
+      <c r="C422" s="3">
         <v>29560.28</v>
       </c>
     </row>
     <row r="423" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A423" s="3">
+      <c r="A423" s="2">
         <v>43885</v>
       </c>
-      <c r="B423" s="4">
+      <c r="B423" s="3">
         <v>28434.32</v>
       </c>
-      <c r="C423" s="4">
+      <c r="C423" s="3">
         <v>29563.22</v>
       </c>
     </row>
     <row r="424" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A424" s="3">
+      <c r="A424" s="2">
         <v>43886</v>
       </c>
-      <c r="B424" s="4">
+      <c r="B424" s="3">
         <v>28440.19</v>
       </c>
-      <c r="C424" s="4">
+      <c r="C424" s="3">
         <v>29566.16</v>
       </c>
     </row>
     <row r="425" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A425" s="3">
+      <c r="A425" s="2">
         <v>43887</v>
       </c>
-      <c r="B425" s="4">
+      <c r="B425" s="3">
         <v>28446.06</v>
       </c>
-      <c r="C425" s="4">
+      <c r="C425" s="3">
         <v>29569.1</v>
       </c>
     </row>
     <row r="426" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A426" s="3">
+      <c r="A426" s="2">
         <v>43888</v>
       </c>
-      <c r="B426" s="4">
+      <c r="B426" s="3">
         <v>28451.93</v>
       </c>
-      <c r="C426" s="4">
+      <c r="C426" s="3">
         <v>29572.04</v>
       </c>
     </row>
     <row r="427" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A427" s="3">
+      <c r="A427" s="2">
         <v>43889</v>
       </c>
-      <c r="B427" s="4">
+      <c r="B427" s="3">
         <v>28457.8</v>
       </c>
-      <c r="C427" s="4">
+      <c r="C427" s="3">
         <v>29574.97</v>
       </c>
     </row>
     <row r="428" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A428" s="3">
+      <c r="A428" s="2">
         <v>43890</v>
       </c>
-      <c r="B428" s="4">
+      <c r="B428" s="3">
         <v>28463.67</v>
       </c>
-      <c r="C428" s="4">
+      <c r="C428" s="3">
         <v>29577.91</v>
       </c>
     </row>
     <row r="429" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A429" s="3">
+      <c r="A429" s="2">
         <v>43891</v>
       </c>
-      <c r="B429" s="4">
+      <c r="B429" s="3">
         <v>28469.54</v>
       </c>
-      <c r="C429" s="4">
+      <c r="C429" s="3">
         <v>29580.85</v>
       </c>
     </row>
     <row r="430" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A430" s="3">
+      <c r="A430" s="2">
         <v>43892</v>
       </c>
-      <c r="B430" s="4">
+      <c r="B430" s="3">
         <v>28475.41</v>
       </c>
-      <c r="C430" s="4">
+      <c r="C430" s="3">
         <v>29583.79</v>
       </c>
     </row>
     <row r="431" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A431" s="3">
+      <c r="A431" s="2">
         <v>43893</v>
       </c>
-      <c r="B431" s="4">
+      <c r="B431" s="3">
         <v>28481.29</v>
       </c>
-      <c r="C431" s="4">
+      <c r="C431" s="3">
         <v>29586.73</v>
       </c>
     </row>
     <row r="432" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A432" s="3">
+      <c r="A432" s="2">
         <v>43894</v>
       </c>
-      <c r="B432" s="4">
+      <c r="B432" s="3">
         <v>28487.16</v>
       </c>
-      <c r="C432" s="4">
+      <c r="C432" s="3">
         <v>29589.67</v>
       </c>
     </row>
     <row r="433" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A433" s="3">
+      <c r="A433" s="2">
         <v>43895</v>
       </c>
-      <c r="B433" s="4">
+      <c r="B433" s="3">
         <v>28493.040000000001</v>
       </c>
-      <c r="C433" s="4">
+      <c r="C433" s="3">
         <v>29592.61</v>
       </c>
     </row>
     <row r="434" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A434" s="3">
+      <c r="A434" s="2">
         <v>43896</v>
       </c>
-      <c r="B434" s="4">
+      <c r="B434" s="3">
         <v>28498.92</v>
       </c>
-      <c r="C434" s="4">
+      <c r="C434" s="3">
         <v>29595.55</v>
       </c>
     </row>
     <row r="435" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A435" s="3">
+      <c r="A435" s="2">
         <v>43897</v>
       </c>
-      <c r="B435" s="4">
+      <c r="B435" s="3">
         <v>28504.799999999999</v>
       </c>
-      <c r="C435" s="4">
+      <c r="C435" s="3">
         <v>29598.49</v>
       </c>
     </row>
     <row r="436" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A436" s="3">
+      <c r="A436" s="2">
         <v>43898</v>
       </c>
-      <c r="B436" s="4">
+      <c r="B436" s="3">
         <v>28510.68</v>
       </c>
-      <c r="C436" s="4">
+      <c r="C436" s="3">
         <v>29601.43</v>
       </c>
     </row>
     <row r="437" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A437" s="3">
+      <c r="A437" s="2">
         <v>43899</v>
       </c>
-      <c r="B437" s="4">
+      <c r="B437" s="3">
         <v>28516.560000000001</v>
       </c>
-      <c r="C437" s="4">
+      <c r="C437" s="3">
         <v>29604.38</v>
       </c>
     </row>
     <row r="438" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A438" s="3">
+      <c r="A438" s="2">
         <v>43900</v>
       </c>
-      <c r="B438" s="4">
+      <c r="B438" s="3">
         <v>28520.23</v>
       </c>
-      <c r="C438" s="4">
+      <c r="C438" s="3">
         <v>29607.66</v>
       </c>
     </row>
     <row r="439" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A439" s="3">
+      <c r="A439" s="2">
         <v>43901</v>
       </c>
-      <c r="B439" s="4">
+      <c r="B439" s="3">
         <v>28523.91</v>
       </c>
-      <c r="C439" s="4">
+      <c r="C439" s="3">
         <v>29610.94</v>
       </c>
     </row>
     <row r="440" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A440" s="3">
+      <c r="A440" s="2">
         <v>43902</v>
       </c>
-      <c r="B440" s="4">
+      <c r="B440" s="3">
         <v>28527.58</v>
       </c>
-      <c r="C440" s="4">
+      <c r="C440" s="3">
         <v>29614.22</v>
       </c>
     </row>
     <row r="441" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A441" s="3">
+      <c r="A441" s="2">
         <v>43903</v>
       </c>
-      <c r="B441" s="4">
+      <c r="B441" s="3">
         <v>28531.25</v>
       </c>
-      <c r="C441" s="4">
+      <c r="C441" s="3">
         <v>29617.5</v>
       </c>
     </row>
     <row r="442" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A442" s="3">
+      <c r="A442" s="2">
         <v>43904</v>
       </c>
-      <c r="B442" s="4">
+      <c r="B442" s="3">
         <v>28534.93</v>
       </c>
-      <c r="C442" s="4">
+      <c r="C442" s="3">
         <v>29620.78</v>
       </c>
     </row>
     <row r="443" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A443" s="3">
+      <c r="A443" s="2">
         <v>43905</v>
       </c>
-      <c r="B443" s="4">
+      <c r="B443" s="3">
         <v>28538.6</v>
       </c>
-      <c r="C443" s="4">
+      <c r="C443" s="3">
         <v>29624.06</v>
       </c>
     </row>
     <row r="444" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A444" s="3">
+      <c r="A444" s="2">
         <v>43906</v>
       </c>
-      <c r="B444" s="4">
+      <c r="B444" s="3">
         <v>28542.28</v>
       </c>
-      <c r="C444" s="4">
+      <c r="C444" s="3">
         <v>29627.35</v>
       </c>
     </row>
     <row r="445" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A445" s="3">
+      <c r="A445" s="2">
         <v>43907</v>
       </c>
-      <c r="B445" s="4">
+      <c r="B445" s="3">
         <v>28545.95</v>
       </c>
-      <c r="C445" s="4">
+      <c r="C445" s="3">
         <v>29630.63</v>
       </c>
     </row>
     <row r="446" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A446" s="3">
+      <c r="A446" s="2">
         <v>43908</v>
       </c>
-      <c r="B446" s="4">
+      <c r="B446" s="3">
         <v>28549.63</v>
       </c>
-      <c r="C446" s="4">
+      <c r="C446" s="3">
         <v>29633.91</v>
       </c>
     </row>
     <row r="447" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A447" s="3">
+      <c r="A447" s="2">
         <v>43909</v>
       </c>
-      <c r="B447" s="4">
+      <c r="B447" s="3">
         <v>28553.31</v>
       </c>
-      <c r="C447" s="4">
+      <c r="C447" s="3">
         <v>29637.19</v>
       </c>
     </row>
     <row r="448" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A448" s="3">
+      <c r="A448" s="2">
         <v>43910</v>
       </c>
-      <c r="B448" s="4">
+      <c r="B448" s="3">
         <v>28556.98</v>
       </c>
-      <c r="C448" s="4">
+      <c r="C448" s="3">
         <v>29640.48</v>
       </c>
     </row>
     <row r="449" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A449" s="3">
+      <c r="A449" s="2">
         <v>43911</v>
       </c>
-      <c r="B449" s="4">
+      <c r="B449" s="3">
         <v>28560.66</v>
       </c>
-      <c r="C449" s="4">
+      <c r="C449" s="3">
         <v>29643.759999999998</v>
       </c>
     </row>
     <row r="450" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A450" s="3">
+      <c r="A450" s="2">
         <v>43912</v>
       </c>
-      <c r="B450" s="4">
+      <c r="B450" s="3">
         <v>28564.34</v>
       </c>
-      <c r="C450" s="4">
+      <c r="C450" s="3">
         <v>29647.040000000001</v>
       </c>
     </row>
     <row r="451" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A451" s="3">
+      <c r="A451" s="2">
         <v>43913</v>
       </c>
-      <c r="B451" s="4">
+      <c r="B451" s="3">
         <v>28568.02</v>
       </c>
-      <c r="C451" s="4">
+      <c r="C451" s="3">
         <v>29650.33</v>
       </c>
     </row>
     <row r="452" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A452" s="3">
+      <c r="A452" s="2">
         <v>43914</v>
       </c>
-      <c r="B452" s="4">
+      <c r="B452" s="3">
         <v>28571.7</v>
       </c>
-      <c r="C452" s="4">
+      <c r="C452" s="3">
         <v>29653.61</v>
       </c>
     </row>
     <row r="453" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A453" s="3">
+      <c r="A453" s="2">
         <v>43915</v>
       </c>
-      <c r="B453" s="4">
+      <c r="B453" s="3">
         <v>28575.38</v>
       </c>
-      <c r="C453" s="4">
+      <c r="C453" s="3">
         <v>29656.9</v>
       </c>
     </row>
     <row r="454" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A454" s="3">
+      <c r="A454" s="2">
         <v>43916</v>
       </c>
-      <c r="B454" s="4">
+      <c r="B454" s="3">
         <v>28579.06</v>
       </c>
-      <c r="C454" s="4">
+      <c r="C454" s="3">
         <v>29660.18</v>
       </c>
     </row>
     <row r="455" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A455" s="3">
+      <c r="A455" s="2">
         <v>43917</v>
       </c>
-      <c r="B455" s="4">
+      <c r="B455" s="3">
         <v>28582.74</v>
       </c>
-      <c r="C455" s="4">
+      <c r="C455" s="3">
         <v>29663.47</v>
       </c>
     </row>
     <row r="456" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A456" s="3">
+      <c r="A456" s="2">
         <v>43918</v>
       </c>
-      <c r="B456" s="4">
+      <c r="B456" s="3">
         <v>28586.42</v>
       </c>
-      <c r="C456" s="4">
+      <c r="C456" s="3">
         <v>29666.76</v>
       </c>
     </row>
     <row r="457" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A457" s="3">
+      <c r="A457" s="2">
         <v>43919</v>
       </c>
-      <c r="B457" s="4">
+      <c r="B457" s="3">
         <v>28590.1</v>
       </c>
-      <c r="C457" s="4">
+      <c r="C457" s="3">
         <v>29670.04</v>
       </c>
     </row>
     <row r="458" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A458" s="3">
+      <c r="A458" s="2">
         <v>43920</v>
       </c>
-      <c r="B458" s="4">
+      <c r="B458" s="3">
         <v>28593.78</v>
       </c>
-      <c r="C458" s="4">
+      <c r="C458" s="3">
         <v>29673.33</v>
       </c>
     </row>
     <row r="459" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A459" s="3">
+      <c r="A459" s="2">
         <v>43921</v>
       </c>
-      <c r="B459" s="4">
+      <c r="B459" s="3">
         <v>28597.46</v>
       </c>
-      <c r="C459" s="4">
+      <c r="C459" s="3">
         <v>29676.62</v>
       </c>
     </row>
     <row r="460" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A460" s="3">
+      <c r="A460" s="2">
         <v>43922</v>
       </c>
-      <c r="B460" s="4">
+      <c r="B460" s="3">
         <v>28601.15</v>
       </c>
-      <c r="C460" s="4">
+      <c r="C460" s="3">
         <v>29679.91</v>
       </c>
     </row>
     <row r="461" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A461" s="3">
+      <c r="A461" s="2">
         <v>43923</v>
       </c>
-      <c r="B461" s="4">
+      <c r="B461" s="3">
         <v>28604.83</v>
       </c>
-      <c r="C461" s="4">
+      <c r="C461" s="3">
         <v>29683.19</v>
       </c>
     </row>
     <row r="462" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A462" s="3">
+      <c r="A462" s="2">
         <v>43924</v>
       </c>
-      <c r="B462" s="4">
+      <c r="B462" s="3">
         <v>28608.51</v>
       </c>
-      <c r="C462" s="4">
+      <c r="C462" s="3">
         <v>29686.48</v>
       </c>
     </row>
     <row r="463" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A463" s="3">
+      <c r="A463" s="2">
         <v>43925</v>
       </c>
-      <c r="B463" s="4">
+      <c r="B463" s="3">
         <v>28612.2</v>
       </c>
-      <c r="C463" s="4">
+      <c r="C463" s="3">
         <v>29689.77</v>
       </c>
     </row>
     <row r="464" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A464" s="3">
+      <c r="A464" s="2">
         <v>43926</v>
       </c>
-      <c r="B464" s="4">
+      <c r="B464" s="3">
         <v>28615.88</v>
       </c>
-      <c r="C464" s="4">
+      <c r="C464" s="3">
         <v>29693.06</v>
       </c>
     </row>
     <row r="465" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A465" s="3">
+      <c r="A465" s="2">
         <v>43927</v>
       </c>
-      <c r="B465" s="4">
+      <c r="B465" s="3">
         <v>28619.57</v>
       </c>
-      <c r="C465" s="4">
+      <c r="C465" s="3">
         <v>29696.35</v>
       </c>
     </row>
     <row r="466" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A466" s="3">
+      <c r="A466" s="2">
         <v>43928</v>
       </c>
-      <c r="B466" s="4">
+      <c r="B466" s="3">
         <v>28623.25</v>
       </c>
-      <c r="C466" s="4">
+      <c r="C466" s="3">
         <v>29699.64</v>
       </c>
     </row>
     <row r="467" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A467" s="3">
+      <c r="A467" s="2">
         <v>43929</v>
       </c>
-      <c r="B467" s="4">
+      <c r="B467" s="3">
         <v>28626.94</v>
       </c>
-      <c r="C467" s="4">
+      <c r="C467" s="3">
         <v>29702.93</v>
       </c>
     </row>
     <row r="468" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A468" s="3">
+      <c r="A468" s="2">
         <v>43930</v>
       </c>
-      <c r="B468" s="4">
+      <c r="B468" s="3">
         <v>28630.63</v>
       </c>
-      <c r="C468" s="4">
+      <c r="C468" s="3">
         <v>29706.22</v>
       </c>
     </row>
     <row r="469" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A469" s="3">
+      <c r="A469" s="2">
         <v>43931</v>
       </c>
-      <c r="B469" s="4">
+      <c r="B469" s="3">
         <v>28633.49</v>
       </c>
-      <c r="C469" s="4">
+      <c r="C469" s="3">
         <v>29710.02</v>
       </c>
     </row>
     <row r="470" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A470" s="3">
+      <c r="A470" s="2">
         <v>43932</v>
       </c>
-      <c r="B470" s="4">
+      <c r="B470" s="3">
         <v>28636.35</v>
       </c>
-      <c r="C470" s="4">
+      <c r="C470" s="3">
         <v>29713.82</v>
       </c>
     </row>
     <row r="471" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A471" s="3">
+      <c r="A471" s="2">
         <v>43933</v>
       </c>
-      <c r="B471" s="4">
+      <c r="B471" s="3">
         <v>28639.21</v>
       </c>
-      <c r="C471" s="4">
+      <c r="C471" s="3">
         <v>29717.62</v>
       </c>
     </row>
     <row r="472" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A472" s="3">
+      <c r="A472" s="2">
         <v>43934</v>
       </c>
-      <c r="B472" s="4">
+      <c r="B472" s="3">
         <v>28642.07</v>
       </c>
-      <c r="C472" s="4">
+      <c r="C472" s="3">
         <v>29721.42</v>
       </c>
     </row>
     <row r="473" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A473" s="3">
+      <c r="A473" s="2">
         <v>43935</v>
       </c>
-      <c r="B473" s="4">
+      <c r="B473" s="3">
         <v>28644.93</v>
       </c>
-      <c r="C473" s="4">
+      <c r="C473" s="3">
         <v>29725.22</v>
       </c>
     </row>
     <row r="474" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A474" s="3">
+      <c r="A474" s="2">
         <v>43936</v>
       </c>
-      <c r="B474" s="4">
+      <c r="B474" s="3">
         <v>28647.79</v>
       </c>
-      <c r="C474" s="4">
+      <c r="C474" s="3">
         <v>29729.02</v>
       </c>
     </row>
     <row r="475" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A475" s="3">
+      <c r="A475" s="2">
         <v>43937</v>
       </c>
-      <c r="B475" s="4">
+      <c r="B475" s="3">
         <v>28650.65</v>
       </c>
-      <c r="C475" s="4">
+      <c r="C475" s="3">
         <v>29732.82</v>
       </c>
     </row>
     <row r="476" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A476" s="3">
+      <c r="A476" s="2">
         <v>43938</v>
       </c>
-      <c r="B476" s="4">
+      <c r="B476" s="3">
         <v>28653.51</v>
       </c>
-      <c r="C476" s="4">
+      <c r="C476" s="3">
         <v>29736.63</v>
       </c>
     </row>
     <row r="477" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A477" s="3">
+      <c r="A477" s="2">
         <v>43939</v>
       </c>
-      <c r="B477" s="4">
+      <c r="B477" s="3">
         <v>28656.37</v>
       </c>
-      <c r="C477" s="4">
+      <c r="C477" s="3">
         <v>29740.43</v>
       </c>
     </row>
     <row r="478" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A478" s="3">
+      <c r="A478" s="2">
         <v>43940</v>
       </c>
-      <c r="B478" s="4">
+      <c r="B478" s="3">
         <v>28659.23</v>
       </c>
-      <c r="C478" s="4">
+      <c r="C478" s="3">
         <v>29744.23</v>
       </c>
     </row>
     <row r="479" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A479" s="3">
+      <c r="A479" s="2">
         <v>43941</v>
       </c>
-      <c r="B479" s="4">
+      <c r="B479" s="3">
         <v>28662.09</v>
       </c>
-      <c r="C479" s="4">
+      <c r="C479" s="3">
         <v>29748.04</v>
       </c>
     </row>
     <row r="480" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A480" s="3">
+      <c r="A480" s="2">
         <v>43942</v>
       </c>
-      <c r="B480" s="4">
+      <c r="B480" s="3">
         <v>28664.959999999999</v>
       </c>
-      <c r="C480" s="4">
+      <c r="C480" s="3">
         <v>29751.84</v>
       </c>
     </row>
     <row r="481" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A481" s="3">
+      <c r="A481" s="2">
         <v>43943</v>
       </c>
-      <c r="B481" s="4">
+      <c r="B481" s="3">
         <v>28667.82</v>
       </c>
-      <c r="C481" s="4">
+      <c r="C481" s="3">
         <v>29755.64</v>
       </c>
     </row>
     <row r="482" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A482" s="3">
+      <c r="A482" s="2">
         <v>43944</v>
       </c>
-      <c r="B482" s="4">
+      <c r="B482" s="3">
         <v>28670.68</v>
       </c>
-      <c r="C482" s="4">
+      <c r="C482" s="3">
         <v>29759.45</v>
       </c>
     </row>
     <row r="483" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A483" s="3">
+      <c r="A483" s="2">
         <v>43945</v>
       </c>
-      <c r="B483" s="4">
+      <c r="B483" s="3">
         <v>28673.54</v>
       </c>
-      <c r="C483" s="4">
+      <c r="C483" s="3">
         <v>29763.26</v>
       </c>
     </row>
     <row r="484" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A484" s="3">
+      <c r="A484" s="2">
         <v>43946</v>
       </c>
-      <c r="B484" s="4">
+      <c r="B484" s="3">
         <v>28676.41</v>
       </c>
-      <c r="C484" s="4">
+      <c r="C484" s="3">
         <v>29767.06</v>
       </c>
     </row>
     <row r="485" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A485" s="3">
+      <c r="A485" s="2">
         <v>43947</v>
       </c>
-      <c r="B485" s="4">
+      <c r="B485" s="3">
         <v>28679.27</v>
       </c>
-      <c r="C485" s="4">
+      <c r="C485" s="3">
         <v>29770.87</v>
       </c>
     </row>
     <row r="486" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A486" s="3">
+      <c r="A486" s="2">
         <v>43948</v>
       </c>
-      <c r="B486" s="4">
+      <c r="B486" s="3">
         <v>28682.13</v>
       </c>
-      <c r="C486" s="4">
+      <c r="C486" s="3">
         <v>29774.68</v>
       </c>
     </row>
     <row r="487" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A487" s="3">
+      <c r="A487" s="2">
         <v>43949</v>
       </c>
-      <c r="B487" s="4">
+      <c r="B487" s="3">
         <v>28685</v>
       </c>
-      <c r="C487" s="4">
+      <c r="C487" s="3">
         <v>29778.48</v>
       </c>
     </row>
     <row r="488" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A488" s="3">
+      <c r="A488" s="2">
         <v>43950</v>
       </c>
-      <c r="B488" s="4">
+      <c r="B488" s="3">
         <v>28687.86</v>
       </c>
-      <c r="C488" s="4">
+      <c r="C488" s="3">
         <v>29782.29</v>
       </c>
     </row>
     <row r="489" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A489" s="3">
+      <c r="A489" s="2">
         <v>43951</v>
       </c>
-      <c r="B489" s="4">
+      <c r="B489" s="3">
         <v>28690.73</v>
       </c>
-      <c r="C489" s="4">
+      <c r="C489" s="3">
         <v>29786.1</v>
       </c>
     </row>
     <row r="490" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A490" s="3">
+      <c r="A490" s="2">
         <v>43952</v>
       </c>
-      <c r="B490" s="4">
+      <c r="B490" s="3">
         <v>28693.59</v>
       </c>
-      <c r="C490" s="4">
+      <c r="C490" s="3">
         <v>29789.91</v>
       </c>
     </row>
     <row r="491" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A491" s="3">
+      <c r="A491" s="2">
         <v>43953</v>
       </c>
-      <c r="B491" s="4">
+      <c r="B491" s="3">
         <v>28696.46</v>
       </c>
-      <c r="C491" s="4">
+      <c r="C491" s="3">
         <v>29793.72</v>
       </c>
     </row>
     <row r="492" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A492" s="3">
+      <c r="A492" s="2">
         <v>43954</v>
       </c>
-      <c r="B492" s="4">
+      <c r="B492" s="3">
         <v>28699.32</v>
       </c>
-      <c r="C492" s="4">
+      <c r="C492" s="3">
         <v>29797.53</v>
       </c>
     </row>
     <row r="493" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A493" s="3">
+      <c r="A493" s="2">
         <v>43955</v>
       </c>
-      <c r="B493" s="4">
+      <c r="B493" s="3">
         <v>28702.19</v>
       </c>
-      <c r="C493" s="4">
+      <c r="C493" s="3">
         <v>29801.34</v>
       </c>
     </row>
     <row r="494" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A494" s="3">
+      <c r="A494" s="2">
         <v>43956</v>
       </c>
-      <c r="B494" s="4">
+      <c r="B494" s="3">
         <v>28705.05</v>
       </c>
-      <c r="C494" s="4">
+      <c r="C494" s="3">
         <v>29805.15</v>
       </c>
     </row>
     <row r="495" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A495" s="3">
+      <c r="A495" s="2">
         <v>43957</v>
       </c>
-      <c r="B495" s="4">
+      <c r="B495" s="3">
         <v>28707.919999999998</v>
       </c>
-      <c r="C495" s="4">
+      <c r="C495" s="3">
         <v>29808.959999999999</v>
       </c>
     </row>
     <row r="496" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A496" s="3">
+      <c r="A496" s="2">
         <v>43958</v>
       </c>
-      <c r="B496" s="4">
+      <c r="B496" s="3">
         <v>28710.79</v>
       </c>
-      <c r="C496" s="4">
+      <c r="C496" s="3">
         <v>29812.77</v>
       </c>
     </row>
     <row r="497" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A497" s="3">
+      <c r="A497" s="2">
         <v>43959</v>
       </c>
-      <c r="B497" s="4">
+      <c r="B497" s="3">
         <v>28713.65</v>
       </c>
-      <c r="C497" s="4">
+      <c r="C497" s="3">
         <v>29816.59</v>
       </c>
     </row>
     <row r="498" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A498" s="3">
+      <c r="A498" s="2">
         <v>43960</v>
       </c>
-      <c r="B498" s="4">
+      <c r="B498" s="3">
         <v>28716.52</v>
       </c>
-      <c r="C498" s="4">
+      <c r="C498" s="3">
         <v>29820.400000000001</v>
       </c>
     </row>
     <row r="499" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A499" s="3">
+      <c r="A499" s="2">
         <v>43961</v>
       </c>
-      <c r="B499" s="4">
+      <c r="B499" s="3">
         <v>28716.52</v>
       </c>
-      <c r="C499" s="4">
+      <c r="C499" s="3">
         <v>29822.82</v>
       </c>
     </row>
     <row r="500" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A500" s="3">
+      <c r="A500" s="2">
         <v>43962</v>
       </c>
-      <c r="B500" s="4">
+      <c r="B500" s="3">
         <v>28716.52</v>
       </c>
-      <c r="C500" s="4">
+      <c r="C500" s="3">
         <v>29825.24</v>
       </c>
     </row>
     <row r="501" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A501" s="3">
+      <c r="A501" s="2">
         <v>43963</v>
       </c>
-      <c r="B501" s="4">
+      <c r="B501" s="3">
         <v>28716.52</v>
       </c>
-      <c r="C501" s="4">
+      <c r="C501" s="3">
         <v>29827.66</v>
       </c>
     </row>
     <row r="502" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A502" s="3">
+      <c r="A502" s="2">
         <v>43964</v>
       </c>
-      <c r="B502" s="4">
+      <c r="B502" s="3">
         <v>28716.52</v>
       </c>
-      <c r="C502" s="4">
+      <c r="C502" s="3">
         <v>29830.080000000002</v>
       </c>
     </row>
     <row r="503" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A503" s="3">
+      <c r="A503" s="2">
         <v>43965</v>
       </c>
-      <c r="B503" s="4">
+      <c r="B503" s="3">
         <v>28716.52</v>
       </c>
-      <c r="C503" s="4">
+      <c r="C503" s="3">
         <v>29832.51</v>
       </c>
     </row>
     <row r="504" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A504" s="3">
+      <c r="A504" s="2">
         <v>43966</v>
       </c>
-      <c r="B504" s="4">
+      <c r="B504" s="3">
         <v>28716.52</v>
       </c>
-      <c r="C504" s="4">
+      <c r="C504" s="3">
         <v>29834.93</v>
       </c>
     </row>
     <row r="505" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A505" s="3">
+      <c r="A505" s="2">
         <v>43967</v>
       </c>
-      <c r="B505" s="4">
+      <c r="B505" s="3">
         <v>28716.52</v>
       </c>
-      <c r="C505" s="4">
+      <c r="C505" s="3">
         <v>29837.35</v>
       </c>
     </row>
     <row r="506" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A506" s="3">
+      <c r="A506" s="2">
         <v>43968</v>
       </c>
-      <c r="B506" s="4">
+      <c r="B506" s="3">
         <v>28716.52</v>
       </c>
-      <c r="C506" s="4">
+      <c r="C506" s="3">
         <v>29839.77</v>
       </c>
     </row>
     <row r="507" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A507" s="3">
+      <c r="A507" s="2">
         <v>43969</v>
       </c>
-      <c r="B507" s="4">
+      <c r="B507" s="3">
         <v>28716.52</v>
       </c>
-      <c r="C507" s="4">
+      <c r="C507" s="3">
         <v>29842.19</v>
       </c>
     </row>
     <row r="508" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A508" s="3">
+      <c r="A508" s="2">
         <v>43970</v>
       </c>
-      <c r="B508" s="4">
+      <c r="B508" s="3">
         <v>28716.52</v>
       </c>
-      <c r="C508" s="4">
+      <c r="C508" s="3">
         <v>29844.62</v>
       </c>
     </row>
     <row r="509" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A509" s="3">
+      <c r="A509" s="2">
         <v>43971</v>
       </c>
-      <c r="B509" s="4">
+      <c r="B509" s="3">
         <v>28716.52</v>
       </c>
-      <c r="C509" s="4">
+      <c r="C509" s="3">
         <v>29847.040000000001</v>
       </c>
     </row>
     <row r="510" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A510" s="3">
+      <c r="A510" s="2">
         <v>43972</v>
       </c>
-      <c r="B510" s="4">
+      <c r="B510" s="3">
         <v>28716.52</v>
       </c>
-      <c r="C510" s="4">
+      <c r="C510" s="3">
         <v>29849.46</v>
       </c>
     </row>
     <row r="511" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A511" s="3">
+      <c r="A511" s="2">
         <v>43973</v>
       </c>
-      <c r="B511" s="4">
+      <c r="B511" s="3">
         <v>28716.52</v>
       </c>
-      <c r="C511" s="4">
+      <c r="C511" s="3">
         <v>29851.89</v>
       </c>
     </row>
     <row r="512" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A512" s="3">
+      <c r="A512" s="2">
         <v>43974</v>
       </c>
-      <c r="B512" s="4">
+      <c r="B512" s="3">
         <v>28716.52</v>
       </c>
-      <c r="C512" s="4">
+      <c r="C512" s="3">
         <v>29854.31</v>
       </c>
     </row>
     <row r="513" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A513" s="3">
+      <c r="A513" s="2">
         <v>43975</v>
       </c>
-      <c r="B513" s="4">
+      <c r="B513" s="3">
         <v>28716.52</v>
       </c>
-      <c r="C513" s="4">
+      <c r="C513" s="3">
         <v>29856.73</v>
       </c>
     </row>
     <row r="514" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A514" s="3">
+      <c r="A514" s="2">
         <v>43976</v>
       </c>
-      <c r="B514" s="4">
+      <c r="B514" s="3">
         <v>28716.52</v>
       </c>
-      <c r="C514" s="4">
+      <c r="C514" s="3">
         <v>29859.16</v>
       </c>
     </row>
     <row r="515" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A515" s="3">
+      <c r="A515" s="2">
         <v>43977</v>
       </c>
-      <c r="B515" s="4">
+      <c r="B515" s="3">
         <v>28716.52</v>
       </c>
-      <c r="C515" s="4">
+      <c r="C515" s="3">
         <v>29861.58</v>
       </c>
     </row>
     <row r="516" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A516" s="3">
+      <c r="A516" s="2">
         <v>43978</v>
       </c>
-      <c r="B516" s="4">
+      <c r="B516" s="3">
         <v>28716.52</v>
       </c>
-      <c r="C516" s="4">
+      <c r="C516" s="3">
         <v>29864</v>
       </c>
     </row>
     <row r="517" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A517" s="3">
+      <c r="A517" s="2">
         <v>43979</v>
       </c>
-      <c r="B517" s="4">
+      <c r="B517" s="3">
         <v>28716.52</v>
       </c>
-      <c r="C517" s="4">
+      <c r="C517" s="3">
         <v>29866.43</v>
       </c>
     </row>
     <row r="518" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A518" s="3">
+      <c r="A518" s="2">
         <v>43980</v>
       </c>
-      <c r="B518" s="4">
+      <c r="B518" s="3">
         <v>28716.52</v>
       </c>
-      <c r="C518" s="4">
+      <c r="C518" s="3">
         <v>29868.85</v>
       </c>
     </row>
     <row r="519" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A519" s="3">
+      <c r="A519" s="2">
         <v>43981</v>
       </c>
-      <c r="B519" s="4">
+      <c r="B519" s="3">
         <v>28716.52</v>
       </c>
-      <c r="C519" s="4">
+      <c r="C519" s="3">
         <v>29871.279999999999</v>
       </c>
     </row>
     <row r="520" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A520" s="3">
+      <c r="A520" s="2">
         <v>43982</v>
       </c>
-      <c r="B520" s="4">
+      <c r="B520" s="3">
         <v>28716.52</v>
       </c>
-      <c r="C520" s="4">
+      <c r="C520" s="3">
         <v>29873.7</v>
       </c>
     </row>
     <row r="521" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A521" s="3">
+      <c r="A521" s="2">
         <v>43983</v>
       </c>
-      <c r="B521" s="4">
+      <c r="B521" s="3">
         <v>28716.52</v>
       </c>
-      <c r="C521" s="4">
+      <c r="C521" s="3">
         <v>29876.13</v>
       </c>
     </row>
     <row r="522" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A522" s="3">
+      <c r="A522" s="2">
         <v>43984</v>
       </c>
-      <c r="B522" s="4">
+      <c r="B522" s="3">
         <v>28716.52</v>
       </c>
-      <c r="C522" s="4">
+      <c r="C522" s="3">
         <v>29878.55</v>
       </c>
     </row>
     <row r="523" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A523" s="3">
+      <c r="A523" s="2">
         <v>43985</v>
       </c>
-      <c r="B523" s="4">
+      <c r="B523" s="3">
         <v>28716.52</v>
       </c>
-      <c r="C523" s="4">
+      <c r="C523" s="3">
         <v>29880.98</v>
       </c>
     </row>
     <row r="524" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A524" s="3">
+      <c r="A524" s="2">
         <v>43986</v>
       </c>
-      <c r="B524" s="4">
+      <c r="B524" s="3">
         <v>28716.52</v>
       </c>
-      <c r="C524" s="4">
+      <c r="C524" s="3">
         <v>29883.4</v>
       </c>
     </row>
     <row r="525" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A525" s="3">
+      <c r="A525" s="2">
         <v>43987</v>
       </c>
-      <c r="B525" s="4">
+      <c r="B525" s="3">
         <v>28716.52</v>
       </c>
-      <c r="C525" s="4">
+      <c r="C525" s="3">
         <v>29885.83</v>
       </c>
     </row>
     <row r="526" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A526" s="3">
+      <c r="A526" s="2">
         <v>43988</v>
       </c>
-      <c r="B526" s="4">
+      <c r="B526" s="3">
         <v>28716.52</v>
       </c>
-      <c r="C526" s="4">
+      <c r="C526" s="3">
         <v>29888.26</v>
       </c>
     </row>
     <row r="527" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A527" s="3">
+      <c r="A527" s="2">
         <v>43989</v>
       </c>
-      <c r="B527" s="4">
+      <c r="B527" s="3">
         <v>28716.52</v>
       </c>
-      <c r="C527" s="4">
+      <c r="C527" s="3">
         <v>29890.68</v>
       </c>
     </row>
     <row r="528" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A528" s="3">
+      <c r="A528" s="2">
         <v>43990</v>
       </c>
-      <c r="B528" s="4">
+      <c r="B528" s="3">
         <v>28716.52</v>
       </c>
-      <c r="C528" s="4">
+      <c r="C528" s="3">
         <v>29893.11</v>
       </c>
     </row>
     <row r="529" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A529" s="3">
+      <c r="A529" s="2">
         <v>43991</v>
       </c>
-      <c r="B529" s="4">
+      <c r="B529" s="3">
         <v>28716.52</v>
       </c>
-      <c r="C529" s="4">
+      <c r="C529" s="3">
         <v>29895.54</v>
       </c>
     </row>
     <row r="530" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A530" s="3">
+      <c r="A530" s="2">
         <v>43992</v>
       </c>
-      <c r="B530" s="4">
+      <c r="B530" s="3">
         <v>28715.56</v>
       </c>
-      <c r="C530" s="4">
+      <c r="C530" s="3">
         <v>29897.75</v>
       </c>
     </row>
     <row r="531" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A531" s="3">
+      <c r="A531" s="2">
         <v>43993</v>
       </c>
-      <c r="B531" s="4">
+      <c r="B531" s="3">
         <v>28714.6</v>
       </c>
-      <c r="C531" s="4">
+      <c r="C531" s="3">
         <v>29899.96</v>
       </c>
     </row>
     <row r="532" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A532" s="3">
+      <c r="A532" s="2">
         <v>43994</v>
       </c>
-      <c r="B532" s="4">
+      <c r="B532" s="3">
         <v>28713.65</v>
       </c>
-      <c r="C532" s="4">
+      <c r="C532" s="3">
         <v>29902.17</v>
       </c>
     </row>
     <row r="533" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A533" s="3">
+      <c r="A533" s="2">
         <v>43995</v>
       </c>
-      <c r="B533" s="4">
+      <c r="B533" s="3">
         <v>28712.69</v>
       </c>
-      <c r="C533" s="4">
+      <c r="C533" s="3">
         <v>29904.38</v>
       </c>
     </row>
     <row r="534" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A534" s="3">
+      <c r="A534" s="2">
         <v>43996</v>
       </c>
-      <c r="B534" s="4">
+      <c r="B534" s="3">
         <v>28711.73</v>
       </c>
-      <c r="C534" s="4">
+      <c r="C534" s="3">
         <v>29906.59</v>
       </c>
     </row>
     <row r="535" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A535" s="3">
+      <c r="A535" s="2">
         <v>43997</v>
       </c>
-      <c r="B535" s="4">
+      <c r="B535" s="3">
         <v>28710.77</v>
       </c>
-      <c r="C535" s="4">
+      <c r="C535" s="3">
         <v>29908.799999999999</v>
       </c>
     </row>
     <row r="536" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A536" s="3">
+      <c r="A536" s="2">
         <v>43998</v>
       </c>
-      <c r="B536" s="4">
+      <c r="B536" s="3">
         <v>28709.82</v>
       </c>
-      <c r="C536" s="4">
+      <c r="C536" s="3">
         <v>29911.01</v>
       </c>
     </row>
     <row r="537" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A537" s="3">
+      <c r="A537" s="2">
         <v>43999</v>
       </c>
-      <c r="B537" s="4">
+      <c r="B537" s="3">
         <v>28708.86</v>
       </c>
-      <c r="C537" s="4">
+      <c r="C537" s="3">
         <v>29913.22</v>
       </c>
     </row>
     <row r="538" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A538" s="3">
+      <c r="A538" s="2">
         <v>44000</v>
       </c>
-      <c r="B538" s="4">
+      <c r="B538" s="3">
         <v>28707.9</v>
       </c>
-      <c r="C538" s="4">
+      <c r="C538" s="3">
         <v>29915.43</v>
       </c>
     </row>
     <row r="539" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A539" s="3">
+      <c r="A539" s="2">
         <v>44001</v>
       </c>
-      <c r="B539" s="4">
+      <c r="B539" s="3">
         <v>28706.94</v>
       </c>
-      <c r="C539" s="4">
+      <c r="C539" s="3">
         <v>29917.64</v>
       </c>
     </row>
     <row r="540" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A540" s="3">
+      <c r="A540" s="2">
         <v>44002</v>
       </c>
-      <c r="B540" s="4">
+      <c r="B540" s="3">
         <v>28705.99</v>
       </c>
-      <c r="C540" s="4">
+      <c r="C540" s="3">
         <v>29919.85</v>
       </c>
     </row>
     <row r="541" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A541" s="3">
+      <c r="A541" s="2">
         <v>44003</v>
       </c>
-      <c r="B541" s="4">
+      <c r="B541" s="3">
         <v>28705.03</v>
       </c>
-      <c r="C541" s="4">
+      <c r="C541" s="3">
         <v>29922.07</v>
       </c>
     </row>
     <row r="542" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A542" s="3">
+      <c r="A542" s="2">
         <v>44004</v>
       </c>
-      <c r="B542" s="4">
+      <c r="B542" s="3">
         <v>28704.07</v>
       </c>
-      <c r="C542" s="4">
+      <c r="C542" s="3">
         <v>29924.28</v>
       </c>
     </row>
     <row r="543" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A543" s="3">
+      <c r="A543" s="2">
         <v>44005</v>
       </c>
-      <c r="B543" s="4">
+      <c r="B543" s="3">
         <v>28703.119999999999</v>
       </c>
-      <c r="C543" s="4">
+      <c r="C543" s="3">
         <v>29926.49</v>
       </c>
     </row>
     <row r="544" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A544" s="3">
+      <c r="A544" s="2">
         <v>44006</v>
       </c>
-      <c r="B544" s="4">
+      <c r="B544" s="3">
         <v>28702.16</v>
       </c>
-      <c r="C544" s="4">
+      <c r="C544" s="3">
         <v>29928.7</v>
       </c>
     </row>
     <row r="545" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A545" s="3">
+      <c r="A545" s="2">
         <v>44007</v>
       </c>
-      <c r="B545" s="4">
+      <c r="B545" s="3">
         <v>28701.200000000001</v>
       </c>
-      <c r="C545" s="4">
+      <c r="C545" s="3">
         <v>29930.91</v>
       </c>
     </row>
     <row r="546" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A546" s="3">
+      <c r="A546" s="2">
         <v>44008</v>
       </c>
-      <c r="B546" s="4">
+      <c r="B546" s="3">
         <v>28700.240000000002</v>
       </c>
-      <c r="C546" s="4">
+      <c r="C546" s="3">
         <v>29933.119999999999</v>
       </c>
     </row>
     <row r="547" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A547" s="3">
+      <c r="A547" s="2">
         <v>44009</v>
       </c>
-      <c r="B547" s="4">
+      <c r="B547" s="3">
         <v>28699.29</v>
       </c>
-      <c r="C547" s="4">
+      <c r="C547" s="3">
         <v>29935.34</v>
       </c>
     </row>
     <row r="548" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A548" s="3">
+      <c r="A548" s="2">
         <v>44010</v>
       </c>
-      <c r="B548" s="4">
+      <c r="B548" s="3">
         <v>28698.33</v>
       </c>
-      <c r="C548" s="4">
+      <c r="C548" s="3">
         <v>29937.55</v>
       </c>
     </row>
     <row r="549" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A549" s="3">
+      <c r="A549" s="2">
         <v>44011</v>
       </c>
-      <c r="B549" s="4">
+      <c r="B549" s="3">
         <v>28697.37</v>
       </c>
-      <c r="C549" s="4">
+      <c r="C549" s="3">
         <v>29939.759999999998</v>
       </c>
     </row>
     <row r="550" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A550" s="3">
+      <c r="A550" s="2">
         <v>44012</v>
       </c>
-      <c r="B550" s="4">
+      <c r="B550" s="3">
         <v>28696.42</v>
       </c>
-      <c r="C550" s="4">
+      <c r="C550" s="3">
         <v>29941.97</v>
       </c>
     </row>
     <row r="551" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A551" s="3">
+      <c r="A551" s="2">
         <v>44013</v>
       </c>
-      <c r="B551" s="4">
+      <c r="B551" s="3">
         <v>28695.46</v>
       </c>
-      <c r="C551" s="4">
+      <c r="C551" s="3">
         <v>29944.19</v>
       </c>
     </row>
     <row r="552" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A552" s="3">
+      <c r="A552" s="2">
         <v>44014</v>
       </c>
-      <c r="B552" s="4">
+      <c r="B552" s="3">
         <v>28694.5</v>
       </c>
-      <c r="C552" s="4">
+      <c r="C552" s="3">
         <v>29946.400000000001</v>
       </c>
     </row>
     <row r="553" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A553" s="3">
+      <c r="A553" s="2">
         <v>44015</v>
       </c>
-      <c r="B553" s="4">
+      <c r="B553" s="3">
         <v>28693.54</v>
       </c>
-      <c r="C553" s="4">
+      <c r="C553" s="3">
         <v>29948.61</v>
       </c>
     </row>
     <row r="554" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A554" s="3">
+      <c r="A554" s="2">
         <v>44016</v>
       </c>
-      <c r="B554" s="4">
+      <c r="B554" s="3">
         <v>28692.59</v>
       </c>
-      <c r="C554" s="4">
+      <c r="C554" s="3">
         <v>29950.83</v>
       </c>
     </row>
     <row r="555" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A555" s="3">
+      <c r="A555" s="2">
         <v>44017</v>
       </c>
-      <c r="B555" s="4">
+      <c r="B555" s="3">
         <v>28691.63</v>
       </c>
-      <c r="C555" s="4">
+      <c r="C555" s="3">
         <v>29953.040000000001</v>
       </c>
     </row>
     <row r="556" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A556" s="3">
+      <c r="A556" s="2">
         <v>44018</v>
       </c>
-      <c r="B556" s="4">
+      <c r="B556" s="3">
         <v>28690.67</v>
       </c>
-      <c r="C556" s="4">
+      <c r="C556" s="3">
         <v>29955.25</v>
       </c>
     </row>
     <row r="557" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A557" s="3">
+      <c r="A557" s="2">
         <v>44019</v>
       </c>
-      <c r="B557" s="4">
+      <c r="B557" s="3">
         <v>28689.72</v>
       </c>
-      <c r="C557" s="4">
+      <c r="C557" s="3">
         <v>29957.47</v>
       </c>
     </row>
     <row r="558" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A558" s="3">
+      <c r="A558" s="2">
         <v>44020</v>
       </c>
-      <c r="B558" s="4">
+      <c r="B558" s="3">
         <v>28688.76</v>
       </c>
-      <c r="C558" s="4">
+      <c r="C558" s="3">
         <v>29959.68</v>
       </c>
     </row>
     <row r="559" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A559" s="3">
+      <c r="A559" s="2">
         <v>44021</v>
       </c>
-      <c r="B559" s="4">
+      <c r="B559" s="3">
         <v>28687.8</v>
       </c>
-      <c r="C559" s="4">
+      <c r="C559" s="3">
         <v>29961.9</v>
       </c>
     </row>

--- a/datacovidChile/IndicadoresEconomicos/UF_IVP_DIARIO.xlsx
+++ b/datacovidChile/IndicadoresEconomicos/UF_IVP_DIARIO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/944d5b9328a00097/Proyectos/Data intelligence/Covid-19/Chile/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{09248BB8-9CE4-4580-84DA-AF69B8E47965}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{CC29AD69-9A70-479C-BCE2-6DA18D374897}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{09248BB8-9CE4-4580-84DA-AF69B8E47965}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{F46F7039-78A3-4C81-B822-A1234E070726}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -927,7 +927,7 @@
   <dimension ref="A1:C559"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A541" workbookViewId="0">
-      <selection activeCell="C551" sqref="C551"/>
+      <selection activeCell="C562" sqref="C562"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/datacovidChile/IndicadoresEconomicos/UF_IVP_DIARIO.xlsx
+++ b/datacovidChile/IndicadoresEconomicos/UF_IVP_DIARIO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/944d5b9328a00097/Proyectos/Data intelligence/Covid-19/Chile/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{09248BB8-9CE4-4580-84DA-AF69B8E47965}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{F46F7039-78A3-4C81-B822-A1234E070726}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="8_{09248BB8-9CE4-4580-84DA-AF69B8E47965}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{C41804D4-D0D4-46FC-9B92-FFD32409C696}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -927,7 +927,7 @@
   <dimension ref="A1:C559"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A541" workbookViewId="0">
-      <selection activeCell="C562" sqref="C562"/>
+      <selection activeCell="B561" sqref="B561"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/datacovidChile/IndicadoresEconomicos/UF_IVP_DIARIO.xlsx
+++ b/datacovidChile/IndicadoresEconomicos/UF_IVP_DIARIO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/944d5b9328a00097/Proyectos/Data intelligence/Covid-19/Chile/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="8_{09248BB8-9CE4-4580-84DA-AF69B8E47965}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{C41804D4-D0D4-46FC-9B92-FFD32409C696}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="8_{09248BB8-9CE4-4580-84DA-AF69B8E47965}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{18ED6A98-6AEB-415C-A323-D8553E134F86}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="UF_IVP_DIARIO" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="UF_IVP_DIARIO" localSheetId="0">UF_IVP_DIARIO!$A$1:$C$559</definedName>
+    <definedName name="UF_IVP_DIARIO" localSheetId="0">UF_IVP_DIARIO!$A$1:$C$590</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -924,10 +924,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C559"/>
+  <dimension ref="A1:C590"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A541" workbookViewId="0">
-      <selection activeCell="B561" sqref="B561"/>
+    <sheetView tabSelected="1" topLeftCell="A580" workbookViewId="0">
+      <selection activeCell="C595" sqref="C595"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7080,6 +7080,347 @@
         <v>29961.9</v>
       </c>
     </row>
+    <row r="560" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A560" s="2">
+        <v>44022</v>
+      </c>
+      <c r="B560" s="3">
+        <v>28686.87</v>
+      </c>
+      <c r="C560" s="3">
+        <v>29963.84</v>
+      </c>
+    </row>
+    <row r="561" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A561" s="2">
+        <v>44023</v>
+      </c>
+      <c r="B561" s="3">
+        <v>28685.95</v>
+      </c>
+      <c r="C561" s="3">
+        <v>29965.78</v>
+      </c>
+    </row>
+    <row r="562" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A562" s="2">
+        <v>44024</v>
+      </c>
+      <c r="B562" s="3">
+        <v>28685.02</v>
+      </c>
+      <c r="C562" s="3">
+        <v>29967.73</v>
+      </c>
+    </row>
+    <row r="563" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A563" s="2">
+        <v>44025</v>
+      </c>
+      <c r="B563" s="3">
+        <v>28684.1</v>
+      </c>
+      <c r="C563" s="3">
+        <v>29969.67</v>
+      </c>
+    </row>
+    <row r="564" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A564" s="2">
+        <v>44026</v>
+      </c>
+      <c r="B564" s="3">
+        <v>28683.17</v>
+      </c>
+      <c r="C564" s="3">
+        <v>29971.61</v>
+      </c>
+    </row>
+    <row r="565" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A565" s="2">
+        <v>44027</v>
+      </c>
+      <c r="B565" s="3">
+        <v>28682.25</v>
+      </c>
+      <c r="C565" s="3">
+        <v>29973.55</v>
+      </c>
+    </row>
+    <row r="566" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A566" s="2">
+        <v>44028</v>
+      </c>
+      <c r="B566" s="3">
+        <v>28681.32</v>
+      </c>
+      <c r="C566" s="3">
+        <v>29975.5</v>
+      </c>
+    </row>
+    <row r="567" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A567" s="2">
+        <v>44029</v>
+      </c>
+      <c r="B567" s="3">
+        <v>28680.39</v>
+      </c>
+      <c r="C567" s="3">
+        <v>29977.439999999999</v>
+      </c>
+    </row>
+    <row r="568" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A568" s="2">
+        <v>44030</v>
+      </c>
+      <c r="B568" s="3">
+        <v>28679.47</v>
+      </c>
+      <c r="C568" s="3">
+        <v>29979.38</v>
+      </c>
+    </row>
+    <row r="569" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A569" s="2">
+        <v>44031</v>
+      </c>
+      <c r="B569" s="3">
+        <v>28678.54</v>
+      </c>
+      <c r="C569" s="3">
+        <v>29981.33</v>
+      </c>
+    </row>
+    <row r="570" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A570" s="2">
+        <v>44032</v>
+      </c>
+      <c r="B570" s="3">
+        <v>28677.62</v>
+      </c>
+      <c r="C570" s="3">
+        <v>29983.27</v>
+      </c>
+    </row>
+    <row r="571" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A571" s="2">
+        <v>44033</v>
+      </c>
+      <c r="B571" s="3">
+        <v>28676.69</v>
+      </c>
+      <c r="C571" s="3">
+        <v>29985.21</v>
+      </c>
+    </row>
+    <row r="572" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A572" s="2">
+        <v>44034</v>
+      </c>
+      <c r="B572" s="3">
+        <v>28675.77</v>
+      </c>
+      <c r="C572" s="3">
+        <v>29987.16</v>
+      </c>
+    </row>
+    <row r="573" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A573" s="2">
+        <v>44035</v>
+      </c>
+      <c r="B573" s="3">
+        <v>28674.84</v>
+      </c>
+      <c r="C573" s="3">
+        <v>29989.1</v>
+      </c>
+    </row>
+    <row r="574" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A574" s="2">
+        <v>44036</v>
+      </c>
+      <c r="B574" s="3">
+        <v>28673.919999999998</v>
+      </c>
+      <c r="C574" s="3">
+        <v>29991.040000000001</v>
+      </c>
+    </row>
+    <row r="575" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A575" s="2">
+        <v>44037</v>
+      </c>
+      <c r="B575" s="3">
+        <v>28672.99</v>
+      </c>
+      <c r="C575" s="3">
+        <v>29992.99</v>
+      </c>
+    </row>
+    <row r="576" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A576" s="2">
+        <v>44038</v>
+      </c>
+      <c r="B576" s="3">
+        <v>28672.06</v>
+      </c>
+      <c r="C576" s="3">
+        <v>29994.93</v>
+      </c>
+    </row>
+    <row r="577" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A577" s="2">
+        <v>44039</v>
+      </c>
+      <c r="B577" s="3">
+        <v>28671.14</v>
+      </c>
+      <c r="C577" s="3">
+        <v>29996.87</v>
+      </c>
+    </row>
+    <row r="578" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A578" s="2">
+        <v>44040</v>
+      </c>
+      <c r="B578" s="3">
+        <v>28670.21</v>
+      </c>
+      <c r="C578" s="3">
+        <v>29998.82</v>
+      </c>
+    </row>
+    <row r="579" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A579" s="2">
+        <v>44041</v>
+      </c>
+      <c r="B579" s="3">
+        <v>28669.29</v>
+      </c>
+      <c r="C579" s="3">
+        <v>30000.76</v>
+      </c>
+    </row>
+    <row r="580" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A580" s="2">
+        <v>44042</v>
+      </c>
+      <c r="B580" s="3">
+        <v>28668.36</v>
+      </c>
+      <c r="C580" s="3">
+        <v>30002.71</v>
+      </c>
+    </row>
+    <row r="581" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A581" s="2">
+        <v>44043</v>
+      </c>
+      <c r="B581" s="3">
+        <v>28667.439999999999</v>
+      </c>
+      <c r="C581" s="3">
+        <v>30004.65</v>
+      </c>
+    </row>
+    <row r="582" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A582" s="2">
+        <v>44044</v>
+      </c>
+      <c r="B582" s="3">
+        <v>28666.51</v>
+      </c>
+      <c r="C582" s="3">
+        <v>30006.6</v>
+      </c>
+    </row>
+    <row r="583" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A583" s="2">
+        <v>44045</v>
+      </c>
+      <c r="B583" s="3">
+        <v>28665.59</v>
+      </c>
+      <c r="C583" s="3">
+        <v>30008.54</v>
+      </c>
+    </row>
+    <row r="584" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A584" s="2">
+        <v>44046</v>
+      </c>
+      <c r="B584" s="3">
+        <v>28664.66</v>
+      </c>
+      <c r="C584" s="3">
+        <v>30010.49</v>
+      </c>
+    </row>
+    <row r="585" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A585" s="2">
+        <v>44047</v>
+      </c>
+      <c r="B585" s="3">
+        <v>28663.74</v>
+      </c>
+      <c r="C585" s="3">
+        <v>30012.43</v>
+      </c>
+    </row>
+    <row r="586" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A586" s="2">
+        <v>44048</v>
+      </c>
+      <c r="B586" s="3">
+        <v>28662.81</v>
+      </c>
+      <c r="C586" s="3">
+        <v>30014.38</v>
+      </c>
+    </row>
+    <row r="587" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A587" s="2">
+        <v>44049</v>
+      </c>
+      <c r="B587" s="3">
+        <v>28661.89</v>
+      </c>
+      <c r="C587" s="3">
+        <v>30016.32</v>
+      </c>
+    </row>
+    <row r="588" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A588" s="2">
+        <v>44050</v>
+      </c>
+      <c r="B588" s="3">
+        <v>28660.959999999999</v>
+      </c>
+      <c r="C588" s="3">
+        <v>30018.27</v>
+      </c>
+    </row>
+    <row r="589" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A589" s="2">
+        <v>44051</v>
+      </c>
+      <c r="B589" s="3">
+        <v>28660.04</v>
+      </c>
+      <c r="C589" s="3">
+        <v>30020.21</v>
+      </c>
+    </row>
+    <row r="590" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A590" s="2">
+        <v>44052</v>
+      </c>
+      <c r="B590" s="3">
+        <v>28659.11</v>
+      </c>
+      <c r="C590" s="3">
+        <v>30022.16</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:C1"/>

--- a/datacovidChile/IndicadoresEconomicos/UF_IVP_DIARIO.xlsx
+++ b/datacovidChile/IndicadoresEconomicos/UF_IVP_DIARIO.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/944d5b9328a00097/Proyectos/Data intelligence/Covid-19/Chile/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\reyes.rodriguezucv@gmail.com\OneDrive\Proyectos\Data intelligence\Covid-19\Chile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="8_{09248BB8-9CE4-4580-84DA-AF69B8E47965}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{18ED6A98-6AEB-415C-A323-D8553E134F86}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="8_{09248BB8-9CE4-4580-84DA-AF69B8E47965}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{F53AC9C3-42ED-456B-95BF-CEEAF87B0176}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -927,7 +927,7 @@
   <dimension ref="A1:C590"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A580" workbookViewId="0">
-      <selection activeCell="C595" sqref="C595"/>
+      <selection activeCell="C593" sqref="C593"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/datacovidChile/IndicadoresEconomicos/UF_IVP_DIARIO.xlsx
+++ b/datacovidChile/IndicadoresEconomicos/UF_IVP_DIARIO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\reyes.rodriguezucv@gmail.com\OneDrive\Proyectos\Data intelligence\Covid-19\Chile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="8_{09248BB8-9CE4-4580-84DA-AF69B8E47965}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{F53AC9C3-42ED-456B-95BF-CEEAF87B0176}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="8_{09248BB8-9CE4-4580-84DA-AF69B8E47965}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{73769280-867A-4AE6-87D1-83D5A12959ED}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="UF_IVP_DIARIO" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="UF_IVP_DIARIO" localSheetId="0">UF_IVP_DIARIO!$A$1:$C$590</definedName>
+    <definedName name="UF_IVP_DIARIO" localSheetId="0">UF_IVP_DIARIO!$A$1:$C$621</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -924,10 +924,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C590"/>
+  <dimension ref="A1:C621"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A580" workbookViewId="0">
-      <selection activeCell="C593" sqref="C593"/>
+    <sheetView tabSelected="1" topLeftCell="A616" workbookViewId="0">
+      <selection activeCell="C625" sqref="C625"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7421,6 +7421,347 @@
         <v>30022.16</v>
       </c>
     </row>
+    <row r="591" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A591" s="2">
+        <v>44053</v>
+      </c>
+      <c r="B591" s="3">
+        <v>28660.03</v>
+      </c>
+      <c r="C591" s="3">
+        <v>30023.22</v>
+      </c>
+    </row>
+    <row r="592" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A592" s="2">
+        <v>44054</v>
+      </c>
+      <c r="B592" s="3">
+        <v>28660.959999999999</v>
+      </c>
+      <c r="C592" s="3">
+        <v>30024.27</v>
+      </c>
+    </row>
+    <row r="593" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A593" s="2">
+        <v>44055</v>
+      </c>
+      <c r="B593" s="3">
+        <v>28661.88</v>
+      </c>
+      <c r="C593" s="3">
+        <v>30025.33</v>
+      </c>
+    </row>
+    <row r="594" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A594" s="2">
+        <v>44056</v>
+      </c>
+      <c r="B594" s="3">
+        <v>28662.81</v>
+      </c>
+      <c r="C594" s="3">
+        <v>30026.38</v>
+      </c>
+    </row>
+    <row r="595" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A595" s="2">
+        <v>44057</v>
+      </c>
+      <c r="B595" s="3">
+        <v>28663.73</v>
+      </c>
+      <c r="C595" s="3">
+        <v>30027.439999999999</v>
+      </c>
+    </row>
+    <row r="596" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A596" s="2">
+        <v>44058</v>
+      </c>
+      <c r="B596" s="3">
+        <v>28664.65</v>
+      </c>
+      <c r="C596" s="3">
+        <v>30028.5</v>
+      </c>
+    </row>
+    <row r="597" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A597" s="2">
+        <v>44059</v>
+      </c>
+      <c r="B597" s="3">
+        <v>28665.58</v>
+      </c>
+      <c r="C597" s="3">
+        <v>30029.55</v>
+      </c>
+    </row>
+    <row r="598" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A598" s="2">
+        <v>44060</v>
+      </c>
+      <c r="B598" s="3">
+        <v>28666.5</v>
+      </c>
+      <c r="C598" s="3">
+        <v>30030.61</v>
+      </c>
+    </row>
+    <row r="599" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A599" s="2">
+        <v>44061</v>
+      </c>
+      <c r="B599" s="3">
+        <v>28667.43</v>
+      </c>
+      <c r="C599" s="3">
+        <v>30031.67</v>
+      </c>
+    </row>
+    <row r="600" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A600" s="2">
+        <v>44062</v>
+      </c>
+      <c r="B600" s="3">
+        <v>28668.35</v>
+      </c>
+      <c r="C600" s="3">
+        <v>30032.720000000001</v>
+      </c>
+    </row>
+    <row r="601" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A601" s="2">
+        <v>44063</v>
+      </c>
+      <c r="B601" s="3">
+        <v>28669.279999999999</v>
+      </c>
+      <c r="C601" s="3">
+        <v>30033.78</v>
+      </c>
+    </row>
+    <row r="602" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A602" s="2">
+        <v>44064</v>
+      </c>
+      <c r="B602" s="3">
+        <v>28670.2</v>
+      </c>
+      <c r="C602" s="3">
+        <v>30034.84</v>
+      </c>
+    </row>
+    <row r="603" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A603" s="2">
+        <v>44065</v>
+      </c>
+      <c r="B603" s="3">
+        <v>28671.119999999999</v>
+      </c>
+      <c r="C603" s="3">
+        <v>30035.89</v>
+      </c>
+    </row>
+    <row r="604" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A604" s="2">
+        <v>44066</v>
+      </c>
+      <c r="B604" s="3">
+        <v>28672.05</v>
+      </c>
+      <c r="C604" s="3">
+        <v>30036.95</v>
+      </c>
+    </row>
+    <row r="605" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A605" s="2">
+        <v>44067</v>
+      </c>
+      <c r="B605" s="3">
+        <v>28672.97</v>
+      </c>
+      <c r="C605" s="3">
+        <v>30038.01</v>
+      </c>
+    </row>
+    <row r="606" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A606" s="2">
+        <v>44068</v>
+      </c>
+      <c r="B606" s="3">
+        <v>28673.9</v>
+      </c>
+      <c r="C606" s="3">
+        <v>30039.06</v>
+      </c>
+    </row>
+    <row r="607" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A607" s="2">
+        <v>44069</v>
+      </c>
+      <c r="B607" s="3">
+        <v>28674.82</v>
+      </c>
+      <c r="C607" s="3">
+        <v>30040.12</v>
+      </c>
+    </row>
+    <row r="608" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A608" s="2">
+        <v>44070</v>
+      </c>
+      <c r="B608" s="3">
+        <v>28675.75</v>
+      </c>
+      <c r="C608" s="3">
+        <v>30041.18</v>
+      </c>
+    </row>
+    <row r="609" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A609" s="2">
+        <v>44071</v>
+      </c>
+      <c r="B609" s="3">
+        <v>28676.67</v>
+      </c>
+      <c r="C609" s="3">
+        <v>30042.23</v>
+      </c>
+    </row>
+    <row r="610" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A610" s="2">
+        <v>44072</v>
+      </c>
+      <c r="B610" s="3">
+        <v>28677.599999999999</v>
+      </c>
+      <c r="C610" s="3">
+        <v>30043.29</v>
+      </c>
+    </row>
+    <row r="611" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A611" s="2">
+        <v>44073</v>
+      </c>
+      <c r="B611" s="3">
+        <v>28678.52</v>
+      </c>
+      <c r="C611" s="3">
+        <v>30044.35</v>
+      </c>
+    </row>
+    <row r="612" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A612" s="2">
+        <v>44074</v>
+      </c>
+      <c r="B612" s="3">
+        <v>28679.45</v>
+      </c>
+      <c r="C612" s="3">
+        <v>30045.4</v>
+      </c>
+    </row>
+    <row r="613" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A613" s="2">
+        <v>44075</v>
+      </c>
+      <c r="B613" s="3">
+        <v>28680.37</v>
+      </c>
+      <c r="C613" s="3">
+        <v>30046.46</v>
+      </c>
+    </row>
+    <row r="614" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A614" s="2">
+        <v>44076</v>
+      </c>
+      <c r="B614" s="3">
+        <v>28681.3</v>
+      </c>
+      <c r="C614" s="3">
+        <v>30047.52</v>
+      </c>
+    </row>
+    <row r="615" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A615" s="2">
+        <v>44077</v>
+      </c>
+      <c r="B615" s="3">
+        <v>28682.22</v>
+      </c>
+      <c r="C615" s="3">
+        <v>30048.57</v>
+      </c>
+    </row>
+    <row r="616" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A616" s="2">
+        <v>44078</v>
+      </c>
+      <c r="B616" s="3">
+        <v>28683.14</v>
+      </c>
+      <c r="C616" s="3">
+        <v>30049.63</v>
+      </c>
+    </row>
+    <row r="617" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A617" s="2">
+        <v>44079</v>
+      </c>
+      <c r="B617" s="3">
+        <v>28684.07</v>
+      </c>
+      <c r="C617" s="3">
+        <v>30050.69</v>
+      </c>
+    </row>
+    <row r="618" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A618" s="2">
+        <v>44080</v>
+      </c>
+      <c r="B618" s="3">
+        <v>28684.99</v>
+      </c>
+      <c r="C618" s="3">
+        <v>30051.74</v>
+      </c>
+    </row>
+    <row r="619" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A619" s="2">
+        <v>44081</v>
+      </c>
+      <c r="B619" s="3">
+        <v>28685.919999999998</v>
+      </c>
+      <c r="C619" s="3">
+        <v>30052.799999999999</v>
+      </c>
+    </row>
+    <row r="620" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A620" s="2">
+        <v>44082</v>
+      </c>
+      <c r="B620" s="3">
+        <v>28686.84</v>
+      </c>
+      <c r="C620" s="3">
+        <v>30053.86</v>
+      </c>
+    </row>
+    <row r="621" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A621" s="2">
+        <v>44083</v>
+      </c>
+      <c r="B621" s="3">
+        <v>28687.77</v>
+      </c>
+      <c r="C621" s="3">
+        <v>30054.92</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:C1"/>

--- a/datacovidChile/IndicadoresEconomicos/UF_IVP_DIARIO.xlsx
+++ b/datacovidChile/IndicadoresEconomicos/UF_IVP_DIARIO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\reyes.rodriguezucv@gmail.com\OneDrive\Proyectos\Data intelligence\Covid-19\Chile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="8_{09248BB8-9CE4-4580-84DA-AF69B8E47965}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{73769280-867A-4AE6-87D1-83D5A12959ED}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="8_{09248BB8-9CE4-4580-84DA-AF69B8E47965}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{6AC356C6-4054-44CE-8632-FADBF4E15BBB}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -927,7 +927,7 @@
   <dimension ref="A1:C621"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A616" workbookViewId="0">
-      <selection activeCell="C625" sqref="C625"/>
+      <selection activeCell="C623" sqref="C623"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/datacovidChile/IndicadoresEconomicos/UF_IVP_DIARIO.xlsx
+++ b/datacovidChile/IndicadoresEconomicos/UF_IVP_DIARIO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\reyes.rodriguezucv@gmail.com\OneDrive\Proyectos\Data intelligence\Covid-19\Chile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="8_{09248BB8-9CE4-4580-84DA-AF69B8E47965}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{6AC356C6-4054-44CE-8632-FADBF4E15BBB}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="8_{09248BB8-9CE4-4580-84DA-AF69B8E47965}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{8ADC9F4D-7B1B-4F64-B70B-C8F4A7F0BE45}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="UF_IVP_DIARIO" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="UF_IVP_DIARIO" localSheetId="0">UF_IVP_DIARIO!$A$1:$C$621</definedName>
+    <definedName name="UF_IVP_DIARIO" localSheetId="0">UF_IVP_DIARIO!$A$1:$C$651</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -924,10 +924,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C621"/>
+  <dimension ref="A1:C651"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A616" workbookViewId="0">
-      <selection activeCell="C623" sqref="C623"/>
+    <sheetView tabSelected="1" topLeftCell="A639" workbookViewId="0">
+      <selection activeCell="C669" sqref="C669"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7762,6 +7762,336 @@
         <v>30054.92</v>
       </c>
     </row>
+    <row r="622" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A622" s="2">
+        <v>44084</v>
+      </c>
+      <c r="B622" s="3">
+        <v>28688.73</v>
+      </c>
+      <c r="C622" s="3">
+        <v>30055.57</v>
+      </c>
+    </row>
+    <row r="623" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A623" s="2">
+        <v>44085</v>
+      </c>
+      <c r="B623" s="3">
+        <v>28689.68</v>
+      </c>
+      <c r="C623" s="3">
+        <v>30056.23</v>
+      </c>
+    </row>
+    <row r="624" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A624" s="2">
+        <v>44086</v>
+      </c>
+      <c r="B624" s="3">
+        <v>28690.639999999999</v>
+      </c>
+      <c r="C624" s="3">
+        <v>30056.880000000001</v>
+      </c>
+    </row>
+    <row r="625" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A625" s="2">
+        <v>44087</v>
+      </c>
+      <c r="B625" s="3">
+        <v>28691.59</v>
+      </c>
+      <c r="C625" s="3">
+        <v>30057.54</v>
+      </c>
+    </row>
+    <row r="626" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A626" s="2">
+        <v>44088</v>
+      </c>
+      <c r="B626" s="3">
+        <v>28692.55</v>
+      </c>
+      <c r="C626" s="3">
+        <v>30058.19</v>
+      </c>
+    </row>
+    <row r="627" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A627" s="2">
+        <v>44089</v>
+      </c>
+      <c r="B627" s="3">
+        <v>28693.51</v>
+      </c>
+      <c r="C627" s="3">
+        <v>30058.84</v>
+      </c>
+    </row>
+    <row r="628" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A628" s="2">
+        <v>44090</v>
+      </c>
+      <c r="B628" s="3">
+        <v>28694.46</v>
+      </c>
+      <c r="C628" s="3">
+        <v>30059.5</v>
+      </c>
+    </row>
+    <row r="629" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A629" s="2">
+        <v>44091</v>
+      </c>
+      <c r="B629" s="3">
+        <v>28695.42</v>
+      </c>
+      <c r="C629" s="3">
+        <v>30060.15</v>
+      </c>
+    </row>
+    <row r="630" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A630" s="2">
+        <v>44092</v>
+      </c>
+      <c r="B630" s="3">
+        <v>28696.37</v>
+      </c>
+      <c r="C630" s="3">
+        <v>30060.81</v>
+      </c>
+    </row>
+    <row r="631" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A631" s="2">
+        <v>44093</v>
+      </c>
+      <c r="B631" s="3">
+        <v>28697.33</v>
+      </c>
+      <c r="C631" s="3">
+        <v>30061.46</v>
+      </c>
+    </row>
+    <row r="632" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A632" s="2">
+        <v>44094</v>
+      </c>
+      <c r="B632" s="3">
+        <v>28698.29</v>
+      </c>
+      <c r="C632" s="3">
+        <v>30062.11</v>
+      </c>
+    </row>
+    <row r="633" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A633" s="2">
+        <v>44095</v>
+      </c>
+      <c r="B633" s="3">
+        <v>28699.24</v>
+      </c>
+      <c r="C633" s="3">
+        <v>30062.77</v>
+      </c>
+    </row>
+    <row r="634" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A634" s="2">
+        <v>44096</v>
+      </c>
+      <c r="B634" s="3">
+        <v>28700.2</v>
+      </c>
+      <c r="C634" s="3">
+        <v>30063.42</v>
+      </c>
+    </row>
+    <row r="635" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A635" s="2">
+        <v>44097</v>
+      </c>
+      <c r="B635" s="3">
+        <v>28701.15</v>
+      </c>
+      <c r="C635" s="3">
+        <v>30064.080000000002</v>
+      </c>
+    </row>
+    <row r="636" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A636" s="2">
+        <v>44098</v>
+      </c>
+      <c r="B636" s="3">
+        <v>28702.11</v>
+      </c>
+      <c r="C636" s="3">
+        <v>30064.73</v>
+      </c>
+    </row>
+    <row r="637" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A637" s="2">
+        <v>44099</v>
+      </c>
+      <c r="B637" s="3">
+        <v>28703.07</v>
+      </c>
+      <c r="C637" s="3">
+        <v>30065.38</v>
+      </c>
+    </row>
+    <row r="638" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A638" s="2">
+        <v>44100</v>
+      </c>
+      <c r="B638" s="3">
+        <v>28704.02</v>
+      </c>
+      <c r="C638" s="3">
+        <v>30066.04</v>
+      </c>
+    </row>
+    <row r="639" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A639" s="2">
+        <v>44101</v>
+      </c>
+      <c r="B639" s="3">
+        <v>28704.98</v>
+      </c>
+      <c r="C639" s="3">
+        <v>30066.69</v>
+      </c>
+    </row>
+    <row r="640" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A640" s="2">
+        <v>44102</v>
+      </c>
+      <c r="B640" s="3">
+        <v>28705.94</v>
+      </c>
+      <c r="C640" s="3">
+        <v>30067.35</v>
+      </c>
+    </row>
+    <row r="641" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A641" s="2">
+        <v>44103</v>
+      </c>
+      <c r="B641" s="3">
+        <v>28706.89</v>
+      </c>
+      <c r="C641" s="3">
+        <v>30068</v>
+      </c>
+    </row>
+    <row r="642" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A642" s="2">
+        <v>44104</v>
+      </c>
+      <c r="B642" s="3">
+        <v>28707.85</v>
+      </c>
+      <c r="C642" s="3">
+        <v>30068.65</v>
+      </c>
+    </row>
+    <row r="643" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A643" s="2">
+        <v>44105</v>
+      </c>
+      <c r="B643" s="3">
+        <v>28708.799999999999</v>
+      </c>
+      <c r="C643" s="3">
+        <v>30069.31</v>
+      </c>
+    </row>
+    <row r="644" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A644" s="2">
+        <v>44106</v>
+      </c>
+      <c r="B644" s="3">
+        <v>28709.759999999998</v>
+      </c>
+      <c r="C644" s="3">
+        <v>30069.96</v>
+      </c>
+    </row>
+    <row r="645" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A645" s="2">
+        <v>44107</v>
+      </c>
+      <c r="B645" s="3">
+        <v>28710.720000000001</v>
+      </c>
+      <c r="C645" s="3">
+        <v>30070.62</v>
+      </c>
+    </row>
+    <row r="646" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A646" s="2">
+        <v>44108</v>
+      </c>
+      <c r="B646" s="3">
+        <v>28711.67</v>
+      </c>
+      <c r="C646" s="3">
+        <v>30071.27</v>
+      </c>
+    </row>
+    <row r="647" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A647" s="2">
+        <v>44109</v>
+      </c>
+      <c r="B647" s="3">
+        <v>28712.63</v>
+      </c>
+      <c r="C647" s="3">
+        <v>30071.93</v>
+      </c>
+    </row>
+    <row r="648" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A648" s="2">
+        <v>44110</v>
+      </c>
+      <c r="B648" s="3">
+        <v>28713.59</v>
+      </c>
+      <c r="C648" s="3">
+        <v>30072.58</v>
+      </c>
+    </row>
+    <row r="649" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A649" s="2">
+        <v>44111</v>
+      </c>
+      <c r="B649" s="3">
+        <v>28714.54</v>
+      </c>
+      <c r="C649" s="3">
+        <v>30073.23</v>
+      </c>
+    </row>
+    <row r="650" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A650" s="2">
+        <v>44112</v>
+      </c>
+      <c r="B650" s="3">
+        <v>28715.5</v>
+      </c>
+      <c r="C650" s="3">
+        <v>30073.89</v>
+      </c>
+    </row>
+    <row r="651" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A651" s="2">
+        <v>44113</v>
+      </c>
+      <c r="B651" s="3">
+        <v>28716.46</v>
+      </c>
+      <c r="C651" s="3">
+        <v>30074.54</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:C1"/>

--- a/datacovidChile/IndicadoresEconomicos/UF_IVP_DIARIO.xlsx
+++ b/datacovidChile/IndicadoresEconomicos/UF_IVP_DIARIO.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\reyes.rodriguezucv@gmail.com\OneDrive\Proyectos\Data intelligence\Covid-19\Chile\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9f999e057ad8c646/CORONA VIRUS/DATACOVID CL/IndicadoresEconomicos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="8_{09248BB8-9CE4-4580-84DA-AF69B8E47965}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{8ADC9F4D-7B1B-4F64-B70B-C8F4A7F0BE45}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="8_{09248BB8-9CE4-4580-84DA-AF69B8E47965}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{F9A458B2-B4AB-4B05-871B-DBAE7C4E5CF4}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UF_IVP_DIARIO" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="UF_IVP_DIARIO" localSheetId="0">UF_IVP_DIARIO!$A$1:$C$651</definedName>
+    <definedName name="UF_IVP_DIARIO" localSheetId="0">UF_IVP_DIARIO!$A$1:$C$682</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -924,27 +924,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C651"/>
+  <dimension ref="A1:C682"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A639" workbookViewId="0">
-      <selection activeCell="C669" sqref="C669"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <pane xSplit="1" ySplit="3" topLeftCell="B679" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="A2" sqref="A2"/>
+      <selection pane="topRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomRight" activeCell="B685" sqref="B685"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -955,7 +959,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="4" t="s">
         <v>4</v>
@@ -964,7 +968,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>43466</v>
       </c>
@@ -975,7 +979,7 @@
         <v>28685.79</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>43467</v>
       </c>
@@ -986,7 +990,7 @@
         <v>28687.87</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>43468</v>
       </c>
@@ -997,7 +1001,7 @@
         <v>28689.96</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>43469</v>
       </c>
@@ -1008,7 +1012,7 @@
         <v>28692.04</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>43470</v>
       </c>
@@ -1019,7 +1023,7 @@
         <v>28694.13</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>43471</v>
       </c>
@@ -1030,7 +1034,7 @@
         <v>28696.22</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>43472</v>
       </c>
@@ -1041,7 +1045,7 @@
         <v>28698.3</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>43473</v>
       </c>
@@ -1052,7 +1056,7 @@
         <v>28700.39</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>43474</v>
       </c>
@@ -1063,7 +1067,7 @@
         <v>28702.47</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>43475</v>
       </c>
@@ -1074,7 +1078,7 @@
         <v>28704.23</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>43476</v>
       </c>
@@ -1085,7 +1089,7 @@
         <v>28705.99</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>43477</v>
       </c>
@@ -1096,7 +1100,7 @@
         <v>28707.75</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>43478</v>
       </c>
@@ -1107,7 +1111,7 @@
         <v>28709.51</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>43479</v>
       </c>
@@ -1118,7 +1122,7 @@
         <v>28711.27</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>43480</v>
       </c>
@@ -1129,7 +1133,7 @@
         <v>28713.03</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>43481</v>
       </c>
@@ -1140,7 +1144,7 @@
         <v>28714.79</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>43482</v>
       </c>
@@ -1151,7 +1155,7 @@
         <v>28716.55</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>43483</v>
       </c>
@@ -1162,7 +1166,7 @@
         <v>28718.31</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>43484</v>
       </c>
@@ -1173,7 +1177,7 @@
         <v>28720.07</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>43485</v>
       </c>
@@ -1184,7 +1188,7 @@
         <v>28721.83</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>43486</v>
       </c>
@@ -1195,7 +1199,7 @@
         <v>28723.599999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>43487</v>
       </c>
@@ -1206,7 +1210,7 @@
         <v>28725.360000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>43488</v>
       </c>
@@ -1217,7 +1221,7 @@
         <v>28727.119999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>43489</v>
       </c>
@@ -1228,7 +1232,7 @@
         <v>28728.880000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>43490</v>
       </c>
@@ -1239,7 +1243,7 @@
         <v>28730.639999999999</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>43491</v>
       </c>
@@ -1250,7 +1254,7 @@
         <v>28732.400000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>43492</v>
       </c>
@@ -1261,7 +1265,7 @@
         <v>28734.16</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>43493</v>
       </c>
@@ -1272,7 +1276,7 @@
         <v>28735.93</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>43494</v>
       </c>
@@ -1283,7 +1287,7 @@
         <v>28737.69</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>43495</v>
       </c>
@@ -1294,7 +1298,7 @@
         <v>28739.45</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>43496</v>
       </c>
@@ -1305,7 +1309,7 @@
         <v>28741.21</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>43497</v>
       </c>
@@ -1316,7 +1320,7 @@
         <v>28742.97</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>43498</v>
       </c>
@@ -1327,7 +1331,7 @@
         <v>28744.74</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>43499</v>
       </c>
@@ -1338,7 +1342,7 @@
         <v>28746.5</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>43500</v>
       </c>
@@ -1349,7 +1353,7 @@
         <v>28748.26</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>43501</v>
       </c>
@@ -1360,7 +1364,7 @@
         <v>28750.02</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>43502</v>
       </c>
@@ -1371,7 +1375,7 @@
         <v>28751.79</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>43503</v>
       </c>
@@ -1382,7 +1386,7 @@
         <v>28753.55</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>43504</v>
       </c>
@@ -1393,7 +1397,7 @@
         <v>28755.31</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>43505</v>
       </c>
@@ -1404,7 +1408,7 @@
         <v>28757.08</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>43506</v>
       </c>
@@ -1415,7 +1419,7 @@
         <v>28758.47</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>43507</v>
       </c>
@@ -1426,7 +1430,7 @@
         <v>28759.85</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>43508</v>
       </c>
@@ -1437,7 +1441,7 @@
         <v>28761.24</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>43509</v>
       </c>
@@ -1448,7 +1452,7 @@
         <v>28762.63</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>43510</v>
       </c>
@@ -1459,7 +1463,7 @@
         <v>28764.01</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>43511</v>
       </c>
@@ -1470,7 +1474,7 @@
         <v>28765.4</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>43512</v>
       </c>
@@ -1481,7 +1485,7 @@
         <v>28766.79</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>43513</v>
       </c>
@@ -1492,7 +1496,7 @@
         <v>28768.18</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>43514</v>
       </c>
@@ -1503,7 +1507,7 @@
         <v>28769.56</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>43515</v>
       </c>
@@ -1514,7 +1518,7 @@
         <v>28770.95</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>43516</v>
       </c>
@@ -1525,7 +1529,7 @@
         <v>28772.34</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>43517</v>
       </c>
@@ -1536,7 +1540,7 @@
         <v>28773.73</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>43518</v>
       </c>
@@ -1547,7 +1551,7 @@
         <v>28775.11</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>43519</v>
       </c>
@@ -1558,7 +1562,7 @@
         <v>28776.5</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>43520</v>
       </c>
@@ -1569,7 +1573,7 @@
         <v>28777.89</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>43521</v>
       </c>
@@ -1580,7 +1584,7 @@
         <v>28779.279999999999</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>43522</v>
       </c>
@@ -1591,7 +1595,7 @@
         <v>28780.66</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>43523</v>
       </c>
@@ -1602,7 +1606,7 @@
         <v>28782.05</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>43524</v>
       </c>
@@ -1613,7 +1617,7 @@
         <v>28783.439999999999</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>43525</v>
       </c>
@@ -1624,7 +1628,7 @@
         <v>28784.83</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>43526</v>
       </c>
@@ -1635,7 +1639,7 @@
         <v>28786.22</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>43527</v>
       </c>
@@ -1646,7 +1650,7 @@
         <v>28787.599999999999</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>43528</v>
       </c>
@@ -1657,7 +1661,7 @@
         <v>28788.99</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>43529</v>
       </c>
@@ -1668,7 +1672,7 @@
         <v>28790.38</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>43530</v>
       </c>
@@ -1679,7 +1683,7 @@
         <v>28791.77</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>43531</v>
       </c>
@@ -1690,7 +1694,7 @@
         <v>28793.16</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>43532</v>
       </c>
@@ -1701,7 +1705,7 @@
         <v>28794.55</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <v>43533</v>
       </c>
@@ -1712,7 +1716,7 @@
         <v>28795.94</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>43534</v>
       </c>
@@ -1723,7 +1727,7 @@
         <v>28797.13</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <v>43535</v>
       </c>
@@ -1734,7 +1738,7 @@
         <v>28798.32</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>43536</v>
       </c>
@@ -1745,7 +1749,7 @@
         <v>28799.51</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <v>43537</v>
       </c>
@@ -1756,7 +1760,7 @@
         <v>28800.69</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <v>43538</v>
       </c>
@@ -1767,7 +1771,7 @@
         <v>28801.88</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
         <v>43539</v>
       </c>
@@ -1778,7 +1782,7 @@
         <v>28803.07</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
         <v>43540</v>
       </c>
@@ -1789,7 +1793,7 @@
         <v>28804.26</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
         <v>43541</v>
       </c>
@@ -1800,7 +1804,7 @@
         <v>28805.45</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
         <v>43542</v>
       </c>
@@ -1811,7 +1815,7 @@
         <v>28806.639999999999</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
         <v>43543</v>
       </c>
@@ -1822,7 +1826,7 @@
         <v>28807.83</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
         <v>43544</v>
       </c>
@@ -1833,7 +1837,7 @@
         <v>28809.01</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
         <v>43545</v>
       </c>
@@ -1844,7 +1848,7 @@
         <v>28810.2</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
         <v>43546</v>
       </c>
@@ -1855,7 +1859,7 @@
         <v>28811.39</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
         <v>43547</v>
       </c>
@@ -1866,7 +1870,7 @@
         <v>28812.58</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
         <v>43548</v>
       </c>
@@ -1877,7 +1881,7 @@
         <v>28813.77</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
         <v>43549</v>
       </c>
@@ -1888,7 +1892,7 @@
         <v>28814.959999999999</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
         <v>43550</v>
       </c>
@@ -1899,7 +1903,7 @@
         <v>28816.15</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
         <v>43551</v>
       </c>
@@ -1910,7 +1914,7 @@
         <v>28817.34</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
         <v>43552</v>
       </c>
@@ -1921,7 +1925,7 @@
         <v>28818.53</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
         <v>43553</v>
       </c>
@@ -1932,7 +1936,7 @@
         <v>28819.72</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
         <v>43554</v>
       </c>
@@ -1943,7 +1947,7 @@
         <v>28820.9</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
         <v>43555</v>
       </c>
@@ -1954,7 +1958,7 @@
         <v>28822.09</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
         <v>43556</v>
       </c>
@@ -1965,7 +1969,7 @@
         <v>28823.279999999999</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
         <v>43557</v>
       </c>
@@ -1976,7 +1980,7 @@
         <v>28824.47</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
         <v>43558</v>
       </c>
@@ -1987,7 +1991,7 @@
         <v>28825.66</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
         <v>43559</v>
       </c>
@@ -1998,7 +2002,7 @@
         <v>28826.85</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
         <v>43560</v>
       </c>
@@ -2009,7 +2013,7 @@
         <v>28828.04</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
         <v>43561</v>
       </c>
@@ -2020,7 +2024,7 @@
         <v>28829.23</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="2">
         <v>43562</v>
       </c>
@@ -2031,7 +2035,7 @@
         <v>28830.42</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="2">
         <v>43563</v>
       </c>
@@ -2042,7 +2046,7 @@
         <v>28831.61</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="2">
         <v>43564</v>
       </c>
@@ -2053,7 +2057,7 @@
         <v>28832.799999999999</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
         <v>43565</v>
       </c>
@@ -2064,7 +2068,7 @@
         <v>28834.2</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="2">
         <v>43566</v>
       </c>
@@ -2075,7 +2079,7 @@
         <v>28835.599999999999</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="2">
         <v>43567</v>
       </c>
@@ -2086,7 +2090,7 @@
         <v>28837</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="2">
         <v>43568</v>
       </c>
@@ -2097,7 +2101,7 @@
         <v>28838.39</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="2">
         <v>43569</v>
       </c>
@@ -2108,7 +2112,7 @@
         <v>28839.79</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="2">
         <v>43570</v>
       </c>
@@ -2119,7 +2123,7 @@
         <v>28841.19</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="2">
         <v>43571</v>
       </c>
@@ -2130,7 +2134,7 @@
         <v>28842.59</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
         <v>43572</v>
       </c>
@@ -2141,7 +2145,7 @@
         <v>28843.99</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="2">
         <v>43573</v>
       </c>
@@ -2152,7 +2156,7 @@
         <v>28845.39</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="2">
         <v>43574</v>
       </c>
@@ -2163,7 +2167,7 @@
         <v>28846.79</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="2">
         <v>43575</v>
       </c>
@@ -2174,7 +2178,7 @@
         <v>28848.19</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="2">
         <v>43576</v>
       </c>
@@ -2185,7 +2189,7 @@
         <v>28849.59</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" s="2">
         <v>43577</v>
       </c>
@@ -2196,7 +2200,7 @@
         <v>28850.99</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="2">
         <v>43578</v>
       </c>
@@ -2207,7 +2211,7 @@
         <v>28852.38</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" s="2">
         <v>43579</v>
       </c>
@@ -2218,7 +2222,7 @@
         <v>28853.78</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" s="2">
         <v>43580</v>
       </c>
@@ -2229,7 +2233,7 @@
         <v>28855.18</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" s="2">
         <v>43581</v>
       </c>
@@ -2240,7 +2244,7 @@
         <v>28856.58</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" s="2">
         <v>43582</v>
       </c>
@@ -2251,7 +2255,7 @@
         <v>28857.98</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" s="2">
         <v>43583</v>
       </c>
@@ -2262,7 +2266,7 @@
         <v>28859.38</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" s="2">
         <v>43584</v>
       </c>
@@ -2273,7 +2277,7 @@
         <v>28860.78</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" s="2">
         <v>43585</v>
       </c>
@@ -2284,7 +2288,7 @@
         <v>28862.18</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" s="2">
         <v>43586</v>
       </c>
@@ -2295,7 +2299,7 @@
         <v>28863.58</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" s="2">
         <v>43587</v>
       </c>
@@ -2306,7 +2310,7 @@
         <v>28864.98</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" s="2">
         <v>43588</v>
       </c>
@@ -2317,7 +2321,7 @@
         <v>28866.38</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" s="2">
         <v>43589</v>
       </c>
@@ -2328,7 +2332,7 @@
         <v>28867.78</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" s="2">
         <v>43590</v>
       </c>
@@ -2339,7 +2343,7 @@
         <v>28869.18</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" s="2">
         <v>43591</v>
       </c>
@@ -2350,7 +2354,7 @@
         <v>28870.58</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" s="2">
         <v>43592</v>
       </c>
@@ -2361,7 +2365,7 @@
         <v>28871.98</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" s="2">
         <v>43593</v>
       </c>
@@ -2372,7 +2376,7 @@
         <v>28873.38</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" s="2">
         <v>43594</v>
       </c>
@@ -2383,7 +2387,7 @@
         <v>28874.78</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" s="2">
         <v>43595</v>
       </c>
@@ -2394,7 +2398,7 @@
         <v>28876.04</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" s="2">
         <v>43596</v>
       </c>
@@ -2405,7 +2409,7 @@
         <v>28877.3</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" s="2">
         <v>43597</v>
       </c>
@@ -2416,7 +2420,7 @@
         <v>28878.57</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" s="2">
         <v>43598</v>
       </c>
@@ -2427,7 +2431,7 @@
         <v>28879.83</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" s="2">
         <v>43599</v>
       </c>
@@ -2438,7 +2442,7 @@
         <v>28881.09</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" s="2">
         <v>43600</v>
       </c>
@@ -2449,7 +2453,7 @@
         <v>28882.35</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" s="2">
         <v>43601</v>
       </c>
@@ -2460,7 +2464,7 @@
         <v>28883.61</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" s="2">
         <v>43602</v>
       </c>
@@ -2471,7 +2475,7 @@
         <v>28884.880000000001</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" s="2">
         <v>43603</v>
       </c>
@@ -2482,7 +2486,7 @@
         <v>28886.14</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" s="2">
         <v>43604</v>
       </c>
@@ -2493,7 +2497,7 @@
         <v>28887.4</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" s="2">
         <v>43605</v>
       </c>
@@ -2504,7 +2508,7 @@
         <v>28888.66</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" s="2">
         <v>43606</v>
       </c>
@@ -2515,7 +2519,7 @@
         <v>28889.93</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" s="2">
         <v>43607</v>
       </c>
@@ -2526,7 +2530,7 @@
         <v>28891.19</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" s="2">
         <v>43608</v>
       </c>
@@ -2537,7 +2541,7 @@
         <v>28892.45</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" s="2">
         <v>43609</v>
       </c>
@@ -2548,7 +2552,7 @@
         <v>28893.71</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" s="2">
         <v>43610</v>
       </c>
@@ -2559,7 +2563,7 @@
         <v>28894.98</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" s="2">
         <v>43611</v>
       </c>
@@ -2570,7 +2574,7 @@
         <v>28896.240000000002</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" s="2">
         <v>43612</v>
       </c>
@@ -2581,7 +2585,7 @@
         <v>28897.5</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" s="2">
         <v>43613</v>
       </c>
@@ -2592,7 +2596,7 @@
         <v>28898.77</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" s="2">
         <v>43614</v>
       </c>
@@ -2603,7 +2607,7 @@
         <v>28900.03</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" s="2">
         <v>43615</v>
       </c>
@@ -2614,7 +2618,7 @@
         <v>28901.29</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" s="2">
         <v>43616</v>
       </c>
@@ -2625,7 +2629,7 @@
         <v>28902.55</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" s="2">
         <v>43617</v>
       </c>
@@ -2636,7 +2640,7 @@
         <v>28903.82</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" s="2">
         <v>43618</v>
       </c>
@@ -2647,7 +2651,7 @@
         <v>28905.08</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" s="2">
         <v>43619</v>
       </c>
@@ -2658,7 +2662,7 @@
         <v>28906.34</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" s="2">
         <v>43620</v>
       </c>
@@ -2669,7 +2673,7 @@
         <v>28907.61</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" s="2">
         <v>43621</v>
       </c>
@@ -2680,7 +2684,7 @@
         <v>28908.87</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" s="2">
         <v>43622</v>
       </c>
@@ -2691,7 +2695,7 @@
         <v>28910.13</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" s="2">
         <v>43623</v>
       </c>
@@ -2702,7 +2706,7 @@
         <v>28911.4</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" s="2">
         <v>43624</v>
       </c>
@@ -2713,7 +2717,7 @@
         <v>28912.66</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" s="2">
         <v>43625</v>
       </c>
@@ -2724,7 +2728,7 @@
         <v>28913.919999999998</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" s="2">
         <v>43626</v>
       </c>
@@ -2735,7 +2739,7 @@
         <v>28916.13</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" s="2">
         <v>43627</v>
       </c>
@@ -2746,7 +2750,7 @@
         <v>28918.34</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" s="2">
         <v>43628</v>
       </c>
@@ -2757,7 +2761,7 @@
         <v>28920.55</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" s="2">
         <v>43629</v>
       </c>
@@ -2768,7 +2772,7 @@
         <v>28922.75</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" s="2">
         <v>43630</v>
       </c>
@@ -2779,7 +2783,7 @@
         <v>28924.959999999999</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" s="2">
         <v>43631</v>
       </c>
@@ -2790,7 +2794,7 @@
         <v>28927.17</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" s="2">
         <v>43632</v>
       </c>
@@ -2801,7 +2805,7 @@
         <v>28929.38</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" s="2">
         <v>43633</v>
       </c>
@@ -2812,7 +2816,7 @@
         <v>28931.59</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" s="2">
         <v>43634</v>
       </c>
@@ -2823,7 +2827,7 @@
         <v>28933.8</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" s="2">
         <v>43635</v>
       </c>
@@ -2834,7 +2838,7 @@
         <v>28936.01</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" s="2">
         <v>43636</v>
       </c>
@@ -2845,7 +2849,7 @@
         <v>28938.22</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" s="2">
         <v>43637</v>
       </c>
@@ -2856,7 +2860,7 @@
         <v>28940.43</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" s="2">
         <v>43638</v>
       </c>
@@ -2867,7 +2871,7 @@
         <v>28942.639999999999</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" s="2">
         <v>43639</v>
       </c>
@@ -2878,7 +2882,7 @@
         <v>28944.85</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" s="2">
         <v>43640</v>
       </c>
@@ -2889,7 +2893,7 @@
         <v>28947.06</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" s="2">
         <v>43641</v>
       </c>
@@ -2900,7 +2904,7 @@
         <v>28949.27</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" s="2">
         <v>43642</v>
       </c>
@@ -2911,7 +2915,7 @@
         <v>28951.48</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" s="2">
         <v>43643</v>
       </c>
@@ -2922,7 +2926,7 @@
         <v>28953.69</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" s="2">
         <v>43644</v>
       </c>
@@ -2933,7 +2937,7 @@
         <v>28955.91</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" s="2">
         <v>43645</v>
       </c>
@@ -2944,7 +2948,7 @@
         <v>28958.12</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" s="2">
         <v>43646</v>
       </c>
@@ -2955,7 +2959,7 @@
         <v>28960.33</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" s="2">
         <v>43647</v>
       </c>
@@ -2966,7 +2970,7 @@
         <v>28962.54</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" s="2">
         <v>43648</v>
       </c>
@@ -2977,7 +2981,7 @@
         <v>28964.75</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" s="2">
         <v>43649</v>
       </c>
@@ -2988,7 +2992,7 @@
         <v>28966.959999999999</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" s="2">
         <v>43650</v>
       </c>
@@ -2999,7 +3003,7 @@
         <v>28969.18</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" s="2">
         <v>43651</v>
       </c>
@@ -3010,7 +3014,7 @@
         <v>28971.39</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" s="2">
         <v>43652</v>
       </c>
@@ -3021,7 +3025,7 @@
         <v>28973.599999999999</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" s="2">
         <v>43653</v>
       </c>
@@ -3032,7 +3036,7 @@
         <v>28975.81</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" s="2">
         <v>43654</v>
       </c>
@@ -3043,7 +3047,7 @@
         <v>28978.03</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" s="2">
         <v>43655</v>
       </c>
@@ -3054,7 +3058,7 @@
         <v>28980.240000000002</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" s="2">
         <v>43656</v>
       </c>
@@ -3065,7 +3069,7 @@
         <v>28982.7</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" s="2">
         <v>43657</v>
       </c>
@@ -3076,7 +3080,7 @@
         <v>28985.17</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" s="2">
         <v>43658</v>
       </c>
@@ -3087,7 +3091,7 @@
         <v>28987.63</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" s="2">
         <v>43659</v>
       </c>
@@ -3098,7 +3102,7 @@
         <v>28990.09</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" s="2">
         <v>43660</v>
       </c>
@@ -3109,7 +3113,7 @@
         <v>28992.560000000001</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" s="2">
         <v>43661</v>
       </c>
@@ -3120,7 +3124,7 @@
         <v>28995.02</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" s="2">
         <v>43662</v>
       </c>
@@ -3131,7 +3135,7 @@
         <v>28997.48</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" s="2">
         <v>43663</v>
       </c>
@@ -3142,7 +3146,7 @@
         <v>28999.95</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" s="2">
         <v>43664</v>
       </c>
@@ -3153,7 +3157,7 @@
         <v>29002.41</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" s="2">
         <v>43665</v>
       </c>
@@ -3164,7 +3168,7 @@
         <v>29004.880000000001</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" s="2">
         <v>43666</v>
       </c>
@@ -3175,7 +3179,7 @@
         <v>29007.34</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205" s="2">
         <v>43667</v>
       </c>
@@ -3186,7 +3190,7 @@
         <v>29009.81</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206" s="2">
         <v>43668</v>
       </c>
@@ -3197,7 +3201,7 @@
         <v>29012.27</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207" s="2">
         <v>43669</v>
       </c>
@@ -3208,7 +3212,7 @@
         <v>29014.74</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208" s="2">
         <v>43670</v>
       </c>
@@ -3219,7 +3223,7 @@
         <v>29017.21</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209" s="2">
         <v>43671</v>
       </c>
@@ -3230,7 +3234,7 @@
         <v>29019.67</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210" s="2">
         <v>43672</v>
       </c>
@@ -3241,7 +3245,7 @@
         <v>29022.14</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211" s="2">
         <v>43673</v>
       </c>
@@ -3252,7 +3256,7 @@
         <v>29024.6</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212" s="2">
         <v>43674</v>
       </c>
@@ -3263,7 +3267,7 @@
         <v>29027.07</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213" s="2">
         <v>43675</v>
       </c>
@@ -3274,7 +3278,7 @@
         <v>29029.54</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214" s="2">
         <v>43676</v>
       </c>
@@ -3285,7 +3289,7 @@
         <v>29032.01</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215" s="2">
         <v>43677</v>
       </c>
@@ -3296,7 +3300,7 @@
         <v>29034.47</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216" s="2">
         <v>43678</v>
       </c>
@@ -3307,7 +3311,7 @@
         <v>29036.94</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217" s="2">
         <v>43679</v>
       </c>
@@ -3318,7 +3322,7 @@
         <v>29039.41</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218" s="2">
         <v>43680</v>
       </c>
@@ -3329,7 +3333,7 @@
         <v>29041.88</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219" s="2">
         <v>43681</v>
       </c>
@@ -3340,7 +3344,7 @@
         <v>29044.34</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220" s="2">
         <v>43682</v>
       </c>
@@ -3351,7 +3355,7 @@
         <v>29046.81</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221" s="2">
         <v>43683</v>
       </c>
@@ -3362,7 +3366,7 @@
         <v>29049.279999999999</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222" s="2">
         <v>43684</v>
       </c>
@@ -3373,7 +3377,7 @@
         <v>29051.75</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223" s="2">
         <v>43685</v>
       </c>
@@ -3384,7 +3388,7 @@
         <v>29054.22</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224" s="2">
         <v>43686</v>
       </c>
@@ -3395,7 +3399,7 @@
         <v>29056.69</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225" s="2">
         <v>43687</v>
       </c>
@@ -3406,7 +3410,7 @@
         <v>29059.34</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226" s="2">
         <v>43688</v>
       </c>
@@ -3417,7 +3421,7 @@
         <v>29062</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227" s="2">
         <v>43689</v>
       </c>
@@ -3428,7 +3432,7 @@
         <v>29064.66</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228" s="2">
         <v>43690</v>
       </c>
@@ -3439,7 +3443,7 @@
         <v>29067.31</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229" s="2">
         <v>43691</v>
       </c>
@@ -3450,7 +3454,7 @@
         <v>29069.97</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230" s="2">
         <v>43692</v>
       </c>
@@ -3461,7 +3465,7 @@
         <v>29072.62</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231" s="2">
         <v>43693</v>
       </c>
@@ -3472,7 +3476,7 @@
         <v>29075.279999999999</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232" s="2">
         <v>43694</v>
       </c>
@@ -3483,7 +3487,7 @@
         <v>29077.94</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233" s="2">
         <v>43695</v>
       </c>
@@ -3494,7 +3498,7 @@
         <v>29080.59</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234" s="2">
         <v>43696</v>
       </c>
@@ -3505,7 +3509,7 @@
         <v>29083.25</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A235" s="2">
         <v>43697</v>
       </c>
@@ -3516,7 +3520,7 @@
         <v>29085.91</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A236" s="2">
         <v>43698</v>
       </c>
@@ -3527,7 +3531,7 @@
         <v>29088.57</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A237" s="2">
         <v>43699</v>
       </c>
@@ -3538,7 +3542,7 @@
         <v>29091.22</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A238" s="2">
         <v>43700</v>
       </c>
@@ -3549,7 +3553,7 @@
         <v>29093.88</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A239" s="2">
         <v>43701</v>
       </c>
@@ -3560,7 +3564,7 @@
         <v>29096.54</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240" s="2">
         <v>43702</v>
       </c>
@@ -3571,7 +3575,7 @@
         <v>29099.200000000001</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241" s="2">
         <v>43703</v>
       </c>
@@ -3582,7 +3586,7 @@
         <v>29101.86</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242" s="2">
         <v>43704</v>
       </c>
@@ -3593,7 +3597,7 @@
         <v>29104.52</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243" s="2">
         <v>43705</v>
       </c>
@@ -3604,7 +3608,7 @@
         <v>29107.18</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244" s="2">
         <v>43706</v>
       </c>
@@ -3615,7 +3619,7 @@
         <v>29109.84</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245" s="2">
         <v>43707</v>
       </c>
@@ -3626,7 +3630,7 @@
         <v>29112.49</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246" s="2">
         <v>43708</v>
       </c>
@@ -3637,7 +3641,7 @@
         <v>29115.15</v>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A247" s="2">
         <v>43709</v>
       </c>
@@ -3648,7 +3652,7 @@
         <v>29117.82</v>
       </c>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A248" s="2">
         <v>43710</v>
       </c>
@@ -3659,7 +3663,7 @@
         <v>29120.48</v>
       </c>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A249" s="2">
         <v>43711</v>
       </c>
@@ -3670,7 +3674,7 @@
         <v>29123.14</v>
       </c>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A250" s="2">
         <v>43712</v>
       </c>
@@ -3681,7 +3685,7 @@
         <v>29125.8</v>
       </c>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A251" s="2">
         <v>43713</v>
       </c>
@@ -3692,7 +3696,7 @@
         <v>29128.46</v>
       </c>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A252" s="2">
         <v>43714</v>
       </c>
@@ -3703,7 +3707,7 @@
         <v>29131.119999999999</v>
       </c>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A253" s="2">
         <v>43715</v>
       </c>
@@ -3714,7 +3718,7 @@
         <v>29133.78</v>
       </c>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A254" s="2">
         <v>43716</v>
       </c>
@@ -3725,7 +3729,7 @@
         <v>29136.44</v>
       </c>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A255" s="2">
         <v>43717</v>
       </c>
@@ -3736,7 +3740,7 @@
         <v>29139.11</v>
       </c>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A256" s="2">
         <v>43718</v>
       </c>
@@ -3747,7 +3751,7 @@
         <v>29141.96</v>
       </c>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A257" s="2">
         <v>43719</v>
       </c>
@@ -3758,7 +3762,7 @@
         <v>29144.81</v>
       </c>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A258" s="2">
         <v>43720</v>
       </c>
@@ -3769,7 +3773,7 @@
         <v>29147.66</v>
       </c>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A259" s="2">
         <v>43721</v>
       </c>
@@ -3780,7 +3784,7 @@
         <v>29150.51</v>
       </c>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A260" s="2">
         <v>43722</v>
       </c>
@@ -3791,7 +3795,7 @@
         <v>29153.360000000001</v>
       </c>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A261" s="2">
         <v>43723</v>
       </c>
@@ -3802,7 +3806,7 @@
         <v>29156.21</v>
       </c>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A262" s="2">
         <v>43724</v>
       </c>
@@ -3813,7 +3817,7 @@
         <v>29159.06</v>
       </c>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A263" s="2">
         <v>43725</v>
       </c>
@@ -3824,7 +3828,7 @@
         <v>29161.919999999998</v>
       </c>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A264" s="2">
         <v>43726</v>
       </c>
@@ -3835,7 +3839,7 @@
         <v>29164.77</v>
       </c>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A265" s="2">
         <v>43727</v>
       </c>
@@ -3846,7 +3850,7 @@
         <v>29167.62</v>
       </c>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A266" s="2">
         <v>43728</v>
       </c>
@@ -3857,7 +3861,7 @@
         <v>29170.47</v>
       </c>
     </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A267" s="2">
         <v>43729</v>
       </c>
@@ -3868,7 +3872,7 @@
         <v>29173.32</v>
       </c>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A268" s="2">
         <v>43730</v>
       </c>
@@ -3879,7 +3883,7 @@
         <v>29176.18</v>
       </c>
     </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A269" s="2">
         <v>43731</v>
       </c>
@@ -3890,7 +3894,7 @@
         <v>29179.03</v>
       </c>
     </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A270" s="2">
         <v>43732</v>
       </c>
@@ -3901,7 +3905,7 @@
         <v>29181.88</v>
       </c>
     </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A271" s="2">
         <v>43733</v>
       </c>
@@ -3912,7 +3916,7 @@
         <v>29184.74</v>
       </c>
     </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A272" s="2">
         <v>43734</v>
       </c>
@@ -3923,7 +3927,7 @@
         <v>29187.59</v>
       </c>
     </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A273" s="2">
         <v>43735</v>
       </c>
@@ -3934,7 +3938,7 @@
         <v>29190.45</v>
       </c>
     </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A274" s="2">
         <v>43736</v>
       </c>
@@ -3945,7 +3949,7 @@
         <v>29193.3</v>
       </c>
     </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A275" s="2">
         <v>43737</v>
       </c>
@@ -3956,7 +3960,7 @@
         <v>29196.16</v>
       </c>
     </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A276" s="2">
         <v>43738</v>
       </c>
@@ -3967,7 +3971,7 @@
         <v>29199.01</v>
       </c>
     </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A277" s="2">
         <v>43739</v>
       </c>
@@ -3978,7 +3982,7 @@
         <v>29201.87</v>
       </c>
     </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A278" s="2">
         <v>43740</v>
       </c>
@@ -3989,7 +3993,7 @@
         <v>29204.720000000001</v>
       </c>
     </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A279" s="2">
         <v>43741</v>
       </c>
@@ -4000,7 +4004,7 @@
         <v>29207.58</v>
       </c>
     </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A280" s="2">
         <v>43742</v>
       </c>
@@ -4011,7 +4015,7 @@
         <v>29210.44</v>
       </c>
     </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A281" s="2">
         <v>43743</v>
       </c>
@@ -4022,7 +4026,7 @@
         <v>29213.29</v>
       </c>
     </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A282" s="2">
         <v>43744</v>
       </c>
@@ -4033,7 +4037,7 @@
         <v>29216.15</v>
       </c>
     </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A283" s="2">
         <v>43745</v>
       </c>
@@ -4044,7 +4048,7 @@
         <v>29219.01</v>
       </c>
     </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A284" s="2">
         <v>43746</v>
       </c>
@@ -4055,7 +4059,7 @@
         <v>29221.86</v>
       </c>
     </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A285" s="2">
         <v>43747</v>
       </c>
@@ -4066,7 +4070,7 @@
         <v>29224.720000000001</v>
       </c>
     </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A286" s="2">
         <v>43748</v>
       </c>
@@ -4077,7 +4081,7 @@
         <v>29226.85</v>
       </c>
     </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A287" s="2">
         <v>43749</v>
       </c>
@@ -4088,7 +4092,7 @@
         <v>29228.98</v>
       </c>
     </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A288" s="2">
         <v>43750</v>
       </c>
@@ -4099,7 +4103,7 @@
         <v>29231.11</v>
       </c>
     </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A289" s="2">
         <v>43751</v>
       </c>
@@ -4110,7 +4114,7 @@
         <v>29233.24</v>
       </c>
     </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A290" s="2">
         <v>43752</v>
       </c>
@@ -4121,7 +4125,7 @@
         <v>29235.37</v>
       </c>
     </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A291" s="2">
         <v>43753</v>
       </c>
@@ -4132,7 +4136,7 @@
         <v>29237.51</v>
       </c>
     </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A292" s="2">
         <v>43754</v>
       </c>
@@ -4143,7 +4147,7 @@
         <v>29239.64</v>
       </c>
     </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A293" s="2">
         <v>43755</v>
       </c>
@@ -4154,7 +4158,7 @@
         <v>29241.77</v>
       </c>
     </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A294" s="2">
         <v>43756</v>
       </c>
@@ -4165,7 +4169,7 @@
         <v>29243.9</v>
       </c>
     </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A295" s="2">
         <v>43757</v>
       </c>
@@ -4176,7 +4180,7 @@
         <v>29246.03</v>
       </c>
     </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A296" s="2">
         <v>43758</v>
       </c>
@@ -4187,7 +4191,7 @@
         <v>29248.16</v>
       </c>
     </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A297" s="2">
         <v>43759</v>
       </c>
@@ -4198,7 +4202,7 @@
         <v>29250.3</v>
       </c>
     </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A298" s="2">
         <v>43760</v>
       </c>
@@ -4209,7 +4213,7 @@
         <v>29252.43</v>
       </c>
     </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A299" s="2">
         <v>43761</v>
       </c>
@@ -4220,7 +4224,7 @@
         <v>29254.560000000001</v>
       </c>
     </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A300" s="2">
         <v>43762</v>
       </c>
@@ -4231,7 +4235,7 @@
         <v>29256.69</v>
       </c>
     </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A301" s="2">
         <v>43763</v>
       </c>
@@ -4242,7 +4246,7 @@
         <v>29258.83</v>
       </c>
     </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A302" s="2">
         <v>43764</v>
       </c>
@@ -4253,7 +4257,7 @@
         <v>29260.959999999999</v>
       </c>
     </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A303" s="2">
         <v>43765</v>
       </c>
@@ -4264,7 +4268,7 @@
         <v>29263.09</v>
       </c>
     </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A304" s="2">
         <v>43766</v>
       </c>
@@ -4275,7 +4279,7 @@
         <v>29265.23</v>
       </c>
     </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A305" s="2">
         <v>43767</v>
       </c>
@@ -4286,7 +4290,7 @@
         <v>29267.360000000001</v>
       </c>
     </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A306" s="2">
         <v>43768</v>
       </c>
@@ -4297,7 +4301,7 @@
         <v>29269.49</v>
       </c>
     </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A307" s="2">
         <v>43769</v>
       </c>
@@ -4308,7 +4312,7 @@
         <v>29271.63</v>
       </c>
     </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A308" s="2">
         <v>43770</v>
       </c>
@@ -4319,7 +4323,7 @@
         <v>29273.759999999998</v>
       </c>
     </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A309" s="2">
         <v>43771</v>
       </c>
@@ -4330,7 +4334,7 @@
         <v>29275.89</v>
       </c>
     </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A310" s="2">
         <v>43772</v>
       </c>
@@ -4341,7 +4345,7 @@
         <v>29278.03</v>
       </c>
     </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A311" s="2">
         <v>43773</v>
       </c>
@@ -4352,7 +4356,7 @@
         <v>29280.16</v>
       </c>
     </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A312" s="2">
         <v>43774</v>
       </c>
@@ -4363,7 +4367,7 @@
         <v>29282.3</v>
       </c>
     </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A313" s="2">
         <v>43775</v>
       </c>
@@ -4374,7 +4378,7 @@
         <v>29284.43</v>
       </c>
     </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A314" s="2">
         <v>43776</v>
       </c>
@@ -4385,7 +4389,7 @@
         <v>29286.57</v>
       </c>
     </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A315" s="2">
         <v>43777</v>
       </c>
@@ -4396,7 +4400,7 @@
         <v>29288.7</v>
       </c>
     </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A316" s="2">
         <v>43778</v>
       </c>
@@ -4407,7 +4411,7 @@
         <v>29290.84</v>
       </c>
     </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A317" s="2">
         <v>43779</v>
       </c>
@@ -4418,7 +4422,7 @@
         <v>29293.84</v>
       </c>
     </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A318" s="2">
         <v>43780</v>
       </c>
@@ -4429,7 +4433,7 @@
         <v>29296.84</v>
       </c>
     </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A319" s="2">
         <v>43781</v>
       </c>
@@ -4440,7 +4444,7 @@
         <v>29299.83</v>
       </c>
     </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A320" s="2">
         <v>43782</v>
       </c>
@@ -4451,7 +4455,7 @@
         <v>29302.83</v>
       </c>
     </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A321" s="2">
         <v>43783</v>
       </c>
@@ -4462,7 +4466,7 @@
         <v>29305.83</v>
       </c>
     </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A322" s="2">
         <v>43784</v>
       </c>
@@ -4473,7 +4477,7 @@
         <v>29308.83</v>
       </c>
     </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A323" s="2">
         <v>43785</v>
       </c>
@@ -4484,7 +4488,7 @@
         <v>29311.83</v>
       </c>
     </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A324" s="2">
         <v>43786</v>
       </c>
@@ -4495,7 +4499,7 @@
         <v>29314.83</v>
       </c>
     </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A325" s="2">
         <v>43787</v>
       </c>
@@ -4506,7 +4510,7 @@
         <v>29317.83</v>
       </c>
     </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A326" s="2">
         <v>43788</v>
       </c>
@@ -4517,7 +4521,7 @@
         <v>29320.83</v>
       </c>
     </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A327" s="2">
         <v>43789</v>
       </c>
@@ -4528,7 +4532,7 @@
         <v>29323.83</v>
       </c>
     </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A328" s="2">
         <v>43790</v>
       </c>
@@ -4539,7 +4543,7 @@
         <v>29326.83</v>
       </c>
     </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A329" s="2">
         <v>43791</v>
       </c>
@@ -4550,7 +4554,7 @@
         <v>29329.83</v>
       </c>
     </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A330" s="2">
         <v>43792</v>
       </c>
@@ -4561,7 +4565,7 @@
         <v>29332.83</v>
       </c>
     </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A331" s="2">
         <v>43793</v>
       </c>
@@ -4572,7 +4576,7 @@
         <v>29335.83</v>
       </c>
     </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A332" s="2">
         <v>43794</v>
       </c>
@@ -4583,7 +4587,7 @@
         <v>29338.84</v>
       </c>
     </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A333" s="2">
         <v>43795</v>
       </c>
@@ -4594,7 +4598,7 @@
         <v>29341.84</v>
       </c>
     </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A334" s="2">
         <v>43796</v>
       </c>
@@ -4605,7 +4609,7 @@
         <v>29344.84</v>
       </c>
     </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A335" s="2">
         <v>43797</v>
       </c>
@@ -4616,7 +4620,7 @@
         <v>29347.85</v>
       </c>
     </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A336" s="2">
         <v>43798</v>
       </c>
@@ -4627,7 +4631,7 @@
         <v>29350.85</v>
       </c>
     </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A337" s="2">
         <v>43799</v>
       </c>
@@ -4638,7 +4642,7 @@
         <v>29353.85</v>
       </c>
     </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A338" s="2">
         <v>43800</v>
       </c>
@@ -4649,7 +4653,7 @@
         <v>29356.86</v>
       </c>
     </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A339" s="2">
         <v>43801</v>
       </c>
@@ -4660,7 +4664,7 @@
         <v>29359.86</v>
       </c>
     </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A340" s="2">
         <v>43802</v>
       </c>
@@ -4671,7 +4675,7 @@
         <v>29362.87</v>
       </c>
     </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A341" s="2">
         <v>43803</v>
       </c>
@@ -4682,7 +4686,7 @@
         <v>29365.87</v>
       </c>
     </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A342" s="2">
         <v>43804</v>
       </c>
@@ -4693,7 +4697,7 @@
         <v>29368.880000000001</v>
       </c>
     </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A343" s="2">
         <v>43805</v>
       </c>
@@ -4704,7 +4708,7 @@
         <v>29371.88</v>
       </c>
     </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A344" s="2">
         <v>43806</v>
       </c>
@@ -4715,7 +4719,7 @@
         <v>29374.89</v>
       </c>
     </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A345" s="2">
         <v>43807</v>
       </c>
@@ -4726,7 +4730,7 @@
         <v>29377.89</v>
       </c>
     </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A346" s="2">
         <v>43808</v>
       </c>
@@ -4737,7 +4741,7 @@
         <v>29380.9</v>
       </c>
     </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A347" s="2">
         <v>43809</v>
       </c>
@@ -4748,7 +4752,7 @@
         <v>29383.09</v>
       </c>
     </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A348" s="2">
         <v>43810</v>
       </c>
@@ -4759,7 +4763,7 @@
         <v>29385.27</v>
       </c>
     </row>
-    <row r="349" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A349" s="2">
         <v>43811</v>
       </c>
@@ -4770,7 +4774,7 @@
         <v>29387.46</v>
       </c>
     </row>
-    <row r="350" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A350" s="2">
         <v>43812</v>
       </c>
@@ -4781,7 +4785,7 @@
         <v>29389.64</v>
       </c>
     </row>
-    <row r="351" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A351" s="2">
         <v>43813</v>
       </c>
@@ -4792,7 +4796,7 @@
         <v>29391.83</v>
       </c>
     </row>
-    <row r="352" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A352" s="2">
         <v>43814</v>
       </c>
@@ -4803,7 +4807,7 @@
         <v>29394.02</v>
       </c>
     </row>
-    <row r="353" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A353" s="2">
         <v>43815</v>
       </c>
@@ -4814,7 +4818,7 @@
         <v>29396.2</v>
       </c>
     </row>
-    <row r="354" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A354" s="2">
         <v>43816</v>
       </c>
@@ -4825,7 +4829,7 @@
         <v>29398.39</v>
       </c>
     </row>
-    <row r="355" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A355" s="2">
         <v>43817</v>
       </c>
@@ -4836,7 +4840,7 @@
         <v>29400.58</v>
       </c>
     </row>
-    <row r="356" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A356" s="2">
         <v>43818</v>
       </c>
@@ -4847,7 +4851,7 @@
         <v>29402.76</v>
       </c>
     </row>
-    <row r="357" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A357" s="2">
         <v>43819</v>
       </c>
@@ -4858,7 +4862,7 @@
         <v>29404.95</v>
       </c>
     </row>
-    <row r="358" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A358" s="2">
         <v>43820</v>
       </c>
@@ -4869,7 +4873,7 @@
         <v>29407.14</v>
       </c>
     </row>
-    <row r="359" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A359" s="2">
         <v>43821</v>
       </c>
@@ -4880,7 +4884,7 @@
         <v>29409.32</v>
       </c>
     </row>
-    <row r="360" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A360" s="2">
         <v>43822</v>
       </c>
@@ -4891,7 +4895,7 @@
         <v>29411.51</v>
       </c>
     </row>
-    <row r="361" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A361" s="2">
         <v>43823</v>
       </c>
@@ -4902,7 +4906,7 @@
         <v>29413.7</v>
       </c>
     </row>
-    <row r="362" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A362" s="2">
         <v>43824</v>
       </c>
@@ -4913,7 +4917,7 @@
         <v>29415.89</v>
       </c>
     </row>
-    <row r="363" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A363" s="2">
         <v>43825</v>
       </c>
@@ -4924,7 +4928,7 @@
         <v>29418.080000000002</v>
       </c>
     </row>
-    <row r="364" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A364" s="2">
         <v>43826</v>
       </c>
@@ -4935,7 +4939,7 @@
         <v>29420.26</v>
       </c>
     </row>
-    <row r="365" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A365" s="2">
         <v>43827</v>
       </c>
@@ -4946,7 +4950,7 @@
         <v>29422.45</v>
       </c>
     </row>
-    <row r="366" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A366" s="2">
         <v>43828</v>
       </c>
@@ -4957,7 +4961,7 @@
         <v>29424.639999999999</v>
       </c>
     </row>
-    <row r="367" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A367" s="2">
         <v>43829</v>
       </c>
@@ -4968,7 +4972,7 @@
         <v>29426.83</v>
       </c>
     </row>
-    <row r="368" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A368" s="2">
         <v>43830</v>
       </c>
@@ -4979,7 +4983,7 @@
         <v>29429.02</v>
       </c>
     </row>
-    <row r="369" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A369" s="2">
         <v>43831</v>
       </c>
@@ -4990,7 +4994,7 @@
         <v>29431.21</v>
       </c>
     </row>
-    <row r="370" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A370" s="2">
         <v>43832</v>
       </c>
@@ -5001,7 +5005,7 @@
         <v>29433.4</v>
       </c>
     </row>
-    <row r="371" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A371" s="2">
         <v>43833</v>
       </c>
@@ -5012,7 +5016,7 @@
         <v>29435.59</v>
       </c>
     </row>
-    <row r="372" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A372" s="2">
         <v>43834</v>
       </c>
@@ -5023,7 +5027,7 @@
         <v>29437.78</v>
       </c>
     </row>
-    <row r="373" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A373" s="2">
         <v>43835</v>
       </c>
@@ -5034,7 +5038,7 @@
         <v>29439.97</v>
       </c>
     </row>
-    <row r="374" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A374" s="2">
         <v>43836</v>
       </c>
@@ -5045,7 +5049,7 @@
         <v>29442.16</v>
       </c>
     </row>
-    <row r="375" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A375" s="2">
         <v>43837</v>
       </c>
@@ -5056,7 +5060,7 @@
         <v>29444.35</v>
       </c>
     </row>
-    <row r="376" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A376" s="2">
         <v>43838</v>
       </c>
@@ -5067,7 +5071,7 @@
         <v>29446.54</v>
       </c>
     </row>
-    <row r="377" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A377" s="2">
         <v>43839</v>
       </c>
@@ -5078,7 +5082,7 @@
         <v>29448.73</v>
       </c>
     </row>
-    <row r="378" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A378" s="2">
         <v>43840</v>
       </c>
@@ -5089,7 +5093,7 @@
         <v>29451</v>
       </c>
     </row>
-    <row r="379" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A379" s="2">
         <v>43841</v>
       </c>
@@ -5100,7 +5104,7 @@
         <v>29453.27</v>
       </c>
     </row>
-    <row r="380" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A380" s="2">
         <v>43842</v>
       </c>
@@ -5111,7 +5115,7 @@
         <v>29455.54</v>
       </c>
     </row>
-    <row r="381" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A381" s="2">
         <v>43843</v>
       </c>
@@ -5122,7 +5126,7 @@
         <v>29457.81</v>
       </c>
     </row>
-    <row r="382" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A382" s="2">
         <v>43844</v>
       </c>
@@ -5133,7 +5137,7 @@
         <v>29460.080000000002</v>
       </c>
     </row>
-    <row r="383" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A383" s="2">
         <v>43845</v>
       </c>
@@ -5144,7 +5148,7 @@
         <v>29462.35</v>
       </c>
     </row>
-    <row r="384" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A384" s="2">
         <v>43846</v>
       </c>
@@ -5155,7 +5159,7 @@
         <v>29464.63</v>
       </c>
     </row>
-    <row r="385" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A385" s="2">
         <v>43847</v>
       </c>
@@ -5166,7 +5170,7 @@
         <v>29466.9</v>
       </c>
     </row>
-    <row r="386" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A386" s="2">
         <v>43848</v>
       </c>
@@ -5177,7 +5181,7 @@
         <v>29469.17</v>
       </c>
     </row>
-    <row r="387" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A387" s="2">
         <v>43849</v>
       </c>
@@ -5188,7 +5192,7 @@
         <v>29471.439999999999</v>
       </c>
     </row>
-    <row r="388" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A388" s="2">
         <v>43850</v>
       </c>
@@ -5199,7 +5203,7 @@
         <v>29473.71</v>
       </c>
     </row>
-    <row r="389" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A389" s="2">
         <v>43851</v>
       </c>
@@ -5210,7 +5214,7 @@
         <v>29475.99</v>
       </c>
     </row>
-    <row r="390" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A390" s="2">
         <v>43852</v>
       </c>
@@ -5221,7 +5225,7 @@
         <v>29478.26</v>
       </c>
     </row>
-    <row r="391" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A391" s="2">
         <v>43853</v>
       </c>
@@ -5232,7 +5236,7 @@
         <v>29480.53</v>
       </c>
     </row>
-    <row r="392" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A392" s="2">
         <v>43854</v>
       </c>
@@ -5243,7 +5247,7 @@
         <v>29482.799999999999</v>
       </c>
     </row>
-    <row r="393" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A393" s="2">
         <v>43855</v>
       </c>
@@ -5254,7 +5258,7 @@
         <v>29485.08</v>
       </c>
     </row>
-    <row r="394" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A394" s="2">
         <v>43856</v>
       </c>
@@ -5265,7 +5269,7 @@
         <v>29487.35</v>
       </c>
     </row>
-    <row r="395" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A395" s="2">
         <v>43857</v>
       </c>
@@ -5276,7 +5280,7 @@
         <v>29489.62</v>
       </c>
     </row>
-    <row r="396" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A396" s="2">
         <v>43858</v>
       </c>
@@ -5287,7 +5291,7 @@
         <v>29491.9</v>
       </c>
     </row>
-    <row r="397" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A397" s="2">
         <v>43859</v>
       </c>
@@ -5298,7 +5302,7 @@
         <v>29494.17</v>
       </c>
     </row>
-    <row r="398" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A398" s="2">
         <v>43860</v>
       </c>
@@ -5309,7 +5313,7 @@
         <v>29496.44</v>
       </c>
     </row>
-    <row r="399" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A399" s="2">
         <v>43861</v>
       </c>
@@ -5320,7 +5324,7 @@
         <v>29498.720000000001</v>
       </c>
     </row>
-    <row r="400" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A400" s="2">
         <v>43862</v>
       </c>
@@ -5331,7 +5335,7 @@
         <v>29500.99</v>
       </c>
     </row>
-    <row r="401" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A401" s="2">
         <v>43863</v>
       </c>
@@ -5342,7 +5346,7 @@
         <v>29503.27</v>
       </c>
     </row>
-    <row r="402" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A402" s="2">
         <v>43864</v>
       </c>
@@ -5353,7 +5357,7 @@
         <v>29505.54</v>
       </c>
     </row>
-    <row r="403" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A403" s="2">
         <v>43865</v>
       </c>
@@ -5364,7 +5368,7 @@
         <v>29507.81</v>
       </c>
     </row>
-    <row r="404" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A404" s="2">
         <v>43866</v>
       </c>
@@ -5375,7 +5379,7 @@
         <v>29510.09</v>
       </c>
     </row>
-    <row r="405" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A405" s="2">
         <v>43867</v>
       </c>
@@ -5386,7 +5390,7 @@
         <v>29512.36</v>
       </c>
     </row>
-    <row r="406" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A406" s="2">
         <v>43868</v>
       </c>
@@ -5397,7 +5401,7 @@
         <v>29514.639999999999</v>
       </c>
     </row>
-    <row r="407" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A407" s="2">
         <v>43869</v>
       </c>
@@ -5408,7 +5412,7 @@
         <v>29516.92</v>
       </c>
     </row>
-    <row r="408" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A408" s="2">
         <v>43870</v>
       </c>
@@ -5419,7 +5423,7 @@
         <v>29519.19</v>
       </c>
     </row>
-    <row r="409" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A409" s="2">
         <v>43871</v>
       </c>
@@ -5430,7 +5434,7 @@
         <v>29522.12</v>
       </c>
     </row>
-    <row r="410" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A410" s="2">
         <v>43872</v>
       </c>
@@ -5441,7 +5445,7 @@
         <v>29525.06</v>
       </c>
     </row>
-    <row r="411" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A411" s="2">
         <v>43873</v>
       </c>
@@ -5452,7 +5456,7 @@
         <v>29527.99</v>
       </c>
     </row>
-    <row r="412" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A412" s="2">
         <v>43874</v>
       </c>
@@ -5463,7 +5467,7 @@
         <v>29530.93</v>
       </c>
     </row>
-    <row r="413" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A413" s="2">
         <v>43875</v>
       </c>
@@ -5474,7 +5478,7 @@
         <v>29533.86</v>
       </c>
     </row>
-    <row r="414" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A414" s="2">
         <v>43876</v>
       </c>
@@ -5485,7 +5489,7 @@
         <v>29536.79</v>
       </c>
     </row>
-    <row r="415" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A415" s="2">
         <v>43877</v>
       </c>
@@ -5496,7 +5500,7 @@
         <v>29539.73</v>
       </c>
     </row>
-    <row r="416" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A416" s="2">
         <v>43878</v>
       </c>
@@ -5507,7 +5511,7 @@
         <v>29542.67</v>
       </c>
     </row>
-    <row r="417" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A417" s="2">
         <v>43879</v>
       </c>
@@ -5518,7 +5522,7 @@
         <v>29545.599999999999</v>
       </c>
     </row>
-    <row r="418" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A418" s="2">
         <v>43880</v>
       </c>
@@ -5529,7 +5533,7 @@
         <v>29548.54</v>
       </c>
     </row>
-    <row r="419" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A419" s="2">
         <v>43881</v>
       </c>
@@ -5540,7 +5544,7 @@
         <v>29551.47</v>
       </c>
     </row>
-    <row r="420" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A420" s="2">
         <v>43882</v>
       </c>
@@ -5551,7 +5555,7 @@
         <v>29554.41</v>
       </c>
     </row>
-    <row r="421" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A421" s="2">
         <v>43883</v>
       </c>
@@ -5562,7 +5566,7 @@
         <v>29557.35</v>
       </c>
     </row>
-    <row r="422" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A422" s="2">
         <v>43884</v>
       </c>
@@ -5573,7 +5577,7 @@
         <v>29560.28</v>
       </c>
     </row>
-    <row r="423" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A423" s="2">
         <v>43885</v>
       </c>
@@ -5584,7 +5588,7 @@
         <v>29563.22</v>
       </c>
     </row>
-    <row r="424" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A424" s="2">
         <v>43886</v>
       </c>
@@ -5595,7 +5599,7 @@
         <v>29566.16</v>
       </c>
     </row>
-    <row r="425" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A425" s="2">
         <v>43887</v>
       </c>
@@ -5606,7 +5610,7 @@
         <v>29569.1</v>
       </c>
     </row>
-    <row r="426" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A426" s="2">
         <v>43888</v>
       </c>
@@ -5617,7 +5621,7 @@
         <v>29572.04</v>
       </c>
     </row>
-    <row r="427" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A427" s="2">
         <v>43889</v>
       </c>
@@ -5628,7 +5632,7 @@
         <v>29574.97</v>
       </c>
     </row>
-    <row r="428" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A428" s="2">
         <v>43890</v>
       </c>
@@ -5639,7 +5643,7 @@
         <v>29577.91</v>
       </c>
     </row>
-    <row r="429" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A429" s="2">
         <v>43891</v>
       </c>
@@ -5650,7 +5654,7 @@
         <v>29580.85</v>
       </c>
     </row>
-    <row r="430" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A430" s="2">
         <v>43892</v>
       </c>
@@ -5661,7 +5665,7 @@
         <v>29583.79</v>
       </c>
     </row>
-    <row r="431" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A431" s="2">
         <v>43893</v>
       </c>
@@ -5672,7 +5676,7 @@
         <v>29586.73</v>
       </c>
     </row>
-    <row r="432" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A432" s="2">
         <v>43894</v>
       </c>
@@ -5683,7 +5687,7 @@
         <v>29589.67</v>
       </c>
     </row>
-    <row r="433" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A433" s="2">
         <v>43895</v>
       </c>
@@ -5694,7 +5698,7 @@
         <v>29592.61</v>
       </c>
     </row>
-    <row r="434" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A434" s="2">
         <v>43896</v>
       </c>
@@ -5705,7 +5709,7 @@
         <v>29595.55</v>
       </c>
     </row>
-    <row r="435" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A435" s="2">
         <v>43897</v>
       </c>
@@ -5716,7 +5720,7 @@
         <v>29598.49</v>
       </c>
     </row>
-    <row r="436" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A436" s="2">
         <v>43898</v>
       </c>
@@ -5727,7 +5731,7 @@
         <v>29601.43</v>
       </c>
     </row>
-    <row r="437" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A437" s="2">
         <v>43899</v>
       </c>
@@ -5738,7 +5742,7 @@
         <v>29604.38</v>
       </c>
     </row>
-    <row r="438" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A438" s="2">
         <v>43900</v>
       </c>
@@ -5749,7 +5753,7 @@
         <v>29607.66</v>
       </c>
     </row>
-    <row r="439" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A439" s="2">
         <v>43901</v>
       </c>
@@ -5760,7 +5764,7 @@
         <v>29610.94</v>
       </c>
     </row>
-    <row r="440" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A440" s="2">
         <v>43902</v>
       </c>
@@ -5771,7 +5775,7 @@
         <v>29614.22</v>
       </c>
     </row>
-    <row r="441" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A441" s="2">
         <v>43903</v>
       </c>
@@ -5782,7 +5786,7 @@
         <v>29617.5</v>
       </c>
     </row>
-    <row r="442" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A442" s="2">
         <v>43904</v>
       </c>
@@ -5793,7 +5797,7 @@
         <v>29620.78</v>
       </c>
     </row>
-    <row r="443" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A443" s="2">
         <v>43905</v>
       </c>
@@ -5804,7 +5808,7 @@
         <v>29624.06</v>
       </c>
     </row>
-    <row r="444" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A444" s="2">
         <v>43906</v>
       </c>
@@ -5815,7 +5819,7 @@
         <v>29627.35</v>
       </c>
     </row>
-    <row r="445" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A445" s="2">
         <v>43907</v>
       </c>
@@ -5826,7 +5830,7 @@
         <v>29630.63</v>
       </c>
     </row>
-    <row r="446" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A446" s="2">
         <v>43908</v>
       </c>
@@ -5837,7 +5841,7 @@
         <v>29633.91</v>
       </c>
     </row>
-    <row r="447" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A447" s="2">
         <v>43909</v>
       </c>
@@ -5848,7 +5852,7 @@
         <v>29637.19</v>
       </c>
     </row>
-    <row r="448" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A448" s="2">
         <v>43910</v>
       </c>
@@ -5859,7 +5863,7 @@
         <v>29640.48</v>
       </c>
     </row>
-    <row r="449" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A449" s="2">
         <v>43911</v>
       </c>
@@ -5870,7 +5874,7 @@
         <v>29643.759999999998</v>
       </c>
     </row>
-    <row r="450" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A450" s="2">
         <v>43912</v>
       </c>
@@ -5881,7 +5885,7 @@
         <v>29647.040000000001</v>
       </c>
     </row>
-    <row r="451" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A451" s="2">
         <v>43913</v>
       </c>
@@ -5892,7 +5896,7 @@
         <v>29650.33</v>
       </c>
     </row>
-    <row r="452" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A452" s="2">
         <v>43914</v>
       </c>
@@ -5903,7 +5907,7 @@
         <v>29653.61</v>
       </c>
     </row>
-    <row r="453" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A453" s="2">
         <v>43915</v>
       </c>
@@ -5914,7 +5918,7 @@
         <v>29656.9</v>
       </c>
     </row>
-    <row r="454" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A454" s="2">
         <v>43916</v>
       </c>
@@ -5925,7 +5929,7 @@
         <v>29660.18</v>
       </c>
     </row>
-    <row r="455" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A455" s="2">
         <v>43917</v>
       </c>
@@ -5936,7 +5940,7 @@
         <v>29663.47</v>
       </c>
     </row>
-    <row r="456" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A456" s="2">
         <v>43918</v>
       </c>
@@ -5947,7 +5951,7 @@
         <v>29666.76</v>
       </c>
     </row>
-    <row r="457" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A457" s="2">
         <v>43919</v>
       </c>
@@ -5958,7 +5962,7 @@
         <v>29670.04</v>
       </c>
     </row>
-    <row r="458" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A458" s="2">
         <v>43920</v>
       </c>
@@ -5969,7 +5973,7 @@
         <v>29673.33</v>
       </c>
     </row>
-    <row r="459" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A459" s="2">
         <v>43921</v>
       </c>
@@ -5980,7 +5984,7 @@
         <v>29676.62</v>
       </c>
     </row>
-    <row r="460" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A460" s="2">
         <v>43922</v>
       </c>
@@ -5991,7 +5995,7 @@
         <v>29679.91</v>
       </c>
     </row>
-    <row r="461" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A461" s="2">
         <v>43923</v>
       </c>
@@ -6002,7 +6006,7 @@
         <v>29683.19</v>
       </c>
     </row>
-    <row r="462" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A462" s="2">
         <v>43924</v>
       </c>
@@ -6013,7 +6017,7 @@
         <v>29686.48</v>
       </c>
     </row>
-    <row r="463" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A463" s="2">
         <v>43925</v>
       </c>
@@ -6024,7 +6028,7 @@
         <v>29689.77</v>
       </c>
     </row>
-    <row r="464" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A464" s="2">
         <v>43926</v>
       </c>
@@ -6035,7 +6039,7 @@
         <v>29693.06</v>
       </c>
     </row>
-    <row r="465" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A465" s="2">
         <v>43927</v>
       </c>
@@ -6046,7 +6050,7 @@
         <v>29696.35</v>
       </c>
     </row>
-    <row r="466" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A466" s="2">
         <v>43928</v>
       </c>
@@ -6057,7 +6061,7 @@
         <v>29699.64</v>
       </c>
     </row>
-    <row r="467" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A467" s="2">
         <v>43929</v>
       </c>
@@ -6068,7 +6072,7 @@
         <v>29702.93</v>
       </c>
     </row>
-    <row r="468" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A468" s="2">
         <v>43930</v>
       </c>
@@ -6079,7 +6083,7 @@
         <v>29706.22</v>
       </c>
     </row>
-    <row r="469" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A469" s="2">
         <v>43931</v>
       </c>
@@ -6090,7 +6094,7 @@
         <v>29710.02</v>
       </c>
     </row>
-    <row r="470" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A470" s="2">
         <v>43932</v>
       </c>
@@ -6101,7 +6105,7 @@
         <v>29713.82</v>
       </c>
     </row>
-    <row r="471" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A471" s="2">
         <v>43933</v>
       </c>
@@ -6112,7 +6116,7 @@
         <v>29717.62</v>
       </c>
     </row>
-    <row r="472" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A472" s="2">
         <v>43934</v>
       </c>
@@ -6123,7 +6127,7 @@
         <v>29721.42</v>
       </c>
     </row>
-    <row r="473" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A473" s="2">
         <v>43935</v>
       </c>
@@ -6134,7 +6138,7 @@
         <v>29725.22</v>
       </c>
     </row>
-    <row r="474" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A474" s="2">
         <v>43936</v>
       </c>
@@ -6145,7 +6149,7 @@
         <v>29729.02</v>
       </c>
     </row>
-    <row r="475" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A475" s="2">
         <v>43937</v>
       </c>
@@ -6156,7 +6160,7 @@
         <v>29732.82</v>
       </c>
     </row>
-    <row r="476" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A476" s="2">
         <v>43938</v>
       </c>
@@ -6167,7 +6171,7 @@
         <v>29736.63</v>
       </c>
     </row>
-    <row r="477" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A477" s="2">
         <v>43939</v>
       </c>
@@ -6178,7 +6182,7 @@
         <v>29740.43</v>
       </c>
     </row>
-    <row r="478" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A478" s="2">
         <v>43940</v>
       </c>
@@ -6189,7 +6193,7 @@
         <v>29744.23</v>
       </c>
     </row>
-    <row r="479" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A479" s="2">
         <v>43941</v>
       </c>
@@ -6200,7 +6204,7 @@
         <v>29748.04</v>
       </c>
     </row>
-    <row r="480" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A480" s="2">
         <v>43942</v>
       </c>
@@ -6211,7 +6215,7 @@
         <v>29751.84</v>
       </c>
     </row>
-    <row r="481" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A481" s="2">
         <v>43943</v>
       </c>
@@ -6222,7 +6226,7 @@
         <v>29755.64</v>
       </c>
     </row>
-    <row r="482" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A482" s="2">
         <v>43944</v>
       </c>
@@ -6233,7 +6237,7 @@
         <v>29759.45</v>
       </c>
     </row>
-    <row r="483" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A483" s="2">
         <v>43945</v>
       </c>
@@ -6244,7 +6248,7 @@
         <v>29763.26</v>
       </c>
     </row>
-    <row r="484" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A484" s="2">
         <v>43946</v>
       </c>
@@ -6255,7 +6259,7 @@
         <v>29767.06</v>
       </c>
     </row>
-    <row r="485" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A485" s="2">
         <v>43947</v>
       </c>
@@ -6266,7 +6270,7 @@
         <v>29770.87</v>
       </c>
     </row>
-    <row r="486" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A486" s="2">
         <v>43948</v>
       </c>
@@ -6277,7 +6281,7 @@
         <v>29774.68</v>
       </c>
     </row>
-    <row r="487" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A487" s="2">
         <v>43949</v>
       </c>
@@ -6288,7 +6292,7 @@
         <v>29778.48</v>
       </c>
     </row>
-    <row r="488" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A488" s="2">
         <v>43950</v>
       </c>
@@ -6299,7 +6303,7 @@
         <v>29782.29</v>
       </c>
     </row>
-    <row r="489" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A489" s="2">
         <v>43951</v>
       </c>
@@ -6310,7 +6314,7 @@
         <v>29786.1</v>
       </c>
     </row>
-    <row r="490" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A490" s="2">
         <v>43952</v>
       </c>
@@ -6321,7 +6325,7 @@
         <v>29789.91</v>
       </c>
     </row>
-    <row r="491" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A491" s="2">
         <v>43953</v>
       </c>
@@ -6332,7 +6336,7 @@
         <v>29793.72</v>
       </c>
     </row>
-    <row r="492" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A492" s="2">
         <v>43954</v>
       </c>
@@ -6343,7 +6347,7 @@
         <v>29797.53</v>
       </c>
     </row>
-    <row r="493" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A493" s="2">
         <v>43955</v>
       </c>
@@ -6354,7 +6358,7 @@
         <v>29801.34</v>
       </c>
     </row>
-    <row r="494" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A494" s="2">
         <v>43956</v>
       </c>
@@ -6365,7 +6369,7 @@
         <v>29805.15</v>
       </c>
     </row>
-    <row r="495" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A495" s="2">
         <v>43957</v>
       </c>
@@ -6376,7 +6380,7 @@
         <v>29808.959999999999</v>
       </c>
     </row>
-    <row r="496" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A496" s="2">
         <v>43958</v>
       </c>
@@ -6387,7 +6391,7 @@
         <v>29812.77</v>
       </c>
     </row>
-    <row r="497" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A497" s="2">
         <v>43959</v>
       </c>
@@ -6398,7 +6402,7 @@
         <v>29816.59</v>
       </c>
     </row>
-    <row r="498" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A498" s="2">
         <v>43960</v>
       </c>
@@ -6409,7 +6413,7 @@
         <v>29820.400000000001</v>
       </c>
     </row>
-    <row r="499" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A499" s="2">
         <v>43961</v>
       </c>
@@ -6420,7 +6424,7 @@
         <v>29822.82</v>
       </c>
     </row>
-    <row r="500" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A500" s="2">
         <v>43962</v>
       </c>
@@ -6431,7 +6435,7 @@
         <v>29825.24</v>
       </c>
     </row>
-    <row r="501" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A501" s="2">
         <v>43963</v>
       </c>
@@ -6442,7 +6446,7 @@
         <v>29827.66</v>
       </c>
     </row>
-    <row r="502" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A502" s="2">
         <v>43964</v>
       </c>
@@ -6453,7 +6457,7 @@
         <v>29830.080000000002</v>
       </c>
     </row>
-    <row r="503" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A503" s="2">
         <v>43965</v>
       </c>
@@ -6464,7 +6468,7 @@
         <v>29832.51</v>
       </c>
     </row>
-    <row r="504" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A504" s="2">
         <v>43966</v>
       </c>
@@ -6475,7 +6479,7 @@
         <v>29834.93</v>
       </c>
     </row>
-    <row r="505" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A505" s="2">
         <v>43967</v>
       </c>
@@ -6486,7 +6490,7 @@
         <v>29837.35</v>
       </c>
     </row>
-    <row r="506" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A506" s="2">
         <v>43968</v>
       </c>
@@ -6497,7 +6501,7 @@
         <v>29839.77</v>
       </c>
     </row>
-    <row r="507" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A507" s="2">
         <v>43969</v>
       </c>
@@ -6508,7 +6512,7 @@
         <v>29842.19</v>
       </c>
     </row>
-    <row r="508" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A508" s="2">
         <v>43970</v>
       </c>
@@ -6519,7 +6523,7 @@
         <v>29844.62</v>
       </c>
     </row>
-    <row r="509" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A509" s="2">
         <v>43971</v>
       </c>
@@ -6530,7 +6534,7 @@
         <v>29847.040000000001</v>
       </c>
     </row>
-    <row r="510" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A510" s="2">
         <v>43972</v>
       </c>
@@ -6541,7 +6545,7 @@
         <v>29849.46</v>
       </c>
     </row>
-    <row r="511" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A511" s="2">
         <v>43973</v>
       </c>
@@ -6552,7 +6556,7 @@
         <v>29851.89</v>
       </c>
     </row>
-    <row r="512" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A512" s="2">
         <v>43974</v>
       </c>
@@ -6563,7 +6567,7 @@
         <v>29854.31</v>
       </c>
     </row>
-    <row r="513" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A513" s="2">
         <v>43975</v>
       </c>
@@ -6574,7 +6578,7 @@
         <v>29856.73</v>
       </c>
     </row>
-    <row r="514" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A514" s="2">
         <v>43976</v>
       </c>
@@ -6585,7 +6589,7 @@
         <v>29859.16</v>
       </c>
     </row>
-    <row r="515" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A515" s="2">
         <v>43977</v>
       </c>
@@ -6596,7 +6600,7 @@
         <v>29861.58</v>
       </c>
     </row>
-    <row r="516" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A516" s="2">
         <v>43978</v>
       </c>
@@ -6607,7 +6611,7 @@
         <v>29864</v>
       </c>
     </row>
-    <row r="517" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A517" s="2">
         <v>43979</v>
       </c>
@@ -6618,7 +6622,7 @@
         <v>29866.43</v>
       </c>
     </row>
-    <row r="518" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A518" s="2">
         <v>43980</v>
       </c>
@@ -6629,7 +6633,7 @@
         <v>29868.85</v>
       </c>
     </row>
-    <row r="519" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A519" s="2">
         <v>43981</v>
       </c>
@@ -6640,7 +6644,7 @@
         <v>29871.279999999999</v>
       </c>
     </row>
-    <row r="520" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A520" s="2">
         <v>43982</v>
       </c>
@@ -6651,7 +6655,7 @@
         <v>29873.7</v>
       </c>
     </row>
-    <row r="521" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A521" s="2">
         <v>43983</v>
       </c>
@@ -6662,7 +6666,7 @@
         <v>29876.13</v>
       </c>
     </row>
-    <row r="522" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A522" s="2">
         <v>43984</v>
       </c>
@@ -6673,7 +6677,7 @@
         <v>29878.55</v>
       </c>
     </row>
-    <row r="523" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A523" s="2">
         <v>43985</v>
       </c>
@@ -6684,7 +6688,7 @@
         <v>29880.98</v>
       </c>
     </row>
-    <row r="524" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A524" s="2">
         <v>43986</v>
       </c>
@@ -6695,7 +6699,7 @@
         <v>29883.4</v>
       </c>
     </row>
-    <row r="525" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A525" s="2">
         <v>43987</v>
       </c>
@@ -6706,7 +6710,7 @@
         <v>29885.83</v>
       </c>
     </row>
-    <row r="526" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A526" s="2">
         <v>43988</v>
       </c>
@@ -6717,7 +6721,7 @@
         <v>29888.26</v>
       </c>
     </row>
-    <row r="527" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A527" s="2">
         <v>43989</v>
       </c>
@@ -6728,7 +6732,7 @@
         <v>29890.68</v>
       </c>
     </row>
-    <row r="528" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A528" s="2">
         <v>43990</v>
       </c>
@@ -6739,7 +6743,7 @@
         <v>29893.11</v>
       </c>
     </row>
-    <row r="529" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A529" s="2">
         <v>43991</v>
       </c>
@@ -6750,7 +6754,7 @@
         <v>29895.54</v>
       </c>
     </row>
-    <row r="530" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A530" s="2">
         <v>43992</v>
       </c>
@@ -6761,7 +6765,7 @@
         <v>29897.75</v>
       </c>
     </row>
-    <row r="531" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A531" s="2">
         <v>43993</v>
       </c>
@@ -6772,7 +6776,7 @@
         <v>29899.96</v>
       </c>
     </row>
-    <row r="532" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A532" s="2">
         <v>43994</v>
       </c>
@@ -6783,7 +6787,7 @@
         <v>29902.17</v>
       </c>
     </row>
-    <row r="533" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A533" s="2">
         <v>43995</v>
       </c>
@@ -6794,7 +6798,7 @@
         <v>29904.38</v>
       </c>
     </row>
-    <row r="534" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A534" s="2">
         <v>43996</v>
       </c>
@@ -6805,7 +6809,7 @@
         <v>29906.59</v>
       </c>
     </row>
-    <row r="535" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A535" s="2">
         <v>43997</v>
       </c>
@@ -6816,7 +6820,7 @@
         <v>29908.799999999999</v>
       </c>
     </row>
-    <row r="536" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A536" s="2">
         <v>43998</v>
       </c>
@@ -6827,7 +6831,7 @@
         <v>29911.01</v>
       </c>
     </row>
-    <row r="537" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A537" s="2">
         <v>43999</v>
       </c>
@@ -6838,7 +6842,7 @@
         <v>29913.22</v>
       </c>
     </row>
-    <row r="538" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A538" s="2">
         <v>44000</v>
       </c>
@@ -6849,7 +6853,7 @@
         <v>29915.43</v>
       </c>
     </row>
-    <row r="539" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A539" s="2">
         <v>44001</v>
       </c>
@@ -6860,7 +6864,7 @@
         <v>29917.64</v>
       </c>
     </row>
-    <row r="540" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A540" s="2">
         <v>44002</v>
       </c>
@@ -6871,7 +6875,7 @@
         <v>29919.85</v>
       </c>
     </row>
-    <row r="541" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A541" s="2">
         <v>44003</v>
       </c>
@@ -6882,7 +6886,7 @@
         <v>29922.07</v>
       </c>
     </row>
-    <row r="542" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A542" s="2">
         <v>44004</v>
       </c>
@@ -6893,7 +6897,7 @@
         <v>29924.28</v>
       </c>
     </row>
-    <row r="543" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A543" s="2">
         <v>44005</v>
       </c>
@@ -6904,7 +6908,7 @@
         <v>29926.49</v>
       </c>
     </row>
-    <row r="544" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A544" s="2">
         <v>44006</v>
       </c>
@@ -6915,7 +6919,7 @@
         <v>29928.7</v>
       </c>
     </row>
-    <row r="545" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A545" s="2">
         <v>44007</v>
       </c>
@@ -6926,7 +6930,7 @@
         <v>29930.91</v>
       </c>
     </row>
-    <row r="546" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A546" s="2">
         <v>44008</v>
       </c>
@@ -6937,7 +6941,7 @@
         <v>29933.119999999999</v>
       </c>
     </row>
-    <row r="547" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A547" s="2">
         <v>44009</v>
       </c>
@@ -6948,7 +6952,7 @@
         <v>29935.34</v>
       </c>
     </row>
-    <row r="548" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A548" s="2">
         <v>44010</v>
       </c>
@@ -6959,7 +6963,7 @@
         <v>29937.55</v>
       </c>
     </row>
-    <row r="549" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A549" s="2">
         <v>44011</v>
       </c>
@@ -6970,7 +6974,7 @@
         <v>29939.759999999998</v>
       </c>
     </row>
-    <row r="550" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A550" s="2">
         <v>44012</v>
       </c>
@@ -6981,7 +6985,7 @@
         <v>29941.97</v>
       </c>
     </row>
-    <row r="551" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A551" s="2">
         <v>44013</v>
       </c>
@@ -6992,7 +6996,7 @@
         <v>29944.19</v>
       </c>
     </row>
-    <row r="552" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A552" s="2">
         <v>44014</v>
       </c>
@@ -7003,7 +7007,7 @@
         <v>29946.400000000001</v>
       </c>
     </row>
-    <row r="553" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A553" s="2">
         <v>44015</v>
       </c>
@@ -7014,7 +7018,7 @@
         <v>29948.61</v>
       </c>
     </row>
-    <row r="554" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A554" s="2">
         <v>44016</v>
       </c>
@@ -7025,7 +7029,7 @@
         <v>29950.83</v>
       </c>
     </row>
-    <row r="555" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A555" s="2">
         <v>44017</v>
       </c>
@@ -7036,7 +7040,7 @@
         <v>29953.040000000001</v>
       </c>
     </row>
-    <row r="556" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A556" s="2">
         <v>44018</v>
       </c>
@@ -7047,7 +7051,7 @@
         <v>29955.25</v>
       </c>
     </row>
-    <row r="557" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A557" s="2">
         <v>44019</v>
       </c>
@@ -7058,7 +7062,7 @@
         <v>29957.47</v>
       </c>
     </row>
-    <row r="558" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A558" s="2">
         <v>44020</v>
       </c>
@@ -7069,7 +7073,7 @@
         <v>29959.68</v>
       </c>
     </row>
-    <row r="559" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A559" s="2">
         <v>44021</v>
       </c>
@@ -7080,7 +7084,7 @@
         <v>29961.9</v>
       </c>
     </row>
-    <row r="560" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A560" s="2">
         <v>44022</v>
       </c>
@@ -7091,7 +7095,7 @@
         <v>29963.84</v>
       </c>
     </row>
-    <row r="561" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A561" s="2">
         <v>44023</v>
       </c>
@@ -7102,7 +7106,7 @@
         <v>29965.78</v>
       </c>
     </row>
-    <row r="562" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A562" s="2">
         <v>44024</v>
       </c>
@@ -7113,7 +7117,7 @@
         <v>29967.73</v>
       </c>
     </row>
-    <row r="563" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A563" s="2">
         <v>44025</v>
       </c>
@@ -7124,7 +7128,7 @@
         <v>29969.67</v>
       </c>
     </row>
-    <row r="564" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A564" s="2">
         <v>44026</v>
       </c>
@@ -7135,7 +7139,7 @@
         <v>29971.61</v>
       </c>
     </row>
-    <row r="565" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A565" s="2">
         <v>44027</v>
       </c>
@@ -7146,7 +7150,7 @@
         <v>29973.55</v>
       </c>
     </row>
-    <row r="566" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A566" s="2">
         <v>44028</v>
       </c>
@@ -7157,7 +7161,7 @@
         <v>29975.5</v>
       </c>
     </row>
-    <row r="567" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A567" s="2">
         <v>44029</v>
       </c>
@@ -7168,7 +7172,7 @@
         <v>29977.439999999999</v>
       </c>
     </row>
-    <row r="568" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A568" s="2">
         <v>44030</v>
       </c>
@@ -7179,7 +7183,7 @@
         <v>29979.38</v>
       </c>
     </row>
-    <row r="569" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A569" s="2">
         <v>44031</v>
       </c>
@@ -7190,7 +7194,7 @@
         <v>29981.33</v>
       </c>
     </row>
-    <row r="570" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A570" s="2">
         <v>44032</v>
       </c>
@@ -7201,7 +7205,7 @@
         <v>29983.27</v>
       </c>
     </row>
-    <row r="571" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A571" s="2">
         <v>44033</v>
       </c>
@@ -7212,7 +7216,7 @@
         <v>29985.21</v>
       </c>
     </row>
-    <row r="572" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A572" s="2">
         <v>44034</v>
       </c>
@@ -7223,7 +7227,7 @@
         <v>29987.16</v>
       </c>
     </row>
-    <row r="573" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A573" s="2">
         <v>44035</v>
       </c>
@@ -7234,7 +7238,7 @@
         <v>29989.1</v>
       </c>
     </row>
-    <row r="574" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A574" s="2">
         <v>44036</v>
       </c>
@@ -7245,7 +7249,7 @@
         <v>29991.040000000001</v>
       </c>
     </row>
-    <row r="575" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A575" s="2">
         <v>44037</v>
       </c>
@@ -7256,7 +7260,7 @@
         <v>29992.99</v>
       </c>
     </row>
-    <row r="576" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A576" s="2">
         <v>44038</v>
       </c>
@@ -7267,7 +7271,7 @@
         <v>29994.93</v>
       </c>
     </row>
-    <row r="577" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A577" s="2">
         <v>44039</v>
       </c>
@@ -7278,7 +7282,7 @@
         <v>29996.87</v>
       </c>
     </row>
-    <row r="578" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A578" s="2">
         <v>44040</v>
       </c>
@@ -7289,7 +7293,7 @@
         <v>29998.82</v>
       </c>
     </row>
-    <row r="579" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A579" s="2">
         <v>44041</v>
       </c>
@@ -7300,7 +7304,7 @@
         <v>30000.76</v>
       </c>
     </row>
-    <row r="580" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A580" s="2">
         <v>44042</v>
       </c>
@@ -7311,7 +7315,7 @@
         <v>30002.71</v>
       </c>
     </row>
-    <row r="581" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A581" s="2">
         <v>44043</v>
       </c>
@@ -7322,7 +7326,7 @@
         <v>30004.65</v>
       </c>
     </row>
-    <row r="582" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A582" s="2">
         <v>44044</v>
       </c>
@@ -7333,7 +7337,7 @@
         <v>30006.6</v>
       </c>
     </row>
-    <row r="583" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A583" s="2">
         <v>44045</v>
       </c>
@@ -7344,7 +7348,7 @@
         <v>30008.54</v>
       </c>
     </row>
-    <row r="584" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A584" s="2">
         <v>44046</v>
       </c>
@@ -7355,7 +7359,7 @@
         <v>30010.49</v>
       </c>
     </row>
-    <row r="585" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A585" s="2">
         <v>44047</v>
       </c>
@@ -7366,7 +7370,7 @@
         <v>30012.43</v>
       </c>
     </row>
-    <row r="586" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A586" s="2">
         <v>44048</v>
       </c>
@@ -7377,7 +7381,7 @@
         <v>30014.38</v>
       </c>
     </row>
-    <row r="587" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A587" s="2">
         <v>44049</v>
       </c>
@@ -7388,7 +7392,7 @@
         <v>30016.32</v>
       </c>
     </row>
-    <row r="588" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A588" s="2">
         <v>44050</v>
       </c>
@@ -7399,7 +7403,7 @@
         <v>30018.27</v>
       </c>
     </row>
-    <row r="589" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A589" s="2">
         <v>44051</v>
       </c>
@@ -7410,7 +7414,7 @@
         <v>30020.21</v>
       </c>
     </row>
-    <row r="590" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A590" s="2">
         <v>44052</v>
       </c>
@@ -7421,7 +7425,7 @@
         <v>30022.16</v>
       </c>
     </row>
-    <row r="591" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A591" s="2">
         <v>44053</v>
       </c>
@@ -7432,7 +7436,7 @@
         <v>30023.22</v>
       </c>
     </row>
-    <row r="592" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A592" s="2">
         <v>44054</v>
       </c>
@@ -7443,7 +7447,7 @@
         <v>30024.27</v>
       </c>
     </row>
-    <row r="593" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A593" s="2">
         <v>44055</v>
       </c>
@@ -7454,7 +7458,7 @@
         <v>30025.33</v>
       </c>
     </row>
-    <row r="594" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A594" s="2">
         <v>44056</v>
       </c>
@@ -7465,7 +7469,7 @@
         <v>30026.38</v>
       </c>
     </row>
-    <row r="595" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A595" s="2">
         <v>44057</v>
       </c>
@@ -7476,7 +7480,7 @@
         <v>30027.439999999999</v>
       </c>
     </row>
-    <row r="596" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A596" s="2">
         <v>44058</v>
       </c>
@@ -7487,7 +7491,7 @@
         <v>30028.5</v>
       </c>
     </row>
-    <row r="597" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A597" s="2">
         <v>44059</v>
       </c>
@@ -7498,7 +7502,7 @@
         <v>30029.55</v>
       </c>
     </row>
-    <row r="598" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A598" s="2">
         <v>44060</v>
       </c>
@@ -7509,7 +7513,7 @@
         <v>30030.61</v>
       </c>
     </row>
-    <row r="599" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A599" s="2">
         <v>44061</v>
       </c>
@@ -7520,7 +7524,7 @@
         <v>30031.67</v>
       </c>
     </row>
-    <row r="600" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A600" s="2">
         <v>44062</v>
       </c>
@@ -7531,7 +7535,7 @@
         <v>30032.720000000001</v>
       </c>
     </row>
-    <row r="601" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A601" s="2">
         <v>44063</v>
       </c>
@@ -7542,7 +7546,7 @@
         <v>30033.78</v>
       </c>
     </row>
-    <row r="602" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A602" s="2">
         <v>44064</v>
       </c>
@@ -7553,7 +7557,7 @@
         <v>30034.84</v>
       </c>
     </row>
-    <row r="603" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A603" s="2">
         <v>44065</v>
       </c>
@@ -7564,7 +7568,7 @@
         <v>30035.89</v>
       </c>
     </row>
-    <row r="604" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A604" s="2">
         <v>44066</v>
       </c>
@@ -7575,7 +7579,7 @@
         <v>30036.95</v>
       </c>
     </row>
-    <row r="605" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A605" s="2">
         <v>44067</v>
       </c>
@@ -7586,7 +7590,7 @@
         <v>30038.01</v>
       </c>
     </row>
-    <row r="606" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A606" s="2">
         <v>44068</v>
       </c>
@@ -7597,7 +7601,7 @@
         <v>30039.06</v>
       </c>
     </row>
-    <row r="607" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A607" s="2">
         <v>44069</v>
       </c>
@@ -7608,7 +7612,7 @@
         <v>30040.12</v>
       </c>
     </row>
-    <row r="608" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A608" s="2">
         <v>44070</v>
       </c>
@@ -7619,7 +7623,7 @@
         <v>30041.18</v>
       </c>
     </row>
-    <row r="609" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A609" s="2">
         <v>44071</v>
       </c>
@@ -7630,7 +7634,7 @@
         <v>30042.23</v>
       </c>
     </row>
-    <row r="610" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A610" s="2">
         <v>44072</v>
       </c>
@@ -7641,7 +7645,7 @@
         <v>30043.29</v>
       </c>
     </row>
-    <row r="611" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A611" s="2">
         <v>44073</v>
       </c>
@@ -7652,7 +7656,7 @@
         <v>30044.35</v>
       </c>
     </row>
-    <row r="612" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A612" s="2">
         <v>44074</v>
       </c>
@@ -7663,7 +7667,7 @@
         <v>30045.4</v>
       </c>
     </row>
-    <row r="613" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A613" s="2">
         <v>44075</v>
       </c>
@@ -7674,7 +7678,7 @@
         <v>30046.46</v>
       </c>
     </row>
-    <row r="614" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A614" s="2">
         <v>44076</v>
       </c>
@@ -7685,7 +7689,7 @@
         <v>30047.52</v>
       </c>
     </row>
-    <row r="615" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A615" s="2">
         <v>44077</v>
       </c>
@@ -7696,7 +7700,7 @@
         <v>30048.57</v>
       </c>
     </row>
-    <row r="616" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A616" s="2">
         <v>44078</v>
       </c>
@@ -7707,7 +7711,7 @@
         <v>30049.63</v>
       </c>
     </row>
-    <row r="617" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A617" s="2">
         <v>44079</v>
       </c>
@@ -7718,7 +7722,7 @@
         <v>30050.69</v>
       </c>
     </row>
-    <row r="618" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A618" s="2">
         <v>44080</v>
       </c>
@@ -7729,7 +7733,7 @@
         <v>30051.74</v>
       </c>
     </row>
-    <row r="619" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A619" s="2">
         <v>44081</v>
       </c>
@@ -7740,7 +7744,7 @@
         <v>30052.799999999999</v>
       </c>
     </row>
-    <row r="620" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A620" s="2">
         <v>44082</v>
       </c>
@@ -7751,7 +7755,7 @@
         <v>30053.86</v>
       </c>
     </row>
-    <row r="621" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A621" s="2">
         <v>44083</v>
       </c>
@@ -7762,7 +7766,7 @@
         <v>30054.92</v>
       </c>
     </row>
-    <row r="622" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A622" s="2">
         <v>44084</v>
       </c>
@@ -7773,7 +7777,7 @@
         <v>30055.57</v>
       </c>
     </row>
-    <row r="623" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A623" s="2">
         <v>44085</v>
       </c>
@@ -7784,7 +7788,7 @@
         <v>30056.23</v>
       </c>
     </row>
-    <row r="624" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A624" s="2">
         <v>44086</v>
       </c>
@@ -7795,7 +7799,7 @@
         <v>30056.880000000001</v>
       </c>
     </row>
-    <row r="625" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A625" s="2">
         <v>44087</v>
       </c>
@@ -7806,7 +7810,7 @@
         <v>30057.54</v>
       </c>
     </row>
-    <row r="626" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A626" s="2">
         <v>44088</v>
       </c>
@@ -7817,7 +7821,7 @@
         <v>30058.19</v>
       </c>
     </row>
-    <row r="627" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A627" s="2">
         <v>44089</v>
       </c>
@@ -7828,7 +7832,7 @@
         <v>30058.84</v>
       </c>
     </row>
-    <row r="628" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A628" s="2">
         <v>44090</v>
       </c>
@@ -7839,7 +7843,7 @@
         <v>30059.5</v>
       </c>
     </row>
-    <row r="629" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A629" s="2">
         <v>44091</v>
       </c>
@@ -7850,7 +7854,7 @@
         <v>30060.15</v>
       </c>
     </row>
-    <row r="630" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A630" s="2">
         <v>44092</v>
       </c>
@@ -7861,7 +7865,7 @@
         <v>30060.81</v>
       </c>
     </row>
-    <row r="631" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A631" s="2">
         <v>44093</v>
       </c>
@@ -7872,7 +7876,7 @@
         <v>30061.46</v>
       </c>
     </row>
-    <row r="632" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A632" s="2">
         <v>44094</v>
       </c>
@@ -7883,7 +7887,7 @@
         <v>30062.11</v>
       </c>
     </row>
-    <row r="633" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A633" s="2">
         <v>44095</v>
       </c>
@@ -7894,7 +7898,7 @@
         <v>30062.77</v>
       </c>
     </row>
-    <row r="634" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A634" s="2">
         <v>44096</v>
       </c>
@@ -7905,7 +7909,7 @@
         <v>30063.42</v>
       </c>
     </row>
-    <row r="635" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A635" s="2">
         <v>44097</v>
       </c>
@@ -7916,7 +7920,7 @@
         <v>30064.080000000002</v>
       </c>
     </row>
-    <row r="636" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A636" s="2">
         <v>44098</v>
       </c>
@@ -7927,7 +7931,7 @@
         <v>30064.73</v>
       </c>
     </row>
-    <row r="637" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A637" s="2">
         <v>44099</v>
       </c>
@@ -7938,7 +7942,7 @@
         <v>30065.38</v>
       </c>
     </row>
-    <row r="638" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A638" s="2">
         <v>44100</v>
       </c>
@@ -7949,7 +7953,7 @@
         <v>30066.04</v>
       </c>
     </row>
-    <row r="639" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A639" s="2">
         <v>44101</v>
       </c>
@@ -7960,7 +7964,7 @@
         <v>30066.69</v>
       </c>
     </row>
-    <row r="640" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A640" s="2">
         <v>44102</v>
       </c>
@@ -7971,7 +7975,7 @@
         <v>30067.35</v>
       </c>
     </row>
-    <row r="641" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A641" s="2">
         <v>44103</v>
       </c>
@@ -7982,7 +7986,7 @@
         <v>30068</v>
       </c>
     </row>
-    <row r="642" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A642" s="2">
         <v>44104</v>
       </c>
@@ -7993,7 +7997,7 @@
         <v>30068.65</v>
       </c>
     </row>
-    <row r="643" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A643" s="2">
         <v>44105</v>
       </c>
@@ -8004,7 +8008,7 @@
         <v>30069.31</v>
       </c>
     </row>
-    <row r="644" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A644" s="2">
         <v>44106</v>
       </c>
@@ -8015,7 +8019,7 @@
         <v>30069.96</v>
       </c>
     </row>
-    <row r="645" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A645" s="2">
         <v>44107</v>
       </c>
@@ -8026,7 +8030,7 @@
         <v>30070.62</v>
       </c>
     </row>
-    <row r="646" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A646" s="2">
         <v>44108</v>
       </c>
@@ -8037,7 +8041,7 @@
         <v>30071.27</v>
       </c>
     </row>
-    <row r="647" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A647" s="2">
         <v>44109</v>
       </c>
@@ -8048,7 +8052,7 @@
         <v>30071.93</v>
       </c>
     </row>
-    <row r="648" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A648" s="2">
         <v>44110</v>
       </c>
@@ -8059,7 +8063,7 @@
         <v>30072.58</v>
       </c>
     </row>
-    <row r="649" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A649" s="2">
         <v>44111</v>
       </c>
@@ -8070,7 +8074,7 @@
         <v>30073.23</v>
       </c>
     </row>
-    <row r="650" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A650" s="2">
         <v>44112</v>
       </c>
@@ -8081,7 +8085,7 @@
         <v>30073.89</v>
       </c>
     </row>
-    <row r="651" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A651" s="2">
         <v>44113</v>
       </c>
@@ -8090,6 +8094,347 @@
       </c>
       <c r="C651" s="3">
         <v>30074.54</v>
+      </c>
+    </row>
+    <row r="652" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A652" s="2">
+        <v>44114</v>
+      </c>
+      <c r="B652" s="3">
+        <v>28722</v>
+      </c>
+      <c r="C652" s="3">
+        <v>30075.69</v>
+      </c>
+    </row>
+    <row r="653" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A653" s="2">
+        <v>44115</v>
+      </c>
+      <c r="B653" s="3">
+        <v>28727.54</v>
+      </c>
+      <c r="C653" s="3">
+        <v>30076.85</v>
+      </c>
+    </row>
+    <row r="654" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A654" s="2">
+        <v>44116</v>
+      </c>
+      <c r="B654" s="3">
+        <v>28733.09</v>
+      </c>
+      <c r="C654" s="3">
+        <v>30078</v>
+      </c>
+    </row>
+    <row r="655" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A655" s="2">
+        <v>44117</v>
+      </c>
+      <c r="B655" s="3">
+        <v>28738.63</v>
+      </c>
+      <c r="C655" s="3">
+        <v>30079.15</v>
+      </c>
+    </row>
+    <row r="656" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A656" s="2">
+        <v>44118</v>
+      </c>
+      <c r="B656" s="3">
+        <v>28744.18</v>
+      </c>
+      <c r="C656" s="3">
+        <v>30080.31</v>
+      </c>
+    </row>
+    <row r="657" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A657" s="2">
+        <v>44119</v>
+      </c>
+      <c r="B657" s="3">
+        <v>28749.73</v>
+      </c>
+      <c r="C657" s="3">
+        <v>30081.46</v>
+      </c>
+    </row>
+    <row r="658" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A658" s="2">
+        <v>44120</v>
+      </c>
+      <c r="B658" s="3">
+        <v>28755.279999999999</v>
+      </c>
+      <c r="C658" s="3">
+        <v>30082.62</v>
+      </c>
+    </row>
+    <row r="659" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A659" s="2">
+        <v>44121</v>
+      </c>
+      <c r="B659" s="3">
+        <v>28760.83</v>
+      </c>
+      <c r="C659" s="3">
+        <v>30083.77</v>
+      </c>
+    </row>
+    <row r="660" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A660" s="2">
+        <v>44122</v>
+      </c>
+      <c r="B660" s="3">
+        <v>28766.38</v>
+      </c>
+      <c r="C660" s="3">
+        <v>30084.92</v>
+      </c>
+    </row>
+    <row r="661" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A661" s="2">
+        <v>44123</v>
+      </c>
+      <c r="B661" s="3">
+        <v>28771.93</v>
+      </c>
+      <c r="C661" s="3">
+        <v>30086.080000000002</v>
+      </c>
+    </row>
+    <row r="662" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A662" s="2">
+        <v>44124</v>
+      </c>
+      <c r="B662" s="3">
+        <v>28777.48</v>
+      </c>
+      <c r="C662" s="3">
+        <v>30087.23</v>
+      </c>
+    </row>
+    <row r="663" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A663" s="2">
+        <v>44125</v>
+      </c>
+      <c r="B663" s="3">
+        <v>28783.03</v>
+      </c>
+      <c r="C663" s="3">
+        <v>30088.39</v>
+      </c>
+    </row>
+    <row r="664" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A664" s="2">
+        <v>44126</v>
+      </c>
+      <c r="B664" s="3">
+        <v>28788.59</v>
+      </c>
+      <c r="C664" s="3">
+        <v>30089.54</v>
+      </c>
+    </row>
+    <row r="665" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A665" s="2">
+        <v>44127</v>
+      </c>
+      <c r="B665" s="3">
+        <v>28794.14</v>
+      </c>
+      <c r="C665" s="3">
+        <v>30090.69</v>
+      </c>
+    </row>
+    <row r="666" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A666" s="2">
+        <v>44128</v>
+      </c>
+      <c r="B666" s="3">
+        <v>28799.7</v>
+      </c>
+      <c r="C666" s="3">
+        <v>30091.85</v>
+      </c>
+    </row>
+    <row r="667" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A667" s="2">
+        <v>44129</v>
+      </c>
+      <c r="B667" s="3">
+        <v>28805.26</v>
+      </c>
+      <c r="C667" s="3">
+        <v>30093</v>
+      </c>
+    </row>
+    <row r="668" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A668" s="2">
+        <v>44130</v>
+      </c>
+      <c r="B668" s="3">
+        <v>28810.82</v>
+      </c>
+      <c r="C668" s="3">
+        <v>30094.16</v>
+      </c>
+    </row>
+    <row r="669" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A669" s="2">
+        <v>44131</v>
+      </c>
+      <c r="B669" s="3">
+        <v>28816.38</v>
+      </c>
+      <c r="C669" s="3">
+        <v>30095.31</v>
+      </c>
+    </row>
+    <row r="670" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A670" s="2">
+        <v>44132</v>
+      </c>
+      <c r="B670" s="3">
+        <v>28821.94</v>
+      </c>
+      <c r="C670" s="3">
+        <v>30096.46</v>
+      </c>
+    </row>
+    <row r="671" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A671" s="2">
+        <v>44133</v>
+      </c>
+      <c r="B671" s="3">
+        <v>28827.5</v>
+      </c>
+      <c r="C671" s="3">
+        <v>30097.62</v>
+      </c>
+    </row>
+    <row r="672" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A672" s="2">
+        <v>44134</v>
+      </c>
+      <c r="B672" s="3">
+        <v>28833.07</v>
+      </c>
+      <c r="C672" s="3">
+        <v>30098.77</v>
+      </c>
+    </row>
+    <row r="673" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A673" s="2">
+        <v>44135</v>
+      </c>
+      <c r="B673" s="3">
+        <v>28838.63</v>
+      </c>
+      <c r="C673" s="3">
+        <v>30099.93</v>
+      </c>
+    </row>
+    <row r="674" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A674" s="2">
+        <v>44136</v>
+      </c>
+      <c r="B674" s="3">
+        <v>28844.2</v>
+      </c>
+      <c r="C674" s="3">
+        <v>30101.08</v>
+      </c>
+    </row>
+    <row r="675" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A675" s="2">
+        <v>44137</v>
+      </c>
+      <c r="B675" s="3">
+        <v>28849.759999999998</v>
+      </c>
+      <c r="C675" s="3">
+        <v>30102.240000000002</v>
+      </c>
+    </row>
+    <row r="676" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A676" s="2">
+        <v>44138</v>
+      </c>
+      <c r="B676" s="3">
+        <v>28855.33</v>
+      </c>
+      <c r="C676" s="3">
+        <v>30103.39</v>
+      </c>
+    </row>
+    <row r="677" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A677" s="2">
+        <v>44139</v>
+      </c>
+      <c r="B677" s="3">
+        <v>28860.9</v>
+      </c>
+      <c r="C677" s="3">
+        <v>30104.55</v>
+      </c>
+    </row>
+    <row r="678" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A678" s="2">
+        <v>44140</v>
+      </c>
+      <c r="B678" s="3">
+        <v>28866.47</v>
+      </c>
+      <c r="C678" s="3">
+        <v>30105.7</v>
+      </c>
+    </row>
+    <row r="679" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A679" s="2">
+        <v>44141</v>
+      </c>
+      <c r="B679" s="3">
+        <v>28872.04</v>
+      </c>
+      <c r="C679" s="3">
+        <v>30106.86</v>
+      </c>
+    </row>
+    <row r="680" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A680" s="2">
+        <v>44142</v>
+      </c>
+      <c r="B680" s="3">
+        <v>28877.61</v>
+      </c>
+      <c r="C680" s="3">
+        <v>30108.01</v>
+      </c>
+    </row>
+    <row r="681" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A681" s="2">
+        <v>44143</v>
+      </c>
+      <c r="B681" s="3">
+        <v>28883.18</v>
+      </c>
+      <c r="C681" s="3">
+        <v>30109.16</v>
+      </c>
+    </row>
+    <row r="682" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A682" s="2">
+        <v>44144</v>
+      </c>
+      <c r="B682" s="3">
+        <v>28888.76</v>
+      </c>
+      <c r="C682" s="3">
+        <v>30110.32</v>
       </c>
     </row>
   </sheetData>

--- a/datacovidChile/IndicadoresEconomicos/UF_IVP_DIARIO.xlsx
+++ b/datacovidChile/IndicadoresEconomicos/UF_IVP_DIARIO.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9f999e057ad8c646/CORONA VIRUS/DATACOVID CL/IndicadoresEconomicos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="8_{09248BB8-9CE4-4580-84DA-AF69B8E47965}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{F9A458B2-B4AB-4B05-871B-DBAE7C4E5CF4}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="8_{09248BB8-9CE4-4580-84DA-AF69B8E47965}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{E1B10BA9-14D3-4960-882F-41E2FEE5140F}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -931,14 +931,13 @@
       <selection activeCell="A2" sqref="A2"/>
       <selection pane="topRight" activeCell="B2" sqref="B2"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="B685" sqref="B685"/>
+      <selection pane="bottomRight" activeCell="B682" sqref="B682"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -948,7 +947,7 @@
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="51" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>

--- a/datacovidChile/IndicadoresEconomicos/UF_IVP_DIARIO.xlsx
+++ b/datacovidChile/IndicadoresEconomicos/UF_IVP_DIARIO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9f999e057ad8c646/CORONA VIRUS/DATACOVID CL/IndicadoresEconomicos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="8_{09248BB8-9CE4-4580-84DA-AF69B8E47965}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{E1B10BA9-14D3-4960-882F-41E2FEE5140F}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="8_{09248BB8-9CE4-4580-84DA-AF69B8E47965}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{FD78E4D3-6E04-48AA-91F6-3783E4FFA6F7}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="UF_IVP_DIARIO" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="UF_IVP_DIARIO" localSheetId="0">UF_IVP_DIARIO!$A$1:$C$682</definedName>
+    <definedName name="UF_IVP_DIARIO" localSheetId="0">UF_IVP_DIARIO!$A$1:$C$712</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -924,20 +924,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C682"/>
+  <dimension ref="A1:C712"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B679" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B703" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
       <selection pane="topRight" activeCell="B2" sqref="B2"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="B682" sqref="B682"/>
+      <selection pane="bottomRight" activeCell="B712" sqref="B712"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -947,7 +948,7 @@
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
     </row>
-    <row r="2" spans="1:3" ht="51" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -8434,6 +8435,336 @@
       </c>
       <c r="C682" s="3">
         <v>30110.32</v>
+      </c>
+    </row>
+    <row r="683" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A683" s="2">
+        <v>44145</v>
+      </c>
+      <c r="B683" s="3">
+        <v>28895.48</v>
+      </c>
+      <c r="C683" s="3">
+        <v>30112.66</v>
+      </c>
+    </row>
+    <row r="684" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A684" s="2">
+        <v>44146</v>
+      </c>
+      <c r="B684" s="3">
+        <v>28902.2</v>
+      </c>
+      <c r="C684" s="3">
+        <v>30114.99</v>
+      </c>
+    </row>
+    <row r="685" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A685" s="2">
+        <v>44147</v>
+      </c>
+      <c r="B685" s="3">
+        <v>28908.92</v>
+      </c>
+      <c r="C685" s="3">
+        <v>30117.33</v>
+      </c>
+    </row>
+    <row r="686" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A686" s="2">
+        <v>44148</v>
+      </c>
+      <c r="B686" s="3">
+        <v>28915.64</v>
+      </c>
+      <c r="C686" s="3">
+        <v>30119.67</v>
+      </c>
+    </row>
+    <row r="687" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A687" s="2">
+        <v>44149</v>
+      </c>
+      <c r="B687" s="3">
+        <v>28922.37</v>
+      </c>
+      <c r="C687" s="3">
+        <v>30122</v>
+      </c>
+    </row>
+    <row r="688" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A688" s="2">
+        <v>44150</v>
+      </c>
+      <c r="B688" s="3">
+        <v>28929.09</v>
+      </c>
+      <c r="C688" s="3">
+        <v>30124.34</v>
+      </c>
+    </row>
+    <row r="689" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A689" s="2">
+        <v>44151</v>
+      </c>
+      <c r="B689" s="3">
+        <v>28935.82</v>
+      </c>
+      <c r="C689" s="3">
+        <v>30126.68</v>
+      </c>
+    </row>
+    <row r="690" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A690" s="2">
+        <v>44152</v>
+      </c>
+      <c r="B690" s="3">
+        <v>28942.55</v>
+      </c>
+      <c r="C690" s="3">
+        <v>30129.02</v>
+      </c>
+    </row>
+    <row r="691" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A691" s="2">
+        <v>44153</v>
+      </c>
+      <c r="B691" s="3">
+        <v>28949.279999999999</v>
+      </c>
+      <c r="C691" s="3">
+        <v>30131.35</v>
+      </c>
+    </row>
+    <row r="692" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A692" s="2">
+        <v>44154</v>
+      </c>
+      <c r="B692" s="3">
+        <v>28956.01</v>
+      </c>
+      <c r="C692" s="3">
+        <v>30133.69</v>
+      </c>
+    </row>
+    <row r="693" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A693" s="2">
+        <v>44155</v>
+      </c>
+      <c r="B693" s="3">
+        <v>28962.74</v>
+      </c>
+      <c r="C693" s="3">
+        <v>30136.03</v>
+      </c>
+    </row>
+    <row r="694" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A694" s="2">
+        <v>44156</v>
+      </c>
+      <c r="B694" s="3">
+        <v>28969.48</v>
+      </c>
+      <c r="C694" s="3">
+        <v>30138.37</v>
+      </c>
+    </row>
+    <row r="695" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A695" s="2">
+        <v>44157</v>
+      </c>
+      <c r="B695" s="3">
+        <v>28976.22</v>
+      </c>
+      <c r="C695" s="3">
+        <v>30140.71</v>
+      </c>
+    </row>
+    <row r="696" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A696" s="2">
+        <v>44158</v>
+      </c>
+      <c r="B696" s="3">
+        <v>28982.95</v>
+      </c>
+      <c r="C696" s="3">
+        <v>30143.05</v>
+      </c>
+    </row>
+    <row r="697" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A697" s="2">
+        <v>44159</v>
+      </c>
+      <c r="B697" s="3">
+        <v>28989.69</v>
+      </c>
+      <c r="C697" s="3">
+        <v>30145.39</v>
+      </c>
+    </row>
+    <row r="698" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A698" s="2">
+        <v>44160</v>
+      </c>
+      <c r="B698" s="3">
+        <v>28996.44</v>
+      </c>
+      <c r="C698" s="3">
+        <v>30147.72</v>
+      </c>
+    </row>
+    <row r="699" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A699" s="2">
+        <v>44161</v>
+      </c>
+      <c r="B699" s="3">
+        <v>29003.18</v>
+      </c>
+      <c r="C699" s="3">
+        <v>30150.06</v>
+      </c>
+    </row>
+    <row r="700" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A700" s="2">
+        <v>44162</v>
+      </c>
+      <c r="B700" s="3">
+        <v>29009.919999999998</v>
+      </c>
+      <c r="C700" s="3">
+        <v>30152.400000000001</v>
+      </c>
+    </row>
+    <row r="701" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A701" s="2">
+        <v>44163</v>
+      </c>
+      <c r="B701" s="3">
+        <v>29016.67</v>
+      </c>
+      <c r="C701" s="3">
+        <v>30154.74</v>
+      </c>
+    </row>
+    <row r="702" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A702" s="2">
+        <v>44164</v>
+      </c>
+      <c r="B702" s="3">
+        <v>29023.42</v>
+      </c>
+      <c r="C702" s="3">
+        <v>30157.08</v>
+      </c>
+    </row>
+    <row r="703" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A703" s="2">
+        <v>44165</v>
+      </c>
+      <c r="B703" s="3">
+        <v>29030.17</v>
+      </c>
+      <c r="C703" s="3">
+        <v>30159.42</v>
+      </c>
+    </row>
+    <row r="704" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A704" s="2">
+        <v>44166</v>
+      </c>
+      <c r="B704" s="3">
+        <v>29036.92</v>
+      </c>
+      <c r="C704" s="3">
+        <v>30161.759999999998</v>
+      </c>
+    </row>
+    <row r="705" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A705" s="2">
+        <v>44167</v>
+      </c>
+      <c r="B705" s="3">
+        <v>29043.67</v>
+      </c>
+      <c r="C705" s="3">
+        <v>30164.1</v>
+      </c>
+    </row>
+    <row r="706" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A706" s="2">
+        <v>44168</v>
+      </c>
+      <c r="B706" s="3">
+        <v>29050.42</v>
+      </c>
+      <c r="C706" s="3">
+        <v>30166.44</v>
+      </c>
+    </row>
+    <row r="707" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A707" s="2">
+        <v>44169</v>
+      </c>
+      <c r="B707" s="3">
+        <v>29057.18</v>
+      </c>
+      <c r="C707" s="3">
+        <v>30168.79</v>
+      </c>
+    </row>
+    <row r="708" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A708" s="2">
+        <v>44170</v>
+      </c>
+      <c r="B708" s="3">
+        <v>29063.94</v>
+      </c>
+      <c r="C708" s="3">
+        <v>30171.13</v>
+      </c>
+    </row>
+    <row r="709" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A709" s="2">
+        <v>44171</v>
+      </c>
+      <c r="B709" s="3">
+        <v>29070.7</v>
+      </c>
+      <c r="C709" s="3">
+        <v>30173.47</v>
+      </c>
+    </row>
+    <row r="710" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A710" s="2">
+        <v>44172</v>
+      </c>
+      <c r="B710" s="3">
+        <v>29077.46</v>
+      </c>
+      <c r="C710" s="3">
+        <v>30175.81</v>
+      </c>
+    </row>
+    <row r="711" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A711" s="2">
+        <v>44173</v>
+      </c>
+      <c r="B711" s="3">
+        <v>29084.22</v>
+      </c>
+      <c r="C711" s="3">
+        <v>30178.15</v>
+      </c>
+    </row>
+    <row r="712" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A712" s="2">
+        <v>44174</v>
+      </c>
+      <c r="B712" s="3">
+        <v>29090.98</v>
+      </c>
+      <c r="C712" s="3">
+        <v>30180.49</v>
       </c>
     </row>
   </sheetData>

--- a/datacovidChile/IndicadoresEconomicos/UF_IVP_DIARIO.xlsx
+++ b/datacovidChile/IndicadoresEconomicos/UF_IVP_DIARIO.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9f999e057ad8c646/CORONA VIRUS/DATACOVID CL/IndicadoresEconomicos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="8_{09248BB8-9CE4-4580-84DA-AF69B8E47965}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{FD78E4D3-6E04-48AA-91F6-3783E4FFA6F7}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="8_{09248BB8-9CE4-4580-84DA-AF69B8E47965}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{07D53E15-9C03-40ED-B2C2-A956CE3F61FB}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="UF_IVP_DIARIO" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="UF_IVP_DIARIO" localSheetId="0">UF_IVP_DIARIO!$A$1:$C$712</definedName>
+    <definedName name="UF_IVP_DIARIO" localSheetId="0">UF_IVP_DIARIO!$A$1:$C$734</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -924,14 +924,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C712"/>
+  <dimension ref="A1:C734"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B703" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B733" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
       <selection pane="topRight" activeCell="B2" sqref="B2"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="B712" sqref="B712"/>
+      <selection pane="bottomRight" activeCell="B734" sqref="B734"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8767,6 +8767,248 @@
         <v>30180.49</v>
       </c>
     </row>
+    <row r="713" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A713" s="2">
+        <v>44175</v>
+      </c>
+      <c r="B713" s="3">
+        <v>29090.04</v>
+      </c>
+      <c r="C713" s="3">
+        <v>30182.71</v>
+      </c>
+    </row>
+    <row r="714" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A714" s="2">
+        <v>44176</v>
+      </c>
+      <c r="B714" s="3">
+        <v>29089.1</v>
+      </c>
+      <c r="C714" s="3">
+        <v>30184.92</v>
+      </c>
+    </row>
+    <row r="715" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A715" s="2">
+        <v>44177</v>
+      </c>
+      <c r="B715" s="3">
+        <v>29088.16</v>
+      </c>
+      <c r="C715" s="3">
+        <v>30187.14</v>
+      </c>
+    </row>
+    <row r="716" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A716" s="2">
+        <v>44178</v>
+      </c>
+      <c r="B716" s="3">
+        <v>29087.22</v>
+      </c>
+      <c r="C716" s="3">
+        <v>30189.360000000001</v>
+      </c>
+    </row>
+    <row r="717" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A717" s="2">
+        <v>44179</v>
+      </c>
+      <c r="B717" s="3">
+        <v>29086.29</v>
+      </c>
+      <c r="C717" s="3">
+        <v>30191.57</v>
+      </c>
+    </row>
+    <row r="718" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A718" s="2">
+        <v>44180</v>
+      </c>
+      <c r="B718" s="3">
+        <v>29085.35</v>
+      </c>
+      <c r="C718" s="3">
+        <v>30193.79</v>
+      </c>
+    </row>
+    <row r="719" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A719" s="2">
+        <v>44181</v>
+      </c>
+      <c r="B719" s="3">
+        <v>29084.41</v>
+      </c>
+      <c r="C719" s="3">
+        <v>30196.01</v>
+      </c>
+    </row>
+    <row r="720" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A720" s="2">
+        <v>44182</v>
+      </c>
+      <c r="B720" s="3">
+        <v>29083.47</v>
+      </c>
+      <c r="C720" s="3">
+        <v>30198.23</v>
+      </c>
+    </row>
+    <row r="721" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A721" s="2">
+        <v>44183</v>
+      </c>
+      <c r="B721" s="3">
+        <v>29082.53</v>
+      </c>
+      <c r="C721" s="3">
+        <v>30200.44</v>
+      </c>
+    </row>
+    <row r="722" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A722" s="2">
+        <v>44184</v>
+      </c>
+      <c r="B722" s="3">
+        <v>29081.59</v>
+      </c>
+      <c r="C722" s="3">
+        <v>30202.66</v>
+      </c>
+    </row>
+    <row r="723" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A723" s="2">
+        <v>44185</v>
+      </c>
+      <c r="B723" s="3">
+        <v>29080.65</v>
+      </c>
+      <c r="C723" s="3">
+        <v>30204.880000000001</v>
+      </c>
+    </row>
+    <row r="724" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A724" s="2">
+        <v>44186</v>
+      </c>
+      <c r="B724" s="3">
+        <v>29079.72</v>
+      </c>
+      <c r="C724" s="3">
+        <v>30207.1</v>
+      </c>
+    </row>
+    <row r="725" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A725" s="2">
+        <v>44187</v>
+      </c>
+      <c r="B725" s="3">
+        <v>29078.78</v>
+      </c>
+      <c r="C725" s="3">
+        <v>30209.31</v>
+      </c>
+    </row>
+    <row r="726" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A726" s="2">
+        <v>44188</v>
+      </c>
+      <c r="B726" s="3">
+        <v>29077.84</v>
+      </c>
+      <c r="C726" s="3">
+        <v>30211.53</v>
+      </c>
+    </row>
+    <row r="727" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A727" s="2">
+        <v>44189</v>
+      </c>
+      <c r="B727" s="3">
+        <v>29076.9</v>
+      </c>
+      <c r="C727" s="3">
+        <v>30213.75</v>
+      </c>
+    </row>
+    <row r="728" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A728" s="2">
+        <v>44190</v>
+      </c>
+      <c r="B728" s="3">
+        <v>29075.96</v>
+      </c>
+      <c r="C728" s="3">
+        <v>30215.97</v>
+      </c>
+    </row>
+    <row r="729" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A729" s="2">
+        <v>44191</v>
+      </c>
+      <c r="B729" s="3">
+        <v>29075.02</v>
+      </c>
+      <c r="C729" s="3">
+        <v>30218.19</v>
+      </c>
+    </row>
+    <row r="730" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A730" s="2">
+        <v>44192</v>
+      </c>
+      <c r="B730" s="3">
+        <v>29074.080000000002</v>
+      </c>
+      <c r="C730" s="3">
+        <v>30220.41</v>
+      </c>
+    </row>
+    <row r="731" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A731" s="2">
+        <v>44193</v>
+      </c>
+      <c r="B731" s="3">
+        <v>29073.15</v>
+      </c>
+      <c r="C731" s="3">
+        <v>30222.63</v>
+      </c>
+    </row>
+    <row r="732" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A732" s="2">
+        <v>44194</v>
+      </c>
+      <c r="B732" s="3">
+        <v>29072.21</v>
+      </c>
+      <c r="C732" s="3">
+        <v>30224.85</v>
+      </c>
+    </row>
+    <row r="733" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A733" s="2">
+        <v>44195</v>
+      </c>
+      <c r="B733" s="3">
+        <v>29071.27</v>
+      </c>
+      <c r="C733" s="3">
+        <v>30227.07</v>
+      </c>
+    </row>
+    <row r="734" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A734" s="2">
+        <v>44196</v>
+      </c>
+      <c r="B734" s="3">
+        <v>29070.33</v>
+      </c>
+      <c r="C734" s="3">
+        <v>30229.29</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:C1"/>

--- a/datacovidChile/IndicadoresEconomicos/UF_IVP_DIARIO.xlsx
+++ b/datacovidChile/IndicadoresEconomicos/UF_IVP_DIARIO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9f999e057ad8c646/CORONA VIRUS/DATACOVID CL/IndicadoresEconomicos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="15" documentId="8_{09248BB8-9CE4-4580-84DA-AF69B8E47965}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{07D53E15-9C03-40ED-B2C2-A956CE3F61FB}"/>
+  <xr:revisionPtr revIDLastSave="16" documentId="8_{09248BB8-9CE4-4580-84DA-AF69B8E47965}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{717C7646-E3F3-4B0E-87BE-8C3F3F436020}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="UF_IVP_DIARIO" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="UF_IVP_DIARIO" localSheetId="0">UF_IVP_DIARIO!$A$1:$C$734</definedName>
+    <definedName name="UF_IVP_DIARIO" localSheetId="0">UF_IVP_DIARIO!$A$1:$C$743</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -924,14 +924,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C734"/>
+  <dimension ref="A1:C743"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B733" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B739" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
       <selection pane="topRight" activeCell="B2" sqref="B2"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="B734" sqref="B734"/>
+      <selection pane="bottomRight" activeCell="B743" sqref="B743"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9009,6 +9009,105 @@
         <v>30229.29</v>
       </c>
     </row>
+    <row r="735" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A735" s="2">
+        <v>44197</v>
+      </c>
+      <c r="B735" s="3">
+        <v>29069.39</v>
+      </c>
+      <c r="C735" s="3">
+        <v>30231.51</v>
+      </c>
+    </row>
+    <row r="736" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A736" s="2">
+        <v>44198</v>
+      </c>
+      <c r="B736" s="3">
+        <v>29068.46</v>
+      </c>
+      <c r="C736" s="3">
+        <v>30233.73</v>
+      </c>
+    </row>
+    <row r="737" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A737" s="2">
+        <v>44199</v>
+      </c>
+      <c r="B737" s="3">
+        <v>29067.52</v>
+      </c>
+      <c r="C737" s="3">
+        <v>30235.95</v>
+      </c>
+    </row>
+    <row r="738" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A738" s="2">
+        <v>44200</v>
+      </c>
+      <c r="B738" s="3">
+        <v>29066.58</v>
+      </c>
+      <c r="C738" s="3">
+        <v>30238.17</v>
+      </c>
+    </row>
+    <row r="739" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A739" s="2">
+        <v>44201</v>
+      </c>
+      <c r="B739" s="3">
+        <v>29065.64</v>
+      </c>
+      <c r="C739" s="3">
+        <v>30240.39</v>
+      </c>
+    </row>
+    <row r="740" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A740" s="2">
+        <v>44202</v>
+      </c>
+      <c r="B740" s="3">
+        <v>29064.7</v>
+      </c>
+      <c r="C740" s="3">
+        <v>30242.61</v>
+      </c>
+    </row>
+    <row r="741" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A741" s="2">
+        <v>44203</v>
+      </c>
+      <c r="B741" s="3">
+        <v>29063.759999999998</v>
+      </c>
+      <c r="C741" s="3">
+        <v>30244.83</v>
+      </c>
+    </row>
+    <row r="742" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A742" s="2">
+        <v>44204</v>
+      </c>
+      <c r="B742" s="3">
+        <v>29062.83</v>
+      </c>
+      <c r="C742" s="3">
+        <v>30247.05</v>
+      </c>
+    </row>
+    <row r="743" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A743" s="2">
+        <v>44205</v>
+      </c>
+      <c r="B743" s="3">
+        <v>29061.89</v>
+      </c>
+      <c r="C743" s="3">
+        <v>30249.27</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:C1"/>

--- a/datacovidChile/IndicadoresEconomicos/UF_IVP_DIARIO.xlsx
+++ b/datacovidChile/IndicadoresEconomicos/UF_IVP_DIARIO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9f999e057ad8c646/CORONA VIRUS/DATACOVID CL/IndicadoresEconomicos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="16" documentId="8_{09248BB8-9CE4-4580-84DA-AF69B8E47965}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{717C7646-E3F3-4B0E-87BE-8C3F3F436020}"/>
+  <xr:revisionPtr revIDLastSave="20" documentId="8_{09248BB8-9CE4-4580-84DA-AF69B8E47965}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{88DEB170-CB05-48ED-B49F-EA2DFEFA71CF}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -937,8 +937,7 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -948,7 +947,7 @@
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="51" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>

--- a/datacovidChile/IndicadoresEconomicos/UF_IVP_DIARIO.xlsx
+++ b/datacovidChile/IndicadoresEconomicos/UF_IVP_DIARIO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9f999e057ad8c646/CORONA VIRUS/DATACOVID CL/IndicadoresEconomicos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="20" documentId="8_{09248BB8-9CE4-4580-84DA-AF69B8E47965}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{88DEB170-CB05-48ED-B49F-EA2DFEFA71CF}"/>
+  <xr:revisionPtr revIDLastSave="21" documentId="8_{09248BB8-9CE4-4580-84DA-AF69B8E47965}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{12F7306D-DB5A-4AC8-AD86-BDCD4CAFFA13}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -931,7 +931,7 @@
       <selection activeCell="A2" sqref="A2"/>
       <selection pane="topRight" activeCell="B2" sqref="B2"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="B743" sqref="B743"/>
+      <selection pane="bottomRight" activeCell="C743" sqref="C743"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/datacovidChile/IndicadoresEconomicos/UF_IVP_DIARIO.xlsx
+++ b/datacovidChile/IndicadoresEconomicos/UF_IVP_DIARIO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9f999e057ad8c646/CORONA VIRUS/DATACOVID CL/IndicadoresEconomicos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="21" documentId="8_{09248BB8-9CE4-4580-84DA-AF69B8E47965}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{12F7306D-DB5A-4AC8-AD86-BDCD4CAFFA13}"/>
+  <xr:revisionPtr revIDLastSave="23" documentId="8_{09248BB8-9CE4-4580-84DA-AF69B8E47965}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{63FE51F8-3B85-40CC-8C44-67B85C9404EE}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/datacovidChile/IndicadoresEconomicos/UF_IVP_DIARIO.xlsx
+++ b/datacovidChile/IndicadoresEconomicos/UF_IVP_DIARIO.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9f999e057ad8c646/CORONA VIRUS/DATACOVID CL/IndicadoresEconomicos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="23" documentId="8_{09248BB8-9CE4-4580-84DA-AF69B8E47965}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{63FE51F8-3B85-40CC-8C44-67B85C9404EE}"/>
+  <xr:revisionPtr revIDLastSave="25" documentId="8_{09248BB8-9CE4-4580-84DA-AF69B8E47965}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{C62724E8-7624-40ED-BBD2-B9E2CE169D74}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="UF_IVP_DIARIO" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="UF_IVP_DIARIO" localSheetId="0">UF_IVP_DIARIO!$A$1:$C$743</definedName>
+    <definedName name="UF_IVP_DIARIO" localSheetId="0">UF_IVP_DIARIO!$A$1:$C$774</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -924,20 +924,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C743"/>
+  <dimension ref="A1:C774"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B739" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B764" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
       <selection pane="topRight" activeCell="B2" sqref="B2"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="C743" sqref="C743"/>
+      <selection pane="bottomRight" activeCell="C774" sqref="C774"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -947,7 +948,7 @@
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
     </row>
-    <row r="2" spans="1:3" ht="51" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -9105,6 +9106,347 @@
       </c>
       <c r="C743" s="3">
         <v>30249.27</v>
+      </c>
+    </row>
+    <row r="744" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A744" s="2">
+        <v>44206</v>
+      </c>
+      <c r="B744" s="3">
+        <v>29064.7</v>
+      </c>
+      <c r="C744" s="3">
+        <v>30252.14</v>
+      </c>
+    </row>
+    <row r="745" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A745" s="2">
+        <v>44207</v>
+      </c>
+      <c r="B745" s="3">
+        <v>29067.51</v>
+      </c>
+      <c r="C745" s="3">
+        <v>30255.02</v>
+      </c>
+    </row>
+    <row r="746" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A746" s="2">
+        <v>44208</v>
+      </c>
+      <c r="B746" s="3">
+        <v>29070.32</v>
+      </c>
+      <c r="C746" s="3">
+        <v>30257.89</v>
+      </c>
+    </row>
+    <row r="747" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A747" s="2">
+        <v>44209</v>
+      </c>
+      <c r="B747" s="3">
+        <v>29073.13</v>
+      </c>
+      <c r="C747" s="3">
+        <v>30260.77</v>
+      </c>
+    </row>
+    <row r="748" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A748" s="2">
+        <v>44210</v>
+      </c>
+      <c r="B748" s="3">
+        <v>29075.93</v>
+      </c>
+      <c r="C748" s="3">
+        <v>30263.64</v>
+      </c>
+    </row>
+    <row r="749" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A749" s="2">
+        <v>44211</v>
+      </c>
+      <c r="B749" s="3">
+        <v>29078.74</v>
+      </c>
+      <c r="C749" s="3">
+        <v>30266.52</v>
+      </c>
+    </row>
+    <row r="750" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A750" s="2">
+        <v>44212</v>
+      </c>
+      <c r="B750" s="3">
+        <v>29081.55</v>
+      </c>
+      <c r="C750" s="3">
+        <v>30269.4</v>
+      </c>
+    </row>
+    <row r="751" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A751" s="2">
+        <v>44213</v>
+      </c>
+      <c r="B751" s="3">
+        <v>29084.36</v>
+      </c>
+      <c r="C751" s="3">
+        <v>30272.27</v>
+      </c>
+    </row>
+    <row r="752" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A752" s="2">
+        <v>44214</v>
+      </c>
+      <c r="B752" s="3">
+        <v>29087.18</v>
+      </c>
+      <c r="C752" s="3">
+        <v>30275.15</v>
+      </c>
+    </row>
+    <row r="753" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A753" s="2">
+        <v>44215</v>
+      </c>
+      <c r="B753" s="3">
+        <v>29089.99</v>
+      </c>
+      <c r="C753" s="3">
+        <v>30278.03</v>
+      </c>
+    </row>
+    <row r="754" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A754" s="2">
+        <v>44216</v>
+      </c>
+      <c r="B754" s="3">
+        <v>29092.799999999999</v>
+      </c>
+      <c r="C754" s="3">
+        <v>30280.9</v>
+      </c>
+    </row>
+    <row r="755" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A755" s="2">
+        <v>44217</v>
+      </c>
+      <c r="B755" s="3">
+        <v>29095.61</v>
+      </c>
+      <c r="C755" s="3">
+        <v>30283.78</v>
+      </c>
+    </row>
+    <row r="756" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A756" s="2">
+        <v>44218</v>
+      </c>
+      <c r="B756" s="3">
+        <v>29098.42</v>
+      </c>
+      <c r="C756" s="3">
+        <v>30286.66</v>
+      </c>
+    </row>
+    <row r="757" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A757" s="2">
+        <v>44219</v>
+      </c>
+      <c r="B757" s="3">
+        <v>29101.23</v>
+      </c>
+      <c r="C757" s="3">
+        <v>30289.54</v>
+      </c>
+    </row>
+    <row r="758" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A758" s="2">
+        <v>44220</v>
+      </c>
+      <c r="B758" s="3">
+        <v>29104.04</v>
+      </c>
+      <c r="C758" s="3">
+        <v>30292.42</v>
+      </c>
+    </row>
+    <row r="759" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A759" s="2">
+        <v>44221</v>
+      </c>
+      <c r="B759" s="3">
+        <v>29106.86</v>
+      </c>
+      <c r="C759" s="3">
+        <v>30295.29</v>
+      </c>
+    </row>
+    <row r="760" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A760" s="2">
+        <v>44222</v>
+      </c>
+      <c r="B760" s="3">
+        <v>29109.67</v>
+      </c>
+      <c r="C760" s="3">
+        <v>30298.17</v>
+      </c>
+    </row>
+    <row r="761" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A761" s="2">
+        <v>44223</v>
+      </c>
+      <c r="B761" s="3">
+        <v>29112.48</v>
+      </c>
+      <c r="C761" s="3">
+        <v>30301.05</v>
+      </c>
+    </row>
+    <row r="762" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A762" s="2">
+        <v>44224</v>
+      </c>
+      <c r="B762" s="3">
+        <v>29115.3</v>
+      </c>
+      <c r="C762" s="3">
+        <v>30303.93</v>
+      </c>
+    </row>
+    <row r="763" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A763" s="2">
+        <v>44225</v>
+      </c>
+      <c r="B763" s="3">
+        <v>29118.11</v>
+      </c>
+      <c r="C763" s="3">
+        <v>30306.81</v>
+      </c>
+    </row>
+    <row r="764" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A764" s="2">
+        <v>44226</v>
+      </c>
+      <c r="B764" s="3">
+        <v>29120.92</v>
+      </c>
+      <c r="C764" s="3">
+        <v>30309.69</v>
+      </c>
+    </row>
+    <row r="765" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A765" s="2">
+        <v>44227</v>
+      </c>
+      <c r="B765" s="3">
+        <v>29123.74</v>
+      </c>
+      <c r="C765" s="3">
+        <v>30312.57</v>
+      </c>
+    </row>
+    <row r="766" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A766" s="2">
+        <v>44228</v>
+      </c>
+      <c r="B766" s="3">
+        <v>29126.55</v>
+      </c>
+      <c r="C766" s="3">
+        <v>30315.45</v>
+      </c>
+    </row>
+    <row r="767" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A767" s="2">
+        <v>44229</v>
+      </c>
+      <c r="B767" s="3">
+        <v>29129.37</v>
+      </c>
+      <c r="C767" s="3">
+        <v>30318.33</v>
+      </c>
+    </row>
+    <row r="768" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A768" s="2">
+        <v>44230</v>
+      </c>
+      <c r="B768" s="3">
+        <v>29132.18</v>
+      </c>
+      <c r="C768" s="3">
+        <v>30321.21</v>
+      </c>
+    </row>
+    <row r="769" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A769" s="2">
+        <v>44231</v>
+      </c>
+      <c r="B769" s="3">
+        <v>29135</v>
+      </c>
+      <c r="C769" s="3">
+        <v>30324.09</v>
+      </c>
+    </row>
+    <row r="770" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A770" s="2">
+        <v>44232</v>
+      </c>
+      <c r="B770" s="3">
+        <v>29137.81</v>
+      </c>
+      <c r="C770" s="3">
+        <v>30326.98</v>
+      </c>
+    </row>
+    <row r="771" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A771" s="2">
+        <v>44233</v>
+      </c>
+      <c r="B771" s="3">
+        <v>29140.63</v>
+      </c>
+      <c r="C771" s="3">
+        <v>30329.86</v>
+      </c>
+    </row>
+    <row r="772" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A772" s="2">
+        <v>44234</v>
+      </c>
+      <c r="B772" s="3">
+        <v>29143.439999999999</v>
+      </c>
+      <c r="C772" s="3">
+        <v>30332.74</v>
+      </c>
+    </row>
+    <row r="773" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A773" s="2">
+        <v>44235</v>
+      </c>
+      <c r="B773" s="3">
+        <v>29146.26</v>
+      </c>
+      <c r="C773" s="3">
+        <v>30335.62</v>
+      </c>
+    </row>
+    <row r="774" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A774" s="2">
+        <v>44236</v>
+      </c>
+      <c r="B774" s="3">
+        <v>29149.08</v>
+      </c>
+      <c r="C774" s="3">
+        <v>30338.5</v>
       </c>
     </row>
   </sheetData>

--- a/datacovidChile/IndicadoresEconomicos/UF_IVP_DIARIO.xlsx
+++ b/datacovidChile/IndicadoresEconomicos/UF_IVP_DIARIO.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9f999e057ad8c646/CORONA VIRUS/DATACOVID CL/IndicadoresEconomicos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="25" documentId="8_{09248BB8-9CE4-4580-84DA-AF69B8E47965}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{C62724E8-7624-40ED-BBD2-B9E2CE169D74}"/>
+  <xr:revisionPtr revIDLastSave="27" documentId="8_{09248BB8-9CE4-4580-84DA-AF69B8E47965}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{9E0BD427-ECA7-4619-BDC8-74798BE75993}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -937,8 +937,7 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -948,7 +947,7 @@
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="51" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>

--- a/datacovidChile/IndicadoresEconomicos/UF_IVP_DIARIO.xlsx
+++ b/datacovidChile/IndicadoresEconomicos/UF_IVP_DIARIO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9f999e057ad8c646/CORONA VIRUS/DATACOVID CL/IndicadoresEconomicos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="27" documentId="8_{09248BB8-9CE4-4580-84DA-AF69B8E47965}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{9E0BD427-ECA7-4619-BDC8-74798BE75993}"/>
+  <xr:revisionPtr revIDLastSave="31" documentId="8_{09248BB8-9CE4-4580-84DA-AF69B8E47965}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{C0185ABD-8B4D-4E0C-A343-ED56D49A6DAF}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="UF_IVP_DIARIO" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="UF_IVP_DIARIO" localSheetId="0">UF_IVP_DIARIO!$A$1:$C$774</definedName>
+    <definedName name="UF_IVP_DIARIO" localSheetId="0">UF_IVP_DIARIO!$A$1:$C$802</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -924,14 +924,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C774"/>
+  <dimension ref="A1:C802"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B764" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B802" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
       <selection pane="topRight" activeCell="B2" sqref="B2"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="C774" sqref="C774"/>
+      <selection pane="bottomRight" activeCell="A802" sqref="A802"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9448,6 +9448,314 @@
         <v>30338.5</v>
       </c>
     </row>
+    <row r="775" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A775" s="2">
+        <v>44237</v>
+      </c>
+      <c r="B775" s="3">
+        <v>29156.34</v>
+      </c>
+      <c r="C775" s="3">
+        <v>30342.38</v>
+      </c>
+    </row>
+    <row r="776" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A776" s="2">
+        <v>44238</v>
+      </c>
+      <c r="B776" s="3">
+        <v>29163.61</v>
+      </c>
+      <c r="C776" s="3">
+        <v>30346.26</v>
+      </c>
+    </row>
+    <row r="777" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A777" s="2">
+        <v>44239</v>
+      </c>
+      <c r="B777" s="3">
+        <v>29170.87</v>
+      </c>
+      <c r="C777" s="3">
+        <v>30350.14</v>
+      </c>
+    </row>
+    <row r="778" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A778" s="2">
+        <v>44240</v>
+      </c>
+      <c r="B778" s="3">
+        <v>29178.14</v>
+      </c>
+      <c r="C778" s="3">
+        <v>30354.02</v>
+      </c>
+    </row>
+    <row r="779" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A779" s="2">
+        <v>44241</v>
+      </c>
+      <c r="B779" s="3">
+        <v>29185.41</v>
+      </c>
+      <c r="C779" s="3">
+        <v>30357.91</v>
+      </c>
+    </row>
+    <row r="780" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A780" s="2">
+        <v>44242</v>
+      </c>
+      <c r="B780" s="3">
+        <v>29192.68</v>
+      </c>
+      <c r="C780" s="3">
+        <v>30361.79</v>
+      </c>
+    </row>
+    <row r="781" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A781" s="2">
+        <v>44243</v>
+      </c>
+      <c r="B781" s="3">
+        <v>29199.96</v>
+      </c>
+      <c r="C781" s="3">
+        <v>30365.67</v>
+      </c>
+    </row>
+    <row r="782" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A782" s="2">
+        <v>44244</v>
+      </c>
+      <c r="B782" s="3">
+        <v>29207.23</v>
+      </c>
+      <c r="C782" s="3">
+        <v>30369.56</v>
+      </c>
+    </row>
+    <row r="783" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A783" s="2">
+        <v>44245</v>
+      </c>
+      <c r="B783" s="3">
+        <v>29214.51</v>
+      </c>
+      <c r="C783" s="3">
+        <v>30373.439999999999</v>
+      </c>
+    </row>
+    <row r="784" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A784" s="2">
+        <v>44246</v>
+      </c>
+      <c r="B784" s="3">
+        <v>29221.79</v>
+      </c>
+      <c r="C784" s="3">
+        <v>30377.33</v>
+      </c>
+    </row>
+    <row r="785" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A785" s="2">
+        <v>44247</v>
+      </c>
+      <c r="B785" s="3">
+        <v>29229.07</v>
+      </c>
+      <c r="C785" s="3">
+        <v>30381.21</v>
+      </c>
+    </row>
+    <row r="786" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A786" s="2">
+        <v>44248</v>
+      </c>
+      <c r="B786" s="3">
+        <v>29236.35</v>
+      </c>
+      <c r="C786" s="3">
+        <v>30385.1</v>
+      </c>
+    </row>
+    <row r="787" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A787" s="2">
+        <v>44249</v>
+      </c>
+      <c r="B787" s="3">
+        <v>29243.64</v>
+      </c>
+      <c r="C787" s="3">
+        <v>30388.98</v>
+      </c>
+    </row>
+    <row r="788" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A788" s="2">
+        <v>44250</v>
+      </c>
+      <c r="B788" s="3">
+        <v>29250.92</v>
+      </c>
+      <c r="C788" s="3">
+        <v>30392.87</v>
+      </c>
+    </row>
+    <row r="789" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A789" s="2">
+        <v>44251</v>
+      </c>
+      <c r="B789" s="3">
+        <v>29258.21</v>
+      </c>
+      <c r="C789" s="3">
+        <v>30396.76</v>
+      </c>
+    </row>
+    <row r="790" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A790" s="2">
+        <v>44252</v>
+      </c>
+      <c r="B790" s="3">
+        <v>29265.5</v>
+      </c>
+      <c r="C790" s="3">
+        <v>30400.65</v>
+      </c>
+    </row>
+    <row r="791" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A791" s="2">
+        <v>44253</v>
+      </c>
+      <c r="B791" s="3">
+        <v>29272.79</v>
+      </c>
+      <c r="C791" s="3">
+        <v>30404.53</v>
+      </c>
+    </row>
+    <row r="792" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A792" s="2">
+        <v>44254</v>
+      </c>
+      <c r="B792" s="3">
+        <v>29280.09</v>
+      </c>
+      <c r="C792" s="3">
+        <v>30408.42</v>
+      </c>
+    </row>
+    <row r="793" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A793" s="2">
+        <v>44255</v>
+      </c>
+      <c r="B793" s="3">
+        <v>29287.38</v>
+      </c>
+      <c r="C793" s="3">
+        <v>30412.31</v>
+      </c>
+    </row>
+    <row r="794" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A794" s="2">
+        <v>44256</v>
+      </c>
+      <c r="B794" s="3">
+        <v>29294.68</v>
+      </c>
+      <c r="C794" s="3">
+        <v>30416.2</v>
+      </c>
+    </row>
+    <row r="795" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A795" s="2">
+        <v>44257</v>
+      </c>
+      <c r="B795" s="3">
+        <v>29301.98</v>
+      </c>
+      <c r="C795" s="3">
+        <v>30420.09</v>
+      </c>
+    </row>
+    <row r="796" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A796" s="2">
+        <v>44258</v>
+      </c>
+      <c r="B796" s="3">
+        <v>29309.279999999999</v>
+      </c>
+      <c r="C796" s="3">
+        <v>30423.98</v>
+      </c>
+    </row>
+    <row r="797" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A797" s="2">
+        <v>44259</v>
+      </c>
+      <c r="B797" s="3">
+        <v>29316.58</v>
+      </c>
+      <c r="C797" s="3">
+        <v>30427.87</v>
+      </c>
+    </row>
+    <row r="798" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A798" s="2">
+        <v>44260</v>
+      </c>
+      <c r="B798" s="3">
+        <v>29323.89</v>
+      </c>
+      <c r="C798" s="3">
+        <v>30431.77</v>
+      </c>
+    </row>
+    <row r="799" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A799" s="2">
+        <v>44261</v>
+      </c>
+      <c r="B799" s="3">
+        <v>29331.19</v>
+      </c>
+      <c r="C799" s="3">
+        <v>30435.66</v>
+      </c>
+    </row>
+    <row r="800" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A800" s="2">
+        <v>44262</v>
+      </c>
+      <c r="B800" s="3">
+        <v>29338.5</v>
+      </c>
+      <c r="C800" s="3">
+        <v>30439.55</v>
+      </c>
+    </row>
+    <row r="801" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A801" s="2">
+        <v>44263</v>
+      </c>
+      <c r="B801" s="3">
+        <v>29345.81</v>
+      </c>
+      <c r="C801" s="3">
+        <v>30443.45</v>
+      </c>
+    </row>
+    <row r="802" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A802" s="2">
+        <v>44264</v>
+      </c>
+      <c r="B802" s="3">
+        <v>29353.119999999999</v>
+      </c>
+      <c r="C802" s="3">
+        <v>30447.34</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:C1"/>

--- a/datacovidChile/IndicadoresEconomicos/UF_IVP_DIARIO.xlsx
+++ b/datacovidChile/IndicadoresEconomicos/UF_IVP_DIARIO.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9f999e057ad8c646/CORONA VIRUS/DATACOVID CL/IndicadoresEconomicos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="31" documentId="8_{09248BB8-9CE4-4580-84DA-AF69B8E47965}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{C0185ABD-8B4D-4E0C-A343-ED56D49A6DAF}"/>
+  <xr:revisionPtr revIDLastSave="33" documentId="8_{09248BB8-9CE4-4580-84DA-AF69B8E47965}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{53CF96C8-A842-4275-9794-C10007DD670A}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="UF_IVP_DIARIO" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="UF_IVP_DIARIO" localSheetId="0">UF_IVP_DIARIO!$A$1:$C$802</definedName>
+    <definedName name="UF_IVP_DIARIO" localSheetId="0">UF_IVP_DIARIO!$A$1:$C$833</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -924,20 +924,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C802"/>
+  <dimension ref="A1:C833"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B802" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B829" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
       <selection pane="topRight" activeCell="B2" sqref="B2"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="A802" sqref="A802"/>
+      <selection pane="bottomRight" activeCell="A833" sqref="A833"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -947,7 +948,7 @@
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
     </row>
-    <row r="2" spans="1:3" ht="51" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -9754,6 +9755,347 @@
       </c>
       <c r="C802" s="3">
         <v>30447.34</v>
+      </c>
+    </row>
+    <row r="803" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A803" s="2">
+        <v>44265</v>
+      </c>
+      <c r="B803" s="3">
+        <v>29355.01</v>
+      </c>
+      <c r="C803" s="3">
+        <v>30451.39</v>
+      </c>
+    </row>
+    <row r="804" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A804" s="2">
+        <v>44266</v>
+      </c>
+      <c r="B804" s="3">
+        <v>29356.9</v>
+      </c>
+      <c r="C804" s="3">
+        <v>30455.439999999999</v>
+      </c>
+    </row>
+    <row r="805" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A805" s="2">
+        <v>44267</v>
+      </c>
+      <c r="B805" s="3">
+        <v>29358.799999999999</v>
+      </c>
+      <c r="C805" s="3">
+        <v>30459.48</v>
+      </c>
+    </row>
+    <row r="806" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A806" s="2">
+        <v>44268</v>
+      </c>
+      <c r="B806" s="3">
+        <v>29360.69</v>
+      </c>
+      <c r="C806" s="3">
+        <v>30463.53</v>
+      </c>
+    </row>
+    <row r="807" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A807" s="2">
+        <v>44269</v>
+      </c>
+      <c r="B807" s="3">
+        <v>29362.58</v>
+      </c>
+      <c r="C807" s="3">
+        <v>30467.58</v>
+      </c>
+    </row>
+    <row r="808" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A808" s="2">
+        <v>44270</v>
+      </c>
+      <c r="B808" s="3">
+        <v>29364.47</v>
+      </c>
+      <c r="C808" s="3">
+        <v>30471.63</v>
+      </c>
+    </row>
+    <row r="809" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A809" s="2">
+        <v>44271</v>
+      </c>
+      <c r="B809" s="3">
+        <v>29366.37</v>
+      </c>
+      <c r="C809" s="3">
+        <v>30475.68</v>
+      </c>
+    </row>
+    <row r="810" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A810" s="2">
+        <v>44272</v>
+      </c>
+      <c r="B810" s="3">
+        <v>29368.26</v>
+      </c>
+      <c r="C810" s="3">
+        <v>30479.73</v>
+      </c>
+    </row>
+    <row r="811" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A811" s="2">
+        <v>44273</v>
+      </c>
+      <c r="B811" s="3">
+        <v>29370.15</v>
+      </c>
+      <c r="C811" s="3">
+        <v>30483.79</v>
+      </c>
+    </row>
+    <row r="812" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A812" s="2">
+        <v>44274</v>
+      </c>
+      <c r="B812" s="3">
+        <v>29372.04</v>
+      </c>
+      <c r="C812" s="3">
+        <v>30487.84</v>
+      </c>
+    </row>
+    <row r="813" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A813" s="2">
+        <v>44275</v>
+      </c>
+      <c r="B813" s="3">
+        <v>29373.94</v>
+      </c>
+      <c r="C813" s="3">
+        <v>30491.89</v>
+      </c>
+    </row>
+    <row r="814" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A814" s="2">
+        <v>44276</v>
+      </c>
+      <c r="B814" s="3">
+        <v>29375.83</v>
+      </c>
+      <c r="C814" s="3">
+        <v>30495.94</v>
+      </c>
+    </row>
+    <row r="815" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A815" s="2">
+        <v>44277</v>
+      </c>
+      <c r="B815" s="3">
+        <v>29377.72</v>
+      </c>
+      <c r="C815" s="3">
+        <v>30500</v>
+      </c>
+    </row>
+    <row r="816" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A816" s="2">
+        <v>44278</v>
+      </c>
+      <c r="B816" s="3">
+        <v>29379.62</v>
+      </c>
+      <c r="C816" s="3">
+        <v>30504.05</v>
+      </c>
+    </row>
+    <row r="817" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A817" s="2">
+        <v>44279</v>
+      </c>
+      <c r="B817" s="3">
+        <v>29381.51</v>
+      </c>
+      <c r="C817" s="3">
+        <v>30508.11</v>
+      </c>
+    </row>
+    <row r="818" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A818" s="2">
+        <v>44280</v>
+      </c>
+      <c r="B818" s="3">
+        <v>29383.41</v>
+      </c>
+      <c r="C818" s="3">
+        <v>30512.16</v>
+      </c>
+    </row>
+    <row r="819" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A819" s="2">
+        <v>44281</v>
+      </c>
+      <c r="B819" s="3">
+        <v>29385.3</v>
+      </c>
+      <c r="C819" s="3">
+        <v>30516.22</v>
+      </c>
+    </row>
+    <row r="820" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A820" s="2">
+        <v>44282</v>
+      </c>
+      <c r="B820" s="3">
+        <v>29387.19</v>
+      </c>
+      <c r="C820" s="3">
+        <v>30520.28</v>
+      </c>
+    </row>
+    <row r="821" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A821" s="2">
+        <v>44283</v>
+      </c>
+      <c r="B821" s="3">
+        <v>29389.09</v>
+      </c>
+      <c r="C821" s="3">
+        <v>30524.33</v>
+      </c>
+    </row>
+    <row r="822" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A822" s="2">
+        <v>44284</v>
+      </c>
+      <c r="B822" s="3">
+        <v>29390.98</v>
+      </c>
+      <c r="C822" s="3">
+        <v>30528.39</v>
+      </c>
+    </row>
+    <row r="823" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A823" s="2">
+        <v>44285</v>
+      </c>
+      <c r="B823" s="3">
+        <v>29392.880000000001</v>
+      </c>
+      <c r="C823" s="3">
+        <v>30532.45</v>
+      </c>
+    </row>
+    <row r="824" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A824" s="2">
+        <v>44286</v>
+      </c>
+      <c r="B824" s="3">
+        <v>29394.77</v>
+      </c>
+      <c r="C824" s="3">
+        <v>30536.51</v>
+      </c>
+    </row>
+    <row r="825" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A825" s="2">
+        <v>44287</v>
+      </c>
+      <c r="B825" s="3">
+        <v>29396.67</v>
+      </c>
+      <c r="C825" s="3">
+        <v>30540.57</v>
+      </c>
+    </row>
+    <row r="826" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A826" s="2">
+        <v>44288</v>
+      </c>
+      <c r="B826" s="3">
+        <v>29398.560000000001</v>
+      </c>
+      <c r="C826" s="3">
+        <v>30544.63</v>
+      </c>
+    </row>
+    <row r="827" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A827" s="2">
+        <v>44289</v>
+      </c>
+      <c r="B827" s="3">
+        <v>29400.45</v>
+      </c>
+      <c r="C827" s="3">
+        <v>30548.69</v>
+      </c>
+    </row>
+    <row r="828" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A828" s="2">
+        <v>44290</v>
+      </c>
+      <c r="B828" s="3">
+        <v>29402.35</v>
+      </c>
+      <c r="C828" s="3">
+        <v>30552.75</v>
+      </c>
+    </row>
+    <row r="829" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A829" s="2">
+        <v>44291</v>
+      </c>
+      <c r="B829" s="3">
+        <v>29404.240000000002</v>
+      </c>
+      <c r="C829" s="3">
+        <v>30556.81</v>
+      </c>
+    </row>
+    <row r="830" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A830" s="2">
+        <v>44292</v>
+      </c>
+      <c r="B830" s="3">
+        <v>29406.14</v>
+      </c>
+      <c r="C830" s="3">
+        <v>30560.87</v>
+      </c>
+    </row>
+    <row r="831" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A831" s="2">
+        <v>44293</v>
+      </c>
+      <c r="B831" s="3">
+        <v>29408.04</v>
+      </c>
+      <c r="C831" s="3">
+        <v>30564.93</v>
+      </c>
+    </row>
+    <row r="832" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A832" s="2">
+        <v>44294</v>
+      </c>
+      <c r="B832" s="3">
+        <v>29409.93</v>
+      </c>
+      <c r="C832" s="3">
+        <v>30569</v>
+      </c>
+    </row>
+    <row r="833" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A833" s="2">
+        <v>44295</v>
+      </c>
+      <c r="B833" s="3">
+        <v>29411.83</v>
+      </c>
+      <c r="C833" s="3">
+        <v>30573.06</v>
       </c>
     </row>
   </sheetData>

--- a/datacovidChile/IndicadoresEconomicos/UF_IVP_DIARIO.xlsx
+++ b/datacovidChile/IndicadoresEconomicos/UF_IVP_DIARIO.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9f999e057ad8c646/CORONA VIRUS/DATACOVID CL/IndicadoresEconomicos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="33" documentId="8_{09248BB8-9CE4-4580-84DA-AF69B8E47965}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{53CF96C8-A842-4275-9794-C10007DD670A}"/>
+  <xr:revisionPtr revIDLastSave="35" documentId="8_{09248BB8-9CE4-4580-84DA-AF69B8E47965}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{36E92D66-E07D-4151-A6DC-373A18C74EF9}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="UF_IVP_DIARIO" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="UF_IVP_DIARIO" localSheetId="0">UF_IVP_DIARIO!$A$1:$C$833</definedName>
+    <definedName name="UF_IVP_DIARIO" localSheetId="0">UF_IVP_DIARIO!$A$1:$C$863</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -24,7 +24,7 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" odcFile="D:\reyes.rodriguezucv@gmail.com\OneDrive\Proyectos\Data intelligence\Covid-19\Chile\UF_IVP_DIARIO.iqy" name="UF_IVP_DIARIO" type="4" refreshedVersion="6" background="1" saveData="1">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" odcFile="D:\reyes.rodriguezucv@gmail.com\OneDrive\Proyectos\Data intelligence\Covid-19\Chile\UF_IVP_DIARIO.iqy" name="UF_IVP_DIARIO" type="4" refreshedVersion="7" background="1" saveData="1">
     <webPr consecutive="1" xl2000="1" url="http://si3.bcentral.cl/SieteIQY/secure/carga_series_excel.aspx" post="fechaInicio=[&quot;añoInicial&quot;,&quot;Año inicial&quot;]&amp;fechaFin=[&quot;añoFinal&quot;,&quot;Año final&quot;]&amp;param=dGZNYkFkUTNSN1dvM0MxWiZuR2Ijc0dGS3ctTm0mUVREenEuWiZiYV9kUXdXbUNNNXMtX0Yta3dqZSY0T0ZGSW4xekswak9ZbjZVR2IgWHAgN2VOQ1pHTkc5TjI2bzIxIExUMTIyJCZ0YVNTNEViOWRoNEIjdlpzbkRNbFdrWi5WSk9IODlubWppT1ZyU2k2a3g5NlhKIF8xIGpMRnJqX3QgKHZrKTtnOHNFdDUxaFdJcFkkU0JxQ3ljUFpoZ0lLYTVQeTJINTckdThoNDUgdl8gZ3ZOd24gMnYjc0x3TksgKDhKYSk=" htmlTables="1" htmlFormat="all"/>
     <parameters count="2">
       <parameter name="añoInicial" prompt="Año inicial"/>
@@ -924,14 +924,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C833"/>
+  <dimension ref="A1:C863"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B829" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B863" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
       <selection pane="topRight" activeCell="B2" sqref="B2"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="A833" sqref="A833"/>
+      <selection pane="bottomRight" activeCell="A863" sqref="A863"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10098,6 +10098,336 @@
         <v>30573.06</v>
       </c>
     </row>
+    <row r="834" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A834" s="2">
+        <v>44296</v>
+      </c>
+      <c r="B834" s="3">
+        <v>29415.74</v>
+      </c>
+      <c r="C834" s="3">
+        <v>30576.66</v>
+      </c>
+    </row>
+    <row r="835" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A835" s="2">
+        <v>44297</v>
+      </c>
+      <c r="B835" s="3">
+        <v>29419.66</v>
+      </c>
+      <c r="C835" s="3">
+        <v>30580.26</v>
+      </c>
+    </row>
+    <row r="836" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A836" s="2">
+        <v>44298</v>
+      </c>
+      <c r="B836" s="3">
+        <v>29423.57</v>
+      </c>
+      <c r="C836" s="3">
+        <v>30583.85</v>
+      </c>
+    </row>
+    <row r="837" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A837" s="2">
+        <v>44299</v>
+      </c>
+      <c r="B837" s="3">
+        <v>29427.49</v>
+      </c>
+      <c r="C837" s="3">
+        <v>30587.45</v>
+      </c>
+    </row>
+    <row r="838" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A838" s="2">
+        <v>44300</v>
+      </c>
+      <c r="B838" s="3">
+        <v>29431.41</v>
+      </c>
+      <c r="C838" s="3">
+        <v>30591.05</v>
+      </c>
+    </row>
+    <row r="839" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A839" s="2">
+        <v>44301</v>
+      </c>
+      <c r="B839" s="3">
+        <v>29435.32</v>
+      </c>
+      <c r="C839" s="3">
+        <v>30594.65</v>
+      </c>
+    </row>
+    <row r="840" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A840" s="2">
+        <v>44302</v>
+      </c>
+      <c r="B840" s="3">
+        <v>29439.24</v>
+      </c>
+      <c r="C840" s="3">
+        <v>30598.25</v>
+      </c>
+    </row>
+    <row r="841" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A841" s="2">
+        <v>44303</v>
+      </c>
+      <c r="B841" s="3">
+        <v>29443.16</v>
+      </c>
+      <c r="C841" s="3">
+        <v>30601.85</v>
+      </c>
+    </row>
+    <row r="842" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A842" s="2">
+        <v>44304</v>
+      </c>
+      <c r="B842" s="3">
+        <v>29447.07</v>
+      </c>
+      <c r="C842" s="3">
+        <v>30605.45</v>
+      </c>
+    </row>
+    <row r="843" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A843" s="2">
+        <v>44305</v>
+      </c>
+      <c r="B843" s="3">
+        <v>29450.99</v>
+      </c>
+      <c r="C843" s="3">
+        <v>30609.05</v>
+      </c>
+    </row>
+    <row r="844" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A844" s="2">
+        <v>44306</v>
+      </c>
+      <c r="B844" s="3">
+        <v>29454.91</v>
+      </c>
+      <c r="C844" s="3">
+        <v>30612.65</v>
+      </c>
+    </row>
+    <row r="845" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A845" s="2">
+        <v>44307</v>
+      </c>
+      <c r="B845" s="3">
+        <v>29458.83</v>
+      </c>
+      <c r="C845" s="3">
+        <v>30616.26</v>
+      </c>
+    </row>
+    <row r="846" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A846" s="2">
+        <v>44308</v>
+      </c>
+      <c r="B846" s="3">
+        <v>29462.75</v>
+      </c>
+      <c r="C846" s="3">
+        <v>30619.86</v>
+      </c>
+    </row>
+    <row r="847" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A847" s="2">
+        <v>44309</v>
+      </c>
+      <c r="B847" s="3">
+        <v>29466.67</v>
+      </c>
+      <c r="C847" s="3">
+        <v>30623.46</v>
+      </c>
+    </row>
+    <row r="848" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A848" s="2">
+        <v>44310</v>
+      </c>
+      <c r="B848" s="3">
+        <v>29470.59</v>
+      </c>
+      <c r="C848" s="3">
+        <v>30627.06</v>
+      </c>
+    </row>
+    <row r="849" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A849" s="2">
+        <v>44311</v>
+      </c>
+      <c r="B849" s="3">
+        <v>29474.52</v>
+      </c>
+      <c r="C849" s="3">
+        <v>30630.67</v>
+      </c>
+    </row>
+    <row r="850" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A850" s="2">
+        <v>44312</v>
+      </c>
+      <c r="B850" s="3">
+        <v>29478.44</v>
+      </c>
+      <c r="C850" s="3">
+        <v>30634.27</v>
+      </c>
+    </row>
+    <row r="851" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A851" s="2">
+        <v>44313</v>
+      </c>
+      <c r="B851" s="3">
+        <v>29482.36</v>
+      </c>
+      <c r="C851" s="3">
+        <v>30637.88</v>
+      </c>
+    </row>
+    <row r="852" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A852" s="2">
+        <v>44314</v>
+      </c>
+      <c r="B852" s="3">
+        <v>29486.29</v>
+      </c>
+      <c r="C852" s="3">
+        <v>30641.48</v>
+      </c>
+    </row>
+    <row r="853" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A853" s="2">
+        <v>44315</v>
+      </c>
+      <c r="B853" s="3">
+        <v>29490.21</v>
+      </c>
+      <c r="C853" s="3">
+        <v>30645.09</v>
+      </c>
+    </row>
+    <row r="854" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A854" s="2">
+        <v>44316</v>
+      </c>
+      <c r="B854" s="3">
+        <v>29494.13</v>
+      </c>
+      <c r="C854" s="3">
+        <v>30648.69</v>
+      </c>
+    </row>
+    <row r="855" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A855" s="2">
+        <v>44317</v>
+      </c>
+      <c r="B855" s="3">
+        <v>29498.06</v>
+      </c>
+      <c r="C855" s="3">
+        <v>30652.3</v>
+      </c>
+    </row>
+    <row r="856" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A856" s="2">
+        <v>44318</v>
+      </c>
+      <c r="B856" s="3">
+        <v>29501.98</v>
+      </c>
+      <c r="C856" s="3">
+        <v>30655.91</v>
+      </c>
+    </row>
+    <row r="857" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A857" s="2">
+        <v>44319</v>
+      </c>
+      <c r="B857" s="3">
+        <v>29505.91</v>
+      </c>
+      <c r="C857" s="3">
+        <v>30659.51</v>
+      </c>
+    </row>
+    <row r="858" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A858" s="2">
+        <v>44320</v>
+      </c>
+      <c r="B858" s="3">
+        <v>29509.84</v>
+      </c>
+      <c r="C858" s="3">
+        <v>30663.119999999999</v>
+      </c>
+    </row>
+    <row r="859" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A859" s="2">
+        <v>44321</v>
+      </c>
+      <c r="B859" s="3">
+        <v>29513.759999999998</v>
+      </c>
+      <c r="C859" s="3">
+        <v>30666.73</v>
+      </c>
+    </row>
+    <row r="860" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A860" s="2">
+        <v>44322</v>
+      </c>
+      <c r="B860" s="3">
+        <v>29517.69</v>
+      </c>
+      <c r="C860" s="3">
+        <v>30670.34</v>
+      </c>
+    </row>
+    <row r="861" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A861" s="2">
+        <v>44323</v>
+      </c>
+      <c r="B861" s="3">
+        <v>29521.62</v>
+      </c>
+      <c r="C861" s="3">
+        <v>30673.95</v>
+      </c>
+    </row>
+    <row r="862" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A862" s="2">
+        <v>44324</v>
+      </c>
+      <c r="B862" s="3">
+        <v>29525.55</v>
+      </c>
+      <c r="C862" s="3">
+        <v>30677.56</v>
+      </c>
+    </row>
+    <row r="863" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A863" s="2">
+        <v>44325</v>
+      </c>
+      <c r="B863" s="3">
+        <v>29529.48</v>
+      </c>
+      <c r="C863" s="3">
+        <v>30681.17</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:C1"/>

--- a/datacovidChile/IndicadoresEconomicos/UF_IVP_DIARIO.xlsx
+++ b/datacovidChile/IndicadoresEconomicos/UF_IVP_DIARIO.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9f999e057ad8c646/CORONA VIRUS/DATACOVID CL/IndicadoresEconomicos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="35" documentId="8_{09248BB8-9CE4-4580-84DA-AF69B8E47965}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{36E92D66-E07D-4151-A6DC-373A18C74EF9}"/>
+  <xr:revisionPtr revIDLastSave="39" documentId="8_{09248BB8-9CE4-4580-84DA-AF69B8E47965}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{9A84EB4C-E6BD-42C2-9AA5-B3641057581F}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="UF_IVP_DIARIO" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="UF_IVP_DIARIO" localSheetId="0">UF_IVP_DIARIO!$A$1:$C$863</definedName>
+    <definedName name="UF_IVP_DIARIO" localSheetId="0">UF_IVP_DIARIO!$A$1:$C$894</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -924,21 +924,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C863"/>
+  <dimension ref="A1:C894"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B863" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B894" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
       <selection pane="topRight" activeCell="B2" sqref="B2"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="A863" sqref="A863"/>
+      <selection pane="bottomRight" activeCell="A894" sqref="A894"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -948,7 +947,7 @@
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="51" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -10426,6 +10425,347 @@
       </c>
       <c r="C863" s="3">
         <v>30681.17</v>
+      </c>
+    </row>
+    <row r="864" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A864" s="2">
+        <v>44326</v>
+      </c>
+      <c r="B864" s="3">
+        <v>29533.279999999999</v>
+      </c>
+      <c r="C864" s="3">
+        <v>30684.29</v>
+      </c>
+    </row>
+    <row r="865" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A865" s="2">
+        <v>44327</v>
+      </c>
+      <c r="B865" s="3">
+        <v>29537.09</v>
+      </c>
+      <c r="C865" s="3">
+        <v>30687.41</v>
+      </c>
+    </row>
+    <row r="866" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A866" s="2">
+        <v>44328</v>
+      </c>
+      <c r="B866" s="3">
+        <v>29540.89</v>
+      </c>
+      <c r="C866" s="3">
+        <v>30690.54</v>
+      </c>
+    </row>
+    <row r="867" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A867" s="2">
+        <v>44329</v>
+      </c>
+      <c r="B867" s="3">
+        <v>29544.69</v>
+      </c>
+      <c r="C867" s="3">
+        <v>30693.66</v>
+      </c>
+    </row>
+    <row r="868" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A868" s="2">
+        <v>44330</v>
+      </c>
+      <c r="B868" s="3">
+        <v>29548.5</v>
+      </c>
+      <c r="C868" s="3">
+        <v>30696.78</v>
+      </c>
+    </row>
+    <row r="869" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A869" s="2">
+        <v>44331</v>
+      </c>
+      <c r="B869" s="3">
+        <v>29552.3</v>
+      </c>
+      <c r="C869" s="3">
+        <v>30699.91</v>
+      </c>
+    </row>
+    <row r="870" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A870" s="2">
+        <v>44332</v>
+      </c>
+      <c r="B870" s="3">
+        <v>29556.11</v>
+      </c>
+      <c r="C870" s="3">
+        <v>30703.03</v>
+      </c>
+    </row>
+    <row r="871" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A871" s="2">
+        <v>44333</v>
+      </c>
+      <c r="B871" s="3">
+        <v>29559.919999999998</v>
+      </c>
+      <c r="C871" s="3">
+        <v>30706.16</v>
+      </c>
+    </row>
+    <row r="872" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A872" s="2">
+        <v>44334</v>
+      </c>
+      <c r="B872" s="3">
+        <v>29563.72</v>
+      </c>
+      <c r="C872" s="3">
+        <v>30709.279999999999</v>
+      </c>
+    </row>
+    <row r="873" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A873" s="2">
+        <v>44335</v>
+      </c>
+      <c r="B873" s="3">
+        <v>29567.53</v>
+      </c>
+      <c r="C873" s="3">
+        <v>30712.41</v>
+      </c>
+    </row>
+    <row r="874" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A874" s="2">
+        <v>44336</v>
+      </c>
+      <c r="B874" s="3">
+        <v>29571.34</v>
+      </c>
+      <c r="C874" s="3">
+        <v>30715.53</v>
+      </c>
+    </row>
+    <row r="875" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A875" s="2">
+        <v>44337</v>
+      </c>
+      <c r="B875" s="3">
+        <v>29575.15</v>
+      </c>
+      <c r="C875" s="3">
+        <v>30718.66</v>
+      </c>
+    </row>
+    <row r="876" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A876" s="2">
+        <v>44338</v>
+      </c>
+      <c r="B876" s="3">
+        <v>29578.959999999999</v>
+      </c>
+      <c r="C876" s="3">
+        <v>30721.78</v>
+      </c>
+    </row>
+    <row r="877" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A877" s="2">
+        <v>44339</v>
+      </c>
+      <c r="B877" s="3">
+        <v>29582.77</v>
+      </c>
+      <c r="C877" s="3">
+        <v>30724.91</v>
+      </c>
+    </row>
+    <row r="878" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A878" s="2">
+        <v>44340</v>
+      </c>
+      <c r="B878" s="3">
+        <v>29586.57</v>
+      </c>
+      <c r="C878" s="3">
+        <v>30728.03</v>
+      </c>
+    </row>
+    <row r="879" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A879" s="2">
+        <v>44341</v>
+      </c>
+      <c r="B879" s="3">
+        <v>29590.39</v>
+      </c>
+      <c r="C879" s="3">
+        <v>30731.16</v>
+      </c>
+    </row>
+    <row r="880" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A880" s="2">
+        <v>44342</v>
+      </c>
+      <c r="B880" s="3">
+        <v>29594.2</v>
+      </c>
+      <c r="C880" s="3">
+        <v>30734.29</v>
+      </c>
+    </row>
+    <row r="881" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A881" s="2">
+        <v>44343</v>
+      </c>
+      <c r="B881" s="3">
+        <v>29598.01</v>
+      </c>
+      <c r="C881" s="3">
+        <v>30737.42</v>
+      </c>
+    </row>
+    <row r="882" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A882" s="2">
+        <v>44344</v>
+      </c>
+      <c r="B882" s="3">
+        <v>29601.82</v>
+      </c>
+      <c r="C882" s="3">
+        <v>30740.54</v>
+      </c>
+    </row>
+    <row r="883" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A883" s="2">
+        <v>44345</v>
+      </c>
+      <c r="B883" s="3">
+        <v>29605.63</v>
+      </c>
+      <c r="C883" s="3">
+        <v>30743.67</v>
+      </c>
+    </row>
+    <row r="884" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A884" s="2">
+        <v>44346</v>
+      </c>
+      <c r="B884" s="3">
+        <v>29609.439999999999</v>
+      </c>
+      <c r="C884" s="3">
+        <v>30746.799999999999</v>
+      </c>
+    </row>
+    <row r="885" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A885" s="2">
+        <v>44347</v>
+      </c>
+      <c r="B885" s="3">
+        <v>29613.26</v>
+      </c>
+      <c r="C885" s="3">
+        <v>30749.93</v>
+      </c>
+    </row>
+    <row r="886" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A886" s="2">
+        <v>44348</v>
+      </c>
+      <c r="B886" s="3">
+        <v>29617.07</v>
+      </c>
+      <c r="C886" s="3">
+        <v>30753.06</v>
+      </c>
+    </row>
+    <row r="887" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A887" s="2">
+        <v>44349</v>
+      </c>
+      <c r="B887" s="3">
+        <v>29620.880000000001</v>
+      </c>
+      <c r="C887" s="3">
+        <v>30756.19</v>
+      </c>
+    </row>
+    <row r="888" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A888" s="2">
+        <v>44350</v>
+      </c>
+      <c r="B888" s="3">
+        <v>29624.7</v>
+      </c>
+      <c r="C888" s="3">
+        <v>30759.32</v>
+      </c>
+    </row>
+    <row r="889" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A889" s="2">
+        <v>44351</v>
+      </c>
+      <c r="B889" s="3">
+        <v>29628.51</v>
+      </c>
+      <c r="C889" s="3">
+        <v>30762.45</v>
+      </c>
+    </row>
+    <row r="890" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A890" s="2">
+        <v>44352</v>
+      </c>
+      <c r="B890" s="3">
+        <v>29632.33</v>
+      </c>
+      <c r="C890" s="3">
+        <v>30765.58</v>
+      </c>
+    </row>
+    <row r="891" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A891" s="2">
+        <v>44353</v>
+      </c>
+      <c r="B891" s="3">
+        <v>29636.15</v>
+      </c>
+      <c r="C891" s="3">
+        <v>30768.71</v>
+      </c>
+    </row>
+    <row r="892" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A892" s="2">
+        <v>44354</v>
+      </c>
+      <c r="B892" s="3">
+        <v>29639.96</v>
+      </c>
+      <c r="C892" s="3">
+        <v>30771.84</v>
+      </c>
+    </row>
+    <row r="893" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A893" s="2">
+        <v>44355</v>
+      </c>
+      <c r="B893" s="3">
+        <v>29643.78</v>
+      </c>
+      <c r="C893" s="3">
+        <v>30774.97</v>
+      </c>
+    </row>
+    <row r="894" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A894" s="2">
+        <v>44356</v>
+      </c>
+      <c r="B894" s="3">
+        <v>29647.599999999999</v>
+      </c>
+      <c r="C894" s="3">
+        <v>30778.1</v>
       </c>
     </row>
   </sheetData>

--- a/datacovidChile/IndicadoresEconomicos/UF_IVP_DIARIO.xlsx
+++ b/datacovidChile/IndicadoresEconomicos/UF_IVP_DIARIO.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9f999e057ad8c646/CORONA VIRUS/DATACOVID CL/IndicadoresEconomicos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="39" documentId="8_{09248BB8-9CE4-4580-84DA-AF69B8E47965}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{9A84EB4C-E6BD-42C2-9AA5-B3641057581F}"/>
+  <xr:revisionPtr revIDLastSave="49" documentId="8_{09248BB8-9CE4-4580-84DA-AF69B8E47965}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{6D6EE9F4-C954-446E-BDBC-BDA3F87D7066}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UF_IVP_DIARIO" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,17 @@
   <definedNames>
     <definedName name="UF_IVP_DIARIO" localSheetId="0">UF_IVP_DIARIO!$A$1:$C$894</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -56,6 +66,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
   <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -504,7 +517,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -547,8 +560,9 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -562,11 +576,12 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="42" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Énfasis2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Énfasis3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -599,6 +614,7 @@
     <cellStyle name="Énfasis6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="Entrada" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Incorrecto" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Millares [0]" xfId="42" builtinId="6"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Notas" xfId="15" builtinId="10" customBuiltin="1"/>
@@ -924,30 +940,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C894"/>
+  <dimension ref="A1:I894"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B894" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B886" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
       <selection pane="topRight" activeCell="B2" sqref="B2"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="A894" sqref="A894"/>
+      <selection pane="bottomRight" activeCell="C895" sqref="C895"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-    </row>
-    <row r="2" spans="1:3" ht="51" x14ac:dyDescent="0.25">
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+    </row>
+    <row r="2" spans="1:3" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -958,7 +976,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="4" t="s">
         <v>4</v>
@@ -967,7 +985,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>43466</v>
       </c>
@@ -978,7 +996,7 @@
         <v>28685.79</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>43467</v>
       </c>
@@ -989,7 +1007,7 @@
         <v>28687.87</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>43468</v>
       </c>
@@ -1000,7 +1018,7 @@
         <v>28689.96</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>43469</v>
       </c>
@@ -1011,7 +1029,7 @@
         <v>28692.04</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>43470</v>
       </c>
@@ -1022,7 +1040,7 @@
         <v>28694.13</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>43471</v>
       </c>
@@ -1033,7 +1051,7 @@
         <v>28696.22</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>43472</v>
       </c>
@@ -1044,7 +1062,7 @@
         <v>28698.3</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>43473</v>
       </c>
@@ -1055,7 +1073,7 @@
         <v>28700.39</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>43474</v>
       </c>
@@ -1066,7 +1084,7 @@
         <v>28702.47</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>43475</v>
       </c>
@@ -1077,7 +1095,7 @@
         <v>28704.23</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>43476</v>
       </c>
@@ -1088,7 +1106,7 @@
         <v>28705.99</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>43477</v>
       </c>
@@ -1099,7 +1117,7 @@
         <v>28707.75</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>43478</v>
       </c>
@@ -1110,7 +1128,7 @@
         <v>28709.51</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>43479</v>
       </c>
@@ -1121,7 +1139,7 @@
         <v>28711.27</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>43480</v>
       </c>
@@ -1132,7 +1150,7 @@
         <v>28713.03</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>43481</v>
       </c>
@@ -1143,7 +1161,7 @@
         <v>28714.79</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>43482</v>
       </c>
@@ -1154,7 +1172,7 @@
         <v>28716.55</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>43483</v>
       </c>
@@ -1165,7 +1183,7 @@
         <v>28718.31</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>43484</v>
       </c>
@@ -1176,7 +1194,7 @@
         <v>28720.07</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>43485</v>
       </c>
@@ -1187,7 +1205,7 @@
         <v>28721.83</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>43486</v>
       </c>
@@ -1198,7 +1216,7 @@
         <v>28723.599999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>43487</v>
       </c>
@@ -1209,7 +1227,7 @@
         <v>28725.360000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>43488</v>
       </c>
@@ -1220,7 +1238,7 @@
         <v>28727.119999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>43489</v>
       </c>
@@ -1231,7 +1249,7 @@
         <v>28728.880000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>43490</v>
       </c>
@@ -1242,7 +1260,7 @@
         <v>28730.639999999999</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>43491</v>
       </c>
@@ -1253,7 +1271,7 @@
         <v>28732.400000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>43492</v>
       </c>
@@ -1264,7 +1282,7 @@
         <v>28734.16</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>43493</v>
       </c>
@@ -1275,7 +1293,7 @@
         <v>28735.93</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>43494</v>
       </c>
@@ -1286,7 +1304,7 @@
         <v>28737.69</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>43495</v>
       </c>
@@ -1297,7 +1315,7 @@
         <v>28739.45</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>43496</v>
       </c>
@@ -1308,7 +1326,7 @@
         <v>28741.21</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>43497</v>
       </c>
@@ -1319,7 +1337,7 @@
         <v>28742.97</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>43498</v>
       </c>
@@ -1330,7 +1348,7 @@
         <v>28744.74</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>43499</v>
       </c>
@@ -1341,7 +1359,7 @@
         <v>28746.5</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>43500</v>
       </c>
@@ -1352,7 +1370,7 @@
         <v>28748.26</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>43501</v>
       </c>
@@ -1363,7 +1381,7 @@
         <v>28750.02</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>43502</v>
       </c>
@@ -1374,7 +1392,7 @@
         <v>28751.79</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <v>43503</v>
       </c>
@@ -1385,7 +1403,7 @@
         <v>28753.55</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <v>43504</v>
       </c>
@@ -1396,7 +1414,7 @@
         <v>28755.31</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <v>43505</v>
       </c>
@@ -1407,7 +1425,7 @@
         <v>28757.08</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <v>43506</v>
       </c>
@@ -1418,7 +1436,7 @@
         <v>28758.47</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
         <v>43507</v>
       </c>
@@ -1429,7 +1447,7 @@
         <v>28759.85</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
         <v>43508</v>
       </c>
@@ -1440,7 +1458,7 @@
         <v>28761.24</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
         <v>43509</v>
       </c>
@@ -1451,7 +1469,7 @@
         <v>28762.63</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
         <v>43510</v>
       </c>
@@ -1462,7 +1480,7 @@
         <v>28764.01</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
         <v>43511</v>
       </c>
@@ -1473,7 +1491,7 @@
         <v>28765.4</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
         <v>43512</v>
       </c>
@@ -1484,7 +1502,7 @@
         <v>28766.79</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
         <v>43513</v>
       </c>
@@ -1495,7 +1513,7 @@
         <v>28768.18</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
         <v>43514</v>
       </c>
@@ -1506,7 +1524,7 @@
         <v>28769.56</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
         <v>43515</v>
       </c>
@@ -1517,7 +1535,7 @@
         <v>28770.95</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
         <v>43516</v>
       </c>
@@ -1528,7 +1546,7 @@
         <v>28772.34</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
         <v>43517</v>
       </c>
@@ -1539,7 +1557,7 @@
         <v>28773.73</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
         <v>43518</v>
       </c>
@@ -1550,7 +1568,7 @@
         <v>28775.11</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
         <v>43519</v>
       </c>
@@ -1561,7 +1579,7 @@
         <v>28776.5</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
         <v>43520</v>
       </c>
@@ -1572,7 +1590,7 @@
         <v>28777.89</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
         <v>43521</v>
       </c>
@@ -1583,7 +1601,7 @@
         <v>28779.279999999999</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
         <v>43522</v>
       </c>
@@ -1594,7 +1612,7 @@
         <v>28780.66</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
         <v>43523</v>
       </c>
@@ -1605,7 +1623,7 @@
         <v>28782.05</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
         <v>43524</v>
       </c>
@@ -1616,7 +1634,7 @@
         <v>28783.439999999999</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
         <v>43525</v>
       </c>
@@ -1627,7 +1645,7 @@
         <v>28784.83</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
         <v>43526</v>
       </c>
@@ -1638,7 +1656,7 @@
         <v>28786.22</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="2">
         <v>43527</v>
       </c>
@@ -1649,7 +1667,7 @@
         <v>28787.599999999999</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
         <v>43528</v>
       </c>
@@ -1660,7 +1678,7 @@
         <v>28788.99</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" s="2">
         <v>43529</v>
       </c>
@@ -1671,7 +1689,7 @@
         <v>28790.38</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="2">
         <v>43530</v>
       </c>
@@ -1682,7 +1700,7 @@
         <v>28791.77</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" s="2">
         <v>43531</v>
       </c>
@@ -1693,7 +1711,7 @@
         <v>28793.16</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="2">
         <v>43532</v>
       </c>
@@ -1704,7 +1722,7 @@
         <v>28794.55</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" s="2">
         <v>43533</v>
       </c>
@@ -1715,7 +1733,7 @@
         <v>28795.94</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" s="2">
         <v>43534</v>
       </c>
@@ -1726,7 +1744,7 @@
         <v>28797.13</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" s="2">
         <v>43535</v>
       </c>
@@ -1737,7 +1755,7 @@
         <v>28798.32</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="2">
         <v>43536</v>
       </c>
@@ -1748,7 +1766,7 @@
         <v>28799.51</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" s="2">
         <v>43537</v>
       </c>
@@ -1759,7 +1777,7 @@
         <v>28800.69</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" s="2">
         <v>43538</v>
       </c>
@@ -1770,7 +1788,7 @@
         <v>28801.88</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="2">
         <v>43539</v>
       </c>
@@ -1781,7 +1799,7 @@
         <v>28803.07</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" s="2">
         <v>43540</v>
       </c>
@@ -1792,7 +1810,7 @@
         <v>28804.26</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" s="2">
         <v>43541</v>
       </c>
@@ -1803,7 +1821,7 @@
         <v>28805.45</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" s="2">
         <v>43542</v>
       </c>
@@ -1814,7 +1832,7 @@
         <v>28806.639999999999</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" s="2">
         <v>43543</v>
       </c>
@@ -1825,7 +1843,7 @@
         <v>28807.83</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" s="2">
         <v>43544</v>
       </c>
@@ -1836,7 +1854,7 @@
         <v>28809.01</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" s="2">
         <v>43545</v>
       </c>
@@ -1847,7 +1865,7 @@
         <v>28810.2</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" s="2">
         <v>43546</v>
       </c>
@@ -1858,7 +1876,7 @@
         <v>28811.39</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" s="2">
         <v>43547</v>
       </c>
@@ -1869,7 +1887,7 @@
         <v>28812.58</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" s="2">
         <v>43548</v>
       </c>
@@ -1880,7 +1898,7 @@
         <v>28813.77</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" s="2">
         <v>43549</v>
       </c>
@@ -1891,7 +1909,7 @@
         <v>28814.959999999999</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" s="2">
         <v>43550</v>
       </c>
@@ -1902,7 +1920,7 @@
         <v>28816.15</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" s="2">
         <v>43551</v>
       </c>
@@ -1913,7 +1931,7 @@
         <v>28817.34</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" s="2">
         <v>43552</v>
       </c>
@@ -1924,7 +1942,7 @@
         <v>28818.53</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" s="2">
         <v>43553</v>
       </c>
@@ -1935,7 +1953,7 @@
         <v>28819.72</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" s="2">
         <v>43554</v>
       </c>
@@ -1946,7 +1964,7 @@
         <v>28820.9</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" s="2">
         <v>43555</v>
       </c>
@@ -1957,7 +1975,7 @@
         <v>28822.09</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" s="2">
         <v>43556</v>
       </c>
@@ -1968,7 +1986,7 @@
         <v>28823.279999999999</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" s="2">
         <v>43557</v>
       </c>
@@ -1979,7 +1997,7 @@
         <v>28824.47</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" s="2">
         <v>43558</v>
       </c>
@@ -1990,7 +2008,7 @@
         <v>28825.66</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" s="2">
         <v>43559</v>
       </c>
@@ -2001,7 +2019,7 @@
         <v>28826.85</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" s="2">
         <v>43560</v>
       </c>
@@ -2012,7 +2030,7 @@
         <v>28828.04</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" s="2">
         <v>43561</v>
       </c>
@@ -2023,7 +2041,7 @@
         <v>28829.23</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" s="2">
         <v>43562</v>
       </c>
@@ -2034,7 +2052,7 @@
         <v>28830.42</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" s="2">
         <v>43563</v>
       </c>
@@ -2045,7 +2063,7 @@
         <v>28831.61</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" s="2">
         <v>43564</v>
       </c>
@@ -2056,7 +2074,7 @@
         <v>28832.799999999999</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" s="2">
         <v>43565</v>
       </c>
@@ -2067,7 +2085,7 @@
         <v>28834.2</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" s="2">
         <v>43566</v>
       </c>
@@ -2078,7 +2096,7 @@
         <v>28835.599999999999</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" s="2">
         <v>43567</v>
       </c>
@@ -2089,7 +2107,7 @@
         <v>28837</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" s="2">
         <v>43568</v>
       </c>
@@ -2100,7 +2118,7 @@
         <v>28838.39</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" s="2">
         <v>43569</v>
       </c>
@@ -2111,7 +2129,7 @@
         <v>28839.79</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" s="2">
         <v>43570</v>
       </c>
@@ -2122,7 +2140,7 @@
         <v>28841.19</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" s="2">
         <v>43571</v>
       </c>
@@ -2133,7 +2151,7 @@
         <v>28842.59</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" s="2">
         <v>43572</v>
       </c>
@@ -2144,7 +2162,7 @@
         <v>28843.99</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" s="2">
         <v>43573</v>
       </c>
@@ -2155,7 +2173,7 @@
         <v>28845.39</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" s="2">
         <v>43574</v>
       </c>
@@ -2166,7 +2184,7 @@
         <v>28846.79</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" s="2">
         <v>43575</v>
       </c>
@@ -2177,7 +2195,7 @@
         <v>28848.19</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" s="2">
         <v>43576</v>
       </c>
@@ -2188,7 +2206,7 @@
         <v>28849.59</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" s="2">
         <v>43577</v>
       </c>
@@ -2199,7 +2217,7 @@
         <v>28850.99</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" s="2">
         <v>43578</v>
       </c>
@@ -2210,7 +2228,7 @@
         <v>28852.38</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" s="2">
         <v>43579</v>
       </c>
@@ -2221,7 +2239,7 @@
         <v>28853.78</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118" s="2">
         <v>43580</v>
       </c>
@@ -2232,7 +2250,7 @@
         <v>28855.18</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" s="2">
         <v>43581</v>
       </c>
@@ -2243,7 +2261,7 @@
         <v>28856.58</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" s="2">
         <v>43582</v>
       </c>
@@ -2254,7 +2272,7 @@
         <v>28857.98</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" s="2">
         <v>43583</v>
       </c>
@@ -2265,7 +2283,7 @@
         <v>28859.38</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" s="2">
         <v>43584</v>
       </c>
@@ -2276,7 +2294,7 @@
         <v>28860.78</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123" s="2">
         <v>43585</v>
       </c>
@@ -2287,7 +2305,7 @@
         <v>28862.18</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124" s="2">
         <v>43586</v>
       </c>
@@ -2298,7 +2316,7 @@
         <v>28863.58</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125" s="2">
         <v>43587</v>
       </c>
@@ -2309,7 +2327,7 @@
         <v>28864.98</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126" s="2">
         <v>43588</v>
       </c>
@@ -2320,7 +2338,7 @@
         <v>28866.38</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" s="2">
         <v>43589</v>
       </c>
@@ -2331,7 +2349,7 @@
         <v>28867.78</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128" s="2">
         <v>43590</v>
       </c>
@@ -2342,7 +2360,7 @@
         <v>28869.18</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129" s="2">
         <v>43591</v>
       </c>
@@ -2353,7 +2371,7 @@
         <v>28870.58</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" s="2">
         <v>43592</v>
       </c>
@@ -2364,7 +2382,7 @@
         <v>28871.98</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131" s="2">
         <v>43593</v>
       </c>
@@ -2375,7 +2393,7 @@
         <v>28873.38</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132" s="2">
         <v>43594</v>
       </c>
@@ -2386,7 +2404,7 @@
         <v>28874.78</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133" s="2">
         <v>43595</v>
       </c>
@@ -2397,7 +2415,7 @@
         <v>28876.04</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134" s="2">
         <v>43596</v>
       </c>
@@ -2408,7 +2426,7 @@
         <v>28877.3</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135" s="2">
         <v>43597</v>
       </c>
@@ -2419,7 +2437,7 @@
         <v>28878.57</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136" s="2">
         <v>43598</v>
       </c>
@@ -2430,7 +2448,7 @@
         <v>28879.83</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137" s="2">
         <v>43599</v>
       </c>
@@ -2441,7 +2459,7 @@
         <v>28881.09</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138" s="2">
         <v>43600</v>
       </c>
@@ -2452,7 +2470,7 @@
         <v>28882.35</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139" s="2">
         <v>43601</v>
       </c>
@@ -2463,7 +2481,7 @@
         <v>28883.61</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140" s="2">
         <v>43602</v>
       </c>
@@ -2474,7 +2492,7 @@
         <v>28884.880000000001</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141" s="2">
         <v>43603</v>
       </c>
@@ -2485,7 +2503,7 @@
         <v>28886.14</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142" s="2">
         <v>43604</v>
       </c>
@@ -2496,7 +2514,7 @@
         <v>28887.4</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A143" s="2">
         <v>43605</v>
       </c>
@@ -2507,7 +2525,7 @@
         <v>28888.66</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144" s="2">
         <v>43606</v>
       </c>
@@ -2518,7 +2536,7 @@
         <v>28889.93</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145" s="2">
         <v>43607</v>
       </c>
@@ -2529,7 +2547,7 @@
         <v>28891.19</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146" s="2">
         <v>43608</v>
       </c>
@@ -2540,7 +2558,7 @@
         <v>28892.45</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147" s="2">
         <v>43609</v>
       </c>
@@ -2551,7 +2569,7 @@
         <v>28893.71</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148" s="2">
         <v>43610</v>
       </c>
@@ -2562,7 +2580,7 @@
         <v>28894.98</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149" s="2">
         <v>43611</v>
       </c>
@@ -2573,7 +2591,7 @@
         <v>28896.240000000002</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150" s="2">
         <v>43612</v>
       </c>
@@ -2584,7 +2602,7 @@
         <v>28897.5</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151" s="2">
         <v>43613</v>
       </c>
@@ -2595,7 +2613,7 @@
         <v>28898.77</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152" s="2">
         <v>43614</v>
       </c>
@@ -2606,7 +2624,7 @@
         <v>28900.03</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A153" s="2">
         <v>43615</v>
       </c>
@@ -2617,7 +2635,7 @@
         <v>28901.29</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A154" s="2">
         <v>43616</v>
       </c>
@@ -2628,7 +2646,7 @@
         <v>28902.55</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A155" s="2">
         <v>43617</v>
       </c>
@@ -2639,7 +2657,7 @@
         <v>28903.82</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A156" s="2">
         <v>43618</v>
       </c>
@@ -2650,7 +2668,7 @@
         <v>28905.08</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A157" s="2">
         <v>43619</v>
       </c>
@@ -2661,7 +2679,7 @@
         <v>28906.34</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158" s="2">
         <v>43620</v>
       </c>
@@ -2672,7 +2690,7 @@
         <v>28907.61</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A159" s="2">
         <v>43621</v>
       </c>
@@ -2683,7 +2701,7 @@
         <v>28908.87</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A160" s="2">
         <v>43622</v>
       </c>
@@ -2694,7 +2712,7 @@
         <v>28910.13</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A161" s="2">
         <v>43623</v>
       </c>
@@ -2705,7 +2723,7 @@
         <v>28911.4</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A162" s="2">
         <v>43624</v>
       </c>
@@ -2716,7 +2734,7 @@
         <v>28912.66</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A163" s="2">
         <v>43625</v>
       </c>
@@ -2727,7 +2745,7 @@
         <v>28913.919999999998</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A164" s="2">
         <v>43626</v>
       </c>
@@ -2738,7 +2756,7 @@
         <v>28916.13</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A165" s="2">
         <v>43627</v>
       </c>
@@ -2749,7 +2767,7 @@
         <v>28918.34</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A166" s="2">
         <v>43628</v>
       </c>
@@ -2760,7 +2778,7 @@
         <v>28920.55</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A167" s="2">
         <v>43629</v>
       </c>
@@ -2771,7 +2789,7 @@
         <v>28922.75</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A168" s="2">
         <v>43630</v>
       </c>
@@ -2782,7 +2800,7 @@
         <v>28924.959999999999</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A169" s="2">
         <v>43631</v>
       </c>
@@ -2793,7 +2811,7 @@
         <v>28927.17</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A170" s="2">
         <v>43632</v>
       </c>
@@ -2804,7 +2822,7 @@
         <v>28929.38</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A171" s="2">
         <v>43633</v>
       </c>
@@ -2815,7 +2833,7 @@
         <v>28931.59</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A172" s="2">
         <v>43634</v>
       </c>
@@ -2826,7 +2844,7 @@
         <v>28933.8</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A173" s="2">
         <v>43635</v>
       </c>
@@ -2837,7 +2855,7 @@
         <v>28936.01</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A174" s="2">
         <v>43636</v>
       </c>
@@ -2848,7 +2866,7 @@
         <v>28938.22</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A175" s="2">
         <v>43637</v>
       </c>
@@ -2859,7 +2877,7 @@
         <v>28940.43</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A176" s="2">
         <v>43638</v>
       </c>
@@ -2870,7 +2888,7 @@
         <v>28942.639999999999</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A177" s="2">
         <v>43639</v>
       </c>
@@ -2881,7 +2899,7 @@
         <v>28944.85</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A178" s="2">
         <v>43640</v>
       </c>
@@ -2892,7 +2910,7 @@
         <v>28947.06</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A179" s="2">
         <v>43641</v>
       </c>
@@ -2903,7 +2921,7 @@
         <v>28949.27</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A180" s="2">
         <v>43642</v>
       </c>
@@ -2914,7 +2932,7 @@
         <v>28951.48</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A181" s="2">
         <v>43643</v>
       </c>
@@ -2925,7 +2943,7 @@
         <v>28953.69</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A182" s="2">
         <v>43644</v>
       </c>
@@ -2936,7 +2954,7 @@
         <v>28955.91</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A183" s="2">
         <v>43645</v>
       </c>
@@ -2947,7 +2965,7 @@
         <v>28958.12</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A184" s="2">
         <v>43646</v>
       </c>
@@ -2958,7 +2976,7 @@
         <v>28960.33</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A185" s="2">
         <v>43647</v>
       </c>
@@ -2969,7 +2987,7 @@
         <v>28962.54</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A186" s="2">
         <v>43648</v>
       </c>
@@ -2980,7 +2998,7 @@
         <v>28964.75</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A187" s="2">
         <v>43649</v>
       </c>
@@ -2991,7 +3009,7 @@
         <v>28966.959999999999</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A188" s="2">
         <v>43650</v>
       </c>
@@ -3002,7 +3020,7 @@
         <v>28969.18</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A189" s="2">
         <v>43651</v>
       </c>
@@ -3013,7 +3031,7 @@
         <v>28971.39</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A190" s="2">
         <v>43652</v>
       </c>
@@ -3024,7 +3042,7 @@
         <v>28973.599999999999</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A191" s="2">
         <v>43653</v>
       </c>
@@ -3035,7 +3053,7 @@
         <v>28975.81</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A192" s="2">
         <v>43654</v>
       </c>
@@ -3046,7 +3064,7 @@
         <v>28978.03</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A193" s="2">
         <v>43655</v>
       </c>
@@ -3057,7 +3075,7 @@
         <v>28980.240000000002</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A194" s="2">
         <v>43656</v>
       </c>
@@ -3068,7 +3086,7 @@
         <v>28982.7</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A195" s="2">
         <v>43657</v>
       </c>
@@ -3079,7 +3097,7 @@
         <v>28985.17</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A196" s="2">
         <v>43658</v>
       </c>
@@ -3090,7 +3108,7 @@
         <v>28987.63</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A197" s="2">
         <v>43659</v>
       </c>
@@ -3101,7 +3119,7 @@
         <v>28990.09</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A198" s="2">
         <v>43660</v>
       </c>
@@ -3112,7 +3130,7 @@
         <v>28992.560000000001</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A199" s="2">
         <v>43661</v>
       </c>
@@ -3123,7 +3141,7 @@
         <v>28995.02</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A200" s="2">
         <v>43662</v>
       </c>
@@ -3134,7 +3152,7 @@
         <v>28997.48</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A201" s="2">
         <v>43663</v>
       </c>
@@ -3145,7 +3163,7 @@
         <v>28999.95</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A202" s="2">
         <v>43664</v>
       </c>
@@ -3156,7 +3174,7 @@
         <v>29002.41</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A203" s="2">
         <v>43665</v>
       </c>
@@ -3167,7 +3185,7 @@
         <v>29004.880000000001</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A204" s="2">
         <v>43666</v>
       </c>
@@ -3178,7 +3196,7 @@
         <v>29007.34</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A205" s="2">
         <v>43667</v>
       </c>
@@ -3189,7 +3207,7 @@
         <v>29009.81</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A206" s="2">
         <v>43668</v>
       </c>
@@ -3200,7 +3218,7 @@
         <v>29012.27</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A207" s="2">
         <v>43669</v>
       </c>
@@ -3211,7 +3229,7 @@
         <v>29014.74</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A208" s="2">
         <v>43670</v>
       </c>
@@ -3222,7 +3240,7 @@
         <v>29017.21</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A209" s="2">
         <v>43671</v>
       </c>
@@ -3233,7 +3251,7 @@
         <v>29019.67</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A210" s="2">
         <v>43672</v>
       </c>
@@ -3244,7 +3262,7 @@
         <v>29022.14</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A211" s="2">
         <v>43673</v>
       </c>
@@ -3255,7 +3273,7 @@
         <v>29024.6</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A212" s="2">
         <v>43674</v>
       </c>
@@ -3266,7 +3284,7 @@
         <v>29027.07</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A213" s="2">
         <v>43675</v>
       </c>
@@ -3277,7 +3295,7 @@
         <v>29029.54</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A214" s="2">
         <v>43676</v>
       </c>
@@ -3288,7 +3306,7 @@
         <v>29032.01</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A215" s="2">
         <v>43677</v>
       </c>
@@ -3299,7 +3317,7 @@
         <v>29034.47</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A216" s="2">
         <v>43678</v>
       </c>
@@ -3310,7 +3328,7 @@
         <v>29036.94</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A217" s="2">
         <v>43679</v>
       </c>
@@ -3321,7 +3339,7 @@
         <v>29039.41</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A218" s="2">
         <v>43680</v>
       </c>
@@ -3332,7 +3350,7 @@
         <v>29041.88</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A219" s="2">
         <v>43681</v>
       </c>
@@ -3343,7 +3361,7 @@
         <v>29044.34</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A220" s="2">
         <v>43682</v>
       </c>
@@ -3354,7 +3372,7 @@
         <v>29046.81</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A221" s="2">
         <v>43683</v>
       </c>
@@ -3365,7 +3383,7 @@
         <v>29049.279999999999</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A222" s="2">
         <v>43684</v>
       </c>
@@ -3376,7 +3394,7 @@
         <v>29051.75</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A223" s="2">
         <v>43685</v>
       </c>
@@ -3387,7 +3405,7 @@
         <v>29054.22</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A224" s="2">
         <v>43686</v>
       </c>
@@ -3398,7 +3416,7 @@
         <v>29056.69</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A225" s="2">
         <v>43687</v>
       </c>
@@ -3409,7 +3427,7 @@
         <v>29059.34</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A226" s="2">
         <v>43688</v>
       </c>
@@ -3420,7 +3438,7 @@
         <v>29062</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A227" s="2">
         <v>43689</v>
       </c>
@@ -3431,7 +3449,7 @@
         <v>29064.66</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A228" s="2">
         <v>43690</v>
       </c>
@@ -3442,7 +3460,7 @@
         <v>29067.31</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A229" s="2">
         <v>43691</v>
       </c>
@@ -3453,7 +3471,7 @@
         <v>29069.97</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A230" s="2">
         <v>43692</v>
       </c>
@@ -3464,7 +3482,7 @@
         <v>29072.62</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A231" s="2">
         <v>43693</v>
       </c>
@@ -3475,7 +3493,7 @@
         <v>29075.279999999999</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A232" s="2">
         <v>43694</v>
       </c>
@@ -3486,7 +3504,7 @@
         <v>29077.94</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A233" s="2">
         <v>43695</v>
       </c>
@@ -3497,7 +3515,7 @@
         <v>29080.59</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A234" s="2">
         <v>43696</v>
       </c>
@@ -3508,7 +3526,7 @@
         <v>29083.25</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A235" s="2">
         <v>43697</v>
       </c>
@@ -3519,7 +3537,7 @@
         <v>29085.91</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A236" s="2">
         <v>43698</v>
       </c>
@@ -3530,7 +3548,7 @@
         <v>29088.57</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A237" s="2">
         <v>43699</v>
       </c>
@@ -3541,7 +3559,7 @@
         <v>29091.22</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A238" s="2">
         <v>43700</v>
       </c>
@@ -3552,7 +3570,7 @@
         <v>29093.88</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A239" s="2">
         <v>43701</v>
       </c>
@@ -3563,7 +3581,7 @@
         <v>29096.54</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A240" s="2">
         <v>43702</v>
       </c>
@@ -3574,7 +3592,7 @@
         <v>29099.200000000001</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A241" s="2">
         <v>43703</v>
       </c>
@@ -3585,7 +3603,7 @@
         <v>29101.86</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A242" s="2">
         <v>43704</v>
       </c>
@@ -3596,7 +3614,7 @@
         <v>29104.52</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A243" s="2">
         <v>43705</v>
       </c>
@@ -3607,7 +3625,7 @@
         <v>29107.18</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A244" s="2">
         <v>43706</v>
       </c>
@@ -3618,7 +3636,7 @@
         <v>29109.84</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A245" s="2">
         <v>43707</v>
       </c>
@@ -3629,7 +3647,7 @@
         <v>29112.49</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A246" s="2">
         <v>43708</v>
       </c>
@@ -3640,7 +3658,7 @@
         <v>29115.15</v>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A247" s="2">
         <v>43709</v>
       </c>
@@ -3651,7 +3669,7 @@
         <v>29117.82</v>
       </c>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A248" s="2">
         <v>43710</v>
       </c>
@@ -3662,7 +3680,7 @@
         <v>29120.48</v>
       </c>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A249" s="2">
         <v>43711</v>
       </c>
@@ -3673,7 +3691,7 @@
         <v>29123.14</v>
       </c>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A250" s="2">
         <v>43712</v>
       </c>
@@ -3684,7 +3702,7 @@
         <v>29125.8</v>
       </c>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A251" s="2">
         <v>43713</v>
       </c>
@@ -3695,7 +3713,7 @@
         <v>29128.46</v>
       </c>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A252" s="2">
         <v>43714</v>
       </c>
@@ -3706,7 +3724,7 @@
         <v>29131.119999999999</v>
       </c>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A253" s="2">
         <v>43715</v>
       </c>
@@ -3717,7 +3735,7 @@
         <v>29133.78</v>
       </c>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A254" s="2">
         <v>43716</v>
       </c>
@@ -3728,7 +3746,7 @@
         <v>29136.44</v>
       </c>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A255" s="2">
         <v>43717</v>
       </c>
@@ -3739,7 +3757,7 @@
         <v>29139.11</v>
       </c>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A256" s="2">
         <v>43718</v>
       </c>
@@ -3750,7 +3768,7 @@
         <v>29141.96</v>
       </c>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A257" s="2">
         <v>43719</v>
       </c>
@@ -3761,7 +3779,7 @@
         <v>29144.81</v>
       </c>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A258" s="2">
         <v>43720</v>
       </c>
@@ -3772,7 +3790,7 @@
         <v>29147.66</v>
       </c>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A259" s="2">
         <v>43721</v>
       </c>
@@ -3783,7 +3801,7 @@
         <v>29150.51</v>
       </c>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A260" s="2">
         <v>43722</v>
       </c>
@@ -3794,7 +3812,7 @@
         <v>29153.360000000001</v>
       </c>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A261" s="2">
         <v>43723</v>
       </c>
@@ -3805,7 +3823,7 @@
         <v>29156.21</v>
       </c>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A262" s="2">
         <v>43724</v>
       </c>
@@ -3816,7 +3834,7 @@
         <v>29159.06</v>
       </c>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A263" s="2">
         <v>43725</v>
       </c>
@@ -3827,7 +3845,7 @@
         <v>29161.919999999998</v>
       </c>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A264" s="2">
         <v>43726</v>
       </c>
@@ -3838,7 +3856,7 @@
         <v>29164.77</v>
       </c>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A265" s="2">
         <v>43727</v>
       </c>
@@ -3849,7 +3867,7 @@
         <v>29167.62</v>
       </c>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A266" s="2">
         <v>43728</v>
       </c>
@@ -3860,7 +3878,7 @@
         <v>29170.47</v>
       </c>
     </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A267" s="2">
         <v>43729</v>
       </c>
@@ -3871,7 +3889,7 @@
         <v>29173.32</v>
       </c>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A268" s="2">
         <v>43730</v>
       </c>
@@ -3882,7 +3900,7 @@
         <v>29176.18</v>
       </c>
     </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A269" s="2">
         <v>43731</v>
       </c>
@@ -3893,7 +3911,7 @@
         <v>29179.03</v>
       </c>
     </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A270" s="2">
         <v>43732</v>
       </c>
@@ -3904,7 +3922,7 @@
         <v>29181.88</v>
       </c>
     </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A271" s="2">
         <v>43733</v>
       </c>
@@ -3915,7 +3933,7 @@
         <v>29184.74</v>
       </c>
     </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A272" s="2">
         <v>43734</v>
       </c>
@@ -3926,7 +3944,7 @@
         <v>29187.59</v>
       </c>
     </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A273" s="2">
         <v>43735</v>
       </c>
@@ -3937,7 +3955,7 @@
         <v>29190.45</v>
       </c>
     </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A274" s="2">
         <v>43736</v>
       </c>
@@ -3948,7 +3966,7 @@
         <v>29193.3</v>
       </c>
     </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A275" s="2">
         <v>43737</v>
       </c>
@@ -3959,7 +3977,7 @@
         <v>29196.16</v>
       </c>
     </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A276" s="2">
         <v>43738</v>
       </c>
@@ -3970,7 +3988,7 @@
         <v>29199.01</v>
       </c>
     </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A277" s="2">
         <v>43739</v>
       </c>
@@ -3981,7 +3999,7 @@
         <v>29201.87</v>
       </c>
     </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A278" s="2">
         <v>43740</v>
       </c>
@@ -3992,7 +4010,7 @@
         <v>29204.720000000001</v>
       </c>
     </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A279" s="2">
         <v>43741</v>
       </c>
@@ -4003,7 +4021,7 @@
         <v>29207.58</v>
       </c>
     </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A280" s="2">
         <v>43742</v>
       </c>
@@ -4014,7 +4032,7 @@
         <v>29210.44</v>
       </c>
     </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A281" s="2">
         <v>43743</v>
       </c>
@@ -4025,7 +4043,7 @@
         <v>29213.29</v>
       </c>
     </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A282" s="2">
         <v>43744</v>
       </c>
@@ -4036,7 +4054,7 @@
         <v>29216.15</v>
       </c>
     </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A283" s="2">
         <v>43745</v>
       </c>
@@ -4047,7 +4065,7 @@
         <v>29219.01</v>
       </c>
     </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A284" s="2">
         <v>43746</v>
       </c>
@@ -4058,7 +4076,7 @@
         <v>29221.86</v>
       </c>
     </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A285" s="2">
         <v>43747</v>
       </c>
@@ -4069,7 +4087,7 @@
         <v>29224.720000000001</v>
       </c>
     </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A286" s="2">
         <v>43748</v>
       </c>
@@ -4080,7 +4098,7 @@
         <v>29226.85</v>
       </c>
     </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A287" s="2">
         <v>43749</v>
       </c>
@@ -4091,7 +4109,7 @@
         <v>29228.98</v>
       </c>
     </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A288" s="2">
         <v>43750</v>
       </c>
@@ -4102,7 +4120,7 @@
         <v>29231.11</v>
       </c>
     </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A289" s="2">
         <v>43751</v>
       </c>
@@ -4113,7 +4131,7 @@
         <v>29233.24</v>
       </c>
     </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A290" s="2">
         <v>43752</v>
       </c>
@@ -4124,7 +4142,7 @@
         <v>29235.37</v>
       </c>
     </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A291" s="2">
         <v>43753</v>
       </c>
@@ -4135,7 +4153,7 @@
         <v>29237.51</v>
       </c>
     </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A292" s="2">
         <v>43754</v>
       </c>
@@ -4146,7 +4164,7 @@
         <v>29239.64</v>
       </c>
     </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A293" s="2">
         <v>43755</v>
       </c>
@@ -4157,7 +4175,7 @@
         <v>29241.77</v>
       </c>
     </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A294" s="2">
         <v>43756</v>
       </c>
@@ -4168,7 +4186,7 @@
         <v>29243.9</v>
       </c>
     </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A295" s="2">
         <v>43757</v>
       </c>
@@ -4179,7 +4197,7 @@
         <v>29246.03</v>
       </c>
     </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A296" s="2">
         <v>43758</v>
       </c>
@@ -4190,7 +4208,7 @@
         <v>29248.16</v>
       </c>
     </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A297" s="2">
         <v>43759</v>
       </c>
@@ -4201,7 +4219,7 @@
         <v>29250.3</v>
       </c>
     </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A298" s="2">
         <v>43760</v>
       </c>
@@ -4212,7 +4230,7 @@
         <v>29252.43</v>
       </c>
     </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A299" s="2">
         <v>43761</v>
       </c>
@@ -4223,7 +4241,7 @@
         <v>29254.560000000001</v>
       </c>
     </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A300" s="2">
         <v>43762</v>
       </c>
@@ -4234,7 +4252,7 @@
         <v>29256.69</v>
       </c>
     </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A301" s="2">
         <v>43763</v>
       </c>
@@ -4245,7 +4263,7 @@
         <v>29258.83</v>
       </c>
     </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A302" s="2">
         <v>43764</v>
       </c>
@@ -4256,7 +4274,7 @@
         <v>29260.959999999999</v>
       </c>
     </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A303" s="2">
         <v>43765</v>
       </c>
@@ -4267,7 +4285,7 @@
         <v>29263.09</v>
       </c>
     </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A304" s="2">
         <v>43766</v>
       </c>
@@ -4278,7 +4296,7 @@
         <v>29265.23</v>
       </c>
     </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A305" s="2">
         <v>43767</v>
       </c>
@@ -4289,7 +4307,7 @@
         <v>29267.360000000001</v>
       </c>
     </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A306" s="2">
         <v>43768</v>
       </c>
@@ -4300,7 +4318,7 @@
         <v>29269.49</v>
       </c>
     </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A307" s="2">
         <v>43769</v>
       </c>
@@ -4311,7 +4329,7 @@
         <v>29271.63</v>
       </c>
     </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A308" s="2">
         <v>43770</v>
       </c>
@@ -4322,7 +4340,7 @@
         <v>29273.759999999998</v>
       </c>
     </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A309" s="2">
         <v>43771</v>
       </c>
@@ -4333,7 +4351,7 @@
         <v>29275.89</v>
       </c>
     </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A310" s="2">
         <v>43772</v>
       </c>
@@ -4344,7 +4362,7 @@
         <v>29278.03</v>
       </c>
     </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A311" s="2">
         <v>43773</v>
       </c>
@@ -4355,7 +4373,7 @@
         <v>29280.16</v>
       </c>
     </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A312" s="2">
         <v>43774</v>
       </c>
@@ -4366,7 +4384,7 @@
         <v>29282.3</v>
       </c>
     </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A313" s="2">
         <v>43775</v>
       </c>
@@ -4377,7 +4395,7 @@
         <v>29284.43</v>
       </c>
     </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A314" s="2">
         <v>43776</v>
       </c>
@@ -4388,7 +4406,7 @@
         <v>29286.57</v>
       </c>
     </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A315" s="2">
         <v>43777</v>
       </c>
@@ -4399,7 +4417,7 @@
         <v>29288.7</v>
       </c>
     </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A316" s="2">
         <v>43778</v>
       </c>
@@ -4410,7 +4428,7 @@
         <v>29290.84</v>
       </c>
     </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A317" s="2">
         <v>43779</v>
       </c>
@@ -4421,7 +4439,7 @@
         <v>29293.84</v>
       </c>
     </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A318" s="2">
         <v>43780</v>
       </c>
@@ -4432,7 +4450,7 @@
         <v>29296.84</v>
       </c>
     </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A319" s="2">
         <v>43781</v>
       </c>
@@ -4443,7 +4461,7 @@
         <v>29299.83</v>
       </c>
     </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A320" s="2">
         <v>43782</v>
       </c>
@@ -4454,7 +4472,7 @@
         <v>29302.83</v>
       </c>
     </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A321" s="2">
         <v>43783</v>
       </c>
@@ -4465,7 +4483,7 @@
         <v>29305.83</v>
       </c>
     </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A322" s="2">
         <v>43784</v>
       </c>
@@ -4476,7 +4494,7 @@
         <v>29308.83</v>
       </c>
     </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A323" s="2">
         <v>43785</v>
       </c>
@@ -4487,7 +4505,7 @@
         <v>29311.83</v>
       </c>
     </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A324" s="2">
         <v>43786</v>
       </c>
@@ -4498,7 +4516,7 @@
         <v>29314.83</v>
       </c>
     </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A325" s="2">
         <v>43787</v>
       </c>
@@ -4509,7 +4527,7 @@
         <v>29317.83</v>
       </c>
     </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A326" s="2">
         <v>43788</v>
       </c>
@@ -4520,7 +4538,7 @@
         <v>29320.83</v>
       </c>
     </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A327" s="2">
         <v>43789</v>
       </c>
@@ -4531,7 +4549,7 @@
         <v>29323.83</v>
       </c>
     </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A328" s="2">
         <v>43790</v>
       </c>
@@ -4542,7 +4560,7 @@
         <v>29326.83</v>
       </c>
     </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A329" s="2">
         <v>43791</v>
       </c>
@@ -4553,7 +4571,7 @@
         <v>29329.83</v>
       </c>
     </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A330" s="2">
         <v>43792</v>
       </c>
@@ -4564,7 +4582,7 @@
         <v>29332.83</v>
       </c>
     </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A331" s="2">
         <v>43793</v>
       </c>
@@ -4575,7 +4593,7 @@
         <v>29335.83</v>
       </c>
     </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A332" s="2">
         <v>43794</v>
       </c>
@@ -4586,7 +4604,7 @@
         <v>29338.84</v>
       </c>
     </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A333" s="2">
         <v>43795</v>
       </c>
@@ -4597,7 +4615,7 @@
         <v>29341.84</v>
       </c>
     </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A334" s="2">
         <v>43796</v>
       </c>
@@ -4608,7 +4626,7 @@
         <v>29344.84</v>
       </c>
     </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A335" s="2">
         <v>43797</v>
       </c>
@@ -4619,7 +4637,7 @@
         <v>29347.85</v>
       </c>
     </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A336" s="2">
         <v>43798</v>
       </c>
@@ -4630,7 +4648,7 @@
         <v>29350.85</v>
       </c>
     </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A337" s="2">
         <v>43799</v>
       </c>
@@ -4641,7 +4659,7 @@
         <v>29353.85</v>
       </c>
     </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A338" s="2">
         <v>43800</v>
       </c>
@@ -4652,7 +4670,7 @@
         <v>29356.86</v>
       </c>
     </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A339" s="2">
         <v>43801</v>
       </c>
@@ -4663,7 +4681,7 @@
         <v>29359.86</v>
       </c>
     </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A340" s="2">
         <v>43802</v>
       </c>
@@ -4674,7 +4692,7 @@
         <v>29362.87</v>
       </c>
     </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A341" s="2">
         <v>43803</v>
       </c>
@@ -4685,7 +4703,7 @@
         <v>29365.87</v>
       </c>
     </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A342" s="2">
         <v>43804</v>
       </c>
@@ -4696,7 +4714,7 @@
         <v>29368.880000000001</v>
       </c>
     </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A343" s="2">
         <v>43805</v>
       </c>
@@ -4707,7 +4725,7 @@
         <v>29371.88</v>
       </c>
     </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A344" s="2">
         <v>43806</v>
       </c>
@@ -4718,7 +4736,7 @@
         <v>29374.89</v>
       </c>
     </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A345" s="2">
         <v>43807</v>
       </c>
@@ -4729,7 +4747,7 @@
         <v>29377.89</v>
       </c>
     </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A346" s="2">
         <v>43808</v>
       </c>
@@ -4740,7 +4758,7 @@
         <v>29380.9</v>
       </c>
     </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A347" s="2">
         <v>43809</v>
       </c>
@@ -4751,7 +4769,7 @@
         <v>29383.09</v>
       </c>
     </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A348" s="2">
         <v>43810</v>
       </c>
@@ -4762,7 +4780,7 @@
         <v>29385.27</v>
       </c>
     </row>
-    <row r="349" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A349" s="2">
         <v>43811</v>
       </c>
@@ -4773,7 +4791,7 @@
         <v>29387.46</v>
       </c>
     </row>
-    <row r="350" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A350" s="2">
         <v>43812</v>
       </c>
@@ -4784,7 +4802,7 @@
         <v>29389.64</v>
       </c>
     </row>
-    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A351" s="2">
         <v>43813</v>
       </c>
@@ -4795,7 +4813,7 @@
         <v>29391.83</v>
       </c>
     </row>
-    <row r="352" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A352" s="2">
         <v>43814</v>
       </c>
@@ -4806,7 +4824,7 @@
         <v>29394.02</v>
       </c>
     </row>
-    <row r="353" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A353" s="2">
         <v>43815</v>
       </c>
@@ -4817,7 +4835,7 @@
         <v>29396.2</v>
       </c>
     </row>
-    <row r="354" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A354" s="2">
         <v>43816</v>
       </c>
@@ -4828,7 +4846,7 @@
         <v>29398.39</v>
       </c>
     </row>
-    <row r="355" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A355" s="2">
         <v>43817</v>
       </c>
@@ -4839,7 +4857,7 @@
         <v>29400.58</v>
       </c>
     </row>
-    <row r="356" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A356" s="2">
         <v>43818</v>
       </c>
@@ -4850,7 +4868,7 @@
         <v>29402.76</v>
       </c>
     </row>
-    <row r="357" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A357" s="2">
         <v>43819</v>
       </c>
@@ -4861,7 +4879,7 @@
         <v>29404.95</v>
       </c>
     </row>
-    <row r="358" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A358" s="2">
         <v>43820</v>
       </c>
@@ -4872,7 +4890,7 @@
         <v>29407.14</v>
       </c>
     </row>
-    <row r="359" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A359" s="2">
         <v>43821</v>
       </c>
@@ -4883,7 +4901,7 @@
         <v>29409.32</v>
       </c>
     </row>
-    <row r="360" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A360" s="2">
         <v>43822</v>
       </c>
@@ -4894,7 +4912,7 @@
         <v>29411.51</v>
       </c>
     </row>
-    <row r="361" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A361" s="2">
         <v>43823</v>
       </c>
@@ -4905,7 +4923,7 @@
         <v>29413.7</v>
       </c>
     </row>
-    <row r="362" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A362" s="2">
         <v>43824</v>
       </c>
@@ -4916,7 +4934,7 @@
         <v>29415.89</v>
       </c>
     </row>
-    <row r="363" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A363" s="2">
         <v>43825</v>
       </c>
@@ -4927,7 +4945,7 @@
         <v>29418.080000000002</v>
       </c>
     </row>
-    <row r="364" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A364" s="2">
         <v>43826</v>
       </c>
@@ -4938,7 +4956,7 @@
         <v>29420.26</v>
       </c>
     </row>
-    <row r="365" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A365" s="2">
         <v>43827</v>
       </c>
@@ -4949,7 +4967,7 @@
         <v>29422.45</v>
       </c>
     </row>
-    <row r="366" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A366" s="2">
         <v>43828</v>
       </c>
@@ -4960,7 +4978,7 @@
         <v>29424.639999999999</v>
       </c>
     </row>
-    <row r="367" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A367" s="2">
         <v>43829</v>
       </c>
@@ -4971,7 +4989,7 @@
         <v>29426.83</v>
       </c>
     </row>
-    <row r="368" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A368" s="2">
         <v>43830</v>
       </c>
@@ -4982,7 +5000,7 @@
         <v>29429.02</v>
       </c>
     </row>
-    <row r="369" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A369" s="2">
         <v>43831</v>
       </c>
@@ -4993,7 +5011,7 @@
         <v>29431.21</v>
       </c>
     </row>
-    <row r="370" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A370" s="2">
         <v>43832</v>
       </c>
@@ -5004,7 +5022,7 @@
         <v>29433.4</v>
       </c>
     </row>
-    <row r="371" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A371" s="2">
         <v>43833</v>
       </c>
@@ -5015,7 +5033,7 @@
         <v>29435.59</v>
       </c>
     </row>
-    <row r="372" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A372" s="2">
         <v>43834</v>
       </c>
@@ -5026,7 +5044,7 @@
         <v>29437.78</v>
       </c>
     </row>
-    <row r="373" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A373" s="2">
         <v>43835</v>
       </c>
@@ -5037,7 +5055,7 @@
         <v>29439.97</v>
       </c>
     </row>
-    <row r="374" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A374" s="2">
         <v>43836</v>
       </c>
@@ -5048,7 +5066,7 @@
         <v>29442.16</v>
       </c>
     </row>
-    <row r="375" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A375" s="2">
         <v>43837</v>
       </c>
@@ -5059,7 +5077,7 @@
         <v>29444.35</v>
       </c>
     </row>
-    <row r="376" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A376" s="2">
         <v>43838</v>
       </c>
@@ -5070,7 +5088,7 @@
         <v>29446.54</v>
       </c>
     </row>
-    <row r="377" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A377" s="2">
         <v>43839</v>
       </c>
@@ -5081,7 +5099,7 @@
         <v>29448.73</v>
       </c>
     </row>
-    <row r="378" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A378" s="2">
         <v>43840</v>
       </c>
@@ -5092,7 +5110,7 @@
         <v>29451</v>
       </c>
     </row>
-    <row r="379" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A379" s="2">
         <v>43841</v>
       </c>
@@ -5103,7 +5121,7 @@
         <v>29453.27</v>
       </c>
     </row>
-    <row r="380" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A380" s="2">
         <v>43842</v>
       </c>
@@ -5114,7 +5132,7 @@
         <v>29455.54</v>
       </c>
     </row>
-    <row r="381" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A381" s="2">
         <v>43843</v>
       </c>
@@ -5125,7 +5143,7 @@
         <v>29457.81</v>
       </c>
     </row>
-    <row r="382" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A382" s="2">
         <v>43844</v>
       </c>
@@ -5136,7 +5154,7 @@
         <v>29460.080000000002</v>
       </c>
     </row>
-    <row r="383" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A383" s="2">
         <v>43845</v>
       </c>
@@ -5147,7 +5165,7 @@
         <v>29462.35</v>
       </c>
     </row>
-    <row r="384" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A384" s="2">
         <v>43846</v>
       </c>
@@ -5158,7 +5176,7 @@
         <v>29464.63</v>
       </c>
     </row>
-    <row r="385" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A385" s="2">
         <v>43847</v>
       </c>
@@ -5169,7 +5187,7 @@
         <v>29466.9</v>
       </c>
     </row>
-    <row r="386" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A386" s="2">
         <v>43848</v>
       </c>
@@ -5180,7 +5198,7 @@
         <v>29469.17</v>
       </c>
     </row>
-    <row r="387" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A387" s="2">
         <v>43849</v>
       </c>
@@ -5191,7 +5209,7 @@
         <v>29471.439999999999</v>
       </c>
     </row>
-    <row r="388" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A388" s="2">
         <v>43850</v>
       </c>
@@ -5202,7 +5220,7 @@
         <v>29473.71</v>
       </c>
     </row>
-    <row r="389" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A389" s="2">
         <v>43851</v>
       </c>
@@ -5213,7 +5231,7 @@
         <v>29475.99</v>
       </c>
     </row>
-    <row r="390" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A390" s="2">
         <v>43852</v>
       </c>
@@ -5224,7 +5242,7 @@
         <v>29478.26</v>
       </c>
     </row>
-    <row r="391" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A391" s="2">
         <v>43853</v>
       </c>
@@ -5235,7 +5253,7 @@
         <v>29480.53</v>
       </c>
     </row>
-    <row r="392" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A392" s="2">
         <v>43854</v>
       </c>
@@ -5246,7 +5264,7 @@
         <v>29482.799999999999</v>
       </c>
     </row>
-    <row r="393" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A393" s="2">
         <v>43855</v>
       </c>
@@ -5257,7 +5275,7 @@
         <v>29485.08</v>
       </c>
     </row>
-    <row r="394" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A394" s="2">
         <v>43856</v>
       </c>
@@ -5268,7 +5286,7 @@
         <v>29487.35</v>
       </c>
     </row>
-    <row r="395" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A395" s="2">
         <v>43857</v>
       </c>
@@ -5279,7 +5297,7 @@
         <v>29489.62</v>
       </c>
     </row>
-    <row r="396" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A396" s="2">
         <v>43858</v>
       </c>
@@ -5290,7 +5308,7 @@
         <v>29491.9</v>
       </c>
     </row>
-    <row r="397" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A397" s="2">
         <v>43859</v>
       </c>
@@ -5301,7 +5319,7 @@
         <v>29494.17</v>
       </c>
     </row>
-    <row r="398" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A398" s="2">
         <v>43860</v>
       </c>
@@ -5312,7 +5330,7 @@
         <v>29496.44</v>
       </c>
     </row>
-    <row r="399" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A399" s="2">
         <v>43861</v>
       </c>
@@ -5323,7 +5341,7 @@
         <v>29498.720000000001</v>
       </c>
     </row>
-    <row r="400" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A400" s="2">
         <v>43862</v>
       </c>
@@ -5334,7 +5352,7 @@
         <v>29500.99</v>
       </c>
     </row>
-    <row r="401" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A401" s="2">
         <v>43863</v>
       </c>
@@ -5345,7 +5363,7 @@
         <v>29503.27</v>
       </c>
     </row>
-    <row r="402" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A402" s="2">
         <v>43864</v>
       </c>
@@ -5356,7 +5374,7 @@
         <v>29505.54</v>
       </c>
     </row>
-    <row r="403" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A403" s="2">
         <v>43865</v>
       </c>
@@ -5367,7 +5385,7 @@
         <v>29507.81</v>
       </c>
     </row>
-    <row r="404" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A404" s="2">
         <v>43866</v>
       </c>
@@ -5378,7 +5396,7 @@
         <v>29510.09</v>
       </c>
     </row>
-    <row r="405" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A405" s="2">
         <v>43867</v>
       </c>
@@ -5389,7 +5407,7 @@
         <v>29512.36</v>
       </c>
     </row>
-    <row r="406" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A406" s="2">
         <v>43868</v>
       </c>
@@ -5400,7 +5418,7 @@
         <v>29514.639999999999</v>
       </c>
     </row>
-    <row r="407" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A407" s="2">
         <v>43869</v>
       </c>
@@ -5411,7 +5429,7 @@
         <v>29516.92</v>
       </c>
     </row>
-    <row r="408" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A408" s="2">
         <v>43870</v>
       </c>
@@ -5422,7 +5440,7 @@
         <v>29519.19</v>
       </c>
     </row>
-    <row r="409" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A409" s="2">
         <v>43871</v>
       </c>
@@ -5433,7 +5451,7 @@
         <v>29522.12</v>
       </c>
     </row>
-    <row r="410" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A410" s="2">
         <v>43872</v>
       </c>
@@ -5444,7 +5462,7 @@
         <v>29525.06</v>
       </c>
     </row>
-    <row r="411" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A411" s="2">
         <v>43873</v>
       </c>
@@ -5455,7 +5473,7 @@
         <v>29527.99</v>
       </c>
     </row>
-    <row r="412" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A412" s="2">
         <v>43874</v>
       </c>
@@ -5466,7 +5484,7 @@
         <v>29530.93</v>
       </c>
     </row>
-    <row r="413" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A413" s="2">
         <v>43875</v>
       </c>
@@ -5477,7 +5495,7 @@
         <v>29533.86</v>
       </c>
     </row>
-    <row r="414" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A414" s="2">
         <v>43876</v>
       </c>
@@ -5488,7 +5506,7 @@
         <v>29536.79</v>
       </c>
     </row>
-    <row r="415" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A415" s="2">
         <v>43877</v>
       </c>
@@ -5499,7 +5517,7 @@
         <v>29539.73</v>
       </c>
     </row>
-    <row r="416" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A416" s="2">
         <v>43878</v>
       </c>
@@ -5510,7 +5528,7 @@
         <v>29542.67</v>
       </c>
     </row>
-    <row r="417" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A417" s="2">
         <v>43879</v>
       </c>
@@ -5521,7 +5539,7 @@
         <v>29545.599999999999</v>
       </c>
     </row>
-    <row r="418" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A418" s="2">
         <v>43880</v>
       </c>
@@ -5532,7 +5550,7 @@
         <v>29548.54</v>
       </c>
     </row>
-    <row r="419" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A419" s="2">
         <v>43881</v>
       </c>
@@ -5543,7 +5561,7 @@
         <v>29551.47</v>
       </c>
     </row>
-    <row r="420" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A420" s="2">
         <v>43882</v>
       </c>
@@ -5554,7 +5572,7 @@
         <v>29554.41</v>
       </c>
     </row>
-    <row r="421" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A421" s="2">
         <v>43883</v>
       </c>
@@ -5565,7 +5583,7 @@
         <v>29557.35</v>
       </c>
     </row>
-    <row r="422" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A422" s="2">
         <v>43884</v>
       </c>
@@ -5576,7 +5594,7 @@
         <v>29560.28</v>
       </c>
     </row>
-    <row r="423" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A423" s="2">
         <v>43885</v>
       </c>
@@ -5587,7 +5605,7 @@
         <v>29563.22</v>
       </c>
     </row>
-    <row r="424" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A424" s="2">
         <v>43886</v>
       </c>
@@ -5598,7 +5616,7 @@
         <v>29566.16</v>
       </c>
     </row>
-    <row r="425" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A425" s="2">
         <v>43887</v>
       </c>
@@ -5609,7 +5627,7 @@
         <v>29569.1</v>
       </c>
     </row>
-    <row r="426" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A426" s="2">
         <v>43888</v>
       </c>
@@ -5620,7 +5638,7 @@
         <v>29572.04</v>
       </c>
     </row>
-    <row r="427" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A427" s="2">
         <v>43889</v>
       </c>
@@ -5631,7 +5649,7 @@
         <v>29574.97</v>
       </c>
     </row>
-    <row r="428" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A428" s="2">
         <v>43890</v>
       </c>
@@ -5642,7 +5660,7 @@
         <v>29577.91</v>
       </c>
     </row>
-    <row r="429" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A429" s="2">
         <v>43891</v>
       </c>
@@ -5653,7 +5671,7 @@
         <v>29580.85</v>
       </c>
     </row>
-    <row r="430" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A430" s="2">
         <v>43892</v>
       </c>
@@ -5664,7 +5682,7 @@
         <v>29583.79</v>
       </c>
     </row>
-    <row r="431" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A431" s="2">
         <v>43893</v>
       </c>
@@ -5675,7 +5693,7 @@
         <v>29586.73</v>
       </c>
     </row>
-    <row r="432" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A432" s="2">
         <v>43894</v>
       </c>
@@ -5686,7 +5704,7 @@
         <v>29589.67</v>
       </c>
     </row>
-    <row r="433" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A433" s="2">
         <v>43895</v>
       </c>
@@ -5697,7 +5715,7 @@
         <v>29592.61</v>
       </c>
     </row>
-    <row r="434" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A434" s="2">
         <v>43896</v>
       </c>
@@ -5708,7 +5726,7 @@
         <v>29595.55</v>
       </c>
     </row>
-    <row r="435" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A435" s="2">
         <v>43897</v>
       </c>
@@ -5719,7 +5737,7 @@
         <v>29598.49</v>
       </c>
     </row>
-    <row r="436" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A436" s="2">
         <v>43898</v>
       </c>
@@ -5730,7 +5748,7 @@
         <v>29601.43</v>
       </c>
     </row>
-    <row r="437" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A437" s="2">
         <v>43899</v>
       </c>
@@ -5741,7 +5759,7 @@
         <v>29604.38</v>
       </c>
     </row>
-    <row r="438" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A438" s="2">
         <v>43900</v>
       </c>
@@ -5752,7 +5770,7 @@
         <v>29607.66</v>
       </c>
     </row>
-    <row r="439" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A439" s="2">
         <v>43901</v>
       </c>
@@ -5763,7 +5781,7 @@
         <v>29610.94</v>
       </c>
     </row>
-    <row r="440" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A440" s="2">
         <v>43902</v>
       </c>
@@ -5774,7 +5792,7 @@
         <v>29614.22</v>
       </c>
     </row>
-    <row r="441" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A441" s="2">
         <v>43903</v>
       </c>
@@ -5785,7 +5803,7 @@
         <v>29617.5</v>
       </c>
     </row>
-    <row r="442" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A442" s="2">
         <v>43904</v>
       </c>
@@ -5796,7 +5814,7 @@
         <v>29620.78</v>
       </c>
     </row>
-    <row r="443" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A443" s="2">
         <v>43905</v>
       </c>
@@ -5807,7 +5825,7 @@
         <v>29624.06</v>
       </c>
     </row>
-    <row r="444" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A444" s="2">
         <v>43906</v>
       </c>
@@ -5818,7 +5836,7 @@
         <v>29627.35</v>
       </c>
     </row>
-    <row r="445" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A445" s="2">
         <v>43907</v>
       </c>
@@ -5829,7 +5847,7 @@
         <v>29630.63</v>
       </c>
     </row>
-    <row r="446" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A446" s="2">
         <v>43908</v>
       </c>
@@ -5840,7 +5858,7 @@
         <v>29633.91</v>
       </c>
     </row>
-    <row r="447" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A447" s="2">
         <v>43909</v>
       </c>
@@ -5851,7 +5869,7 @@
         <v>29637.19</v>
       </c>
     </row>
-    <row r="448" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A448" s="2">
         <v>43910</v>
       </c>
@@ -5862,7 +5880,7 @@
         <v>29640.48</v>
       </c>
     </row>
-    <row r="449" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A449" s="2">
         <v>43911</v>
       </c>
@@ -5873,7 +5891,7 @@
         <v>29643.759999999998</v>
       </c>
     </row>
-    <row r="450" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A450" s="2">
         <v>43912</v>
       </c>
@@ -5884,7 +5902,7 @@
         <v>29647.040000000001</v>
       </c>
     </row>
-    <row r="451" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A451" s="2">
         <v>43913</v>
       </c>
@@ -5895,7 +5913,7 @@
         <v>29650.33</v>
       </c>
     </row>
-    <row r="452" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A452" s="2">
         <v>43914</v>
       </c>
@@ -5906,7 +5924,7 @@
         <v>29653.61</v>
       </c>
     </row>
-    <row r="453" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A453" s="2">
         <v>43915</v>
       </c>
@@ -5917,7 +5935,7 @@
         <v>29656.9</v>
       </c>
     </row>
-    <row r="454" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A454" s="2">
         <v>43916</v>
       </c>
@@ -5928,7 +5946,7 @@
         <v>29660.18</v>
       </c>
     </row>
-    <row r="455" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A455" s="2">
         <v>43917</v>
       </c>
@@ -5939,7 +5957,7 @@
         <v>29663.47</v>
       </c>
     </row>
-    <row r="456" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A456" s="2">
         <v>43918</v>
       </c>
@@ -5950,7 +5968,7 @@
         <v>29666.76</v>
       </c>
     </row>
-    <row r="457" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A457" s="2">
         <v>43919</v>
       </c>
@@ -5961,7 +5979,7 @@
         <v>29670.04</v>
       </c>
     </row>
-    <row r="458" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A458" s="2">
         <v>43920</v>
       </c>
@@ -5972,7 +5990,7 @@
         <v>29673.33</v>
       </c>
     </row>
-    <row r="459" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A459" s="2">
         <v>43921</v>
       </c>
@@ -5983,7 +6001,7 @@
         <v>29676.62</v>
       </c>
     </row>
-    <row r="460" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A460" s="2">
         <v>43922</v>
       </c>
@@ -5994,7 +6012,7 @@
         <v>29679.91</v>
       </c>
     </row>
-    <row r="461" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A461" s="2">
         <v>43923</v>
       </c>
@@ -6005,7 +6023,7 @@
         <v>29683.19</v>
       </c>
     </row>
-    <row r="462" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A462" s="2">
         <v>43924</v>
       </c>
@@ -6016,7 +6034,7 @@
         <v>29686.48</v>
       </c>
     </row>
-    <row r="463" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A463" s="2">
         <v>43925</v>
       </c>
@@ -6027,7 +6045,7 @@
         <v>29689.77</v>
       </c>
     </row>
-    <row r="464" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A464" s="2">
         <v>43926</v>
       </c>
@@ -6038,7 +6056,7 @@
         <v>29693.06</v>
       </c>
     </row>
-    <row r="465" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A465" s="2">
         <v>43927</v>
       </c>
@@ -6049,7 +6067,7 @@
         <v>29696.35</v>
       </c>
     </row>
-    <row r="466" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A466" s="2">
         <v>43928</v>
       </c>
@@ -6060,7 +6078,7 @@
         <v>29699.64</v>
       </c>
     </row>
-    <row r="467" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A467" s="2">
         <v>43929</v>
       </c>
@@ -6071,7 +6089,7 @@
         <v>29702.93</v>
       </c>
     </row>
-    <row r="468" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A468" s="2">
         <v>43930</v>
       </c>
@@ -6082,7 +6100,7 @@
         <v>29706.22</v>
       </c>
     </row>
-    <row r="469" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A469" s="2">
         <v>43931</v>
       </c>
@@ -6093,7 +6111,7 @@
         <v>29710.02</v>
       </c>
     </row>
-    <row r="470" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A470" s="2">
         <v>43932</v>
       </c>
@@ -6104,7 +6122,7 @@
         <v>29713.82</v>
       </c>
     </row>
-    <row r="471" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A471" s="2">
         <v>43933</v>
       </c>
@@ -6115,7 +6133,7 @@
         <v>29717.62</v>
       </c>
     </row>
-    <row r="472" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A472" s="2">
         <v>43934</v>
       </c>
@@ -6126,7 +6144,7 @@
         <v>29721.42</v>
       </c>
     </row>
-    <row r="473" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A473" s="2">
         <v>43935</v>
       </c>
@@ -6137,7 +6155,7 @@
         <v>29725.22</v>
       </c>
     </row>
-    <row r="474" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A474" s="2">
         <v>43936</v>
       </c>
@@ -6148,7 +6166,7 @@
         <v>29729.02</v>
       </c>
     </row>
-    <row r="475" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A475" s="2">
         <v>43937</v>
       </c>
@@ -6159,7 +6177,7 @@
         <v>29732.82</v>
       </c>
     </row>
-    <row r="476" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A476" s="2">
         <v>43938</v>
       </c>
@@ -6170,7 +6188,7 @@
         <v>29736.63</v>
       </c>
     </row>
-    <row r="477" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A477" s="2">
         <v>43939</v>
       </c>
@@ -6181,7 +6199,7 @@
         <v>29740.43</v>
       </c>
     </row>
-    <row r="478" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A478" s="2">
         <v>43940</v>
       </c>
@@ -6192,7 +6210,7 @@
         <v>29744.23</v>
       </c>
     </row>
-    <row r="479" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A479" s="2">
         <v>43941</v>
       </c>
@@ -6203,7 +6221,7 @@
         <v>29748.04</v>
       </c>
     </row>
-    <row r="480" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A480" s="2">
         <v>43942</v>
       </c>
@@ -6214,7 +6232,7 @@
         <v>29751.84</v>
       </c>
     </row>
-    <row r="481" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A481" s="2">
         <v>43943</v>
       </c>
@@ -6225,7 +6243,7 @@
         <v>29755.64</v>
       </c>
     </row>
-    <row r="482" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A482" s="2">
         <v>43944</v>
       </c>
@@ -6236,7 +6254,7 @@
         <v>29759.45</v>
       </c>
     </row>
-    <row r="483" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A483" s="2">
         <v>43945</v>
       </c>
@@ -6247,7 +6265,7 @@
         <v>29763.26</v>
       </c>
     </row>
-    <row r="484" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A484" s="2">
         <v>43946</v>
       </c>
@@ -6258,7 +6276,7 @@
         <v>29767.06</v>
       </c>
     </row>
-    <row r="485" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A485" s="2">
         <v>43947</v>
       </c>
@@ -6269,7 +6287,7 @@
         <v>29770.87</v>
       </c>
     </row>
-    <row r="486" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A486" s="2">
         <v>43948</v>
       </c>
@@ -6280,7 +6298,7 @@
         <v>29774.68</v>
       </c>
     </row>
-    <row r="487" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A487" s="2">
         <v>43949</v>
       </c>
@@ -6291,7 +6309,7 @@
         <v>29778.48</v>
       </c>
     </row>
-    <row r="488" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A488" s="2">
         <v>43950</v>
       </c>
@@ -6302,7 +6320,7 @@
         <v>29782.29</v>
       </c>
     </row>
-    <row r="489" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A489" s="2">
         <v>43951</v>
       </c>
@@ -6313,7 +6331,7 @@
         <v>29786.1</v>
       </c>
     </row>
-    <row r="490" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A490" s="2">
         <v>43952</v>
       </c>
@@ -6324,7 +6342,7 @@
         <v>29789.91</v>
       </c>
     </row>
-    <row r="491" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A491" s="2">
         <v>43953</v>
       </c>
@@ -6335,7 +6353,7 @@
         <v>29793.72</v>
       </c>
     </row>
-    <row r="492" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A492" s="2">
         <v>43954</v>
       </c>
@@ -6346,7 +6364,7 @@
         <v>29797.53</v>
       </c>
     </row>
-    <row r="493" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A493" s="2">
         <v>43955</v>
       </c>
@@ -6357,7 +6375,7 @@
         <v>29801.34</v>
       </c>
     </row>
-    <row r="494" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A494" s="2">
         <v>43956</v>
       </c>
@@ -6368,7 +6386,7 @@
         <v>29805.15</v>
       </c>
     </row>
-    <row r="495" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A495" s="2">
         <v>43957</v>
       </c>
@@ -6379,7 +6397,7 @@
         <v>29808.959999999999</v>
       </c>
     </row>
-    <row r="496" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A496" s="2">
         <v>43958</v>
       </c>
@@ -6390,7 +6408,7 @@
         <v>29812.77</v>
       </c>
     </row>
-    <row r="497" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A497" s="2">
         <v>43959</v>
       </c>
@@ -6401,7 +6419,7 @@
         <v>29816.59</v>
       </c>
     </row>
-    <row r="498" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A498" s="2">
         <v>43960</v>
       </c>
@@ -6412,7 +6430,7 @@
         <v>29820.400000000001</v>
       </c>
     </row>
-    <row r="499" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A499" s="2">
         <v>43961</v>
       </c>
@@ -6423,7 +6441,7 @@
         <v>29822.82</v>
       </c>
     </row>
-    <row r="500" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A500" s="2">
         <v>43962</v>
       </c>
@@ -6434,7 +6452,7 @@
         <v>29825.24</v>
       </c>
     </row>
-    <row r="501" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A501" s="2">
         <v>43963</v>
       </c>
@@ -6445,7 +6463,7 @@
         <v>29827.66</v>
       </c>
     </row>
-    <row r="502" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A502" s="2">
         <v>43964</v>
       </c>
@@ -6456,7 +6474,7 @@
         <v>29830.080000000002</v>
       </c>
     </row>
-    <row r="503" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A503" s="2">
         <v>43965</v>
       </c>
@@ -6467,7 +6485,7 @@
         <v>29832.51</v>
       </c>
     </row>
-    <row r="504" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A504" s="2">
         <v>43966</v>
       </c>
@@ -6478,7 +6496,7 @@
         <v>29834.93</v>
       </c>
     </row>
-    <row r="505" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A505" s="2">
         <v>43967</v>
       </c>
@@ -6489,7 +6507,7 @@
         <v>29837.35</v>
       </c>
     </row>
-    <row r="506" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A506" s="2">
         <v>43968</v>
       </c>
@@ -6500,7 +6518,7 @@
         <v>29839.77</v>
       </c>
     </row>
-    <row r="507" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A507" s="2">
         <v>43969</v>
       </c>
@@ -6511,7 +6529,7 @@
         <v>29842.19</v>
       </c>
     </row>
-    <row r="508" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A508" s="2">
         <v>43970</v>
       </c>
@@ -6522,7 +6540,7 @@
         <v>29844.62</v>
       </c>
     </row>
-    <row r="509" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A509" s="2">
         <v>43971</v>
       </c>
@@ -6533,7 +6551,7 @@
         <v>29847.040000000001</v>
       </c>
     </row>
-    <row r="510" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A510" s="2">
         <v>43972</v>
       </c>
@@ -6544,7 +6562,7 @@
         <v>29849.46</v>
       </c>
     </row>
-    <row r="511" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A511" s="2">
         <v>43973</v>
       </c>
@@ -6555,7 +6573,7 @@
         <v>29851.89</v>
       </c>
     </row>
-    <row r="512" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A512" s="2">
         <v>43974</v>
       </c>
@@ -6566,7 +6584,7 @@
         <v>29854.31</v>
       </c>
     </row>
-    <row r="513" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A513" s="2">
         <v>43975</v>
       </c>
@@ -6577,7 +6595,7 @@
         <v>29856.73</v>
       </c>
     </row>
-    <row r="514" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A514" s="2">
         <v>43976</v>
       </c>
@@ -6588,7 +6606,7 @@
         <v>29859.16</v>
       </c>
     </row>
-    <row r="515" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A515" s="2">
         <v>43977</v>
       </c>
@@ -6599,7 +6617,7 @@
         <v>29861.58</v>
       </c>
     </row>
-    <row r="516" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A516" s="2">
         <v>43978</v>
       </c>
@@ -6610,7 +6628,7 @@
         <v>29864</v>
       </c>
     </row>
-    <row r="517" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A517" s="2">
         <v>43979</v>
       </c>
@@ -6621,7 +6639,7 @@
         <v>29866.43</v>
       </c>
     </row>
-    <row r="518" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A518" s="2">
         <v>43980</v>
       </c>
@@ -6632,7 +6650,7 @@
         <v>29868.85</v>
       </c>
     </row>
-    <row r="519" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A519" s="2">
         <v>43981</v>
       </c>
@@ -6643,7 +6661,7 @@
         <v>29871.279999999999</v>
       </c>
     </row>
-    <row r="520" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A520" s="2">
         <v>43982</v>
       </c>
@@ -6654,7 +6672,7 @@
         <v>29873.7</v>
       </c>
     </row>
-    <row r="521" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A521" s="2">
         <v>43983</v>
       </c>
@@ -6665,7 +6683,7 @@
         <v>29876.13</v>
       </c>
     </row>
-    <row r="522" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A522" s="2">
         <v>43984</v>
       </c>
@@ -6676,7 +6694,7 @@
         <v>29878.55</v>
       </c>
     </row>
-    <row r="523" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A523" s="2">
         <v>43985</v>
       </c>
@@ -6687,7 +6705,7 @@
         <v>29880.98</v>
       </c>
     </row>
-    <row r="524" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A524" s="2">
         <v>43986</v>
       </c>
@@ -6698,7 +6716,7 @@
         <v>29883.4</v>
       </c>
     </row>
-    <row r="525" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A525" s="2">
         <v>43987</v>
       </c>
@@ -6709,7 +6727,7 @@
         <v>29885.83</v>
       </c>
     </row>
-    <row r="526" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A526" s="2">
         <v>43988</v>
       </c>
@@ -6720,7 +6738,7 @@
         <v>29888.26</v>
       </c>
     </row>
-    <row r="527" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A527" s="2">
         <v>43989</v>
       </c>
@@ -6731,7 +6749,7 @@
         <v>29890.68</v>
       </c>
     </row>
-    <row r="528" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A528" s="2">
         <v>43990</v>
       </c>
@@ -6742,7 +6760,7 @@
         <v>29893.11</v>
       </c>
     </row>
-    <row r="529" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A529" s="2">
         <v>43991</v>
       </c>
@@ -6753,7 +6771,7 @@
         <v>29895.54</v>
       </c>
     </row>
-    <row r="530" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A530" s="2">
         <v>43992</v>
       </c>
@@ -6764,7 +6782,7 @@
         <v>29897.75</v>
       </c>
     </row>
-    <row r="531" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A531" s="2">
         <v>43993</v>
       </c>
@@ -6775,7 +6793,7 @@
         <v>29899.96</v>
       </c>
     </row>
-    <row r="532" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A532" s="2">
         <v>43994</v>
       </c>
@@ -6786,7 +6804,7 @@
         <v>29902.17</v>
       </c>
     </row>
-    <row r="533" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A533" s="2">
         <v>43995</v>
       </c>
@@ -6797,7 +6815,7 @@
         <v>29904.38</v>
       </c>
     </row>
-    <row r="534" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A534" s="2">
         <v>43996</v>
       </c>
@@ -6808,7 +6826,7 @@
         <v>29906.59</v>
       </c>
     </row>
-    <row r="535" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A535" s="2">
         <v>43997</v>
       </c>
@@ -6819,7 +6837,7 @@
         <v>29908.799999999999</v>
       </c>
     </row>
-    <row r="536" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A536" s="2">
         <v>43998</v>
       </c>
@@ -6830,7 +6848,7 @@
         <v>29911.01</v>
       </c>
     </row>
-    <row r="537" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A537" s="2">
         <v>43999</v>
       </c>
@@ -6841,7 +6859,7 @@
         <v>29913.22</v>
       </c>
     </row>
-    <row r="538" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A538" s="2">
         <v>44000</v>
       </c>
@@ -6852,7 +6870,7 @@
         <v>29915.43</v>
       </c>
     </row>
-    <row r="539" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A539" s="2">
         <v>44001</v>
       </c>
@@ -6863,7 +6881,7 @@
         <v>29917.64</v>
       </c>
     </row>
-    <row r="540" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A540" s="2">
         <v>44002</v>
       </c>
@@ -6874,7 +6892,7 @@
         <v>29919.85</v>
       </c>
     </row>
-    <row r="541" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A541" s="2">
         <v>44003</v>
       </c>
@@ -6885,7 +6903,7 @@
         <v>29922.07</v>
       </c>
     </row>
-    <row r="542" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A542" s="2">
         <v>44004</v>
       </c>
@@ -6896,7 +6914,7 @@
         <v>29924.28</v>
       </c>
     </row>
-    <row r="543" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A543" s="2">
         <v>44005</v>
       </c>
@@ -6907,7 +6925,7 @@
         <v>29926.49</v>
       </c>
     </row>
-    <row r="544" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A544" s="2">
         <v>44006</v>
       </c>
@@ -6918,7 +6936,7 @@
         <v>29928.7</v>
       </c>
     </row>
-    <row r="545" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A545" s="2">
         <v>44007</v>
       </c>
@@ -6929,7 +6947,7 @@
         <v>29930.91</v>
       </c>
     </row>
-    <row r="546" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A546" s="2">
         <v>44008</v>
       </c>
@@ -6940,7 +6958,7 @@
         <v>29933.119999999999</v>
       </c>
     </row>
-    <row r="547" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A547" s="2">
         <v>44009</v>
       </c>
@@ -6951,7 +6969,7 @@
         <v>29935.34</v>
       </c>
     </row>
-    <row r="548" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A548" s="2">
         <v>44010</v>
       </c>
@@ -6962,7 +6980,7 @@
         <v>29937.55</v>
       </c>
     </row>
-    <row r="549" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A549" s="2">
         <v>44011</v>
       </c>
@@ -6973,7 +6991,7 @@
         <v>29939.759999999998</v>
       </c>
     </row>
-    <row r="550" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A550" s="2">
         <v>44012</v>
       </c>
@@ -6984,7 +7002,7 @@
         <v>29941.97</v>
       </c>
     </row>
-    <row r="551" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A551" s="2">
         <v>44013</v>
       </c>
@@ -6995,7 +7013,7 @@
         <v>29944.19</v>
       </c>
     </row>
-    <row r="552" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A552" s="2">
         <v>44014</v>
       </c>
@@ -7006,7 +7024,7 @@
         <v>29946.400000000001</v>
       </c>
     </row>
-    <row r="553" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A553" s="2">
         <v>44015</v>
       </c>
@@ -7017,7 +7035,7 @@
         <v>29948.61</v>
       </c>
     </row>
-    <row r="554" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A554" s="2">
         <v>44016</v>
       </c>
@@ -7028,7 +7046,7 @@
         <v>29950.83</v>
       </c>
     </row>
-    <row r="555" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A555" s="2">
         <v>44017</v>
       </c>
@@ -7039,7 +7057,7 @@
         <v>29953.040000000001</v>
       </c>
     </row>
-    <row r="556" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A556" s="2">
         <v>44018</v>
       </c>
@@ -7050,7 +7068,7 @@
         <v>29955.25</v>
       </c>
     </row>
-    <row r="557" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A557" s="2">
         <v>44019</v>
       </c>
@@ -7061,7 +7079,7 @@
         <v>29957.47</v>
       </c>
     </row>
-    <row r="558" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A558" s="2">
         <v>44020</v>
       </c>
@@ -7072,7 +7090,7 @@
         <v>29959.68</v>
       </c>
     </row>
-    <row r="559" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A559" s="2">
         <v>44021</v>
       </c>
@@ -7083,7 +7101,7 @@
         <v>29961.9</v>
       </c>
     </row>
-    <row r="560" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A560" s="2">
         <v>44022</v>
       </c>
@@ -7094,7 +7112,7 @@
         <v>29963.84</v>
       </c>
     </row>
-    <row r="561" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A561" s="2">
         <v>44023</v>
       </c>
@@ -7105,7 +7123,7 @@
         <v>29965.78</v>
       </c>
     </row>
-    <row r="562" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A562" s="2">
         <v>44024</v>
       </c>
@@ -7116,7 +7134,7 @@
         <v>29967.73</v>
       </c>
     </row>
-    <row r="563" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A563" s="2">
         <v>44025</v>
       </c>
@@ -7127,7 +7145,7 @@
         <v>29969.67</v>
       </c>
     </row>
-    <row r="564" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A564" s="2">
         <v>44026</v>
       </c>
@@ -7138,7 +7156,7 @@
         <v>29971.61</v>
       </c>
     </row>
-    <row r="565" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A565" s="2">
         <v>44027</v>
       </c>
@@ -7149,7 +7167,7 @@
         <v>29973.55</v>
       </c>
     </row>
-    <row r="566" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A566" s="2">
         <v>44028</v>
       </c>
@@ -7160,7 +7178,7 @@
         <v>29975.5</v>
       </c>
     </row>
-    <row r="567" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A567" s="2">
         <v>44029</v>
       </c>
@@ -7171,7 +7189,7 @@
         <v>29977.439999999999</v>
       </c>
     </row>
-    <row r="568" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A568" s="2">
         <v>44030</v>
       </c>
@@ -7182,7 +7200,7 @@
         <v>29979.38</v>
       </c>
     </row>
-    <row r="569" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A569" s="2">
         <v>44031</v>
       </c>
@@ -7193,7 +7211,7 @@
         <v>29981.33</v>
       </c>
     </row>
-    <row r="570" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A570" s="2">
         <v>44032</v>
       </c>
@@ -7204,7 +7222,7 @@
         <v>29983.27</v>
       </c>
     </row>
-    <row r="571" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A571" s="2">
         <v>44033</v>
       </c>
@@ -7215,7 +7233,7 @@
         <v>29985.21</v>
       </c>
     </row>
-    <row r="572" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A572" s="2">
         <v>44034</v>
       </c>
@@ -7226,7 +7244,7 @@
         <v>29987.16</v>
       </c>
     </row>
-    <row r="573" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A573" s="2">
         <v>44035</v>
       </c>
@@ -7237,7 +7255,7 @@
         <v>29989.1</v>
       </c>
     </row>
-    <row r="574" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A574" s="2">
         <v>44036</v>
       </c>
@@ -7248,7 +7266,7 @@
         <v>29991.040000000001</v>
       </c>
     </row>
-    <row r="575" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A575" s="2">
         <v>44037</v>
       </c>
@@ -7259,7 +7277,7 @@
         <v>29992.99</v>
       </c>
     </row>
-    <row r="576" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A576" s="2">
         <v>44038</v>
       </c>
@@ -7270,7 +7288,7 @@
         <v>29994.93</v>
       </c>
     </row>
-    <row r="577" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A577" s="2">
         <v>44039</v>
       </c>
@@ -7281,7 +7299,7 @@
         <v>29996.87</v>
       </c>
     </row>
-    <row r="578" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A578" s="2">
         <v>44040</v>
       </c>
@@ -7292,7 +7310,7 @@
         <v>29998.82</v>
       </c>
     </row>
-    <row r="579" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A579" s="2">
         <v>44041</v>
       </c>
@@ -7303,7 +7321,7 @@
         <v>30000.76</v>
       </c>
     </row>
-    <row r="580" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A580" s="2">
         <v>44042</v>
       </c>
@@ -7314,7 +7332,7 @@
         <v>30002.71</v>
       </c>
     </row>
-    <row r="581" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A581" s="2">
         <v>44043</v>
       </c>
@@ -7325,7 +7343,7 @@
         <v>30004.65</v>
       </c>
     </row>
-    <row r="582" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A582" s="2">
         <v>44044</v>
       </c>
@@ -7336,7 +7354,7 @@
         <v>30006.6</v>
       </c>
     </row>
-    <row r="583" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A583" s="2">
         <v>44045</v>
       </c>
@@ -7347,7 +7365,7 @@
         <v>30008.54</v>
       </c>
     </row>
-    <row r="584" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A584" s="2">
         <v>44046</v>
       </c>
@@ -7358,7 +7376,7 @@
         <v>30010.49</v>
       </c>
     </row>
-    <row r="585" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A585" s="2">
         <v>44047</v>
       </c>
@@ -7369,7 +7387,7 @@
         <v>30012.43</v>
       </c>
     </row>
-    <row r="586" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A586" s="2">
         <v>44048</v>
       </c>
@@ -7380,7 +7398,7 @@
         <v>30014.38</v>
       </c>
     </row>
-    <row r="587" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A587" s="2">
         <v>44049</v>
       </c>
@@ -7391,7 +7409,7 @@
         <v>30016.32</v>
       </c>
     </row>
-    <row r="588" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A588" s="2">
         <v>44050</v>
       </c>
@@ -7402,7 +7420,7 @@
         <v>30018.27</v>
       </c>
     </row>
-    <row r="589" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A589" s="2">
         <v>44051</v>
       </c>
@@ -7413,7 +7431,7 @@
         <v>30020.21</v>
       </c>
     </row>
-    <row r="590" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A590" s="2">
         <v>44052</v>
       </c>
@@ -7424,7 +7442,7 @@
         <v>30022.16</v>
       </c>
     </row>
-    <row r="591" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A591" s="2">
         <v>44053</v>
       </c>
@@ -7435,7 +7453,7 @@
         <v>30023.22</v>
       </c>
     </row>
-    <row r="592" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A592" s="2">
         <v>44054</v>
       </c>
@@ -7446,7 +7464,7 @@
         <v>30024.27</v>
       </c>
     </row>
-    <row r="593" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A593" s="2">
         <v>44055</v>
       </c>
@@ -7457,7 +7475,7 @@
         <v>30025.33</v>
       </c>
     </row>
-    <row r="594" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A594" s="2">
         <v>44056</v>
       </c>
@@ -7468,7 +7486,7 @@
         <v>30026.38</v>
       </c>
     </row>
-    <row r="595" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A595" s="2">
         <v>44057</v>
       </c>
@@ -7479,7 +7497,7 @@
         <v>30027.439999999999</v>
       </c>
     </row>
-    <row r="596" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A596" s="2">
         <v>44058</v>
       </c>
@@ -7490,7 +7508,7 @@
         <v>30028.5</v>
       </c>
     </row>
-    <row r="597" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A597" s="2">
         <v>44059</v>
       </c>
@@ -7501,7 +7519,7 @@
         <v>30029.55</v>
       </c>
     </row>
-    <row r="598" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A598" s="2">
         <v>44060</v>
       </c>
@@ -7512,7 +7530,7 @@
         <v>30030.61</v>
       </c>
     </row>
-    <row r="599" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A599" s="2">
         <v>44061</v>
       </c>
@@ -7523,7 +7541,7 @@
         <v>30031.67</v>
       </c>
     </row>
-    <row r="600" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A600" s="2">
         <v>44062</v>
       </c>
@@ -7534,7 +7552,7 @@
         <v>30032.720000000001</v>
       </c>
     </row>
-    <row r="601" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A601" s="2">
         <v>44063</v>
       </c>
@@ -7545,7 +7563,7 @@
         <v>30033.78</v>
       </c>
     </row>
-    <row r="602" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A602" s="2">
         <v>44064</v>
       </c>
@@ -7556,7 +7574,7 @@
         <v>30034.84</v>
       </c>
     </row>
-    <row r="603" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A603" s="2">
         <v>44065</v>
       </c>
@@ -7567,7 +7585,7 @@
         <v>30035.89</v>
       </c>
     </row>
-    <row r="604" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A604" s="2">
         <v>44066</v>
       </c>
@@ -7578,7 +7596,7 @@
         <v>30036.95</v>
       </c>
     </row>
-    <row r="605" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A605" s="2">
         <v>44067</v>
       </c>
@@ -7589,7 +7607,7 @@
         <v>30038.01</v>
       </c>
     </row>
-    <row r="606" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A606" s="2">
         <v>44068</v>
       </c>
@@ -7600,7 +7618,7 @@
         <v>30039.06</v>
       </c>
     </row>
-    <row r="607" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A607" s="2">
         <v>44069</v>
       </c>
@@ -7611,7 +7629,7 @@
         <v>30040.12</v>
       </c>
     </row>
-    <row r="608" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A608" s="2">
         <v>44070</v>
       </c>
@@ -7622,7 +7640,7 @@
         <v>30041.18</v>
       </c>
     </row>
-    <row r="609" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A609" s="2">
         <v>44071</v>
       </c>
@@ -7633,7 +7651,7 @@
         <v>30042.23</v>
       </c>
     </row>
-    <row r="610" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A610" s="2">
         <v>44072</v>
       </c>
@@ -7644,7 +7662,7 @@
         <v>30043.29</v>
       </c>
     </row>
-    <row r="611" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A611" s="2">
         <v>44073</v>
       </c>
@@ -7655,7 +7673,7 @@
         <v>30044.35</v>
       </c>
     </row>
-    <row r="612" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A612" s="2">
         <v>44074</v>
       </c>
@@ -7666,7 +7684,7 @@
         <v>30045.4</v>
       </c>
     </row>
-    <row r="613" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A613" s="2">
         <v>44075</v>
       </c>
@@ -7677,7 +7695,7 @@
         <v>30046.46</v>
       </c>
     </row>
-    <row r="614" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A614" s="2">
         <v>44076</v>
       </c>
@@ -7688,7 +7706,7 @@
         <v>30047.52</v>
       </c>
     </row>
-    <row r="615" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A615" s="2">
         <v>44077</v>
       </c>
@@ -7699,7 +7717,7 @@
         <v>30048.57</v>
       </c>
     </row>
-    <row r="616" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A616" s="2">
         <v>44078</v>
       </c>
@@ -7710,7 +7728,7 @@
         <v>30049.63</v>
       </c>
     </row>
-    <row r="617" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A617" s="2">
         <v>44079</v>
       </c>
@@ -7721,7 +7739,7 @@
         <v>30050.69</v>
       </c>
     </row>
-    <row r="618" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A618" s="2">
         <v>44080</v>
       </c>
@@ -7732,7 +7750,7 @@
         <v>30051.74</v>
       </c>
     </row>
-    <row r="619" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A619" s="2">
         <v>44081</v>
       </c>
@@ -7743,7 +7761,7 @@
         <v>30052.799999999999</v>
       </c>
     </row>
-    <row r="620" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A620" s="2">
         <v>44082</v>
       </c>
@@ -7754,7 +7772,7 @@
         <v>30053.86</v>
       </c>
     </row>
-    <row r="621" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A621" s="2">
         <v>44083</v>
       </c>
@@ -7765,7 +7783,7 @@
         <v>30054.92</v>
       </c>
     </row>
-    <row r="622" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A622" s="2">
         <v>44084</v>
       </c>
@@ -7776,7 +7794,7 @@
         <v>30055.57</v>
       </c>
     </row>
-    <row r="623" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A623" s="2">
         <v>44085</v>
       </c>
@@ -7787,7 +7805,7 @@
         <v>30056.23</v>
       </c>
     </row>
-    <row r="624" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A624" s="2">
         <v>44086</v>
       </c>
@@ -7798,7 +7816,7 @@
         <v>30056.880000000001</v>
       </c>
     </row>
-    <row r="625" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A625" s="2">
         <v>44087</v>
       </c>
@@ -7809,7 +7827,7 @@
         <v>30057.54</v>
       </c>
     </row>
-    <row r="626" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A626" s="2">
         <v>44088</v>
       </c>
@@ -7820,7 +7838,7 @@
         <v>30058.19</v>
       </c>
     </row>
-    <row r="627" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A627" s="2">
         <v>44089</v>
       </c>
@@ -7831,7 +7849,7 @@
         <v>30058.84</v>
       </c>
     </row>
-    <row r="628" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A628" s="2">
         <v>44090</v>
       </c>
@@ -7842,7 +7860,7 @@
         <v>30059.5</v>
       </c>
     </row>
-    <row r="629" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A629" s="2">
         <v>44091</v>
       </c>
@@ -7853,7 +7871,7 @@
         <v>30060.15</v>
       </c>
     </row>
-    <row r="630" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A630" s="2">
         <v>44092</v>
       </c>
@@ -7864,7 +7882,7 @@
         <v>30060.81</v>
       </c>
     </row>
-    <row r="631" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A631" s="2">
         <v>44093</v>
       </c>
@@ -7875,7 +7893,7 @@
         <v>30061.46</v>
       </c>
     </row>
-    <row r="632" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A632" s="2">
         <v>44094</v>
       </c>
@@ -7886,7 +7904,7 @@
         <v>30062.11</v>
       </c>
     </row>
-    <row r="633" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A633" s="2">
         <v>44095</v>
       </c>
@@ -7897,7 +7915,7 @@
         <v>30062.77</v>
       </c>
     </row>
-    <row r="634" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A634" s="2">
         <v>44096</v>
       </c>
@@ -7908,7 +7926,7 @@
         <v>30063.42</v>
       </c>
     </row>
-    <row r="635" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A635" s="2">
         <v>44097</v>
       </c>
@@ -7919,7 +7937,7 @@
         <v>30064.080000000002</v>
       </c>
     </row>
-    <row r="636" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A636" s="2">
         <v>44098</v>
       </c>
@@ -7930,7 +7948,7 @@
         <v>30064.73</v>
       </c>
     </row>
-    <row r="637" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A637" s="2">
         <v>44099</v>
       </c>
@@ -7941,7 +7959,7 @@
         <v>30065.38</v>
       </c>
     </row>
-    <row r="638" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A638" s="2">
         <v>44100</v>
       </c>
@@ -7952,7 +7970,7 @@
         <v>30066.04</v>
       </c>
     </row>
-    <row r="639" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A639" s="2">
         <v>44101</v>
       </c>
@@ -7963,7 +7981,7 @@
         <v>30066.69</v>
       </c>
     </row>
-    <row r="640" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A640" s="2">
         <v>44102</v>
       </c>
@@ -7974,7 +7992,7 @@
         <v>30067.35</v>
       </c>
     </row>
-    <row r="641" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A641" s="2">
         <v>44103</v>
       </c>
@@ -7985,7 +8003,7 @@
         <v>30068</v>
       </c>
     </row>
-    <row r="642" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A642" s="2">
         <v>44104</v>
       </c>
@@ -7996,7 +8014,7 @@
         <v>30068.65</v>
       </c>
     </row>
-    <row r="643" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A643" s="2">
         <v>44105</v>
       </c>
@@ -8007,7 +8025,7 @@
         <v>30069.31</v>
       </c>
     </row>
-    <row r="644" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A644" s="2">
         <v>44106</v>
       </c>
@@ -8018,7 +8036,7 @@
         <v>30069.96</v>
       </c>
     </row>
-    <row r="645" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A645" s="2">
         <v>44107</v>
       </c>
@@ -8029,7 +8047,7 @@
         <v>30070.62</v>
       </c>
     </row>
-    <row r="646" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A646" s="2">
         <v>44108</v>
       </c>
@@ -8040,7 +8058,7 @@
         <v>30071.27</v>
       </c>
     </row>
-    <row r="647" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A647" s="2">
         <v>44109</v>
       </c>
@@ -8051,7 +8069,7 @@
         <v>30071.93</v>
       </c>
     </row>
-    <row r="648" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A648" s="2">
         <v>44110</v>
       </c>
@@ -8062,7 +8080,7 @@
         <v>30072.58</v>
       </c>
     </row>
-    <row r="649" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A649" s="2">
         <v>44111</v>
       </c>
@@ -8073,7 +8091,7 @@
         <v>30073.23</v>
       </c>
     </row>
-    <row r="650" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A650" s="2">
         <v>44112</v>
       </c>
@@ -8084,7 +8102,7 @@
         <v>30073.89</v>
       </c>
     </row>
-    <row r="651" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A651" s="2">
         <v>44113</v>
       </c>
@@ -8095,7 +8113,7 @@
         <v>30074.54</v>
       </c>
     </row>
-    <row r="652" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A652" s="2">
         <v>44114</v>
       </c>
@@ -8106,7 +8124,7 @@
         <v>30075.69</v>
       </c>
     </row>
-    <row r="653" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A653" s="2">
         <v>44115</v>
       </c>
@@ -8117,7 +8135,7 @@
         <v>30076.85</v>
       </c>
     </row>
-    <row r="654" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A654" s="2">
         <v>44116</v>
       </c>
@@ -8128,7 +8146,7 @@
         <v>30078</v>
       </c>
     </row>
-    <row r="655" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A655" s="2">
         <v>44117</v>
       </c>
@@ -8139,7 +8157,7 @@
         <v>30079.15</v>
       </c>
     </row>
-    <row r="656" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A656" s="2">
         <v>44118</v>
       </c>
@@ -8150,7 +8168,7 @@
         <v>30080.31</v>
       </c>
     </row>
-    <row r="657" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A657" s="2">
         <v>44119</v>
       </c>
@@ -8161,7 +8179,7 @@
         <v>30081.46</v>
       </c>
     </row>
-    <row r="658" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A658" s="2">
         <v>44120</v>
       </c>
@@ -8172,7 +8190,7 @@
         <v>30082.62</v>
       </c>
     </row>
-    <row r="659" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A659" s="2">
         <v>44121</v>
       </c>
@@ -8183,7 +8201,7 @@
         <v>30083.77</v>
       </c>
     </row>
-    <row r="660" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A660" s="2">
         <v>44122</v>
       </c>
@@ -8194,7 +8212,7 @@
         <v>30084.92</v>
       </c>
     </row>
-    <row r="661" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A661" s="2">
         <v>44123</v>
       </c>
@@ -8205,7 +8223,7 @@
         <v>30086.080000000002</v>
       </c>
     </row>
-    <row r="662" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A662" s="2">
         <v>44124</v>
       </c>
@@ -8216,7 +8234,7 @@
         <v>30087.23</v>
       </c>
     </row>
-    <row r="663" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A663" s="2">
         <v>44125</v>
       </c>
@@ -8227,7 +8245,7 @@
         <v>30088.39</v>
       </c>
     </row>
-    <row r="664" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A664" s="2">
         <v>44126</v>
       </c>
@@ -8238,7 +8256,7 @@
         <v>30089.54</v>
       </c>
     </row>
-    <row r="665" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A665" s="2">
         <v>44127</v>
       </c>
@@ -8249,7 +8267,7 @@
         <v>30090.69</v>
       </c>
     </row>
-    <row r="666" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A666" s="2">
         <v>44128</v>
       </c>
@@ -8260,7 +8278,7 @@
         <v>30091.85</v>
       </c>
     </row>
-    <row r="667" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A667" s="2">
         <v>44129</v>
       </c>
@@ -8271,7 +8289,7 @@
         <v>30093</v>
       </c>
     </row>
-    <row r="668" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A668" s="2">
         <v>44130</v>
       </c>
@@ -8282,7 +8300,7 @@
         <v>30094.16</v>
       </c>
     </row>
-    <row r="669" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A669" s="2">
         <v>44131</v>
       </c>
@@ -8293,7 +8311,7 @@
         <v>30095.31</v>
       </c>
     </row>
-    <row r="670" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A670" s="2">
         <v>44132</v>
       </c>
@@ -8304,7 +8322,7 @@
         <v>30096.46</v>
       </c>
     </row>
-    <row r="671" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A671" s="2">
         <v>44133</v>
       </c>
@@ -8315,7 +8333,7 @@
         <v>30097.62</v>
       </c>
     </row>
-    <row r="672" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A672" s="2">
         <v>44134</v>
       </c>
@@ -8326,7 +8344,7 @@
         <v>30098.77</v>
       </c>
     </row>
-    <row r="673" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A673" s="2">
         <v>44135</v>
       </c>
@@ -8337,7 +8355,7 @@
         <v>30099.93</v>
       </c>
     </row>
-    <row r="674" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A674" s="2">
         <v>44136</v>
       </c>
@@ -8348,7 +8366,7 @@
         <v>30101.08</v>
       </c>
     </row>
-    <row r="675" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A675" s="2">
         <v>44137</v>
       </c>
@@ -8359,7 +8377,7 @@
         <v>30102.240000000002</v>
       </c>
     </row>
-    <row r="676" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A676" s="2">
         <v>44138</v>
       </c>
@@ -8370,7 +8388,7 @@
         <v>30103.39</v>
       </c>
     </row>
-    <row r="677" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A677" s="2">
         <v>44139</v>
       </c>
@@ -8381,7 +8399,7 @@
         <v>30104.55</v>
       </c>
     </row>
-    <row r="678" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A678" s="2">
         <v>44140</v>
       </c>
@@ -8392,7 +8410,7 @@
         <v>30105.7</v>
       </c>
     </row>
-    <row r="679" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A679" s="2">
         <v>44141</v>
       </c>
@@ -8403,7 +8421,7 @@
         <v>30106.86</v>
       </c>
     </row>
-    <row r="680" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A680" s="2">
         <v>44142</v>
       </c>
@@ -8414,7 +8432,7 @@
         <v>30108.01</v>
       </c>
     </row>
-    <row r="681" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A681" s="2">
         <v>44143</v>
       </c>
@@ -8425,7 +8443,7 @@
         <v>30109.16</v>
       </c>
     </row>
-    <row r="682" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A682" s="2">
         <v>44144</v>
       </c>
@@ -8436,7 +8454,7 @@
         <v>30110.32</v>
       </c>
     </row>
-    <row r="683" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A683" s="2">
         <v>44145</v>
       </c>
@@ -8447,7 +8465,7 @@
         <v>30112.66</v>
       </c>
     </row>
-    <row r="684" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A684" s="2">
         <v>44146</v>
       </c>
@@ -8458,7 +8476,7 @@
         <v>30114.99</v>
       </c>
     </row>
-    <row r="685" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A685" s="2">
         <v>44147</v>
       </c>
@@ -8469,7 +8487,7 @@
         <v>30117.33</v>
       </c>
     </row>
-    <row r="686" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A686" s="2">
         <v>44148</v>
       </c>
@@ -8480,7 +8498,7 @@
         <v>30119.67</v>
       </c>
     </row>
-    <row r="687" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A687" s="2">
         <v>44149</v>
       </c>
@@ -8491,7 +8509,7 @@
         <v>30122</v>
       </c>
     </row>
-    <row r="688" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A688" s="2">
         <v>44150</v>
       </c>
@@ -8502,7 +8520,7 @@
         <v>30124.34</v>
       </c>
     </row>
-    <row r="689" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A689" s="2">
         <v>44151</v>
       </c>
@@ -8513,7 +8531,7 @@
         <v>30126.68</v>
       </c>
     </row>
-    <row r="690" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A690" s="2">
         <v>44152</v>
       </c>
@@ -8524,7 +8542,7 @@
         <v>30129.02</v>
       </c>
     </row>
-    <row r="691" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A691" s="2">
         <v>44153</v>
       </c>
@@ -8535,7 +8553,7 @@
         <v>30131.35</v>
       </c>
     </row>
-    <row r="692" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A692" s="2">
         <v>44154</v>
       </c>
@@ -8546,7 +8564,7 @@
         <v>30133.69</v>
       </c>
     </row>
-    <row r="693" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A693" s="2">
         <v>44155</v>
       </c>
@@ -8557,7 +8575,7 @@
         <v>30136.03</v>
       </c>
     </row>
-    <row r="694" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A694" s="2">
         <v>44156</v>
       </c>
@@ -8568,7 +8586,7 @@
         <v>30138.37</v>
       </c>
     </row>
-    <row r="695" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A695" s="2">
         <v>44157</v>
       </c>
@@ -8579,7 +8597,7 @@
         <v>30140.71</v>
       </c>
     </row>
-    <row r="696" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A696" s="2">
         <v>44158</v>
       </c>
@@ -8590,7 +8608,7 @@
         <v>30143.05</v>
       </c>
     </row>
-    <row r="697" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A697" s="2">
         <v>44159</v>
       </c>
@@ -8601,7 +8619,7 @@
         <v>30145.39</v>
       </c>
     </row>
-    <row r="698" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A698" s="2">
         <v>44160</v>
       </c>
@@ -8612,7 +8630,7 @@
         <v>30147.72</v>
       </c>
     </row>
-    <row r="699" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A699" s="2">
         <v>44161</v>
       </c>
@@ -8623,7 +8641,7 @@
         <v>30150.06</v>
       </c>
     </row>
-    <row r="700" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A700" s="2">
         <v>44162</v>
       </c>
@@ -8634,7 +8652,7 @@
         <v>30152.400000000001</v>
       </c>
     </row>
-    <row r="701" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A701" s="2">
         <v>44163</v>
       </c>
@@ -8645,7 +8663,7 @@
         <v>30154.74</v>
       </c>
     </row>
-    <row r="702" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A702" s="2">
         <v>44164</v>
       </c>
@@ -8656,7 +8674,7 @@
         <v>30157.08</v>
       </c>
     </row>
-    <row r="703" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A703" s="2">
         <v>44165</v>
       </c>
@@ -8667,7 +8685,7 @@
         <v>30159.42</v>
       </c>
     </row>
-    <row r="704" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A704" s="2">
         <v>44166</v>
       </c>
@@ -8678,7 +8696,7 @@
         <v>30161.759999999998</v>
       </c>
     </row>
-    <row r="705" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A705" s="2">
         <v>44167</v>
       </c>
@@ -8689,7 +8707,7 @@
         <v>30164.1</v>
       </c>
     </row>
-    <row r="706" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A706" s="2">
         <v>44168</v>
       </c>
@@ -8700,7 +8718,7 @@
         <v>30166.44</v>
       </c>
     </row>
-    <row r="707" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A707" s="2">
         <v>44169</v>
       </c>
@@ -8711,7 +8729,7 @@
         <v>30168.79</v>
       </c>
     </row>
-    <row r="708" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A708" s="2">
         <v>44170</v>
       </c>
@@ -8722,7 +8740,7 @@
         <v>30171.13</v>
       </c>
     </row>
-    <row r="709" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A709" s="2">
         <v>44171</v>
       </c>
@@ -8733,7 +8751,7 @@
         <v>30173.47</v>
       </c>
     </row>
-    <row r="710" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A710" s="2">
         <v>44172</v>
       </c>
@@ -8744,7 +8762,7 @@
         <v>30175.81</v>
       </c>
     </row>
-    <row r="711" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A711" s="2">
         <v>44173</v>
       </c>
@@ -8755,7 +8773,7 @@
         <v>30178.15</v>
       </c>
     </row>
-    <row r="712" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A712" s="2">
         <v>44174</v>
       </c>
@@ -8766,7 +8784,7 @@
         <v>30180.49</v>
       </c>
     </row>
-    <row r="713" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A713" s="2">
         <v>44175</v>
       </c>
@@ -8777,7 +8795,7 @@
         <v>30182.71</v>
       </c>
     </row>
-    <row r="714" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A714" s="2">
         <v>44176</v>
       </c>
@@ -8788,7 +8806,7 @@
         <v>30184.92</v>
       </c>
     </row>
-    <row r="715" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A715" s="2">
         <v>44177</v>
       </c>
@@ -8799,7 +8817,7 @@
         <v>30187.14</v>
       </c>
     </row>
-    <row r="716" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A716" s="2">
         <v>44178</v>
       </c>
@@ -8810,7 +8828,7 @@
         <v>30189.360000000001</v>
       </c>
     </row>
-    <row r="717" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A717" s="2">
         <v>44179</v>
       </c>
@@ -8821,7 +8839,7 @@
         <v>30191.57</v>
       </c>
     </row>
-    <row r="718" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A718" s="2">
         <v>44180</v>
       </c>
@@ -8832,7 +8850,7 @@
         <v>30193.79</v>
       </c>
     </row>
-    <row r="719" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A719" s="2">
         <v>44181</v>
       </c>
@@ -8843,7 +8861,7 @@
         <v>30196.01</v>
       </c>
     </row>
-    <row r="720" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A720" s="2">
         <v>44182</v>
       </c>
@@ -8854,7 +8872,7 @@
         <v>30198.23</v>
       </c>
     </row>
-    <row r="721" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A721" s="2">
         <v>44183</v>
       </c>
@@ -8865,7 +8883,7 @@
         <v>30200.44</v>
       </c>
     </row>
-    <row r="722" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A722" s="2">
         <v>44184</v>
       </c>
@@ -8876,7 +8894,7 @@
         <v>30202.66</v>
       </c>
     </row>
-    <row r="723" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A723" s="2">
         <v>44185</v>
       </c>
@@ -8887,7 +8905,7 @@
         <v>30204.880000000001</v>
       </c>
     </row>
-    <row r="724" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A724" s="2">
         <v>44186</v>
       </c>
@@ -8898,7 +8916,7 @@
         <v>30207.1</v>
       </c>
     </row>
-    <row r="725" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A725" s="2">
         <v>44187</v>
       </c>
@@ -8909,7 +8927,7 @@
         <v>30209.31</v>
       </c>
     </row>
-    <row r="726" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A726" s="2">
         <v>44188</v>
       </c>
@@ -8920,7 +8938,7 @@
         <v>30211.53</v>
       </c>
     </row>
-    <row r="727" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A727" s="2">
         <v>44189</v>
       </c>
@@ -8931,7 +8949,7 @@
         <v>30213.75</v>
       </c>
     </row>
-    <row r="728" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A728" s="2">
         <v>44190</v>
       </c>
@@ -8942,7 +8960,7 @@
         <v>30215.97</v>
       </c>
     </row>
-    <row r="729" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A729" s="2">
         <v>44191</v>
       </c>
@@ -8953,7 +8971,7 @@
         <v>30218.19</v>
       </c>
     </row>
-    <row r="730" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A730" s="2">
         <v>44192</v>
       </c>
@@ -8964,7 +8982,7 @@
         <v>30220.41</v>
       </c>
     </row>
-    <row r="731" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A731" s="2">
         <v>44193</v>
       </c>
@@ -8975,7 +8993,7 @@
         <v>30222.63</v>
       </c>
     </row>
-    <row r="732" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A732" s="2">
         <v>44194</v>
       </c>
@@ -8986,7 +9004,7 @@
         <v>30224.85</v>
       </c>
     </row>
-    <row r="733" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A733" s="2">
         <v>44195</v>
       </c>
@@ -8997,7 +9015,7 @@
         <v>30227.07</v>
       </c>
     </row>
-    <row r="734" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A734" s="2">
         <v>44196</v>
       </c>
@@ -9008,7 +9026,7 @@
         <v>30229.29</v>
       </c>
     </row>
-    <row r="735" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A735" s="2">
         <v>44197</v>
       </c>
@@ -9019,7 +9037,7 @@
         <v>30231.51</v>
       </c>
     </row>
-    <row r="736" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A736" s="2">
         <v>44198</v>
       </c>
@@ -9030,7 +9048,7 @@
         <v>30233.73</v>
       </c>
     </row>
-    <row r="737" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A737" s="2">
         <v>44199</v>
       </c>
@@ -9041,7 +9059,7 @@
         <v>30235.95</v>
       </c>
     </row>
-    <row r="738" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A738" s="2">
         <v>44200</v>
       </c>
@@ -9052,7 +9070,7 @@
         <v>30238.17</v>
       </c>
     </row>
-    <row r="739" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A739" s="2">
         <v>44201</v>
       </c>
@@ -9063,7 +9081,7 @@
         <v>30240.39</v>
       </c>
     </row>
-    <row r="740" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A740" s="2">
         <v>44202</v>
       </c>
@@ -9074,7 +9092,7 @@
         <v>30242.61</v>
       </c>
     </row>
-    <row r="741" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A741" s="2">
         <v>44203</v>
       </c>
@@ -9085,7 +9103,7 @@
         <v>30244.83</v>
       </c>
     </row>
-    <row r="742" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A742" s="2">
         <v>44204</v>
       </c>
@@ -9096,7 +9114,7 @@
         <v>30247.05</v>
       </c>
     </row>
-    <row r="743" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A743" s="2">
         <v>44205</v>
       </c>
@@ -9107,7 +9125,7 @@
         <v>30249.27</v>
       </c>
     </row>
-    <row r="744" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A744" s="2">
         <v>44206</v>
       </c>
@@ -9118,7 +9136,7 @@
         <v>30252.14</v>
       </c>
     </row>
-    <row r="745" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A745" s="2">
         <v>44207</v>
       </c>
@@ -9129,7 +9147,7 @@
         <v>30255.02</v>
       </c>
     </row>
-    <row r="746" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A746" s="2">
         <v>44208</v>
       </c>
@@ -9140,7 +9158,7 @@
         <v>30257.89</v>
       </c>
     </row>
-    <row r="747" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A747" s="2">
         <v>44209</v>
       </c>
@@ -9151,7 +9169,7 @@
         <v>30260.77</v>
       </c>
     </row>
-    <row r="748" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A748" s="2">
         <v>44210</v>
       </c>
@@ -9162,7 +9180,7 @@
         <v>30263.64</v>
       </c>
     </row>
-    <row r="749" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A749" s="2">
         <v>44211</v>
       </c>
@@ -9173,7 +9191,7 @@
         <v>30266.52</v>
       </c>
     </row>
-    <row r="750" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A750" s="2">
         <v>44212</v>
       </c>
@@ -9184,7 +9202,7 @@
         <v>30269.4</v>
       </c>
     </row>
-    <row r="751" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A751" s="2">
         <v>44213</v>
       </c>
@@ -9195,7 +9213,7 @@
         <v>30272.27</v>
       </c>
     </row>
-    <row r="752" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A752" s="2">
         <v>44214</v>
       </c>
@@ -9206,7 +9224,7 @@
         <v>30275.15</v>
       </c>
     </row>
-    <row r="753" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A753" s="2">
         <v>44215</v>
       </c>
@@ -9217,7 +9235,7 @@
         <v>30278.03</v>
       </c>
     </row>
-    <row r="754" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A754" s="2">
         <v>44216</v>
       </c>
@@ -9228,7 +9246,7 @@
         <v>30280.9</v>
       </c>
     </row>
-    <row r="755" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A755" s="2">
         <v>44217</v>
       </c>
@@ -9239,7 +9257,7 @@
         <v>30283.78</v>
       </c>
     </row>
-    <row r="756" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A756" s="2">
         <v>44218</v>
       </c>
@@ -9250,7 +9268,7 @@
         <v>30286.66</v>
       </c>
     </row>
-    <row r="757" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A757" s="2">
         <v>44219</v>
       </c>
@@ -9261,7 +9279,7 @@
         <v>30289.54</v>
       </c>
     </row>
-    <row r="758" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A758" s="2">
         <v>44220</v>
       </c>
@@ -9272,7 +9290,7 @@
         <v>30292.42</v>
       </c>
     </row>
-    <row r="759" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A759" s="2">
         <v>44221</v>
       </c>
@@ -9283,7 +9301,7 @@
         <v>30295.29</v>
       </c>
     </row>
-    <row r="760" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A760" s="2">
         <v>44222</v>
       </c>
@@ -9294,7 +9312,7 @@
         <v>30298.17</v>
       </c>
     </row>
-    <row r="761" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A761" s="2">
         <v>44223</v>
       </c>
@@ -9305,7 +9323,7 @@
         <v>30301.05</v>
       </c>
     </row>
-    <row r="762" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A762" s="2">
         <v>44224</v>
       </c>
@@ -9316,7 +9334,7 @@
         <v>30303.93</v>
       </c>
     </row>
-    <row r="763" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A763" s="2">
         <v>44225</v>
       </c>
@@ -9327,7 +9345,7 @@
         <v>30306.81</v>
       </c>
     </row>
-    <row r="764" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A764" s="2">
         <v>44226</v>
       </c>
@@ -9338,7 +9356,7 @@
         <v>30309.69</v>
       </c>
     </row>
-    <row r="765" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A765" s="2">
         <v>44227</v>
       </c>
@@ -9349,7 +9367,7 @@
         <v>30312.57</v>
       </c>
     </row>
-    <row r="766" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A766" s="2">
         <v>44228</v>
       </c>
@@ -9360,7 +9378,7 @@
         <v>30315.45</v>
       </c>
     </row>
-    <row r="767" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A767" s="2">
         <v>44229</v>
       </c>
@@ -9371,7 +9389,7 @@
         <v>30318.33</v>
       </c>
     </row>
-    <row r="768" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A768" s="2">
         <v>44230</v>
       </c>
@@ -9382,7 +9400,7 @@
         <v>30321.21</v>
       </c>
     </row>
-    <row r="769" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A769" s="2">
         <v>44231</v>
       </c>
@@ -9393,7 +9411,7 @@
         <v>30324.09</v>
       </c>
     </row>
-    <row r="770" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A770" s="2">
         <v>44232</v>
       </c>
@@ -9404,7 +9422,7 @@
         <v>30326.98</v>
       </c>
     </row>
-    <row r="771" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A771" s="2">
         <v>44233</v>
       </c>
@@ -9415,7 +9433,7 @@
         <v>30329.86</v>
       </c>
     </row>
-    <row r="772" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A772" s="2">
         <v>44234</v>
       </c>
@@ -9426,7 +9444,7 @@
         <v>30332.74</v>
       </c>
     </row>
-    <row r="773" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A773" s="2">
         <v>44235</v>
       </c>
@@ -9437,7 +9455,7 @@
         <v>30335.62</v>
       </c>
     </row>
-    <row r="774" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A774" s="2">
         <v>44236</v>
       </c>
@@ -9448,7 +9466,7 @@
         <v>30338.5</v>
       </c>
     </row>
-    <row r="775" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A775" s="2">
         <v>44237</v>
       </c>
@@ -9459,7 +9477,7 @@
         <v>30342.38</v>
       </c>
     </row>
-    <row r="776" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A776" s="2">
         <v>44238</v>
       </c>
@@ -9470,7 +9488,7 @@
         <v>30346.26</v>
       </c>
     </row>
-    <row r="777" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A777" s="2">
         <v>44239</v>
       </c>
@@ -9481,7 +9499,7 @@
         <v>30350.14</v>
       </c>
     </row>
-    <row r="778" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A778" s="2">
         <v>44240</v>
       </c>
@@ -9492,7 +9510,7 @@
         <v>30354.02</v>
       </c>
     </row>
-    <row r="779" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A779" s="2">
         <v>44241</v>
       </c>
@@ -9503,7 +9521,7 @@
         <v>30357.91</v>
       </c>
     </row>
-    <row r="780" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A780" s="2">
         <v>44242</v>
       </c>
@@ -9514,7 +9532,7 @@
         <v>30361.79</v>
       </c>
     </row>
-    <row r="781" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A781" s="2">
         <v>44243</v>
       </c>
@@ -9525,7 +9543,7 @@
         <v>30365.67</v>
       </c>
     </row>
-    <row r="782" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A782" s="2">
         <v>44244</v>
       </c>
@@ -9536,7 +9554,7 @@
         <v>30369.56</v>
       </c>
     </row>
-    <row r="783" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A783" s="2">
         <v>44245</v>
       </c>
@@ -9547,7 +9565,7 @@
         <v>30373.439999999999</v>
       </c>
     </row>
-    <row r="784" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A784" s="2">
         <v>44246</v>
       </c>
@@ -9558,7 +9576,7 @@
         <v>30377.33</v>
       </c>
     </row>
-    <row r="785" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A785" s="2">
         <v>44247</v>
       </c>
@@ -9569,7 +9587,7 @@
         <v>30381.21</v>
       </c>
     </row>
-    <row r="786" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A786" s="2">
         <v>44248</v>
       </c>
@@ -9580,7 +9598,7 @@
         <v>30385.1</v>
       </c>
     </row>
-    <row r="787" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A787" s="2">
         <v>44249</v>
       </c>
@@ -9591,7 +9609,7 @@
         <v>30388.98</v>
       </c>
     </row>
-    <row r="788" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A788" s="2">
         <v>44250</v>
       </c>
@@ -9602,7 +9620,7 @@
         <v>30392.87</v>
       </c>
     </row>
-    <row r="789" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A789" s="2">
         <v>44251</v>
       </c>
@@ -9613,7 +9631,7 @@
         <v>30396.76</v>
       </c>
     </row>
-    <row r="790" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A790" s="2">
         <v>44252</v>
       </c>
@@ -9624,7 +9642,7 @@
         <v>30400.65</v>
       </c>
     </row>
-    <row r="791" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A791" s="2">
         <v>44253</v>
       </c>
@@ -9635,7 +9653,7 @@
         <v>30404.53</v>
       </c>
     </row>
-    <row r="792" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A792" s="2">
         <v>44254</v>
       </c>
@@ -9646,7 +9664,7 @@
         <v>30408.42</v>
       </c>
     </row>
-    <row r="793" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A793" s="2">
         <v>44255</v>
       </c>
@@ -9657,7 +9675,7 @@
         <v>30412.31</v>
       </c>
     </row>
-    <row r="794" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A794" s="2">
         <v>44256</v>
       </c>
@@ -9668,7 +9686,7 @@
         <v>30416.2</v>
       </c>
     </row>
-    <row r="795" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A795" s="2">
         <v>44257</v>
       </c>
@@ -9679,7 +9697,7 @@
         <v>30420.09</v>
       </c>
     </row>
-    <row r="796" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A796" s="2">
         <v>44258</v>
       </c>
@@ -9690,7 +9708,7 @@
         <v>30423.98</v>
       </c>
     </row>
-    <row r="797" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A797" s="2">
         <v>44259</v>
       </c>
@@ -9701,7 +9719,7 @@
         <v>30427.87</v>
       </c>
     </row>
-    <row r="798" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A798" s="2">
         <v>44260</v>
       </c>
@@ -9712,7 +9730,7 @@
         <v>30431.77</v>
       </c>
     </row>
-    <row r="799" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A799" s="2">
         <v>44261</v>
       </c>
@@ -9723,7 +9741,7 @@
         <v>30435.66</v>
       </c>
     </row>
-    <row r="800" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A800" s="2">
         <v>44262</v>
       </c>
@@ -9734,7 +9752,7 @@
         <v>30439.55</v>
       </c>
     </row>
-    <row r="801" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A801" s="2">
         <v>44263</v>
       </c>
@@ -9745,7 +9763,7 @@
         <v>30443.45</v>
       </c>
     </row>
-    <row r="802" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A802" s="2">
         <v>44264</v>
       </c>
@@ -9756,7 +9774,7 @@
         <v>30447.34</v>
       </c>
     </row>
-    <row r="803" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A803" s="2">
         <v>44265</v>
       </c>
@@ -9767,7 +9785,7 @@
         <v>30451.39</v>
       </c>
     </row>
-    <row r="804" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A804" s="2">
         <v>44266</v>
       </c>
@@ -9778,7 +9796,7 @@
         <v>30455.439999999999</v>
       </c>
     </row>
-    <row r="805" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A805" s="2">
         <v>44267</v>
       </c>
@@ -9789,7 +9807,7 @@
         <v>30459.48</v>
       </c>
     </row>
-    <row r="806" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A806" s="2">
         <v>44268</v>
       </c>
@@ -9800,7 +9818,7 @@
         <v>30463.53</v>
       </c>
     </row>
-    <row r="807" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A807" s="2">
         <v>44269</v>
       </c>
@@ -9811,7 +9829,7 @@
         <v>30467.58</v>
       </c>
     </row>
-    <row r="808" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A808" s="2">
         <v>44270</v>
       </c>
@@ -9822,7 +9840,7 @@
         <v>30471.63</v>
       </c>
     </row>
-    <row r="809" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="809" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A809" s="2">
         <v>44271</v>
       </c>
@@ -9833,7 +9851,7 @@
         <v>30475.68</v>
       </c>
     </row>
-    <row r="810" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A810" s="2">
         <v>44272</v>
       </c>
@@ -9844,7 +9862,7 @@
         <v>30479.73</v>
       </c>
     </row>
-    <row r="811" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="811" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A811" s="2">
         <v>44273</v>
       </c>
@@ -9855,7 +9873,7 @@
         <v>30483.79</v>
       </c>
     </row>
-    <row r="812" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="812" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A812" s="2">
         <v>44274</v>
       </c>
@@ -9866,7 +9884,7 @@
         <v>30487.84</v>
       </c>
     </row>
-    <row r="813" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="813" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A813" s="2">
         <v>44275</v>
       </c>
@@ -9877,7 +9895,7 @@
         <v>30491.89</v>
       </c>
     </row>
-    <row r="814" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="814" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A814" s="2">
         <v>44276</v>
       </c>
@@ -9888,7 +9906,7 @@
         <v>30495.94</v>
       </c>
     </row>
-    <row r="815" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="815" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A815" s="2">
         <v>44277</v>
       </c>
@@ -9899,7 +9917,7 @@
         <v>30500</v>
       </c>
     </row>
-    <row r="816" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="816" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A816" s="2">
         <v>44278</v>
       </c>
@@ -9910,7 +9928,7 @@
         <v>30504.05</v>
       </c>
     </row>
-    <row r="817" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="817" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A817" s="2">
         <v>44279</v>
       </c>
@@ -9921,7 +9939,7 @@
         <v>30508.11</v>
       </c>
     </row>
-    <row r="818" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="818" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A818" s="2">
         <v>44280</v>
       </c>
@@ -9932,7 +9950,7 @@
         <v>30512.16</v>
       </c>
     </row>
-    <row r="819" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="819" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A819" s="2">
         <v>44281</v>
       </c>
@@ -9943,7 +9961,7 @@
         <v>30516.22</v>
       </c>
     </row>
-    <row r="820" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="820" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A820" s="2">
         <v>44282</v>
       </c>
@@ -9954,7 +9972,7 @@
         <v>30520.28</v>
       </c>
     </row>
-    <row r="821" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="821" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A821" s="2">
         <v>44283</v>
       </c>
@@ -9965,7 +9983,7 @@
         <v>30524.33</v>
       </c>
     </row>
-    <row r="822" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="822" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A822" s="2">
         <v>44284</v>
       </c>
@@ -9976,7 +9994,7 @@
         <v>30528.39</v>
       </c>
     </row>
-    <row r="823" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="823" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A823" s="2">
         <v>44285</v>
       </c>
@@ -9987,7 +10005,7 @@
         <v>30532.45</v>
       </c>
     </row>
-    <row r="824" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="824" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A824" s="2">
         <v>44286</v>
       </c>
@@ -9998,7 +10016,7 @@
         <v>30536.51</v>
       </c>
     </row>
-    <row r="825" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="825" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A825" s="2">
         <v>44287</v>
       </c>
@@ -10009,7 +10027,7 @@
         <v>30540.57</v>
       </c>
     </row>
-    <row r="826" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="826" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A826" s="2">
         <v>44288</v>
       </c>
@@ -10020,7 +10038,7 @@
         <v>30544.63</v>
       </c>
     </row>
-    <row r="827" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="827" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A827" s="2">
         <v>44289</v>
       </c>
@@ -10031,7 +10049,7 @@
         <v>30548.69</v>
       </c>
     </row>
-    <row r="828" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="828" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A828" s="2">
         <v>44290</v>
       </c>
@@ -10042,7 +10060,7 @@
         <v>30552.75</v>
       </c>
     </row>
-    <row r="829" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="829" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A829" s="2">
         <v>44291</v>
       </c>
@@ -10053,7 +10071,7 @@
         <v>30556.81</v>
       </c>
     </row>
-    <row r="830" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="830" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A830" s="2">
         <v>44292</v>
       </c>
@@ -10064,7 +10082,7 @@
         <v>30560.87</v>
       </c>
     </row>
-    <row r="831" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="831" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A831" s="2">
         <v>44293</v>
       </c>
@@ -10075,7 +10093,7 @@
         <v>30564.93</v>
       </c>
     </row>
-    <row r="832" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="832" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A832" s="2">
         <v>44294</v>
       </c>
@@ -10086,7 +10104,7 @@
         <v>30569</v>
       </c>
     </row>
-    <row r="833" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="833" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A833" s="2">
         <v>44295</v>
       </c>
@@ -10097,7 +10115,7 @@
         <v>30573.06</v>
       </c>
     </row>
-    <row r="834" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="834" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A834" s="2">
         <v>44296</v>
       </c>
@@ -10108,7 +10126,7 @@
         <v>30576.66</v>
       </c>
     </row>
-    <row r="835" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="835" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A835" s="2">
         <v>44297</v>
       </c>
@@ -10119,7 +10137,7 @@
         <v>30580.26</v>
       </c>
     </row>
-    <row r="836" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="836" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A836" s="2">
         <v>44298</v>
       </c>
@@ -10130,7 +10148,7 @@
         <v>30583.85</v>
       </c>
     </row>
-    <row r="837" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="837" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A837" s="2">
         <v>44299</v>
       </c>
@@ -10141,7 +10159,7 @@
         <v>30587.45</v>
       </c>
     </row>
-    <row r="838" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="838" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A838" s="2">
         <v>44300</v>
       </c>
@@ -10152,7 +10170,7 @@
         <v>30591.05</v>
       </c>
     </row>
-    <row r="839" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="839" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A839" s="2">
         <v>44301</v>
       </c>
@@ -10163,7 +10181,7 @@
         <v>30594.65</v>
       </c>
     </row>
-    <row r="840" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="840" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A840" s="2">
         <v>44302</v>
       </c>
@@ -10174,7 +10192,7 @@
         <v>30598.25</v>
       </c>
     </row>
-    <row r="841" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="841" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A841" s="2">
         <v>44303</v>
       </c>
@@ -10185,7 +10203,7 @@
         <v>30601.85</v>
       </c>
     </row>
-    <row r="842" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="842" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A842" s="2">
         <v>44304</v>
       </c>
@@ -10196,7 +10214,7 @@
         <v>30605.45</v>
       </c>
     </row>
-    <row r="843" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="843" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A843" s="2">
         <v>44305</v>
       </c>
@@ -10207,7 +10225,7 @@
         <v>30609.05</v>
       </c>
     </row>
-    <row r="844" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="844" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A844" s="2">
         <v>44306</v>
       </c>
@@ -10218,7 +10236,7 @@
         <v>30612.65</v>
       </c>
     </row>
-    <row r="845" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="845" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A845" s="2">
         <v>44307</v>
       </c>
@@ -10229,7 +10247,7 @@
         <v>30616.26</v>
       </c>
     </row>
-    <row r="846" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="846" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A846" s="2">
         <v>44308</v>
       </c>
@@ -10240,7 +10258,7 @@
         <v>30619.86</v>
       </c>
     </row>
-    <row r="847" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="847" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A847" s="2">
         <v>44309</v>
       </c>
@@ -10251,7 +10269,7 @@
         <v>30623.46</v>
       </c>
     </row>
-    <row r="848" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="848" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A848" s="2">
         <v>44310</v>
       </c>
@@ -10262,7 +10280,7 @@
         <v>30627.06</v>
       </c>
     </row>
-    <row r="849" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="849" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A849" s="2">
         <v>44311</v>
       </c>
@@ -10273,7 +10291,7 @@
         <v>30630.67</v>
       </c>
     </row>
-    <row r="850" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="850" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A850" s="2">
         <v>44312</v>
       </c>
@@ -10284,7 +10302,7 @@
         <v>30634.27</v>
       </c>
     </row>
-    <row r="851" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="851" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A851" s="2">
         <v>44313</v>
       </c>
@@ -10295,7 +10313,7 @@
         <v>30637.88</v>
       </c>
     </row>
-    <row r="852" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="852" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A852" s="2">
         <v>44314</v>
       </c>
@@ -10306,7 +10324,7 @@
         <v>30641.48</v>
       </c>
     </row>
-    <row r="853" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="853" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A853" s="2">
         <v>44315</v>
       </c>
@@ -10317,7 +10335,7 @@
         <v>30645.09</v>
       </c>
     </row>
-    <row r="854" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="854" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A854" s="2">
         <v>44316</v>
       </c>
@@ -10328,7 +10346,7 @@
         <v>30648.69</v>
       </c>
     </row>
-    <row r="855" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="855" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A855" s="2">
         <v>44317</v>
       </c>
@@ -10339,7 +10357,7 @@
         <v>30652.3</v>
       </c>
     </row>
-    <row r="856" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="856" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A856" s="2">
         <v>44318</v>
       </c>
@@ -10350,7 +10368,7 @@
         <v>30655.91</v>
       </c>
     </row>
-    <row r="857" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="857" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A857" s="2">
         <v>44319</v>
       </c>
@@ -10361,7 +10379,7 @@
         <v>30659.51</v>
       </c>
     </row>
-    <row r="858" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="858" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A858" s="2">
         <v>44320</v>
       </c>
@@ -10372,7 +10390,7 @@
         <v>30663.119999999999</v>
       </c>
     </row>
-    <row r="859" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="859" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A859" s="2">
         <v>44321</v>
       </c>
@@ -10383,7 +10401,7 @@
         <v>30666.73</v>
       </c>
     </row>
-    <row r="860" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="860" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A860" s="2">
         <v>44322</v>
       </c>
@@ -10394,7 +10412,7 @@
         <v>30670.34</v>
       </c>
     </row>
-    <row r="861" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="861" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A861" s="2">
         <v>44323</v>
       </c>
@@ -10405,7 +10423,7 @@
         <v>30673.95</v>
       </c>
     </row>
-    <row r="862" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="862" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A862" s="2">
         <v>44324</v>
       </c>
@@ -10416,7 +10434,7 @@
         <v>30677.56</v>
       </c>
     </row>
-    <row r="863" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="863" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A863" s="2">
         <v>44325</v>
       </c>
@@ -10427,7 +10445,7 @@
         <v>30681.17</v>
       </c>
     </row>
-    <row r="864" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="864" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A864" s="2">
         <v>44326</v>
       </c>
@@ -10438,7 +10456,7 @@
         <v>30684.29</v>
       </c>
     </row>
-    <row r="865" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="865" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A865" s="2">
         <v>44327</v>
       </c>
@@ -10449,7 +10467,7 @@
         <v>30687.41</v>
       </c>
     </row>
-    <row r="866" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="866" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A866" s="2">
         <v>44328</v>
       </c>
@@ -10460,7 +10478,7 @@
         <v>30690.54</v>
       </c>
     </row>
-    <row r="867" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="867" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A867" s="2">
         <v>44329</v>
       </c>
@@ -10471,7 +10489,7 @@
         <v>30693.66</v>
       </c>
     </row>
-    <row r="868" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="868" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A868" s="2">
         <v>44330</v>
       </c>
@@ -10482,7 +10500,7 @@
         <v>30696.78</v>
       </c>
     </row>
-    <row r="869" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="869" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A869" s="2">
         <v>44331</v>
       </c>
@@ -10493,7 +10511,7 @@
         <v>30699.91</v>
       </c>
     </row>
-    <row r="870" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="870" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A870" s="2">
         <v>44332</v>
       </c>
@@ -10504,7 +10522,7 @@
         <v>30703.03</v>
       </c>
     </row>
-    <row r="871" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="871" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A871" s="2">
         <v>44333</v>
       </c>
@@ -10515,7 +10533,7 @@
         <v>30706.16</v>
       </c>
     </row>
-    <row r="872" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="872" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A872" s="2">
         <v>44334</v>
       </c>
@@ -10526,7 +10544,7 @@
         <v>30709.279999999999</v>
       </c>
     </row>
-    <row r="873" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="873" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A873" s="2">
         <v>44335</v>
       </c>
@@ -10537,7 +10555,7 @@
         <v>30712.41</v>
       </c>
     </row>
-    <row r="874" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="874" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A874" s="2">
         <v>44336</v>
       </c>
@@ -10548,7 +10566,7 @@
         <v>30715.53</v>
       </c>
     </row>
-    <row r="875" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="875" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A875" s="2">
         <v>44337</v>
       </c>
@@ -10559,7 +10577,7 @@
         <v>30718.66</v>
       </c>
     </row>
-    <row r="876" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="876" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A876" s="2">
         <v>44338</v>
       </c>
@@ -10570,7 +10588,7 @@
         <v>30721.78</v>
       </c>
     </row>
-    <row r="877" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="877" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A877" s="2">
         <v>44339</v>
       </c>
@@ -10581,7 +10599,7 @@
         <v>30724.91</v>
       </c>
     </row>
-    <row r="878" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="878" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A878" s="2">
         <v>44340</v>
       </c>
@@ -10592,7 +10610,7 @@
         <v>30728.03</v>
       </c>
     </row>
-    <row r="879" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="879" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A879" s="2">
         <v>44341</v>
       </c>
@@ -10603,7 +10621,7 @@
         <v>30731.16</v>
       </c>
     </row>
-    <row r="880" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="880" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A880" s="2">
         <v>44342</v>
       </c>
@@ -10614,7 +10632,7 @@
         <v>30734.29</v>
       </c>
     </row>
-    <row r="881" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="881" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A881" s="2">
         <v>44343</v>
       </c>
@@ -10625,7 +10643,7 @@
         <v>30737.42</v>
       </c>
     </row>
-    <row r="882" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="882" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A882" s="2">
         <v>44344</v>
       </c>
@@ -10636,7 +10654,7 @@
         <v>30740.54</v>
       </c>
     </row>
-    <row r="883" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="883" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A883" s="2">
         <v>44345</v>
       </c>
@@ -10647,7 +10665,7 @@
         <v>30743.67</v>
       </c>
     </row>
-    <row r="884" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="884" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A884" s="2">
         <v>44346</v>
       </c>
@@ -10658,7 +10676,7 @@
         <v>30746.799999999999</v>
       </c>
     </row>
-    <row r="885" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="885" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A885" s="2">
         <v>44347</v>
       </c>
@@ -10669,7 +10687,7 @@
         <v>30749.93</v>
       </c>
     </row>
-    <row r="886" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="886" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A886" s="2">
         <v>44348</v>
       </c>
@@ -10680,7 +10698,7 @@
         <v>30753.06</v>
       </c>
     </row>
-    <row r="887" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="887" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A887" s="2">
         <v>44349</v>
       </c>
@@ -10690,8 +10708,12 @@
       <c r="C887" s="3">
         <v>30756.19</v>
       </c>
-    </row>
-    <row r="888" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E887" s="5"/>
+      <c r="F887" s="5"/>
+      <c r="H887" s="5"/>
+      <c r="I887" s="5"/>
+    </row>
+    <row r="888" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A888" s="2">
         <v>44350</v>
       </c>
@@ -10702,7 +10724,7 @@
         <v>30759.32</v>
       </c>
     </row>
-    <row r="889" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="889" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A889" s="2">
         <v>44351</v>
       </c>
@@ -10713,7 +10735,7 @@
         <v>30762.45</v>
       </c>
     </row>
-    <row r="890" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="890" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A890" s="2">
         <v>44352</v>
       </c>
@@ -10724,7 +10746,7 @@
         <v>30765.58</v>
       </c>
     </row>
-    <row r="891" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="891" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A891" s="2">
         <v>44353</v>
       </c>
@@ -10735,7 +10757,7 @@
         <v>30768.71</v>
       </c>
     </row>
-    <row r="892" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="892" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A892" s="2">
         <v>44354</v>
       </c>
@@ -10746,7 +10768,7 @@
         <v>30771.84</v>
       </c>
     </row>
-    <row r="893" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="893" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A893" s="2">
         <v>44355</v>
       </c>
@@ -10757,7 +10779,7 @@
         <v>30774.97</v>
       </c>
     </row>
-    <row r="894" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="894" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A894" s="2">
         <v>44356</v>
       </c>

--- a/datacovidChile/IndicadoresEconomicos/UF_IVP_DIARIO.xlsx
+++ b/datacovidChile/IndicadoresEconomicos/UF_IVP_DIARIO.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9f999e057ad8c646/CORONA VIRUS/DATACOVID CL/IndicadoresEconomicos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="49" documentId="8_{09248BB8-9CE4-4580-84DA-AF69B8E47965}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{6D6EE9F4-C954-446E-BDBC-BDA3F87D7066}"/>
+  <xr:revisionPtr revIDLastSave="53" documentId="8_{09248BB8-9CE4-4580-84DA-AF69B8E47965}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5DFB9E9F-AE63-42A8-8224-EDECE0546985}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UF_IVP_DIARIO" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="UF_IVP_DIARIO" localSheetId="0">UF_IVP_DIARIO!$A$1:$C$894</definedName>
+    <definedName name="UF_IVP_DIARIO" localSheetId="0">UF_IVP_DIARIO!$A$1:$C$924</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -573,10 +573,10 @@
     <xf numFmtId="4" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="42" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="42" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -940,52 +940,52 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I894"/>
+  <dimension ref="A1:I924"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B886" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B924" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
       <selection pane="topRight" activeCell="B2" sqref="B2"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="C895" sqref="C895"/>
+      <selection pane="bottomRight" activeCell="B925" sqref="B925"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
     </row>
-    <row r="2" spans="1:3" ht="55.2" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:3" ht="51" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>43466</v>
       </c>
@@ -996,7 +996,7 @@
         <v>28685.79</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>43467</v>
       </c>
@@ -1007,7 +1007,7 @@
         <v>28687.87</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>43468</v>
       </c>
@@ -1018,7 +1018,7 @@
         <v>28689.96</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>43469</v>
       </c>
@@ -1029,7 +1029,7 @@
         <v>28692.04</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>43470</v>
       </c>
@@ -1040,7 +1040,7 @@
         <v>28694.13</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>43471</v>
       </c>
@@ -1051,7 +1051,7 @@
         <v>28696.22</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>43472</v>
       </c>
@@ -1062,7 +1062,7 @@
         <v>28698.3</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>43473</v>
       </c>
@@ -1073,7 +1073,7 @@
         <v>28700.39</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>43474</v>
       </c>
@@ -1084,7 +1084,7 @@
         <v>28702.47</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>43475</v>
       </c>
@@ -1095,7 +1095,7 @@
         <v>28704.23</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>43476</v>
       </c>
@@ -1106,7 +1106,7 @@
         <v>28705.99</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>43477</v>
       </c>
@@ -1117,7 +1117,7 @@
         <v>28707.75</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>43478</v>
       </c>
@@ -1128,7 +1128,7 @@
         <v>28709.51</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>43479</v>
       </c>
@@ -1139,7 +1139,7 @@
         <v>28711.27</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>43480</v>
       </c>
@@ -1150,7 +1150,7 @@
         <v>28713.03</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>43481</v>
       </c>
@@ -1161,7 +1161,7 @@
         <v>28714.79</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>43482</v>
       </c>
@@ -1172,7 +1172,7 @@
         <v>28716.55</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>43483</v>
       </c>
@@ -1183,7 +1183,7 @@
         <v>28718.31</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>43484</v>
       </c>
@@ -1194,7 +1194,7 @@
         <v>28720.07</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>43485</v>
       </c>
@@ -1205,7 +1205,7 @@
         <v>28721.83</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>43486</v>
       </c>
@@ -1216,7 +1216,7 @@
         <v>28723.599999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>43487</v>
       </c>
@@ -1227,7 +1227,7 @@
         <v>28725.360000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>43488</v>
       </c>
@@ -1238,7 +1238,7 @@
         <v>28727.119999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>43489</v>
       </c>
@@ -1249,7 +1249,7 @@
         <v>28728.880000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>43490</v>
       </c>
@@ -1260,7 +1260,7 @@
         <v>28730.639999999999</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>43491</v>
       </c>
@@ -1271,7 +1271,7 @@
         <v>28732.400000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>43492</v>
       </c>
@@ -1282,7 +1282,7 @@
         <v>28734.16</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>43493</v>
       </c>
@@ -1293,7 +1293,7 @@
         <v>28735.93</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>43494</v>
       </c>
@@ -1304,7 +1304,7 @@
         <v>28737.69</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>43495</v>
       </c>
@@ -1315,7 +1315,7 @@
         <v>28739.45</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>43496</v>
       </c>
@@ -1326,7 +1326,7 @@
         <v>28741.21</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>43497</v>
       </c>
@@ -1337,7 +1337,7 @@
         <v>28742.97</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>43498</v>
       </c>
@@ -1348,7 +1348,7 @@
         <v>28744.74</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>43499</v>
       </c>
@@ -1359,7 +1359,7 @@
         <v>28746.5</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>43500</v>
       </c>
@@ -1370,7 +1370,7 @@
         <v>28748.26</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>43501</v>
       </c>
@@ -1381,7 +1381,7 @@
         <v>28750.02</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>43502</v>
       </c>
@@ -1392,7 +1392,7 @@
         <v>28751.79</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>43503</v>
       </c>
@@ -1403,7 +1403,7 @@
         <v>28753.55</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>43504</v>
       </c>
@@ -1414,7 +1414,7 @@
         <v>28755.31</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>43505</v>
       </c>
@@ -1425,7 +1425,7 @@
         <v>28757.08</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>43506</v>
       </c>
@@ -1436,7 +1436,7 @@
         <v>28758.47</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>43507</v>
       </c>
@@ -1447,7 +1447,7 @@
         <v>28759.85</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>43508</v>
       </c>
@@ -1458,7 +1458,7 @@
         <v>28761.24</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>43509</v>
       </c>
@@ -1469,7 +1469,7 @@
         <v>28762.63</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>43510</v>
       </c>
@@ -1480,7 +1480,7 @@
         <v>28764.01</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>43511</v>
       </c>
@@ -1491,7 +1491,7 @@
         <v>28765.4</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>43512</v>
       </c>
@@ -1502,7 +1502,7 @@
         <v>28766.79</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>43513</v>
       </c>
@@ -1513,7 +1513,7 @@
         <v>28768.18</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>43514</v>
       </c>
@@ -1524,7 +1524,7 @@
         <v>28769.56</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>43515</v>
       </c>
@@ -1535,7 +1535,7 @@
         <v>28770.95</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>43516</v>
       </c>
@@ -1546,7 +1546,7 @@
         <v>28772.34</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>43517</v>
       </c>
@@ -1557,7 +1557,7 @@
         <v>28773.73</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>43518</v>
       </c>
@@ -1568,7 +1568,7 @@
         <v>28775.11</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>43519</v>
       </c>
@@ -1579,7 +1579,7 @@
         <v>28776.5</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>43520</v>
       </c>
@@ -1590,7 +1590,7 @@
         <v>28777.89</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>43521</v>
       </c>
@@ -1601,7 +1601,7 @@
         <v>28779.279999999999</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>43522</v>
       </c>
@@ -1612,7 +1612,7 @@
         <v>28780.66</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>43523</v>
       </c>
@@ -1623,7 +1623,7 @@
         <v>28782.05</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>43524</v>
       </c>
@@ -1634,7 +1634,7 @@
         <v>28783.439999999999</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>43525</v>
       </c>
@@ -1645,7 +1645,7 @@
         <v>28784.83</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>43526</v>
       </c>
@@ -1656,7 +1656,7 @@
         <v>28786.22</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>43527</v>
       </c>
@@ -1667,7 +1667,7 @@
         <v>28787.599999999999</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>43528</v>
       </c>
@@ -1678,7 +1678,7 @@
         <v>28788.99</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>43529</v>
       </c>
@@ -1689,7 +1689,7 @@
         <v>28790.38</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>43530</v>
       </c>
@@ -1700,7 +1700,7 @@
         <v>28791.77</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>43531</v>
       </c>
@@ -1711,7 +1711,7 @@
         <v>28793.16</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>43532</v>
       </c>
@@ -1722,7 +1722,7 @@
         <v>28794.55</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <v>43533</v>
       </c>
@@ -1733,7 +1733,7 @@
         <v>28795.94</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>43534</v>
       </c>
@@ -1744,7 +1744,7 @@
         <v>28797.13</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <v>43535</v>
       </c>
@@ -1755,7 +1755,7 @@
         <v>28798.32</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>43536</v>
       </c>
@@ -1766,7 +1766,7 @@
         <v>28799.51</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <v>43537</v>
       </c>
@@ -1777,7 +1777,7 @@
         <v>28800.69</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <v>43538</v>
       </c>
@@ -1788,7 +1788,7 @@
         <v>28801.88</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
         <v>43539</v>
       </c>
@@ -1799,7 +1799,7 @@
         <v>28803.07</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
         <v>43540</v>
       </c>
@@ -1810,7 +1810,7 @@
         <v>28804.26</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
         <v>43541</v>
       </c>
@@ -1821,7 +1821,7 @@
         <v>28805.45</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
         <v>43542</v>
       </c>
@@ -1832,7 +1832,7 @@
         <v>28806.639999999999</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
         <v>43543</v>
       </c>
@@ -1843,7 +1843,7 @@
         <v>28807.83</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
         <v>43544</v>
       </c>
@@ -1854,7 +1854,7 @@
         <v>28809.01</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
         <v>43545</v>
       </c>
@@ -1865,7 +1865,7 @@
         <v>28810.2</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
         <v>43546</v>
       </c>
@@ -1876,7 +1876,7 @@
         <v>28811.39</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
         <v>43547</v>
       </c>
@@ -1887,7 +1887,7 @@
         <v>28812.58</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
         <v>43548</v>
       </c>
@@ -1898,7 +1898,7 @@
         <v>28813.77</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
         <v>43549</v>
       </c>
@@ -1909,7 +1909,7 @@
         <v>28814.959999999999</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
         <v>43550</v>
       </c>
@@ -1920,7 +1920,7 @@
         <v>28816.15</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
         <v>43551</v>
       </c>
@@ -1931,7 +1931,7 @@
         <v>28817.34</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
         <v>43552</v>
       </c>
@@ -1942,7 +1942,7 @@
         <v>28818.53</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
         <v>43553</v>
       </c>
@@ -1953,7 +1953,7 @@
         <v>28819.72</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
         <v>43554</v>
       </c>
@@ -1964,7 +1964,7 @@
         <v>28820.9</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
         <v>43555</v>
       </c>
@@ -1975,7 +1975,7 @@
         <v>28822.09</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
         <v>43556</v>
       </c>
@@ -1986,7 +1986,7 @@
         <v>28823.279999999999</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
         <v>43557</v>
       </c>
@@ -1997,7 +1997,7 @@
         <v>28824.47</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
         <v>43558</v>
       </c>
@@ -2008,7 +2008,7 @@
         <v>28825.66</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
         <v>43559</v>
       </c>
@@ -2019,7 +2019,7 @@
         <v>28826.85</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
         <v>43560</v>
       </c>
@@ -2030,7 +2030,7 @@
         <v>28828.04</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
         <v>43561</v>
       </c>
@@ -2041,7 +2041,7 @@
         <v>28829.23</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="2">
         <v>43562</v>
       </c>
@@ -2052,7 +2052,7 @@
         <v>28830.42</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="2">
         <v>43563</v>
       </c>
@@ -2063,7 +2063,7 @@
         <v>28831.61</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="2">
         <v>43564</v>
       </c>
@@ -2074,7 +2074,7 @@
         <v>28832.799999999999</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
         <v>43565</v>
       </c>
@@ -2085,7 +2085,7 @@
         <v>28834.2</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="2">
         <v>43566</v>
       </c>
@@ -2096,7 +2096,7 @@
         <v>28835.599999999999</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="2">
         <v>43567</v>
       </c>
@@ -2107,7 +2107,7 @@
         <v>28837</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="2">
         <v>43568</v>
       </c>
@@ -2118,7 +2118,7 @@
         <v>28838.39</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="2">
         <v>43569</v>
       </c>
@@ -2129,7 +2129,7 @@
         <v>28839.79</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="2">
         <v>43570</v>
       </c>
@@ -2140,7 +2140,7 @@
         <v>28841.19</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="2">
         <v>43571</v>
       </c>
@@ -2151,7 +2151,7 @@
         <v>28842.59</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
         <v>43572</v>
       </c>
@@ -2162,7 +2162,7 @@
         <v>28843.99</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="2">
         <v>43573</v>
       </c>
@@ -2173,7 +2173,7 @@
         <v>28845.39</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="2">
         <v>43574</v>
       </c>
@@ -2184,7 +2184,7 @@
         <v>28846.79</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="2">
         <v>43575</v>
       </c>
@@ -2195,7 +2195,7 @@
         <v>28848.19</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="2">
         <v>43576</v>
       </c>
@@ -2206,7 +2206,7 @@
         <v>28849.59</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" s="2">
         <v>43577</v>
       </c>
@@ -2217,7 +2217,7 @@
         <v>28850.99</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="2">
         <v>43578</v>
       </c>
@@ -2228,7 +2228,7 @@
         <v>28852.38</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" s="2">
         <v>43579</v>
       </c>
@@ -2239,7 +2239,7 @@
         <v>28853.78</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" s="2">
         <v>43580</v>
       </c>
@@ -2250,7 +2250,7 @@
         <v>28855.18</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" s="2">
         <v>43581</v>
       </c>
@@ -2261,7 +2261,7 @@
         <v>28856.58</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" s="2">
         <v>43582</v>
       </c>
@@ -2272,7 +2272,7 @@
         <v>28857.98</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" s="2">
         <v>43583</v>
       </c>
@@ -2283,7 +2283,7 @@
         <v>28859.38</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" s="2">
         <v>43584</v>
       </c>
@@ -2294,7 +2294,7 @@
         <v>28860.78</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" s="2">
         <v>43585</v>
       </c>
@@ -2305,7 +2305,7 @@
         <v>28862.18</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" s="2">
         <v>43586</v>
       </c>
@@ -2316,7 +2316,7 @@
         <v>28863.58</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" s="2">
         <v>43587</v>
       </c>
@@ -2327,7 +2327,7 @@
         <v>28864.98</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" s="2">
         <v>43588</v>
       </c>
@@ -2338,7 +2338,7 @@
         <v>28866.38</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" s="2">
         <v>43589</v>
       </c>
@@ -2349,7 +2349,7 @@
         <v>28867.78</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" s="2">
         <v>43590</v>
       </c>
@@ -2360,7 +2360,7 @@
         <v>28869.18</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" s="2">
         <v>43591</v>
       </c>
@@ -2371,7 +2371,7 @@
         <v>28870.58</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" s="2">
         <v>43592</v>
       </c>
@@ -2382,7 +2382,7 @@
         <v>28871.98</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" s="2">
         <v>43593</v>
       </c>
@@ -2393,7 +2393,7 @@
         <v>28873.38</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" s="2">
         <v>43594</v>
       </c>
@@ -2404,7 +2404,7 @@
         <v>28874.78</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" s="2">
         <v>43595</v>
       </c>
@@ -2415,7 +2415,7 @@
         <v>28876.04</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" s="2">
         <v>43596</v>
       </c>
@@ -2426,7 +2426,7 @@
         <v>28877.3</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" s="2">
         <v>43597</v>
       </c>
@@ -2437,7 +2437,7 @@
         <v>28878.57</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" s="2">
         <v>43598</v>
       </c>
@@ -2448,7 +2448,7 @@
         <v>28879.83</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" s="2">
         <v>43599</v>
       </c>
@@ -2459,7 +2459,7 @@
         <v>28881.09</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" s="2">
         <v>43600</v>
       </c>
@@ -2470,7 +2470,7 @@
         <v>28882.35</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" s="2">
         <v>43601</v>
       </c>
@@ -2481,7 +2481,7 @@
         <v>28883.61</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" s="2">
         <v>43602</v>
       </c>
@@ -2492,7 +2492,7 @@
         <v>28884.880000000001</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" s="2">
         <v>43603</v>
       </c>
@@ -2503,7 +2503,7 @@
         <v>28886.14</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" s="2">
         <v>43604</v>
       </c>
@@ -2514,7 +2514,7 @@
         <v>28887.4</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" s="2">
         <v>43605</v>
       </c>
@@ -2525,7 +2525,7 @@
         <v>28888.66</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" s="2">
         <v>43606</v>
       </c>
@@ -2536,7 +2536,7 @@
         <v>28889.93</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" s="2">
         <v>43607</v>
       </c>
@@ -2547,7 +2547,7 @@
         <v>28891.19</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" s="2">
         <v>43608</v>
       </c>
@@ -2558,7 +2558,7 @@
         <v>28892.45</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" s="2">
         <v>43609</v>
       </c>
@@ -2569,7 +2569,7 @@
         <v>28893.71</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" s="2">
         <v>43610</v>
       </c>
@@ -2580,7 +2580,7 @@
         <v>28894.98</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" s="2">
         <v>43611</v>
       </c>
@@ -2591,7 +2591,7 @@
         <v>28896.240000000002</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" s="2">
         <v>43612</v>
       </c>
@@ -2602,7 +2602,7 @@
         <v>28897.5</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" s="2">
         <v>43613</v>
       </c>
@@ -2613,7 +2613,7 @@
         <v>28898.77</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" s="2">
         <v>43614</v>
       </c>
@@ -2624,7 +2624,7 @@
         <v>28900.03</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" s="2">
         <v>43615</v>
       </c>
@@ -2635,7 +2635,7 @@
         <v>28901.29</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" s="2">
         <v>43616</v>
       </c>
@@ -2646,7 +2646,7 @@
         <v>28902.55</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" s="2">
         <v>43617</v>
       </c>
@@ -2657,7 +2657,7 @@
         <v>28903.82</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" s="2">
         <v>43618</v>
       </c>
@@ -2668,7 +2668,7 @@
         <v>28905.08</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" s="2">
         <v>43619</v>
       </c>
@@ -2679,7 +2679,7 @@
         <v>28906.34</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" s="2">
         <v>43620</v>
       </c>
@@ -2690,7 +2690,7 @@
         <v>28907.61</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" s="2">
         <v>43621</v>
       </c>
@@ -2701,7 +2701,7 @@
         <v>28908.87</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" s="2">
         <v>43622</v>
       </c>
@@ -2712,7 +2712,7 @@
         <v>28910.13</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" s="2">
         <v>43623</v>
       </c>
@@ -2723,7 +2723,7 @@
         <v>28911.4</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" s="2">
         <v>43624</v>
       </c>
@@ -2734,7 +2734,7 @@
         <v>28912.66</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" s="2">
         <v>43625</v>
       </c>
@@ -2745,7 +2745,7 @@
         <v>28913.919999999998</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" s="2">
         <v>43626</v>
       </c>
@@ -2756,7 +2756,7 @@
         <v>28916.13</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" s="2">
         <v>43627</v>
       </c>
@@ -2767,7 +2767,7 @@
         <v>28918.34</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" s="2">
         <v>43628</v>
       </c>
@@ -2778,7 +2778,7 @@
         <v>28920.55</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" s="2">
         <v>43629</v>
       </c>
@@ -2789,7 +2789,7 @@
         <v>28922.75</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" s="2">
         <v>43630</v>
       </c>
@@ -2800,7 +2800,7 @@
         <v>28924.959999999999</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" s="2">
         <v>43631</v>
       </c>
@@ -2811,7 +2811,7 @@
         <v>28927.17</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" s="2">
         <v>43632</v>
       </c>
@@ -2822,7 +2822,7 @@
         <v>28929.38</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" s="2">
         <v>43633</v>
       </c>
@@ -2833,7 +2833,7 @@
         <v>28931.59</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" s="2">
         <v>43634</v>
       </c>
@@ -2844,7 +2844,7 @@
         <v>28933.8</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" s="2">
         <v>43635</v>
       </c>
@@ -2855,7 +2855,7 @@
         <v>28936.01</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" s="2">
         <v>43636</v>
       </c>
@@ -2866,7 +2866,7 @@
         <v>28938.22</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" s="2">
         <v>43637</v>
       </c>
@@ -2877,7 +2877,7 @@
         <v>28940.43</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" s="2">
         <v>43638</v>
       </c>
@@ -2888,7 +2888,7 @@
         <v>28942.639999999999</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" s="2">
         <v>43639</v>
       </c>
@@ -2899,7 +2899,7 @@
         <v>28944.85</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" s="2">
         <v>43640</v>
       </c>
@@ -2910,7 +2910,7 @@
         <v>28947.06</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" s="2">
         <v>43641</v>
       </c>
@@ -2921,7 +2921,7 @@
         <v>28949.27</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" s="2">
         <v>43642</v>
       </c>
@@ -2932,7 +2932,7 @@
         <v>28951.48</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" s="2">
         <v>43643</v>
       </c>
@@ -2943,7 +2943,7 @@
         <v>28953.69</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" s="2">
         <v>43644</v>
       </c>
@@ -2954,7 +2954,7 @@
         <v>28955.91</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" s="2">
         <v>43645</v>
       </c>
@@ -2965,7 +2965,7 @@
         <v>28958.12</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" s="2">
         <v>43646</v>
       </c>
@@ -2976,7 +2976,7 @@
         <v>28960.33</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" s="2">
         <v>43647</v>
       </c>
@@ -2987,7 +2987,7 @@
         <v>28962.54</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" s="2">
         <v>43648</v>
       </c>
@@ -2998,7 +2998,7 @@
         <v>28964.75</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" s="2">
         <v>43649</v>
       </c>
@@ -3009,7 +3009,7 @@
         <v>28966.959999999999</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" s="2">
         <v>43650</v>
       </c>
@@ -3020,7 +3020,7 @@
         <v>28969.18</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" s="2">
         <v>43651</v>
       </c>
@@ -3031,7 +3031,7 @@
         <v>28971.39</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" s="2">
         <v>43652</v>
       </c>
@@ -3042,7 +3042,7 @@
         <v>28973.599999999999</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" s="2">
         <v>43653</v>
       </c>
@@ -3053,7 +3053,7 @@
         <v>28975.81</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" s="2">
         <v>43654</v>
       </c>
@@ -3064,7 +3064,7 @@
         <v>28978.03</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" s="2">
         <v>43655</v>
       </c>
@@ -3075,7 +3075,7 @@
         <v>28980.240000000002</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" s="2">
         <v>43656</v>
       </c>
@@ -3086,7 +3086,7 @@
         <v>28982.7</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" s="2">
         <v>43657</v>
       </c>
@@ -3097,7 +3097,7 @@
         <v>28985.17</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" s="2">
         <v>43658</v>
       </c>
@@ -3108,7 +3108,7 @@
         <v>28987.63</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" s="2">
         <v>43659</v>
       </c>
@@ -3119,7 +3119,7 @@
         <v>28990.09</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" s="2">
         <v>43660</v>
       </c>
@@ -3130,7 +3130,7 @@
         <v>28992.560000000001</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" s="2">
         <v>43661</v>
       </c>
@@ -3141,7 +3141,7 @@
         <v>28995.02</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" s="2">
         <v>43662</v>
       </c>
@@ -3152,7 +3152,7 @@
         <v>28997.48</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" s="2">
         <v>43663</v>
       </c>
@@ -3163,7 +3163,7 @@
         <v>28999.95</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" s="2">
         <v>43664</v>
       </c>
@@ -3174,7 +3174,7 @@
         <v>29002.41</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" s="2">
         <v>43665</v>
       </c>
@@ -3185,7 +3185,7 @@
         <v>29004.880000000001</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" s="2">
         <v>43666</v>
       </c>
@@ -3196,7 +3196,7 @@
         <v>29007.34</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205" s="2">
         <v>43667</v>
       </c>
@@ -3207,7 +3207,7 @@
         <v>29009.81</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206" s="2">
         <v>43668</v>
       </c>
@@ -3218,7 +3218,7 @@
         <v>29012.27</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207" s="2">
         <v>43669</v>
       </c>
@@ -3229,7 +3229,7 @@
         <v>29014.74</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208" s="2">
         <v>43670</v>
       </c>
@@ -3240,7 +3240,7 @@
         <v>29017.21</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209" s="2">
         <v>43671</v>
       </c>
@@ -3251,7 +3251,7 @@
         <v>29019.67</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210" s="2">
         <v>43672</v>
       </c>
@@ -3262,7 +3262,7 @@
         <v>29022.14</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211" s="2">
         <v>43673</v>
       </c>
@@ -3273,7 +3273,7 @@
         <v>29024.6</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212" s="2">
         <v>43674</v>
       </c>
@@ -3284,7 +3284,7 @@
         <v>29027.07</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213" s="2">
         <v>43675</v>
       </c>
@@ -3295,7 +3295,7 @@
         <v>29029.54</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214" s="2">
         <v>43676</v>
       </c>
@@ -3306,7 +3306,7 @@
         <v>29032.01</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215" s="2">
         <v>43677</v>
       </c>
@@ -3317,7 +3317,7 @@
         <v>29034.47</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216" s="2">
         <v>43678</v>
       </c>
@@ -3328,7 +3328,7 @@
         <v>29036.94</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217" s="2">
         <v>43679</v>
       </c>
@@ -3339,7 +3339,7 @@
         <v>29039.41</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218" s="2">
         <v>43680</v>
       </c>
@@ -3350,7 +3350,7 @@
         <v>29041.88</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219" s="2">
         <v>43681</v>
       </c>
@@ -3361,7 +3361,7 @@
         <v>29044.34</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220" s="2">
         <v>43682</v>
       </c>
@@ -3372,7 +3372,7 @@
         <v>29046.81</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221" s="2">
         <v>43683</v>
       </c>
@@ -3383,7 +3383,7 @@
         <v>29049.279999999999</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222" s="2">
         <v>43684</v>
       </c>
@@ -3394,7 +3394,7 @@
         <v>29051.75</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223" s="2">
         <v>43685</v>
       </c>
@@ -3405,7 +3405,7 @@
         <v>29054.22</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224" s="2">
         <v>43686</v>
       </c>
@@ -3416,7 +3416,7 @@
         <v>29056.69</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225" s="2">
         <v>43687</v>
       </c>
@@ -3427,7 +3427,7 @@
         <v>29059.34</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226" s="2">
         <v>43688</v>
       </c>
@@ -3438,7 +3438,7 @@
         <v>29062</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227" s="2">
         <v>43689</v>
       </c>
@@ -3449,7 +3449,7 @@
         <v>29064.66</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228" s="2">
         <v>43690</v>
       </c>
@@ -3460,7 +3460,7 @@
         <v>29067.31</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229" s="2">
         <v>43691</v>
       </c>
@@ -3471,7 +3471,7 @@
         <v>29069.97</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230" s="2">
         <v>43692</v>
       </c>
@@ -3482,7 +3482,7 @@
         <v>29072.62</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231" s="2">
         <v>43693</v>
       </c>
@@ -3493,7 +3493,7 @@
         <v>29075.279999999999</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232" s="2">
         <v>43694</v>
       </c>
@@ -3504,7 +3504,7 @@
         <v>29077.94</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233" s="2">
         <v>43695</v>
       </c>
@@ -3515,7 +3515,7 @@
         <v>29080.59</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234" s="2">
         <v>43696</v>
       </c>
@@ -3526,7 +3526,7 @@
         <v>29083.25</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A235" s="2">
         <v>43697</v>
       </c>
@@ -3537,7 +3537,7 @@
         <v>29085.91</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A236" s="2">
         <v>43698</v>
       </c>
@@ -3548,7 +3548,7 @@
         <v>29088.57</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A237" s="2">
         <v>43699</v>
       </c>
@@ -3559,7 +3559,7 @@
         <v>29091.22</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A238" s="2">
         <v>43700</v>
       </c>
@@ -3570,7 +3570,7 @@
         <v>29093.88</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A239" s="2">
         <v>43701</v>
       </c>
@@ -3581,7 +3581,7 @@
         <v>29096.54</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240" s="2">
         <v>43702</v>
       </c>
@@ -3592,7 +3592,7 @@
         <v>29099.200000000001</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241" s="2">
         <v>43703</v>
       </c>
@@ -3603,7 +3603,7 @@
         <v>29101.86</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242" s="2">
         <v>43704</v>
       </c>
@@ -3614,7 +3614,7 @@
         <v>29104.52</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243" s="2">
         <v>43705</v>
       </c>
@@ -3625,7 +3625,7 @@
         <v>29107.18</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244" s="2">
         <v>43706</v>
       </c>
@@ -3636,7 +3636,7 @@
         <v>29109.84</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245" s="2">
         <v>43707</v>
       </c>
@@ -3647,7 +3647,7 @@
         <v>29112.49</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246" s="2">
         <v>43708</v>
       </c>
@@ -3658,7 +3658,7 @@
         <v>29115.15</v>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A247" s="2">
         <v>43709</v>
       </c>
@@ -3669,7 +3669,7 @@
         <v>29117.82</v>
       </c>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A248" s="2">
         <v>43710</v>
       </c>
@@ -3680,7 +3680,7 @@
         <v>29120.48</v>
       </c>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A249" s="2">
         <v>43711</v>
       </c>
@@ -3691,7 +3691,7 @@
         <v>29123.14</v>
       </c>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A250" s="2">
         <v>43712</v>
       </c>
@@ -3702,7 +3702,7 @@
         <v>29125.8</v>
       </c>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A251" s="2">
         <v>43713</v>
       </c>
@@ -3713,7 +3713,7 @@
         <v>29128.46</v>
       </c>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A252" s="2">
         <v>43714</v>
       </c>
@@ -3724,7 +3724,7 @@
         <v>29131.119999999999</v>
       </c>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A253" s="2">
         <v>43715</v>
       </c>
@@ -3735,7 +3735,7 @@
         <v>29133.78</v>
       </c>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A254" s="2">
         <v>43716</v>
       </c>
@@ -3746,7 +3746,7 @@
         <v>29136.44</v>
       </c>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A255" s="2">
         <v>43717</v>
       </c>
@@ -3757,7 +3757,7 @@
         <v>29139.11</v>
       </c>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A256" s="2">
         <v>43718</v>
       </c>
@@ -3768,7 +3768,7 @@
         <v>29141.96</v>
       </c>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A257" s="2">
         <v>43719</v>
       </c>
@@ -3779,7 +3779,7 @@
         <v>29144.81</v>
       </c>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A258" s="2">
         <v>43720</v>
       </c>
@@ -3790,7 +3790,7 @@
         <v>29147.66</v>
       </c>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A259" s="2">
         <v>43721</v>
       </c>
@@ -3801,7 +3801,7 @@
         <v>29150.51</v>
       </c>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A260" s="2">
         <v>43722</v>
       </c>
@@ -3812,7 +3812,7 @@
         <v>29153.360000000001</v>
       </c>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A261" s="2">
         <v>43723</v>
       </c>
@@ -3823,7 +3823,7 @@
         <v>29156.21</v>
       </c>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A262" s="2">
         <v>43724</v>
       </c>
@@ -3834,7 +3834,7 @@
         <v>29159.06</v>
       </c>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A263" s="2">
         <v>43725</v>
       </c>
@@ -3845,7 +3845,7 @@
         <v>29161.919999999998</v>
       </c>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A264" s="2">
         <v>43726</v>
       </c>
@@ -3856,7 +3856,7 @@
         <v>29164.77</v>
       </c>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A265" s="2">
         <v>43727</v>
       </c>
@@ -3867,7 +3867,7 @@
         <v>29167.62</v>
       </c>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A266" s="2">
         <v>43728</v>
       </c>
@@ -3878,7 +3878,7 @@
         <v>29170.47</v>
       </c>
     </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A267" s="2">
         <v>43729</v>
       </c>
@@ -3889,7 +3889,7 @@
         <v>29173.32</v>
       </c>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A268" s="2">
         <v>43730</v>
       </c>
@@ -3900,7 +3900,7 @@
         <v>29176.18</v>
       </c>
     </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A269" s="2">
         <v>43731</v>
       </c>
@@ -3911,7 +3911,7 @@
         <v>29179.03</v>
       </c>
     </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A270" s="2">
         <v>43732</v>
       </c>
@@ -3922,7 +3922,7 @@
         <v>29181.88</v>
       </c>
     </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A271" s="2">
         <v>43733</v>
       </c>
@@ -3933,7 +3933,7 @@
         <v>29184.74</v>
       </c>
     </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A272" s="2">
         <v>43734</v>
       </c>
@@ -3944,7 +3944,7 @@
         <v>29187.59</v>
       </c>
     </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A273" s="2">
         <v>43735</v>
       </c>
@@ -3955,7 +3955,7 @@
         <v>29190.45</v>
       </c>
     </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A274" s="2">
         <v>43736</v>
       </c>
@@ -3966,7 +3966,7 @@
         <v>29193.3</v>
       </c>
     </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A275" s="2">
         <v>43737</v>
       </c>
@@ -3977,7 +3977,7 @@
         <v>29196.16</v>
       </c>
     </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A276" s="2">
         <v>43738</v>
       </c>
@@ -3988,7 +3988,7 @@
         <v>29199.01</v>
       </c>
     </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A277" s="2">
         <v>43739</v>
       </c>
@@ -3999,7 +3999,7 @@
         <v>29201.87</v>
       </c>
     </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A278" s="2">
         <v>43740</v>
       </c>
@@ -4010,7 +4010,7 @@
         <v>29204.720000000001</v>
       </c>
     </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A279" s="2">
         <v>43741</v>
       </c>
@@ -4021,7 +4021,7 @@
         <v>29207.58</v>
       </c>
     </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A280" s="2">
         <v>43742</v>
       </c>
@@ -4032,7 +4032,7 @@
         <v>29210.44</v>
       </c>
     </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A281" s="2">
         <v>43743</v>
       </c>
@@ -4043,7 +4043,7 @@
         <v>29213.29</v>
       </c>
     </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A282" s="2">
         <v>43744</v>
       </c>
@@ -4054,7 +4054,7 @@
         <v>29216.15</v>
       </c>
     </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A283" s="2">
         <v>43745</v>
       </c>
@@ -4065,7 +4065,7 @@
         <v>29219.01</v>
       </c>
     </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A284" s="2">
         <v>43746</v>
       </c>
@@ -4076,7 +4076,7 @@
         <v>29221.86</v>
       </c>
     </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A285" s="2">
         <v>43747</v>
       </c>
@@ -4087,7 +4087,7 @@
         <v>29224.720000000001</v>
       </c>
     </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A286" s="2">
         <v>43748</v>
       </c>
@@ -4098,7 +4098,7 @@
         <v>29226.85</v>
       </c>
     </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A287" s="2">
         <v>43749</v>
       </c>
@@ -4109,7 +4109,7 @@
         <v>29228.98</v>
       </c>
     </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A288" s="2">
         <v>43750</v>
       </c>
@@ -4120,7 +4120,7 @@
         <v>29231.11</v>
       </c>
     </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A289" s="2">
         <v>43751</v>
       </c>
@@ -4131,7 +4131,7 @@
         <v>29233.24</v>
       </c>
     </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A290" s="2">
         <v>43752</v>
       </c>
@@ -4142,7 +4142,7 @@
         <v>29235.37</v>
       </c>
     </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A291" s="2">
         <v>43753</v>
       </c>
@@ -4153,7 +4153,7 @@
         <v>29237.51</v>
       </c>
     </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A292" s="2">
         <v>43754</v>
       </c>
@@ -4164,7 +4164,7 @@
         <v>29239.64</v>
       </c>
     </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A293" s="2">
         <v>43755</v>
       </c>
@@ -4175,7 +4175,7 @@
         <v>29241.77</v>
       </c>
     </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A294" s="2">
         <v>43756</v>
       </c>
@@ -4186,7 +4186,7 @@
         <v>29243.9</v>
       </c>
     </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A295" s="2">
         <v>43757</v>
       </c>
@@ -4197,7 +4197,7 @@
         <v>29246.03</v>
       </c>
     </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A296" s="2">
         <v>43758</v>
       </c>
@@ -4208,7 +4208,7 @@
         <v>29248.16</v>
       </c>
     </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A297" s="2">
         <v>43759</v>
       </c>
@@ -4219,7 +4219,7 @@
         <v>29250.3</v>
       </c>
     </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A298" s="2">
         <v>43760</v>
       </c>
@@ -4230,7 +4230,7 @@
         <v>29252.43</v>
       </c>
     </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A299" s="2">
         <v>43761</v>
       </c>
@@ -4241,7 +4241,7 @@
         <v>29254.560000000001</v>
       </c>
     </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A300" s="2">
         <v>43762</v>
       </c>
@@ -4252,7 +4252,7 @@
         <v>29256.69</v>
       </c>
     </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A301" s="2">
         <v>43763</v>
       </c>
@@ -4263,7 +4263,7 @@
         <v>29258.83</v>
       </c>
     </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A302" s="2">
         <v>43764</v>
       </c>
@@ -4274,7 +4274,7 @@
         <v>29260.959999999999</v>
       </c>
     </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A303" s="2">
         <v>43765</v>
       </c>
@@ -4285,7 +4285,7 @@
         <v>29263.09</v>
       </c>
     </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A304" s="2">
         <v>43766</v>
       </c>
@@ -4296,7 +4296,7 @@
         <v>29265.23</v>
       </c>
     </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A305" s="2">
         <v>43767</v>
       </c>
@@ -4307,7 +4307,7 @@
         <v>29267.360000000001</v>
       </c>
     </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A306" s="2">
         <v>43768</v>
       </c>
@@ -4318,7 +4318,7 @@
         <v>29269.49</v>
       </c>
     </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A307" s="2">
         <v>43769</v>
       </c>
@@ -4329,7 +4329,7 @@
         <v>29271.63</v>
       </c>
     </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A308" s="2">
         <v>43770</v>
       </c>
@@ -4340,7 +4340,7 @@
         <v>29273.759999999998</v>
       </c>
     </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A309" s="2">
         <v>43771</v>
       </c>
@@ -4351,7 +4351,7 @@
         <v>29275.89</v>
       </c>
     </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A310" s="2">
         <v>43772</v>
       </c>
@@ -4362,7 +4362,7 @@
         <v>29278.03</v>
       </c>
     </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A311" s="2">
         <v>43773</v>
       </c>
@@ -4373,7 +4373,7 @@
         <v>29280.16</v>
       </c>
     </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A312" s="2">
         <v>43774</v>
       </c>
@@ -4384,7 +4384,7 @@
         <v>29282.3</v>
       </c>
     </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A313" s="2">
         <v>43775</v>
       </c>
@@ -4395,7 +4395,7 @@
         <v>29284.43</v>
       </c>
     </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A314" s="2">
         <v>43776</v>
       </c>
@@ -4406,7 +4406,7 @@
         <v>29286.57</v>
       </c>
     </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A315" s="2">
         <v>43777</v>
       </c>
@@ -4417,7 +4417,7 @@
         <v>29288.7</v>
       </c>
     </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A316" s="2">
         <v>43778</v>
       </c>
@@ -4428,7 +4428,7 @@
         <v>29290.84</v>
       </c>
     </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A317" s="2">
         <v>43779</v>
       </c>
@@ -4439,7 +4439,7 @@
         <v>29293.84</v>
       </c>
     </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A318" s="2">
         <v>43780</v>
       </c>
@@ -4450,7 +4450,7 @@
         <v>29296.84</v>
       </c>
     </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A319" s="2">
         <v>43781</v>
       </c>
@@ -4461,7 +4461,7 @@
         <v>29299.83</v>
       </c>
     </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A320" s="2">
         <v>43782</v>
       </c>
@@ -4472,7 +4472,7 @@
         <v>29302.83</v>
       </c>
     </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A321" s="2">
         <v>43783</v>
       </c>
@@ -4483,7 +4483,7 @@
         <v>29305.83</v>
       </c>
     </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A322" s="2">
         <v>43784</v>
       </c>
@@ -4494,7 +4494,7 @@
         <v>29308.83</v>
       </c>
     </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A323" s="2">
         <v>43785</v>
       </c>
@@ -4505,7 +4505,7 @@
         <v>29311.83</v>
       </c>
     </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A324" s="2">
         <v>43786</v>
       </c>
@@ -4516,7 +4516,7 @@
         <v>29314.83</v>
       </c>
     </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A325" s="2">
         <v>43787</v>
       </c>
@@ -4527,7 +4527,7 @@
         <v>29317.83</v>
       </c>
     </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A326" s="2">
         <v>43788</v>
       </c>
@@ -4538,7 +4538,7 @@
         <v>29320.83</v>
       </c>
     </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A327" s="2">
         <v>43789</v>
       </c>
@@ -4549,7 +4549,7 @@
         <v>29323.83</v>
       </c>
     </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A328" s="2">
         <v>43790</v>
       </c>
@@ -4560,7 +4560,7 @@
         <v>29326.83</v>
       </c>
     </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A329" s="2">
         <v>43791</v>
       </c>
@@ -4571,7 +4571,7 @@
         <v>29329.83</v>
       </c>
     </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A330" s="2">
         <v>43792</v>
       </c>
@@ -4582,7 +4582,7 @@
         <v>29332.83</v>
       </c>
     </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A331" s="2">
         <v>43793</v>
       </c>
@@ -4593,7 +4593,7 @@
         <v>29335.83</v>
       </c>
     </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A332" s="2">
         <v>43794</v>
       </c>
@@ -4604,7 +4604,7 @@
         <v>29338.84</v>
       </c>
     </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A333" s="2">
         <v>43795</v>
       </c>
@@ -4615,7 +4615,7 @@
         <v>29341.84</v>
       </c>
     </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A334" s="2">
         <v>43796</v>
       </c>
@@ -4626,7 +4626,7 @@
         <v>29344.84</v>
       </c>
     </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A335" s="2">
         <v>43797</v>
       </c>
@@ -4637,7 +4637,7 @@
         <v>29347.85</v>
       </c>
     </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A336" s="2">
         <v>43798</v>
       </c>
@@ -4648,7 +4648,7 @@
         <v>29350.85</v>
       </c>
     </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A337" s="2">
         <v>43799</v>
       </c>
@@ -4659,7 +4659,7 @@
         <v>29353.85</v>
       </c>
     </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A338" s="2">
         <v>43800</v>
       </c>
@@ -4670,7 +4670,7 @@
         <v>29356.86</v>
       </c>
     </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A339" s="2">
         <v>43801</v>
       </c>
@@ -4681,7 +4681,7 @@
         <v>29359.86</v>
       </c>
     </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A340" s="2">
         <v>43802</v>
       </c>
@@ -4692,7 +4692,7 @@
         <v>29362.87</v>
       </c>
     </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A341" s="2">
         <v>43803</v>
       </c>
@@ -4703,7 +4703,7 @@
         <v>29365.87</v>
       </c>
     </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A342" s="2">
         <v>43804</v>
       </c>
@@ -4714,7 +4714,7 @@
         <v>29368.880000000001</v>
       </c>
     </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A343" s="2">
         <v>43805</v>
       </c>
@@ -4725,7 +4725,7 @@
         <v>29371.88</v>
       </c>
     </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A344" s="2">
         <v>43806</v>
       </c>
@@ -4736,7 +4736,7 @@
         <v>29374.89</v>
       </c>
     </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A345" s="2">
         <v>43807</v>
       </c>
@@ -4747,7 +4747,7 @@
         <v>29377.89</v>
       </c>
     </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A346" s="2">
         <v>43808</v>
       </c>
@@ -4758,7 +4758,7 @@
         <v>29380.9</v>
       </c>
     </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A347" s="2">
         <v>43809</v>
       </c>
@@ -4769,7 +4769,7 @@
         <v>29383.09</v>
       </c>
     </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A348" s="2">
         <v>43810</v>
       </c>
@@ -4780,7 +4780,7 @@
         <v>29385.27</v>
       </c>
     </row>
-    <row r="349" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A349" s="2">
         <v>43811</v>
       </c>
@@ -4791,7 +4791,7 @@
         <v>29387.46</v>
       </c>
     </row>
-    <row r="350" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A350" s="2">
         <v>43812</v>
       </c>
@@ -4802,7 +4802,7 @@
         <v>29389.64</v>
       </c>
     </row>
-    <row r="351" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A351" s="2">
         <v>43813</v>
       </c>
@@ -4813,7 +4813,7 @@
         <v>29391.83</v>
       </c>
     </row>
-    <row r="352" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A352" s="2">
         <v>43814</v>
       </c>
@@ -4824,7 +4824,7 @@
         <v>29394.02</v>
       </c>
     </row>
-    <row r="353" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A353" s="2">
         <v>43815</v>
       </c>
@@ -4835,7 +4835,7 @@
         <v>29396.2</v>
       </c>
     </row>
-    <row r="354" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A354" s="2">
         <v>43816</v>
       </c>
@@ -4846,7 +4846,7 @@
         <v>29398.39</v>
       </c>
     </row>
-    <row r="355" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A355" s="2">
         <v>43817</v>
       </c>
@@ -4857,7 +4857,7 @@
         <v>29400.58</v>
       </c>
     </row>
-    <row r="356" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A356" s="2">
         <v>43818</v>
       </c>
@@ -4868,7 +4868,7 @@
         <v>29402.76</v>
       </c>
     </row>
-    <row r="357" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A357" s="2">
         <v>43819</v>
       </c>
@@ -4879,7 +4879,7 @@
         <v>29404.95</v>
       </c>
     </row>
-    <row r="358" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A358" s="2">
         <v>43820</v>
       </c>
@@ -4890,7 +4890,7 @@
         <v>29407.14</v>
       </c>
     </row>
-    <row r="359" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A359" s="2">
         <v>43821</v>
       </c>
@@ -4901,7 +4901,7 @@
         <v>29409.32</v>
       </c>
     </row>
-    <row r="360" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A360" s="2">
         <v>43822</v>
       </c>
@@ -4912,7 +4912,7 @@
         <v>29411.51</v>
       </c>
     </row>
-    <row r="361" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A361" s="2">
         <v>43823</v>
       </c>
@@ -4923,7 +4923,7 @@
         <v>29413.7</v>
       </c>
     </row>
-    <row r="362" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A362" s="2">
         <v>43824</v>
       </c>
@@ -4934,7 +4934,7 @@
         <v>29415.89</v>
       </c>
     </row>
-    <row r="363" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A363" s="2">
         <v>43825</v>
       </c>
@@ -4945,7 +4945,7 @@
         <v>29418.080000000002</v>
       </c>
     </row>
-    <row r="364" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A364" s="2">
         <v>43826</v>
       </c>
@@ -4956,7 +4956,7 @@
         <v>29420.26</v>
       </c>
     </row>
-    <row r="365" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A365" s="2">
         <v>43827</v>
       </c>
@@ -4967,7 +4967,7 @@
         <v>29422.45</v>
       </c>
     </row>
-    <row r="366" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A366" s="2">
         <v>43828</v>
       </c>
@@ -4978,7 +4978,7 @@
         <v>29424.639999999999</v>
       </c>
     </row>
-    <row r="367" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A367" s="2">
         <v>43829</v>
       </c>
@@ -4989,7 +4989,7 @@
         <v>29426.83</v>
       </c>
     </row>
-    <row r="368" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A368" s="2">
         <v>43830</v>
       </c>
@@ -5000,7 +5000,7 @@
         <v>29429.02</v>
       </c>
     </row>
-    <row r="369" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A369" s="2">
         <v>43831</v>
       </c>
@@ -5011,7 +5011,7 @@
         <v>29431.21</v>
       </c>
     </row>
-    <row r="370" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A370" s="2">
         <v>43832</v>
       </c>
@@ -5022,7 +5022,7 @@
         <v>29433.4</v>
       </c>
     </row>
-    <row r="371" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A371" s="2">
         <v>43833</v>
       </c>
@@ -5033,7 +5033,7 @@
         <v>29435.59</v>
       </c>
     </row>
-    <row r="372" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A372" s="2">
         <v>43834</v>
       </c>
@@ -5044,7 +5044,7 @@
         <v>29437.78</v>
       </c>
     </row>
-    <row r="373" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A373" s="2">
         <v>43835</v>
       </c>
@@ -5055,7 +5055,7 @@
         <v>29439.97</v>
       </c>
     </row>
-    <row r="374" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A374" s="2">
         <v>43836</v>
       </c>
@@ -5066,7 +5066,7 @@
         <v>29442.16</v>
       </c>
     </row>
-    <row r="375" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A375" s="2">
         <v>43837</v>
       </c>
@@ -5077,7 +5077,7 @@
         <v>29444.35</v>
       </c>
     </row>
-    <row r="376" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A376" s="2">
         <v>43838</v>
       </c>
@@ -5088,7 +5088,7 @@
         <v>29446.54</v>
       </c>
     </row>
-    <row r="377" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A377" s="2">
         <v>43839</v>
       </c>
@@ -5099,7 +5099,7 @@
         <v>29448.73</v>
       </c>
     </row>
-    <row r="378" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A378" s="2">
         <v>43840</v>
       </c>
@@ -5110,7 +5110,7 @@
         <v>29451</v>
       </c>
     </row>
-    <row r="379" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A379" s="2">
         <v>43841</v>
       </c>
@@ -5121,7 +5121,7 @@
         <v>29453.27</v>
       </c>
     </row>
-    <row r="380" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A380" s="2">
         <v>43842</v>
       </c>
@@ -5132,7 +5132,7 @@
         <v>29455.54</v>
       </c>
     </row>
-    <row r="381" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A381" s="2">
         <v>43843</v>
       </c>
@@ -5143,7 +5143,7 @@
         <v>29457.81</v>
       </c>
     </row>
-    <row r="382" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A382" s="2">
         <v>43844</v>
       </c>
@@ -5154,7 +5154,7 @@
         <v>29460.080000000002</v>
       </c>
     </row>
-    <row r="383" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A383" s="2">
         <v>43845</v>
       </c>
@@ -5165,7 +5165,7 @@
         <v>29462.35</v>
       </c>
     </row>
-    <row r="384" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A384" s="2">
         <v>43846</v>
       </c>
@@ -5176,7 +5176,7 @@
         <v>29464.63</v>
       </c>
     </row>
-    <row r="385" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A385" s="2">
         <v>43847</v>
       </c>
@@ -5187,7 +5187,7 @@
         <v>29466.9</v>
       </c>
     </row>
-    <row r="386" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A386" s="2">
         <v>43848</v>
       </c>
@@ -5198,7 +5198,7 @@
         <v>29469.17</v>
       </c>
     </row>
-    <row r="387" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A387" s="2">
         <v>43849</v>
       </c>
@@ -5209,7 +5209,7 @@
         <v>29471.439999999999</v>
       </c>
     </row>
-    <row r="388" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A388" s="2">
         <v>43850</v>
       </c>
@@ -5220,7 +5220,7 @@
         <v>29473.71</v>
       </c>
     </row>
-    <row r="389" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A389" s="2">
         <v>43851</v>
       </c>
@@ -5231,7 +5231,7 @@
         <v>29475.99</v>
       </c>
     </row>
-    <row r="390" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A390" s="2">
         <v>43852</v>
       </c>
@@ -5242,7 +5242,7 @@
         <v>29478.26</v>
       </c>
     </row>
-    <row r="391" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A391" s="2">
         <v>43853</v>
       </c>
@@ -5253,7 +5253,7 @@
         <v>29480.53</v>
       </c>
     </row>
-    <row r="392" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A392" s="2">
         <v>43854</v>
       </c>
@@ -5264,7 +5264,7 @@
         <v>29482.799999999999</v>
       </c>
     </row>
-    <row r="393" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A393" s="2">
         <v>43855</v>
       </c>
@@ -5275,7 +5275,7 @@
         <v>29485.08</v>
       </c>
     </row>
-    <row r="394" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A394" s="2">
         <v>43856</v>
       </c>
@@ -5286,7 +5286,7 @@
         <v>29487.35</v>
       </c>
     </row>
-    <row r="395" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A395" s="2">
         <v>43857</v>
       </c>
@@ -5297,7 +5297,7 @@
         <v>29489.62</v>
       </c>
     </row>
-    <row r="396" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A396" s="2">
         <v>43858</v>
       </c>
@@ -5308,7 +5308,7 @@
         <v>29491.9</v>
       </c>
     </row>
-    <row r="397" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A397" s="2">
         <v>43859</v>
       </c>
@@ -5319,7 +5319,7 @@
         <v>29494.17</v>
       </c>
     </row>
-    <row r="398" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A398" s="2">
         <v>43860</v>
       </c>
@@ -5330,7 +5330,7 @@
         <v>29496.44</v>
       </c>
     </row>
-    <row r="399" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A399" s="2">
         <v>43861</v>
       </c>
@@ -5341,7 +5341,7 @@
         <v>29498.720000000001</v>
       </c>
     </row>
-    <row r="400" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A400" s="2">
         <v>43862</v>
       </c>
@@ -5352,7 +5352,7 @@
         <v>29500.99</v>
       </c>
     </row>
-    <row r="401" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A401" s="2">
         <v>43863</v>
       </c>
@@ -5363,7 +5363,7 @@
         <v>29503.27</v>
       </c>
     </row>
-    <row r="402" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A402" s="2">
         <v>43864</v>
       </c>
@@ -5374,7 +5374,7 @@
         <v>29505.54</v>
       </c>
     </row>
-    <row r="403" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A403" s="2">
         <v>43865</v>
       </c>
@@ -5385,7 +5385,7 @@
         <v>29507.81</v>
       </c>
     </row>
-    <row r="404" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A404" s="2">
         <v>43866</v>
       </c>
@@ -5396,7 +5396,7 @@
         <v>29510.09</v>
       </c>
     </row>
-    <row r="405" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A405" s="2">
         <v>43867</v>
       </c>
@@ -5407,7 +5407,7 @@
         <v>29512.36</v>
       </c>
     </row>
-    <row r="406" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A406" s="2">
         <v>43868</v>
       </c>
@@ -5418,7 +5418,7 @@
         <v>29514.639999999999</v>
       </c>
     </row>
-    <row r="407" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A407" s="2">
         <v>43869</v>
       </c>
@@ -5429,7 +5429,7 @@
         <v>29516.92</v>
       </c>
     </row>
-    <row r="408" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A408" s="2">
         <v>43870</v>
       </c>
@@ -5440,7 +5440,7 @@
         <v>29519.19</v>
       </c>
     </row>
-    <row r="409" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A409" s="2">
         <v>43871</v>
       </c>
@@ -5451,7 +5451,7 @@
         <v>29522.12</v>
       </c>
     </row>
-    <row r="410" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A410" s="2">
         <v>43872</v>
       </c>
@@ -5462,7 +5462,7 @@
         <v>29525.06</v>
       </c>
     </row>
-    <row r="411" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A411" s="2">
         <v>43873</v>
       </c>
@@ -5473,7 +5473,7 @@
         <v>29527.99</v>
       </c>
     </row>
-    <row r="412" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A412" s="2">
         <v>43874</v>
       </c>
@@ -5484,7 +5484,7 @@
         <v>29530.93</v>
       </c>
     </row>
-    <row r="413" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A413" s="2">
         <v>43875</v>
       </c>
@@ -5495,7 +5495,7 @@
         <v>29533.86</v>
       </c>
     </row>
-    <row r="414" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A414" s="2">
         <v>43876</v>
       </c>
@@ -5506,7 +5506,7 @@
         <v>29536.79</v>
       </c>
     </row>
-    <row r="415" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A415" s="2">
         <v>43877</v>
       </c>
@@ -5517,7 +5517,7 @@
         <v>29539.73</v>
       </c>
     </row>
-    <row r="416" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A416" s="2">
         <v>43878</v>
       </c>
@@ -5528,7 +5528,7 @@
         <v>29542.67</v>
       </c>
     </row>
-    <row r="417" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A417" s="2">
         <v>43879</v>
       </c>
@@ -5539,7 +5539,7 @@
         <v>29545.599999999999</v>
       </c>
     </row>
-    <row r="418" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A418" s="2">
         <v>43880</v>
       </c>
@@ -5550,7 +5550,7 @@
         <v>29548.54</v>
       </c>
     </row>
-    <row r="419" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A419" s="2">
         <v>43881</v>
       </c>
@@ -5561,7 +5561,7 @@
         <v>29551.47</v>
       </c>
     </row>
-    <row r="420" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A420" s="2">
         <v>43882</v>
       </c>
@@ -5572,7 +5572,7 @@
         <v>29554.41</v>
       </c>
     </row>
-    <row r="421" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A421" s="2">
         <v>43883</v>
       </c>
@@ -5583,7 +5583,7 @@
         <v>29557.35</v>
       </c>
     </row>
-    <row r="422" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A422" s="2">
         <v>43884</v>
       </c>
@@ -5594,7 +5594,7 @@
         <v>29560.28</v>
       </c>
     </row>
-    <row r="423" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A423" s="2">
         <v>43885</v>
       </c>
@@ -5605,7 +5605,7 @@
         <v>29563.22</v>
       </c>
     </row>
-    <row r="424" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A424" s="2">
         <v>43886</v>
       </c>
@@ -5616,7 +5616,7 @@
         <v>29566.16</v>
       </c>
     </row>
-    <row r="425" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A425" s="2">
         <v>43887</v>
       </c>
@@ -5627,7 +5627,7 @@
         <v>29569.1</v>
       </c>
     </row>
-    <row r="426" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A426" s="2">
         <v>43888</v>
       </c>
@@ -5638,7 +5638,7 @@
         <v>29572.04</v>
       </c>
     </row>
-    <row r="427" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A427" s="2">
         <v>43889</v>
       </c>
@@ -5649,7 +5649,7 @@
         <v>29574.97</v>
       </c>
     </row>
-    <row r="428" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A428" s="2">
         <v>43890</v>
       </c>
@@ -5660,7 +5660,7 @@
         <v>29577.91</v>
       </c>
     </row>
-    <row r="429" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A429" s="2">
         <v>43891</v>
       </c>
@@ -5671,7 +5671,7 @@
         <v>29580.85</v>
       </c>
     </row>
-    <row r="430" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A430" s="2">
         <v>43892</v>
       </c>
@@ -5682,7 +5682,7 @@
         <v>29583.79</v>
       </c>
     </row>
-    <row r="431" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A431" s="2">
         <v>43893</v>
       </c>
@@ -5693,7 +5693,7 @@
         <v>29586.73</v>
       </c>
     </row>
-    <row r="432" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A432" s="2">
         <v>43894</v>
       </c>
@@ -5704,7 +5704,7 @@
         <v>29589.67</v>
       </c>
     </row>
-    <row r="433" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A433" s="2">
         <v>43895</v>
       </c>
@@ -5715,7 +5715,7 @@
         <v>29592.61</v>
       </c>
     </row>
-    <row r="434" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A434" s="2">
         <v>43896</v>
       </c>
@@ -5726,7 +5726,7 @@
         <v>29595.55</v>
       </c>
     </row>
-    <row r="435" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A435" s="2">
         <v>43897</v>
       </c>
@@ -5737,7 +5737,7 @@
         <v>29598.49</v>
       </c>
     </row>
-    <row r="436" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A436" s="2">
         <v>43898</v>
       </c>
@@ -5748,7 +5748,7 @@
         <v>29601.43</v>
       </c>
     </row>
-    <row r="437" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A437" s="2">
         <v>43899</v>
       </c>
@@ -5759,7 +5759,7 @@
         <v>29604.38</v>
       </c>
     </row>
-    <row r="438" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A438" s="2">
         <v>43900</v>
       </c>
@@ -5770,7 +5770,7 @@
         <v>29607.66</v>
       </c>
     </row>
-    <row r="439" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A439" s="2">
         <v>43901</v>
       </c>
@@ -5781,7 +5781,7 @@
         <v>29610.94</v>
       </c>
     </row>
-    <row r="440" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A440" s="2">
         <v>43902</v>
       </c>
@@ -5792,7 +5792,7 @@
         <v>29614.22</v>
       </c>
     </row>
-    <row r="441" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A441" s="2">
         <v>43903</v>
       </c>
@@ -5803,7 +5803,7 @@
         <v>29617.5</v>
       </c>
     </row>
-    <row r="442" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A442" s="2">
         <v>43904</v>
       </c>
@@ -5814,7 +5814,7 @@
         <v>29620.78</v>
       </c>
     </row>
-    <row r="443" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A443" s="2">
         <v>43905</v>
       </c>
@@ -5825,7 +5825,7 @@
         <v>29624.06</v>
       </c>
     </row>
-    <row r="444" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A444" s="2">
         <v>43906</v>
       </c>
@@ -5836,7 +5836,7 @@
         <v>29627.35</v>
       </c>
     </row>
-    <row r="445" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A445" s="2">
         <v>43907</v>
       </c>
@@ -5847,7 +5847,7 @@
         <v>29630.63</v>
       </c>
     </row>
-    <row r="446" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A446" s="2">
         <v>43908</v>
       </c>
@@ -5858,7 +5858,7 @@
         <v>29633.91</v>
       </c>
     </row>
-    <row r="447" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A447" s="2">
         <v>43909</v>
       </c>
@@ -5869,7 +5869,7 @@
         <v>29637.19</v>
       </c>
     </row>
-    <row r="448" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A448" s="2">
         <v>43910</v>
       </c>
@@ -5880,7 +5880,7 @@
         <v>29640.48</v>
       </c>
     </row>
-    <row r="449" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A449" s="2">
         <v>43911</v>
       </c>
@@ -5891,7 +5891,7 @@
         <v>29643.759999999998</v>
       </c>
     </row>
-    <row r="450" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A450" s="2">
         <v>43912</v>
       </c>
@@ -5902,7 +5902,7 @@
         <v>29647.040000000001</v>
       </c>
     </row>
-    <row r="451" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A451" s="2">
         <v>43913</v>
       </c>
@@ -5913,7 +5913,7 @@
         <v>29650.33</v>
       </c>
     </row>
-    <row r="452" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A452" s="2">
         <v>43914</v>
       </c>
@@ -5924,7 +5924,7 @@
         <v>29653.61</v>
       </c>
     </row>
-    <row r="453" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A453" s="2">
         <v>43915</v>
       </c>
@@ -5935,7 +5935,7 @@
         <v>29656.9</v>
       </c>
     </row>
-    <row r="454" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A454" s="2">
         <v>43916</v>
       </c>
@@ -5946,7 +5946,7 @@
         <v>29660.18</v>
       </c>
     </row>
-    <row r="455" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A455" s="2">
         <v>43917</v>
       </c>
@@ -5957,7 +5957,7 @@
         <v>29663.47</v>
       </c>
     </row>
-    <row r="456" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A456" s="2">
         <v>43918</v>
       </c>
@@ -5968,7 +5968,7 @@
         <v>29666.76</v>
       </c>
     </row>
-    <row r="457" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A457" s="2">
         <v>43919</v>
       </c>
@@ -5979,7 +5979,7 @@
         <v>29670.04</v>
       </c>
     </row>
-    <row r="458" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A458" s="2">
         <v>43920</v>
       </c>
@@ -5990,7 +5990,7 @@
         <v>29673.33</v>
       </c>
     </row>
-    <row r="459" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A459" s="2">
         <v>43921</v>
       </c>
@@ -6001,7 +6001,7 @@
         <v>29676.62</v>
       </c>
     </row>
-    <row r="460" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A460" s="2">
         <v>43922</v>
       </c>
@@ -6012,7 +6012,7 @@
         <v>29679.91</v>
       </c>
     </row>
-    <row r="461" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A461" s="2">
         <v>43923</v>
       </c>
@@ -6023,7 +6023,7 @@
         <v>29683.19</v>
       </c>
     </row>
-    <row r="462" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A462" s="2">
         <v>43924</v>
       </c>
@@ -6034,7 +6034,7 @@
         <v>29686.48</v>
       </c>
     </row>
-    <row r="463" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A463" s="2">
         <v>43925</v>
       </c>
@@ -6045,7 +6045,7 @@
         <v>29689.77</v>
       </c>
     </row>
-    <row r="464" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A464" s="2">
         <v>43926</v>
       </c>
@@ -6056,7 +6056,7 @@
         <v>29693.06</v>
       </c>
     </row>
-    <row r="465" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A465" s="2">
         <v>43927</v>
       </c>
@@ -6067,7 +6067,7 @@
         <v>29696.35</v>
       </c>
     </row>
-    <row r="466" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A466" s="2">
         <v>43928</v>
       </c>
@@ -6078,7 +6078,7 @@
         <v>29699.64</v>
       </c>
     </row>
-    <row r="467" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A467" s="2">
         <v>43929</v>
       </c>
@@ -6089,7 +6089,7 @@
         <v>29702.93</v>
       </c>
     </row>
-    <row r="468" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A468" s="2">
         <v>43930</v>
       </c>
@@ -6100,7 +6100,7 @@
         <v>29706.22</v>
       </c>
     </row>
-    <row r="469" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A469" s="2">
         <v>43931</v>
       </c>
@@ -6111,7 +6111,7 @@
         <v>29710.02</v>
       </c>
     </row>
-    <row r="470" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A470" s="2">
         <v>43932</v>
       </c>
@@ -6122,7 +6122,7 @@
         <v>29713.82</v>
       </c>
     </row>
-    <row r="471" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A471" s="2">
         <v>43933</v>
       </c>
@@ -6133,7 +6133,7 @@
         <v>29717.62</v>
       </c>
     </row>
-    <row r="472" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A472" s="2">
         <v>43934</v>
       </c>
@@ -6144,7 +6144,7 @@
         <v>29721.42</v>
       </c>
     </row>
-    <row r="473" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A473" s="2">
         <v>43935</v>
       </c>
@@ -6155,7 +6155,7 @@
         <v>29725.22</v>
       </c>
     </row>
-    <row r="474" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A474" s="2">
         <v>43936</v>
       </c>
@@ -6166,7 +6166,7 @@
         <v>29729.02</v>
       </c>
     </row>
-    <row r="475" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A475" s="2">
         <v>43937</v>
       </c>
@@ -6177,7 +6177,7 @@
         <v>29732.82</v>
       </c>
     </row>
-    <row r="476" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A476" s="2">
         <v>43938</v>
       </c>
@@ -6188,7 +6188,7 @@
         <v>29736.63</v>
       </c>
     </row>
-    <row r="477" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A477" s="2">
         <v>43939</v>
       </c>
@@ -6199,7 +6199,7 @@
         <v>29740.43</v>
       </c>
     </row>
-    <row r="478" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A478" s="2">
         <v>43940</v>
       </c>
@@ -6210,7 +6210,7 @@
         <v>29744.23</v>
       </c>
     </row>
-    <row r="479" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A479" s="2">
         <v>43941</v>
       </c>
@@ -6221,7 +6221,7 @@
         <v>29748.04</v>
       </c>
     </row>
-    <row r="480" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A480" s="2">
         <v>43942</v>
       </c>
@@ -6232,7 +6232,7 @@
         <v>29751.84</v>
       </c>
     </row>
-    <row r="481" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A481" s="2">
         <v>43943</v>
       </c>
@@ -6243,7 +6243,7 @@
         <v>29755.64</v>
       </c>
     </row>
-    <row r="482" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A482" s="2">
         <v>43944</v>
       </c>
@@ -6254,7 +6254,7 @@
         <v>29759.45</v>
       </c>
     </row>
-    <row r="483" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A483" s="2">
         <v>43945</v>
       </c>
@@ -6265,7 +6265,7 @@
         <v>29763.26</v>
       </c>
     </row>
-    <row r="484" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A484" s="2">
         <v>43946</v>
       </c>
@@ -6276,7 +6276,7 @@
         <v>29767.06</v>
       </c>
     </row>
-    <row r="485" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A485" s="2">
         <v>43947</v>
       </c>
@@ -6287,7 +6287,7 @@
         <v>29770.87</v>
       </c>
     </row>
-    <row r="486" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A486" s="2">
         <v>43948</v>
       </c>
@@ -6298,7 +6298,7 @@
         <v>29774.68</v>
       </c>
     </row>
-    <row r="487" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A487" s="2">
         <v>43949</v>
       </c>
@@ -6309,7 +6309,7 @@
         <v>29778.48</v>
       </c>
     </row>
-    <row r="488" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A488" s="2">
         <v>43950</v>
       </c>
@@ -6320,7 +6320,7 @@
         <v>29782.29</v>
       </c>
     </row>
-    <row r="489" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A489" s="2">
         <v>43951</v>
       </c>
@@ -6331,7 +6331,7 @@
         <v>29786.1</v>
       </c>
     </row>
-    <row r="490" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A490" s="2">
         <v>43952</v>
       </c>
@@ -6342,7 +6342,7 @@
         <v>29789.91</v>
       </c>
     </row>
-    <row r="491" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A491" s="2">
         <v>43953</v>
       </c>
@@ -6353,7 +6353,7 @@
         <v>29793.72</v>
       </c>
     </row>
-    <row r="492" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A492" s="2">
         <v>43954</v>
       </c>
@@ -6364,7 +6364,7 @@
         <v>29797.53</v>
       </c>
     </row>
-    <row r="493" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A493" s="2">
         <v>43955</v>
       </c>
@@ -6375,7 +6375,7 @@
         <v>29801.34</v>
       </c>
     </row>
-    <row r="494" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A494" s="2">
         <v>43956</v>
       </c>
@@ -6386,7 +6386,7 @@
         <v>29805.15</v>
       </c>
     </row>
-    <row r="495" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A495" s="2">
         <v>43957</v>
       </c>
@@ -6397,7 +6397,7 @@
         <v>29808.959999999999</v>
       </c>
     </row>
-    <row r="496" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A496" s="2">
         <v>43958</v>
       </c>
@@ -6408,7 +6408,7 @@
         <v>29812.77</v>
       </c>
     </row>
-    <row r="497" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A497" s="2">
         <v>43959</v>
       </c>
@@ -6419,7 +6419,7 @@
         <v>29816.59</v>
       </c>
     </row>
-    <row r="498" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A498" s="2">
         <v>43960</v>
       </c>
@@ -6430,7 +6430,7 @@
         <v>29820.400000000001</v>
       </c>
     </row>
-    <row r="499" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A499" s="2">
         <v>43961</v>
       </c>
@@ -6441,7 +6441,7 @@
         <v>29822.82</v>
       </c>
     </row>
-    <row r="500" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A500" s="2">
         <v>43962</v>
       </c>
@@ -6452,7 +6452,7 @@
         <v>29825.24</v>
       </c>
     </row>
-    <row r="501" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A501" s="2">
         <v>43963</v>
       </c>
@@ -6463,7 +6463,7 @@
         <v>29827.66</v>
       </c>
     </row>
-    <row r="502" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A502" s="2">
         <v>43964</v>
       </c>
@@ -6474,7 +6474,7 @@
         <v>29830.080000000002</v>
       </c>
     </row>
-    <row r="503" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A503" s="2">
         <v>43965</v>
       </c>
@@ -6485,7 +6485,7 @@
         <v>29832.51</v>
       </c>
     </row>
-    <row r="504" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A504" s="2">
         <v>43966</v>
       </c>
@@ -6496,7 +6496,7 @@
         <v>29834.93</v>
       </c>
     </row>
-    <row r="505" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A505" s="2">
         <v>43967</v>
       </c>
@@ -6507,7 +6507,7 @@
         <v>29837.35</v>
       </c>
     </row>
-    <row r="506" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A506" s="2">
         <v>43968</v>
       </c>
@@ -6518,7 +6518,7 @@
         <v>29839.77</v>
       </c>
     </row>
-    <row r="507" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A507" s="2">
         <v>43969</v>
       </c>
@@ -6529,7 +6529,7 @@
         <v>29842.19</v>
       </c>
     </row>
-    <row r="508" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A508" s="2">
         <v>43970</v>
       </c>
@@ -6540,7 +6540,7 @@
         <v>29844.62</v>
       </c>
     </row>
-    <row r="509" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A509" s="2">
         <v>43971</v>
       </c>
@@ -6551,7 +6551,7 @@
         <v>29847.040000000001</v>
       </c>
     </row>
-    <row r="510" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A510" s="2">
         <v>43972</v>
       </c>
@@ -6562,7 +6562,7 @@
         <v>29849.46</v>
       </c>
     </row>
-    <row r="511" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A511" s="2">
         <v>43973</v>
       </c>
@@ -6573,7 +6573,7 @@
         <v>29851.89</v>
       </c>
     </row>
-    <row r="512" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A512" s="2">
         <v>43974</v>
       </c>
@@ -6584,7 +6584,7 @@
         <v>29854.31</v>
       </c>
     </row>
-    <row r="513" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A513" s="2">
         <v>43975</v>
       </c>
@@ -6595,7 +6595,7 @@
         <v>29856.73</v>
       </c>
     </row>
-    <row r="514" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A514" s="2">
         <v>43976</v>
       </c>
@@ -6606,7 +6606,7 @@
         <v>29859.16</v>
       </c>
     </row>
-    <row r="515" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A515" s="2">
         <v>43977</v>
       </c>
@@ -6617,7 +6617,7 @@
         <v>29861.58</v>
       </c>
     </row>
-    <row r="516" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A516" s="2">
         <v>43978</v>
       </c>
@@ -6628,7 +6628,7 @@
         <v>29864</v>
       </c>
     </row>
-    <row r="517" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A517" s="2">
         <v>43979</v>
       </c>
@@ -6639,7 +6639,7 @@
         <v>29866.43</v>
       </c>
     </row>
-    <row r="518" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A518" s="2">
         <v>43980</v>
       </c>
@@ -6650,7 +6650,7 @@
         <v>29868.85</v>
       </c>
     </row>
-    <row r="519" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A519" s="2">
         <v>43981</v>
       </c>
@@ -6661,7 +6661,7 @@
         <v>29871.279999999999</v>
       </c>
     </row>
-    <row r="520" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A520" s="2">
         <v>43982</v>
       </c>
@@ -6672,7 +6672,7 @@
         <v>29873.7</v>
       </c>
     </row>
-    <row r="521" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A521" s="2">
         <v>43983</v>
       </c>
@@ -6683,7 +6683,7 @@
         <v>29876.13</v>
       </c>
     </row>
-    <row r="522" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A522" s="2">
         <v>43984</v>
       </c>
@@ -6694,7 +6694,7 @@
         <v>29878.55</v>
       </c>
     </row>
-    <row r="523" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A523" s="2">
         <v>43985</v>
       </c>
@@ -6705,7 +6705,7 @@
         <v>29880.98</v>
       </c>
     </row>
-    <row r="524" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A524" s="2">
         <v>43986</v>
       </c>
@@ -6716,7 +6716,7 @@
         <v>29883.4</v>
       </c>
     </row>
-    <row r="525" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A525" s="2">
         <v>43987</v>
       </c>
@@ -6727,7 +6727,7 @@
         <v>29885.83</v>
       </c>
     </row>
-    <row r="526" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A526" s="2">
         <v>43988</v>
       </c>
@@ -6738,7 +6738,7 @@
         <v>29888.26</v>
       </c>
     </row>
-    <row r="527" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A527" s="2">
         <v>43989</v>
       </c>
@@ -6749,7 +6749,7 @@
         <v>29890.68</v>
       </c>
     </row>
-    <row r="528" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A528" s="2">
         <v>43990</v>
       </c>
@@ -6760,7 +6760,7 @@
         <v>29893.11</v>
       </c>
     </row>
-    <row r="529" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A529" s="2">
         <v>43991</v>
       </c>
@@ -6771,7 +6771,7 @@
         <v>29895.54</v>
       </c>
     </row>
-    <row r="530" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A530" s="2">
         <v>43992</v>
       </c>
@@ -6782,7 +6782,7 @@
         <v>29897.75</v>
       </c>
     </row>
-    <row r="531" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A531" s="2">
         <v>43993</v>
       </c>
@@ -6793,7 +6793,7 @@
         <v>29899.96</v>
       </c>
     </row>
-    <row r="532" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A532" s="2">
         <v>43994</v>
       </c>
@@ -6804,7 +6804,7 @@
         <v>29902.17</v>
       </c>
     </row>
-    <row r="533" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A533" s="2">
         <v>43995</v>
       </c>
@@ -6815,7 +6815,7 @@
         <v>29904.38</v>
       </c>
     </row>
-    <row r="534" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A534" s="2">
         <v>43996</v>
       </c>
@@ -6826,7 +6826,7 @@
         <v>29906.59</v>
       </c>
     </row>
-    <row r="535" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A535" s="2">
         <v>43997</v>
       </c>
@@ -6837,7 +6837,7 @@
         <v>29908.799999999999</v>
       </c>
     </row>
-    <row r="536" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A536" s="2">
         <v>43998</v>
       </c>
@@ -6848,7 +6848,7 @@
         <v>29911.01</v>
       </c>
     </row>
-    <row r="537" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A537" s="2">
         <v>43999</v>
       </c>
@@ -6859,7 +6859,7 @@
         <v>29913.22</v>
       </c>
     </row>
-    <row r="538" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A538" s="2">
         <v>44000</v>
       </c>
@@ -6870,7 +6870,7 @@
         <v>29915.43</v>
       </c>
     </row>
-    <row r="539" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A539" s="2">
         <v>44001</v>
       </c>
@@ -6881,7 +6881,7 @@
         <v>29917.64</v>
       </c>
     </row>
-    <row r="540" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A540" s="2">
         <v>44002</v>
       </c>
@@ -6892,7 +6892,7 @@
         <v>29919.85</v>
       </c>
     </row>
-    <row r="541" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A541" s="2">
         <v>44003</v>
       </c>
@@ -6903,7 +6903,7 @@
         <v>29922.07</v>
       </c>
     </row>
-    <row r="542" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A542" s="2">
         <v>44004</v>
       </c>
@@ -6914,7 +6914,7 @@
         <v>29924.28</v>
       </c>
     </row>
-    <row r="543" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A543" s="2">
         <v>44005</v>
       </c>
@@ -6925,7 +6925,7 @@
         <v>29926.49</v>
       </c>
     </row>
-    <row r="544" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A544" s="2">
         <v>44006</v>
       </c>
@@ -6936,7 +6936,7 @@
         <v>29928.7</v>
       </c>
     </row>
-    <row r="545" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A545" s="2">
         <v>44007</v>
       </c>
@@ -6947,7 +6947,7 @@
         <v>29930.91</v>
       </c>
     </row>
-    <row r="546" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A546" s="2">
         <v>44008</v>
       </c>
@@ -6958,7 +6958,7 @@
         <v>29933.119999999999</v>
       </c>
     </row>
-    <row r="547" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A547" s="2">
         <v>44009</v>
       </c>
@@ -6969,7 +6969,7 @@
         <v>29935.34</v>
       </c>
     </row>
-    <row r="548" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A548" s="2">
         <v>44010</v>
       </c>
@@ -6980,7 +6980,7 @@
         <v>29937.55</v>
       </c>
     </row>
-    <row r="549" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A549" s="2">
         <v>44011</v>
       </c>
@@ -6991,7 +6991,7 @@
         <v>29939.759999999998</v>
       </c>
     </row>
-    <row r="550" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A550" s="2">
         <v>44012</v>
       </c>
@@ -7002,7 +7002,7 @@
         <v>29941.97</v>
       </c>
     </row>
-    <row r="551" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A551" s="2">
         <v>44013</v>
       </c>
@@ -7013,7 +7013,7 @@
         <v>29944.19</v>
       </c>
     </row>
-    <row r="552" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A552" s="2">
         <v>44014</v>
       </c>
@@ -7024,7 +7024,7 @@
         <v>29946.400000000001</v>
       </c>
     </row>
-    <row r="553" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A553" s="2">
         <v>44015</v>
       </c>
@@ -7035,7 +7035,7 @@
         <v>29948.61</v>
       </c>
     </row>
-    <row r="554" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A554" s="2">
         <v>44016</v>
       </c>
@@ -7046,7 +7046,7 @@
         <v>29950.83</v>
       </c>
     </row>
-    <row r="555" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A555" s="2">
         <v>44017</v>
       </c>
@@ -7057,7 +7057,7 @@
         <v>29953.040000000001</v>
       </c>
     </row>
-    <row r="556" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A556" s="2">
         <v>44018</v>
       </c>
@@ -7068,7 +7068,7 @@
         <v>29955.25</v>
       </c>
     </row>
-    <row r="557" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A557" s="2">
         <v>44019</v>
       </c>
@@ -7079,7 +7079,7 @@
         <v>29957.47</v>
       </c>
     </row>
-    <row r="558" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A558" s="2">
         <v>44020</v>
       </c>
@@ -7090,7 +7090,7 @@
         <v>29959.68</v>
       </c>
     </row>
-    <row r="559" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A559" s="2">
         <v>44021</v>
       </c>
@@ -7101,7 +7101,7 @@
         <v>29961.9</v>
       </c>
     </row>
-    <row r="560" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A560" s="2">
         <v>44022</v>
       </c>
@@ -7112,7 +7112,7 @@
         <v>29963.84</v>
       </c>
     </row>
-    <row r="561" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A561" s="2">
         <v>44023</v>
       </c>
@@ -7123,7 +7123,7 @@
         <v>29965.78</v>
       </c>
     </row>
-    <row r="562" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A562" s="2">
         <v>44024</v>
       </c>
@@ -7134,7 +7134,7 @@
         <v>29967.73</v>
       </c>
     </row>
-    <row r="563" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A563" s="2">
         <v>44025</v>
       </c>
@@ -7145,7 +7145,7 @@
         <v>29969.67</v>
       </c>
     </row>
-    <row r="564" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A564" s="2">
         <v>44026</v>
       </c>
@@ -7156,7 +7156,7 @@
         <v>29971.61</v>
       </c>
     </row>
-    <row r="565" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A565" s="2">
         <v>44027</v>
       </c>
@@ -7167,7 +7167,7 @@
         <v>29973.55</v>
       </c>
     </row>
-    <row r="566" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A566" s="2">
         <v>44028</v>
       </c>
@@ -7178,7 +7178,7 @@
         <v>29975.5</v>
       </c>
     </row>
-    <row r="567" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A567" s="2">
         <v>44029</v>
       </c>
@@ -7189,7 +7189,7 @@
         <v>29977.439999999999</v>
       </c>
     </row>
-    <row r="568" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A568" s="2">
         <v>44030</v>
       </c>
@@ -7200,7 +7200,7 @@
         <v>29979.38</v>
       </c>
     </row>
-    <row r="569" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A569" s="2">
         <v>44031</v>
       </c>
@@ -7211,7 +7211,7 @@
         <v>29981.33</v>
       </c>
     </row>
-    <row r="570" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A570" s="2">
         <v>44032</v>
       </c>
@@ -7222,7 +7222,7 @@
         <v>29983.27</v>
       </c>
     </row>
-    <row r="571" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A571" s="2">
         <v>44033</v>
       </c>
@@ -7233,7 +7233,7 @@
         <v>29985.21</v>
       </c>
     </row>
-    <row r="572" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A572" s="2">
         <v>44034</v>
       </c>
@@ -7244,7 +7244,7 @@
         <v>29987.16</v>
       </c>
     </row>
-    <row r="573" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A573" s="2">
         <v>44035</v>
       </c>
@@ -7255,7 +7255,7 @@
         <v>29989.1</v>
       </c>
     </row>
-    <row r="574" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A574" s="2">
         <v>44036</v>
       </c>
@@ -7266,7 +7266,7 @@
         <v>29991.040000000001</v>
       </c>
     </row>
-    <row r="575" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A575" s="2">
         <v>44037</v>
       </c>
@@ -7277,7 +7277,7 @@
         <v>29992.99</v>
       </c>
     </row>
-    <row r="576" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A576" s="2">
         <v>44038</v>
       </c>
@@ -7288,7 +7288,7 @@
         <v>29994.93</v>
       </c>
     </row>
-    <row r="577" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A577" s="2">
         <v>44039</v>
       </c>
@@ -7299,7 +7299,7 @@
         <v>29996.87</v>
       </c>
     </row>
-    <row r="578" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A578" s="2">
         <v>44040</v>
       </c>
@@ -7310,7 +7310,7 @@
         <v>29998.82</v>
       </c>
     </row>
-    <row r="579" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A579" s="2">
         <v>44041</v>
       </c>
@@ -7321,7 +7321,7 @@
         <v>30000.76</v>
       </c>
     </row>
-    <row r="580" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A580" s="2">
         <v>44042</v>
       </c>
@@ -7332,7 +7332,7 @@
         <v>30002.71</v>
       </c>
     </row>
-    <row r="581" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A581" s="2">
         <v>44043</v>
       </c>
@@ -7343,7 +7343,7 @@
         <v>30004.65</v>
       </c>
     </row>
-    <row r="582" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A582" s="2">
         <v>44044</v>
       </c>
@@ -7354,7 +7354,7 @@
         <v>30006.6</v>
       </c>
     </row>
-    <row r="583" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A583" s="2">
         <v>44045</v>
       </c>
@@ -7365,7 +7365,7 @@
         <v>30008.54</v>
       </c>
     </row>
-    <row r="584" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A584" s="2">
         <v>44046</v>
       </c>
@@ -7376,7 +7376,7 @@
         <v>30010.49</v>
       </c>
     </row>
-    <row r="585" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A585" s="2">
         <v>44047</v>
       </c>
@@ -7387,7 +7387,7 @@
         <v>30012.43</v>
       </c>
     </row>
-    <row r="586" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A586" s="2">
         <v>44048</v>
       </c>
@@ -7398,7 +7398,7 @@
         <v>30014.38</v>
       </c>
     </row>
-    <row r="587" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A587" s="2">
         <v>44049</v>
       </c>
@@ -7409,7 +7409,7 @@
         <v>30016.32</v>
       </c>
     </row>
-    <row r="588" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A588" s="2">
         <v>44050</v>
       </c>
@@ -7420,7 +7420,7 @@
         <v>30018.27</v>
       </c>
     </row>
-    <row r="589" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A589" s="2">
         <v>44051</v>
       </c>
@@ -7431,7 +7431,7 @@
         <v>30020.21</v>
       </c>
     </row>
-    <row r="590" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A590" s="2">
         <v>44052</v>
       </c>
@@ -7442,7 +7442,7 @@
         <v>30022.16</v>
       </c>
     </row>
-    <row r="591" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A591" s="2">
         <v>44053</v>
       </c>
@@ -7453,7 +7453,7 @@
         <v>30023.22</v>
       </c>
     </row>
-    <row r="592" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A592" s="2">
         <v>44054</v>
       </c>
@@ -7464,7 +7464,7 @@
         <v>30024.27</v>
       </c>
     </row>
-    <row r="593" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A593" s="2">
         <v>44055</v>
       </c>
@@ -7475,7 +7475,7 @@
         <v>30025.33</v>
       </c>
     </row>
-    <row r="594" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A594" s="2">
         <v>44056</v>
       </c>
@@ -7486,7 +7486,7 @@
         <v>30026.38</v>
       </c>
     </row>
-    <row r="595" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A595" s="2">
         <v>44057</v>
       </c>
@@ -7497,7 +7497,7 @@
         <v>30027.439999999999</v>
       </c>
     </row>
-    <row r="596" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A596" s="2">
         <v>44058</v>
       </c>
@@ -7508,7 +7508,7 @@
         <v>30028.5</v>
       </c>
     </row>
-    <row r="597" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A597" s="2">
         <v>44059</v>
       </c>
@@ -7519,7 +7519,7 @@
         <v>30029.55</v>
       </c>
     </row>
-    <row r="598" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A598" s="2">
         <v>44060</v>
       </c>
@@ -7530,7 +7530,7 @@
         <v>30030.61</v>
       </c>
     </row>
-    <row r="599" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A599" s="2">
         <v>44061</v>
       </c>
@@ -7541,7 +7541,7 @@
         <v>30031.67</v>
       </c>
     </row>
-    <row r="600" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A600" s="2">
         <v>44062</v>
       </c>
@@ -7552,7 +7552,7 @@
         <v>30032.720000000001</v>
       </c>
     </row>
-    <row r="601" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A601" s="2">
         <v>44063</v>
       </c>
@@ -7563,7 +7563,7 @@
         <v>30033.78</v>
       </c>
     </row>
-    <row r="602" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A602" s="2">
         <v>44064</v>
       </c>
@@ -7574,7 +7574,7 @@
         <v>30034.84</v>
       </c>
     </row>
-    <row r="603" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A603" s="2">
         <v>44065</v>
       </c>
@@ -7585,7 +7585,7 @@
         <v>30035.89</v>
       </c>
     </row>
-    <row r="604" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A604" s="2">
         <v>44066</v>
       </c>
@@ -7596,7 +7596,7 @@
         <v>30036.95</v>
       </c>
     </row>
-    <row r="605" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A605" s="2">
         <v>44067</v>
       </c>
@@ -7607,7 +7607,7 @@
         <v>30038.01</v>
       </c>
     </row>
-    <row r="606" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A606" s="2">
         <v>44068</v>
       </c>
@@ -7618,7 +7618,7 @@
         <v>30039.06</v>
       </c>
     </row>
-    <row r="607" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A607" s="2">
         <v>44069</v>
       </c>
@@ -7629,7 +7629,7 @@
         <v>30040.12</v>
       </c>
     </row>
-    <row r="608" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A608" s="2">
         <v>44070</v>
       </c>
@@ -7640,7 +7640,7 @@
         <v>30041.18</v>
       </c>
     </row>
-    <row r="609" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A609" s="2">
         <v>44071</v>
       </c>
@@ -7651,7 +7651,7 @@
         <v>30042.23</v>
       </c>
     </row>
-    <row r="610" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A610" s="2">
         <v>44072</v>
       </c>
@@ -7662,7 +7662,7 @@
         <v>30043.29</v>
       </c>
     </row>
-    <row r="611" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A611" s="2">
         <v>44073</v>
       </c>
@@ -7673,7 +7673,7 @@
         <v>30044.35</v>
       </c>
     </row>
-    <row r="612" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A612" s="2">
         <v>44074</v>
       </c>
@@ -7684,7 +7684,7 @@
         <v>30045.4</v>
       </c>
     </row>
-    <row r="613" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A613" s="2">
         <v>44075</v>
       </c>
@@ -7695,7 +7695,7 @@
         <v>30046.46</v>
       </c>
     </row>
-    <row r="614" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A614" s="2">
         <v>44076</v>
       </c>
@@ -7706,7 +7706,7 @@
         <v>30047.52</v>
       </c>
     </row>
-    <row r="615" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A615" s="2">
         <v>44077</v>
       </c>
@@ -7717,7 +7717,7 @@
         <v>30048.57</v>
       </c>
     </row>
-    <row r="616" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A616" s="2">
         <v>44078</v>
       </c>
@@ -7728,7 +7728,7 @@
         <v>30049.63</v>
       </c>
     </row>
-    <row r="617" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A617" s="2">
         <v>44079</v>
       </c>
@@ -7739,7 +7739,7 @@
         <v>30050.69</v>
       </c>
     </row>
-    <row r="618" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A618" s="2">
         <v>44080</v>
       </c>
@@ -7750,7 +7750,7 @@
         <v>30051.74</v>
       </c>
     </row>
-    <row r="619" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A619" s="2">
         <v>44081</v>
       </c>
@@ -7761,7 +7761,7 @@
         <v>30052.799999999999</v>
       </c>
     </row>
-    <row r="620" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A620" s="2">
         <v>44082</v>
       </c>
@@ -7772,7 +7772,7 @@
         <v>30053.86</v>
       </c>
     </row>
-    <row r="621" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A621" s="2">
         <v>44083</v>
       </c>
@@ -7783,7 +7783,7 @@
         <v>30054.92</v>
       </c>
     </row>
-    <row r="622" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A622" s="2">
         <v>44084</v>
       </c>
@@ -7794,7 +7794,7 @@
         <v>30055.57</v>
       </c>
     </row>
-    <row r="623" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A623" s="2">
         <v>44085</v>
       </c>
@@ -7805,7 +7805,7 @@
         <v>30056.23</v>
       </c>
     </row>
-    <row r="624" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A624" s="2">
         <v>44086</v>
       </c>
@@ -7816,7 +7816,7 @@
         <v>30056.880000000001</v>
       </c>
     </row>
-    <row r="625" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A625" s="2">
         <v>44087</v>
       </c>
@@ -7827,7 +7827,7 @@
         <v>30057.54</v>
       </c>
     </row>
-    <row r="626" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A626" s="2">
         <v>44088</v>
       </c>
@@ -7838,7 +7838,7 @@
         <v>30058.19</v>
       </c>
     </row>
-    <row r="627" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A627" s="2">
         <v>44089</v>
       </c>
@@ -7849,7 +7849,7 @@
         <v>30058.84</v>
       </c>
     </row>
-    <row r="628" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A628" s="2">
         <v>44090</v>
       </c>
@@ -7860,7 +7860,7 @@
         <v>30059.5</v>
       </c>
     </row>
-    <row r="629" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A629" s="2">
         <v>44091</v>
       </c>
@@ -7871,7 +7871,7 @@
         <v>30060.15</v>
       </c>
     </row>
-    <row r="630" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A630" s="2">
         <v>44092</v>
       </c>
@@ -7882,7 +7882,7 @@
         <v>30060.81</v>
       </c>
     </row>
-    <row r="631" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A631" s="2">
         <v>44093</v>
       </c>
@@ -7893,7 +7893,7 @@
         <v>30061.46</v>
       </c>
     </row>
-    <row r="632" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A632" s="2">
         <v>44094</v>
       </c>
@@ -7904,7 +7904,7 @@
         <v>30062.11</v>
       </c>
     </row>
-    <row r="633" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A633" s="2">
         <v>44095</v>
       </c>
@@ -7915,7 +7915,7 @@
         <v>30062.77</v>
       </c>
     </row>
-    <row r="634" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A634" s="2">
         <v>44096</v>
       </c>
@@ -7926,7 +7926,7 @@
         <v>30063.42</v>
       </c>
     </row>
-    <row r="635" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A635" s="2">
         <v>44097</v>
       </c>
@@ -7937,7 +7937,7 @@
         <v>30064.080000000002</v>
       </c>
     </row>
-    <row r="636" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A636" s="2">
         <v>44098</v>
       </c>
@@ -7948,7 +7948,7 @@
         <v>30064.73</v>
       </c>
     </row>
-    <row r="637" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A637" s="2">
         <v>44099</v>
       </c>
@@ -7959,7 +7959,7 @@
         <v>30065.38</v>
       </c>
     </row>
-    <row r="638" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A638" s="2">
         <v>44100</v>
       </c>
@@ -7970,7 +7970,7 @@
         <v>30066.04</v>
       </c>
     </row>
-    <row r="639" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A639" s="2">
         <v>44101</v>
       </c>
@@ -7981,7 +7981,7 @@
         <v>30066.69</v>
       </c>
     </row>
-    <row r="640" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A640" s="2">
         <v>44102</v>
       </c>
@@ -7992,7 +7992,7 @@
         <v>30067.35</v>
       </c>
     </row>
-    <row r="641" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A641" s="2">
         <v>44103</v>
       </c>
@@ -8003,7 +8003,7 @@
         <v>30068</v>
       </c>
     </row>
-    <row r="642" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A642" s="2">
         <v>44104</v>
       </c>
@@ -8014,7 +8014,7 @@
         <v>30068.65</v>
       </c>
     </row>
-    <row r="643" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A643" s="2">
         <v>44105</v>
       </c>
@@ -8025,7 +8025,7 @@
         <v>30069.31</v>
       </c>
     </row>
-    <row r="644" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A644" s="2">
         <v>44106</v>
       </c>
@@ -8036,7 +8036,7 @@
         <v>30069.96</v>
       </c>
     </row>
-    <row r="645" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A645" s="2">
         <v>44107</v>
       </c>
@@ -8047,7 +8047,7 @@
         <v>30070.62</v>
       </c>
     </row>
-    <row r="646" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A646" s="2">
         <v>44108</v>
       </c>
@@ -8058,7 +8058,7 @@
         <v>30071.27</v>
       </c>
     </row>
-    <row r="647" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A647" s="2">
         <v>44109</v>
       </c>
@@ -8069,7 +8069,7 @@
         <v>30071.93</v>
       </c>
     </row>
-    <row r="648" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A648" s="2">
         <v>44110</v>
       </c>
@@ -8080,7 +8080,7 @@
         <v>30072.58</v>
       </c>
     </row>
-    <row r="649" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A649" s="2">
         <v>44111</v>
       </c>
@@ -8091,7 +8091,7 @@
         <v>30073.23</v>
       </c>
     </row>
-    <row r="650" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A650" s="2">
         <v>44112</v>
       </c>
@@ -8102,7 +8102,7 @@
         <v>30073.89</v>
       </c>
     </row>
-    <row r="651" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A651" s="2">
         <v>44113</v>
       </c>
@@ -8113,7 +8113,7 @@
         <v>30074.54</v>
       </c>
     </row>
-    <row r="652" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A652" s="2">
         <v>44114</v>
       </c>
@@ -8124,7 +8124,7 @@
         <v>30075.69</v>
       </c>
     </row>
-    <row r="653" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A653" s="2">
         <v>44115</v>
       </c>
@@ -8135,7 +8135,7 @@
         <v>30076.85</v>
       </c>
     </row>
-    <row r="654" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A654" s="2">
         <v>44116</v>
       </c>
@@ -8146,7 +8146,7 @@
         <v>30078</v>
       </c>
     </row>
-    <row r="655" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A655" s="2">
         <v>44117</v>
       </c>
@@ -8157,7 +8157,7 @@
         <v>30079.15</v>
       </c>
     </row>
-    <row r="656" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A656" s="2">
         <v>44118</v>
       </c>
@@ -8168,7 +8168,7 @@
         <v>30080.31</v>
       </c>
     </row>
-    <row r="657" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A657" s="2">
         <v>44119</v>
       </c>
@@ -8179,7 +8179,7 @@
         <v>30081.46</v>
       </c>
     </row>
-    <row r="658" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A658" s="2">
         <v>44120</v>
       </c>
@@ -8190,7 +8190,7 @@
         <v>30082.62</v>
       </c>
     </row>
-    <row r="659" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A659" s="2">
         <v>44121</v>
       </c>
@@ -8201,7 +8201,7 @@
         <v>30083.77</v>
       </c>
     </row>
-    <row r="660" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A660" s="2">
         <v>44122</v>
       </c>
@@ -8212,7 +8212,7 @@
         <v>30084.92</v>
       </c>
     </row>
-    <row r="661" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A661" s="2">
         <v>44123</v>
       </c>
@@ -8223,7 +8223,7 @@
         <v>30086.080000000002</v>
       </c>
     </row>
-    <row r="662" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A662" s="2">
         <v>44124</v>
       </c>
@@ -8234,7 +8234,7 @@
         <v>30087.23</v>
       </c>
     </row>
-    <row r="663" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A663" s="2">
         <v>44125</v>
       </c>
@@ -8245,7 +8245,7 @@
         <v>30088.39</v>
       </c>
     </row>
-    <row r="664" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A664" s="2">
         <v>44126</v>
       </c>
@@ -8256,7 +8256,7 @@
         <v>30089.54</v>
       </c>
     </row>
-    <row r="665" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A665" s="2">
         <v>44127</v>
       </c>
@@ -8267,7 +8267,7 @@
         <v>30090.69</v>
       </c>
     </row>
-    <row r="666" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A666" s="2">
         <v>44128</v>
       </c>
@@ -8278,7 +8278,7 @@
         <v>30091.85</v>
       </c>
     </row>
-    <row r="667" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A667" s="2">
         <v>44129</v>
       </c>
@@ -8289,7 +8289,7 @@
         <v>30093</v>
       </c>
     </row>
-    <row r="668" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A668" s="2">
         <v>44130</v>
       </c>
@@ -8300,7 +8300,7 @@
         <v>30094.16</v>
       </c>
     </row>
-    <row r="669" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A669" s="2">
         <v>44131</v>
       </c>
@@ -8311,7 +8311,7 @@
         <v>30095.31</v>
       </c>
     </row>
-    <row r="670" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A670" s="2">
         <v>44132</v>
       </c>
@@ -8322,7 +8322,7 @@
         <v>30096.46</v>
       </c>
     </row>
-    <row r="671" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A671" s="2">
         <v>44133</v>
       </c>
@@ -8333,7 +8333,7 @@
         <v>30097.62</v>
       </c>
     </row>
-    <row r="672" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A672" s="2">
         <v>44134</v>
       </c>
@@ -8344,7 +8344,7 @@
         <v>30098.77</v>
       </c>
     </row>
-    <row r="673" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A673" s="2">
         <v>44135</v>
       </c>
@@ -8355,7 +8355,7 @@
         <v>30099.93</v>
       </c>
     </row>
-    <row r="674" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A674" s="2">
         <v>44136</v>
       </c>
@@ -8366,7 +8366,7 @@
         <v>30101.08</v>
       </c>
     </row>
-    <row r="675" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A675" s="2">
         <v>44137</v>
       </c>
@@ -8377,7 +8377,7 @@
         <v>30102.240000000002</v>
       </c>
     </row>
-    <row r="676" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A676" s="2">
         <v>44138</v>
       </c>
@@ -8388,7 +8388,7 @@
         <v>30103.39</v>
       </c>
     </row>
-    <row r="677" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A677" s="2">
         <v>44139</v>
       </c>
@@ -8399,7 +8399,7 @@
         <v>30104.55</v>
       </c>
     </row>
-    <row r="678" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A678" s="2">
         <v>44140</v>
       </c>
@@ -8410,7 +8410,7 @@
         <v>30105.7</v>
       </c>
     </row>
-    <row r="679" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A679" s="2">
         <v>44141</v>
       </c>
@@ -8421,7 +8421,7 @@
         <v>30106.86</v>
       </c>
     </row>
-    <row r="680" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A680" s="2">
         <v>44142</v>
       </c>
@@ -8432,7 +8432,7 @@
         <v>30108.01</v>
       </c>
     </row>
-    <row r="681" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="681" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A681" s="2">
         <v>44143</v>
       </c>
@@ -8443,7 +8443,7 @@
         <v>30109.16</v>
       </c>
     </row>
-    <row r="682" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A682" s="2">
         <v>44144</v>
       </c>
@@ -8454,7 +8454,7 @@
         <v>30110.32</v>
       </c>
     </row>
-    <row r="683" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="683" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A683" s="2">
         <v>44145</v>
       </c>
@@ -8465,7 +8465,7 @@
         <v>30112.66</v>
       </c>
     </row>
-    <row r="684" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="684" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A684" s="2">
         <v>44146</v>
       </c>
@@ -8476,7 +8476,7 @@
         <v>30114.99</v>
       </c>
     </row>
-    <row r="685" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="685" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A685" s="2">
         <v>44147</v>
       </c>
@@ -8487,7 +8487,7 @@
         <v>30117.33</v>
       </c>
     </row>
-    <row r="686" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="686" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A686" s="2">
         <v>44148</v>
       </c>
@@ -8498,7 +8498,7 @@
         <v>30119.67</v>
       </c>
     </row>
-    <row r="687" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="687" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A687" s="2">
         <v>44149</v>
       </c>
@@ -8509,7 +8509,7 @@
         <v>30122</v>
       </c>
     </row>
-    <row r="688" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="688" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A688" s="2">
         <v>44150</v>
       </c>
@@ -8520,7 +8520,7 @@
         <v>30124.34</v>
       </c>
     </row>
-    <row r="689" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="689" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A689" s="2">
         <v>44151</v>
       </c>
@@ -8531,7 +8531,7 @@
         <v>30126.68</v>
       </c>
     </row>
-    <row r="690" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="690" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A690" s="2">
         <v>44152</v>
       </c>
@@ -8542,7 +8542,7 @@
         <v>30129.02</v>
       </c>
     </row>
-    <row r="691" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="691" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A691" s="2">
         <v>44153</v>
       </c>
@@ -8553,7 +8553,7 @@
         <v>30131.35</v>
       </c>
     </row>
-    <row r="692" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="692" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A692" s="2">
         <v>44154</v>
       </c>
@@ -8564,7 +8564,7 @@
         <v>30133.69</v>
       </c>
     </row>
-    <row r="693" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="693" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A693" s="2">
         <v>44155</v>
       </c>
@@ -8575,7 +8575,7 @@
         <v>30136.03</v>
       </c>
     </row>
-    <row r="694" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="694" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A694" s="2">
         <v>44156</v>
       </c>
@@ -8586,7 +8586,7 @@
         <v>30138.37</v>
       </c>
     </row>
-    <row r="695" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="695" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A695" s="2">
         <v>44157</v>
       </c>
@@ -8597,7 +8597,7 @@
         <v>30140.71</v>
       </c>
     </row>
-    <row r="696" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="696" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A696" s="2">
         <v>44158</v>
       </c>
@@ -8608,7 +8608,7 @@
         <v>30143.05</v>
       </c>
     </row>
-    <row r="697" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="697" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A697" s="2">
         <v>44159</v>
       </c>
@@ -8619,7 +8619,7 @@
         <v>30145.39</v>
       </c>
     </row>
-    <row r="698" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="698" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A698" s="2">
         <v>44160</v>
       </c>
@@ -8630,7 +8630,7 @@
         <v>30147.72</v>
       </c>
     </row>
-    <row r="699" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="699" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A699" s="2">
         <v>44161</v>
       </c>
@@ -8641,7 +8641,7 @@
         <v>30150.06</v>
       </c>
     </row>
-    <row r="700" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="700" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A700" s="2">
         <v>44162</v>
       </c>
@@ -8652,7 +8652,7 @@
         <v>30152.400000000001</v>
       </c>
     </row>
-    <row r="701" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="701" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A701" s="2">
         <v>44163</v>
       </c>
@@ -8663,7 +8663,7 @@
         <v>30154.74</v>
       </c>
     </row>
-    <row r="702" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="702" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A702" s="2">
         <v>44164</v>
       </c>
@@ -8674,7 +8674,7 @@
         <v>30157.08</v>
       </c>
     </row>
-    <row r="703" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="703" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A703" s="2">
         <v>44165</v>
       </c>
@@ -8685,7 +8685,7 @@
         <v>30159.42</v>
       </c>
     </row>
-    <row r="704" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="704" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A704" s="2">
         <v>44166</v>
       </c>
@@ -8696,7 +8696,7 @@
         <v>30161.759999999998</v>
       </c>
     </row>
-    <row r="705" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="705" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A705" s="2">
         <v>44167</v>
       </c>
@@ -8707,7 +8707,7 @@
         <v>30164.1</v>
       </c>
     </row>
-    <row r="706" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="706" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A706" s="2">
         <v>44168</v>
       </c>
@@ -8718,7 +8718,7 @@
         <v>30166.44</v>
       </c>
     </row>
-    <row r="707" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="707" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A707" s="2">
         <v>44169</v>
       </c>
@@ -8729,7 +8729,7 @@
         <v>30168.79</v>
       </c>
     </row>
-    <row r="708" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="708" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A708" s="2">
         <v>44170</v>
       </c>
@@ -8740,7 +8740,7 @@
         <v>30171.13</v>
       </c>
     </row>
-    <row r="709" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="709" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A709" s="2">
         <v>44171</v>
       </c>
@@ -8751,7 +8751,7 @@
         <v>30173.47</v>
       </c>
     </row>
-    <row r="710" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="710" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A710" s="2">
         <v>44172</v>
       </c>
@@ -8762,7 +8762,7 @@
         <v>30175.81</v>
       </c>
     </row>
-    <row r="711" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="711" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A711" s="2">
         <v>44173</v>
       </c>
@@ -8773,7 +8773,7 @@
         <v>30178.15</v>
       </c>
     </row>
-    <row r="712" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="712" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A712" s="2">
         <v>44174</v>
       </c>
@@ -8784,7 +8784,7 @@
         <v>30180.49</v>
       </c>
     </row>
-    <row r="713" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="713" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A713" s="2">
         <v>44175</v>
       </c>
@@ -8795,7 +8795,7 @@
         <v>30182.71</v>
       </c>
     </row>
-    <row r="714" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="714" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A714" s="2">
         <v>44176</v>
       </c>
@@ -8806,7 +8806,7 @@
         <v>30184.92</v>
       </c>
     </row>
-    <row r="715" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="715" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A715" s="2">
         <v>44177</v>
       </c>
@@ -8817,7 +8817,7 @@
         <v>30187.14</v>
       </c>
     </row>
-    <row r="716" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="716" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A716" s="2">
         <v>44178</v>
       </c>
@@ -8828,7 +8828,7 @@
         <v>30189.360000000001</v>
       </c>
     </row>
-    <row r="717" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="717" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A717" s="2">
         <v>44179</v>
       </c>
@@ -8839,7 +8839,7 @@
         <v>30191.57</v>
       </c>
     </row>
-    <row r="718" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="718" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A718" s="2">
         <v>44180</v>
       </c>
@@ -8850,7 +8850,7 @@
         <v>30193.79</v>
       </c>
     </row>
-    <row r="719" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="719" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A719" s="2">
         <v>44181</v>
       </c>
@@ -8861,7 +8861,7 @@
         <v>30196.01</v>
       </c>
     </row>
-    <row r="720" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="720" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A720" s="2">
         <v>44182</v>
       </c>
@@ -8872,7 +8872,7 @@
         <v>30198.23</v>
       </c>
     </row>
-    <row r="721" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="721" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A721" s="2">
         <v>44183</v>
       </c>
@@ -8883,7 +8883,7 @@
         <v>30200.44</v>
       </c>
     </row>
-    <row r="722" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="722" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A722" s="2">
         <v>44184</v>
       </c>
@@ -8894,7 +8894,7 @@
         <v>30202.66</v>
       </c>
     </row>
-    <row r="723" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="723" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A723" s="2">
         <v>44185</v>
       </c>
@@ -8905,7 +8905,7 @@
         <v>30204.880000000001</v>
       </c>
     </row>
-    <row r="724" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="724" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A724" s="2">
         <v>44186</v>
       </c>
@@ -8916,7 +8916,7 @@
         <v>30207.1</v>
       </c>
     </row>
-    <row r="725" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="725" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A725" s="2">
         <v>44187</v>
       </c>
@@ -8927,7 +8927,7 @@
         <v>30209.31</v>
       </c>
     </row>
-    <row r="726" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="726" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A726" s="2">
         <v>44188</v>
       </c>
@@ -8938,7 +8938,7 @@
         <v>30211.53</v>
       </c>
     </row>
-    <row r="727" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="727" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A727" s="2">
         <v>44189</v>
       </c>
@@ -8949,7 +8949,7 @@
         <v>30213.75</v>
       </c>
     </row>
-    <row r="728" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="728" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A728" s="2">
         <v>44190</v>
       </c>
@@ -8960,7 +8960,7 @@
         <v>30215.97</v>
       </c>
     </row>
-    <row r="729" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="729" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A729" s="2">
         <v>44191</v>
       </c>
@@ -8971,7 +8971,7 @@
         <v>30218.19</v>
       </c>
     </row>
-    <row r="730" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="730" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A730" s="2">
         <v>44192</v>
       </c>
@@ -8982,7 +8982,7 @@
         <v>30220.41</v>
       </c>
     </row>
-    <row r="731" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="731" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A731" s="2">
         <v>44193</v>
       </c>
@@ -8993,7 +8993,7 @@
         <v>30222.63</v>
       </c>
     </row>
-    <row r="732" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="732" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A732" s="2">
         <v>44194</v>
       </c>
@@ -9004,7 +9004,7 @@
         <v>30224.85</v>
       </c>
     </row>
-    <row r="733" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="733" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A733" s="2">
         <v>44195</v>
       </c>
@@ -9015,7 +9015,7 @@
         <v>30227.07</v>
       </c>
     </row>
-    <row r="734" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="734" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A734" s="2">
         <v>44196</v>
       </c>
@@ -9026,7 +9026,7 @@
         <v>30229.29</v>
       </c>
     </row>
-    <row r="735" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="735" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A735" s="2">
         <v>44197</v>
       </c>
@@ -9037,7 +9037,7 @@
         <v>30231.51</v>
       </c>
     </row>
-    <row r="736" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="736" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A736" s="2">
         <v>44198</v>
       </c>
@@ -9048,7 +9048,7 @@
         <v>30233.73</v>
       </c>
     </row>
-    <row r="737" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="737" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A737" s="2">
         <v>44199</v>
       </c>
@@ -9059,7 +9059,7 @@
         <v>30235.95</v>
       </c>
     </row>
-    <row r="738" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="738" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A738" s="2">
         <v>44200</v>
       </c>
@@ -9070,7 +9070,7 @@
         <v>30238.17</v>
       </c>
     </row>
-    <row r="739" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="739" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A739" s="2">
         <v>44201</v>
       </c>
@@ -9081,7 +9081,7 @@
         <v>30240.39</v>
       </c>
     </row>
-    <row r="740" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="740" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A740" s="2">
         <v>44202</v>
       </c>
@@ -9092,7 +9092,7 @@
         <v>30242.61</v>
       </c>
     </row>
-    <row r="741" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="741" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A741" s="2">
         <v>44203</v>
       </c>
@@ -9103,7 +9103,7 @@
         <v>30244.83</v>
       </c>
     </row>
-    <row r="742" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="742" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A742" s="2">
         <v>44204</v>
       </c>
@@ -9114,7 +9114,7 @@
         <v>30247.05</v>
       </c>
     </row>
-    <row r="743" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="743" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A743" s="2">
         <v>44205</v>
       </c>
@@ -9125,7 +9125,7 @@
         <v>30249.27</v>
       </c>
     </row>
-    <row r="744" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="744" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A744" s="2">
         <v>44206</v>
       </c>
@@ -9136,7 +9136,7 @@
         <v>30252.14</v>
       </c>
     </row>
-    <row r="745" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="745" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A745" s="2">
         <v>44207</v>
       </c>
@@ -9147,7 +9147,7 @@
         <v>30255.02</v>
       </c>
     </row>
-    <row r="746" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="746" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A746" s="2">
         <v>44208</v>
       </c>
@@ -9158,7 +9158,7 @@
         <v>30257.89</v>
       </c>
     </row>
-    <row r="747" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="747" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A747" s="2">
         <v>44209</v>
       </c>
@@ -9169,7 +9169,7 @@
         <v>30260.77</v>
       </c>
     </row>
-    <row r="748" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="748" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A748" s="2">
         <v>44210</v>
       </c>
@@ -9180,7 +9180,7 @@
         <v>30263.64</v>
       </c>
     </row>
-    <row r="749" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="749" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A749" s="2">
         <v>44211</v>
       </c>
@@ -9191,7 +9191,7 @@
         <v>30266.52</v>
       </c>
     </row>
-    <row r="750" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="750" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A750" s="2">
         <v>44212</v>
       </c>
@@ -9202,7 +9202,7 @@
         <v>30269.4</v>
       </c>
     </row>
-    <row r="751" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="751" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A751" s="2">
         <v>44213</v>
       </c>
@@ -9213,7 +9213,7 @@
         <v>30272.27</v>
       </c>
     </row>
-    <row r="752" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="752" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A752" s="2">
         <v>44214</v>
       </c>
@@ -9224,7 +9224,7 @@
         <v>30275.15</v>
       </c>
     </row>
-    <row r="753" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="753" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A753" s="2">
         <v>44215</v>
       </c>
@@ -9235,7 +9235,7 @@
         <v>30278.03</v>
       </c>
     </row>
-    <row r="754" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="754" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A754" s="2">
         <v>44216</v>
       </c>
@@ -9246,7 +9246,7 @@
         <v>30280.9</v>
       </c>
     </row>
-    <row r="755" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="755" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A755" s="2">
         <v>44217</v>
       </c>
@@ -9257,7 +9257,7 @@
         <v>30283.78</v>
       </c>
     </row>
-    <row r="756" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="756" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A756" s="2">
         <v>44218</v>
       </c>
@@ -9268,7 +9268,7 @@
         <v>30286.66</v>
       </c>
     </row>
-    <row r="757" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="757" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A757" s="2">
         <v>44219</v>
       </c>
@@ -9279,7 +9279,7 @@
         <v>30289.54</v>
       </c>
     </row>
-    <row r="758" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="758" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A758" s="2">
         <v>44220</v>
       </c>
@@ -9290,7 +9290,7 @@
         <v>30292.42</v>
       </c>
     </row>
-    <row r="759" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="759" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A759" s="2">
         <v>44221</v>
       </c>
@@ -9301,7 +9301,7 @@
         <v>30295.29</v>
       </c>
     </row>
-    <row r="760" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="760" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A760" s="2">
         <v>44222</v>
       </c>
@@ -9312,7 +9312,7 @@
         <v>30298.17</v>
       </c>
     </row>
-    <row r="761" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="761" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A761" s="2">
         <v>44223</v>
       </c>
@@ -9323,7 +9323,7 @@
         <v>30301.05</v>
       </c>
     </row>
-    <row r="762" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="762" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A762" s="2">
         <v>44224</v>
       </c>
@@ -9334,7 +9334,7 @@
         <v>30303.93</v>
       </c>
     </row>
-    <row r="763" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="763" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A763" s="2">
         <v>44225</v>
       </c>
@@ -9345,7 +9345,7 @@
         <v>30306.81</v>
       </c>
     </row>
-    <row r="764" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="764" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A764" s="2">
         <v>44226</v>
       </c>
@@ -9356,7 +9356,7 @@
         <v>30309.69</v>
       </c>
     </row>
-    <row r="765" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="765" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A765" s="2">
         <v>44227</v>
       </c>
@@ -9367,7 +9367,7 @@
         <v>30312.57</v>
       </c>
     </row>
-    <row r="766" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="766" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A766" s="2">
         <v>44228</v>
       </c>
@@ -9378,7 +9378,7 @@
         <v>30315.45</v>
       </c>
     </row>
-    <row r="767" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="767" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A767" s="2">
         <v>44229</v>
       </c>
@@ -9389,7 +9389,7 @@
         <v>30318.33</v>
       </c>
     </row>
-    <row r="768" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="768" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A768" s="2">
         <v>44230</v>
       </c>
@@ -9400,7 +9400,7 @@
         <v>30321.21</v>
       </c>
     </row>
-    <row r="769" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="769" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A769" s="2">
         <v>44231</v>
       </c>
@@ -9411,7 +9411,7 @@
         <v>30324.09</v>
       </c>
     </row>
-    <row r="770" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="770" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A770" s="2">
         <v>44232</v>
       </c>
@@ -9422,7 +9422,7 @@
         <v>30326.98</v>
       </c>
     </row>
-    <row r="771" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="771" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A771" s="2">
         <v>44233</v>
       </c>
@@ -9433,7 +9433,7 @@
         <v>30329.86</v>
       </c>
     </row>
-    <row r="772" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="772" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A772" s="2">
         <v>44234</v>
       </c>
@@ -9444,7 +9444,7 @@
         <v>30332.74</v>
       </c>
     </row>
-    <row r="773" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="773" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A773" s="2">
         <v>44235</v>
       </c>
@@ -9455,7 +9455,7 @@
         <v>30335.62</v>
       </c>
     </row>
-    <row r="774" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="774" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A774" s="2">
         <v>44236</v>
       </c>
@@ -9466,7 +9466,7 @@
         <v>30338.5</v>
       </c>
     </row>
-    <row r="775" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="775" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A775" s="2">
         <v>44237</v>
       </c>
@@ -9477,7 +9477,7 @@
         <v>30342.38</v>
       </c>
     </row>
-    <row r="776" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="776" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A776" s="2">
         <v>44238</v>
       </c>
@@ -9488,7 +9488,7 @@
         <v>30346.26</v>
       </c>
     </row>
-    <row r="777" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="777" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A777" s="2">
         <v>44239</v>
       </c>
@@ -9499,7 +9499,7 @@
         <v>30350.14</v>
       </c>
     </row>
-    <row r="778" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="778" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A778" s="2">
         <v>44240</v>
       </c>
@@ -9510,7 +9510,7 @@
         <v>30354.02</v>
       </c>
     </row>
-    <row r="779" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="779" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A779" s="2">
         <v>44241</v>
       </c>
@@ -9521,7 +9521,7 @@
         <v>30357.91</v>
       </c>
     </row>
-    <row r="780" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="780" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A780" s="2">
         <v>44242</v>
       </c>
@@ -9532,7 +9532,7 @@
         <v>30361.79</v>
       </c>
     </row>
-    <row r="781" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="781" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A781" s="2">
         <v>44243</v>
       </c>
@@ -9543,7 +9543,7 @@
         <v>30365.67</v>
       </c>
     </row>
-    <row r="782" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="782" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A782" s="2">
         <v>44244</v>
       </c>
@@ -9554,7 +9554,7 @@
         <v>30369.56</v>
       </c>
     </row>
-    <row r="783" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="783" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A783" s="2">
         <v>44245</v>
       </c>
@@ -9565,7 +9565,7 @@
         <v>30373.439999999999</v>
       </c>
     </row>
-    <row r="784" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="784" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A784" s="2">
         <v>44246</v>
       </c>
@@ -9576,7 +9576,7 @@
         <v>30377.33</v>
       </c>
     </row>
-    <row r="785" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="785" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A785" s="2">
         <v>44247</v>
       </c>
@@ -9587,7 +9587,7 @@
         <v>30381.21</v>
       </c>
     </row>
-    <row r="786" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="786" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A786" s="2">
         <v>44248</v>
       </c>
@@ -9598,7 +9598,7 @@
         <v>30385.1</v>
       </c>
     </row>
-    <row r="787" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="787" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A787" s="2">
         <v>44249</v>
       </c>
@@ -9609,7 +9609,7 @@
         <v>30388.98</v>
       </c>
     </row>
-    <row r="788" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="788" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A788" s="2">
         <v>44250</v>
       </c>
@@ -9620,7 +9620,7 @@
         <v>30392.87</v>
       </c>
     </row>
-    <row r="789" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="789" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A789" s="2">
         <v>44251</v>
       </c>
@@ -9631,7 +9631,7 @@
         <v>30396.76</v>
       </c>
     </row>
-    <row r="790" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="790" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A790" s="2">
         <v>44252</v>
       </c>
@@ -9642,7 +9642,7 @@
         <v>30400.65</v>
       </c>
     </row>
-    <row r="791" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="791" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A791" s="2">
         <v>44253</v>
       </c>
@@ -9653,7 +9653,7 @@
         <v>30404.53</v>
       </c>
     </row>
-    <row r="792" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="792" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A792" s="2">
         <v>44254</v>
       </c>
@@ -9664,7 +9664,7 @@
         <v>30408.42</v>
       </c>
     </row>
-    <row r="793" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="793" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A793" s="2">
         <v>44255</v>
       </c>
@@ -9675,7 +9675,7 @@
         <v>30412.31</v>
       </c>
     </row>
-    <row r="794" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="794" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A794" s="2">
         <v>44256</v>
       </c>
@@ -9686,7 +9686,7 @@
         <v>30416.2</v>
       </c>
     </row>
-    <row r="795" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="795" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A795" s="2">
         <v>44257</v>
       </c>
@@ -9697,7 +9697,7 @@
         <v>30420.09</v>
       </c>
     </row>
-    <row r="796" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="796" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A796" s="2">
         <v>44258</v>
       </c>
@@ -9708,7 +9708,7 @@
         <v>30423.98</v>
       </c>
     </row>
-    <row r="797" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="797" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A797" s="2">
         <v>44259</v>
       </c>
@@ -9719,7 +9719,7 @@
         <v>30427.87</v>
       </c>
     </row>
-    <row r="798" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="798" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A798" s="2">
         <v>44260</v>
       </c>
@@ -9730,7 +9730,7 @@
         <v>30431.77</v>
       </c>
     </row>
-    <row r="799" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="799" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A799" s="2">
         <v>44261</v>
       </c>
@@ -9741,7 +9741,7 @@
         <v>30435.66</v>
       </c>
     </row>
-    <row r="800" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="800" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A800" s="2">
         <v>44262</v>
       </c>
@@ -9752,7 +9752,7 @@
         <v>30439.55</v>
       </c>
     </row>
-    <row r="801" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="801" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A801" s="2">
         <v>44263</v>
       </c>
@@ -9763,7 +9763,7 @@
         <v>30443.45</v>
       </c>
     </row>
-    <row r="802" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="802" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A802" s="2">
         <v>44264</v>
       </c>
@@ -9774,7 +9774,7 @@
         <v>30447.34</v>
       </c>
     </row>
-    <row r="803" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="803" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A803" s="2">
         <v>44265</v>
       </c>
@@ -9785,7 +9785,7 @@
         <v>30451.39</v>
       </c>
     </row>
-    <row r="804" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="804" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A804" s="2">
         <v>44266</v>
       </c>
@@ -9796,7 +9796,7 @@
         <v>30455.439999999999</v>
       </c>
     </row>
-    <row r="805" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="805" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A805" s="2">
         <v>44267</v>
       </c>
@@ -9807,7 +9807,7 @@
         <v>30459.48</v>
       </c>
     </row>
-    <row r="806" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="806" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A806" s="2">
         <v>44268</v>
       </c>
@@ -9818,7 +9818,7 @@
         <v>30463.53</v>
       </c>
     </row>
-    <row r="807" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="807" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A807" s="2">
         <v>44269</v>
       </c>
@@ -9829,7 +9829,7 @@
         <v>30467.58</v>
       </c>
     </row>
-    <row r="808" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="808" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A808" s="2">
         <v>44270</v>
       </c>
@@ -9840,7 +9840,7 @@
         <v>30471.63</v>
       </c>
     </row>
-    <row r="809" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="809" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A809" s="2">
         <v>44271</v>
       </c>
@@ -9851,7 +9851,7 @@
         <v>30475.68</v>
       </c>
     </row>
-    <row r="810" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="810" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A810" s="2">
         <v>44272</v>
       </c>
@@ -9862,7 +9862,7 @@
         <v>30479.73</v>
       </c>
     </row>
-    <row r="811" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="811" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A811" s="2">
         <v>44273</v>
       </c>
@@ -9873,7 +9873,7 @@
         <v>30483.79</v>
       </c>
     </row>
-    <row r="812" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="812" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A812" s="2">
         <v>44274</v>
       </c>
@@ -9884,7 +9884,7 @@
         <v>30487.84</v>
       </c>
     </row>
-    <row r="813" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="813" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A813" s="2">
         <v>44275</v>
       </c>
@@ -9895,7 +9895,7 @@
         <v>30491.89</v>
       </c>
     </row>
-    <row r="814" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="814" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A814" s="2">
         <v>44276</v>
       </c>
@@ -9906,7 +9906,7 @@
         <v>30495.94</v>
       </c>
     </row>
-    <row r="815" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="815" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A815" s="2">
         <v>44277</v>
       </c>
@@ -9917,7 +9917,7 @@
         <v>30500</v>
       </c>
     </row>
-    <row r="816" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="816" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A816" s="2">
         <v>44278</v>
       </c>
@@ -9928,7 +9928,7 @@
         <v>30504.05</v>
       </c>
     </row>
-    <row r="817" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="817" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A817" s="2">
         <v>44279</v>
       </c>
@@ -9939,7 +9939,7 @@
         <v>30508.11</v>
       </c>
     </row>
-    <row r="818" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="818" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A818" s="2">
         <v>44280</v>
       </c>
@@ -9950,7 +9950,7 @@
         <v>30512.16</v>
       </c>
     </row>
-    <row r="819" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="819" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A819" s="2">
         <v>44281</v>
       </c>
@@ -9961,7 +9961,7 @@
         <v>30516.22</v>
       </c>
     </row>
-    <row r="820" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="820" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A820" s="2">
         <v>44282</v>
       </c>
@@ -9972,7 +9972,7 @@
         <v>30520.28</v>
       </c>
     </row>
-    <row r="821" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="821" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A821" s="2">
         <v>44283</v>
       </c>
@@ -9983,7 +9983,7 @@
         <v>30524.33</v>
       </c>
     </row>
-    <row r="822" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="822" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A822" s="2">
         <v>44284</v>
       </c>
@@ -9994,7 +9994,7 @@
         <v>30528.39</v>
       </c>
     </row>
-    <row r="823" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="823" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A823" s="2">
         <v>44285</v>
       </c>
@@ -10005,7 +10005,7 @@
         <v>30532.45</v>
       </c>
     </row>
-    <row r="824" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="824" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A824" s="2">
         <v>44286</v>
       </c>
@@ -10016,7 +10016,7 @@
         <v>30536.51</v>
       </c>
     </row>
-    <row r="825" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="825" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A825" s="2">
         <v>44287</v>
       </c>
@@ -10027,7 +10027,7 @@
         <v>30540.57</v>
       </c>
     </row>
-    <row r="826" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="826" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A826" s="2">
         <v>44288</v>
       </c>
@@ -10038,7 +10038,7 @@
         <v>30544.63</v>
       </c>
     </row>
-    <row r="827" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="827" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A827" s="2">
         <v>44289</v>
       </c>
@@ -10049,7 +10049,7 @@
         <v>30548.69</v>
       </c>
     </row>
-    <row r="828" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="828" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A828" s="2">
         <v>44290</v>
       </c>
@@ -10060,7 +10060,7 @@
         <v>30552.75</v>
       </c>
     </row>
-    <row r="829" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="829" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A829" s="2">
         <v>44291</v>
       </c>
@@ -10071,7 +10071,7 @@
         <v>30556.81</v>
       </c>
     </row>
-    <row r="830" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="830" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A830" s="2">
         <v>44292</v>
       </c>
@@ -10082,7 +10082,7 @@
         <v>30560.87</v>
       </c>
     </row>
-    <row r="831" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="831" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A831" s="2">
         <v>44293</v>
       </c>
@@ -10093,7 +10093,7 @@
         <v>30564.93</v>
       </c>
     </row>
-    <row r="832" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="832" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A832" s="2">
         <v>44294</v>
       </c>
@@ -10104,7 +10104,7 @@
         <v>30569</v>
       </c>
     </row>
-    <row r="833" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="833" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A833" s="2">
         <v>44295</v>
       </c>
@@ -10115,7 +10115,7 @@
         <v>30573.06</v>
       </c>
     </row>
-    <row r="834" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="834" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A834" s="2">
         <v>44296</v>
       </c>
@@ -10126,7 +10126,7 @@
         <v>30576.66</v>
       </c>
     </row>
-    <row r="835" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="835" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A835" s="2">
         <v>44297</v>
       </c>
@@ -10137,7 +10137,7 @@
         <v>30580.26</v>
       </c>
     </row>
-    <row r="836" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="836" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A836" s="2">
         <v>44298</v>
       </c>
@@ -10148,7 +10148,7 @@
         <v>30583.85</v>
       </c>
     </row>
-    <row r="837" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="837" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A837" s="2">
         <v>44299</v>
       </c>
@@ -10159,7 +10159,7 @@
         <v>30587.45</v>
       </c>
     </row>
-    <row r="838" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="838" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A838" s="2">
         <v>44300</v>
       </c>
@@ -10170,7 +10170,7 @@
         <v>30591.05</v>
       </c>
     </row>
-    <row r="839" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="839" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A839" s="2">
         <v>44301</v>
       </c>
@@ -10181,7 +10181,7 @@
         <v>30594.65</v>
       </c>
     </row>
-    <row r="840" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="840" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A840" s="2">
         <v>44302</v>
       </c>
@@ -10192,7 +10192,7 @@
         <v>30598.25</v>
       </c>
     </row>
-    <row r="841" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="841" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A841" s="2">
         <v>44303</v>
       </c>
@@ -10203,7 +10203,7 @@
         <v>30601.85</v>
       </c>
     </row>
-    <row r="842" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="842" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A842" s="2">
         <v>44304</v>
       </c>
@@ -10214,7 +10214,7 @@
         <v>30605.45</v>
       </c>
     </row>
-    <row r="843" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="843" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A843" s="2">
         <v>44305</v>
       </c>
@@ -10225,7 +10225,7 @@
         <v>30609.05</v>
       </c>
     </row>
-    <row r="844" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="844" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A844" s="2">
         <v>44306</v>
       </c>
@@ -10236,7 +10236,7 @@
         <v>30612.65</v>
       </c>
     </row>
-    <row r="845" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="845" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A845" s="2">
         <v>44307</v>
       </c>
@@ -10247,7 +10247,7 @@
         <v>30616.26</v>
       </c>
     </row>
-    <row r="846" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="846" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A846" s="2">
         <v>44308</v>
       </c>
@@ -10258,7 +10258,7 @@
         <v>30619.86</v>
       </c>
     </row>
-    <row r="847" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="847" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A847" s="2">
         <v>44309</v>
       </c>
@@ -10269,7 +10269,7 @@
         <v>30623.46</v>
       </c>
     </row>
-    <row r="848" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="848" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A848" s="2">
         <v>44310</v>
       </c>
@@ -10280,7 +10280,7 @@
         <v>30627.06</v>
       </c>
     </row>
-    <row r="849" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="849" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A849" s="2">
         <v>44311</v>
       </c>
@@ -10291,7 +10291,7 @@
         <v>30630.67</v>
       </c>
     </row>
-    <row r="850" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="850" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A850" s="2">
         <v>44312</v>
       </c>
@@ -10302,7 +10302,7 @@
         <v>30634.27</v>
       </c>
     </row>
-    <row r="851" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="851" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A851" s="2">
         <v>44313</v>
       </c>
@@ -10313,7 +10313,7 @@
         <v>30637.88</v>
       </c>
     </row>
-    <row r="852" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="852" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A852" s="2">
         <v>44314</v>
       </c>
@@ -10324,7 +10324,7 @@
         <v>30641.48</v>
       </c>
     </row>
-    <row r="853" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="853" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A853" s="2">
         <v>44315</v>
       </c>
@@ -10335,7 +10335,7 @@
         <v>30645.09</v>
       </c>
     </row>
-    <row r="854" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="854" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A854" s="2">
         <v>44316</v>
       </c>
@@ -10346,7 +10346,7 @@
         <v>30648.69</v>
       </c>
     </row>
-    <row r="855" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="855" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A855" s="2">
         <v>44317</v>
       </c>
@@ -10357,7 +10357,7 @@
         <v>30652.3</v>
       </c>
     </row>
-    <row r="856" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="856" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A856" s="2">
         <v>44318</v>
       </c>
@@ -10368,7 +10368,7 @@
         <v>30655.91</v>
       </c>
     </row>
-    <row r="857" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="857" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A857" s="2">
         <v>44319</v>
       </c>
@@ -10379,7 +10379,7 @@
         <v>30659.51</v>
       </c>
     </row>
-    <row r="858" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="858" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A858" s="2">
         <v>44320</v>
       </c>
@@ -10390,7 +10390,7 @@
         <v>30663.119999999999</v>
       </c>
     </row>
-    <row r="859" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="859" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A859" s="2">
         <v>44321</v>
       </c>
@@ -10401,7 +10401,7 @@
         <v>30666.73</v>
       </c>
     </row>
-    <row r="860" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="860" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A860" s="2">
         <v>44322</v>
       </c>
@@ -10412,7 +10412,7 @@
         <v>30670.34</v>
       </c>
     </row>
-    <row r="861" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="861" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A861" s="2">
         <v>44323</v>
       </c>
@@ -10423,7 +10423,7 @@
         <v>30673.95</v>
       </c>
     </row>
-    <row r="862" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="862" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A862" s="2">
         <v>44324</v>
       </c>
@@ -10434,7 +10434,7 @@
         <v>30677.56</v>
       </c>
     </row>
-    <row r="863" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="863" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A863" s="2">
         <v>44325</v>
       </c>
@@ -10445,7 +10445,7 @@
         <v>30681.17</v>
       </c>
     </row>
-    <row r="864" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="864" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A864" s="2">
         <v>44326</v>
       </c>
@@ -10456,7 +10456,7 @@
         <v>30684.29</v>
       </c>
     </row>
-    <row r="865" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="865" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A865" s="2">
         <v>44327</v>
       </c>
@@ -10467,7 +10467,7 @@
         <v>30687.41</v>
       </c>
     </row>
-    <row r="866" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="866" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A866" s="2">
         <v>44328</v>
       </c>
@@ -10478,7 +10478,7 @@
         <v>30690.54</v>
       </c>
     </row>
-    <row r="867" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="867" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A867" s="2">
         <v>44329</v>
       </c>
@@ -10489,7 +10489,7 @@
         <v>30693.66</v>
       </c>
     </row>
-    <row r="868" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="868" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A868" s="2">
         <v>44330</v>
       </c>
@@ -10500,7 +10500,7 @@
         <v>30696.78</v>
       </c>
     </row>
-    <row r="869" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="869" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A869" s="2">
         <v>44331</v>
       </c>
@@ -10511,7 +10511,7 @@
         <v>30699.91</v>
       </c>
     </row>
-    <row r="870" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="870" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A870" s="2">
         <v>44332</v>
       </c>
@@ -10522,7 +10522,7 @@
         <v>30703.03</v>
       </c>
     </row>
-    <row r="871" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="871" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A871" s="2">
         <v>44333</v>
       </c>
@@ -10533,7 +10533,7 @@
         <v>30706.16</v>
       </c>
     </row>
-    <row r="872" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="872" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A872" s="2">
         <v>44334</v>
       </c>
@@ -10544,7 +10544,7 @@
         <v>30709.279999999999</v>
       </c>
     </row>
-    <row r="873" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="873" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A873" s="2">
         <v>44335</v>
       </c>
@@ -10555,7 +10555,7 @@
         <v>30712.41</v>
       </c>
     </row>
-    <row r="874" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="874" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A874" s="2">
         <v>44336</v>
       </c>
@@ -10566,7 +10566,7 @@
         <v>30715.53</v>
       </c>
     </row>
-    <row r="875" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="875" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A875" s="2">
         <v>44337</v>
       </c>
@@ -10577,7 +10577,7 @@
         <v>30718.66</v>
       </c>
     </row>
-    <row r="876" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="876" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A876" s="2">
         <v>44338</v>
       </c>
@@ -10588,7 +10588,7 @@
         <v>30721.78</v>
       </c>
     </row>
-    <row r="877" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="877" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A877" s="2">
         <v>44339</v>
       </c>
@@ -10599,7 +10599,7 @@
         <v>30724.91</v>
       </c>
     </row>
-    <row r="878" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="878" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A878" s="2">
         <v>44340</v>
       </c>
@@ -10610,7 +10610,7 @@
         <v>30728.03</v>
       </c>
     </row>
-    <row r="879" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="879" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A879" s="2">
         <v>44341</v>
       </c>
@@ -10621,7 +10621,7 @@
         <v>30731.16</v>
       </c>
     </row>
-    <row r="880" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="880" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A880" s="2">
         <v>44342</v>
       </c>
@@ -10632,7 +10632,7 @@
         <v>30734.29</v>
       </c>
     </row>
-    <row r="881" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="881" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A881" s="2">
         <v>44343</v>
       </c>
@@ -10643,7 +10643,7 @@
         <v>30737.42</v>
       </c>
     </row>
-    <row r="882" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="882" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A882" s="2">
         <v>44344</v>
       </c>
@@ -10654,7 +10654,7 @@
         <v>30740.54</v>
       </c>
     </row>
-    <row r="883" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="883" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A883" s="2">
         <v>44345</v>
       </c>
@@ -10665,7 +10665,7 @@
         <v>30743.67</v>
       </c>
     </row>
-    <row r="884" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="884" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A884" s="2">
         <v>44346</v>
       </c>
@@ -10676,7 +10676,7 @@
         <v>30746.799999999999</v>
       </c>
     </row>
-    <row r="885" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="885" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A885" s="2">
         <v>44347</v>
       </c>
@@ -10687,7 +10687,7 @@
         <v>30749.93</v>
       </c>
     </row>
-    <row r="886" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="886" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A886" s="2">
         <v>44348</v>
       </c>
@@ -10698,7 +10698,7 @@
         <v>30753.06</v>
       </c>
     </row>
-    <row r="887" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="887" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A887" s="2">
         <v>44349</v>
       </c>
@@ -10708,12 +10708,12 @@
       <c r="C887" s="3">
         <v>30756.19</v>
       </c>
-      <c r="E887" s="5"/>
-      <c r="F887" s="5"/>
-      <c r="H887" s="5"/>
-      <c r="I887" s="5"/>
-    </row>
-    <row r="888" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E887" s="4"/>
+      <c r="F887" s="4"/>
+      <c r="H887" s="4"/>
+      <c r="I887" s="4"/>
+    </row>
+    <row r="888" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A888" s="2">
         <v>44350</v>
       </c>
@@ -10724,7 +10724,7 @@
         <v>30759.32</v>
       </c>
     </row>
-    <row r="889" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="889" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A889" s="2">
         <v>44351</v>
       </c>
@@ -10735,7 +10735,7 @@
         <v>30762.45</v>
       </c>
     </row>
-    <row r="890" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="890" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A890" s="2">
         <v>44352</v>
       </c>
@@ -10746,7 +10746,7 @@
         <v>30765.58</v>
       </c>
     </row>
-    <row r="891" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="891" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A891" s="2">
         <v>44353</v>
       </c>
@@ -10757,7 +10757,7 @@
         <v>30768.71</v>
       </c>
     </row>
-    <row r="892" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="892" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A892" s="2">
         <v>44354</v>
       </c>
@@ -10768,7 +10768,7 @@
         <v>30771.84</v>
       </c>
     </row>
-    <row r="893" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="893" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A893" s="2">
         <v>44355</v>
       </c>
@@ -10779,7 +10779,7 @@
         <v>30774.97</v>
       </c>
     </row>
-    <row r="894" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="894" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A894" s="2">
         <v>44356</v>
       </c>
@@ -10788,6 +10788,336 @@
       </c>
       <c r="C894" s="3">
         <v>30778.1</v>
+      </c>
+    </row>
+    <row r="895" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A895" s="2">
+        <v>44357</v>
+      </c>
+      <c r="B895" s="3">
+        <v>29650.560000000001</v>
+      </c>
+      <c r="C895" s="3">
+        <v>30781.89</v>
+      </c>
+    </row>
+    <row r="896" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A896" s="2">
+        <v>44358</v>
+      </c>
+      <c r="B896" s="3">
+        <v>29653.52</v>
+      </c>
+      <c r="C896" s="3">
+        <v>30785.68</v>
+      </c>
+    </row>
+    <row r="897" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A897" s="2">
+        <v>44359</v>
+      </c>
+      <c r="B897" s="3">
+        <v>29656.48</v>
+      </c>
+      <c r="C897" s="3">
+        <v>30789.47</v>
+      </c>
+    </row>
+    <row r="898" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A898" s="2">
+        <v>44360</v>
+      </c>
+      <c r="B898" s="3">
+        <v>29659.439999999999</v>
+      </c>
+      <c r="C898" s="3">
+        <v>30793.26</v>
+      </c>
+    </row>
+    <row r="899" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A899" s="2">
+        <v>44361</v>
+      </c>
+      <c r="B899" s="3">
+        <v>29662.41</v>
+      </c>
+      <c r="C899" s="3">
+        <v>30797.05</v>
+      </c>
+    </row>
+    <row r="900" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A900" s="2">
+        <v>44362</v>
+      </c>
+      <c r="B900" s="3">
+        <v>29665.37</v>
+      </c>
+      <c r="C900" s="3">
+        <v>30800.84</v>
+      </c>
+    </row>
+    <row r="901" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A901" s="2">
+        <v>44363</v>
+      </c>
+      <c r="B901" s="3">
+        <v>29668.33</v>
+      </c>
+      <c r="C901" s="3">
+        <v>30804.63</v>
+      </c>
+    </row>
+    <row r="902" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A902" s="2">
+        <v>44364</v>
+      </c>
+      <c r="B902" s="3">
+        <v>29671.29</v>
+      </c>
+      <c r="C902" s="3">
+        <v>30808.42</v>
+      </c>
+    </row>
+    <row r="903" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A903" s="2">
+        <v>44365</v>
+      </c>
+      <c r="B903" s="3">
+        <v>29674.25</v>
+      </c>
+      <c r="C903" s="3">
+        <v>30812.21</v>
+      </c>
+    </row>
+    <row r="904" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A904" s="2">
+        <v>44366</v>
+      </c>
+      <c r="B904" s="3">
+        <v>29677.22</v>
+      </c>
+      <c r="C904" s="3">
+        <v>30816.01</v>
+      </c>
+    </row>
+    <row r="905" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A905" s="2">
+        <v>44367</v>
+      </c>
+      <c r="B905" s="3">
+        <v>29680.18</v>
+      </c>
+      <c r="C905" s="3">
+        <v>30819.8</v>
+      </c>
+    </row>
+    <row r="906" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A906" s="2">
+        <v>44368</v>
+      </c>
+      <c r="B906" s="3">
+        <v>29683.15</v>
+      </c>
+      <c r="C906" s="3">
+        <v>30823.59</v>
+      </c>
+    </row>
+    <row r="907" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A907" s="2">
+        <v>44369</v>
+      </c>
+      <c r="B907" s="3">
+        <v>29686.11</v>
+      </c>
+      <c r="C907" s="3">
+        <v>30827.39</v>
+      </c>
+    </row>
+    <row r="908" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A908" s="2">
+        <v>44370</v>
+      </c>
+      <c r="B908" s="3">
+        <v>29689.07</v>
+      </c>
+      <c r="C908" s="3">
+        <v>30831.18</v>
+      </c>
+    </row>
+    <row r="909" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A909" s="2">
+        <v>44371</v>
+      </c>
+      <c r="B909" s="3">
+        <v>29692.04</v>
+      </c>
+      <c r="C909" s="3">
+        <v>30834.98</v>
+      </c>
+    </row>
+    <row r="910" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A910" s="2">
+        <v>44372</v>
+      </c>
+      <c r="B910" s="3">
+        <v>29695</v>
+      </c>
+      <c r="C910" s="3">
+        <v>30838.77</v>
+      </c>
+    </row>
+    <row r="911" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A911" s="2">
+        <v>44373</v>
+      </c>
+      <c r="B911" s="3">
+        <v>29697.97</v>
+      </c>
+      <c r="C911" s="3">
+        <v>30842.57</v>
+      </c>
+    </row>
+    <row r="912" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A912" s="2">
+        <v>44374</v>
+      </c>
+      <c r="B912" s="3">
+        <v>29700.93</v>
+      </c>
+      <c r="C912" s="3">
+        <v>30846.37</v>
+      </c>
+    </row>
+    <row r="913" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A913" s="2">
+        <v>44375</v>
+      </c>
+      <c r="B913" s="3">
+        <v>29703.9</v>
+      </c>
+      <c r="C913" s="3">
+        <v>30850.16</v>
+      </c>
+    </row>
+    <row r="914" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A914" s="2">
+        <v>44376</v>
+      </c>
+      <c r="B914" s="3">
+        <v>29706.87</v>
+      </c>
+      <c r="C914" s="3">
+        <v>30853.96</v>
+      </c>
+    </row>
+    <row r="915" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A915" s="2">
+        <v>44377</v>
+      </c>
+      <c r="B915" s="3">
+        <v>29709.83</v>
+      </c>
+      <c r="C915" s="3">
+        <v>30857.759999999998</v>
+      </c>
+    </row>
+    <row r="916" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A916" s="2">
+        <v>44378</v>
+      </c>
+      <c r="B916" s="3">
+        <v>29712.799999999999</v>
+      </c>
+      <c r="C916" s="3">
+        <v>30861.56</v>
+      </c>
+    </row>
+    <row r="917" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A917" s="2">
+        <v>44379</v>
+      </c>
+      <c r="B917" s="3">
+        <v>29715.77</v>
+      </c>
+      <c r="C917" s="3">
+        <v>30865.360000000001</v>
+      </c>
+    </row>
+    <row r="918" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A918" s="2">
+        <v>44380</v>
+      </c>
+      <c r="B918" s="3">
+        <v>29718.73</v>
+      </c>
+      <c r="C918" s="3">
+        <v>30869.16</v>
+      </c>
+    </row>
+    <row r="919" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A919" s="2">
+        <v>44381</v>
+      </c>
+      <c r="B919" s="3">
+        <v>29721.7</v>
+      </c>
+      <c r="C919" s="3">
+        <v>30872.959999999999</v>
+      </c>
+    </row>
+    <row r="920" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A920" s="2">
+        <v>44382</v>
+      </c>
+      <c r="B920" s="3">
+        <v>29724.67</v>
+      </c>
+      <c r="C920" s="3">
+        <v>30876.76</v>
+      </c>
+    </row>
+    <row r="921" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A921" s="2">
+        <v>44383</v>
+      </c>
+      <c r="B921" s="3">
+        <v>29727.64</v>
+      </c>
+      <c r="C921" s="3">
+        <v>30880.560000000001</v>
+      </c>
+    </row>
+    <row r="922" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A922" s="2">
+        <v>44384</v>
+      </c>
+      <c r="B922" s="3">
+        <v>29730.6</v>
+      </c>
+      <c r="C922" s="3">
+        <v>30884.36</v>
+      </c>
+    </row>
+    <row r="923" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A923" s="2">
+        <v>44385</v>
+      </c>
+      <c r="B923" s="3">
+        <v>29733.57</v>
+      </c>
+      <c r="C923" s="3">
+        <v>30888.16</v>
+      </c>
+    </row>
+    <row r="924" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A924" s="2">
+        <v>44386</v>
+      </c>
+      <c r="B924" s="3">
+        <v>29736.54</v>
+      </c>
+      <c r="C924" s="3">
+        <v>30891.96</v>
       </c>
     </row>
   </sheetData>

--- a/datacovidChile/IndicadoresEconomicos/UF_IVP_DIARIO.xlsx
+++ b/datacovidChile/IndicadoresEconomicos/UF_IVP_DIARIO.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9f999e057ad8c646/CORONA VIRUS/DATACOVID CL/IndicadoresEconomicos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="53" documentId="8_{09248BB8-9CE4-4580-84DA-AF69B8E47965}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5DFB9E9F-AE63-42A8-8224-EDECE0546985}"/>
+  <xr:revisionPtr revIDLastSave="55" documentId="8_{09248BB8-9CE4-4580-84DA-AF69B8E47965}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{870036D5-6E1D-485D-BF48-642EFC94143E}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="UF_IVP_DIARIO" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="UF_IVP_DIARIO" localSheetId="0">UF_IVP_DIARIO!$A$1:$C$924</definedName>
+    <definedName name="UF_IVP_DIARIO" localSheetId="0">UF_IVP_DIARIO!$A$1:$C$955</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -940,20 +940,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I924"/>
+  <dimension ref="A1:I955"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B924" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B955" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
       <selection pane="topRight" activeCell="B2" sqref="B2"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="B925" sqref="B925"/>
+      <selection pane="bottomRight" activeCell="B956" sqref="B956"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
   </cols>
@@ -965,7 +966,7 @@
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
     </row>
-    <row r="2" spans="1:3" ht="51" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
@@ -11118,6 +11119,347 @@
       </c>
       <c r="C924" s="3">
         <v>30891.96</v>
+      </c>
+    </row>
+    <row r="925" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A925" s="2">
+        <v>44387</v>
+      </c>
+      <c r="B925" s="3">
+        <v>29737.5</v>
+      </c>
+      <c r="C925" s="3">
+        <v>30895.35</v>
+      </c>
+    </row>
+    <row r="926" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A926" s="2">
+        <v>44388</v>
+      </c>
+      <c r="B926" s="3">
+        <v>29738.46</v>
+      </c>
+      <c r="C926" s="3">
+        <v>30898.74</v>
+      </c>
+    </row>
+    <row r="927" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A927" s="2">
+        <v>44389</v>
+      </c>
+      <c r="B927" s="3">
+        <v>29739.42</v>
+      </c>
+      <c r="C927" s="3">
+        <v>30902.13</v>
+      </c>
+    </row>
+    <row r="928" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A928" s="2">
+        <v>44390</v>
+      </c>
+      <c r="B928" s="3">
+        <v>29740.38</v>
+      </c>
+      <c r="C928" s="3">
+        <v>30905.51</v>
+      </c>
+    </row>
+    <row r="929" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A929" s="2">
+        <v>44391</v>
+      </c>
+      <c r="B929" s="3">
+        <v>29741.33</v>
+      </c>
+      <c r="C929" s="3">
+        <v>30908.9</v>
+      </c>
+    </row>
+    <row r="930" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A930" s="2">
+        <v>44392</v>
+      </c>
+      <c r="B930" s="3">
+        <v>29742.29</v>
+      </c>
+      <c r="C930" s="3">
+        <v>30912.29</v>
+      </c>
+    </row>
+    <row r="931" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A931" s="2">
+        <v>44393</v>
+      </c>
+      <c r="B931" s="3">
+        <v>29743.25</v>
+      </c>
+      <c r="C931" s="3">
+        <v>30915.68</v>
+      </c>
+    </row>
+    <row r="932" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A932" s="2">
+        <v>44394</v>
+      </c>
+      <c r="B932" s="3">
+        <v>29744.21</v>
+      </c>
+      <c r="C932" s="3">
+        <v>30919.08</v>
+      </c>
+    </row>
+    <row r="933" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A933" s="2">
+        <v>44395</v>
+      </c>
+      <c r="B933" s="3">
+        <v>29745.17</v>
+      </c>
+      <c r="C933" s="3">
+        <v>30922.47</v>
+      </c>
+    </row>
+    <row r="934" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A934" s="2">
+        <v>44396</v>
+      </c>
+      <c r="B934" s="3">
+        <v>29746.13</v>
+      </c>
+      <c r="C934" s="3">
+        <v>30925.86</v>
+      </c>
+    </row>
+    <row r="935" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A935" s="2">
+        <v>44397</v>
+      </c>
+      <c r="B935" s="3">
+        <v>29747.09</v>
+      </c>
+      <c r="C935" s="3">
+        <v>30929.25</v>
+      </c>
+    </row>
+    <row r="936" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A936" s="2">
+        <v>44398</v>
+      </c>
+      <c r="B936" s="3">
+        <v>29748.05</v>
+      </c>
+      <c r="C936" s="3">
+        <v>30932.639999999999</v>
+      </c>
+    </row>
+    <row r="937" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A937" s="2">
+        <v>44399</v>
+      </c>
+      <c r="B937" s="3">
+        <v>29749.01</v>
+      </c>
+      <c r="C937" s="3">
+        <v>30936.03</v>
+      </c>
+    </row>
+    <row r="938" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A938" s="2">
+        <v>44400</v>
+      </c>
+      <c r="B938" s="3">
+        <v>29749.97</v>
+      </c>
+      <c r="C938" s="3">
+        <v>30939.43</v>
+      </c>
+    </row>
+    <row r="939" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A939" s="2">
+        <v>44401</v>
+      </c>
+      <c r="B939" s="3">
+        <v>29750.92</v>
+      </c>
+      <c r="C939" s="3">
+        <v>30942.82</v>
+      </c>
+    </row>
+    <row r="940" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A940" s="2">
+        <v>44402</v>
+      </c>
+      <c r="B940" s="3">
+        <v>29751.88</v>
+      </c>
+      <c r="C940" s="3">
+        <v>30946.21</v>
+      </c>
+    </row>
+    <row r="941" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A941" s="2">
+        <v>44403</v>
+      </c>
+      <c r="B941" s="3">
+        <v>29752.84</v>
+      </c>
+      <c r="C941" s="3">
+        <v>30949.61</v>
+      </c>
+    </row>
+    <row r="942" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A942" s="2">
+        <v>44404</v>
+      </c>
+      <c r="B942" s="3">
+        <v>29753.8</v>
+      </c>
+      <c r="C942" s="3">
+        <v>30953</v>
+      </c>
+    </row>
+    <row r="943" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A943" s="2">
+        <v>44405</v>
+      </c>
+      <c r="B943" s="3">
+        <v>29754.76</v>
+      </c>
+      <c r="C943" s="3">
+        <v>30956.400000000001</v>
+      </c>
+    </row>
+    <row r="944" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A944" s="2">
+        <v>44406</v>
+      </c>
+      <c r="B944" s="3">
+        <v>29755.72</v>
+      </c>
+      <c r="C944" s="3">
+        <v>30959.79</v>
+      </c>
+    </row>
+    <row r="945" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A945" s="2">
+        <v>44407</v>
+      </c>
+      <c r="B945" s="3">
+        <v>29756.68</v>
+      </c>
+      <c r="C945" s="3">
+        <v>30963.19</v>
+      </c>
+    </row>
+    <row r="946" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A946" s="2">
+        <v>44408</v>
+      </c>
+      <c r="B946" s="3">
+        <v>29757.64</v>
+      </c>
+      <c r="C946" s="3">
+        <v>30966.58</v>
+      </c>
+    </row>
+    <row r="947" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A947" s="2">
+        <v>44409</v>
+      </c>
+      <c r="B947" s="3">
+        <v>29758.6</v>
+      </c>
+      <c r="C947" s="3">
+        <v>30969.98</v>
+      </c>
+    </row>
+    <row r="948" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A948" s="2">
+        <v>44410</v>
+      </c>
+      <c r="B948" s="3">
+        <v>29759.56</v>
+      </c>
+      <c r="C948" s="3">
+        <v>30973.38</v>
+      </c>
+    </row>
+    <row r="949" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A949" s="2">
+        <v>44411</v>
+      </c>
+      <c r="B949" s="3">
+        <v>29760.52</v>
+      </c>
+      <c r="C949" s="3">
+        <v>30976.77</v>
+      </c>
+    </row>
+    <row r="950" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A950" s="2">
+        <v>44412</v>
+      </c>
+      <c r="B950" s="3">
+        <v>29761.48</v>
+      </c>
+      <c r="C950" s="3">
+        <v>30980.17</v>
+      </c>
+    </row>
+    <row r="951" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A951" s="2">
+        <v>44413</v>
+      </c>
+      <c r="B951" s="3">
+        <v>29762.44</v>
+      </c>
+      <c r="C951" s="3">
+        <v>30983.57</v>
+      </c>
+    </row>
+    <row r="952" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A952" s="2">
+        <v>44414</v>
+      </c>
+      <c r="B952" s="3">
+        <v>29763.4</v>
+      </c>
+      <c r="C952" s="3">
+        <v>30986.97</v>
+      </c>
+    </row>
+    <row r="953" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A953" s="2">
+        <v>44415</v>
+      </c>
+      <c r="B953" s="3">
+        <v>29764.36</v>
+      </c>
+      <c r="C953" s="3">
+        <v>30990.37</v>
+      </c>
+    </row>
+    <row r="954" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A954" s="2">
+        <v>44416</v>
+      </c>
+      <c r="B954" s="3">
+        <v>29765.32</v>
+      </c>
+      <c r="C954" s="3">
+        <v>30993.77</v>
+      </c>
+    </row>
+    <row r="955" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A955" s="2">
+        <v>44417</v>
+      </c>
+      <c r="B955" s="3">
+        <v>29766.28</v>
+      </c>
+      <c r="C955" s="3">
+        <v>30997.16</v>
       </c>
     </row>
   </sheetData>

--- a/datacovidChile/IndicadoresEconomicos/UF_IVP_DIARIO.xlsx
+++ b/datacovidChile/IndicadoresEconomicos/UF_IVP_DIARIO.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9f999e057ad8c646/CORONA VIRUS/DATACOVID CL/IndicadoresEconomicos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="55" documentId="8_{09248BB8-9CE4-4580-84DA-AF69B8E47965}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{870036D5-6E1D-485D-BF48-642EFC94143E}"/>
+  <xr:revisionPtr revIDLastSave="57" documentId="8_{09248BB8-9CE4-4580-84DA-AF69B8E47965}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F044581B-F301-4F07-A83D-BE2C0C625C4D}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="UF_IVP_DIARIO" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="UF_IVP_DIARIO" localSheetId="0">UF_IVP_DIARIO!$A$1:$C$955</definedName>
+    <definedName name="UF_IVP_DIARIO" localSheetId="0">UF_IVP_DIARIO!$A$1:$C$986</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -940,14 +940,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I955"/>
+  <dimension ref="A1:I986"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B955" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B984" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
       <selection pane="topRight" activeCell="B2" sqref="B2"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="B956" sqref="B956"/>
+      <selection pane="bottomRight" activeCell="B987" sqref="B987"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11462,6 +11462,347 @@
         <v>30997.16</v>
       </c>
     </row>
+    <row r="956" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A956" s="2">
+        <v>44418</v>
+      </c>
+      <c r="B956" s="3">
+        <v>29773.93</v>
+      </c>
+      <c r="C956" s="3">
+        <v>31000.74</v>
+      </c>
+    </row>
+    <row r="957" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A957" s="2">
+        <v>44419</v>
+      </c>
+      <c r="B957" s="3">
+        <v>29781.59</v>
+      </c>
+      <c r="C957" s="3">
+        <v>31004.32</v>
+      </c>
+    </row>
+    <row r="958" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A958" s="2">
+        <v>44420</v>
+      </c>
+      <c r="B958" s="3">
+        <v>29789.24</v>
+      </c>
+      <c r="C958" s="3">
+        <v>31007.9</v>
+      </c>
+    </row>
+    <row r="959" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A959" s="2">
+        <v>44421</v>
+      </c>
+      <c r="B959" s="3">
+        <v>29796.9</v>
+      </c>
+      <c r="C959" s="3">
+        <v>31011.48</v>
+      </c>
+    </row>
+    <row r="960" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A960" s="2">
+        <v>44422</v>
+      </c>
+      <c r="B960" s="3">
+        <v>29804.560000000001</v>
+      </c>
+      <c r="C960" s="3">
+        <v>31015.06</v>
+      </c>
+    </row>
+    <row r="961" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A961" s="2">
+        <v>44423</v>
+      </c>
+      <c r="B961" s="3">
+        <v>29812.22</v>
+      </c>
+      <c r="C961" s="3">
+        <v>31018.639999999999</v>
+      </c>
+    </row>
+    <row r="962" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A962" s="2">
+        <v>44424</v>
+      </c>
+      <c r="B962" s="3">
+        <v>29819.89</v>
+      </c>
+      <c r="C962" s="3">
+        <v>31022.22</v>
+      </c>
+    </row>
+    <row r="963" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A963" s="2">
+        <v>44425</v>
+      </c>
+      <c r="B963" s="3">
+        <v>29827.55</v>
+      </c>
+      <c r="C963" s="3">
+        <v>31025.8</v>
+      </c>
+    </row>
+    <row r="964" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A964" s="2">
+        <v>44426</v>
+      </c>
+      <c r="B964" s="3">
+        <v>29835.22</v>
+      </c>
+      <c r="C964" s="3">
+        <v>31029.39</v>
+      </c>
+    </row>
+    <row r="965" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A965" s="2">
+        <v>44427</v>
+      </c>
+      <c r="B965" s="3">
+        <v>29842.89</v>
+      </c>
+      <c r="C965" s="3">
+        <v>31032.97</v>
+      </c>
+    </row>
+    <row r="966" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A966" s="2">
+        <v>44428</v>
+      </c>
+      <c r="B966" s="3">
+        <v>29850.560000000001</v>
+      </c>
+      <c r="C966" s="3">
+        <v>31036.55</v>
+      </c>
+    </row>
+    <row r="967" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A967" s="2">
+        <v>44429</v>
+      </c>
+      <c r="B967" s="3">
+        <v>29858.23</v>
+      </c>
+      <c r="C967" s="3">
+        <v>31040.14</v>
+      </c>
+    </row>
+    <row r="968" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A968" s="2">
+        <v>44430</v>
+      </c>
+      <c r="B968" s="3">
+        <v>29865.91</v>
+      </c>
+      <c r="C968" s="3">
+        <v>31043.72</v>
+      </c>
+    </row>
+    <row r="969" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A969" s="2">
+        <v>44431</v>
+      </c>
+      <c r="B969" s="3">
+        <v>29873.59</v>
+      </c>
+      <c r="C969" s="3">
+        <v>31047.31</v>
+      </c>
+    </row>
+    <row r="970" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A970" s="2">
+        <v>44432</v>
+      </c>
+      <c r="B970" s="3">
+        <v>29881.27</v>
+      </c>
+      <c r="C970" s="3">
+        <v>31050.89</v>
+      </c>
+    </row>
+    <row r="971" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A971" s="2">
+        <v>44433</v>
+      </c>
+      <c r="B971" s="3">
+        <v>29888.95</v>
+      </c>
+      <c r="C971" s="3">
+        <v>31054.48</v>
+      </c>
+    </row>
+    <row r="972" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A972" s="2">
+        <v>44434</v>
+      </c>
+      <c r="B972" s="3">
+        <v>29896.63</v>
+      </c>
+      <c r="C972" s="3">
+        <v>31058.06</v>
+      </c>
+    </row>
+    <row r="973" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A973" s="2">
+        <v>44435</v>
+      </c>
+      <c r="B973" s="3">
+        <v>29904.32</v>
+      </c>
+      <c r="C973" s="3">
+        <v>31061.65</v>
+      </c>
+    </row>
+    <row r="974" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A974" s="2">
+        <v>44436</v>
+      </c>
+      <c r="B974" s="3">
+        <v>29912.01</v>
+      </c>
+      <c r="C974" s="3">
+        <v>31065.23</v>
+      </c>
+    </row>
+    <row r="975" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A975" s="2">
+        <v>44437</v>
+      </c>
+      <c r="B975" s="3">
+        <v>29919.7</v>
+      </c>
+      <c r="C975" s="3">
+        <v>31068.82</v>
+      </c>
+    </row>
+    <row r="976" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A976" s="2">
+        <v>44438</v>
+      </c>
+      <c r="B976" s="3">
+        <v>29927.39</v>
+      </c>
+      <c r="C976" s="3">
+        <v>31072.41</v>
+      </c>
+    </row>
+    <row r="977" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A977" s="2">
+        <v>44439</v>
+      </c>
+      <c r="B977" s="3">
+        <v>29935.08</v>
+      </c>
+      <c r="C977" s="3">
+        <v>31076</v>
+      </c>
+    </row>
+    <row r="978" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A978" s="2">
+        <v>44440</v>
+      </c>
+      <c r="B978" s="3">
+        <v>29942.78</v>
+      </c>
+      <c r="C978" s="3">
+        <v>31079.59</v>
+      </c>
+    </row>
+    <row r="979" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A979" s="2">
+        <v>44441</v>
+      </c>
+      <c r="B979" s="3">
+        <v>29950.47</v>
+      </c>
+      <c r="C979" s="3">
+        <v>31083.17</v>
+      </c>
+    </row>
+    <row r="980" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A980" s="2">
+        <v>44442</v>
+      </c>
+      <c r="B980" s="3">
+        <v>29958.17</v>
+      </c>
+      <c r="C980" s="3">
+        <v>31086.76</v>
+      </c>
+    </row>
+    <row r="981" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A981" s="2">
+        <v>44443</v>
+      </c>
+      <c r="B981" s="3">
+        <v>29965.87</v>
+      </c>
+      <c r="C981" s="3">
+        <v>31090.35</v>
+      </c>
+    </row>
+    <row r="982" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A982" s="2">
+        <v>44444</v>
+      </c>
+      <c r="B982" s="3">
+        <v>29973.58</v>
+      </c>
+      <c r="C982" s="3">
+        <v>31093.94</v>
+      </c>
+    </row>
+    <row r="983" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A983" s="2">
+        <v>44445</v>
+      </c>
+      <c r="B983" s="3">
+        <v>29981.279999999999</v>
+      </c>
+      <c r="C983" s="3">
+        <v>31097.53</v>
+      </c>
+    </row>
+    <row r="984" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A984" s="2">
+        <v>44446</v>
+      </c>
+      <c r="B984" s="3">
+        <v>29988.99</v>
+      </c>
+      <c r="C984" s="3">
+        <v>31101.119999999999</v>
+      </c>
+    </row>
+    <row r="985" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A985" s="2">
+        <v>44447</v>
+      </c>
+      <c r="B985" s="3">
+        <v>29996.7</v>
+      </c>
+      <c r="C985" s="3">
+        <v>31104.71</v>
+      </c>
+    </row>
+    <row r="986" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A986" s="2">
+        <v>44448</v>
+      </c>
+      <c r="B986" s="3">
+        <v>30004.41</v>
+      </c>
+      <c r="C986" s="3">
+        <v>31108.31</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:C1"/>
